--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="141">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -798,7 +798,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP38"/>
+  <dimension ref="A1:BP39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1753,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ5">
         <v>3</v>
@@ -2992,7 +2992,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -8630,6 +8630,212 @@
       </c>
       <c r="BP38">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7373211</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45411.83333333334</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+      <c r="G39" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" t="s">
+        <v>86</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39" t="s">
+        <v>95</v>
+      </c>
+      <c r="P39" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q39">
+        <v>3.25</v>
+      </c>
+      <c r="R39">
+        <v>1.91</v>
+      </c>
+      <c r="S39">
+        <v>4</v>
+      </c>
+      <c r="T39">
+        <v>1.57</v>
+      </c>
+      <c r="U39">
+        <v>2.25</v>
+      </c>
+      <c r="V39">
+        <v>3.75</v>
+      </c>
+      <c r="W39">
+        <v>1.25</v>
+      </c>
+      <c r="X39">
+        <v>11</v>
+      </c>
+      <c r="Y39">
+        <v>1.05</v>
+      </c>
+      <c r="Z39">
+        <v>2.45</v>
+      </c>
+      <c r="AA39">
+        <v>2.9</v>
+      </c>
+      <c r="AB39">
+        <v>3.25</v>
+      </c>
+      <c r="AC39">
+        <v>1.06</v>
+      </c>
+      <c r="AD39">
+        <v>6.6</v>
+      </c>
+      <c r="AE39">
+        <v>1.53</v>
+      </c>
+      <c r="AF39">
+        <v>2.38</v>
+      </c>
+      <c r="AG39">
+        <v>2.6</v>
+      </c>
+      <c r="AH39">
+        <v>1.48</v>
+      </c>
+      <c r="AI39">
+        <v>2.2</v>
+      </c>
+      <c r="AJ39">
+        <v>1.62</v>
+      </c>
+      <c r="AK39">
+        <v>1.53</v>
+      </c>
+      <c r="AL39">
+        <v>1.33</v>
+      </c>
+      <c r="AM39">
+        <v>1.4</v>
+      </c>
+      <c r="AN39">
+        <v>0</v>
+      </c>
+      <c r="AO39">
+        <v>3</v>
+      </c>
+      <c r="AP39">
+        <v>0.5</v>
+      </c>
+      <c r="AQ39">
+        <v>2</v>
+      </c>
+      <c r="AR39">
+        <v>1.75</v>
+      </c>
+      <c r="AS39">
+        <v>1.42</v>
+      </c>
+      <c r="AT39">
+        <v>3.17</v>
+      </c>
+      <c r="AU39">
+        <v>2</v>
+      </c>
+      <c r="AV39">
+        <v>4</v>
+      </c>
+      <c r="AW39">
+        <v>8</v>
+      </c>
+      <c r="AX39">
+        <v>3</v>
+      </c>
+      <c r="AY39">
+        <v>10</v>
+      </c>
+      <c r="AZ39">
+        <v>7</v>
+      </c>
+      <c r="BA39">
+        <v>6</v>
+      </c>
+      <c r="BB39">
+        <v>4</v>
+      </c>
+      <c r="BC39">
+        <v>10</v>
+      </c>
+      <c r="BD39">
+        <v>1.97</v>
+      </c>
+      <c r="BE39">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF39">
+        <v>2.2</v>
+      </c>
+      <c r="BG39">
+        <v>1.18</v>
+      </c>
+      <c r="BH39">
+        <v>4</v>
+      </c>
+      <c r="BI39">
+        <v>1.38</v>
+      </c>
+      <c r="BJ39">
+        <v>2.8</v>
+      </c>
+      <c r="BK39">
+        <v>1.91</v>
+      </c>
+      <c r="BL39">
+        <v>2.09</v>
+      </c>
+      <c r="BM39">
+        <v>2.11</v>
+      </c>
+      <c r="BN39">
+        <v>1.65</v>
+      </c>
+      <c r="BO39">
+        <v>2.75</v>
+      </c>
+      <c r="BP39">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="143">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -376,6 +376,9 @@
     <t>['55']</t>
   </si>
   <si>
+    <t>['4', '61']</t>
+  </si>
+  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -437,6 +440,9 @@
   </si>
   <si>
     <t>['50']</t>
+  </si>
+  <si>
+    <t>['73', '79']</t>
   </si>
 </sst>
 </file>
@@ -798,7 +804,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP39"/>
+  <dimension ref="A1:BP40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1057,7 +1063,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1263,7 +1269,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1469,7 +1475,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -1547,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -1675,7 +1681,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -1881,7 +1887,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2168,7 +2174,7 @@
         <v>2</v>
       </c>
       <c r="AQ7">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2499,7 +2505,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2705,7 +2711,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -2911,7 +2917,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3117,7 +3123,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3941,7 +3947,7 @@
         <v>103</v>
       </c>
       <c r="P16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4353,7 +4359,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q18">
         <v>2.3</v>
@@ -4559,7 +4565,7 @@
         <v>105</v>
       </c>
       <c r="P19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -5049,7 +5055,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ21">
         <v>0</v>
@@ -6001,7 +6007,7 @@
         <v>111</v>
       </c>
       <c r="P26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6413,7 +6419,7 @@
         <v>95</v>
       </c>
       <c r="P28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6619,7 +6625,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q29">
         <v>2.38</v>
@@ -6825,7 +6831,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7031,7 +7037,7 @@
         <v>95</v>
       </c>
       <c r="P31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7112,7 +7118,7 @@
         <v>0</v>
       </c>
       <c r="AQ31">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR31">
         <v>0</v>
@@ -7443,7 +7449,7 @@
         <v>95</v>
       </c>
       <c r="P33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7649,7 +7655,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q34">
         <v>2.25</v>
@@ -8267,7 +8273,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8473,7 +8479,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -8836,6 +8842,212 @@
       </c>
       <c r="BP39">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7373218</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45416.66666666666</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>72</v>
+      </c>
+      <c r="H40" t="s">
+        <v>85</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <v>2</v>
+      </c>
+      <c r="N40">
+        <v>4</v>
+      </c>
+      <c r="O40" t="s">
+        <v>120</v>
+      </c>
+      <c r="P40" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q40">
+        <v>4</v>
+      </c>
+      <c r="R40">
+        <v>2.05</v>
+      </c>
+      <c r="S40">
+        <v>3</v>
+      </c>
+      <c r="T40">
+        <v>1.44</v>
+      </c>
+      <c r="U40">
+        <v>2.63</v>
+      </c>
+      <c r="V40">
+        <v>3.4</v>
+      </c>
+      <c r="W40">
+        <v>1.3</v>
+      </c>
+      <c r="X40">
+        <v>10</v>
+      </c>
+      <c r="Y40">
+        <v>1.06</v>
+      </c>
+      <c r="Z40">
+        <v>1.86</v>
+      </c>
+      <c r="AA40">
+        <v>3.35</v>
+      </c>
+      <c r="AB40">
+        <v>3.85</v>
+      </c>
+      <c r="AC40">
+        <v>1.05</v>
+      </c>
+      <c r="AD40">
+        <v>8</v>
+      </c>
+      <c r="AE40">
+        <v>1.36</v>
+      </c>
+      <c r="AF40">
+        <v>2.88</v>
+      </c>
+      <c r="AG40">
+        <v>2.2</v>
+      </c>
+      <c r="AH40">
+        <v>1.55</v>
+      </c>
+      <c r="AI40">
+        <v>1.95</v>
+      </c>
+      <c r="AJ40">
+        <v>1.8</v>
+      </c>
+      <c r="AK40">
+        <v>1.5</v>
+      </c>
+      <c r="AL40">
+        <v>1.35</v>
+      </c>
+      <c r="AM40">
+        <v>1.44</v>
+      </c>
+      <c r="AN40">
+        <v>2</v>
+      </c>
+      <c r="AO40">
+        <v>2</v>
+      </c>
+      <c r="AP40">
+        <v>1.67</v>
+      </c>
+      <c r="AQ40">
+        <v>1.67</v>
+      </c>
+      <c r="AR40">
+        <v>2.22</v>
+      </c>
+      <c r="AS40">
+        <v>1.21</v>
+      </c>
+      <c r="AT40">
+        <v>3.43</v>
+      </c>
+      <c r="AU40">
+        <v>6</v>
+      </c>
+      <c r="AV40">
+        <v>8</v>
+      </c>
+      <c r="AW40">
+        <v>5</v>
+      </c>
+      <c r="AX40">
+        <v>12</v>
+      </c>
+      <c r="AY40">
+        <v>11</v>
+      </c>
+      <c r="AZ40">
+        <v>20</v>
+      </c>
+      <c r="BA40">
+        <v>4</v>
+      </c>
+      <c r="BB40">
+        <v>11</v>
+      </c>
+      <c r="BC40">
+        <v>15</v>
+      </c>
+      <c r="BD40">
+        <v>2.2</v>
+      </c>
+      <c r="BE40">
+        <v>7.5</v>
+      </c>
+      <c r="BF40">
+        <v>1.88</v>
+      </c>
+      <c r="BG40">
+        <v>1.26</v>
+      </c>
+      <c r="BH40">
+        <v>3.2</v>
+      </c>
+      <c r="BI40">
+        <v>1.49</v>
+      </c>
+      <c r="BJ40">
+        <v>2.35</v>
+      </c>
+      <c r="BK40">
+        <v>2.1</v>
+      </c>
+      <c r="BL40">
+        <v>1.85</v>
+      </c>
+      <c r="BM40">
+        <v>2.32</v>
+      </c>
+      <c r="BN40">
+        <v>1.5</v>
+      </c>
+      <c r="BO40">
+        <v>3</v>
+      </c>
+      <c r="BP40">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="144">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -377,6 +377,9 @@
   </si>
   <si>
     <t>['4', '61']</t>
+  </si>
+  <si>
+    <t>['30']</t>
   </si>
   <si>
     <t>['70']</t>
@@ -804,7 +807,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP40"/>
+  <dimension ref="A1:BP42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1063,7 +1066,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1269,7 +1272,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1475,7 +1478,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -1681,7 +1684,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -1762,7 +1765,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1887,7 +1890,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2171,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ7">
         <v>1.67</v>
@@ -2505,7 +2508,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2586,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="AQ9">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2711,7 +2714,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -2917,7 +2920,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3123,7 +3126,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3613,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ14">
         <v>0</v>
@@ -3947,7 +3950,7 @@
         <v>103</v>
       </c>
       <c r="P16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4359,7 +4362,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q18">
         <v>2.3</v>
@@ -4565,7 +4568,7 @@
         <v>105</v>
       </c>
       <c r="P19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -5261,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ22">
         <v>0</v>
@@ -5882,7 +5885,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ25">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR25">
         <v>1.49</v>
@@ -6007,7 +6010,7 @@
         <v>111</v>
       </c>
       <c r="P26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6419,7 +6422,7 @@
         <v>95</v>
       </c>
       <c r="P28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6625,7 +6628,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q29">
         <v>2.38</v>
@@ -6831,7 +6834,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7037,7 +7040,7 @@
         <v>95</v>
       </c>
       <c r="P31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7449,7 +7452,7 @@
         <v>95</v>
       </c>
       <c r="P33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7655,7 +7658,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q34">
         <v>2.25</v>
@@ -7939,7 +7942,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ35">
         <v>0</v>
@@ -8273,7 +8276,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8479,7 +8482,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -8891,7 +8894,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8990,16 +8993,16 @@
         <v>8</v>
       </c>
       <c r="AW40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX40">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AY40">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ40">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="BA40">
         <v>4</v>
@@ -9048,6 +9051,418 @@
       </c>
       <c r="BP40">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7373221</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45416.77083333334</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>82</v>
+      </c>
+      <c r="H41" t="s">
+        <v>87</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>2</v>
+      </c>
+      <c r="O41" t="s">
+        <v>121</v>
+      </c>
+      <c r="P41" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q41">
+        <v>3.6</v>
+      </c>
+      <c r="R41">
+        <v>2.05</v>
+      </c>
+      <c r="S41">
+        <v>3.2</v>
+      </c>
+      <c r="T41">
+        <v>1.44</v>
+      </c>
+      <c r="U41">
+        <v>2.63</v>
+      </c>
+      <c r="V41">
+        <v>3.25</v>
+      </c>
+      <c r="W41">
+        <v>1.33</v>
+      </c>
+      <c r="X41">
+        <v>9</v>
+      </c>
+      <c r="Y41">
+        <v>1.07</v>
+      </c>
+      <c r="Z41">
+        <v>2.96</v>
+      </c>
+      <c r="AA41">
+        <v>3.2</v>
+      </c>
+      <c r="AB41">
+        <v>2.25</v>
+      </c>
+      <c r="AC41">
+        <v>1.04</v>
+      </c>
+      <c r="AD41">
+        <v>8.5</v>
+      </c>
+      <c r="AE41">
+        <v>1.33</v>
+      </c>
+      <c r="AF41">
+        <v>3</v>
+      </c>
+      <c r="AG41">
+        <v>2.15</v>
+      </c>
+      <c r="AH41">
+        <v>1.58</v>
+      </c>
+      <c r="AI41">
+        <v>1.91</v>
+      </c>
+      <c r="AJ41">
+        <v>1.91</v>
+      </c>
+      <c r="AK41">
+        <v>1.62</v>
+      </c>
+      <c r="AL41">
+        <v>1.33</v>
+      </c>
+      <c r="AM41">
+        <v>1.38</v>
+      </c>
+      <c r="AN41">
+        <v>3</v>
+      </c>
+      <c r="AO41">
+        <v>2</v>
+      </c>
+      <c r="AP41">
+        <v>2.33</v>
+      </c>
+      <c r="AQ41">
+        <v>1.67</v>
+      </c>
+      <c r="AR41">
+        <v>1.4</v>
+      </c>
+      <c r="AS41">
+        <v>1.1</v>
+      </c>
+      <c r="AT41">
+        <v>2.5</v>
+      </c>
+      <c r="AU41">
+        <v>4</v>
+      </c>
+      <c r="AV41">
+        <v>7</v>
+      </c>
+      <c r="AW41">
+        <v>5</v>
+      </c>
+      <c r="AX41">
+        <v>6</v>
+      </c>
+      <c r="AY41">
+        <v>9</v>
+      </c>
+      <c r="AZ41">
+        <v>13</v>
+      </c>
+      <c r="BA41">
+        <v>8</v>
+      </c>
+      <c r="BB41">
+        <v>4</v>
+      </c>
+      <c r="BC41">
+        <v>12</v>
+      </c>
+      <c r="BD41">
+        <v>2.07</v>
+      </c>
+      <c r="BE41">
+        <v>8</v>
+      </c>
+      <c r="BF41">
+        <v>1.97</v>
+      </c>
+      <c r="BG41">
+        <v>1.21</v>
+      </c>
+      <c r="BH41">
+        <v>3.65</v>
+      </c>
+      <c r="BI41">
+        <v>1.38</v>
+      </c>
+      <c r="BJ41">
+        <v>2.65</v>
+      </c>
+      <c r="BK41">
+        <v>1.68</v>
+      </c>
+      <c r="BL41">
+        <v>2.02</v>
+      </c>
+      <c r="BM41">
+        <v>2.08</v>
+      </c>
+      <c r="BN41">
+        <v>1.64</v>
+      </c>
+      <c r="BO41">
+        <v>2.65</v>
+      </c>
+      <c r="BP41">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7373220</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45416.875</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>75</v>
+      </c>
+      <c r="H42" t="s">
+        <v>84</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42" t="s">
+        <v>95</v>
+      </c>
+      <c r="P42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q42">
+        <v>3.1</v>
+      </c>
+      <c r="R42">
+        <v>1.91</v>
+      </c>
+      <c r="S42">
+        <v>4.33</v>
+      </c>
+      <c r="T42">
+        <v>1.53</v>
+      </c>
+      <c r="U42">
+        <v>2.38</v>
+      </c>
+      <c r="V42">
+        <v>3.5</v>
+      </c>
+      <c r="W42">
+        <v>1.29</v>
+      </c>
+      <c r="X42">
+        <v>11</v>
+      </c>
+      <c r="Y42">
+        <v>1.05</v>
+      </c>
+      <c r="Z42">
+        <v>2.25</v>
+      </c>
+      <c r="AA42">
+        <v>3.2</v>
+      </c>
+      <c r="AB42">
+        <v>3.5</v>
+      </c>
+      <c r="AC42">
+        <v>1.08</v>
+      </c>
+      <c r="AD42">
+        <v>6.5</v>
+      </c>
+      <c r="AE42">
+        <v>1.44</v>
+      </c>
+      <c r="AF42">
+        <v>2.6</v>
+      </c>
+      <c r="AG42">
+        <v>2.6</v>
+      </c>
+      <c r="AH42">
+        <v>1.48</v>
+      </c>
+      <c r="AI42">
+        <v>2.2</v>
+      </c>
+      <c r="AJ42">
+        <v>1.62</v>
+      </c>
+      <c r="AK42">
+        <v>1.29</v>
+      </c>
+      <c r="AL42">
+        <v>1.35</v>
+      </c>
+      <c r="AM42">
+        <v>1.73</v>
+      </c>
+      <c r="AN42">
+        <v>2</v>
+      </c>
+      <c r="AO42">
+        <v>3</v>
+      </c>
+      <c r="AP42">
+        <v>1.67</v>
+      </c>
+      <c r="AQ42">
+        <v>2</v>
+      </c>
+      <c r="AR42">
+        <v>1.3</v>
+      </c>
+      <c r="AS42">
+        <v>0.8</v>
+      </c>
+      <c r="AT42">
+        <v>2.1</v>
+      </c>
+      <c r="AU42">
+        <v>10</v>
+      </c>
+      <c r="AV42">
+        <v>3</v>
+      </c>
+      <c r="AW42">
+        <v>6</v>
+      </c>
+      <c r="AX42">
+        <v>4</v>
+      </c>
+      <c r="AY42">
+        <v>16</v>
+      </c>
+      <c r="AZ42">
+        <v>7</v>
+      </c>
+      <c r="BA42">
+        <v>9</v>
+      </c>
+      <c r="BB42">
+        <v>5</v>
+      </c>
+      <c r="BC42">
+        <v>14</v>
+      </c>
+      <c r="BD42">
+        <v>1.61</v>
+      </c>
+      <c r="BE42">
+        <v>8</v>
+      </c>
+      <c r="BF42">
+        <v>2.75</v>
+      </c>
+      <c r="BG42">
+        <v>1.28</v>
+      </c>
+      <c r="BH42">
+        <v>3.1</v>
+      </c>
+      <c r="BI42">
+        <v>1.5</v>
+      </c>
+      <c r="BJ42">
+        <v>2.3</v>
+      </c>
+      <c r="BK42">
+        <v>2.1</v>
+      </c>
+      <c r="BL42">
+        <v>1.81</v>
+      </c>
+      <c r="BM42">
+        <v>2.35</v>
+      </c>
+      <c r="BN42">
+        <v>1.48</v>
+      </c>
+      <c r="BO42">
+        <v>3.1</v>
+      </c>
+      <c r="BP42">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="149">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -382,6 +382,12 @@
     <t>['30']</t>
   </si>
   <si>
+    <t>['26']</t>
+  </si>
+  <si>
+    <t>['49']</t>
+  </si>
+  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -446,6 +452,15 @@
   </si>
   <si>
     <t>['73', '79']</t>
+  </si>
+  <si>
+    <t>['45', '53', '84']</t>
+  </si>
+  <si>
+    <t>['45+3', '86']</t>
+  </si>
+  <si>
+    <t>['45+1', '71']</t>
   </si>
 </sst>
 </file>
@@ -807,7 +822,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP42"/>
+  <dimension ref="A1:BP46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1066,7 +1081,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1147,7 +1162,7 @@
         <v>2</v>
       </c>
       <c r="AQ2">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1272,7 +1287,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1478,7 +1493,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -1684,7 +1699,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -1890,7 +1905,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2508,7 +2523,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2714,7 +2729,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -2920,7 +2935,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -2998,10 +3013,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3126,7 +3141,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3950,7 +3965,7 @@
         <v>103</v>
       </c>
       <c r="P16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4362,7 +4377,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q18">
         <v>2.3</v>
@@ -4568,7 +4583,7 @@
         <v>105</v>
       </c>
       <c r="P19" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -4649,7 +4664,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ19">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4852,7 +4867,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
         <v>0.5</v>
@@ -6010,7 +6025,7 @@
         <v>111</v>
       </c>
       <c r="P26" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6088,10 +6103,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ26">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR26">
         <v>1.33</v>
@@ -6422,7 +6437,7 @@
         <v>95</v>
       </c>
       <c r="P28" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6503,7 +6518,7 @@
         <v>0</v>
       </c>
       <c r="AQ28">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR28">
         <v>1.21</v>
@@ -6628,7 +6643,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q29">
         <v>2.38</v>
@@ -6706,7 +6721,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
         <v>0.5</v>
@@ -6834,7 +6849,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7040,7 +7055,7 @@
         <v>95</v>
       </c>
       <c r="P31" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7452,7 +7467,7 @@
         <v>95</v>
       </c>
       <c r="P33" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7658,7 +7673,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q34">
         <v>2.25</v>
@@ -8276,7 +8291,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8482,7 +8497,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -8769,7 +8784,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ39">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR39">
         <v>1.75</v>
@@ -8894,7 +8909,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9100,7 +9115,7 @@
         <v>121</v>
       </c>
       <c r="P41" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9463,6 +9478,830 @@
       </c>
       <c r="BP42">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7373222</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45417.66666666666</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" t="s">
+        <v>74</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43" t="s">
+        <v>122</v>
+      </c>
+      <c r="P43" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q43">
+        <v>2.38</v>
+      </c>
+      <c r="R43">
+        <v>2.1</v>
+      </c>
+      <c r="S43">
+        <v>5.5</v>
+      </c>
+      <c r="T43">
+        <v>1.4</v>
+      </c>
+      <c r="U43">
+        <v>2.75</v>
+      </c>
+      <c r="V43">
+        <v>3</v>
+      </c>
+      <c r="W43">
+        <v>1.36</v>
+      </c>
+      <c r="X43">
+        <v>9</v>
+      </c>
+      <c r="Y43">
+        <v>1.07</v>
+      </c>
+      <c r="Z43">
+        <v>1.67</v>
+      </c>
+      <c r="AA43">
+        <v>3.6</v>
+      </c>
+      <c r="AB43">
+        <v>5</v>
+      </c>
+      <c r="AC43">
+        <v>1.05</v>
+      </c>
+      <c r="AD43">
+        <v>9</v>
+      </c>
+      <c r="AE43">
+        <v>1.33</v>
+      </c>
+      <c r="AF43">
+        <v>3.2</v>
+      </c>
+      <c r="AG43">
+        <v>2.04</v>
+      </c>
+      <c r="AH43">
+        <v>1.73</v>
+      </c>
+      <c r="AI43">
+        <v>2.05</v>
+      </c>
+      <c r="AJ43">
+        <v>1.7</v>
+      </c>
+      <c r="AK43">
+        <v>1.15</v>
+      </c>
+      <c r="AL43">
+        <v>1.25</v>
+      </c>
+      <c r="AM43">
+        <v>2.3</v>
+      </c>
+      <c r="AN43">
+        <v>3</v>
+      </c>
+      <c r="AO43">
+        <v>0</v>
+      </c>
+      <c r="AP43">
+        <v>3</v>
+      </c>
+      <c r="AQ43">
+        <v>0</v>
+      </c>
+      <c r="AR43">
+        <v>1.32</v>
+      </c>
+      <c r="AS43">
+        <v>1.5</v>
+      </c>
+      <c r="AT43">
+        <v>2.82</v>
+      </c>
+      <c r="AU43">
+        <v>8</v>
+      </c>
+      <c r="AV43">
+        <v>2</v>
+      </c>
+      <c r="AW43">
+        <v>13</v>
+      </c>
+      <c r="AX43">
+        <v>6</v>
+      </c>
+      <c r="AY43">
+        <v>21</v>
+      </c>
+      <c r="AZ43">
+        <v>8</v>
+      </c>
+      <c r="BA43">
+        <v>6</v>
+      </c>
+      <c r="BB43">
+        <v>5</v>
+      </c>
+      <c r="BC43">
+        <v>11</v>
+      </c>
+      <c r="BD43">
+        <v>1.49</v>
+      </c>
+      <c r="BE43">
+        <v>8.5</v>
+      </c>
+      <c r="BF43">
+        <v>3.15</v>
+      </c>
+      <c r="BG43">
+        <v>1.21</v>
+      </c>
+      <c r="BH43">
+        <v>3.65</v>
+      </c>
+      <c r="BI43">
+        <v>1.38</v>
+      </c>
+      <c r="BJ43">
+        <v>2.63</v>
+      </c>
+      <c r="BK43">
+        <v>2.1</v>
+      </c>
+      <c r="BL43">
+        <v>2.02</v>
+      </c>
+      <c r="BM43">
+        <v>2.08</v>
+      </c>
+      <c r="BN43">
+        <v>1.64</v>
+      </c>
+      <c r="BO43">
+        <v>2.65</v>
+      </c>
+      <c r="BP43">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7373217</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45417.66666666666</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44" t="s">
+        <v>79</v>
+      </c>
+      <c r="H44" t="s">
+        <v>73</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>3</v>
+      </c>
+      <c r="N44">
+        <v>4</v>
+      </c>
+      <c r="O44" t="s">
+        <v>123</v>
+      </c>
+      <c r="P44" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q44">
+        <v>4.33</v>
+      </c>
+      <c r="R44">
+        <v>1.95</v>
+      </c>
+      <c r="S44">
+        <v>3</v>
+      </c>
+      <c r="T44">
+        <v>1.53</v>
+      </c>
+      <c r="U44">
+        <v>2.38</v>
+      </c>
+      <c r="V44">
+        <v>3.75</v>
+      </c>
+      <c r="W44">
+        <v>1.25</v>
+      </c>
+      <c r="X44">
+        <v>11</v>
+      </c>
+      <c r="Y44">
+        <v>1.05</v>
+      </c>
+      <c r="Z44">
+        <v>3.7</v>
+      </c>
+      <c r="AA44">
+        <v>2.9</v>
+      </c>
+      <c r="AB44">
+        <v>2.18</v>
+      </c>
+      <c r="AC44">
+        <v>1.1</v>
+      </c>
+      <c r="AD44">
+        <v>7.5</v>
+      </c>
+      <c r="AE44">
+        <v>1.5</v>
+      </c>
+      <c r="AF44">
+        <v>2.6</v>
+      </c>
+      <c r="AG44">
+        <v>2.27</v>
+      </c>
+      <c r="AH44">
+        <v>1.59</v>
+      </c>
+      <c r="AI44">
+        <v>2.05</v>
+      </c>
+      <c r="AJ44">
+        <v>1.7</v>
+      </c>
+      <c r="AK44">
+        <v>1.65</v>
+      </c>
+      <c r="AL44">
+        <v>1.3</v>
+      </c>
+      <c r="AM44">
+        <v>1.33</v>
+      </c>
+      <c r="AN44">
+        <v>0.5</v>
+      </c>
+      <c r="AO44">
+        <v>1.5</v>
+      </c>
+      <c r="AP44">
+        <v>0.33</v>
+      </c>
+      <c r="AQ44">
+        <v>2</v>
+      </c>
+      <c r="AR44">
+        <v>1.47</v>
+      </c>
+      <c r="AS44">
+        <v>1.35</v>
+      </c>
+      <c r="AT44">
+        <v>2.82</v>
+      </c>
+      <c r="AU44">
+        <v>3</v>
+      </c>
+      <c r="AV44">
+        <v>8</v>
+      </c>
+      <c r="AW44">
+        <v>2</v>
+      </c>
+      <c r="AX44">
+        <v>8</v>
+      </c>
+      <c r="AY44">
+        <v>5</v>
+      </c>
+      <c r="AZ44">
+        <v>16</v>
+      </c>
+      <c r="BA44">
+        <v>3</v>
+      </c>
+      <c r="BB44">
+        <v>8</v>
+      </c>
+      <c r="BC44">
+        <v>11</v>
+      </c>
+      <c r="BD44">
+        <v>2.23</v>
+      </c>
+      <c r="BE44">
+        <v>7.5</v>
+      </c>
+      <c r="BF44">
+        <v>1.87</v>
+      </c>
+      <c r="BG44">
+        <v>1.27</v>
+      </c>
+      <c r="BH44">
+        <v>3.15</v>
+      </c>
+      <c r="BI44">
+        <v>1.5</v>
+      </c>
+      <c r="BJ44">
+        <v>2.32</v>
+      </c>
+      <c r="BK44">
+        <v>2.38</v>
+      </c>
+      <c r="BL44">
+        <v>1.81</v>
+      </c>
+      <c r="BM44">
+        <v>2.38</v>
+      </c>
+      <c r="BN44">
+        <v>1.48</v>
+      </c>
+      <c r="BO44">
+        <v>3.1</v>
+      </c>
+      <c r="BP44">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7373219</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45417.77083333334</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="G45" t="s">
+        <v>88</v>
+      </c>
+      <c r="H45" t="s">
+        <v>80</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>2</v>
+      </c>
+      <c r="N45">
+        <v>3</v>
+      </c>
+      <c r="O45" t="s">
+        <v>97</v>
+      </c>
+      <c r="P45" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q45">
+        <v>2.88</v>
+      </c>
+      <c r="R45">
+        <v>2.2</v>
+      </c>
+      <c r="S45">
+        <v>3.75</v>
+      </c>
+      <c r="T45">
+        <v>1.4</v>
+      </c>
+      <c r="U45">
+        <v>2.75</v>
+      </c>
+      <c r="V45">
+        <v>2.75</v>
+      </c>
+      <c r="W45">
+        <v>1.4</v>
+      </c>
+      <c r="X45">
+        <v>8</v>
+      </c>
+      <c r="Y45">
+        <v>1.08</v>
+      </c>
+      <c r="Z45">
+        <v>1.81</v>
+      </c>
+      <c r="AA45">
+        <v>3.45</v>
+      </c>
+      <c r="AB45">
+        <v>4.3</v>
+      </c>
+      <c r="AC45">
+        <v>1.05</v>
+      </c>
+      <c r="AD45">
+        <v>11</v>
+      </c>
+      <c r="AE45">
+        <v>1.29</v>
+      </c>
+      <c r="AF45">
+        <v>3.4</v>
+      </c>
+      <c r="AG45">
+        <v>2.05</v>
+      </c>
+      <c r="AH45">
+        <v>1.67</v>
+      </c>
+      <c r="AI45">
+        <v>1.75</v>
+      </c>
+      <c r="AJ45">
+        <v>2</v>
+      </c>
+      <c r="AK45">
+        <v>1.25</v>
+      </c>
+      <c r="AL45">
+        <v>1.29</v>
+      </c>
+      <c r="AM45">
+        <v>1.91</v>
+      </c>
+      <c r="AN45">
+        <v>3</v>
+      </c>
+      <c r="AO45">
+        <v>0.5</v>
+      </c>
+      <c r="AP45">
+        <v>2</v>
+      </c>
+      <c r="AQ45">
+        <v>1.33</v>
+      </c>
+      <c r="AR45">
+        <v>1.46</v>
+      </c>
+      <c r="AS45">
+        <v>1.42</v>
+      </c>
+      <c r="AT45">
+        <v>2.88</v>
+      </c>
+      <c r="AU45">
+        <v>7</v>
+      </c>
+      <c r="AV45">
+        <v>5</v>
+      </c>
+      <c r="AW45">
+        <v>10</v>
+      </c>
+      <c r="AX45">
+        <v>5</v>
+      </c>
+      <c r="AY45">
+        <v>17</v>
+      </c>
+      <c r="AZ45">
+        <v>10</v>
+      </c>
+      <c r="BA45">
+        <v>5</v>
+      </c>
+      <c r="BB45">
+        <v>1</v>
+      </c>
+      <c r="BC45">
+        <v>6</v>
+      </c>
+      <c r="BD45">
+        <v>1.9</v>
+      </c>
+      <c r="BE45">
+        <v>7.5</v>
+      </c>
+      <c r="BF45">
+        <v>2.17</v>
+      </c>
+      <c r="BG45">
+        <v>1.22</v>
+      </c>
+      <c r="BH45">
+        <v>3.5</v>
+      </c>
+      <c r="BI45">
+        <v>1.42</v>
+      </c>
+      <c r="BJ45">
+        <v>2.55</v>
+      </c>
+      <c r="BK45">
+        <v>2.38</v>
+      </c>
+      <c r="BL45">
+        <v>1.97</v>
+      </c>
+      <c r="BM45">
+        <v>2.14</v>
+      </c>
+      <c r="BN45">
+        <v>1.6</v>
+      </c>
+      <c r="BO45">
+        <v>2.75</v>
+      </c>
+      <c r="BP45">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7373223</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45417.77083333334</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46" t="s">
+        <v>89</v>
+      </c>
+      <c r="H46" t="s">
+        <v>86</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>2</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46" t="s">
+        <v>95</v>
+      </c>
+      <c r="P46" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q46">
+        <v>6</v>
+      </c>
+      <c r="R46">
+        <v>1.95</v>
+      </c>
+      <c r="S46">
+        <v>2.5</v>
+      </c>
+      <c r="T46">
+        <v>1.53</v>
+      </c>
+      <c r="U46">
+        <v>2.38</v>
+      </c>
+      <c r="V46">
+        <v>3.5</v>
+      </c>
+      <c r="W46">
+        <v>1.29</v>
+      </c>
+      <c r="X46">
+        <v>11</v>
+      </c>
+      <c r="Y46">
+        <v>1.05</v>
+      </c>
+      <c r="Z46">
+        <v>3.96</v>
+      </c>
+      <c r="AA46">
+        <v>3.35</v>
+      </c>
+      <c r="AB46">
+        <v>1.91</v>
+      </c>
+      <c r="AC46">
+        <v>1.09</v>
+      </c>
+      <c r="AD46">
+        <v>8</v>
+      </c>
+      <c r="AE46">
+        <v>1.47</v>
+      </c>
+      <c r="AF46">
+        <v>2.7</v>
+      </c>
+      <c r="AG46">
+        <v>2.26</v>
+      </c>
+      <c r="AH46">
+        <v>1.54</v>
+      </c>
+      <c r="AI46">
+        <v>2.25</v>
+      </c>
+      <c r="AJ46">
+        <v>1.57</v>
+      </c>
+      <c r="AK46">
+        <v>2.05</v>
+      </c>
+      <c r="AL46">
+        <v>1.25</v>
+      </c>
+      <c r="AM46">
+        <v>1.17</v>
+      </c>
+      <c r="AN46">
+        <v>0</v>
+      </c>
+      <c r="AO46">
+        <v>2</v>
+      </c>
+      <c r="AP46">
+        <v>0</v>
+      </c>
+      <c r="AQ46">
+        <v>2.33</v>
+      </c>
+      <c r="AR46">
+        <v>0.52</v>
+      </c>
+      <c r="AS46">
+        <v>1.18</v>
+      </c>
+      <c r="AT46">
+        <v>1.7</v>
+      </c>
+      <c r="AU46">
+        <v>2</v>
+      </c>
+      <c r="AV46">
+        <v>7</v>
+      </c>
+      <c r="AW46">
+        <v>6</v>
+      </c>
+      <c r="AX46">
+        <v>6</v>
+      </c>
+      <c r="AY46">
+        <v>8</v>
+      </c>
+      <c r="AZ46">
+        <v>13</v>
+      </c>
+      <c r="BA46">
+        <v>6</v>
+      </c>
+      <c r="BB46">
+        <v>6</v>
+      </c>
+      <c r="BC46">
+        <v>12</v>
+      </c>
+      <c r="BD46">
+        <v>2.95</v>
+      </c>
+      <c r="BE46">
+        <v>8</v>
+      </c>
+      <c r="BF46">
+        <v>1.54</v>
+      </c>
+      <c r="BG46">
+        <v>1.28</v>
+      </c>
+      <c r="BH46">
+        <v>3.1</v>
+      </c>
+      <c r="BI46">
+        <v>1.52</v>
+      </c>
+      <c r="BJ46">
+        <v>2.28</v>
+      </c>
+      <c r="BK46">
+        <v>2.2</v>
+      </c>
+      <c r="BL46">
+        <v>1.8</v>
+      </c>
+      <c r="BM46">
+        <v>2.4</v>
+      </c>
+      <c r="BN46">
+        <v>1.47</v>
+      </c>
+      <c r="BO46">
+        <v>3.15</v>
+      </c>
+      <c r="BP46">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -9829,7 +9829,7 @@
         <v>3</v>
       </c>
       <c r="AV44">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW44">
         <v>2</v>
@@ -9841,7 +9841,7 @@
         <v>5</v>
       </c>
       <c r="AZ44">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA44">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="150">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -386,6 +386,9 @@
   </si>
   <si>
     <t>['49']</t>
+  </si>
+  <si>
+    <t>['20', '63']</t>
   </si>
   <si>
     <t>['70']</t>
@@ -822,7 +825,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP46"/>
+  <dimension ref="A1:BP47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1081,7 +1084,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1287,7 +1290,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1493,7 +1496,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -1699,7 +1702,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -1905,7 +1908,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2523,7 +2526,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2729,7 +2732,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -2935,7 +2938,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3141,7 +3144,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3965,7 +3968,7 @@
         <v>103</v>
       </c>
       <c r="P16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4377,7 +4380,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q18">
         <v>2.3</v>
@@ -4583,7 +4586,7 @@
         <v>105</v>
       </c>
       <c r="P19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -4661,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ19">
         <v>2</v>
@@ -6025,7 +6028,7 @@
         <v>111</v>
       </c>
       <c r="P26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6437,7 +6440,7 @@
         <v>95</v>
       </c>
       <c r="P28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6643,7 +6646,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q29">
         <v>2.38</v>
@@ -6849,7 +6852,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7055,7 +7058,7 @@
         <v>95</v>
       </c>
       <c r="P31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7467,7 +7470,7 @@
         <v>95</v>
       </c>
       <c r="P33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7545,7 +7548,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ33">
         <v>1.5</v>
@@ -7673,7 +7676,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q34">
         <v>2.25</v>
@@ -8291,7 +8294,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8497,7 +8500,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -8909,7 +8912,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9115,7 +9118,7 @@
         <v>121</v>
       </c>
       <c r="P41" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9733,7 +9736,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -9939,7 +9942,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10145,7 +10148,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10302,6 +10305,212 @@
       </c>
       <c r="BP46">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7373228</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45423.66666666666</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="G47" t="s">
+        <v>87</v>
+      </c>
+      <c r="H47" t="s">
+        <v>75</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>2</v>
+      </c>
+      <c r="O47" t="s">
+        <v>124</v>
+      </c>
+      <c r="P47" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q47">
+        <v>2.25</v>
+      </c>
+      <c r="R47">
+        <v>2.2</v>
+      </c>
+      <c r="S47">
+        <v>6</v>
+      </c>
+      <c r="T47">
+        <v>1.44</v>
+      </c>
+      <c r="U47">
+        <v>2.63</v>
+      </c>
+      <c r="V47">
+        <v>3.25</v>
+      </c>
+      <c r="W47">
+        <v>1.33</v>
+      </c>
+      <c r="X47">
+        <v>10</v>
+      </c>
+      <c r="Y47">
+        <v>1.06</v>
+      </c>
+      <c r="Z47">
+        <v>1.6</v>
+      </c>
+      <c r="AA47">
+        <v>3.8</v>
+      </c>
+      <c r="AB47">
+        <v>6.25</v>
+      </c>
+      <c r="AC47">
+        <v>1.09</v>
+      </c>
+      <c r="AD47">
+        <v>8.6</v>
+      </c>
+      <c r="AE47">
+        <v>1.38</v>
+      </c>
+      <c r="AF47">
+        <v>3</v>
+      </c>
+      <c r="AG47">
+        <v>2.15</v>
+      </c>
+      <c r="AH47">
+        <v>1.7</v>
+      </c>
+      <c r="AI47">
+        <v>2.05</v>
+      </c>
+      <c r="AJ47">
+        <v>1.7</v>
+      </c>
+      <c r="AK47">
+        <v>1.13</v>
+      </c>
+      <c r="AL47">
+        <v>1.2</v>
+      </c>
+      <c r="AM47">
+        <v>2.3</v>
+      </c>
+      <c r="AN47">
+        <v>1.5</v>
+      </c>
+      <c r="AO47">
+        <v>0</v>
+      </c>
+      <c r="AP47">
+        <v>2</v>
+      </c>
+      <c r="AQ47">
+        <v>0</v>
+      </c>
+      <c r="AR47">
+        <v>1.36</v>
+      </c>
+      <c r="AS47">
+        <v>1.47</v>
+      </c>
+      <c r="AT47">
+        <v>2.83</v>
+      </c>
+      <c r="AU47">
+        <v>10</v>
+      </c>
+      <c r="AV47">
+        <v>4</v>
+      </c>
+      <c r="AW47">
+        <v>9</v>
+      </c>
+      <c r="AX47">
+        <v>9</v>
+      </c>
+      <c r="AY47">
+        <v>19</v>
+      </c>
+      <c r="AZ47">
+        <v>13</v>
+      </c>
+      <c r="BA47">
+        <v>13</v>
+      </c>
+      <c r="BB47">
+        <v>6</v>
+      </c>
+      <c r="BC47">
+        <v>19</v>
+      </c>
+      <c r="BD47">
+        <v>1.4</v>
+      </c>
+      <c r="BE47">
+        <v>9</v>
+      </c>
+      <c r="BF47">
+        <v>3.6</v>
+      </c>
+      <c r="BG47">
+        <v>1.24</v>
+      </c>
+      <c r="BH47">
+        <v>3.3</v>
+      </c>
+      <c r="BI47">
+        <v>1.46</v>
+      </c>
+      <c r="BJ47">
+        <v>2.43</v>
+      </c>
+      <c r="BK47">
+        <v>2.2</v>
+      </c>
+      <c r="BL47">
+        <v>1.9</v>
+      </c>
+      <c r="BM47">
+        <v>2.23</v>
+      </c>
+      <c r="BN47">
+        <v>1.55</v>
+      </c>
+      <c r="BO47">
+        <v>2.9</v>
+      </c>
+      <c r="BP47">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -10453,16 +10453,16 @@
         <v>4</v>
       </c>
       <c r="AW47">
+        <v>4</v>
+      </c>
+      <c r="AX47">
+        <v>5</v>
+      </c>
+      <c r="AY47">
+        <v>14</v>
+      </c>
+      <c r="AZ47">
         <v>9</v>
-      </c>
-      <c r="AX47">
-        <v>9</v>
-      </c>
-      <c r="AY47">
-        <v>19</v>
-      </c>
-      <c r="AZ47">
-        <v>13</v>
       </c>
       <c r="BA47">
         <v>13</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="156">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -391,6 +391,15 @@
     <t>['20', '63']</t>
   </si>
   <si>
+    <t>['10']</t>
+  </si>
+  <si>
+    <t>['37']</t>
+  </si>
+  <si>
+    <t>['50', '56']</t>
+  </si>
+  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -464,6 +473,15 @@
   </si>
   <si>
     <t>['45+1', '71']</t>
+  </si>
+  <si>
+    <t>['45+9', '59']</t>
+  </si>
+  <si>
+    <t>['41']</t>
+  </si>
+  <si>
+    <t>['81']</t>
   </si>
 </sst>
 </file>
@@ -825,7 +843,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP47"/>
+  <dimension ref="A1:BP52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1084,7 +1102,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1290,7 +1308,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1496,7 +1514,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -1577,7 +1595,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1702,7 +1720,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -1908,7 +1926,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -1986,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>0</v>
@@ -2526,7 +2544,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2732,7 +2750,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -2813,7 +2831,7 @@
         <v>3</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2938,7 +2956,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3144,7 +3162,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3431,7 +3449,7 @@
         <v>3</v>
       </c>
       <c r="AQ13">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3968,7 +3986,7 @@
         <v>103</v>
       </c>
       <c r="P16" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4049,7 +4067,7 @@
         <v>1</v>
       </c>
       <c r="AQ16">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4380,7 +4398,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q18">
         <v>2.3</v>
@@ -4458,7 +4476,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ18">
         <v>1.5</v>
@@ -4586,7 +4604,7 @@
         <v>105</v>
       </c>
       <c r="P19" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -5697,7 +5715,7 @@
         <v>2</v>
       </c>
       <c r="AQ24">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR24">
         <v>1.95</v>
@@ -5900,7 +5918,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ25">
         <v>1.67</v>
@@ -6028,7 +6046,7 @@
         <v>111</v>
       </c>
       <c r="P26" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6440,7 +6458,7 @@
         <v>95</v>
       </c>
       <c r="P28" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6646,7 +6664,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q29">
         <v>2.38</v>
@@ -6852,7 +6870,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -6930,7 +6948,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ30">
         <v>2</v>
@@ -7058,7 +7076,7 @@
         <v>95</v>
       </c>
       <c r="P31" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7470,7 +7488,7 @@
         <v>95</v>
       </c>
       <c r="P33" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7551,7 +7569,7 @@
         <v>2</v>
       </c>
       <c r="AQ33">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR33">
         <v>1.46</v>
@@ -7676,7 +7694,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q34">
         <v>2.25</v>
@@ -8169,7 +8187,7 @@
         <v>1</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR36">
         <v>1.19</v>
@@ -8294,7 +8312,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8375,7 +8393,7 @@
         <v>2</v>
       </c>
       <c r="AQ37">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR37">
         <v>1.65</v>
@@ -8500,7 +8518,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -8912,7 +8930,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9118,7 +9136,7 @@
         <v>121</v>
       </c>
       <c r="P41" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9736,7 +9754,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -9942,7 +9960,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10148,7 +10166,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10511,6 +10529,1036 @@
       </c>
       <c r="BP47">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7373230</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45424.66666666666</v>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+      <c r="G48" t="s">
+        <v>86</v>
+      </c>
+      <c r="H48" t="s">
+        <v>76</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>2</v>
+      </c>
+      <c r="N48">
+        <v>2</v>
+      </c>
+      <c r="O48" t="s">
+        <v>95</v>
+      </c>
+      <c r="P48" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q48">
+        <v>2.38</v>
+      </c>
+      <c r="R48">
+        <v>2.1</v>
+      </c>
+      <c r="S48">
+        <v>5.5</v>
+      </c>
+      <c r="T48">
+        <v>1.44</v>
+      </c>
+      <c r="U48">
+        <v>2.63</v>
+      </c>
+      <c r="V48">
+        <v>3.25</v>
+      </c>
+      <c r="W48">
+        <v>1.33</v>
+      </c>
+      <c r="X48">
+        <v>9</v>
+      </c>
+      <c r="Y48">
+        <v>1.07</v>
+      </c>
+      <c r="Z48">
+        <v>1.62</v>
+      </c>
+      <c r="AA48">
+        <v>3.4</v>
+      </c>
+      <c r="AB48">
+        <v>5</v>
+      </c>
+      <c r="AC48">
+        <v>1.08</v>
+      </c>
+      <c r="AD48">
+        <v>8.6</v>
+      </c>
+      <c r="AE48">
+        <v>1.36</v>
+      </c>
+      <c r="AF48">
+        <v>3.1</v>
+      </c>
+      <c r="AG48">
+        <v>2.1</v>
+      </c>
+      <c r="AH48">
+        <v>1.67</v>
+      </c>
+      <c r="AI48">
+        <v>2.05</v>
+      </c>
+      <c r="AJ48">
+        <v>1.7</v>
+      </c>
+      <c r="AK48">
+        <v>1.17</v>
+      </c>
+      <c r="AL48">
+        <v>1.22</v>
+      </c>
+      <c r="AM48">
+        <v>2.2</v>
+      </c>
+      <c r="AN48">
+        <v>0.5</v>
+      </c>
+      <c r="AO48">
+        <v>0.5</v>
+      </c>
+      <c r="AP48">
+        <v>0.33</v>
+      </c>
+      <c r="AQ48">
+        <v>1.33</v>
+      </c>
+      <c r="AR48">
+        <v>1.23</v>
+      </c>
+      <c r="AS48">
+        <v>1.08</v>
+      </c>
+      <c r="AT48">
+        <v>2.31</v>
+      </c>
+      <c r="AU48">
+        <v>7</v>
+      </c>
+      <c r="AV48">
+        <v>7</v>
+      </c>
+      <c r="AW48">
+        <v>11</v>
+      </c>
+      <c r="AX48">
+        <v>2</v>
+      </c>
+      <c r="AY48">
+        <v>18</v>
+      </c>
+      <c r="AZ48">
+        <v>9</v>
+      </c>
+      <c r="BA48">
+        <v>9</v>
+      </c>
+      <c r="BB48">
+        <v>6</v>
+      </c>
+      <c r="BC48">
+        <v>15</v>
+      </c>
+      <c r="BD48">
+        <v>1.42</v>
+      </c>
+      <c r="BE48">
+        <v>9</v>
+      </c>
+      <c r="BF48">
+        <v>3.45</v>
+      </c>
+      <c r="BG48">
+        <v>1.22</v>
+      </c>
+      <c r="BH48">
+        <v>3.55</v>
+      </c>
+      <c r="BI48">
+        <v>1.42</v>
+      </c>
+      <c r="BJ48">
+        <v>2.55</v>
+      </c>
+      <c r="BK48">
+        <v>2.1</v>
+      </c>
+      <c r="BL48">
+        <v>1.98</v>
+      </c>
+      <c r="BM48">
+        <v>2.15</v>
+      </c>
+      <c r="BN48">
+        <v>1.6</v>
+      </c>
+      <c r="BO48">
+        <v>2.75</v>
+      </c>
+      <c r="BP48">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7373232</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45424.66666666666</v>
+      </c>
+      <c r="F49">
+        <v>6</v>
+      </c>
+      <c r="G49" t="s">
+        <v>84</v>
+      </c>
+      <c r="H49" t="s">
+        <v>88</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
+      <c r="O49" t="s">
+        <v>125</v>
+      </c>
+      <c r="P49" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q49">
+        <v>2.6</v>
+      </c>
+      <c r="R49">
+        <v>2.1</v>
+      </c>
+      <c r="S49">
+        <v>4.75</v>
+      </c>
+      <c r="T49">
+        <v>1.44</v>
+      </c>
+      <c r="U49">
+        <v>2.63</v>
+      </c>
+      <c r="V49">
+        <v>3.25</v>
+      </c>
+      <c r="W49">
+        <v>1.33</v>
+      </c>
+      <c r="X49">
+        <v>10</v>
+      </c>
+      <c r="Y49">
+        <v>1.06</v>
+      </c>
+      <c r="Z49">
+        <v>1.8</v>
+      </c>
+      <c r="AA49">
+        <v>3.25</v>
+      </c>
+      <c r="AB49">
+        <v>4</v>
+      </c>
+      <c r="AC49">
+        <v>1.07</v>
+      </c>
+      <c r="AD49">
+        <v>9</v>
+      </c>
+      <c r="AE49">
+        <v>1.4</v>
+      </c>
+      <c r="AF49">
+        <v>2.95</v>
+      </c>
+      <c r="AG49">
+        <v>2.1</v>
+      </c>
+      <c r="AH49">
+        <v>1.67</v>
+      </c>
+      <c r="AI49">
+        <v>1.95</v>
+      </c>
+      <c r="AJ49">
+        <v>1.8</v>
+      </c>
+      <c r="AK49">
+        <v>1.3</v>
+      </c>
+      <c r="AL49">
+        <v>1.28</v>
+      </c>
+      <c r="AM49">
+        <v>1.75</v>
+      </c>
+      <c r="AN49">
+        <v>1</v>
+      </c>
+      <c r="AO49">
+        <v>1.5</v>
+      </c>
+      <c r="AP49">
+        <v>1</v>
+      </c>
+      <c r="AQ49">
+        <v>1.33</v>
+      </c>
+      <c r="AR49">
+        <v>1.5</v>
+      </c>
+      <c r="AS49">
+        <v>0.85</v>
+      </c>
+      <c r="AT49">
+        <v>2.35</v>
+      </c>
+      <c r="AU49">
+        <v>5</v>
+      </c>
+      <c r="AV49">
+        <v>6</v>
+      </c>
+      <c r="AW49">
+        <v>5</v>
+      </c>
+      <c r="AX49">
+        <v>5</v>
+      </c>
+      <c r="AY49">
+        <v>10</v>
+      </c>
+      <c r="AZ49">
+        <v>11</v>
+      </c>
+      <c r="BA49">
+        <v>6</v>
+      </c>
+      <c r="BB49">
+        <v>5</v>
+      </c>
+      <c r="BC49">
+        <v>11</v>
+      </c>
+      <c r="BD49">
+        <v>1.62</v>
+      </c>
+      <c r="BE49">
+        <v>7.5</v>
+      </c>
+      <c r="BF49">
+        <v>2.75</v>
+      </c>
+      <c r="BG49">
+        <v>1.29</v>
+      </c>
+      <c r="BH49">
+        <v>3.3</v>
+      </c>
+      <c r="BI49">
+        <v>1.49</v>
+      </c>
+      <c r="BJ49">
+        <v>2.45</v>
+      </c>
+      <c r="BK49">
+        <v>1.87</v>
+      </c>
+      <c r="BL49">
+        <v>1.83</v>
+      </c>
+      <c r="BM49">
+        <v>2.45</v>
+      </c>
+      <c r="BN49">
+        <v>1.49</v>
+      </c>
+      <c r="BO49">
+        <v>3.3</v>
+      </c>
+      <c r="BP49">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7373233</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45424.66666666666</v>
+      </c>
+      <c r="F50">
+        <v>6</v>
+      </c>
+      <c r="G50" t="s">
+        <v>77</v>
+      </c>
+      <c r="H50" t="s">
+        <v>78</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50" t="s">
+        <v>95</v>
+      </c>
+      <c r="P50" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q50">
+        <v>3.6</v>
+      </c>
+      <c r="R50">
+        <v>2</v>
+      </c>
+      <c r="S50">
+        <v>3.4</v>
+      </c>
+      <c r="T50">
+        <v>1.53</v>
+      </c>
+      <c r="U50">
+        <v>2.38</v>
+      </c>
+      <c r="V50">
+        <v>3.5</v>
+      </c>
+      <c r="W50">
+        <v>1.29</v>
+      </c>
+      <c r="X50">
+        <v>11</v>
+      </c>
+      <c r="Y50">
+        <v>1.05</v>
+      </c>
+      <c r="Z50">
+        <v>2.55</v>
+      </c>
+      <c r="AA50">
+        <v>3</v>
+      </c>
+      <c r="AB50">
+        <v>2.63</v>
+      </c>
+      <c r="AC50">
+        <v>1.08</v>
+      </c>
+      <c r="AD50">
+        <v>6.5</v>
+      </c>
+      <c r="AE50">
+        <v>1.42</v>
+      </c>
+      <c r="AF50">
+        <v>2.62</v>
+      </c>
+      <c r="AG50">
+        <v>2.38</v>
+      </c>
+      <c r="AH50">
+        <v>1.53</v>
+      </c>
+      <c r="AI50">
+        <v>2</v>
+      </c>
+      <c r="AJ50">
+        <v>1.75</v>
+      </c>
+      <c r="AK50">
+        <v>1.5</v>
+      </c>
+      <c r="AL50">
+        <v>1.36</v>
+      </c>
+      <c r="AM50">
+        <v>1.42</v>
+      </c>
+      <c r="AN50">
+        <v>0</v>
+      </c>
+      <c r="AO50">
+        <v>0.5</v>
+      </c>
+      <c r="AP50">
+        <v>0</v>
+      </c>
+      <c r="AQ50">
+        <v>1.33</v>
+      </c>
+      <c r="AR50">
+        <v>0.99</v>
+      </c>
+      <c r="AS50">
+        <v>1.28</v>
+      </c>
+      <c r="AT50">
+        <v>2.27</v>
+      </c>
+      <c r="AU50">
+        <v>6</v>
+      </c>
+      <c r="AV50">
+        <v>6</v>
+      </c>
+      <c r="AW50">
+        <v>6</v>
+      </c>
+      <c r="AX50">
+        <v>3</v>
+      </c>
+      <c r="AY50">
+        <v>12</v>
+      </c>
+      <c r="AZ50">
+        <v>9</v>
+      </c>
+      <c r="BA50">
+        <v>5</v>
+      </c>
+      <c r="BB50">
+        <v>5</v>
+      </c>
+      <c r="BC50">
+        <v>10</v>
+      </c>
+      <c r="BD50">
+        <v>1.92</v>
+      </c>
+      <c r="BE50">
+        <v>7.5</v>
+      </c>
+      <c r="BF50">
+        <v>2.15</v>
+      </c>
+      <c r="BG50">
+        <v>1.25</v>
+      </c>
+      <c r="BH50">
+        <v>3.25</v>
+      </c>
+      <c r="BI50">
+        <v>1.39</v>
+      </c>
+      <c r="BJ50">
+        <v>2.77</v>
+      </c>
+      <c r="BK50">
+        <v>2.2</v>
+      </c>
+      <c r="BL50">
+        <v>1.99</v>
+      </c>
+      <c r="BM50">
+        <v>2.2</v>
+      </c>
+      <c r="BN50">
+        <v>1.6</v>
+      </c>
+      <c r="BO50">
+        <v>2.95</v>
+      </c>
+      <c r="BP50">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7373227</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45424.77083333334</v>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
+      <c r="G51" t="s">
+        <v>80</v>
+      </c>
+      <c r="H51" t="s">
+        <v>82</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51" t="s">
+        <v>126</v>
+      </c>
+      <c r="P51" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q51">
+        <v>2.38</v>
+      </c>
+      <c r="R51">
+        <v>2.25</v>
+      </c>
+      <c r="S51">
+        <v>4.75</v>
+      </c>
+      <c r="T51">
+        <v>1.4</v>
+      </c>
+      <c r="U51">
+        <v>2.75</v>
+      </c>
+      <c r="V51">
+        <v>2.75</v>
+      </c>
+      <c r="W51">
+        <v>1.4</v>
+      </c>
+      <c r="X51">
+        <v>8</v>
+      </c>
+      <c r="Y51">
+        <v>1.08</v>
+      </c>
+      <c r="Z51">
+        <v>1.75</v>
+      </c>
+      <c r="AA51">
+        <v>3.8</v>
+      </c>
+      <c r="AB51">
+        <v>4.33</v>
+      </c>
+      <c r="AC51">
+        <v>1.04</v>
+      </c>
+      <c r="AD51">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE51">
+        <v>1.3</v>
+      </c>
+      <c r="AF51">
+        <v>3.4</v>
+      </c>
+      <c r="AG51">
+        <v>1.85</v>
+      </c>
+      <c r="AH51">
+        <v>1.95</v>
+      </c>
+      <c r="AI51">
+        <v>1.8</v>
+      </c>
+      <c r="AJ51">
+        <v>1.95</v>
+      </c>
+      <c r="AK51">
+        <v>1.25</v>
+      </c>
+      <c r="AL51">
+        <v>1.25</v>
+      </c>
+      <c r="AM51">
+        <v>1.87</v>
+      </c>
+      <c r="AN51">
+        <v>3</v>
+      </c>
+      <c r="AO51">
+        <v>1</v>
+      </c>
+      <c r="AP51">
+        <v>3</v>
+      </c>
+      <c r="AQ51">
+        <v>0.67</v>
+      </c>
+      <c r="AR51">
+        <v>1.45</v>
+      </c>
+      <c r="AS51">
+        <v>1.58</v>
+      </c>
+      <c r="AT51">
+        <v>3.03</v>
+      </c>
+      <c r="AU51">
+        <v>4</v>
+      </c>
+      <c r="AV51">
+        <v>6</v>
+      </c>
+      <c r="AW51">
+        <v>3</v>
+      </c>
+      <c r="AX51">
+        <v>6</v>
+      </c>
+      <c r="AY51">
+        <v>7</v>
+      </c>
+      <c r="AZ51">
+        <v>12</v>
+      </c>
+      <c r="BA51">
+        <v>6</v>
+      </c>
+      <c r="BB51">
+        <v>7</v>
+      </c>
+      <c r="BC51">
+        <v>13</v>
+      </c>
+      <c r="BD51">
+        <v>1.5</v>
+      </c>
+      <c r="BE51">
+        <v>8.5</v>
+      </c>
+      <c r="BF51">
+        <v>3.05</v>
+      </c>
+      <c r="BG51">
+        <v>1.19</v>
+      </c>
+      <c r="BH51">
+        <v>3.9</v>
+      </c>
+      <c r="BI51">
+        <v>1.35</v>
+      </c>
+      <c r="BJ51">
+        <v>2.75</v>
+      </c>
+      <c r="BK51">
+        <v>1.83</v>
+      </c>
+      <c r="BL51">
+        <v>2.47</v>
+      </c>
+      <c r="BM51">
+        <v>1.85</v>
+      </c>
+      <c r="BN51">
+        <v>1.85</v>
+      </c>
+      <c r="BO51">
+        <v>2.35</v>
+      </c>
+      <c r="BP51">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7373229</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45424.77083333334</v>
+      </c>
+      <c r="F52">
+        <v>6</v>
+      </c>
+      <c r="G52" t="s">
+        <v>74</v>
+      </c>
+      <c r="H52" t="s">
+        <v>79</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>2</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>3</v>
+      </c>
+      <c r="O52" t="s">
+        <v>127</v>
+      </c>
+      <c r="P52" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q52">
+        <v>2.38</v>
+      </c>
+      <c r="R52">
+        <v>2.1</v>
+      </c>
+      <c r="S52">
+        <v>5</v>
+      </c>
+      <c r="T52">
+        <v>1.44</v>
+      </c>
+      <c r="U52">
+        <v>2.63</v>
+      </c>
+      <c r="V52">
+        <v>3.4</v>
+      </c>
+      <c r="W52">
+        <v>1.3</v>
+      </c>
+      <c r="X52">
+        <v>10</v>
+      </c>
+      <c r="Y52">
+        <v>1.06</v>
+      </c>
+      <c r="Z52">
+        <v>1.73</v>
+      </c>
+      <c r="AA52">
+        <v>3.6</v>
+      </c>
+      <c r="AB52">
+        <v>5</v>
+      </c>
+      <c r="AC52">
+        <v>1.06</v>
+      </c>
+      <c r="AD52">
+        <v>7.5</v>
+      </c>
+      <c r="AE52">
+        <v>1.38</v>
+      </c>
+      <c r="AF52">
+        <v>2.8</v>
+      </c>
+      <c r="AG52">
+        <v>2.05</v>
+      </c>
+      <c r="AH52">
+        <v>1.75</v>
+      </c>
+      <c r="AI52">
+        <v>1.95</v>
+      </c>
+      <c r="AJ52">
+        <v>1.8</v>
+      </c>
+      <c r="AK52">
+        <v>1.2</v>
+      </c>
+      <c r="AL52">
+        <v>1.3</v>
+      </c>
+      <c r="AM52">
+        <v>2</v>
+      </c>
+      <c r="AN52">
+        <v>1.5</v>
+      </c>
+      <c r="AO52">
+        <v>0</v>
+      </c>
+      <c r="AP52">
+        <v>2</v>
+      </c>
+      <c r="AQ52">
+        <v>0</v>
+      </c>
+      <c r="AR52">
+        <v>1.51</v>
+      </c>
+      <c r="AS52">
+        <v>1.11</v>
+      </c>
+      <c r="AT52">
+        <v>2.62</v>
+      </c>
+      <c r="AU52">
+        <v>9</v>
+      </c>
+      <c r="AV52">
+        <v>6</v>
+      </c>
+      <c r="AW52">
+        <v>3</v>
+      </c>
+      <c r="AX52">
+        <v>5</v>
+      </c>
+      <c r="AY52">
+        <v>12</v>
+      </c>
+      <c r="AZ52">
+        <v>11</v>
+      </c>
+      <c r="BA52">
+        <v>4</v>
+      </c>
+      <c r="BB52">
+        <v>4</v>
+      </c>
+      <c r="BC52">
+        <v>8</v>
+      </c>
+      <c r="BD52">
+        <v>1.48</v>
+      </c>
+      <c r="BE52">
+        <v>8.5</v>
+      </c>
+      <c r="BF52">
+        <v>3.15</v>
+      </c>
+      <c r="BG52">
+        <v>1.26</v>
+      </c>
+      <c r="BH52">
+        <v>3.25</v>
+      </c>
+      <c r="BI52">
+        <v>1.51</v>
+      </c>
+      <c r="BJ52">
+        <v>2.37</v>
+      </c>
+      <c r="BK52">
+        <v>1.9</v>
+      </c>
+      <c r="BL52">
+        <v>1.8</v>
+      </c>
+      <c r="BM52">
+        <v>2.47</v>
+      </c>
+      <c r="BN52">
+        <v>1.48</v>
+      </c>
+      <c r="BO52">
+        <v>3</v>
+      </c>
+      <c r="BP52">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="158">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -400,6 +400,9 @@
     <t>['50', '56']</t>
   </si>
   <si>
+    <t>['32', '84']</t>
+  </si>
+  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -482,6 +485,9 @@
   </si>
   <si>
     <t>['81']</t>
+  </si>
+  <si>
+    <t>['29']</t>
   </si>
 </sst>
 </file>
@@ -843,7 +849,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP52"/>
+  <dimension ref="A1:BP53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1102,7 +1108,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1308,7 +1314,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1514,7 +1520,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -1720,7 +1726,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -1798,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ5">
         <v>2</v>
@@ -1926,7 +1932,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2544,7 +2550,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2750,7 +2756,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -2956,7 +2962,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3162,7 +3168,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3986,7 +3992,7 @@
         <v>103</v>
       </c>
       <c r="P16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4398,7 +4404,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q18">
         <v>2.3</v>
@@ -4604,7 +4610,7 @@
         <v>105</v>
       </c>
       <c r="P19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -6046,7 +6052,7 @@
         <v>111</v>
       </c>
       <c r="P26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6458,7 +6464,7 @@
         <v>95</v>
       </c>
       <c r="P28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6664,7 +6670,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q29">
         <v>2.38</v>
@@ -6870,7 +6876,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7076,7 +7082,7 @@
         <v>95</v>
       </c>
       <c r="P31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7488,7 +7494,7 @@
         <v>95</v>
       </c>
       <c r="P33" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7694,7 +7700,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q34">
         <v>2.25</v>
@@ -8312,7 +8318,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8518,7 +8524,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -8802,7 +8808,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ39">
         <v>2.33</v>
@@ -8930,7 +8936,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9136,7 +9142,7 @@
         <v>121</v>
       </c>
       <c r="P41" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9754,7 +9760,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -9960,7 +9966,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10166,7 +10172,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10578,7 +10584,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q48">
         <v>2.38</v>
@@ -10784,7 +10790,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -10990,7 +10996,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11402,7 +11408,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q52">
         <v>2.38</v>
@@ -11559,6 +11565,212 @@
       </c>
       <c r="BP52">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7373231</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45425.83333333334</v>
+      </c>
+      <c r="F53">
+        <v>6</v>
+      </c>
+      <c r="G53" t="s">
+        <v>73</v>
+      </c>
+      <c r="H53" t="s">
+        <v>72</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>3</v>
+      </c>
+      <c r="O53" t="s">
+        <v>128</v>
+      </c>
+      <c r="P53" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q53">
+        <v>2.38</v>
+      </c>
+      <c r="R53">
+        <v>2.1</v>
+      </c>
+      <c r="S53">
+        <v>5.5</v>
+      </c>
+      <c r="T53">
+        <v>1.44</v>
+      </c>
+      <c r="U53">
+        <v>2.63</v>
+      </c>
+      <c r="V53">
+        <v>3.25</v>
+      </c>
+      <c r="W53">
+        <v>1.33</v>
+      </c>
+      <c r="X53">
+        <v>10</v>
+      </c>
+      <c r="Y53">
+        <v>1.06</v>
+      </c>
+      <c r="Z53">
+        <v>1.7</v>
+      </c>
+      <c r="AA53">
+        <v>3.6</v>
+      </c>
+      <c r="AB53">
+        <v>5.25</v>
+      </c>
+      <c r="AC53">
+        <v>1.07</v>
+      </c>
+      <c r="AD53">
+        <v>8.5</v>
+      </c>
+      <c r="AE53">
+        <v>1.4</v>
+      </c>
+      <c r="AF53">
+        <v>2.95</v>
+      </c>
+      <c r="AG53">
+        <v>2.1</v>
+      </c>
+      <c r="AH53">
+        <v>1.7</v>
+      </c>
+      <c r="AI53">
+        <v>2.05</v>
+      </c>
+      <c r="AJ53">
+        <v>1.7</v>
+      </c>
+      <c r="AK53">
+        <v>1.2</v>
+      </c>
+      <c r="AL53">
+        <v>1.25</v>
+      </c>
+      <c r="AM53">
+        <v>2</v>
+      </c>
+      <c r="AN53">
+        <v>0.5</v>
+      </c>
+      <c r="AO53">
+        <v>0</v>
+      </c>
+      <c r="AP53">
+        <v>1.33</v>
+      </c>
+      <c r="AQ53">
+        <v>0</v>
+      </c>
+      <c r="AR53">
+        <v>1.37</v>
+      </c>
+      <c r="AS53">
+        <v>1.04</v>
+      </c>
+      <c r="AT53">
+        <v>2.41</v>
+      </c>
+      <c r="AU53">
+        <v>9</v>
+      </c>
+      <c r="AV53">
+        <v>3</v>
+      </c>
+      <c r="AW53">
+        <v>4</v>
+      </c>
+      <c r="AX53">
+        <v>4</v>
+      </c>
+      <c r="AY53">
+        <v>13</v>
+      </c>
+      <c r="AZ53">
+        <v>7</v>
+      </c>
+      <c r="BA53">
+        <v>7</v>
+      </c>
+      <c r="BB53">
+        <v>4</v>
+      </c>
+      <c r="BC53">
+        <v>11</v>
+      </c>
+      <c r="BD53">
+        <v>1.45</v>
+      </c>
+      <c r="BE53">
+        <v>8.5</v>
+      </c>
+      <c r="BF53">
+        <v>3.35</v>
+      </c>
+      <c r="BG53">
+        <v>1.17</v>
+      </c>
+      <c r="BH53">
+        <v>4.15</v>
+      </c>
+      <c r="BI53">
+        <v>1.35</v>
+      </c>
+      <c r="BJ53">
+        <v>2.84</v>
+      </c>
+      <c r="BK53">
+        <v>2</v>
+      </c>
+      <c r="BL53">
+        <v>2</v>
+      </c>
+      <c r="BM53">
+        <v>2.05</v>
+      </c>
+      <c r="BN53">
+        <v>1.7</v>
+      </c>
+      <c r="BO53">
+        <v>2.69</v>
+      </c>
+      <c r="BP53">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -259,24 +259,24 @@
     <t>Bahia</t>
   </si>
   <si>
+    <t>Bragantino</t>
+  </si>
+  <si>
     <t>Grêmio</t>
   </si>
   <si>
-    <t>Bragantino</t>
+    <t>Atlético Mineiro</t>
+  </si>
+  <si>
+    <t>Palmeiras</t>
+  </si>
+  <si>
+    <t>Fortaleza</t>
   </si>
   <si>
     <t>Juventude</t>
   </si>
   <si>
-    <t>Fortaleza</t>
-  </si>
-  <si>
-    <t>Atlético Mineiro</t>
-  </si>
-  <si>
-    <t>Palmeiras</t>
-  </si>
-  <si>
     <t>Flamengo</t>
   </si>
   <si>
@@ -316,21 +316,21 @@
     <t>['34', '61']</t>
   </si>
   <si>
+    <t>['7', '78']</t>
+  </si>
+  <si>
     <t>['19', '51']</t>
   </si>
   <si>
-    <t>['7', '78']</t>
+    <t>['40']</t>
+  </si>
+  <si>
+    <t>['19']</t>
   </si>
   <si>
     <t>['53', '59']</t>
   </si>
   <si>
-    <t>['19']</t>
-  </si>
-  <si>
-    <t>['40']</t>
-  </si>
-  <si>
     <t>['20', '54']</t>
   </si>
   <si>
@@ -340,12 +340,12 @@
     <t>['10', '53']</t>
   </si>
   <si>
+    <t>['44']</t>
+  </si>
+  <si>
     <t>['5']</t>
   </si>
   <si>
-    <t>['44']</t>
-  </si>
-  <si>
     <t>['25', '35', '45+2']</t>
   </si>
   <si>
@@ -361,12 +361,12 @@
     <t>['17']</t>
   </si>
   <si>
+    <t>['40', '45+2', '47']</t>
+  </si>
+  <si>
     <t>['50', '58', '75']</t>
   </si>
   <si>
-    <t>['40', '45+2', '47']</t>
-  </si>
-  <si>
     <t>['9']</t>
   </si>
   <si>
@@ -382,12 +382,12 @@
     <t>['30']</t>
   </si>
   <si>
+    <t>['49']</t>
+  </si>
+  <si>
     <t>['26']</t>
   </si>
   <si>
-    <t>['49']</t>
-  </si>
-  <si>
     <t>['20', '63']</t>
   </si>
   <si>
@@ -430,24 +430,24 @@
     <t>['4']</t>
   </si>
   <si>
+    <t>['45']</t>
+  </si>
+  <si>
     <t>['89']</t>
   </si>
   <si>
-    <t>['45']</t>
-  </si>
-  <si>
     <t>['79']</t>
   </si>
   <si>
     <t>['69', '72']</t>
   </si>
   <si>
+    <t>['85']</t>
+  </si>
+  <si>
     <t>['14', '52', '76']</t>
   </si>
   <si>
-    <t>['85']</t>
-  </si>
-  <si>
     <t>['32', '47', '55', '69']</t>
   </si>
   <si>
@@ -478,10 +478,10 @@
     <t>['45+1', '71']</t>
   </si>
   <si>
+    <t>['41']</t>
+  </si>
+  <si>
     <t>['45+9', '59']</t>
-  </si>
-  <si>
-    <t>['41']</t>
   </si>
   <si>
     <t>['81']</t>
@@ -1290,7 +1290,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1496,7 +1496,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1702,7 +1702,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1908,7 +1908,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -2114,7 +2114,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2938,7 +2938,7 @@
         <v>79</v>
       </c>
       <c r="H11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>7373185</v>
+        <v>7373191</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
@@ -3350,7 +3350,7 @@
         <v>81</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -3365,172 +3365,172 @@
         <v>2</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O13" t="s">
         <v>100</v>
       </c>
       <c r="P13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q13">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="R13">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S13">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="T13">
         <v>1.44</v>
       </c>
       <c r="U13">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="V13">
-        <v>3.25</v>
+        <v>3.17</v>
       </c>
       <c r="W13">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="X13">
-        <v>9</v>
+        <v>6.75</v>
       </c>
       <c r="Y13">
         <v>1.07</v>
       </c>
       <c r="Z13">
-        <v>2.6</v>
+        <v>1.91</v>
       </c>
       <c r="AA13">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AB13">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="AC13">
         <v>1.07</v>
       </c>
       <c r="AD13">
+        <v>9.5</v>
+      </c>
+      <c r="AE13">
+        <v>1.35</v>
+      </c>
+      <c r="AF13">
+        <v>3.25</v>
+      </c>
+      <c r="AG13">
+        <v>2</v>
+      </c>
+      <c r="AH13">
+        <v>1.8</v>
+      </c>
+      <c r="AI13">
+        <v>1.8</v>
+      </c>
+      <c r="AJ13">
+        <v>1.95</v>
+      </c>
+      <c r="AK13">
+        <v>1.2</v>
+      </c>
+      <c r="AL13">
+        <v>1.28</v>
+      </c>
+      <c r="AM13">
+        <v>1.85</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>2.33</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>6</v>
+      </c>
+      <c r="AV13">
+        <v>4</v>
+      </c>
+      <c r="AW13">
+        <v>9</v>
+      </c>
+      <c r="AX13">
         <v>8</v>
       </c>
-      <c r="AE13">
-        <v>1.38</v>
-      </c>
-      <c r="AF13">
-        <v>3</v>
-      </c>
-      <c r="AG13">
-        <v>2.1</v>
-      </c>
-      <c r="AH13">
-        <v>1.7</v>
-      </c>
-      <c r="AI13">
-        <v>1.91</v>
-      </c>
-      <c r="AJ13">
-        <v>1.91</v>
-      </c>
-      <c r="AK13">
-        <v>1.22</v>
-      </c>
-      <c r="AL13">
-        <v>1.25</v>
-      </c>
-      <c r="AM13">
-        <v>1.7</v>
-      </c>
-      <c r="AN13">
-        <v>0</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>3</v>
-      </c>
-      <c r="AQ13">
-        <v>1.33</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>0</v>
-      </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
-        <v>8</v>
-      </c>
-      <c r="AV13">
-        <v>0</v>
-      </c>
-      <c r="AW13">
+      <c r="AY13">
+        <v>15</v>
+      </c>
+      <c r="AZ13">
+        <v>12</v>
+      </c>
+      <c r="BA13">
         <v>4</v>
       </c>
-      <c r="AX13">
-        <v>4</v>
-      </c>
-      <c r="AY13">
-        <v>12</v>
-      </c>
-      <c r="AZ13">
-        <v>4</v>
-      </c>
-      <c r="BA13">
-        <v>9</v>
-      </c>
       <c r="BB13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BC13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD13">
-        <v>1.64</v>
+        <v>1.37</v>
       </c>
       <c r="BE13">
-        <v>9.9</v>
+        <v>10.5</v>
       </c>
       <c r="BF13">
-        <v>2.78</v>
+        <v>4.1</v>
       </c>
       <c r="BG13">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="BH13">
-        <v>4.1</v>
+        <v>5.7</v>
       </c>
       <c r="BI13">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="BJ13">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="BK13">
-        <v>1.91</v>
+        <v>1.4</v>
       </c>
       <c r="BL13">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="BM13">
+        <v>1.77</v>
+      </c>
+      <c r="BN13">
         <v>1.95</v>
       </c>
-      <c r="BN13">
-        <v>1.77</v>
-      </c>
       <c r="BO13">
-        <v>2.45</v>
+        <v>2.17</v>
       </c>
       <c r="BP13">
-        <v>1.49</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="14" spans="1:68">
@@ -3538,7 +3538,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>7373191</v>
+        <v>7373185</v>
       </c>
       <c r="C14" t="s">
         <v>68</v>
@@ -3556,7 +3556,7 @@
         <v>82</v>
       </c>
       <c r="H14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -3571,172 +3571,172 @@
         <v>2</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O14" t="s">
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q14">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="R14">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="S14">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="T14">
         <v>1.44</v>
       </c>
       <c r="U14">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="V14">
-        <v>3.17</v>
+        <v>3.25</v>
       </c>
       <c r="W14">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="X14">
-        <v>6.75</v>
+        <v>9</v>
       </c>
       <c r="Y14">
         <v>1.07</v>
       </c>
       <c r="Z14">
-        <v>1.91</v>
+        <v>2.6</v>
       </c>
       <c r="AA14">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AB14">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="AC14">
         <v>1.07</v>
       </c>
       <c r="AD14">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AE14">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AF14">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AG14">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AH14">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AI14">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AJ14">
+        <v>1.91</v>
+      </c>
+      <c r="AK14">
+        <v>1.22</v>
+      </c>
+      <c r="AL14">
+        <v>1.25</v>
+      </c>
+      <c r="AM14">
+        <v>1.7</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>3</v>
+      </c>
+      <c r="AQ14">
+        <v>1.33</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>8</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>4</v>
+      </c>
+      <c r="AX14">
+        <v>4</v>
+      </c>
+      <c r="AY14">
+        <v>12</v>
+      </c>
+      <c r="AZ14">
+        <v>4</v>
+      </c>
+      <c r="BA14">
+        <v>9</v>
+      </c>
+      <c r="BB14">
+        <v>2</v>
+      </c>
+      <c r="BC14">
+        <v>11</v>
+      </c>
+      <c r="BD14">
+        <v>1.64</v>
+      </c>
+      <c r="BE14">
+        <v>9.9</v>
+      </c>
+      <c r="BF14">
+        <v>2.78</v>
+      </c>
+      <c r="BG14">
+        <v>1.17</v>
+      </c>
+      <c r="BH14">
+        <v>4.1</v>
+      </c>
+      <c r="BI14">
+        <v>1.28</v>
+      </c>
+      <c r="BJ14">
+        <v>3.35</v>
+      </c>
+      <c r="BK14">
+        <v>1.91</v>
+      </c>
+      <c r="BL14">
+        <v>2.4</v>
+      </c>
+      <c r="BM14">
         <v>1.95</v>
       </c>
-      <c r="AK14">
-        <v>1.2</v>
-      </c>
-      <c r="AL14">
-        <v>1.28</v>
-      </c>
-      <c r="AM14">
-        <v>1.85</v>
-      </c>
-      <c r="AN14">
-        <v>0</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>2.33</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>0</v>
-      </c>
-      <c r="AS14">
-        <v>0</v>
-      </c>
-      <c r="AT14">
-        <v>0</v>
-      </c>
-      <c r="AU14">
-        <v>6</v>
-      </c>
-      <c r="AV14">
-        <v>4</v>
-      </c>
-      <c r="AW14">
-        <v>9</v>
-      </c>
-      <c r="AX14">
-        <v>8</v>
-      </c>
-      <c r="AY14">
-        <v>15</v>
-      </c>
-      <c r="AZ14">
-        <v>12</v>
-      </c>
-      <c r="BA14">
-        <v>4</v>
-      </c>
-      <c r="BB14">
-        <v>6</v>
-      </c>
-      <c r="BC14">
-        <v>10</v>
-      </c>
-      <c r="BD14">
-        <v>1.37</v>
-      </c>
-      <c r="BE14">
-        <v>10.5</v>
-      </c>
-      <c r="BF14">
-        <v>4.1</v>
-      </c>
-      <c r="BG14">
-        <v>1.09</v>
-      </c>
-      <c r="BH14">
-        <v>5.7</v>
-      </c>
-      <c r="BI14">
-        <v>1.27</v>
-      </c>
-      <c r="BJ14">
-        <v>3.1</v>
-      </c>
-      <c r="BK14">
-        <v>1.4</v>
-      </c>
-      <c r="BL14">
-        <v>2.75</v>
-      </c>
-      <c r="BM14">
+      <c r="BN14">
         <v>1.77</v>
       </c>
-      <c r="BN14">
-        <v>1.95</v>
-      </c>
       <c r="BO14">
-        <v>2.17</v>
+        <v>2.45</v>
       </c>
       <c r="BP14">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="15" spans="1:68">
@@ -3744,7 +3744,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>7373194</v>
+        <v>7373186</v>
       </c>
       <c r="C15" t="s">
         <v>68</v>
@@ -3762,22 +3762,22 @@
         <v>83</v>
       </c>
       <c r="H15" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -3786,163 +3786,163 @@
         <v>102</v>
       </c>
       <c r="P15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q15">
-        <v>4.33</v>
+        <v>2.05</v>
       </c>
       <c r="R15">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="S15">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="T15">
+        <v>1.35</v>
+      </c>
+      <c r="U15">
+        <v>3</v>
+      </c>
+      <c r="V15">
+        <v>2.6</v>
+      </c>
+      <c r="W15">
+        <v>1.45</v>
+      </c>
+      <c r="X15">
+        <v>5.75</v>
+      </c>
+      <c r="Y15">
+        <v>1.1</v>
+      </c>
+      <c r="Z15">
         <v>1.5</v>
       </c>
-      <c r="U15">
-        <v>2.45</v>
-      </c>
-      <c r="V15">
-        <v>3.25</v>
-      </c>
-      <c r="W15">
-        <v>1.3</v>
-      </c>
-      <c r="X15">
-        <v>7.5</v>
-      </c>
-      <c r="Y15">
-        <v>1.05</v>
-      </c>
-      <c r="Z15">
-        <v>3.5</v>
-      </c>
       <c r="AA15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB15">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="AC15">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AD15">
-        <v>8.699999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="AE15">
-        <v>1.42</v>
+        <v>1.26</v>
       </c>
       <c r="AF15">
-        <v>2.88</v>
+        <v>3.87</v>
       </c>
       <c r="AG15">
-        <v>2.88</v>
+        <v>2.05</v>
       </c>
       <c r="AH15">
+        <v>1.75</v>
+      </c>
+      <c r="AI15">
+        <v>2.2</v>
+      </c>
+      <c r="AJ15">
+        <v>1.62</v>
+      </c>
+      <c r="AK15">
+        <v>1.04</v>
+      </c>
+      <c r="AL15">
+        <v>1.14</v>
+      </c>
+      <c r="AM15">
+        <v>2.75</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>2</v>
+      </c>
+      <c r="AQ15">
+        <v>2</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>7</v>
+      </c>
+      <c r="AV15">
+        <v>2</v>
+      </c>
+      <c r="AW15">
+        <v>8</v>
+      </c>
+      <c r="AX15">
+        <v>4</v>
+      </c>
+      <c r="AY15">
+        <v>15</v>
+      </c>
+      <c r="AZ15">
+        <v>6</v>
+      </c>
+      <c r="BA15">
+        <v>9</v>
+      </c>
+      <c r="BB15">
+        <v>2</v>
+      </c>
+      <c r="BC15">
+        <v>11</v>
+      </c>
+      <c r="BD15">
+        <v>1.28</v>
+      </c>
+      <c r="BE15">
+        <v>13.5</v>
+      </c>
+      <c r="BF15">
+        <v>4.68</v>
+      </c>
+      <c r="BG15">
+        <v>1.19</v>
+      </c>
+      <c r="BH15">
+        <v>3.9</v>
+      </c>
+      <c r="BI15">
         <v>1.4</v>
       </c>
-      <c r="AI15">
-        <v>2.25</v>
-      </c>
-      <c r="AJ15">
-        <v>1.57</v>
-      </c>
-      <c r="AK15">
-        <v>1.36</v>
-      </c>
-      <c r="AL15">
-        <v>1.28</v>
-      </c>
-      <c r="AM15">
-        <v>1.44</v>
-      </c>
-      <c r="AN15">
-        <v>0</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
-      <c r="AP15">
-        <v>2</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AR15">
-        <v>0</v>
-      </c>
-      <c r="AS15">
-        <v>0</v>
-      </c>
-      <c r="AT15">
-        <v>0</v>
-      </c>
-      <c r="AU15">
-        <v>9</v>
-      </c>
-      <c r="AV15">
-        <v>3</v>
-      </c>
-      <c r="AW15">
-        <v>4</v>
-      </c>
-      <c r="AX15">
-        <v>11</v>
-      </c>
-      <c r="AY15">
-        <v>13</v>
-      </c>
-      <c r="AZ15">
-        <v>14</v>
-      </c>
-      <c r="BA15">
-        <v>6</v>
-      </c>
-      <c r="BB15">
-        <v>7</v>
-      </c>
-      <c r="BC15">
-        <v>13</v>
-      </c>
-      <c r="BD15">
-        <v>1.72</v>
-      </c>
-      <c r="BE15">
-        <v>9.1</v>
-      </c>
-      <c r="BF15">
-        <v>2.64</v>
-      </c>
-      <c r="BG15">
-        <v>1.25</v>
-      </c>
-      <c r="BH15">
-        <v>3.6</v>
-      </c>
-      <c r="BI15">
-        <v>1.41</v>
-      </c>
       <c r="BJ15">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="BK15">
         <v>2.2</v>
       </c>
       <c r="BL15">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="BM15">
-        <v>2.22</v>
+        <v>2.05</v>
       </c>
       <c r="BN15">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="BO15">
-        <v>2.95</v>
+        <v>2.48</v>
       </c>
       <c r="BP15">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="16" spans="1:68">
@@ -3950,7 +3950,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>7373192</v>
+        <v>7373190</v>
       </c>
       <c r="C16" t="s">
         <v>68</v>
@@ -3968,112 +3968,112 @@
         <v>84</v>
       </c>
       <c r="H16" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>1</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O16" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="P16" t="s">
         <v>138</v>
       </c>
       <c r="Q16">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S16">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="T16">
+        <v>1.44</v>
+      </c>
+      <c r="U16">
+        <v>2.63</v>
+      </c>
+      <c r="V16">
+        <v>3.25</v>
+      </c>
+      <c r="W16">
+        <v>1.33</v>
+      </c>
+      <c r="X16">
+        <v>9</v>
+      </c>
+      <c r="Y16">
+        <v>1.07</v>
+      </c>
+      <c r="Z16">
+        <v>1.65</v>
+      </c>
+      <c r="AA16">
+        <v>3.6</v>
+      </c>
+      <c r="AB16">
+        <v>6</v>
+      </c>
+      <c r="AC16">
+        <v>1.06</v>
+      </c>
+      <c r="AD16">
+        <v>8.5</v>
+      </c>
+      <c r="AE16">
+        <v>1.35</v>
+      </c>
+      <c r="AF16">
+        <v>3.1</v>
+      </c>
+      <c r="AG16">
+        <v>2.2</v>
+      </c>
+      <c r="AH16">
+        <v>1.65</v>
+      </c>
+      <c r="AI16">
+        <v>2.1</v>
+      </c>
+      <c r="AJ16">
+        <v>1.67</v>
+      </c>
+      <c r="AK16">
+        <v>1.1</v>
+      </c>
+      <c r="AL16">
+        <v>1.2</v>
+      </c>
+      <c r="AM16">
+        <v>2.2</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0.33</v>
+      </c>
+      <c r="AQ16">
         <v>1.5</v>
-      </c>
-      <c r="U16">
-        <v>2.5</v>
-      </c>
-      <c r="V16">
-        <v>3.5</v>
-      </c>
-      <c r="W16">
-        <v>1.29</v>
-      </c>
-      <c r="X16">
-        <v>11</v>
-      </c>
-      <c r="Y16">
-        <v>1.05</v>
-      </c>
-      <c r="Z16">
-        <v>1.95</v>
-      </c>
-      <c r="AA16">
-        <v>3.4</v>
-      </c>
-      <c r="AB16">
-        <v>4</v>
-      </c>
-      <c r="AC16">
-        <v>1.08</v>
-      </c>
-      <c r="AD16">
-        <v>7.5</v>
-      </c>
-      <c r="AE16">
-        <v>1.42</v>
-      </c>
-      <c r="AF16">
-        <v>2.8</v>
-      </c>
-      <c r="AG16">
-        <v>2.25</v>
-      </c>
-      <c r="AH16">
-        <v>1.62</v>
-      </c>
-      <c r="AI16">
-        <v>2.05</v>
-      </c>
-      <c r="AJ16">
-        <v>1.7</v>
-      </c>
-      <c r="AK16">
-        <v>1.22</v>
-      </c>
-      <c r="AL16">
-        <v>1.28</v>
-      </c>
-      <c r="AM16">
-        <v>1.65</v>
-      </c>
-      <c r="AN16">
-        <v>0</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
-      <c r="AP16">
-        <v>1</v>
-      </c>
-      <c r="AQ16">
-        <v>1.33</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4088,67 +4088,67 @@
         <v>4</v>
       </c>
       <c r="AV16">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW16">
+        <v>11</v>
+      </c>
+      <c r="AX16">
+        <v>3</v>
+      </c>
+      <c r="AY16">
+        <v>15</v>
+      </c>
+      <c r="AZ16">
         <v>6</v>
       </c>
-      <c r="AX16">
+      <c r="BA16">
         <v>6</v>
       </c>
-      <c r="AY16">
-        <v>10</v>
-      </c>
-      <c r="AZ16">
-        <v>13</v>
-      </c>
-      <c r="BA16">
-        <v>7</v>
-      </c>
       <c r="BB16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC16">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BD16">
-        <v>1.87</v>
+        <v>1.42</v>
       </c>
       <c r="BE16">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="BF16">
-        <v>2.36</v>
+        <v>3.7</v>
       </c>
       <c r="BG16">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="BH16">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="BI16">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="BJ16">
-        <v>3.15</v>
+        <v>2.77</v>
       </c>
       <c r="BK16">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="BL16">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="BM16">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="BN16">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="BO16">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="BP16">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="17" spans="1:68">
@@ -4156,7 +4156,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>7373186</v>
+        <v>7373192</v>
       </c>
       <c r="C17" t="s">
         <v>68</v>
@@ -4174,7 +4174,7 @@
         <v>85</v>
       </c>
       <c r="H17" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -4195,163 +4195,163 @@
         <v>2</v>
       </c>
       <c r="O17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="Q17">
+        <v>2.75</v>
+      </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <v>4.75</v>
+      </c>
+      <c r="T17">
+        <v>1.5</v>
+      </c>
+      <c r="U17">
+        <v>2.5</v>
+      </c>
+      <c r="V17">
+        <v>3.5</v>
+      </c>
+      <c r="W17">
+        <v>1.29</v>
+      </c>
+      <c r="X17">
+        <v>11</v>
+      </c>
+      <c r="Y17">
+        <v>1.05</v>
+      </c>
+      <c r="Z17">
+        <v>1.95</v>
+      </c>
+      <c r="AA17">
+        <v>3.4</v>
+      </c>
+      <c r="AB17">
+        <v>4</v>
+      </c>
+      <c r="AC17">
+        <v>1.08</v>
+      </c>
+      <c r="AD17">
+        <v>7.5</v>
+      </c>
+      <c r="AE17">
+        <v>1.42</v>
+      </c>
+      <c r="AF17">
+        <v>2.8</v>
+      </c>
+      <c r="AG17">
+        <v>2.25</v>
+      </c>
+      <c r="AH17">
+        <v>1.62</v>
+      </c>
+      <c r="AI17">
         <v>2.05</v>
       </c>
-      <c r="R17">
-        <v>2.2</v>
-      </c>
-      <c r="S17">
+      <c r="AJ17">
+        <v>1.7</v>
+      </c>
+      <c r="AK17">
+        <v>1.22</v>
+      </c>
+      <c r="AL17">
+        <v>1.28</v>
+      </c>
+      <c r="AM17">
+        <v>1.65</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>1</v>
+      </c>
+      <c r="AQ17">
+        <v>1.33</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>4</v>
+      </c>
+      <c r="AV17">
         <v>7</v>
       </c>
-      <c r="T17">
-        <v>1.35</v>
-      </c>
-      <c r="U17">
-        <v>3</v>
-      </c>
-      <c r="V17">
+      <c r="AW17">
+        <v>6</v>
+      </c>
+      <c r="AX17">
+        <v>6</v>
+      </c>
+      <c r="AY17">
+        <v>10</v>
+      </c>
+      <c r="AZ17">
+        <v>13</v>
+      </c>
+      <c r="BA17">
+        <v>7</v>
+      </c>
+      <c r="BB17">
+        <v>5</v>
+      </c>
+      <c r="BC17">
+        <v>12</v>
+      </c>
+      <c r="BD17">
+        <v>1.87</v>
+      </c>
+      <c r="BE17">
+        <v>9</v>
+      </c>
+      <c r="BF17">
+        <v>2.36</v>
+      </c>
+      <c r="BG17">
+        <v>1.25</v>
+      </c>
+      <c r="BH17">
+        <v>3.6</v>
+      </c>
+      <c r="BI17">
+        <v>1.31</v>
+      </c>
+      <c r="BJ17">
+        <v>3.15</v>
+      </c>
+      <c r="BK17">
+        <v>2</v>
+      </c>
+      <c r="BL17">
+        <v>2.25</v>
+      </c>
+      <c r="BM17">
+        <v>2</v>
+      </c>
+      <c r="BN17">
+        <v>1.73</v>
+      </c>
+      <c r="BO17">
         <v>2.6</v>
-      </c>
-      <c r="W17">
-        <v>1.45</v>
-      </c>
-      <c r="X17">
-        <v>5.75</v>
-      </c>
-      <c r="Y17">
-        <v>1.1</v>
-      </c>
-      <c r="Z17">
-        <v>1.5</v>
-      </c>
-      <c r="AA17">
-        <v>4</v>
-      </c>
-      <c r="AB17">
-        <v>7</v>
-      </c>
-      <c r="AC17">
-        <v>1.04</v>
-      </c>
-      <c r="AD17">
-        <v>13.5</v>
-      </c>
-      <c r="AE17">
-        <v>1.26</v>
-      </c>
-      <c r="AF17">
-        <v>3.87</v>
-      </c>
-      <c r="AG17">
-        <v>2.05</v>
-      </c>
-      <c r="AH17">
-        <v>1.75</v>
-      </c>
-      <c r="AI17">
-        <v>2.2</v>
-      </c>
-      <c r="AJ17">
-        <v>1.62</v>
-      </c>
-      <c r="AK17">
-        <v>1.04</v>
-      </c>
-      <c r="AL17">
-        <v>1.14</v>
-      </c>
-      <c r="AM17">
-        <v>2.75</v>
-      </c>
-      <c r="AN17">
-        <v>0</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>2</v>
-      </c>
-      <c r="AQ17">
-        <v>2</v>
-      </c>
-      <c r="AR17">
-        <v>0</v>
-      </c>
-      <c r="AS17">
-        <v>0</v>
-      </c>
-      <c r="AT17">
-        <v>0</v>
-      </c>
-      <c r="AU17">
-        <v>7</v>
-      </c>
-      <c r="AV17">
-        <v>2</v>
-      </c>
-      <c r="AW17">
-        <v>8</v>
-      </c>
-      <c r="AX17">
-        <v>4</v>
-      </c>
-      <c r="AY17">
-        <v>15</v>
-      </c>
-      <c r="AZ17">
-        <v>6</v>
-      </c>
-      <c r="BA17">
-        <v>9</v>
-      </c>
-      <c r="BB17">
-        <v>2</v>
-      </c>
-      <c r="BC17">
-        <v>11</v>
-      </c>
-      <c r="BD17">
-        <v>1.28</v>
-      </c>
-      <c r="BE17">
-        <v>13.5</v>
-      </c>
-      <c r="BF17">
-        <v>4.68</v>
-      </c>
-      <c r="BG17">
-        <v>1.19</v>
-      </c>
-      <c r="BH17">
-        <v>3.9</v>
-      </c>
-      <c r="BI17">
-        <v>1.4</v>
-      </c>
-      <c r="BJ17">
-        <v>2.75</v>
-      </c>
-      <c r="BK17">
-        <v>2.2</v>
-      </c>
-      <c r="BL17">
-        <v>2.05</v>
-      </c>
-      <c r="BM17">
-        <v>2.05</v>
-      </c>
-      <c r="BN17">
-        <v>1.7</v>
-      </c>
-      <c r="BO17">
-        <v>2.48</v>
       </c>
       <c r="BP17">
         <v>1.44</v>
@@ -4362,7 +4362,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>7373190</v>
+        <v>7373194</v>
       </c>
       <c r="C18" t="s">
         <v>68</v>
@@ -4380,169 +4380,169 @@
         <v>86</v>
       </c>
       <c r="H18" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O18" t="s">
+        <v>104</v>
+      </c>
+      <c r="P18" t="s">
         <v>95</v>
       </c>
-      <c r="P18" t="s">
-        <v>139</v>
-      </c>
       <c r="Q18">
-        <v>2.3</v>
+        <v>4.33</v>
       </c>
       <c r="R18">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="S18">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="T18">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U18">
-        <v>2.63</v>
+        <v>2.45</v>
       </c>
       <c r="V18">
         <v>3.25</v>
       </c>
       <c r="W18">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X18">
+        <v>7.5</v>
+      </c>
+      <c r="Y18">
+        <v>1.05</v>
+      </c>
+      <c r="Z18">
+        <v>3.5</v>
+      </c>
+      <c r="AA18">
+        <v>3</v>
+      </c>
+      <c r="AB18">
+        <v>2.3</v>
+      </c>
+      <c r="AC18">
+        <v>1.08</v>
+      </c>
+      <c r="AD18">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE18">
+        <v>1.42</v>
+      </c>
+      <c r="AF18">
+        <v>2.88</v>
+      </c>
+      <c r="AG18">
+        <v>2.88</v>
+      </c>
+      <c r="AH18">
+        <v>1.4</v>
+      </c>
+      <c r="AI18">
+        <v>2.25</v>
+      </c>
+      <c r="AJ18">
+        <v>1.57</v>
+      </c>
+      <c r="AK18">
+        <v>1.36</v>
+      </c>
+      <c r="AL18">
+        <v>1.28</v>
+      </c>
+      <c r="AM18">
+        <v>1.44</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>2</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
         <v>9</v>
       </c>
-      <c r="Y18">
-        <v>1.07</v>
-      </c>
-      <c r="Z18">
-        <v>1.65</v>
-      </c>
-      <c r="AA18">
-        <v>3.6</v>
-      </c>
-      <c r="AB18">
-        <v>6</v>
-      </c>
-      <c r="AC18">
-        <v>1.06</v>
-      </c>
-      <c r="AD18">
-        <v>8.5</v>
-      </c>
-      <c r="AE18">
-        <v>1.35</v>
-      </c>
-      <c r="AF18">
-        <v>3.1</v>
-      </c>
-      <c r="AG18">
-        <v>2.2</v>
-      </c>
-      <c r="AH18">
-        <v>1.65</v>
-      </c>
-      <c r="AI18">
-        <v>2.1</v>
-      </c>
-      <c r="AJ18">
-        <v>1.67</v>
-      </c>
-      <c r="AK18">
-        <v>1.1</v>
-      </c>
-      <c r="AL18">
-        <v>1.2</v>
-      </c>
-      <c r="AM18">
-        <v>2.2</v>
-      </c>
-      <c r="AN18">
-        <v>0</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AP18">
-        <v>0.33</v>
-      </c>
-      <c r="AQ18">
-        <v>1.5</v>
-      </c>
-      <c r="AR18">
-        <v>0</v>
-      </c>
-      <c r="AS18">
-        <v>0</v>
-      </c>
-      <c r="AT18">
-        <v>0</v>
-      </c>
-      <c r="AU18">
+      <c r="AV18">
+        <v>3</v>
+      </c>
+      <c r="AW18">
         <v>4</v>
       </c>
-      <c r="AV18">
-        <v>3</v>
-      </c>
-      <c r="AW18">
+      <c r="AX18">
         <v>11</v>
       </c>
-      <c r="AX18">
-        <v>3</v>
-      </c>
       <c r="AY18">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ18">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BA18">
         <v>6</v>
       </c>
       <c r="BB18">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BC18">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BD18">
-        <v>1.42</v>
+        <v>1.72</v>
       </c>
       <c r="BE18">
-        <v>10.5</v>
+        <v>9.1</v>
       </c>
       <c r="BF18">
-        <v>3.7</v>
+        <v>2.64</v>
       </c>
       <c r="BG18">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="BH18">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="BI18">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="BJ18">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="BK18">
         <v>2.2</v>
@@ -4551,16 +4551,16 @@
         <v>1.95</v>
       </c>
       <c r="BM18">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="BN18">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="BO18">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="BP18">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="19" spans="1:68">
@@ -5186,7 +5186,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>7373201</v>
+        <v>7373195</v>
       </c>
       <c r="C22" t="s">
         <v>68</v>
@@ -5204,7 +5204,7 @@
         <v>82</v>
       </c>
       <c r="H22" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -5231,13 +5231,13 @@
         <v>95</v>
       </c>
       <c r="Q22">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="R22">
         <v>2.05</v>
       </c>
       <c r="S22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T22">
         <v>1.44</v>
@@ -5246,10 +5246,10 @@
         <v>2.63</v>
       </c>
       <c r="V22">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W22">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X22">
         <v>9</v>
@@ -5258,19 +5258,19 @@
         <v>1.07</v>
       </c>
       <c r="Z22">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="AA22">
-        <v>3.48</v>
+        <v>3.67</v>
       </c>
       <c r="AB22">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AC22">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AD22">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE22">
         <v>1.35</v>
@@ -5279,26 +5279,26 @@
         <v>3.1</v>
       </c>
       <c r="AG22">
+        <v>2.05</v>
+      </c>
+      <c r="AH22">
+        <v>1.7</v>
+      </c>
+      <c r="AI22">
+        <v>2.2</v>
+      </c>
+      <c r="AJ22">
+        <v>1.62</v>
+      </c>
+      <c r="AK22">
+        <v>1.11</v>
+      </c>
+      <c r="AL22">
+        <v>1.22</v>
+      </c>
+      <c r="AM22">
         <v>2.3</v>
       </c>
-      <c r="AH22">
-        <v>1.55</v>
-      </c>
-      <c r="AI22">
-        <v>1.95</v>
-      </c>
-      <c r="AJ22">
-        <v>1.8</v>
-      </c>
-      <c r="AK22">
-        <v>1.25</v>
-      </c>
-      <c r="AL22">
-        <v>1.25</v>
-      </c>
-      <c r="AM22">
-        <v>1.83</v>
-      </c>
       <c r="AN22">
         <v>3</v>
       </c>
@@ -5306,37 +5306,37 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AQ22">
         <v>0</v>
       </c>
       <c r="AR22">
-        <v>1.76</v>
+        <v>1.64</v>
       </c>
       <c r="AS22">
-        <v>1.43</v>
+        <v>0.45</v>
       </c>
       <c r="AT22">
-        <v>3.19</v>
+        <v>2.09</v>
       </c>
       <c r="AU22">
+        <v>5</v>
+      </c>
+      <c r="AV22">
         <v>4</v>
       </c>
-      <c r="AV22">
-        <v>5</v>
-      </c>
       <c r="AW22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX22">
         <v>8</v>
       </c>
       <c r="AY22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ22">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA22">
         <v>3</v>
@@ -5360,31 +5360,31 @@
         <v>1.21</v>
       </c>
       <c r="BH22">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="BI22">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="BJ22">
+        <v>2.55</v>
+      </c>
+      <c r="BK22">
+        <v>2</v>
+      </c>
+      <c r="BL22">
+        <v>2.1</v>
+      </c>
+      <c r="BM22">
+        <v>2</v>
+      </c>
+      <c r="BN22">
+        <v>1.73</v>
+      </c>
+      <c r="BO22">
         <v>2.6</v>
       </c>
-      <c r="BK22">
-        <v>1.83</v>
-      </c>
-      <c r="BL22">
-        <v>2.4</v>
-      </c>
-      <c r="BM22">
-        <v>1.95</v>
-      </c>
-      <c r="BN22">
-        <v>1.85</v>
-      </c>
-      <c r="BO22">
-        <v>2.3</v>
-      </c>
       <c r="BP22">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="23" spans="1:68">
@@ -5392,7 +5392,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>7373195</v>
+        <v>7373201</v>
       </c>
       <c r="C23" t="s">
         <v>68</v>
@@ -5410,7 +5410,7 @@
         <v>81</v>
       </c>
       <c r="H23" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -5437,13 +5437,13 @@
         <v>95</v>
       </c>
       <c r="Q23">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="R23">
         <v>2.05</v>
       </c>
       <c r="S23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T23">
         <v>1.44</v>
@@ -5452,10 +5452,10 @@
         <v>2.63</v>
       </c>
       <c r="V23">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W23">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X23">
         <v>9</v>
@@ -5464,19 +5464,19 @@
         <v>1.07</v>
       </c>
       <c r="Z23">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="AA23">
-        <v>3.67</v>
+        <v>3.48</v>
       </c>
       <c r="AB23">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="AC23">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AD23">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE23">
         <v>1.35</v>
@@ -5485,25 +5485,25 @@
         <v>3.1</v>
       </c>
       <c r="AG23">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="AH23">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AI23">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AJ23">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AK23">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AL23">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AM23">
-        <v>2.3</v>
+        <v>1.83</v>
       </c>
       <c r="AN23">
         <v>3</v>
@@ -5512,37 +5512,37 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ23">
         <v>0</v>
       </c>
       <c r="AR23">
-        <v>1.64</v>
+        <v>1.76</v>
       </c>
       <c r="AS23">
-        <v>0.45</v>
+        <v>1.43</v>
       </c>
       <c r="AT23">
-        <v>2.09</v>
+        <v>3.19</v>
       </c>
       <c r="AU23">
+        <v>4</v>
+      </c>
+      <c r="AV23">
         <v>5</v>
       </c>
-      <c r="AV23">
-        <v>4</v>
-      </c>
       <c r="AW23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX23">
         <v>8</v>
       </c>
       <c r="AY23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ23">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA23">
         <v>3</v>
@@ -5566,31 +5566,31 @@
         <v>1.21</v>
       </c>
       <c r="BH23">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="BI23">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="BJ23">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="BK23">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="BL23">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="BM23">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="BN23">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="BO23">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="BP23">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="24" spans="1:68">
@@ -5613,7 +5613,7 @@
         <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s">
         <v>78</v>
@@ -5804,7 +5804,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>7373200</v>
+        <v>7373197</v>
       </c>
       <c r="C25" t="s">
         <v>68</v>
@@ -5819,190 +5819,190 @@
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O25" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="P25" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="Q25">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="R25">
         <v>2.05</v>
       </c>
       <c r="S25">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="T25">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U25">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V25">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W25">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X25">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y25">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="Z25">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="AA25">
-        <v>3.13</v>
+        <v>3.2</v>
       </c>
       <c r="AB25">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AC25">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AD25">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE25">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="AF25">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="AG25">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="AH25">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="AI25">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AJ25">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="AK25">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="AL25">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AM25">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="AN25">
         <v>0</v>
       </c>
       <c r="AO25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP25">
         <v>0.33</v>
       </c>
       <c r="AQ25">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AR25">
-        <v>1.49</v>
+        <v>1.33</v>
       </c>
       <c r="AS25">
-        <v>1.26</v>
+        <v>1.09</v>
       </c>
       <c r="AT25">
-        <v>2.75</v>
+        <v>2.42</v>
       </c>
       <c r="AU25">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AV25">
+        <v>8</v>
+      </c>
+      <c r="AW25">
         <v>4</v>
       </c>
-      <c r="AW25">
-        <v>8</v>
-      </c>
       <c r="AX25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY25">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ25">
+        <v>14</v>
+      </c>
+      <c r="BA25">
+        <v>2</v>
+      </c>
+      <c r="BB25">
         <v>7</v>
       </c>
-      <c r="BA25">
-        <v>6</v>
-      </c>
-      <c r="BB25">
-        <v>5</v>
-      </c>
       <c r="BC25">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BD25">
-        <v>1.57</v>
+        <v>1.92</v>
       </c>
       <c r="BE25">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="BF25">
-        <v>2.97</v>
+        <v>2.3</v>
       </c>
       <c r="BG25">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="BH25">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="BI25">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="BJ25">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="BK25">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BL25">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="BM25">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="BN25">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="BO25">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="BP25">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="26" spans="1:68">
@@ -6010,7 +6010,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>7373197</v>
+        <v>7373200</v>
       </c>
       <c r="C26" t="s">
         <v>68</v>
@@ -6025,190 +6025,190 @@
         <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O26" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="Q26">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="R26">
         <v>2.05</v>
       </c>
       <c r="S26">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="T26">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U26">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V26">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W26">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y26">
+        <v>1.07</v>
+      </c>
+      <c r="Z26">
+        <v>2.2</v>
+      </c>
+      <c r="AA26">
+        <v>3.13</v>
+      </c>
+      <c r="AB26">
+        <v>3</v>
+      </c>
+      <c r="AC26">
         <v>1.06</v>
       </c>
-      <c r="Z26">
-        <v>2.6</v>
-      </c>
-      <c r="AA26">
-        <v>3.2</v>
-      </c>
-      <c r="AB26">
-        <v>2.8</v>
-      </c>
-      <c r="AC26">
-        <v>1.08</v>
-      </c>
       <c r="AD26">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE26">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AF26">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="AG26">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="AH26">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="AI26">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AJ26">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="AK26">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AL26">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AM26">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="AN26">
         <v>0</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP26">
         <v>0.33</v>
       </c>
       <c r="AQ26">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="AR26">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
       <c r="AS26">
-        <v>1.09</v>
+        <v>1.26</v>
       </c>
       <c r="AT26">
-        <v>2.42</v>
+        <v>2.75</v>
       </c>
       <c r="AU26">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AV26">
+        <v>4</v>
+      </c>
+      <c r="AW26">
         <v>8</v>
       </c>
-      <c r="AW26">
-        <v>4</v>
-      </c>
       <c r="AX26">
+        <v>3</v>
+      </c>
+      <c r="AY26">
+        <v>10</v>
+      </c>
+      <c r="AZ26">
+        <v>7</v>
+      </c>
+      <c r="BA26">
         <v>6</v>
       </c>
-      <c r="AY26">
-        <v>13</v>
-      </c>
-      <c r="AZ26">
-        <v>14</v>
-      </c>
-      <c r="BA26">
-        <v>2</v>
-      </c>
       <c r="BB26">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BC26">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD26">
-        <v>1.92</v>
+        <v>1.57</v>
       </c>
       <c r="BE26">
-        <v>8.4</v>
+        <v>10.5</v>
       </c>
       <c r="BF26">
-        <v>2.3</v>
+        <v>2.97</v>
       </c>
       <c r="BG26">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="BH26">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="BI26">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="BJ26">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="BK26">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="BL26">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="BM26">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="BN26">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="BO26">
-        <v>3.15</v>
+        <v>2.8</v>
       </c>
       <c r="BP26">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="27" spans="1:68">
@@ -6422,7 +6422,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>7373203</v>
+        <v>7373199</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -6437,190 +6437,190 @@
         <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N28">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O28" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="P28" t="s">
         <v>142</v>
       </c>
       <c r="Q28">
-        <v>3.5</v>
+        <v>2.38</v>
       </c>
       <c r="R28">
+        <v>2.1</v>
+      </c>
+      <c r="S28">
+        <v>5.5</v>
+      </c>
+      <c r="T28">
+        <v>1.44</v>
+      </c>
+      <c r="U28">
+        <v>2.63</v>
+      </c>
+      <c r="V28">
+        <v>3.25</v>
+      </c>
+      <c r="W28">
+        <v>1.33</v>
+      </c>
+      <c r="X28">
+        <v>9</v>
+      </c>
+      <c r="Y28">
+        <v>1.07</v>
+      </c>
+      <c r="Z28">
+        <v>1.73</v>
+      </c>
+      <c r="AA28">
+        <v>3.6</v>
+      </c>
+      <c r="AB28">
+        <v>4.75</v>
+      </c>
+      <c r="AC28">
+        <v>1.03</v>
+      </c>
+      <c r="AD28">
+        <v>8</v>
+      </c>
+      <c r="AE28">
+        <v>1.33</v>
+      </c>
+      <c r="AF28">
+        <v>2.93</v>
+      </c>
+      <c r="AG28">
+        <v>2</v>
+      </c>
+      <c r="AH28">
+        <v>1.65</v>
+      </c>
+      <c r="AI28">
+        <v>2.1</v>
+      </c>
+      <c r="AJ28">
+        <v>1.67</v>
+      </c>
+      <c r="AK28">
+        <v>1.24</v>
+      </c>
+      <c r="AL28">
+        <v>1.31</v>
+      </c>
+      <c r="AM28">
+        <v>1.89</v>
+      </c>
+      <c r="AN28">
+        <v>3</v>
+      </c>
+      <c r="AO28">
+        <v>1</v>
+      </c>
+      <c r="AP28">
+        <v>2</v>
+      </c>
+      <c r="AQ28">
+        <v>0.5</v>
+      </c>
+      <c r="AR28">
+        <v>1.4</v>
+      </c>
+      <c r="AS28">
+        <v>1.58</v>
+      </c>
+      <c r="AT28">
+        <v>2.98</v>
+      </c>
+      <c r="AU28">
+        <v>7</v>
+      </c>
+      <c r="AV28">
+        <v>2</v>
+      </c>
+      <c r="AW28">
+        <v>5</v>
+      </c>
+      <c r="AX28">
+        <v>5</v>
+      </c>
+      <c r="AY28">
+        <v>12</v>
+      </c>
+      <c r="AZ28">
+        <v>7</v>
+      </c>
+      <c r="BA28">
+        <v>5</v>
+      </c>
+      <c r="BB28">
+        <v>4</v>
+      </c>
+      <c r="BC28">
+        <v>9</v>
+      </c>
+      <c r="BD28">
+        <v>1.57</v>
+      </c>
+      <c r="BE28">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF28">
+        <v>3.07</v>
+      </c>
+      <c r="BG28">
+        <v>1.27</v>
+      </c>
+      <c r="BH28">
+        <v>3.15</v>
+      </c>
+      <c r="BI28">
         <v>1.95</v>
       </c>
-      <c r="S28">
-        <v>3.6</v>
-      </c>
-      <c r="T28">
-        <v>1.5</v>
-      </c>
-      <c r="U28">
-        <v>2.5</v>
-      </c>
-      <c r="V28">
-        <v>3.5</v>
-      </c>
-      <c r="W28">
-        <v>1.29</v>
-      </c>
-      <c r="X28">
-        <v>11</v>
-      </c>
-      <c r="Y28">
-        <v>1.05</v>
-      </c>
-      <c r="Z28">
-        <v>2.8</v>
-      </c>
-      <c r="AA28">
-        <v>2.9</v>
-      </c>
-      <c r="AB28">
-        <v>2.45</v>
-      </c>
-      <c r="AC28">
-        <v>1.05</v>
-      </c>
-      <c r="AD28">
-        <v>7.2</v>
-      </c>
-      <c r="AE28">
-        <v>1.39</v>
-      </c>
-      <c r="AF28">
-        <v>2.68</v>
-      </c>
-      <c r="AG28">
-        <v>2.38</v>
-      </c>
-      <c r="AH28">
-        <v>1.53</v>
-      </c>
-      <c r="AI28">
-        <v>2.05</v>
-      </c>
-      <c r="AJ28">
-        <v>1.7</v>
-      </c>
-      <c r="AK28">
-        <v>1.6</v>
-      </c>
-      <c r="AL28">
+      <c r="BJ28">
+        <v>1.85</v>
+      </c>
+      <c r="BK28">
+        <v>2</v>
+      </c>
+      <c r="BL28">
+        <v>1.73</v>
+      </c>
+      <c r="BM28">
+        <v>2.6</v>
+      </c>
+      <c r="BN28">
+        <v>1.45</v>
+      </c>
+      <c r="BO28">
+        <v>3.05</v>
+      </c>
+      <c r="BP28">
         <v>1.28</v>
-      </c>
-      <c r="AM28">
-        <v>1.36</v>
-      </c>
-      <c r="AN28">
-        <v>0</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
-      <c r="AP28">
-        <v>0</v>
-      </c>
-      <c r="AQ28">
-        <v>2</v>
-      </c>
-      <c r="AR28">
-        <v>1.21</v>
-      </c>
-      <c r="AS28">
-        <v>0.91</v>
-      </c>
-      <c r="AT28">
-        <v>2.12</v>
-      </c>
-      <c r="AU28">
-        <v>2</v>
-      </c>
-      <c r="AV28">
-        <v>8</v>
-      </c>
-      <c r="AW28">
-        <v>4</v>
-      </c>
-      <c r="AX28">
-        <v>4</v>
-      </c>
-      <c r="AY28">
-        <v>6</v>
-      </c>
-      <c r="AZ28">
-        <v>12</v>
-      </c>
-      <c r="BA28">
-        <v>4</v>
-      </c>
-      <c r="BB28">
-        <v>3</v>
-      </c>
-      <c r="BC28">
-        <v>7</v>
-      </c>
-      <c r="BD28">
-        <v>2.15</v>
-      </c>
-      <c r="BE28">
-        <v>8.5</v>
-      </c>
-      <c r="BF28">
-        <v>2.03</v>
-      </c>
-      <c r="BG28">
-        <v>1.23</v>
-      </c>
-      <c r="BH28">
-        <v>3.45</v>
-      </c>
-      <c r="BI28">
-        <v>1.45</v>
-      </c>
-      <c r="BJ28">
-        <v>2.6</v>
-      </c>
-      <c r="BK28">
-        <v>2.2</v>
-      </c>
-      <c r="BL28">
-        <v>2</v>
-      </c>
-      <c r="BM28">
-        <v>2.2</v>
-      </c>
-      <c r="BN28">
-        <v>1.62</v>
-      </c>
-      <c r="BO28">
-        <v>2.8</v>
-      </c>
-      <c r="BP28">
-        <v>1.34</v>
       </c>
     </row>
     <row r="29" spans="1:68">
@@ -6628,7 +6628,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>7373199</v>
+        <v>7373203</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -6643,190 +6643,190 @@
         <v>3</v>
       </c>
       <c r="G29" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H29" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N29">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O29" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="P29" t="s">
         <v>143</v>
       </c>
       <c r="Q29">
+        <v>3.5</v>
+      </c>
+      <c r="R29">
+        <v>1.95</v>
+      </c>
+      <c r="S29">
+        <v>3.6</v>
+      </c>
+      <c r="T29">
+        <v>1.5</v>
+      </c>
+      <c r="U29">
+        <v>2.5</v>
+      </c>
+      <c r="V29">
+        <v>3.5</v>
+      </c>
+      <c r="W29">
+        <v>1.29</v>
+      </c>
+      <c r="X29">
+        <v>11</v>
+      </c>
+      <c r="Y29">
+        <v>1.05</v>
+      </c>
+      <c r="Z29">
+        <v>2.8</v>
+      </c>
+      <c r="AA29">
+        <v>2.9</v>
+      </c>
+      <c r="AB29">
+        <v>2.45</v>
+      </c>
+      <c r="AC29">
+        <v>1.05</v>
+      </c>
+      <c r="AD29">
+        <v>7.2</v>
+      </c>
+      <c r="AE29">
+        <v>1.39</v>
+      </c>
+      <c r="AF29">
+        <v>2.68</v>
+      </c>
+      <c r="AG29">
         <v>2.38</v>
       </c>
-      <c r="R29">
-        <v>2.1</v>
-      </c>
-      <c r="S29">
-        <v>5.5</v>
-      </c>
-      <c r="T29">
-        <v>1.44</v>
-      </c>
-      <c r="U29">
-        <v>2.63</v>
-      </c>
-      <c r="V29">
-        <v>3.25</v>
-      </c>
-      <c r="W29">
-        <v>1.33</v>
-      </c>
-      <c r="X29">
-        <v>9</v>
-      </c>
-      <c r="Y29">
-        <v>1.07</v>
-      </c>
-      <c r="Z29">
-        <v>1.73</v>
-      </c>
-      <c r="AA29">
-        <v>3.6</v>
-      </c>
-      <c r="AB29">
-        <v>4.75</v>
-      </c>
-      <c r="AC29">
-        <v>1.03</v>
-      </c>
-      <c r="AD29">
+      <c r="AH29">
+        <v>1.53</v>
+      </c>
+      <c r="AI29">
+        <v>2.05</v>
+      </c>
+      <c r="AJ29">
+        <v>1.7</v>
+      </c>
+      <c r="AK29">
+        <v>1.6</v>
+      </c>
+      <c r="AL29">
+        <v>1.28</v>
+      </c>
+      <c r="AM29">
+        <v>1.36</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>2</v>
+      </c>
+      <c r="AR29">
+        <v>1.21</v>
+      </c>
+      <c r="AS29">
+        <v>0.91</v>
+      </c>
+      <c r="AT29">
+        <v>2.12</v>
+      </c>
+      <c r="AU29">
+        <v>2</v>
+      </c>
+      <c r="AV29">
         <v>8</v>
       </c>
-      <c r="AE29">
-        <v>1.33</v>
-      </c>
-      <c r="AF29">
-        <v>2.93</v>
-      </c>
-      <c r="AG29">
-        <v>2</v>
-      </c>
-      <c r="AH29">
-        <v>1.65</v>
-      </c>
-      <c r="AI29">
-        <v>2.1</v>
-      </c>
-      <c r="AJ29">
-        <v>1.67</v>
-      </c>
-      <c r="AK29">
-        <v>1.24</v>
-      </c>
-      <c r="AL29">
-        <v>1.31</v>
-      </c>
-      <c r="AM29">
-        <v>1.89</v>
-      </c>
-      <c r="AN29">
-        <v>3</v>
-      </c>
-      <c r="AO29">
-        <v>1</v>
-      </c>
-      <c r="AP29">
-        <v>2</v>
-      </c>
-      <c r="AQ29">
-        <v>0.5</v>
-      </c>
-      <c r="AR29">
-        <v>1.4</v>
-      </c>
-      <c r="AS29">
-        <v>1.58</v>
-      </c>
-      <c r="AT29">
-        <v>2.98</v>
-      </c>
-      <c r="AU29">
+      <c r="AW29">
+        <v>4</v>
+      </c>
+      <c r="AX29">
+        <v>4</v>
+      </c>
+      <c r="AY29">
+        <v>6</v>
+      </c>
+      <c r="AZ29">
+        <v>12</v>
+      </c>
+      <c r="BA29">
+        <v>4</v>
+      </c>
+      <c r="BB29">
+        <v>3</v>
+      </c>
+      <c r="BC29">
         <v>7</v>
       </c>
-      <c r="AV29">
-        <v>2</v>
-      </c>
-      <c r="AW29">
-        <v>5</v>
-      </c>
-      <c r="AX29">
-        <v>5</v>
-      </c>
-      <c r="AY29">
-        <v>12</v>
-      </c>
-      <c r="AZ29">
-        <v>7</v>
-      </c>
-      <c r="BA29">
-        <v>5</v>
-      </c>
-      <c r="BB29">
-        <v>4</v>
-      </c>
-      <c r="BC29">
-        <v>9</v>
-      </c>
       <c r="BD29">
-        <v>1.57</v>
+        <v>2.15</v>
       </c>
       <c r="BE29">
-        <v>9.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="BF29">
-        <v>3.07</v>
+        <v>2.03</v>
       </c>
       <c r="BG29">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="BH29">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="BI29">
-        <v>1.95</v>
+        <v>1.45</v>
       </c>
       <c r="BJ29">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="BK29">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="BL29">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="BM29">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="BN29">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="BO29">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="BP29">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="30" spans="1:68">
@@ -7058,7 +7058,7 @@
         <v>89</v>
       </c>
       <c r="H31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -7264,7 +7264,7 @@
         <v>80</v>
       </c>
       <c r="H32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -7658,7 +7658,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>7373206</v>
+        <v>7373210</v>
       </c>
       <c r="C34" t="s">
         <v>68</v>
@@ -7673,43 +7673,43 @@
         <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H34" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L34">
         <v>3</v>
       </c>
       <c r="M34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O34" t="s">
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="Q34">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="R34">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S34">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="T34">
         <v>1.5</v>
@@ -7730,133 +7730,133 @@
         <v>1.06</v>
       </c>
       <c r="Z34">
-        <v>1.53</v>
+        <v>2.3</v>
       </c>
       <c r="AA34">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="AB34">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="AC34">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AD34">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE34">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AF34">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="AG34">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AH34">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="AI34">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AJ34">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AK34">
-        <v>1.16</v>
+        <v>1.35</v>
       </c>
       <c r="AL34">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AM34">
-        <v>2.2</v>
+        <v>1.63</v>
       </c>
       <c r="AN34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO34">
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="AQ34">
         <v>0</v>
       </c>
       <c r="AR34">
-        <v>1.46</v>
+        <v>1.12</v>
       </c>
       <c r="AS34">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="AT34">
-        <v>1.46</v>
+        <v>2.11</v>
       </c>
       <c r="AU34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV34">
+        <v>3</v>
+      </c>
+      <c r="AW34">
         <v>4</v>
       </c>
-      <c r="AW34">
+      <c r="AX34">
         <v>5</v>
-      </c>
-      <c r="AX34">
-        <v>6</v>
       </c>
       <c r="AY34">
         <v>12</v>
       </c>
       <c r="AZ34">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA34">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BB34">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BC34">
         <v>14</v>
       </c>
       <c r="BD34">
-        <v>1.41</v>
+        <v>1.82</v>
       </c>
       <c r="BE34">
         <v>9</v>
       </c>
       <c r="BF34">
-        <v>3.55</v>
+        <v>2.44</v>
       </c>
       <c r="BG34">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="BH34">
-        <v>3.25</v>
+        <v>3.98</v>
       </c>
       <c r="BI34">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="BJ34">
-        <v>2.38</v>
+        <v>2.76</v>
       </c>
       <c r="BK34">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BL34">
-        <v>1.86</v>
+        <v>2.08</v>
       </c>
       <c r="BM34">
-        <v>2.28</v>
+        <v>2.12</v>
       </c>
       <c r="BN34">
-        <v>1.52</v>
+        <v>1.64</v>
       </c>
       <c r="BO34">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="BP34">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="35" spans="1:68">
@@ -7864,7 +7864,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>7373210</v>
+        <v>7373206</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
@@ -7879,43 +7879,43 @@
         <v>4</v>
       </c>
       <c r="G35" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L35">
         <v>3</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O35" t="s">
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="Q35">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="R35">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S35">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="T35">
         <v>1.5</v>
@@ -7936,133 +7936,133 @@
         <v>1.06</v>
       </c>
       <c r="Z35">
-        <v>2.3</v>
+        <v>1.53</v>
       </c>
       <c r="AA35">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="AB35">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="AC35">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AD35">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE35">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AF35">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="AG35">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="AH35">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="AI35">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="AJ35">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="AK35">
-        <v>1.35</v>
+        <v>1.16</v>
       </c>
       <c r="AL35">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AM35">
-        <v>1.63</v>
+        <v>2.2</v>
       </c>
       <c r="AN35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO35">
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="AQ35">
         <v>0</v>
       </c>
       <c r="AR35">
-        <v>1.12</v>
+        <v>1.46</v>
       </c>
       <c r="AS35">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="AT35">
-        <v>2.11</v>
+        <v>1.46</v>
       </c>
       <c r="AU35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX35">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY35">
         <v>12</v>
       </c>
       <c r="AZ35">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA35">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BB35">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BC35">
         <v>14</v>
       </c>
       <c r="BD35">
-        <v>1.82</v>
+        <v>1.41</v>
       </c>
       <c r="BE35">
         <v>9</v>
       </c>
       <c r="BF35">
-        <v>2.44</v>
+        <v>3.55</v>
       </c>
       <c r="BG35">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="BH35">
-        <v>3.98</v>
+        <v>3.25</v>
       </c>
       <c r="BI35">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="BJ35">
-        <v>2.76</v>
+        <v>2.38</v>
       </c>
       <c r="BK35">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="BL35">
-        <v>2.08</v>
+        <v>1.86</v>
       </c>
       <c r="BM35">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="BN35">
-        <v>1.64</v>
+        <v>1.52</v>
       </c>
       <c r="BO35">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="BP35">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="36" spans="1:68">
@@ -8085,10 +8085,10 @@
         <v>4</v>
       </c>
       <c r="G36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -8112,7 +8112,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q36">
         <v>2.63</v>
@@ -8291,7 +8291,7 @@
         <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H37" t="s">
         <v>76</v>
@@ -8706,7 +8706,7 @@
         <v>73</v>
       </c>
       <c r="H39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -8912,7 +8912,7 @@
         <v>72</v>
       </c>
       <c r="H40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -9115,7 +9115,7 @@
         <v>5</v>
       </c>
       <c r="G41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s">
         <v>87</v>
@@ -9324,7 +9324,7 @@
         <v>75</v>
       </c>
       <c r="H42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -9512,7 +9512,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>7373222</v>
+        <v>7373217</v>
       </c>
       <c r="C43" t="s">
         <v>68</v>
@@ -9527,16 +9527,16 @@
         <v>5</v>
       </c>
       <c r="G43" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43">
         <v>1</v>
@@ -9545,70 +9545,70 @@
         <v>1</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O43" t="s">
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="Q43">
+        <v>4.33</v>
+      </c>
+      <c r="R43">
+        <v>1.95</v>
+      </c>
+      <c r="S43">
+        <v>3</v>
+      </c>
+      <c r="T43">
+        <v>1.53</v>
+      </c>
+      <c r="U43">
         <v>2.38</v>
       </c>
-      <c r="R43">
-        <v>2.1</v>
-      </c>
-      <c r="S43">
-        <v>5.5</v>
-      </c>
-      <c r="T43">
-        <v>1.4</v>
-      </c>
-      <c r="U43">
-        <v>2.75</v>
-      </c>
       <c r="V43">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="W43">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="X43">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y43">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="Z43">
-        <v>1.67</v>
+        <v>3.7</v>
       </c>
       <c r="AA43">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="AB43">
-        <v>5</v>
+        <v>2.18</v>
       </c>
       <c r="AC43">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AD43">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AE43">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AF43">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="AG43">
-        <v>2.04</v>
+        <v>2.27</v>
       </c>
       <c r="AH43">
-        <v>1.73</v>
+        <v>1.59</v>
       </c>
       <c r="AI43">
         <v>2.05</v>
@@ -9617,100 +9617,100 @@
         <v>1.7</v>
       </c>
       <c r="AK43">
-        <v>1.15</v>
+        <v>1.65</v>
       </c>
       <c r="AL43">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AM43">
-        <v>2.3</v>
+        <v>1.33</v>
       </c>
       <c r="AN43">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AO43">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>3</v>
+        <v>0.33</v>
       </c>
       <c r="AQ43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR43">
-        <v>1.32</v>
+        <v>1.47</v>
       </c>
       <c r="AS43">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="AT43">
         <v>2.82</v>
       </c>
       <c r="AU43">
+        <v>3</v>
+      </c>
+      <c r="AV43">
+        <v>9</v>
+      </c>
+      <c r="AW43">
+        <v>2</v>
+      </c>
+      <c r="AX43">
         <v>8</v>
       </c>
-      <c r="AV43">
-        <v>2</v>
-      </c>
-      <c r="AW43">
-        <v>13</v>
-      </c>
-      <c r="AX43">
-        <v>6</v>
-      </c>
       <c r="AY43">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="AZ43">
+        <v>17</v>
+      </c>
+      <c r="BA43">
+        <v>3</v>
+      </c>
+      <c r="BB43">
         <v>8</v>
-      </c>
-      <c r="BA43">
-        <v>6</v>
-      </c>
-      <c r="BB43">
-        <v>5</v>
       </c>
       <c r="BC43">
         <v>11</v>
       </c>
       <c r="BD43">
-        <v>1.49</v>
+        <v>2.23</v>
       </c>
       <c r="BE43">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="BF43">
+        <v>1.87</v>
+      </c>
+      <c r="BG43">
+        <v>1.27</v>
+      </c>
+      <c r="BH43">
         <v>3.15</v>
       </c>
-      <c r="BG43">
-        <v>1.21</v>
-      </c>
-      <c r="BH43">
-        <v>3.65</v>
-      </c>
       <c r="BI43">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="BJ43">
-        <v>2.63</v>
+        <v>2.32</v>
       </c>
       <c r="BK43">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="BL43">
-        <v>2.02</v>
+        <v>1.81</v>
       </c>
       <c r="BM43">
-        <v>2.08</v>
+        <v>2.38</v>
       </c>
       <c r="BN43">
-        <v>1.64</v>
+        <v>1.48</v>
       </c>
       <c r="BO43">
-        <v>2.65</v>
+        <v>3.1</v>
       </c>
       <c r="BP43">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="44" spans="1:68">
@@ -9718,7 +9718,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>7373217</v>
+        <v>7373222</v>
       </c>
       <c r="C44" t="s">
         <v>68</v>
@@ -9733,16 +9733,16 @@
         <v>5</v>
       </c>
       <c r="G44" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -9751,70 +9751,70 @@
         <v>1</v>
       </c>
       <c r="M44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O44" t="s">
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="Q44">
-        <v>4.33</v>
+        <v>2.38</v>
       </c>
       <c r="R44">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S44">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="T44">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="U44">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="V44">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="W44">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="X44">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y44">
+        <v>1.07</v>
+      </c>
+      <c r="Z44">
+        <v>1.67</v>
+      </c>
+      <c r="AA44">
+        <v>3.6</v>
+      </c>
+      <c r="AB44">
+        <v>5</v>
+      </c>
+      <c r="AC44">
         <v>1.05</v>
       </c>
-      <c r="Z44">
-        <v>3.7</v>
-      </c>
-      <c r="AA44">
-        <v>2.9</v>
-      </c>
-      <c r="AB44">
-        <v>2.18</v>
-      </c>
-      <c r="AC44">
-        <v>1.1</v>
-      </c>
       <c r="AD44">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AE44">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AF44">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="AG44">
-        <v>2.27</v>
+        <v>2.04</v>
       </c>
       <c r="AH44">
-        <v>1.59</v>
+        <v>1.73</v>
       </c>
       <c r="AI44">
         <v>2.05</v>
@@ -9823,100 +9823,100 @@
         <v>1.7</v>
       </c>
       <c r="AK44">
-        <v>1.65</v>
+        <v>1.15</v>
       </c>
       <c r="AL44">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AM44">
-        <v>1.33</v>
+        <v>2.3</v>
       </c>
       <c r="AN44">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AO44">
+        <v>0</v>
+      </c>
+      <c r="AP44">
+        <v>3</v>
+      </c>
+      <c r="AQ44">
+        <v>0</v>
+      </c>
+      <c r="AR44">
+        <v>1.32</v>
+      </c>
+      <c r="AS44">
         <v>1.5</v>
-      </c>
-      <c r="AP44">
-        <v>0.33</v>
-      </c>
-      <c r="AQ44">
-        <v>2</v>
-      </c>
-      <c r="AR44">
-        <v>1.47</v>
-      </c>
-      <c r="AS44">
-        <v>1.35</v>
       </c>
       <c r="AT44">
         <v>2.82</v>
       </c>
       <c r="AU44">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AV44">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AW44">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="AX44">
+        <v>6</v>
+      </c>
+      <c r="AY44">
+        <v>21</v>
+      </c>
+      <c r="AZ44">
         <v>8</v>
       </c>
-      <c r="AY44">
+      <c r="BA44">
+        <v>6</v>
+      </c>
+      <c r="BB44">
         <v>5</v>
-      </c>
-      <c r="AZ44">
-        <v>17</v>
-      </c>
-      <c r="BA44">
-        <v>3</v>
-      </c>
-      <c r="BB44">
-        <v>8</v>
       </c>
       <c r="BC44">
         <v>11</v>
       </c>
       <c r="BD44">
-        <v>2.23</v>
+        <v>1.49</v>
       </c>
       <c r="BE44">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="BF44">
-        <v>1.87</v>
+        <v>3.15</v>
       </c>
       <c r="BG44">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="BH44">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="BI44">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="BJ44">
-        <v>2.32</v>
+        <v>2.63</v>
       </c>
       <c r="BK44">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="BL44">
-        <v>1.81</v>
+        <v>2.02</v>
       </c>
       <c r="BM44">
-        <v>2.38</v>
+        <v>2.08</v>
       </c>
       <c r="BN44">
-        <v>1.48</v>
+        <v>1.64</v>
       </c>
       <c r="BO44">
-        <v>3.1</v>
+        <v>2.65</v>
       </c>
       <c r="BP44">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="45" spans="1:68">
@@ -10148,7 +10148,7 @@
         <v>89</v>
       </c>
       <c r="H46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -10542,7 +10542,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>7373230</v>
+        <v>7373232</v>
       </c>
       <c r="C48" t="s">
         <v>68</v>
@@ -10557,43 +10557,43 @@
         <v>6</v>
       </c>
       <c r="G48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H48" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48">
         <v>1</v>
       </c>
       <c r="K48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N48">
         <v>2</v>
       </c>
       <c r="O48" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="P48" t="s">
         <v>154</v>
       </c>
       <c r="Q48">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="R48">
         <v>2.1</v>
       </c>
       <c r="S48">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="T48">
         <v>1.44</v>
@@ -10608,31 +10608,31 @@
         <v>1.33</v>
       </c>
       <c r="X48">
+        <v>10</v>
+      </c>
+      <c r="Y48">
+        <v>1.06</v>
+      </c>
+      <c r="Z48">
+        <v>1.8</v>
+      </c>
+      <c r="AA48">
+        <v>3.25</v>
+      </c>
+      <c r="AB48">
+        <v>4</v>
+      </c>
+      <c r="AC48">
+        <v>1.07</v>
+      </c>
+      <c r="AD48">
         <v>9</v>
       </c>
-      <c r="Y48">
-        <v>1.07</v>
-      </c>
-      <c r="Z48">
-        <v>1.62</v>
-      </c>
-      <c r="AA48">
-        <v>3.4</v>
-      </c>
-      <c r="AB48">
-        <v>5</v>
-      </c>
-      <c r="AC48">
-        <v>1.08</v>
-      </c>
-      <c r="AD48">
-        <v>8.6</v>
-      </c>
       <c r="AE48">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AF48">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="AG48">
         <v>2.1</v>
@@ -10641,106 +10641,106 @@
         <v>1.67</v>
       </c>
       <c r="AI48">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AJ48">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AK48">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="AL48">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AM48">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="AN48">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO48">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ48">
         <v>1.33</v>
       </c>
       <c r="AR48">
-        <v>1.23</v>
+        <v>1.5</v>
       </c>
       <c r="AS48">
-        <v>1.08</v>
+        <v>0.85</v>
       </c>
       <c r="AT48">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AU48">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW48">
+        <v>5</v>
+      </c>
+      <c r="AX48">
+        <v>5</v>
+      </c>
+      <c r="AY48">
+        <v>10</v>
+      </c>
+      <c r="AZ48">
         <v>11</v>
       </c>
-      <c r="AX48">
-        <v>2</v>
-      </c>
-      <c r="AY48">
-        <v>18</v>
-      </c>
-      <c r="AZ48">
-        <v>9</v>
-      </c>
       <c r="BA48">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BB48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC48">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BD48">
-        <v>1.42</v>
+        <v>1.62</v>
       </c>
       <c r="BE48">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="BF48">
-        <v>3.45</v>
+        <v>2.75</v>
       </c>
       <c r="BG48">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="BH48">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="BI48">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="BJ48">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="BK48">
-        <v>2.1</v>
+        <v>1.87</v>
       </c>
       <c r="BL48">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="BM48">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="BN48">
-        <v>1.6</v>
+        <v>1.49</v>
       </c>
       <c r="BO48">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="BP48">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="49" spans="1:68">
@@ -10748,7 +10748,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>7373232</v>
+        <v>7373230</v>
       </c>
       <c r="C49" t="s">
         <v>68</v>
@@ -10766,40 +10766,40 @@
         <v>84</v>
       </c>
       <c r="H49" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49">
         <v>1</v>
       </c>
       <c r="K49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N49">
         <v>2</v>
       </c>
       <c r="O49" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="P49" t="s">
         <v>155</v>
       </c>
       <c r="Q49">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="R49">
         <v>2.1</v>
       </c>
       <c r="S49">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="T49">
         <v>1.44</v>
@@ -10814,31 +10814,31 @@
         <v>1.33</v>
       </c>
       <c r="X49">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y49">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="Z49">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="AA49">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AB49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC49">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AD49">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AE49">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AF49">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="AG49">
         <v>2.1</v>
@@ -10847,106 +10847,106 @@
         <v>1.67</v>
       </c>
       <c r="AI49">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AJ49">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AK49">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="AL49">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AM49">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="AN49">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO49">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AP49">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AQ49">
         <v>1.33</v>
       </c>
       <c r="AR49">
-        <v>1.5</v>
+        <v>1.23</v>
       </c>
       <c r="AS49">
-        <v>0.85</v>
+        <v>1.08</v>
       </c>
       <c r="AT49">
-        <v>2.35</v>
+        <v>2.31</v>
       </c>
       <c r="AU49">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV49">
+        <v>7</v>
+      </c>
+      <c r="AW49">
+        <v>11</v>
+      </c>
+      <c r="AX49">
+        <v>2</v>
+      </c>
+      <c r="AY49">
+        <v>18</v>
+      </c>
+      <c r="AZ49">
+        <v>9</v>
+      </c>
+      <c r="BA49">
+        <v>9</v>
+      </c>
+      <c r="BB49">
         <v>6</v>
       </c>
-      <c r="AW49">
-        <v>5</v>
-      </c>
-      <c r="AX49">
-        <v>5</v>
-      </c>
-      <c r="AY49">
-        <v>10</v>
-      </c>
-      <c r="AZ49">
-        <v>11</v>
-      </c>
-      <c r="BA49">
-        <v>6</v>
-      </c>
-      <c r="BB49">
-        <v>5</v>
-      </c>
       <c r="BC49">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BD49">
-        <v>1.62</v>
+        <v>1.42</v>
       </c>
       <c r="BE49">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="BF49">
+        <v>3.45</v>
+      </c>
+      <c r="BG49">
+        <v>1.22</v>
+      </c>
+      <c r="BH49">
+        <v>3.55</v>
+      </c>
+      <c r="BI49">
+        <v>1.42</v>
+      </c>
+      <c r="BJ49">
+        <v>2.55</v>
+      </c>
+      <c r="BK49">
+        <v>2.1</v>
+      </c>
+      <c r="BL49">
+        <v>1.98</v>
+      </c>
+      <c r="BM49">
+        <v>2.15</v>
+      </c>
+      <c r="BN49">
+        <v>1.6</v>
+      </c>
+      <c r="BO49">
         <v>2.75</v>
       </c>
-      <c r="BG49">
-        <v>1.29</v>
-      </c>
-      <c r="BH49">
-        <v>3.3</v>
-      </c>
-      <c r="BI49">
-        <v>1.49</v>
-      </c>
-      <c r="BJ49">
-        <v>2.45</v>
-      </c>
-      <c r="BK49">
-        <v>1.87</v>
-      </c>
-      <c r="BL49">
-        <v>1.83</v>
-      </c>
-      <c r="BM49">
-        <v>2.45</v>
-      </c>
-      <c r="BN49">
-        <v>1.49</v>
-      </c>
-      <c r="BO49">
-        <v>3.3</v>
-      </c>
       <c r="BP49">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="50" spans="1:68">
@@ -11178,7 +11178,7 @@
         <v>80</v>
       </c>
       <c r="H51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -11408,7 +11408,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q52">
         <v>2.38</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -259,24 +259,24 @@
     <t>Bahia</t>
   </si>
   <si>
+    <t>Grêmio</t>
+  </si>
+  <si>
     <t>Bragantino</t>
   </si>
   <si>
-    <t>Grêmio</t>
+    <t>Juventude</t>
+  </si>
+  <si>
+    <t>Palmeiras</t>
+  </si>
+  <si>
+    <t>Fortaleza</t>
   </si>
   <si>
     <t>Atlético Mineiro</t>
   </si>
   <si>
-    <t>Palmeiras</t>
-  </si>
-  <si>
-    <t>Fortaleza</t>
-  </si>
-  <si>
-    <t>Juventude</t>
-  </si>
-  <si>
     <t>Flamengo</t>
   </si>
   <si>
@@ -316,21 +316,21 @@
     <t>['34', '61']</t>
   </si>
   <si>
+    <t>['19', '51']</t>
+  </si>
+  <si>
     <t>['7', '78']</t>
   </si>
   <si>
-    <t>['19', '51']</t>
+    <t>['53', '59']</t>
+  </si>
+  <si>
+    <t>['19']</t>
   </si>
   <si>
     <t>['40']</t>
   </si>
   <si>
-    <t>['19']</t>
-  </si>
-  <si>
-    <t>['53', '59']</t>
-  </si>
-  <si>
     <t>['20', '54']</t>
   </si>
   <si>
@@ -349,24 +349,24 @@
     <t>['25', '35', '45+2']</t>
   </si>
   <si>
+    <t>['71']</t>
+  </si>
+  <si>
     <t>['20', '57']</t>
   </si>
   <si>
-    <t>['71']</t>
-  </si>
-  <si>
     <t>['4', '9', '53', '61', '80']</t>
   </si>
   <si>
     <t>['17']</t>
   </si>
   <si>
+    <t>['50', '58', '75']</t>
+  </si>
+  <si>
     <t>['40', '45+2', '47']</t>
   </si>
   <si>
-    <t>['50', '58', '75']</t>
-  </si>
-  <si>
     <t>['9']</t>
   </si>
   <si>
@@ -394,12 +394,12 @@
     <t>['10']</t>
   </si>
   <si>
+    <t>['50', '56']</t>
+  </si>
+  <si>
     <t>['37']</t>
   </si>
   <si>
-    <t>['50', '56']</t>
-  </si>
-  <si>
     <t>['32', '84']</t>
   </si>
   <si>
@@ -442,12 +442,12 @@
     <t>['69', '72']</t>
   </si>
   <si>
+    <t>['14', '52', '76']</t>
+  </si>
+  <si>
     <t>['85']</t>
   </si>
   <si>
-    <t>['14', '52', '76']</t>
-  </si>
-  <si>
     <t>['32', '47', '55', '69']</t>
   </si>
   <si>
@@ -478,13 +478,13 @@
     <t>['45+1', '71']</t>
   </si>
   <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['45+9', '59']</t>
+  </si>
+  <si>
     <t>['41']</t>
-  </si>
-  <si>
-    <t>['45+9', '59']</t>
-  </si>
-  <si>
-    <t>['81']</t>
   </si>
   <si>
     <t>['29']</t>
@@ -1290,7 +1290,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1496,7 +1496,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1908,7 +1908,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -2114,7 +2114,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>7373191</v>
+        <v>7373185</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
@@ -3350,7 +3350,7 @@
         <v>81</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -3365,172 +3365,172 @@
         <v>2</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O13" t="s">
         <v>100</v>
       </c>
       <c r="P13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q13">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="R13">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="S13">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="T13">
         <v>1.44</v>
       </c>
       <c r="U13">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="V13">
-        <v>3.17</v>
+        <v>3.25</v>
       </c>
       <c r="W13">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="X13">
-        <v>6.75</v>
+        <v>9</v>
       </c>
       <c r="Y13">
         <v>1.07</v>
       </c>
       <c r="Z13">
-        <v>1.91</v>
+        <v>2.6</v>
       </c>
       <c r="AA13">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AB13">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="AC13">
         <v>1.07</v>
       </c>
       <c r="AD13">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AE13">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AF13">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AG13">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AH13">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AI13">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AJ13">
+        <v>1.91</v>
+      </c>
+      <c r="AK13">
+        <v>1.22</v>
+      </c>
+      <c r="AL13">
+        <v>1.25</v>
+      </c>
+      <c r="AM13">
+        <v>1.7</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>3</v>
+      </c>
+      <c r="AQ13">
+        <v>1.33</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>8</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>4</v>
+      </c>
+      <c r="AX13">
+        <v>4</v>
+      </c>
+      <c r="AY13">
+        <v>12</v>
+      </c>
+      <c r="AZ13">
+        <v>4</v>
+      </c>
+      <c r="BA13">
+        <v>9</v>
+      </c>
+      <c r="BB13">
+        <v>2</v>
+      </c>
+      <c r="BC13">
+        <v>11</v>
+      </c>
+      <c r="BD13">
+        <v>1.64</v>
+      </c>
+      <c r="BE13">
+        <v>9.9</v>
+      </c>
+      <c r="BF13">
+        <v>2.78</v>
+      </c>
+      <c r="BG13">
+        <v>1.17</v>
+      </c>
+      <c r="BH13">
+        <v>4.1</v>
+      </c>
+      <c r="BI13">
+        <v>1.28</v>
+      </c>
+      <c r="BJ13">
+        <v>3.35</v>
+      </c>
+      <c r="BK13">
+        <v>1.91</v>
+      </c>
+      <c r="BL13">
+        <v>2.4</v>
+      </c>
+      <c r="BM13">
         <v>1.95</v>
       </c>
-      <c r="AK13">
-        <v>1.2</v>
-      </c>
-      <c r="AL13">
-        <v>1.28</v>
-      </c>
-      <c r="AM13">
-        <v>1.85</v>
-      </c>
-      <c r="AN13">
-        <v>0</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>2.33</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>0</v>
-      </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
-        <v>6</v>
-      </c>
-      <c r="AV13">
-        <v>4</v>
-      </c>
-      <c r="AW13">
-        <v>9</v>
-      </c>
-      <c r="AX13">
-        <v>8</v>
-      </c>
-      <c r="AY13">
-        <v>15</v>
-      </c>
-      <c r="AZ13">
-        <v>12</v>
-      </c>
-      <c r="BA13">
-        <v>4</v>
-      </c>
-      <c r="BB13">
-        <v>6</v>
-      </c>
-      <c r="BC13">
-        <v>10</v>
-      </c>
-      <c r="BD13">
-        <v>1.37</v>
-      </c>
-      <c r="BE13">
-        <v>10.5</v>
-      </c>
-      <c r="BF13">
-        <v>4.1</v>
-      </c>
-      <c r="BG13">
-        <v>1.09</v>
-      </c>
-      <c r="BH13">
-        <v>5.7</v>
-      </c>
-      <c r="BI13">
-        <v>1.27</v>
-      </c>
-      <c r="BJ13">
-        <v>3.1</v>
-      </c>
-      <c r="BK13">
-        <v>1.4</v>
-      </c>
-      <c r="BL13">
-        <v>2.75</v>
-      </c>
-      <c r="BM13">
+      <c r="BN13">
         <v>1.77</v>
       </c>
-      <c r="BN13">
-        <v>1.95</v>
-      </c>
       <c r="BO13">
-        <v>2.17</v>
+        <v>2.45</v>
       </c>
       <c r="BP13">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="14" spans="1:68">
@@ -3538,7 +3538,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>7373185</v>
+        <v>7373191</v>
       </c>
       <c r="C14" t="s">
         <v>68</v>
@@ -3556,7 +3556,7 @@
         <v>82</v>
       </c>
       <c r="H14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -3571,172 +3571,172 @@
         <v>2</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O14" t="s">
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q14">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="R14">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S14">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="T14">
         <v>1.44</v>
       </c>
       <c r="U14">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="V14">
-        <v>3.25</v>
+        <v>3.17</v>
       </c>
       <c r="W14">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="X14">
-        <v>9</v>
+        <v>6.75</v>
       </c>
       <c r="Y14">
         <v>1.07</v>
       </c>
       <c r="Z14">
-        <v>2.6</v>
+        <v>1.91</v>
       </c>
       <c r="AA14">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AB14">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="AC14">
         <v>1.07</v>
       </c>
       <c r="AD14">
+        <v>9.5</v>
+      </c>
+      <c r="AE14">
+        <v>1.35</v>
+      </c>
+      <c r="AF14">
+        <v>3.25</v>
+      </c>
+      <c r="AG14">
+        <v>2</v>
+      </c>
+      <c r="AH14">
+        <v>1.8</v>
+      </c>
+      <c r="AI14">
+        <v>1.8</v>
+      </c>
+      <c r="AJ14">
+        <v>1.95</v>
+      </c>
+      <c r="AK14">
+        <v>1.2</v>
+      </c>
+      <c r="AL14">
+        <v>1.28</v>
+      </c>
+      <c r="AM14">
+        <v>1.85</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>2.33</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>6</v>
+      </c>
+      <c r="AV14">
+        <v>4</v>
+      </c>
+      <c r="AW14">
+        <v>9</v>
+      </c>
+      <c r="AX14">
         <v>8</v>
       </c>
-      <c r="AE14">
-        <v>1.38</v>
-      </c>
-      <c r="AF14">
-        <v>3</v>
-      </c>
-      <c r="AG14">
-        <v>2.1</v>
-      </c>
-      <c r="AH14">
-        <v>1.7</v>
-      </c>
-      <c r="AI14">
-        <v>1.91</v>
-      </c>
-      <c r="AJ14">
-        <v>1.91</v>
-      </c>
-      <c r="AK14">
-        <v>1.22</v>
-      </c>
-      <c r="AL14">
-        <v>1.25</v>
-      </c>
-      <c r="AM14">
-        <v>1.7</v>
-      </c>
-      <c r="AN14">
-        <v>0</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>3</v>
-      </c>
-      <c r="AQ14">
-        <v>1.33</v>
-      </c>
-      <c r="AR14">
-        <v>0</v>
-      </c>
-      <c r="AS14">
-        <v>0</v>
-      </c>
-      <c r="AT14">
-        <v>0</v>
-      </c>
-      <c r="AU14">
-        <v>8</v>
-      </c>
-      <c r="AV14">
-        <v>0</v>
-      </c>
-      <c r="AW14">
+      <c r="AY14">
+        <v>15</v>
+      </c>
+      <c r="AZ14">
+        <v>12</v>
+      </c>
+      <c r="BA14">
         <v>4</v>
       </c>
-      <c r="AX14">
-        <v>4</v>
-      </c>
-      <c r="AY14">
-        <v>12</v>
-      </c>
-      <c r="AZ14">
-        <v>4</v>
-      </c>
-      <c r="BA14">
-        <v>9</v>
-      </c>
       <c r="BB14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BC14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD14">
-        <v>1.64</v>
+        <v>1.37</v>
       </c>
       <c r="BE14">
-        <v>9.9</v>
+        <v>10.5</v>
       </c>
       <c r="BF14">
-        <v>2.78</v>
+        <v>4.1</v>
       </c>
       <c r="BG14">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="BH14">
-        <v>4.1</v>
+        <v>5.7</v>
       </c>
       <c r="BI14">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="BJ14">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="BK14">
-        <v>1.91</v>
+        <v>1.4</v>
       </c>
       <c r="BL14">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="BM14">
+        <v>1.77</v>
+      </c>
+      <c r="BN14">
         <v>1.95</v>
       </c>
-      <c r="BN14">
-        <v>1.77</v>
-      </c>
       <c r="BO14">
-        <v>2.45</v>
+        <v>2.17</v>
       </c>
       <c r="BP14">
-        <v>1.49</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="15" spans="1:68">
@@ -3744,7 +3744,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>7373186</v>
+        <v>7373194</v>
       </c>
       <c r="C15" t="s">
         <v>68</v>
@@ -3762,22 +3762,22 @@
         <v>83</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -3786,163 +3786,163 @@
         <v>102</v>
       </c>
       <c r="P15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q15">
-        <v>2.05</v>
+        <v>4.33</v>
       </c>
       <c r="R15">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="S15">
+        <v>3.2</v>
+      </c>
+      <c r="T15">
+        <v>1.5</v>
+      </c>
+      <c r="U15">
+        <v>2.45</v>
+      </c>
+      <c r="V15">
+        <v>3.25</v>
+      </c>
+      <c r="W15">
+        <v>1.3</v>
+      </c>
+      <c r="X15">
+        <v>7.5</v>
+      </c>
+      <c r="Y15">
+        <v>1.05</v>
+      </c>
+      <c r="Z15">
+        <v>3.5</v>
+      </c>
+      <c r="AA15">
+        <v>3</v>
+      </c>
+      <c r="AB15">
+        <v>2.3</v>
+      </c>
+      <c r="AC15">
+        <v>1.08</v>
+      </c>
+      <c r="AD15">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE15">
+        <v>1.42</v>
+      </c>
+      <c r="AF15">
+        <v>2.88</v>
+      </c>
+      <c r="AG15">
+        <v>2.88</v>
+      </c>
+      <c r="AH15">
+        <v>1.4</v>
+      </c>
+      <c r="AI15">
+        <v>2.25</v>
+      </c>
+      <c r="AJ15">
+        <v>1.57</v>
+      </c>
+      <c r="AK15">
+        <v>1.36</v>
+      </c>
+      <c r="AL15">
+        <v>1.28</v>
+      </c>
+      <c r="AM15">
+        <v>1.44</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>2</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>9</v>
+      </c>
+      <c r="AV15">
+        <v>3</v>
+      </c>
+      <c r="AW15">
+        <v>4</v>
+      </c>
+      <c r="AX15">
+        <v>11</v>
+      </c>
+      <c r="AY15">
+        <v>13</v>
+      </c>
+      <c r="AZ15">
+        <v>14</v>
+      </c>
+      <c r="BA15">
+        <v>6</v>
+      </c>
+      <c r="BB15">
         <v>7</v>
       </c>
-      <c r="T15">
-        <v>1.35</v>
-      </c>
-      <c r="U15">
-        <v>3</v>
-      </c>
-      <c r="V15">
-        <v>2.6</v>
-      </c>
-      <c r="W15">
-        <v>1.45</v>
-      </c>
-      <c r="X15">
-        <v>5.75</v>
-      </c>
-      <c r="Y15">
-        <v>1.1</v>
-      </c>
-      <c r="Z15">
-        <v>1.5</v>
-      </c>
-      <c r="AA15">
-        <v>4</v>
-      </c>
-      <c r="AB15">
-        <v>7</v>
-      </c>
-      <c r="AC15">
-        <v>1.04</v>
-      </c>
-      <c r="AD15">
-        <v>13.5</v>
-      </c>
-      <c r="AE15">
-        <v>1.26</v>
-      </c>
-      <c r="AF15">
-        <v>3.87</v>
-      </c>
-      <c r="AG15">
-        <v>2.05</v>
-      </c>
-      <c r="AH15">
-        <v>1.75</v>
-      </c>
-      <c r="AI15">
-        <v>2.2</v>
-      </c>
-      <c r="AJ15">
-        <v>1.62</v>
-      </c>
-      <c r="AK15">
-        <v>1.04</v>
-      </c>
-      <c r="AL15">
-        <v>1.14</v>
-      </c>
-      <c r="AM15">
-        <v>2.75</v>
-      </c>
-      <c r="AN15">
-        <v>0</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
-      <c r="AP15">
-        <v>2</v>
-      </c>
-      <c r="AQ15">
-        <v>2</v>
-      </c>
-      <c r="AR15">
-        <v>0</v>
-      </c>
-      <c r="AS15">
-        <v>0</v>
-      </c>
-      <c r="AT15">
-        <v>0</v>
-      </c>
-      <c r="AU15">
-        <v>7</v>
-      </c>
-      <c r="AV15">
-        <v>2</v>
-      </c>
-      <c r="AW15">
-        <v>8</v>
-      </c>
-      <c r="AX15">
-        <v>4</v>
-      </c>
-      <c r="AY15">
-        <v>15</v>
-      </c>
-      <c r="AZ15">
-        <v>6</v>
-      </c>
-      <c r="BA15">
-        <v>9</v>
-      </c>
-      <c r="BB15">
-        <v>2</v>
-      </c>
       <c r="BC15">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BD15">
-        <v>1.28</v>
+        <v>1.72</v>
       </c>
       <c r="BE15">
-        <v>13.5</v>
+        <v>9.1</v>
       </c>
       <c r="BF15">
-        <v>4.68</v>
+        <v>2.64</v>
       </c>
       <c r="BG15">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="BH15">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="BI15">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="BJ15">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="BK15">
         <v>2.2</v>
       </c>
       <c r="BL15">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="BM15">
-        <v>2.05</v>
+        <v>2.22</v>
       </c>
       <c r="BN15">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="BO15">
-        <v>2.48</v>
+        <v>2.95</v>
       </c>
       <c r="BP15">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="16" spans="1:68">
@@ -4362,7 +4362,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>7373194</v>
+        <v>7373186</v>
       </c>
       <c r="C18" t="s">
         <v>68</v>
@@ -4380,22 +4380,22 @@
         <v>86</v>
       </c>
       <c r="H18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18">
         <v>2</v>
@@ -4404,163 +4404,163 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q18">
-        <v>4.33</v>
+        <v>2.05</v>
       </c>
       <c r="R18">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="S18">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="T18">
+        <v>1.35</v>
+      </c>
+      <c r="U18">
+        <v>3</v>
+      </c>
+      <c r="V18">
+        <v>2.6</v>
+      </c>
+      <c r="W18">
+        <v>1.45</v>
+      </c>
+      <c r="X18">
+        <v>5.75</v>
+      </c>
+      <c r="Y18">
+        <v>1.1</v>
+      </c>
+      <c r="Z18">
         <v>1.5</v>
       </c>
-      <c r="U18">
-        <v>2.45</v>
-      </c>
-      <c r="V18">
-        <v>3.25</v>
-      </c>
-      <c r="W18">
-        <v>1.3</v>
-      </c>
-      <c r="X18">
-        <v>7.5</v>
-      </c>
-      <c r="Y18">
-        <v>1.05</v>
-      </c>
-      <c r="Z18">
-        <v>3.5</v>
-      </c>
       <c r="AA18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB18">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="AC18">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AD18">
-        <v>8.699999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="AE18">
-        <v>1.42</v>
+        <v>1.26</v>
       </c>
       <c r="AF18">
-        <v>2.88</v>
+        <v>3.87</v>
       </c>
       <c r="AG18">
-        <v>2.88</v>
+        <v>2.05</v>
       </c>
       <c r="AH18">
+        <v>1.75</v>
+      </c>
+      <c r="AI18">
+        <v>2.2</v>
+      </c>
+      <c r="AJ18">
+        <v>1.62</v>
+      </c>
+      <c r="AK18">
+        <v>1.04</v>
+      </c>
+      <c r="AL18">
+        <v>1.14</v>
+      </c>
+      <c r="AM18">
+        <v>2.75</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>2</v>
+      </c>
+      <c r="AQ18">
+        <v>2</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>7</v>
+      </c>
+      <c r="AV18">
+        <v>2</v>
+      </c>
+      <c r="AW18">
+        <v>8</v>
+      </c>
+      <c r="AX18">
+        <v>4</v>
+      </c>
+      <c r="AY18">
+        <v>15</v>
+      </c>
+      <c r="AZ18">
+        <v>6</v>
+      </c>
+      <c r="BA18">
+        <v>9</v>
+      </c>
+      <c r="BB18">
+        <v>2</v>
+      </c>
+      <c r="BC18">
+        <v>11</v>
+      </c>
+      <c r="BD18">
+        <v>1.28</v>
+      </c>
+      <c r="BE18">
+        <v>13.5</v>
+      </c>
+      <c r="BF18">
+        <v>4.68</v>
+      </c>
+      <c r="BG18">
+        <v>1.19</v>
+      </c>
+      <c r="BH18">
+        <v>3.9</v>
+      </c>
+      <c r="BI18">
         <v>1.4</v>
       </c>
-      <c r="AI18">
-        <v>2.25</v>
-      </c>
-      <c r="AJ18">
-        <v>1.57</v>
-      </c>
-      <c r="AK18">
-        <v>1.36</v>
-      </c>
-      <c r="AL18">
-        <v>1.28</v>
-      </c>
-      <c r="AM18">
-        <v>1.44</v>
-      </c>
-      <c r="AN18">
-        <v>0</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AP18">
-        <v>2</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>0</v>
-      </c>
-      <c r="AS18">
-        <v>0</v>
-      </c>
-      <c r="AT18">
-        <v>0</v>
-      </c>
-      <c r="AU18">
-        <v>9</v>
-      </c>
-      <c r="AV18">
-        <v>3</v>
-      </c>
-      <c r="AW18">
-        <v>4</v>
-      </c>
-      <c r="AX18">
-        <v>11</v>
-      </c>
-      <c r="AY18">
-        <v>13</v>
-      </c>
-      <c r="AZ18">
-        <v>14</v>
-      </c>
-      <c r="BA18">
-        <v>6</v>
-      </c>
-      <c r="BB18">
-        <v>7</v>
-      </c>
-      <c r="BC18">
-        <v>13</v>
-      </c>
-      <c r="BD18">
-        <v>1.72</v>
-      </c>
-      <c r="BE18">
-        <v>9.1</v>
-      </c>
-      <c r="BF18">
-        <v>2.64</v>
-      </c>
-      <c r="BG18">
-        <v>1.25</v>
-      </c>
-      <c r="BH18">
-        <v>3.6</v>
-      </c>
-      <c r="BI18">
-        <v>1.41</v>
-      </c>
       <c r="BJ18">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="BK18">
         <v>2.2</v>
       </c>
       <c r="BL18">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="BM18">
-        <v>2.22</v>
+        <v>2.05</v>
       </c>
       <c r="BN18">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="BO18">
-        <v>2.95</v>
+        <v>2.48</v>
       </c>
       <c r="BP18">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="19" spans="1:68">
@@ -5201,7 +5201,7 @@
         <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s">
         <v>89</v>
@@ -5407,7 +5407,7 @@
         <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s">
         <v>75</v>
@@ -5613,7 +5613,7 @@
         <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s">
         <v>78</v>
@@ -5804,7 +5804,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>7373197</v>
+        <v>7373202</v>
       </c>
       <c r="C25" t="s">
         <v>68</v>
@@ -5819,55 +5819,55 @@
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H25" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O25" t="s">
         <v>111</v>
       </c>
       <c r="P25" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="Q25">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="R25">
         <v>2.05</v>
       </c>
       <c r="S25">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="T25">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U25">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V25">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W25">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X25">
         <v>10</v>
@@ -5876,133 +5876,133 @@
         <v>1.06</v>
       </c>
       <c r="Z25">
-        <v>2.6</v>
+        <v>1.83</v>
       </c>
       <c r="AA25">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="AB25">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="AC25">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AD25">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AE25">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="AF25">
         <v>2.8</v>
       </c>
       <c r="AG25">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AH25">
+        <v>1.67</v>
+      </c>
+      <c r="AI25">
+        <v>2</v>
+      </c>
+      <c r="AJ25">
+        <v>1.75</v>
+      </c>
+      <c r="AK25">
+        <v>1.25</v>
+      </c>
+      <c r="AL25">
+        <v>1.25</v>
+      </c>
+      <c r="AM25">
+        <v>1.83</v>
+      </c>
+      <c r="AN25">
+        <v>3</v>
+      </c>
+      <c r="AO25">
+        <v>3</v>
+      </c>
+      <c r="AP25">
+        <v>3</v>
+      </c>
+      <c r="AQ25">
+        <v>1.5</v>
+      </c>
+      <c r="AR25">
+        <v>2.21</v>
+      </c>
+      <c r="AS25">
+        <v>0.79</v>
+      </c>
+      <c r="AT25">
+        <v>3</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
+        <v>2</v>
+      </c>
+      <c r="AW25">
+        <v>5</v>
+      </c>
+      <c r="AX25">
+        <v>4</v>
+      </c>
+      <c r="AY25">
+        <v>5</v>
+      </c>
+      <c r="AZ25">
+        <v>6</v>
+      </c>
+      <c r="BA25">
+        <v>5</v>
+      </c>
+      <c r="BB25">
+        <v>3</v>
+      </c>
+      <c r="BC25">
+        <v>8</v>
+      </c>
+      <c r="BD25">
+        <v>1.5</v>
+      </c>
+      <c r="BE25">
+        <v>9.1</v>
+      </c>
+      <c r="BF25">
+        <v>3.4</v>
+      </c>
+      <c r="BG25">
+        <v>1.26</v>
+      </c>
+      <c r="BH25">
+        <v>3.2</v>
+      </c>
+      <c r="BI25">
+        <v>1.5</v>
+      </c>
+      <c r="BJ25">
+        <v>2.45</v>
+      </c>
+      <c r="BK25">
+        <v>2.38</v>
+      </c>
+      <c r="BL25">
+        <v>1.88</v>
+      </c>
+      <c r="BM25">
+        <v>2.3</v>
+      </c>
+      <c r="BN25">
         <v>1.57</v>
       </c>
-      <c r="AI25">
-        <v>1.8</v>
-      </c>
-      <c r="AJ25">
-        <v>1.95</v>
-      </c>
-      <c r="AK25">
-        <v>1.42</v>
-      </c>
-      <c r="AL25">
-        <v>1.3</v>
-      </c>
-      <c r="AM25">
-        <v>1.48</v>
-      </c>
-      <c r="AN25">
-        <v>0</v>
-      </c>
-      <c r="AO25">
-        <v>0</v>
-      </c>
-      <c r="AP25">
-        <v>0.33</v>
-      </c>
-      <c r="AQ25">
-        <v>1.33</v>
-      </c>
-      <c r="AR25">
-        <v>1.33</v>
-      </c>
-      <c r="AS25">
-        <v>1.09</v>
-      </c>
-      <c r="AT25">
-        <v>2.42</v>
-      </c>
-      <c r="AU25">
-        <v>9</v>
-      </c>
-      <c r="AV25">
-        <v>8</v>
-      </c>
-      <c r="AW25">
-        <v>4</v>
-      </c>
-      <c r="AX25">
-        <v>6</v>
-      </c>
-      <c r="AY25">
-        <v>13</v>
-      </c>
-      <c r="AZ25">
-        <v>14</v>
-      </c>
-      <c r="BA25">
-        <v>2</v>
-      </c>
-      <c r="BB25">
-        <v>7</v>
-      </c>
-      <c r="BC25">
-        <v>9</v>
-      </c>
-      <c r="BD25">
-        <v>1.92</v>
-      </c>
-      <c r="BE25">
-        <v>8.4</v>
-      </c>
-      <c r="BF25">
-        <v>2.3</v>
-      </c>
-      <c r="BG25">
-        <v>1.28</v>
-      </c>
-      <c r="BH25">
-        <v>3.1</v>
-      </c>
-      <c r="BI25">
-        <v>1.53</v>
-      </c>
-      <c r="BJ25">
-        <v>2.4</v>
-      </c>
-      <c r="BK25">
-        <v>2</v>
-      </c>
-      <c r="BL25">
-        <v>1.8</v>
-      </c>
-      <c r="BM25">
-        <v>2.4</v>
-      </c>
-      <c r="BN25">
-        <v>1.53</v>
-      </c>
       <c r="BO25">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="BP25">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="26" spans="1:68">
@@ -6216,7 +6216,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>7373202</v>
+        <v>7373197</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -6231,55 +6231,55 @@
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O27" t="s">
         <v>112</v>
       </c>
       <c r="P27" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="Q27">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="R27">
         <v>2.05</v>
       </c>
       <c r="S27">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="T27">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U27">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V27">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W27">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X27">
         <v>10</v>
@@ -6288,133 +6288,133 @@
         <v>1.06</v>
       </c>
       <c r="Z27">
-        <v>1.83</v>
+        <v>2.6</v>
       </c>
       <c r="AA27">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="AB27">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="AC27">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="AD27">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AE27">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AF27">
         <v>2.8</v>
       </c>
       <c r="AG27">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="AH27">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AI27">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AJ27">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="AK27">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="AL27">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AM27">
-        <v>1.83</v>
+        <v>1.48</v>
       </c>
       <c r="AN27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP27">
-        <v>3</v>
+        <v>0.33</v>
       </c>
       <c r="AQ27">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR27">
-        <v>2.21</v>
+        <v>1.33</v>
       </c>
       <c r="AS27">
-        <v>0.79</v>
+        <v>1.09</v>
       </c>
       <c r="AT27">
-        <v>3</v>
+        <v>2.42</v>
       </c>
       <c r="AU27">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AV27">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AW27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY27">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AZ27">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BA27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BB27">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BC27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD27">
-        <v>1.5</v>
+        <v>1.92</v>
       </c>
       <c r="BE27">
-        <v>9.1</v>
+        <v>8.4</v>
       </c>
       <c r="BF27">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="BG27">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="BH27">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="BI27">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="BJ27">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="BK27">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="BL27">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="BM27">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="BN27">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="BO27">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="BP27">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="28" spans="1:68">
@@ -6422,7 +6422,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>7373199</v>
+        <v>7373203</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -6437,190 +6437,190 @@
         <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O28" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="P28" t="s">
         <v>142</v>
       </c>
       <c r="Q28">
+        <v>3.5</v>
+      </c>
+      <c r="R28">
+        <v>1.95</v>
+      </c>
+      <c r="S28">
+        <v>3.6</v>
+      </c>
+      <c r="T28">
+        <v>1.5</v>
+      </c>
+      <c r="U28">
+        <v>2.5</v>
+      </c>
+      <c r="V28">
+        <v>3.5</v>
+      </c>
+      <c r="W28">
+        <v>1.29</v>
+      </c>
+      <c r="X28">
+        <v>11</v>
+      </c>
+      <c r="Y28">
+        <v>1.05</v>
+      </c>
+      <c r="Z28">
+        <v>2.8</v>
+      </c>
+      <c r="AA28">
+        <v>2.9</v>
+      </c>
+      <c r="AB28">
+        <v>2.45</v>
+      </c>
+      <c r="AC28">
+        <v>1.05</v>
+      </c>
+      <c r="AD28">
+        <v>7.2</v>
+      </c>
+      <c r="AE28">
+        <v>1.39</v>
+      </c>
+      <c r="AF28">
+        <v>2.68</v>
+      </c>
+      <c r="AG28">
         <v>2.38</v>
       </c>
-      <c r="R28">
-        <v>2.1</v>
-      </c>
-      <c r="S28">
-        <v>5.5</v>
-      </c>
-      <c r="T28">
-        <v>1.44</v>
-      </c>
-      <c r="U28">
-        <v>2.63</v>
-      </c>
-      <c r="V28">
-        <v>3.25</v>
-      </c>
-      <c r="W28">
-        <v>1.33</v>
-      </c>
-      <c r="X28">
-        <v>9</v>
-      </c>
-      <c r="Y28">
-        <v>1.07</v>
-      </c>
-      <c r="Z28">
-        <v>1.73</v>
-      </c>
-      <c r="AA28">
-        <v>3.6</v>
-      </c>
-      <c r="AB28">
-        <v>4.75</v>
-      </c>
-      <c r="AC28">
-        <v>1.03</v>
-      </c>
-      <c r="AD28">
+      <c r="AH28">
+        <v>1.53</v>
+      </c>
+      <c r="AI28">
+        <v>2.05</v>
+      </c>
+      <c r="AJ28">
+        <v>1.7</v>
+      </c>
+      <c r="AK28">
+        <v>1.6</v>
+      </c>
+      <c r="AL28">
+        <v>1.28</v>
+      </c>
+      <c r="AM28">
+        <v>1.36</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <v>2</v>
+      </c>
+      <c r="AR28">
+        <v>1.21</v>
+      </c>
+      <c r="AS28">
+        <v>0.91</v>
+      </c>
+      <c r="AT28">
+        <v>2.12</v>
+      </c>
+      <c r="AU28">
+        <v>2</v>
+      </c>
+      <c r="AV28">
         <v>8</v>
       </c>
-      <c r="AE28">
-        <v>1.33</v>
-      </c>
-      <c r="AF28">
-        <v>2.93</v>
-      </c>
-      <c r="AG28">
-        <v>2</v>
-      </c>
-      <c r="AH28">
-        <v>1.65</v>
-      </c>
-      <c r="AI28">
-        <v>2.1</v>
-      </c>
-      <c r="AJ28">
-        <v>1.67</v>
-      </c>
-      <c r="AK28">
-        <v>1.24</v>
-      </c>
-      <c r="AL28">
-        <v>1.31</v>
-      </c>
-      <c r="AM28">
-        <v>1.89</v>
-      </c>
-      <c r="AN28">
-        <v>3</v>
-      </c>
-      <c r="AO28">
-        <v>1</v>
-      </c>
-      <c r="AP28">
-        <v>2</v>
-      </c>
-      <c r="AQ28">
-        <v>0.5</v>
-      </c>
-      <c r="AR28">
-        <v>1.4</v>
-      </c>
-      <c r="AS28">
-        <v>1.58</v>
-      </c>
-      <c r="AT28">
-        <v>2.98</v>
-      </c>
-      <c r="AU28">
+      <c r="AW28">
+        <v>4</v>
+      </c>
+      <c r="AX28">
+        <v>4</v>
+      </c>
+      <c r="AY28">
+        <v>6</v>
+      </c>
+      <c r="AZ28">
+        <v>12</v>
+      </c>
+      <c r="BA28">
+        <v>4</v>
+      </c>
+      <c r="BB28">
+        <v>3</v>
+      </c>
+      <c r="BC28">
         <v>7</v>
       </c>
-      <c r="AV28">
-        <v>2</v>
-      </c>
-      <c r="AW28">
-        <v>5</v>
-      </c>
-      <c r="AX28">
-        <v>5</v>
-      </c>
-      <c r="AY28">
-        <v>12</v>
-      </c>
-      <c r="AZ28">
-        <v>7</v>
-      </c>
-      <c r="BA28">
-        <v>5</v>
-      </c>
-      <c r="BB28">
-        <v>4</v>
-      </c>
-      <c r="BC28">
-        <v>9</v>
-      </c>
       <c r="BD28">
-        <v>1.57</v>
+        <v>2.15</v>
       </c>
       <c r="BE28">
-        <v>9.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="BF28">
-        <v>3.07</v>
+        <v>2.03</v>
       </c>
       <c r="BG28">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="BH28">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="BI28">
-        <v>1.95</v>
+        <v>1.45</v>
       </c>
       <c r="BJ28">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="BK28">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="BL28">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="BM28">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="BN28">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="BO28">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="BP28">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="29" spans="1:68">
@@ -6628,7 +6628,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>7373203</v>
+        <v>7373199</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -6643,190 +6643,190 @@
         <v>3</v>
       </c>
       <c r="G29" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N29">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O29" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="P29" t="s">
         <v>143</v>
       </c>
       <c r="Q29">
-        <v>3.5</v>
+        <v>2.38</v>
       </c>
       <c r="R29">
+        <v>2.1</v>
+      </c>
+      <c r="S29">
+        <v>5.5</v>
+      </c>
+      <c r="T29">
+        <v>1.44</v>
+      </c>
+      <c r="U29">
+        <v>2.63</v>
+      </c>
+      <c r="V29">
+        <v>3.25</v>
+      </c>
+      <c r="W29">
+        <v>1.33</v>
+      </c>
+      <c r="X29">
+        <v>9</v>
+      </c>
+      <c r="Y29">
+        <v>1.07</v>
+      </c>
+      <c r="Z29">
+        <v>1.73</v>
+      </c>
+      <c r="AA29">
+        <v>3.6</v>
+      </c>
+      <c r="AB29">
+        <v>4.75</v>
+      </c>
+      <c r="AC29">
+        <v>1.03</v>
+      </c>
+      <c r="AD29">
+        <v>8</v>
+      </c>
+      <c r="AE29">
+        <v>1.33</v>
+      </c>
+      <c r="AF29">
+        <v>2.93</v>
+      </c>
+      <c r="AG29">
+        <v>2</v>
+      </c>
+      <c r="AH29">
+        <v>1.65</v>
+      </c>
+      <c r="AI29">
+        <v>2.1</v>
+      </c>
+      <c r="AJ29">
+        <v>1.67</v>
+      </c>
+      <c r="AK29">
+        <v>1.24</v>
+      </c>
+      <c r="AL29">
+        <v>1.31</v>
+      </c>
+      <c r="AM29">
+        <v>1.89</v>
+      </c>
+      <c r="AN29">
+        <v>3</v>
+      </c>
+      <c r="AO29">
+        <v>1</v>
+      </c>
+      <c r="AP29">
+        <v>2</v>
+      </c>
+      <c r="AQ29">
+        <v>0.5</v>
+      </c>
+      <c r="AR29">
+        <v>1.4</v>
+      </c>
+      <c r="AS29">
+        <v>1.58</v>
+      </c>
+      <c r="AT29">
+        <v>2.98</v>
+      </c>
+      <c r="AU29">
+        <v>7</v>
+      </c>
+      <c r="AV29">
+        <v>2</v>
+      </c>
+      <c r="AW29">
+        <v>5</v>
+      </c>
+      <c r="AX29">
+        <v>5</v>
+      </c>
+      <c r="AY29">
+        <v>12</v>
+      </c>
+      <c r="AZ29">
+        <v>7</v>
+      </c>
+      <c r="BA29">
+        <v>5</v>
+      </c>
+      <c r="BB29">
+        <v>4</v>
+      </c>
+      <c r="BC29">
+        <v>9</v>
+      </c>
+      <c r="BD29">
+        <v>1.57</v>
+      </c>
+      <c r="BE29">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF29">
+        <v>3.07</v>
+      </c>
+      <c r="BG29">
+        <v>1.27</v>
+      </c>
+      <c r="BH29">
+        <v>3.15</v>
+      </c>
+      <c r="BI29">
         <v>1.95</v>
       </c>
-      <c r="S29">
-        <v>3.6</v>
-      </c>
-      <c r="T29">
-        <v>1.5</v>
-      </c>
-      <c r="U29">
-        <v>2.5</v>
-      </c>
-      <c r="V29">
-        <v>3.5</v>
-      </c>
-      <c r="W29">
-        <v>1.29</v>
-      </c>
-      <c r="X29">
-        <v>11</v>
-      </c>
-      <c r="Y29">
-        <v>1.05</v>
-      </c>
-      <c r="Z29">
-        <v>2.8</v>
-      </c>
-      <c r="AA29">
-        <v>2.9</v>
-      </c>
-      <c r="AB29">
-        <v>2.45</v>
-      </c>
-      <c r="AC29">
-        <v>1.05</v>
-      </c>
-      <c r="AD29">
-        <v>7.2</v>
-      </c>
-      <c r="AE29">
-        <v>1.39</v>
-      </c>
-      <c r="AF29">
-        <v>2.68</v>
-      </c>
-      <c r="AG29">
-        <v>2.38</v>
-      </c>
-      <c r="AH29">
-        <v>1.53</v>
-      </c>
-      <c r="AI29">
-        <v>2.05</v>
-      </c>
-      <c r="AJ29">
-        <v>1.7</v>
-      </c>
-      <c r="AK29">
-        <v>1.6</v>
-      </c>
-      <c r="AL29">
+      <c r="BJ29">
+        <v>1.85</v>
+      </c>
+      <c r="BK29">
+        <v>2</v>
+      </c>
+      <c r="BL29">
+        <v>1.73</v>
+      </c>
+      <c r="BM29">
+        <v>2.6</v>
+      </c>
+      <c r="BN29">
+        <v>1.45</v>
+      </c>
+      <c r="BO29">
+        <v>3.05</v>
+      </c>
+      <c r="BP29">
         <v>1.28</v>
-      </c>
-      <c r="AM29">
-        <v>1.36</v>
-      </c>
-      <c r="AN29">
-        <v>0</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
-      </c>
-      <c r="AP29">
-        <v>0</v>
-      </c>
-      <c r="AQ29">
-        <v>2</v>
-      </c>
-      <c r="AR29">
-        <v>1.21</v>
-      </c>
-      <c r="AS29">
-        <v>0.91</v>
-      </c>
-      <c r="AT29">
-        <v>2.12</v>
-      </c>
-      <c r="AU29">
-        <v>2</v>
-      </c>
-      <c r="AV29">
-        <v>8</v>
-      </c>
-      <c r="AW29">
-        <v>4</v>
-      </c>
-      <c r="AX29">
-        <v>4</v>
-      </c>
-      <c r="AY29">
-        <v>6</v>
-      </c>
-      <c r="AZ29">
-        <v>12</v>
-      </c>
-      <c r="BA29">
-        <v>4</v>
-      </c>
-      <c r="BB29">
-        <v>3</v>
-      </c>
-      <c r="BC29">
-        <v>7</v>
-      </c>
-      <c r="BD29">
-        <v>2.15</v>
-      </c>
-      <c r="BE29">
-        <v>8.5</v>
-      </c>
-      <c r="BF29">
-        <v>2.03</v>
-      </c>
-      <c r="BG29">
-        <v>1.23</v>
-      </c>
-      <c r="BH29">
-        <v>3.45</v>
-      </c>
-      <c r="BI29">
-        <v>1.45</v>
-      </c>
-      <c r="BJ29">
-        <v>2.6</v>
-      </c>
-      <c r="BK29">
-        <v>2.2</v>
-      </c>
-      <c r="BL29">
-        <v>2</v>
-      </c>
-      <c r="BM29">
-        <v>2.2</v>
-      </c>
-      <c r="BN29">
-        <v>1.62</v>
-      </c>
-      <c r="BO29">
-        <v>2.8</v>
-      </c>
-      <c r="BP29">
-        <v>1.34</v>
       </c>
     </row>
     <row r="30" spans="1:68">
@@ -7058,7 +7058,7 @@
         <v>89</v>
       </c>
       <c r="H31" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -7264,7 +7264,7 @@
         <v>80</v>
       </c>
       <c r="H32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -7658,7 +7658,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>7373210</v>
+        <v>7373206</v>
       </c>
       <c r="C34" t="s">
         <v>68</v>
@@ -7673,43 +7673,43 @@
         <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <v>3</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O34" t="s">
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="Q34">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="R34">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S34">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="T34">
         <v>1.5</v>
@@ -7730,133 +7730,133 @@
         <v>1.06</v>
       </c>
       <c r="Z34">
-        <v>2.3</v>
+        <v>1.53</v>
       </c>
       <c r="AA34">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="AB34">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="AC34">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AD34">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE34">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AF34">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="AG34">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="AH34">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="AI34">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="AJ34">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="AK34">
-        <v>1.35</v>
+        <v>1.16</v>
       </c>
       <c r="AL34">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AM34">
-        <v>1.63</v>
+        <v>2.2</v>
       </c>
       <c r="AN34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO34">
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="AQ34">
         <v>0</v>
       </c>
       <c r="AR34">
-        <v>1.12</v>
+        <v>1.46</v>
       </c>
       <c r="AS34">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="AT34">
-        <v>2.11</v>
+        <v>1.46</v>
       </c>
       <c r="AU34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY34">
         <v>12</v>
       </c>
       <c r="AZ34">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA34">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BB34">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BC34">
         <v>14</v>
       </c>
       <c r="BD34">
-        <v>1.82</v>
+        <v>1.41</v>
       </c>
       <c r="BE34">
         <v>9</v>
       </c>
       <c r="BF34">
-        <v>2.44</v>
+        <v>3.55</v>
       </c>
       <c r="BG34">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="BH34">
-        <v>3.98</v>
+        <v>3.25</v>
       </c>
       <c r="BI34">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="BJ34">
-        <v>2.76</v>
+        <v>2.38</v>
       </c>
       <c r="BK34">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="BL34">
-        <v>2.08</v>
+        <v>1.86</v>
       </c>
       <c r="BM34">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="BN34">
-        <v>1.64</v>
+        <v>1.52</v>
       </c>
       <c r="BO34">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="BP34">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="35" spans="1:68">
@@ -7864,7 +7864,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>7373206</v>
+        <v>7373210</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
@@ -7879,43 +7879,43 @@
         <v>4</v>
       </c>
       <c r="G35" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H35" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L35">
         <v>3</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O35" t="s">
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="Q35">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="R35">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S35">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="T35">
         <v>1.5</v>
@@ -7936,133 +7936,133 @@
         <v>1.06</v>
       </c>
       <c r="Z35">
-        <v>1.53</v>
+        <v>2.3</v>
       </c>
       <c r="AA35">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="AB35">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="AC35">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AD35">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE35">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AF35">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="AG35">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AH35">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="AI35">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AJ35">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AK35">
-        <v>1.16</v>
+        <v>1.35</v>
       </c>
       <c r="AL35">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AM35">
-        <v>2.2</v>
+        <v>1.63</v>
       </c>
       <c r="AN35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO35">
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="AQ35">
         <v>0</v>
       </c>
       <c r="AR35">
-        <v>1.46</v>
+        <v>1.12</v>
       </c>
       <c r="AS35">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="AT35">
-        <v>1.46</v>
+        <v>2.11</v>
       </c>
       <c r="AU35">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV35">
+        <v>3</v>
+      </c>
+      <c r="AW35">
         <v>4</v>
       </c>
-      <c r="AW35">
+      <c r="AX35">
         <v>5</v>
-      </c>
-      <c r="AX35">
-        <v>6</v>
       </c>
       <c r="AY35">
         <v>12</v>
       </c>
       <c r="AZ35">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BB35">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BC35">
         <v>14</v>
       </c>
       <c r="BD35">
-        <v>1.41</v>
+        <v>1.82</v>
       </c>
       <c r="BE35">
         <v>9</v>
       </c>
       <c r="BF35">
-        <v>3.55</v>
+        <v>2.44</v>
       </c>
       <c r="BG35">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="BH35">
-        <v>3.25</v>
+        <v>3.98</v>
       </c>
       <c r="BI35">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="BJ35">
-        <v>2.38</v>
+        <v>2.76</v>
       </c>
       <c r="BK35">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BL35">
-        <v>1.86</v>
+        <v>2.08</v>
       </c>
       <c r="BM35">
-        <v>2.28</v>
+        <v>2.12</v>
       </c>
       <c r="BN35">
-        <v>1.52</v>
+        <v>1.64</v>
       </c>
       <c r="BO35">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="BP35">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="36" spans="1:68">
@@ -8088,7 +8088,7 @@
         <v>85</v>
       </c>
       <c r="H36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -8112,7 +8112,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q36">
         <v>2.63</v>
@@ -8291,7 +8291,7 @@
         <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H37" t="s">
         <v>76</v>
@@ -8912,7 +8912,7 @@
         <v>72</v>
       </c>
       <c r="H40" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -9115,7 +9115,7 @@
         <v>5</v>
       </c>
       <c r="G41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s">
         <v>87</v>
@@ -10542,7 +10542,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>7373232</v>
+        <v>7373233</v>
       </c>
       <c r="C48" t="s">
         <v>68</v>
@@ -10557,190 +10557,190 @@
         <v>6</v>
       </c>
       <c r="G48" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H48" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48">
         <v>1</v>
       </c>
       <c r="N48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O48" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="P48" t="s">
         <v>154</v>
       </c>
       <c r="Q48">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="R48">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S48">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="T48">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="U48">
+        <v>2.38</v>
+      </c>
+      <c r="V48">
+        <v>3.5</v>
+      </c>
+      <c r="W48">
+        <v>1.29</v>
+      </c>
+      <c r="X48">
+        <v>11</v>
+      </c>
+      <c r="Y48">
+        <v>1.05</v>
+      </c>
+      <c r="Z48">
+        <v>2.55</v>
+      </c>
+      <c r="AA48">
+        <v>3</v>
+      </c>
+      <c r="AB48">
         <v>2.63</v>
       </c>
-      <c r="V48">
-        <v>3.25</v>
-      </c>
-      <c r="W48">
-        <v>1.33</v>
-      </c>
-      <c r="X48">
-        <v>10</v>
-      </c>
-      <c r="Y48">
-        <v>1.06</v>
-      </c>
-      <c r="Z48">
-        <v>1.8</v>
-      </c>
-      <c r="AA48">
-        <v>3.25</v>
-      </c>
-      <c r="AB48">
-        <v>4</v>
-      </c>
       <c r="AC48">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AD48">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="AE48">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="AF48">
-        <v>2.95</v>
+        <v>2.62</v>
       </c>
       <c r="AG48">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="AH48">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AI48">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AJ48">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AK48">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AL48">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="AM48">
-        <v>1.75</v>
+        <v>1.42</v>
       </c>
       <c r="AN48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO48">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ48">
         <v>1.33</v>
       </c>
       <c r="AR48">
-        <v>1.5</v>
+        <v>0.99</v>
       </c>
       <c r="AS48">
-        <v>0.85</v>
+        <v>1.28</v>
       </c>
       <c r="AT48">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="AU48">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV48">
         <v>6</v>
       </c>
       <c r="AW48">
+        <v>6</v>
+      </c>
+      <c r="AX48">
+        <v>3</v>
+      </c>
+      <c r="AY48">
+        <v>12</v>
+      </c>
+      <c r="AZ48">
+        <v>9</v>
+      </c>
+      <c r="BA48">
         <v>5</v>
-      </c>
-      <c r="AX48">
-        <v>5</v>
-      </c>
-      <c r="AY48">
-        <v>10</v>
-      </c>
-      <c r="AZ48">
-        <v>11</v>
-      </c>
-      <c r="BA48">
-        <v>6</v>
       </c>
       <c r="BB48">
         <v>5</v>
       </c>
       <c r="BC48">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD48">
-        <v>1.62</v>
+        <v>1.92</v>
       </c>
       <c r="BE48">
         <v>7.5</v>
       </c>
       <c r="BF48">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="BG48">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="BH48">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="BI48">
-        <v>1.49</v>
+        <v>1.39</v>
       </c>
       <c r="BJ48">
-        <v>2.45</v>
+        <v>2.77</v>
       </c>
       <c r="BK48">
-        <v>1.87</v>
+        <v>2.2</v>
       </c>
       <c r="BL48">
-        <v>1.83</v>
+        <v>1.99</v>
       </c>
       <c r="BM48">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="BN48">
-        <v>1.49</v>
+        <v>1.6</v>
       </c>
       <c r="BO48">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="BP48">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="49" spans="1:68">
@@ -10954,7 +10954,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>7373233</v>
+        <v>7373232</v>
       </c>
       <c r="C50" t="s">
         <v>68</v>
@@ -10969,190 +10969,190 @@
         <v>6</v>
       </c>
       <c r="G50" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H50" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50">
         <v>1</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O50" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="P50" t="s">
         <v>156</v>
       </c>
       <c r="Q50">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="R50">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S50">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="T50">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="U50">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="V50">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="W50">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="X50">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y50">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="Z50">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="AA50">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AB50">
-        <v>2.63</v>
+        <v>4</v>
       </c>
       <c r="AC50">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AD50">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="AE50">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AF50">
-        <v>2.62</v>
+        <v>2.95</v>
       </c>
       <c r="AG50">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="AH50">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AI50">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AJ50">
+        <v>1.8</v>
+      </c>
+      <c r="AK50">
+        <v>1.3</v>
+      </c>
+      <c r="AL50">
+        <v>1.28</v>
+      </c>
+      <c r="AM50">
         <v>1.75</v>
       </c>
-      <c r="AK50">
+      <c r="AN50">
+        <v>1</v>
+      </c>
+      <c r="AO50">
         <v>1.5</v>
       </c>
-      <c r="AL50">
-        <v>1.36</v>
-      </c>
-      <c r="AM50">
-        <v>1.42</v>
-      </c>
-      <c r="AN50">
-        <v>0</v>
-      </c>
-      <c r="AO50">
-        <v>0.5</v>
-      </c>
       <c r="AP50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ50">
         <v>1.33</v>
       </c>
       <c r="AR50">
-        <v>0.99</v>
+        <v>1.5</v>
       </c>
       <c r="AS50">
-        <v>1.28</v>
+        <v>0.85</v>
       </c>
       <c r="AT50">
-        <v>2.27</v>
+        <v>2.35</v>
       </c>
       <c r="AU50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV50">
         <v>6</v>
       </c>
       <c r="AW50">
+        <v>5</v>
+      </c>
+      <c r="AX50">
+        <v>5</v>
+      </c>
+      <c r="AY50">
+        <v>10</v>
+      </c>
+      <c r="AZ50">
+        <v>11</v>
+      </c>
+      <c r="BA50">
         <v>6</v>
-      </c>
-      <c r="AX50">
-        <v>3</v>
-      </c>
-      <c r="AY50">
-        <v>12</v>
-      </c>
-      <c r="AZ50">
-        <v>9</v>
-      </c>
-      <c r="BA50">
-        <v>5</v>
       </c>
       <c r="BB50">
         <v>5</v>
       </c>
       <c r="BC50">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD50">
-        <v>1.92</v>
+        <v>1.62</v>
       </c>
       <c r="BE50">
         <v>7.5</v>
       </c>
       <c r="BF50">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="BG50">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="BH50">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="BI50">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="BJ50">
-        <v>2.77</v>
+        <v>2.45</v>
       </c>
       <c r="BK50">
-        <v>2.2</v>
+        <v>1.87</v>
       </c>
       <c r="BL50">
-        <v>1.99</v>
+        <v>1.83</v>
       </c>
       <c r="BM50">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="BN50">
-        <v>1.6</v>
+        <v>1.49</v>
       </c>
       <c r="BO50">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="BP50">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="51" spans="1:68">
@@ -11160,7 +11160,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>7373227</v>
+        <v>7373229</v>
       </c>
       <c r="C51" t="s">
         <v>68</v>
@@ -11175,127 +11175,127 @@
         <v>6</v>
       </c>
       <c r="G51" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H51" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O51" t="s">
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="Q51">
         <v>2.38</v>
       </c>
       <c r="R51">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S51">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="T51">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U51">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V51">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="W51">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="X51">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y51">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="Z51">
+        <v>1.73</v>
+      </c>
+      <c r="AA51">
+        <v>3.6</v>
+      </c>
+      <c r="AB51">
+        <v>5</v>
+      </c>
+      <c r="AC51">
+        <v>1.06</v>
+      </c>
+      <c r="AD51">
+        <v>7.5</v>
+      </c>
+      <c r="AE51">
+        <v>1.38</v>
+      </c>
+      <c r="AF51">
+        <v>2.8</v>
+      </c>
+      <c r="AG51">
+        <v>2.05</v>
+      </c>
+      <c r="AH51">
         <v>1.75</v>
       </c>
-      <c r="AA51">
-        <v>3.8</v>
-      </c>
-      <c r="AB51">
-        <v>4.33</v>
-      </c>
-      <c r="AC51">
-        <v>1.04</v>
-      </c>
-      <c r="AD51">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AE51">
+      <c r="AI51">
+        <v>1.95</v>
+      </c>
+      <c r="AJ51">
+        <v>1.8</v>
+      </c>
+      <c r="AK51">
+        <v>1.2</v>
+      </c>
+      <c r="AL51">
         <v>1.3</v>
       </c>
-      <c r="AF51">
-        <v>3.4</v>
-      </c>
-      <c r="AG51">
-        <v>1.85</v>
-      </c>
-      <c r="AH51">
-        <v>1.95</v>
-      </c>
-      <c r="AI51">
-        <v>1.8</v>
-      </c>
-      <c r="AJ51">
-        <v>1.95</v>
-      </c>
-      <c r="AK51">
-        <v>1.25</v>
-      </c>
-      <c r="AL51">
-        <v>1.25</v>
-      </c>
       <c r="AM51">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="AN51">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AR51">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="AS51">
-        <v>1.58</v>
+        <v>1.11</v>
       </c>
       <c r="AT51">
-        <v>3.03</v>
+        <v>2.62</v>
       </c>
       <c r="AU51">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AV51">
         <v>6</v>
@@ -11304,61 +11304,61 @@
         <v>3</v>
       </c>
       <c r="AX51">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY51">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AZ51">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA51">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB51">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BC51">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BD51">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="BE51">
         <v>8.5</v>
       </c>
       <c r="BF51">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="BG51">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="BH51">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="BI51">
-        <v>1.35</v>
+        <v>1.51</v>
       </c>
       <c r="BJ51">
-        <v>2.75</v>
+        <v>2.37</v>
       </c>
       <c r="BK51">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="BL51">
+        <v>1.8</v>
+      </c>
+      <c r="BM51">
         <v>2.47</v>
       </c>
-      <c r="BM51">
-        <v>1.85</v>
-      </c>
       <c r="BN51">
-        <v>1.85</v>
+        <v>1.48</v>
       </c>
       <c r="BO51">
-        <v>2.35</v>
+        <v>3</v>
       </c>
       <c r="BP51">
-        <v>1.52</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="52" spans="1:68">
@@ -11366,7 +11366,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>7373229</v>
+        <v>7373227</v>
       </c>
       <c r="C52" t="s">
         <v>68</v>
@@ -11381,127 +11381,127 @@
         <v>6</v>
       </c>
       <c r="G52" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52">
         <v>0</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O52" t="s">
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="Q52">
         <v>2.38</v>
       </c>
       <c r="R52">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S52">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="T52">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U52">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V52">
+        <v>2.75</v>
+      </c>
+      <c r="W52">
+        <v>1.4</v>
+      </c>
+      <c r="X52">
+        <v>8</v>
+      </c>
+      <c r="Y52">
+        <v>1.08</v>
+      </c>
+      <c r="Z52">
+        <v>1.75</v>
+      </c>
+      <c r="AA52">
+        <v>3.8</v>
+      </c>
+      <c r="AB52">
+        <v>4.33</v>
+      </c>
+      <c r="AC52">
+        <v>1.04</v>
+      </c>
+      <c r="AD52">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE52">
+        <v>1.3</v>
+      </c>
+      <c r="AF52">
         <v>3.4</v>
       </c>
-      <c r="W52">
-        <v>1.3</v>
-      </c>
-      <c r="X52">
-        <v>10</v>
-      </c>
-      <c r="Y52">
-        <v>1.06</v>
-      </c>
-      <c r="Z52">
-        <v>1.73</v>
-      </c>
-      <c r="AA52">
-        <v>3.6</v>
-      </c>
-      <c r="AB52">
-        <v>5</v>
-      </c>
-      <c r="AC52">
-        <v>1.06</v>
-      </c>
-      <c r="AD52">
-        <v>7.5</v>
-      </c>
-      <c r="AE52">
-        <v>1.38</v>
-      </c>
-      <c r="AF52">
-        <v>2.8</v>
-      </c>
       <c r="AG52">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="AH52">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="AI52">
+        <v>1.8</v>
+      </c>
+      <c r="AJ52">
         <v>1.95</v>
       </c>
-      <c r="AJ52">
-        <v>1.8</v>
-      </c>
       <c r="AK52">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AL52">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AM52">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AN52">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ52">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AR52">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="AS52">
-        <v>1.11</v>
+        <v>1.58</v>
       </c>
       <c r="AT52">
-        <v>2.62</v>
+        <v>3.03</v>
       </c>
       <c r="AU52">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AV52">
         <v>6</v>
@@ -11510,61 +11510,61 @@
         <v>3</v>
       </c>
       <c r="AX52">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY52">
+        <v>7</v>
+      </c>
+      <c r="AZ52">
         <v>12</v>
       </c>
-      <c r="AZ52">
-        <v>11</v>
-      </c>
       <c r="BA52">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB52">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BC52">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BD52">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="BE52">
         <v>8.5</v>
       </c>
       <c r="BF52">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="BG52">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="BH52">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="BI52">
-        <v>1.51</v>
+        <v>1.35</v>
       </c>
       <c r="BJ52">
-        <v>2.37</v>
+        <v>2.75</v>
       </c>
       <c r="BK52">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="BL52">
-        <v>1.8</v>
+        <v>2.47</v>
       </c>
       <c r="BM52">
-        <v>2.47</v>
+        <v>1.85</v>
       </c>
       <c r="BN52">
-        <v>1.48</v>
+        <v>1.85</v>
       </c>
       <c r="BO52">
-        <v>3</v>
+        <v>2.35</v>
       </c>
       <c r="BP52">
-        <v>1.3</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="53" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -259,24 +259,24 @@
     <t>Bahia</t>
   </si>
   <si>
+    <t>Bragantino</t>
+  </si>
+  <si>
     <t>Grêmio</t>
   </si>
   <si>
-    <t>Bragantino</t>
+    <t>Atlético Mineiro</t>
+  </si>
+  <si>
+    <t>Palmeiras</t>
+  </si>
+  <si>
+    <t>Fortaleza</t>
   </si>
   <si>
     <t>Juventude</t>
   </si>
   <si>
-    <t>Palmeiras</t>
-  </si>
-  <si>
-    <t>Fortaleza</t>
-  </si>
-  <si>
-    <t>Atlético Mineiro</t>
-  </si>
-  <si>
     <t>Flamengo</t>
   </si>
   <si>
@@ -316,21 +316,21 @@
     <t>['34', '61']</t>
   </si>
   <si>
+    <t>['7', '78']</t>
+  </si>
+  <si>
     <t>['19', '51']</t>
   </si>
   <si>
-    <t>['7', '78']</t>
+    <t>['40']</t>
+  </si>
+  <si>
+    <t>['19']</t>
   </si>
   <si>
     <t>['53', '59']</t>
   </si>
   <si>
-    <t>['19']</t>
-  </si>
-  <si>
-    <t>['40']</t>
-  </si>
-  <si>
     <t>['20', '54']</t>
   </si>
   <si>
@@ -382,12 +382,12 @@
     <t>['30']</t>
   </si>
   <si>
+    <t>['26']</t>
+  </si>
+  <si>
     <t>['49']</t>
   </si>
   <si>
-    <t>['26']</t>
-  </si>
-  <si>
     <t>['20', '63']</t>
   </si>
   <si>
@@ -442,10 +442,10 @@
     <t>['69', '72']</t>
   </si>
   <si>
+    <t>['85']</t>
+  </si>
+  <si>
     <t>['14', '52', '76']</t>
-  </si>
-  <si>
-    <t>['85']</t>
   </si>
   <si>
     <t>['32', '47', '55', '69']</t>
@@ -1290,7 +1290,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1496,7 +1496,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1908,7 +1908,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -2114,7 +2114,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>7373185</v>
+        <v>7373191</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
@@ -3350,7 +3350,7 @@
         <v>81</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -3365,172 +3365,172 @@
         <v>2</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O13" t="s">
         <v>100</v>
       </c>
       <c r="P13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q13">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="R13">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S13">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="T13">
         <v>1.44</v>
       </c>
       <c r="U13">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="V13">
-        <v>3.25</v>
+        <v>3.17</v>
       </c>
       <c r="W13">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="X13">
-        <v>9</v>
+        <v>6.75</v>
       </c>
       <c r="Y13">
         <v>1.07</v>
       </c>
       <c r="Z13">
-        <v>2.6</v>
+        <v>1.91</v>
       </c>
       <c r="AA13">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AB13">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="AC13">
         <v>1.07</v>
       </c>
       <c r="AD13">
+        <v>9.5</v>
+      </c>
+      <c r="AE13">
+        <v>1.35</v>
+      </c>
+      <c r="AF13">
+        <v>3.25</v>
+      </c>
+      <c r="AG13">
+        <v>2</v>
+      </c>
+      <c r="AH13">
+        <v>1.8</v>
+      </c>
+      <c r="AI13">
+        <v>1.8</v>
+      </c>
+      <c r="AJ13">
+        <v>1.95</v>
+      </c>
+      <c r="AK13">
+        <v>1.2</v>
+      </c>
+      <c r="AL13">
+        <v>1.28</v>
+      </c>
+      <c r="AM13">
+        <v>1.85</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>2.33</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>6</v>
+      </c>
+      <c r="AV13">
+        <v>4</v>
+      </c>
+      <c r="AW13">
+        <v>9</v>
+      </c>
+      <c r="AX13">
         <v>8</v>
       </c>
-      <c r="AE13">
-        <v>1.38</v>
-      </c>
-      <c r="AF13">
-        <v>3</v>
-      </c>
-      <c r="AG13">
-        <v>2.1</v>
-      </c>
-      <c r="AH13">
-        <v>1.7</v>
-      </c>
-      <c r="AI13">
-        <v>1.91</v>
-      </c>
-      <c r="AJ13">
-        <v>1.91</v>
-      </c>
-      <c r="AK13">
-        <v>1.22</v>
-      </c>
-      <c r="AL13">
-        <v>1.25</v>
-      </c>
-      <c r="AM13">
-        <v>1.7</v>
-      </c>
-      <c r="AN13">
-        <v>0</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>3</v>
-      </c>
-      <c r="AQ13">
-        <v>1.33</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>0</v>
-      </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
-        <v>8</v>
-      </c>
-      <c r="AV13">
-        <v>0</v>
-      </c>
-      <c r="AW13">
+      <c r="AY13">
+        <v>15</v>
+      </c>
+      <c r="AZ13">
+        <v>12</v>
+      </c>
+      <c r="BA13">
         <v>4</v>
       </c>
-      <c r="AX13">
-        <v>4</v>
-      </c>
-      <c r="AY13">
-        <v>12</v>
-      </c>
-      <c r="AZ13">
-        <v>4</v>
-      </c>
-      <c r="BA13">
-        <v>9</v>
-      </c>
       <c r="BB13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BC13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD13">
-        <v>1.64</v>
+        <v>1.37</v>
       </c>
       <c r="BE13">
-        <v>9.9</v>
+        <v>10.5</v>
       </c>
       <c r="BF13">
-        <v>2.78</v>
+        <v>4.1</v>
       </c>
       <c r="BG13">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="BH13">
-        <v>4.1</v>
+        <v>5.7</v>
       </c>
       <c r="BI13">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="BJ13">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="BK13">
-        <v>1.91</v>
+        <v>1.4</v>
       </c>
       <c r="BL13">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="BM13">
+        <v>1.77</v>
+      </c>
+      <c r="BN13">
         <v>1.95</v>
       </c>
-      <c r="BN13">
-        <v>1.77</v>
-      </c>
       <c r="BO13">
-        <v>2.45</v>
+        <v>2.17</v>
       </c>
       <c r="BP13">
-        <v>1.49</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="14" spans="1:68">
@@ -3538,7 +3538,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>7373191</v>
+        <v>7373185</v>
       </c>
       <c r="C14" t="s">
         <v>68</v>
@@ -3556,7 +3556,7 @@
         <v>82</v>
       </c>
       <c r="H14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -3571,172 +3571,172 @@
         <v>2</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O14" t="s">
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q14">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="R14">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="S14">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="T14">
         <v>1.44</v>
       </c>
       <c r="U14">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="V14">
-        <v>3.17</v>
+        <v>3.25</v>
       </c>
       <c r="W14">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="X14">
-        <v>6.75</v>
+        <v>9</v>
       </c>
       <c r="Y14">
         <v>1.07</v>
       </c>
       <c r="Z14">
-        <v>1.91</v>
+        <v>2.6</v>
       </c>
       <c r="AA14">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AB14">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="AC14">
         <v>1.07</v>
       </c>
       <c r="AD14">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AE14">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AF14">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AG14">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AH14">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AI14">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AJ14">
+        <v>1.91</v>
+      </c>
+      <c r="AK14">
+        <v>1.22</v>
+      </c>
+      <c r="AL14">
+        <v>1.25</v>
+      </c>
+      <c r="AM14">
+        <v>1.7</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>3</v>
+      </c>
+      <c r="AQ14">
+        <v>1.33</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>8</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>4</v>
+      </c>
+      <c r="AX14">
+        <v>4</v>
+      </c>
+      <c r="AY14">
+        <v>12</v>
+      </c>
+      <c r="AZ14">
+        <v>4</v>
+      </c>
+      <c r="BA14">
+        <v>9</v>
+      </c>
+      <c r="BB14">
+        <v>2</v>
+      </c>
+      <c r="BC14">
+        <v>11</v>
+      </c>
+      <c r="BD14">
+        <v>1.64</v>
+      </c>
+      <c r="BE14">
+        <v>9.9</v>
+      </c>
+      <c r="BF14">
+        <v>2.78</v>
+      </c>
+      <c r="BG14">
+        <v>1.17</v>
+      </c>
+      <c r="BH14">
+        <v>4.1</v>
+      </c>
+      <c r="BI14">
+        <v>1.28</v>
+      </c>
+      <c r="BJ14">
+        <v>3.35</v>
+      </c>
+      <c r="BK14">
+        <v>1.91</v>
+      </c>
+      <c r="BL14">
+        <v>2.4</v>
+      </c>
+      <c r="BM14">
         <v>1.95</v>
       </c>
-      <c r="AK14">
-        <v>1.2</v>
-      </c>
-      <c r="AL14">
-        <v>1.28</v>
-      </c>
-      <c r="AM14">
-        <v>1.85</v>
-      </c>
-      <c r="AN14">
-        <v>0</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>2.33</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>0</v>
-      </c>
-      <c r="AS14">
-        <v>0</v>
-      </c>
-      <c r="AT14">
-        <v>0</v>
-      </c>
-      <c r="AU14">
-        <v>6</v>
-      </c>
-      <c r="AV14">
-        <v>4</v>
-      </c>
-      <c r="AW14">
-        <v>9</v>
-      </c>
-      <c r="AX14">
-        <v>8</v>
-      </c>
-      <c r="AY14">
-        <v>15</v>
-      </c>
-      <c r="AZ14">
-        <v>12</v>
-      </c>
-      <c r="BA14">
-        <v>4</v>
-      </c>
-      <c r="BB14">
-        <v>6</v>
-      </c>
-      <c r="BC14">
-        <v>10</v>
-      </c>
-      <c r="BD14">
-        <v>1.37</v>
-      </c>
-      <c r="BE14">
-        <v>10.5</v>
-      </c>
-      <c r="BF14">
-        <v>4.1</v>
-      </c>
-      <c r="BG14">
-        <v>1.09</v>
-      </c>
-      <c r="BH14">
-        <v>5.7</v>
-      </c>
-      <c r="BI14">
-        <v>1.27</v>
-      </c>
-      <c r="BJ14">
-        <v>3.1</v>
-      </c>
-      <c r="BK14">
-        <v>1.4</v>
-      </c>
-      <c r="BL14">
-        <v>2.75</v>
-      </c>
-      <c r="BM14">
+      <c r="BN14">
         <v>1.77</v>
       </c>
-      <c r="BN14">
-        <v>1.95</v>
-      </c>
       <c r="BO14">
-        <v>2.17</v>
+        <v>2.45</v>
       </c>
       <c r="BP14">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="15" spans="1:68">
@@ -3744,7 +3744,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>7373194</v>
+        <v>7373186</v>
       </c>
       <c r="C15" t="s">
         <v>68</v>
@@ -3762,22 +3762,22 @@
         <v>83</v>
       </c>
       <c r="H15" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -3786,163 +3786,163 @@
         <v>102</v>
       </c>
       <c r="P15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q15">
-        <v>4.33</v>
+        <v>2.05</v>
       </c>
       <c r="R15">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="S15">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="T15">
+        <v>1.35</v>
+      </c>
+      <c r="U15">
+        <v>3</v>
+      </c>
+      <c r="V15">
+        <v>2.6</v>
+      </c>
+      <c r="W15">
+        <v>1.45</v>
+      </c>
+      <c r="X15">
+        <v>5.75</v>
+      </c>
+      <c r="Y15">
+        <v>1.1</v>
+      </c>
+      <c r="Z15">
         <v>1.5</v>
       </c>
-      <c r="U15">
-        <v>2.45</v>
-      </c>
-      <c r="V15">
-        <v>3.25</v>
-      </c>
-      <c r="W15">
-        <v>1.3</v>
-      </c>
-      <c r="X15">
-        <v>7.5</v>
-      </c>
-      <c r="Y15">
-        <v>1.05</v>
-      </c>
-      <c r="Z15">
-        <v>3.5</v>
-      </c>
       <c r="AA15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB15">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="AC15">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AD15">
-        <v>8.699999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="AE15">
-        <v>1.42</v>
+        <v>1.26</v>
       </c>
       <c r="AF15">
-        <v>2.88</v>
+        <v>3.87</v>
       </c>
       <c r="AG15">
-        <v>2.88</v>
+        <v>2.05</v>
       </c>
       <c r="AH15">
+        <v>1.75</v>
+      </c>
+      <c r="AI15">
+        <v>2.2</v>
+      </c>
+      <c r="AJ15">
+        <v>1.62</v>
+      </c>
+      <c r="AK15">
+        <v>1.04</v>
+      </c>
+      <c r="AL15">
+        <v>1.14</v>
+      </c>
+      <c r="AM15">
+        <v>2.75</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>2</v>
+      </c>
+      <c r="AQ15">
+        <v>2</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>7</v>
+      </c>
+      <c r="AV15">
+        <v>2</v>
+      </c>
+      <c r="AW15">
+        <v>8</v>
+      </c>
+      <c r="AX15">
+        <v>4</v>
+      </c>
+      <c r="AY15">
+        <v>15</v>
+      </c>
+      <c r="AZ15">
+        <v>6</v>
+      </c>
+      <c r="BA15">
+        <v>9</v>
+      </c>
+      <c r="BB15">
+        <v>2</v>
+      </c>
+      <c r="BC15">
+        <v>11</v>
+      </c>
+      <c r="BD15">
+        <v>1.28</v>
+      </c>
+      <c r="BE15">
+        <v>13.5</v>
+      </c>
+      <c r="BF15">
+        <v>4.68</v>
+      </c>
+      <c r="BG15">
+        <v>1.19</v>
+      </c>
+      <c r="BH15">
+        <v>3.9</v>
+      </c>
+      <c r="BI15">
         <v>1.4</v>
       </c>
-      <c r="AI15">
-        <v>2.25</v>
-      </c>
-      <c r="AJ15">
-        <v>1.57</v>
-      </c>
-      <c r="AK15">
-        <v>1.36</v>
-      </c>
-      <c r="AL15">
-        <v>1.28</v>
-      </c>
-      <c r="AM15">
-        <v>1.44</v>
-      </c>
-      <c r="AN15">
-        <v>0</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
-      <c r="AP15">
-        <v>2</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AR15">
-        <v>0</v>
-      </c>
-      <c r="AS15">
-        <v>0</v>
-      </c>
-      <c r="AT15">
-        <v>0</v>
-      </c>
-      <c r="AU15">
-        <v>9</v>
-      </c>
-      <c r="AV15">
-        <v>3</v>
-      </c>
-      <c r="AW15">
-        <v>4</v>
-      </c>
-      <c r="AX15">
-        <v>11</v>
-      </c>
-      <c r="AY15">
-        <v>13</v>
-      </c>
-      <c r="AZ15">
-        <v>14</v>
-      </c>
-      <c r="BA15">
-        <v>6</v>
-      </c>
-      <c r="BB15">
-        <v>7</v>
-      </c>
-      <c r="BC15">
-        <v>13</v>
-      </c>
-      <c r="BD15">
-        <v>1.72</v>
-      </c>
-      <c r="BE15">
-        <v>9.1</v>
-      </c>
-      <c r="BF15">
-        <v>2.64</v>
-      </c>
-      <c r="BG15">
-        <v>1.25</v>
-      </c>
-      <c r="BH15">
-        <v>3.6</v>
-      </c>
-      <c r="BI15">
-        <v>1.41</v>
-      </c>
       <c r="BJ15">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="BK15">
         <v>2.2</v>
       </c>
       <c r="BL15">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="BM15">
-        <v>2.22</v>
+        <v>2.05</v>
       </c>
       <c r="BN15">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="BO15">
-        <v>2.95</v>
+        <v>2.48</v>
       </c>
       <c r="BP15">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="16" spans="1:68">
@@ -4362,7 +4362,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>7373186</v>
+        <v>7373194</v>
       </c>
       <c r="C18" t="s">
         <v>68</v>
@@ -4380,22 +4380,22 @@
         <v>86</v>
       </c>
       <c r="H18" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>2</v>
@@ -4404,163 +4404,163 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q18">
-        <v>2.05</v>
+        <v>4.33</v>
       </c>
       <c r="R18">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="S18">
+        <v>3.2</v>
+      </c>
+      <c r="T18">
+        <v>1.5</v>
+      </c>
+      <c r="U18">
+        <v>2.45</v>
+      </c>
+      <c r="V18">
+        <v>3.25</v>
+      </c>
+      <c r="W18">
+        <v>1.3</v>
+      </c>
+      <c r="X18">
+        <v>7.5</v>
+      </c>
+      <c r="Y18">
+        <v>1.05</v>
+      </c>
+      <c r="Z18">
+        <v>3.5</v>
+      </c>
+      <c r="AA18">
+        <v>3</v>
+      </c>
+      <c r="AB18">
+        <v>2.3</v>
+      </c>
+      <c r="AC18">
+        <v>1.08</v>
+      </c>
+      <c r="AD18">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE18">
+        <v>1.42</v>
+      </c>
+      <c r="AF18">
+        <v>2.88</v>
+      </c>
+      <c r="AG18">
+        <v>2.88</v>
+      </c>
+      <c r="AH18">
+        <v>1.4</v>
+      </c>
+      <c r="AI18">
+        <v>2.25</v>
+      </c>
+      <c r="AJ18">
+        <v>1.57</v>
+      </c>
+      <c r="AK18">
+        <v>1.36</v>
+      </c>
+      <c r="AL18">
+        <v>1.28</v>
+      </c>
+      <c r="AM18">
+        <v>1.44</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>2</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>9</v>
+      </c>
+      <c r="AV18">
+        <v>3</v>
+      </c>
+      <c r="AW18">
+        <v>4</v>
+      </c>
+      <c r="AX18">
+        <v>11</v>
+      </c>
+      <c r="AY18">
+        <v>13</v>
+      </c>
+      <c r="AZ18">
+        <v>14</v>
+      </c>
+      <c r="BA18">
+        <v>6</v>
+      </c>
+      <c r="BB18">
         <v>7</v>
       </c>
-      <c r="T18">
-        <v>1.35</v>
-      </c>
-      <c r="U18">
-        <v>3</v>
-      </c>
-      <c r="V18">
-        <v>2.6</v>
-      </c>
-      <c r="W18">
-        <v>1.45</v>
-      </c>
-      <c r="X18">
-        <v>5.75</v>
-      </c>
-      <c r="Y18">
-        <v>1.1</v>
-      </c>
-      <c r="Z18">
-        <v>1.5</v>
-      </c>
-      <c r="AA18">
-        <v>4</v>
-      </c>
-      <c r="AB18">
-        <v>7</v>
-      </c>
-      <c r="AC18">
-        <v>1.04</v>
-      </c>
-      <c r="AD18">
-        <v>13.5</v>
-      </c>
-      <c r="AE18">
-        <v>1.26</v>
-      </c>
-      <c r="AF18">
-        <v>3.87</v>
-      </c>
-      <c r="AG18">
-        <v>2.05</v>
-      </c>
-      <c r="AH18">
-        <v>1.75</v>
-      </c>
-      <c r="AI18">
-        <v>2.2</v>
-      </c>
-      <c r="AJ18">
-        <v>1.62</v>
-      </c>
-      <c r="AK18">
-        <v>1.04</v>
-      </c>
-      <c r="AL18">
-        <v>1.14</v>
-      </c>
-      <c r="AM18">
-        <v>2.75</v>
-      </c>
-      <c r="AN18">
-        <v>0</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AP18">
-        <v>2</v>
-      </c>
-      <c r="AQ18">
-        <v>2</v>
-      </c>
-      <c r="AR18">
-        <v>0</v>
-      </c>
-      <c r="AS18">
-        <v>0</v>
-      </c>
-      <c r="AT18">
-        <v>0</v>
-      </c>
-      <c r="AU18">
-        <v>7</v>
-      </c>
-      <c r="AV18">
-        <v>2</v>
-      </c>
-      <c r="AW18">
-        <v>8</v>
-      </c>
-      <c r="AX18">
-        <v>4</v>
-      </c>
-      <c r="AY18">
-        <v>15</v>
-      </c>
-      <c r="AZ18">
-        <v>6</v>
-      </c>
-      <c r="BA18">
-        <v>9</v>
-      </c>
-      <c r="BB18">
-        <v>2</v>
-      </c>
       <c r="BC18">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BD18">
-        <v>1.28</v>
+        <v>1.72</v>
       </c>
       <c r="BE18">
-        <v>13.5</v>
+        <v>9.1</v>
       </c>
       <c r="BF18">
-        <v>4.68</v>
+        <v>2.64</v>
       </c>
       <c r="BG18">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="BH18">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="BI18">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="BJ18">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="BK18">
         <v>2.2</v>
       </c>
       <c r="BL18">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="BM18">
-        <v>2.05</v>
+        <v>2.22</v>
       </c>
       <c r="BN18">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="BO18">
-        <v>2.48</v>
+        <v>2.95</v>
       </c>
       <c r="BP18">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="19" spans="1:68">
@@ -5201,7 +5201,7 @@
         <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H22" t="s">
         <v>89</v>
@@ -5407,7 +5407,7 @@
         <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s">
         <v>75</v>
@@ -5613,7 +5613,7 @@
         <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s">
         <v>78</v>
@@ -6422,7 +6422,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>7373203</v>
+        <v>7373199</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -6437,190 +6437,190 @@
         <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N28">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O28" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="P28" t="s">
         <v>142</v>
       </c>
       <c r="Q28">
-        <v>3.5</v>
+        <v>2.38</v>
       </c>
       <c r="R28">
+        <v>2.1</v>
+      </c>
+      <c r="S28">
+        <v>5.5</v>
+      </c>
+      <c r="T28">
+        <v>1.44</v>
+      </c>
+      <c r="U28">
+        <v>2.63</v>
+      </c>
+      <c r="V28">
+        <v>3.25</v>
+      </c>
+      <c r="W28">
+        <v>1.33</v>
+      </c>
+      <c r="X28">
+        <v>9</v>
+      </c>
+      <c r="Y28">
+        <v>1.07</v>
+      </c>
+      <c r="Z28">
+        <v>1.73</v>
+      </c>
+      <c r="AA28">
+        <v>3.6</v>
+      </c>
+      <c r="AB28">
+        <v>4.75</v>
+      </c>
+      <c r="AC28">
+        <v>1.03</v>
+      </c>
+      <c r="AD28">
+        <v>8</v>
+      </c>
+      <c r="AE28">
+        <v>1.33</v>
+      </c>
+      <c r="AF28">
+        <v>2.93</v>
+      </c>
+      <c r="AG28">
+        <v>2</v>
+      </c>
+      <c r="AH28">
+        <v>1.65</v>
+      </c>
+      <c r="AI28">
+        <v>2.1</v>
+      </c>
+      <c r="AJ28">
+        <v>1.67</v>
+      </c>
+      <c r="AK28">
+        <v>1.24</v>
+      </c>
+      <c r="AL28">
+        <v>1.31</v>
+      </c>
+      <c r="AM28">
+        <v>1.89</v>
+      </c>
+      <c r="AN28">
+        <v>3</v>
+      </c>
+      <c r="AO28">
+        <v>1</v>
+      </c>
+      <c r="AP28">
+        <v>2</v>
+      </c>
+      <c r="AQ28">
+        <v>0.5</v>
+      </c>
+      <c r="AR28">
+        <v>1.4</v>
+      </c>
+      <c r="AS28">
+        <v>1.58</v>
+      </c>
+      <c r="AT28">
+        <v>2.98</v>
+      </c>
+      <c r="AU28">
+        <v>7</v>
+      </c>
+      <c r="AV28">
+        <v>2</v>
+      </c>
+      <c r="AW28">
+        <v>5</v>
+      </c>
+      <c r="AX28">
+        <v>5</v>
+      </c>
+      <c r="AY28">
+        <v>12</v>
+      </c>
+      <c r="AZ28">
+        <v>7</v>
+      </c>
+      <c r="BA28">
+        <v>5</v>
+      </c>
+      <c r="BB28">
+        <v>4</v>
+      </c>
+      <c r="BC28">
+        <v>9</v>
+      </c>
+      <c r="BD28">
+        <v>1.57</v>
+      </c>
+      <c r="BE28">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF28">
+        <v>3.07</v>
+      </c>
+      <c r="BG28">
+        <v>1.27</v>
+      </c>
+      <c r="BH28">
+        <v>3.15</v>
+      </c>
+      <c r="BI28">
         <v>1.95</v>
       </c>
-      <c r="S28">
-        <v>3.6</v>
-      </c>
-      <c r="T28">
-        <v>1.5</v>
-      </c>
-      <c r="U28">
-        <v>2.5</v>
-      </c>
-      <c r="V28">
-        <v>3.5</v>
-      </c>
-      <c r="W28">
-        <v>1.29</v>
-      </c>
-      <c r="X28">
-        <v>11</v>
-      </c>
-      <c r="Y28">
-        <v>1.05</v>
-      </c>
-      <c r="Z28">
-        <v>2.8</v>
-      </c>
-      <c r="AA28">
-        <v>2.9</v>
-      </c>
-      <c r="AB28">
-        <v>2.45</v>
-      </c>
-      <c r="AC28">
-        <v>1.05</v>
-      </c>
-      <c r="AD28">
-        <v>7.2</v>
-      </c>
-      <c r="AE28">
-        <v>1.39</v>
-      </c>
-      <c r="AF28">
-        <v>2.68</v>
-      </c>
-      <c r="AG28">
-        <v>2.38</v>
-      </c>
-      <c r="AH28">
-        <v>1.53</v>
-      </c>
-      <c r="AI28">
-        <v>2.05</v>
-      </c>
-      <c r="AJ28">
-        <v>1.7</v>
-      </c>
-      <c r="AK28">
-        <v>1.6</v>
-      </c>
-      <c r="AL28">
+      <c r="BJ28">
+        <v>1.85</v>
+      </c>
+      <c r="BK28">
+        <v>2</v>
+      </c>
+      <c r="BL28">
+        <v>1.73</v>
+      </c>
+      <c r="BM28">
+        <v>2.6</v>
+      </c>
+      <c r="BN28">
+        <v>1.45</v>
+      </c>
+      <c r="BO28">
+        <v>3.05</v>
+      </c>
+      <c r="BP28">
         <v>1.28</v>
-      </c>
-      <c r="AM28">
-        <v>1.36</v>
-      </c>
-      <c r="AN28">
-        <v>0</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
-      <c r="AP28">
-        <v>0</v>
-      </c>
-      <c r="AQ28">
-        <v>2</v>
-      </c>
-      <c r="AR28">
-        <v>1.21</v>
-      </c>
-      <c r="AS28">
-        <v>0.91</v>
-      </c>
-      <c r="AT28">
-        <v>2.12</v>
-      </c>
-      <c r="AU28">
-        <v>2</v>
-      </c>
-      <c r="AV28">
-        <v>8</v>
-      </c>
-      <c r="AW28">
-        <v>4</v>
-      </c>
-      <c r="AX28">
-        <v>4</v>
-      </c>
-      <c r="AY28">
-        <v>6</v>
-      </c>
-      <c r="AZ28">
-        <v>12</v>
-      </c>
-      <c r="BA28">
-        <v>4</v>
-      </c>
-      <c r="BB28">
-        <v>3</v>
-      </c>
-      <c r="BC28">
-        <v>7</v>
-      </c>
-      <c r="BD28">
-        <v>2.15</v>
-      </c>
-      <c r="BE28">
-        <v>8.5</v>
-      </c>
-      <c r="BF28">
-        <v>2.03</v>
-      </c>
-      <c r="BG28">
-        <v>1.23</v>
-      </c>
-      <c r="BH28">
-        <v>3.45</v>
-      </c>
-      <c r="BI28">
-        <v>1.45</v>
-      </c>
-      <c r="BJ28">
-        <v>2.6</v>
-      </c>
-      <c r="BK28">
-        <v>2.2</v>
-      </c>
-      <c r="BL28">
-        <v>2</v>
-      </c>
-      <c r="BM28">
-        <v>2.2</v>
-      </c>
-      <c r="BN28">
-        <v>1.62</v>
-      </c>
-      <c r="BO28">
-        <v>2.8</v>
-      </c>
-      <c r="BP28">
-        <v>1.34</v>
       </c>
     </row>
     <row r="29" spans="1:68">
@@ -6628,7 +6628,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>7373199</v>
+        <v>7373203</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -6643,190 +6643,190 @@
         <v>3</v>
       </c>
       <c r="G29" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H29" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N29">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O29" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="P29" t="s">
         <v>143</v>
       </c>
       <c r="Q29">
+        <v>3.5</v>
+      </c>
+      <c r="R29">
+        <v>1.95</v>
+      </c>
+      <c r="S29">
+        <v>3.6</v>
+      </c>
+      <c r="T29">
+        <v>1.5</v>
+      </c>
+      <c r="U29">
+        <v>2.5</v>
+      </c>
+      <c r="V29">
+        <v>3.5</v>
+      </c>
+      <c r="W29">
+        <v>1.29</v>
+      </c>
+      <c r="X29">
+        <v>11</v>
+      </c>
+      <c r="Y29">
+        <v>1.05</v>
+      </c>
+      <c r="Z29">
+        <v>2.8</v>
+      </c>
+      <c r="AA29">
+        <v>2.9</v>
+      </c>
+      <c r="AB29">
+        <v>2.45</v>
+      </c>
+      <c r="AC29">
+        <v>1.05</v>
+      </c>
+      <c r="AD29">
+        <v>7.2</v>
+      </c>
+      <c r="AE29">
+        <v>1.39</v>
+      </c>
+      <c r="AF29">
+        <v>2.68</v>
+      </c>
+      <c r="AG29">
         <v>2.38</v>
       </c>
-      <c r="R29">
-        <v>2.1</v>
-      </c>
-      <c r="S29">
-        <v>5.5</v>
-      </c>
-      <c r="T29">
-        <v>1.44</v>
-      </c>
-      <c r="U29">
-        <v>2.63</v>
-      </c>
-      <c r="V29">
-        <v>3.25</v>
-      </c>
-      <c r="W29">
-        <v>1.33</v>
-      </c>
-      <c r="X29">
-        <v>9</v>
-      </c>
-      <c r="Y29">
-        <v>1.07</v>
-      </c>
-      <c r="Z29">
-        <v>1.73</v>
-      </c>
-      <c r="AA29">
-        <v>3.6</v>
-      </c>
-      <c r="AB29">
-        <v>4.75</v>
-      </c>
-      <c r="AC29">
-        <v>1.03</v>
-      </c>
-      <c r="AD29">
+      <c r="AH29">
+        <v>1.53</v>
+      </c>
+      <c r="AI29">
+        <v>2.05</v>
+      </c>
+      <c r="AJ29">
+        <v>1.7</v>
+      </c>
+      <c r="AK29">
+        <v>1.6</v>
+      </c>
+      <c r="AL29">
+        <v>1.28</v>
+      </c>
+      <c r="AM29">
+        <v>1.36</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>2</v>
+      </c>
+      <c r="AR29">
+        <v>1.21</v>
+      </c>
+      <c r="AS29">
+        <v>0.91</v>
+      </c>
+      <c r="AT29">
+        <v>2.12</v>
+      </c>
+      <c r="AU29">
+        <v>2</v>
+      </c>
+      <c r="AV29">
         <v>8</v>
       </c>
-      <c r="AE29">
-        <v>1.33</v>
-      </c>
-      <c r="AF29">
-        <v>2.93</v>
-      </c>
-      <c r="AG29">
-        <v>2</v>
-      </c>
-      <c r="AH29">
-        <v>1.65</v>
-      </c>
-      <c r="AI29">
-        <v>2.1</v>
-      </c>
-      <c r="AJ29">
-        <v>1.67</v>
-      </c>
-      <c r="AK29">
-        <v>1.24</v>
-      </c>
-      <c r="AL29">
-        <v>1.31</v>
-      </c>
-      <c r="AM29">
-        <v>1.89</v>
-      </c>
-      <c r="AN29">
-        <v>3</v>
-      </c>
-      <c r="AO29">
-        <v>1</v>
-      </c>
-      <c r="AP29">
-        <v>2</v>
-      </c>
-      <c r="AQ29">
-        <v>0.5</v>
-      </c>
-      <c r="AR29">
-        <v>1.4</v>
-      </c>
-      <c r="AS29">
-        <v>1.58</v>
-      </c>
-      <c r="AT29">
-        <v>2.98</v>
-      </c>
-      <c r="AU29">
+      <c r="AW29">
+        <v>4</v>
+      </c>
+      <c r="AX29">
+        <v>4</v>
+      </c>
+      <c r="AY29">
+        <v>6</v>
+      </c>
+      <c r="AZ29">
+        <v>12</v>
+      </c>
+      <c r="BA29">
+        <v>4</v>
+      </c>
+      <c r="BB29">
+        <v>3</v>
+      </c>
+      <c r="BC29">
         <v>7</v>
       </c>
-      <c r="AV29">
-        <v>2</v>
-      </c>
-      <c r="AW29">
-        <v>5</v>
-      </c>
-      <c r="AX29">
-        <v>5</v>
-      </c>
-      <c r="AY29">
-        <v>12</v>
-      </c>
-      <c r="AZ29">
-        <v>7</v>
-      </c>
-      <c r="BA29">
-        <v>5</v>
-      </c>
-      <c r="BB29">
-        <v>4</v>
-      </c>
-      <c r="BC29">
-        <v>9</v>
-      </c>
       <c r="BD29">
-        <v>1.57</v>
+        <v>2.15</v>
       </c>
       <c r="BE29">
-        <v>9.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="BF29">
-        <v>3.07</v>
+        <v>2.03</v>
       </c>
       <c r="BG29">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="BH29">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="BI29">
-        <v>1.95</v>
+        <v>1.45</v>
       </c>
       <c r="BJ29">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="BK29">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="BL29">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="BM29">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="BN29">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="BO29">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="BP29">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="30" spans="1:68">
@@ -7058,7 +7058,7 @@
         <v>89</v>
       </c>
       <c r="H31" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -7264,7 +7264,7 @@
         <v>80</v>
       </c>
       <c r="H32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -8088,7 +8088,7 @@
         <v>85</v>
       </c>
       <c r="H36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -8112,7 +8112,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q36">
         <v>2.63</v>
@@ -8291,7 +8291,7 @@
         <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H37" t="s">
         <v>76</v>
@@ -8912,7 +8912,7 @@
         <v>72</v>
       </c>
       <c r="H40" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -9115,7 +9115,7 @@
         <v>5</v>
       </c>
       <c r="G41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s">
         <v>87</v>
@@ -9512,7 +9512,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>7373217</v>
+        <v>7373222</v>
       </c>
       <c r="C43" t="s">
         <v>68</v>
@@ -9527,16 +9527,16 @@
         <v>5</v>
       </c>
       <c r="G43" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H43" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43">
         <v>1</v>
@@ -9545,70 +9545,70 @@
         <v>1</v>
       </c>
       <c r="M43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O43" t="s">
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="Q43">
-        <v>4.33</v>
+        <v>2.38</v>
       </c>
       <c r="R43">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S43">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="T43">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="U43">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="V43">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="W43">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="X43">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y43">
+        <v>1.07</v>
+      </c>
+      <c r="Z43">
+        <v>1.67</v>
+      </c>
+      <c r="AA43">
+        <v>3.6</v>
+      </c>
+      <c r="AB43">
+        <v>5</v>
+      </c>
+      <c r="AC43">
         <v>1.05</v>
       </c>
-      <c r="Z43">
-        <v>3.7</v>
-      </c>
-      <c r="AA43">
-        <v>2.9</v>
-      </c>
-      <c r="AB43">
-        <v>2.18</v>
-      </c>
-      <c r="AC43">
-        <v>1.1</v>
-      </c>
       <c r="AD43">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AE43">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AF43">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="AG43">
-        <v>2.27</v>
+        <v>2.04</v>
       </c>
       <c r="AH43">
-        <v>1.59</v>
+        <v>1.73</v>
       </c>
       <c r="AI43">
         <v>2.05</v>
@@ -9617,100 +9617,100 @@
         <v>1.7</v>
       </c>
       <c r="AK43">
-        <v>1.65</v>
+        <v>1.15</v>
       </c>
       <c r="AL43">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AM43">
-        <v>1.33</v>
+        <v>2.3</v>
       </c>
       <c r="AN43">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AO43">
+        <v>0</v>
+      </c>
+      <c r="AP43">
+        <v>3</v>
+      </c>
+      <c r="AQ43">
+        <v>0</v>
+      </c>
+      <c r="AR43">
+        <v>1.32</v>
+      </c>
+      <c r="AS43">
         <v>1.5</v>
-      </c>
-      <c r="AP43">
-        <v>0.33</v>
-      </c>
-      <c r="AQ43">
-        <v>2</v>
-      </c>
-      <c r="AR43">
-        <v>1.47</v>
-      </c>
-      <c r="AS43">
-        <v>1.35</v>
       </c>
       <c r="AT43">
         <v>2.82</v>
       </c>
       <c r="AU43">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AV43">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AW43">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="AX43">
+        <v>6</v>
+      </c>
+      <c r="AY43">
+        <v>21</v>
+      </c>
+      <c r="AZ43">
         <v>8</v>
       </c>
-      <c r="AY43">
+      <c r="BA43">
+        <v>6</v>
+      </c>
+      <c r="BB43">
         <v>5</v>
-      </c>
-      <c r="AZ43">
-        <v>17</v>
-      </c>
-      <c r="BA43">
-        <v>3</v>
-      </c>
-      <c r="BB43">
-        <v>8</v>
       </c>
       <c r="BC43">
         <v>11</v>
       </c>
       <c r="BD43">
-        <v>2.23</v>
+        <v>1.49</v>
       </c>
       <c r="BE43">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="BF43">
-        <v>1.87</v>
+        <v>3.15</v>
       </c>
       <c r="BG43">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="BH43">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="BI43">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="BJ43">
-        <v>2.32</v>
+        <v>2.63</v>
       </c>
       <c r="BK43">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="BL43">
-        <v>1.81</v>
+        <v>2.02</v>
       </c>
       <c r="BM43">
-        <v>2.38</v>
+        <v>2.08</v>
       </c>
       <c r="BN43">
-        <v>1.48</v>
+        <v>1.64</v>
       </c>
       <c r="BO43">
-        <v>3.1</v>
+        <v>2.65</v>
       </c>
       <c r="BP43">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="44" spans="1:68">
@@ -9718,7 +9718,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>7373222</v>
+        <v>7373217</v>
       </c>
       <c r="C44" t="s">
         <v>68</v>
@@ -9733,16 +9733,16 @@
         <v>5</v>
       </c>
       <c r="G44" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -9751,70 +9751,70 @@
         <v>1</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O44" t="s">
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="Q44">
+        <v>4.33</v>
+      </c>
+      <c r="R44">
+        <v>1.95</v>
+      </c>
+      <c r="S44">
+        <v>3</v>
+      </c>
+      <c r="T44">
+        <v>1.53</v>
+      </c>
+      <c r="U44">
         <v>2.38</v>
       </c>
-      <c r="R44">
-        <v>2.1</v>
-      </c>
-      <c r="S44">
-        <v>5.5</v>
-      </c>
-      <c r="T44">
-        <v>1.4</v>
-      </c>
-      <c r="U44">
-        <v>2.75</v>
-      </c>
       <c r="V44">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="W44">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="X44">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y44">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="Z44">
-        <v>1.67</v>
+        <v>3.7</v>
       </c>
       <c r="AA44">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="AB44">
-        <v>5</v>
+        <v>2.18</v>
       </c>
       <c r="AC44">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AD44">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AE44">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AF44">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="AG44">
-        <v>2.04</v>
+        <v>2.27</v>
       </c>
       <c r="AH44">
-        <v>1.73</v>
+        <v>1.59</v>
       </c>
       <c r="AI44">
         <v>2.05</v>
@@ -9823,100 +9823,100 @@
         <v>1.7</v>
       </c>
       <c r="AK44">
-        <v>1.15</v>
+        <v>1.65</v>
       </c>
       <c r="AL44">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AM44">
-        <v>2.3</v>
+        <v>1.33</v>
       </c>
       <c r="AN44">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AO44">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>3</v>
+        <v>0.33</v>
       </c>
       <c r="AQ44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR44">
-        <v>1.32</v>
+        <v>1.47</v>
       </c>
       <c r="AS44">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="AT44">
         <v>2.82</v>
       </c>
       <c r="AU44">
+        <v>3</v>
+      </c>
+      <c r="AV44">
+        <v>9</v>
+      </c>
+      <c r="AW44">
+        <v>2</v>
+      </c>
+      <c r="AX44">
         <v>8</v>
       </c>
-      <c r="AV44">
-        <v>2</v>
-      </c>
-      <c r="AW44">
-        <v>13</v>
-      </c>
-      <c r="AX44">
-        <v>6</v>
-      </c>
       <c r="AY44">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="AZ44">
+        <v>17</v>
+      </c>
+      <c r="BA44">
+        <v>3</v>
+      </c>
+      <c r="BB44">
         <v>8</v>
-      </c>
-      <c r="BA44">
-        <v>6</v>
-      </c>
-      <c r="BB44">
-        <v>5</v>
       </c>
       <c r="BC44">
         <v>11</v>
       </c>
       <c r="BD44">
-        <v>1.49</v>
+        <v>2.23</v>
       </c>
       <c r="BE44">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="BF44">
+        <v>1.87</v>
+      </c>
+      <c r="BG44">
+        <v>1.27</v>
+      </c>
+      <c r="BH44">
         <v>3.15</v>
       </c>
-      <c r="BG44">
-        <v>1.21</v>
-      </c>
-      <c r="BH44">
-        <v>3.65</v>
-      </c>
       <c r="BI44">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="BJ44">
-        <v>2.63</v>
+        <v>2.32</v>
       </c>
       <c r="BK44">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="BL44">
-        <v>2.02</v>
+        <v>1.81</v>
       </c>
       <c r="BM44">
-        <v>2.08</v>
+        <v>2.38</v>
       </c>
       <c r="BN44">
-        <v>1.64</v>
+        <v>1.48</v>
       </c>
       <c r="BO44">
-        <v>2.65</v>
+        <v>3.1</v>
       </c>
       <c r="BP44">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="45" spans="1:68">
@@ -11384,7 +11384,7 @@
         <v>80</v>
       </c>
       <c r="H52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I52">
         <v>1</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -259,10 +259,16 @@
     <t>Bahia</t>
   </si>
   <si>
+    <t>Grêmio</t>
+  </si>
+  <si>
     <t>Bragantino</t>
   </si>
   <si>
-    <t>Grêmio</t>
+    <t>Juventude</t>
+  </si>
+  <si>
+    <t>Fortaleza</t>
   </si>
   <si>
     <t>Atlético Mineiro</t>
@@ -271,12 +277,6 @@
     <t>Palmeiras</t>
   </si>
   <si>
-    <t>Fortaleza</t>
-  </si>
-  <si>
-    <t>Juventude</t>
-  </si>
-  <si>
     <t>Flamengo</t>
   </si>
   <si>
@@ -316,21 +316,21 @@
     <t>['34', '61']</t>
   </si>
   <si>
+    <t>['19', '51']</t>
+  </si>
+  <si>
     <t>['7', '78']</t>
   </si>
   <si>
-    <t>['19', '51']</t>
+    <t>['53', '59']</t>
+  </si>
+  <si>
+    <t>['19']</t>
   </si>
   <si>
     <t>['40']</t>
   </si>
   <si>
-    <t>['19']</t>
-  </si>
-  <si>
-    <t>['53', '59']</t>
-  </si>
-  <si>
     <t>['20', '54']</t>
   </si>
   <si>
@@ -340,12 +340,12 @@
     <t>['10', '53']</t>
   </si>
   <si>
+    <t>['5']</t>
+  </si>
+  <si>
     <t>['44']</t>
   </si>
   <si>
-    <t>['5']</t>
-  </si>
-  <si>
     <t>['25', '35', '45+2']</t>
   </si>
   <si>
@@ -361,12 +361,12 @@
     <t>['17']</t>
   </si>
   <si>
+    <t>['40', '45+2', '47']</t>
+  </si>
+  <si>
     <t>['50', '58', '75']</t>
   </si>
   <si>
-    <t>['40', '45+2', '47']</t>
-  </si>
-  <si>
     <t>['9']</t>
   </si>
   <si>
@@ -394,12 +394,12 @@
     <t>['10']</t>
   </si>
   <si>
+    <t>['37']</t>
+  </si>
+  <si>
     <t>['50', '56']</t>
   </si>
   <si>
-    <t>['37']</t>
-  </si>
-  <si>
     <t>['32', '84']</t>
   </si>
   <si>
@@ -430,12 +430,12 @@
     <t>['4']</t>
   </si>
   <si>
+    <t>['89']</t>
+  </si>
+  <si>
     <t>['45']</t>
   </si>
   <si>
-    <t>['89']</t>
-  </si>
-  <si>
     <t>['79']</t>
   </si>
   <si>
@@ -478,13 +478,13 @@
     <t>['45+1', '71']</t>
   </si>
   <si>
+    <t>['45+9', '59']</t>
+  </si>
+  <si>
+    <t>['41']</t>
+  </si>
+  <si>
     <t>['81']</t>
-  </si>
-  <si>
-    <t>['45+9', '59']</t>
-  </si>
-  <si>
-    <t>['41']</t>
   </si>
   <si>
     <t>['29']</t>
@@ -1290,7 +1290,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1496,7 +1496,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1702,7 +1702,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1908,7 +1908,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -2114,7 +2114,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2938,7 +2938,7 @@
         <v>79</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>7373191</v>
+        <v>7373185</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
@@ -3350,7 +3350,7 @@
         <v>81</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -3365,172 +3365,172 @@
         <v>2</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O13" t="s">
         <v>100</v>
       </c>
       <c r="P13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q13">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="R13">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="S13">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="T13">
         <v>1.44</v>
       </c>
       <c r="U13">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="V13">
-        <v>3.17</v>
+        <v>3.25</v>
       </c>
       <c r="W13">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="X13">
-        <v>6.75</v>
+        <v>9</v>
       </c>
       <c r="Y13">
         <v>1.07</v>
       </c>
       <c r="Z13">
-        <v>1.91</v>
+        <v>2.6</v>
       </c>
       <c r="AA13">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AB13">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="AC13">
         <v>1.07</v>
       </c>
       <c r="AD13">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AE13">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AF13">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AG13">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AH13">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AI13">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AJ13">
+        <v>1.91</v>
+      </c>
+      <c r="AK13">
+        <v>1.22</v>
+      </c>
+      <c r="AL13">
+        <v>1.25</v>
+      </c>
+      <c r="AM13">
+        <v>1.7</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>3</v>
+      </c>
+      <c r="AQ13">
+        <v>1.33</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>8</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>4</v>
+      </c>
+      <c r="AX13">
+        <v>4</v>
+      </c>
+      <c r="AY13">
+        <v>12</v>
+      </c>
+      <c r="AZ13">
+        <v>4</v>
+      </c>
+      <c r="BA13">
+        <v>9</v>
+      </c>
+      <c r="BB13">
+        <v>2</v>
+      </c>
+      <c r="BC13">
+        <v>11</v>
+      </c>
+      <c r="BD13">
+        <v>1.64</v>
+      </c>
+      <c r="BE13">
+        <v>9.9</v>
+      </c>
+      <c r="BF13">
+        <v>2.78</v>
+      </c>
+      <c r="BG13">
+        <v>1.17</v>
+      </c>
+      <c r="BH13">
+        <v>4.1</v>
+      </c>
+      <c r="BI13">
+        <v>1.28</v>
+      </c>
+      <c r="BJ13">
+        <v>3.35</v>
+      </c>
+      <c r="BK13">
+        <v>1.91</v>
+      </c>
+      <c r="BL13">
+        <v>2.4</v>
+      </c>
+      <c r="BM13">
         <v>1.95</v>
       </c>
-      <c r="AK13">
-        <v>1.2</v>
-      </c>
-      <c r="AL13">
-        <v>1.28</v>
-      </c>
-      <c r="AM13">
-        <v>1.85</v>
-      </c>
-      <c r="AN13">
-        <v>0</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>2.33</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>0</v>
-      </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
-        <v>6</v>
-      </c>
-      <c r="AV13">
-        <v>4</v>
-      </c>
-      <c r="AW13">
-        <v>9</v>
-      </c>
-      <c r="AX13">
-        <v>8</v>
-      </c>
-      <c r="AY13">
-        <v>15</v>
-      </c>
-      <c r="AZ13">
-        <v>12</v>
-      </c>
-      <c r="BA13">
-        <v>4</v>
-      </c>
-      <c r="BB13">
-        <v>6</v>
-      </c>
-      <c r="BC13">
-        <v>10</v>
-      </c>
-      <c r="BD13">
-        <v>1.37</v>
-      </c>
-      <c r="BE13">
-        <v>10.5</v>
-      </c>
-      <c r="BF13">
-        <v>4.1</v>
-      </c>
-      <c r="BG13">
-        <v>1.09</v>
-      </c>
-      <c r="BH13">
-        <v>5.7</v>
-      </c>
-      <c r="BI13">
-        <v>1.27</v>
-      </c>
-      <c r="BJ13">
-        <v>3.1</v>
-      </c>
-      <c r="BK13">
-        <v>1.4</v>
-      </c>
-      <c r="BL13">
-        <v>2.75</v>
-      </c>
-      <c r="BM13">
+      <c r="BN13">
         <v>1.77</v>
       </c>
-      <c r="BN13">
-        <v>1.95</v>
-      </c>
       <c r="BO13">
-        <v>2.17</v>
+        <v>2.45</v>
       </c>
       <c r="BP13">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="14" spans="1:68">
@@ -3538,7 +3538,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>7373185</v>
+        <v>7373191</v>
       </c>
       <c r="C14" t="s">
         <v>68</v>
@@ -3556,7 +3556,7 @@
         <v>82</v>
       </c>
       <c r="H14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -3571,172 +3571,172 @@
         <v>2</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O14" t="s">
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q14">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="R14">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S14">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="T14">
         <v>1.44</v>
       </c>
       <c r="U14">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="V14">
-        <v>3.25</v>
+        <v>3.17</v>
       </c>
       <c r="W14">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="X14">
-        <v>9</v>
+        <v>6.75</v>
       </c>
       <c r="Y14">
         <v>1.07</v>
       </c>
       <c r="Z14">
-        <v>2.6</v>
+        <v>1.91</v>
       </c>
       <c r="AA14">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AB14">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="AC14">
         <v>1.07</v>
       </c>
       <c r="AD14">
+        <v>9.5</v>
+      </c>
+      <c r="AE14">
+        <v>1.35</v>
+      </c>
+      <c r="AF14">
+        <v>3.25</v>
+      </c>
+      <c r="AG14">
+        <v>2</v>
+      </c>
+      <c r="AH14">
+        <v>1.8</v>
+      </c>
+      <c r="AI14">
+        <v>1.8</v>
+      </c>
+      <c r="AJ14">
+        <v>1.95</v>
+      </c>
+      <c r="AK14">
+        <v>1.2</v>
+      </c>
+      <c r="AL14">
+        <v>1.28</v>
+      </c>
+      <c r="AM14">
+        <v>1.85</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>2.33</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>6</v>
+      </c>
+      <c r="AV14">
+        <v>4</v>
+      </c>
+      <c r="AW14">
+        <v>9</v>
+      </c>
+      <c r="AX14">
         <v>8</v>
       </c>
-      <c r="AE14">
-        <v>1.38</v>
-      </c>
-      <c r="AF14">
-        <v>3</v>
-      </c>
-      <c r="AG14">
-        <v>2.1</v>
-      </c>
-      <c r="AH14">
-        <v>1.7</v>
-      </c>
-      <c r="AI14">
-        <v>1.91</v>
-      </c>
-      <c r="AJ14">
-        <v>1.91</v>
-      </c>
-      <c r="AK14">
-        <v>1.22</v>
-      </c>
-      <c r="AL14">
-        <v>1.25</v>
-      </c>
-      <c r="AM14">
-        <v>1.7</v>
-      </c>
-      <c r="AN14">
-        <v>0</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>3</v>
-      </c>
-      <c r="AQ14">
-        <v>1.33</v>
-      </c>
-      <c r="AR14">
-        <v>0</v>
-      </c>
-      <c r="AS14">
-        <v>0</v>
-      </c>
-      <c r="AT14">
-        <v>0</v>
-      </c>
-      <c r="AU14">
-        <v>8</v>
-      </c>
-      <c r="AV14">
-        <v>0</v>
-      </c>
-      <c r="AW14">
+      <c r="AY14">
+        <v>15</v>
+      </c>
+      <c r="AZ14">
+        <v>12</v>
+      </c>
+      <c r="BA14">
         <v>4</v>
       </c>
-      <c r="AX14">
-        <v>4</v>
-      </c>
-      <c r="AY14">
-        <v>12</v>
-      </c>
-      <c r="AZ14">
-        <v>4</v>
-      </c>
-      <c r="BA14">
-        <v>9</v>
-      </c>
       <c r="BB14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BC14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD14">
-        <v>1.64</v>
+        <v>1.37</v>
       </c>
       <c r="BE14">
-        <v>9.9</v>
+        <v>10.5</v>
       </c>
       <c r="BF14">
-        <v>2.78</v>
+        <v>4.1</v>
       </c>
       <c r="BG14">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="BH14">
-        <v>4.1</v>
+        <v>5.7</v>
       </c>
       <c r="BI14">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="BJ14">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="BK14">
-        <v>1.91</v>
+        <v>1.4</v>
       </c>
       <c r="BL14">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="BM14">
+        <v>1.77</v>
+      </c>
+      <c r="BN14">
         <v>1.95</v>
       </c>
-      <c r="BN14">
-        <v>1.77</v>
-      </c>
       <c r="BO14">
-        <v>2.45</v>
+        <v>2.17</v>
       </c>
       <c r="BP14">
-        <v>1.49</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="15" spans="1:68">
@@ -3744,7 +3744,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>7373186</v>
+        <v>7373194</v>
       </c>
       <c r="C15" t="s">
         <v>68</v>
@@ -3762,22 +3762,22 @@
         <v>83</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -3786,163 +3786,163 @@
         <v>102</v>
       </c>
       <c r="P15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q15">
-        <v>2.05</v>
+        <v>4.33</v>
       </c>
       <c r="R15">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="S15">
+        <v>3.2</v>
+      </c>
+      <c r="T15">
+        <v>1.5</v>
+      </c>
+      <c r="U15">
+        <v>2.45</v>
+      </c>
+      <c r="V15">
+        <v>3.25</v>
+      </c>
+      <c r="W15">
+        <v>1.3</v>
+      </c>
+      <c r="X15">
+        <v>7.5</v>
+      </c>
+      <c r="Y15">
+        <v>1.05</v>
+      </c>
+      <c r="Z15">
+        <v>3.5</v>
+      </c>
+      <c r="AA15">
+        <v>3</v>
+      </c>
+      <c r="AB15">
+        <v>2.3</v>
+      </c>
+      <c r="AC15">
+        <v>1.08</v>
+      </c>
+      <c r="AD15">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE15">
+        <v>1.42</v>
+      </c>
+      <c r="AF15">
+        <v>2.88</v>
+      </c>
+      <c r="AG15">
+        <v>2.88</v>
+      </c>
+      <c r="AH15">
+        <v>1.4</v>
+      </c>
+      <c r="AI15">
+        <v>2.25</v>
+      </c>
+      <c r="AJ15">
+        <v>1.57</v>
+      </c>
+      <c r="AK15">
+        <v>1.36</v>
+      </c>
+      <c r="AL15">
+        <v>1.28</v>
+      </c>
+      <c r="AM15">
+        <v>1.44</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>2</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>9</v>
+      </c>
+      <c r="AV15">
+        <v>3</v>
+      </c>
+      <c r="AW15">
+        <v>4</v>
+      </c>
+      <c r="AX15">
+        <v>11</v>
+      </c>
+      <c r="AY15">
+        <v>13</v>
+      </c>
+      <c r="AZ15">
+        <v>14</v>
+      </c>
+      <c r="BA15">
+        <v>6</v>
+      </c>
+      <c r="BB15">
         <v>7</v>
       </c>
-      <c r="T15">
-        <v>1.35</v>
-      </c>
-      <c r="U15">
-        <v>3</v>
-      </c>
-      <c r="V15">
-        <v>2.6</v>
-      </c>
-      <c r="W15">
-        <v>1.45</v>
-      </c>
-      <c r="X15">
-        <v>5.75</v>
-      </c>
-      <c r="Y15">
-        <v>1.1</v>
-      </c>
-      <c r="Z15">
-        <v>1.5</v>
-      </c>
-      <c r="AA15">
-        <v>4</v>
-      </c>
-      <c r="AB15">
-        <v>7</v>
-      </c>
-      <c r="AC15">
-        <v>1.04</v>
-      </c>
-      <c r="AD15">
-        <v>13.5</v>
-      </c>
-      <c r="AE15">
-        <v>1.26</v>
-      </c>
-      <c r="AF15">
-        <v>3.87</v>
-      </c>
-      <c r="AG15">
-        <v>2.05</v>
-      </c>
-      <c r="AH15">
-        <v>1.75</v>
-      </c>
-      <c r="AI15">
-        <v>2.2</v>
-      </c>
-      <c r="AJ15">
-        <v>1.62</v>
-      </c>
-      <c r="AK15">
-        <v>1.04</v>
-      </c>
-      <c r="AL15">
-        <v>1.14</v>
-      </c>
-      <c r="AM15">
-        <v>2.75</v>
-      </c>
-      <c r="AN15">
-        <v>0</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
-      <c r="AP15">
-        <v>2</v>
-      </c>
-      <c r="AQ15">
-        <v>2</v>
-      </c>
-      <c r="AR15">
-        <v>0</v>
-      </c>
-      <c r="AS15">
-        <v>0</v>
-      </c>
-      <c r="AT15">
-        <v>0</v>
-      </c>
-      <c r="AU15">
-        <v>7</v>
-      </c>
-      <c r="AV15">
-        <v>2</v>
-      </c>
-      <c r="AW15">
-        <v>8</v>
-      </c>
-      <c r="AX15">
-        <v>4</v>
-      </c>
-      <c r="AY15">
-        <v>15</v>
-      </c>
-      <c r="AZ15">
-        <v>6</v>
-      </c>
-      <c r="BA15">
-        <v>9</v>
-      </c>
-      <c r="BB15">
-        <v>2</v>
-      </c>
       <c r="BC15">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BD15">
-        <v>1.28</v>
+        <v>1.72</v>
       </c>
       <c r="BE15">
-        <v>13.5</v>
+        <v>9.1</v>
       </c>
       <c r="BF15">
-        <v>4.68</v>
+        <v>2.64</v>
       </c>
       <c r="BG15">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="BH15">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="BI15">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="BJ15">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="BK15">
         <v>2.2</v>
       </c>
       <c r="BL15">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="BM15">
-        <v>2.05</v>
+        <v>2.22</v>
       </c>
       <c r="BN15">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="BO15">
-        <v>2.48</v>
+        <v>2.95</v>
       </c>
       <c r="BP15">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="16" spans="1:68">
@@ -3950,7 +3950,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>7373190</v>
+        <v>7373192</v>
       </c>
       <c r="C16" t="s">
         <v>68</v>
@@ -3968,112 +3968,112 @@
         <v>84</v>
       </c>
       <c r="H16" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16">
         <v>1</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O16" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="P16" t="s">
         <v>138</v>
       </c>
       <c r="Q16">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="R16">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="T16">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U16">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V16">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="W16">
+        <v>1.29</v>
+      </c>
+      <c r="X16">
+        <v>11</v>
+      </c>
+      <c r="Y16">
+        <v>1.05</v>
+      </c>
+      <c r="Z16">
+        <v>1.95</v>
+      </c>
+      <c r="AA16">
+        <v>3.4</v>
+      </c>
+      <c r="AB16">
+        <v>4</v>
+      </c>
+      <c r="AC16">
+        <v>1.08</v>
+      </c>
+      <c r="AD16">
+        <v>7.5</v>
+      </c>
+      <c r="AE16">
+        <v>1.42</v>
+      </c>
+      <c r="AF16">
+        <v>2.8</v>
+      </c>
+      <c r="AG16">
+        <v>2.25</v>
+      </c>
+      <c r="AH16">
+        <v>1.62</v>
+      </c>
+      <c r="AI16">
+        <v>2.05</v>
+      </c>
+      <c r="AJ16">
+        <v>1.7</v>
+      </c>
+      <c r="AK16">
+        <v>1.22</v>
+      </c>
+      <c r="AL16">
+        <v>1.28</v>
+      </c>
+      <c r="AM16">
+        <v>1.65</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>1</v>
+      </c>
+      <c r="AQ16">
         <v>1.33</v>
-      </c>
-      <c r="X16">
-        <v>9</v>
-      </c>
-      <c r="Y16">
-        <v>1.07</v>
-      </c>
-      <c r="Z16">
-        <v>1.65</v>
-      </c>
-      <c r="AA16">
-        <v>3.6</v>
-      </c>
-      <c r="AB16">
-        <v>6</v>
-      </c>
-      <c r="AC16">
-        <v>1.06</v>
-      </c>
-      <c r="AD16">
-        <v>8.5</v>
-      </c>
-      <c r="AE16">
-        <v>1.35</v>
-      </c>
-      <c r="AF16">
-        <v>3.1</v>
-      </c>
-      <c r="AG16">
-        <v>2.2</v>
-      </c>
-      <c r="AH16">
-        <v>1.65</v>
-      </c>
-      <c r="AI16">
-        <v>2.1</v>
-      </c>
-      <c r="AJ16">
-        <v>1.67</v>
-      </c>
-      <c r="AK16">
-        <v>1.1</v>
-      </c>
-      <c r="AL16">
-        <v>1.2</v>
-      </c>
-      <c r="AM16">
-        <v>2.2</v>
-      </c>
-      <c r="AN16">
-        <v>0</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
-      <c r="AP16">
-        <v>0.33</v>
-      </c>
-      <c r="AQ16">
-        <v>1.5</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4088,67 +4088,67 @@
         <v>4</v>
       </c>
       <c r="AV16">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW16">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AX16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY16">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AZ16">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BA16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC16">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BD16">
-        <v>1.42</v>
+        <v>1.87</v>
       </c>
       <c r="BE16">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="BF16">
-        <v>3.7</v>
+        <v>2.36</v>
       </c>
       <c r="BG16">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="BH16">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="BI16">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="BJ16">
-        <v>2.77</v>
+        <v>3.15</v>
       </c>
       <c r="BK16">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="BL16">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="BM16">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="BN16">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="BO16">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="BP16">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="17" spans="1:68">
@@ -4156,7 +4156,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>7373192</v>
+        <v>7373186</v>
       </c>
       <c r="C17" t="s">
         <v>68</v>
@@ -4174,7 +4174,7 @@
         <v>85</v>
       </c>
       <c r="H17" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -4195,163 +4195,163 @@
         <v>2</v>
       </c>
       <c r="O17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P17" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="Q17">
+        <v>2.05</v>
+      </c>
+      <c r="R17">
+        <v>2.2</v>
+      </c>
+      <c r="S17">
+        <v>7</v>
+      </c>
+      <c r="T17">
+        <v>1.35</v>
+      </c>
+      <c r="U17">
+        <v>3</v>
+      </c>
+      <c r="V17">
+        <v>2.6</v>
+      </c>
+      <c r="W17">
+        <v>1.45</v>
+      </c>
+      <c r="X17">
+        <v>5.75</v>
+      </c>
+      <c r="Y17">
+        <v>1.1</v>
+      </c>
+      <c r="Z17">
+        <v>1.5</v>
+      </c>
+      <c r="AA17">
+        <v>4</v>
+      </c>
+      <c r="AB17">
+        <v>7</v>
+      </c>
+      <c r="AC17">
+        <v>1.04</v>
+      </c>
+      <c r="AD17">
+        <v>13.5</v>
+      </c>
+      <c r="AE17">
+        <v>1.26</v>
+      </c>
+      <c r="AF17">
+        <v>3.87</v>
+      </c>
+      <c r="AG17">
+        <v>2.05</v>
+      </c>
+      <c r="AH17">
+        <v>1.75</v>
+      </c>
+      <c r="AI17">
+        <v>2.2</v>
+      </c>
+      <c r="AJ17">
+        <v>1.62</v>
+      </c>
+      <c r="AK17">
+        <v>1.04</v>
+      </c>
+      <c r="AL17">
+        <v>1.14</v>
+      </c>
+      <c r="AM17">
         <v>2.75</v>
       </c>
-      <c r="R17">
-        <v>2</v>
-      </c>
-      <c r="S17">
-        <v>4.75</v>
-      </c>
-      <c r="T17">
-        <v>1.5</v>
-      </c>
-      <c r="U17">
-        <v>2.5</v>
-      </c>
-      <c r="V17">
-        <v>3.5</v>
-      </c>
-      <c r="W17">
-        <v>1.29</v>
-      </c>
-      <c r="X17">
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>2</v>
+      </c>
+      <c r="AQ17">
+        <v>2</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>7</v>
+      </c>
+      <c r="AV17">
+        <v>2</v>
+      </c>
+      <c r="AW17">
+        <v>8</v>
+      </c>
+      <c r="AX17">
+        <v>4</v>
+      </c>
+      <c r="AY17">
+        <v>15</v>
+      </c>
+      <c r="AZ17">
+        <v>6</v>
+      </c>
+      <c r="BA17">
+        <v>9</v>
+      </c>
+      <c r="BB17">
+        <v>2</v>
+      </c>
+      <c r="BC17">
         <v>11</v>
       </c>
-      <c r="Y17">
-        <v>1.05</v>
-      </c>
-      <c r="Z17">
-        <v>1.95</v>
-      </c>
-      <c r="AA17">
-        <v>3.4</v>
-      </c>
-      <c r="AB17">
-        <v>4</v>
-      </c>
-      <c r="AC17">
-        <v>1.08</v>
-      </c>
-      <c r="AD17">
-        <v>7.5</v>
-      </c>
-      <c r="AE17">
-        <v>1.42</v>
-      </c>
-      <c r="AF17">
-        <v>2.8</v>
-      </c>
-      <c r="AG17">
-        <v>2.25</v>
-      </c>
-      <c r="AH17">
-        <v>1.62</v>
-      </c>
-      <c r="AI17">
+      <c r="BD17">
+        <v>1.28</v>
+      </c>
+      <c r="BE17">
+        <v>13.5</v>
+      </c>
+      <c r="BF17">
+        <v>4.68</v>
+      </c>
+      <c r="BG17">
+        <v>1.19</v>
+      </c>
+      <c r="BH17">
+        <v>3.9</v>
+      </c>
+      <c r="BI17">
+        <v>1.4</v>
+      </c>
+      <c r="BJ17">
+        <v>2.75</v>
+      </c>
+      <c r="BK17">
+        <v>2.2</v>
+      </c>
+      <c r="BL17">
         <v>2.05</v>
       </c>
-      <c r="AJ17">
+      <c r="BM17">
+        <v>2.05</v>
+      </c>
+      <c r="BN17">
         <v>1.7</v>
       </c>
-      <c r="AK17">
-        <v>1.22</v>
-      </c>
-      <c r="AL17">
-        <v>1.28</v>
-      </c>
-      <c r="AM17">
-        <v>1.65</v>
-      </c>
-      <c r="AN17">
-        <v>0</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>1</v>
-      </c>
-      <c r="AQ17">
-        <v>1.33</v>
-      </c>
-      <c r="AR17">
-        <v>0</v>
-      </c>
-      <c r="AS17">
-        <v>0</v>
-      </c>
-      <c r="AT17">
-        <v>0</v>
-      </c>
-      <c r="AU17">
-        <v>4</v>
-      </c>
-      <c r="AV17">
-        <v>7</v>
-      </c>
-      <c r="AW17">
-        <v>6</v>
-      </c>
-      <c r="AX17">
-        <v>6</v>
-      </c>
-      <c r="AY17">
-        <v>10</v>
-      </c>
-      <c r="AZ17">
-        <v>13</v>
-      </c>
-      <c r="BA17">
-        <v>7</v>
-      </c>
-      <c r="BB17">
-        <v>5</v>
-      </c>
-      <c r="BC17">
-        <v>12</v>
-      </c>
-      <c r="BD17">
-        <v>1.87</v>
-      </c>
-      <c r="BE17">
-        <v>9</v>
-      </c>
-      <c r="BF17">
-        <v>2.36</v>
-      </c>
-      <c r="BG17">
-        <v>1.25</v>
-      </c>
-      <c r="BH17">
-        <v>3.6</v>
-      </c>
-      <c r="BI17">
-        <v>1.31</v>
-      </c>
-      <c r="BJ17">
-        <v>3.15</v>
-      </c>
-      <c r="BK17">
-        <v>2</v>
-      </c>
-      <c r="BL17">
-        <v>2.25</v>
-      </c>
-      <c r="BM17">
-        <v>2</v>
-      </c>
-      <c r="BN17">
-        <v>1.73</v>
-      </c>
       <c r="BO17">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="BP17">
         <v>1.44</v>
@@ -4362,7 +4362,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>7373194</v>
+        <v>7373190</v>
       </c>
       <c r="C18" t="s">
         <v>68</v>
@@ -4380,100 +4380,100 @@
         <v>86</v>
       </c>
       <c r="H18" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O18" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="Q18">
-        <v>4.33</v>
+        <v>2.3</v>
       </c>
       <c r="R18">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="S18">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="T18">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U18">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="V18">
         <v>3.25</v>
       </c>
       <c r="W18">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X18">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="Y18">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="Z18">
-        <v>3.5</v>
+        <v>1.65</v>
       </c>
       <c r="AA18">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="AB18">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="AC18">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AD18">
-        <v>8.699999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="AE18">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AF18">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="AG18">
-        <v>2.88</v>
+        <v>2.2</v>
       </c>
       <c r="AH18">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="AI18">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AJ18">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AK18">
-        <v>1.36</v>
+        <v>1.1</v>
       </c>
       <c r="AL18">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="AM18">
-        <v>1.44</v>
+        <v>2.2</v>
       </c>
       <c r="AN18">
         <v>0</v>
@@ -4482,10 +4482,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ18">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4497,52 +4497,52 @@
         <v>0</v>
       </c>
       <c r="AU18">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AV18">
         <v>3</v>
       </c>
       <c r="AW18">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AX18">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AY18">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ18">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="BA18">
         <v>6</v>
       </c>
       <c r="BB18">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BC18">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BD18">
-        <v>1.72</v>
+        <v>1.42</v>
       </c>
       <c r="BE18">
-        <v>9.1</v>
+        <v>10.5</v>
       </c>
       <c r="BF18">
-        <v>2.64</v>
+        <v>3.7</v>
       </c>
       <c r="BG18">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="BH18">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="BI18">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="BJ18">
-        <v>2.7</v>
+        <v>2.77</v>
       </c>
       <c r="BK18">
         <v>2.2</v>
@@ -4551,16 +4551,16 @@
         <v>1.95</v>
       </c>
       <c r="BM18">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="BN18">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="BO18">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="BP18">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="19" spans="1:68">
@@ -5186,7 +5186,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>7373195</v>
+        <v>7373201</v>
       </c>
       <c r="C22" t="s">
         <v>68</v>
@@ -5204,7 +5204,7 @@
         <v>82</v>
       </c>
       <c r="H22" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -5231,13 +5231,13 @@
         <v>95</v>
       </c>
       <c r="Q22">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="R22">
         <v>2.05</v>
       </c>
       <c r="S22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T22">
         <v>1.44</v>
@@ -5246,10 +5246,10 @@
         <v>2.63</v>
       </c>
       <c r="V22">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W22">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X22">
         <v>9</v>
@@ -5258,19 +5258,19 @@
         <v>1.07</v>
       </c>
       <c r="Z22">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="AA22">
-        <v>3.67</v>
+        <v>3.48</v>
       </c>
       <c r="AB22">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="AC22">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AD22">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE22">
         <v>1.35</v>
@@ -5279,25 +5279,25 @@
         <v>3.1</v>
       </c>
       <c r="AG22">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="AH22">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AI22">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AJ22">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AK22">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AL22">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AM22">
-        <v>2.3</v>
+        <v>1.83</v>
       </c>
       <c r="AN22">
         <v>3</v>
@@ -5306,37 +5306,37 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ22">
         <v>0</v>
       </c>
       <c r="AR22">
-        <v>1.64</v>
+        <v>1.76</v>
       </c>
       <c r="AS22">
-        <v>0.45</v>
+        <v>1.43</v>
       </c>
       <c r="AT22">
-        <v>2.09</v>
+        <v>3.19</v>
       </c>
       <c r="AU22">
+        <v>4</v>
+      </c>
+      <c r="AV22">
         <v>5</v>
       </c>
-      <c r="AV22">
-        <v>4</v>
-      </c>
       <c r="AW22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX22">
         <v>8</v>
       </c>
       <c r="AY22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ22">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA22">
         <v>3</v>
@@ -5360,31 +5360,31 @@
         <v>1.21</v>
       </c>
       <c r="BH22">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="BI22">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="BJ22">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="BK22">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="BL22">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="BM22">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="BN22">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="BO22">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="BP22">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="23" spans="1:68">
@@ -5392,7 +5392,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>7373201</v>
+        <v>7373195</v>
       </c>
       <c r="C23" t="s">
         <v>68</v>
@@ -5410,7 +5410,7 @@
         <v>81</v>
       </c>
       <c r="H23" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -5437,13 +5437,13 @@
         <v>95</v>
       </c>
       <c r="Q23">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="R23">
         <v>2.05</v>
       </c>
       <c r="S23">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T23">
         <v>1.44</v>
@@ -5452,10 +5452,10 @@
         <v>2.63</v>
       </c>
       <c r="V23">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W23">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X23">
         <v>9</v>
@@ -5464,19 +5464,19 @@
         <v>1.07</v>
       </c>
       <c r="Z23">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="AA23">
-        <v>3.48</v>
+        <v>3.67</v>
       </c>
       <c r="AB23">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AC23">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AD23">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE23">
         <v>1.35</v>
@@ -5485,26 +5485,26 @@
         <v>3.1</v>
       </c>
       <c r="AG23">
+        <v>2.05</v>
+      </c>
+      <c r="AH23">
+        <v>1.7</v>
+      </c>
+      <c r="AI23">
+        <v>2.2</v>
+      </c>
+      <c r="AJ23">
+        <v>1.62</v>
+      </c>
+      <c r="AK23">
+        <v>1.11</v>
+      </c>
+      <c r="AL23">
+        <v>1.22</v>
+      </c>
+      <c r="AM23">
         <v>2.3</v>
       </c>
-      <c r="AH23">
-        <v>1.55</v>
-      </c>
-      <c r="AI23">
-        <v>1.95</v>
-      </c>
-      <c r="AJ23">
-        <v>1.8</v>
-      </c>
-      <c r="AK23">
-        <v>1.25</v>
-      </c>
-      <c r="AL23">
-        <v>1.25</v>
-      </c>
-      <c r="AM23">
-        <v>1.83</v>
-      </c>
       <c r="AN23">
         <v>3</v>
       </c>
@@ -5512,37 +5512,37 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AQ23">
         <v>0</v>
       </c>
       <c r="AR23">
-        <v>1.76</v>
+        <v>1.64</v>
       </c>
       <c r="AS23">
-        <v>1.43</v>
+        <v>0.45</v>
       </c>
       <c r="AT23">
-        <v>3.19</v>
+        <v>2.09</v>
       </c>
       <c r="AU23">
+        <v>5</v>
+      </c>
+      <c r="AV23">
         <v>4</v>
       </c>
-      <c r="AV23">
-        <v>5</v>
-      </c>
       <c r="AW23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX23">
         <v>8</v>
       </c>
       <c r="AY23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ23">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA23">
         <v>3</v>
@@ -5566,31 +5566,31 @@
         <v>1.21</v>
       </c>
       <c r="BH23">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="BI23">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="BJ23">
+        <v>2.55</v>
+      </c>
+      <c r="BK23">
+        <v>2</v>
+      </c>
+      <c r="BL23">
+        <v>2.1</v>
+      </c>
+      <c r="BM23">
+        <v>2</v>
+      </c>
+      <c r="BN23">
+        <v>1.73</v>
+      </c>
+      <c r="BO23">
         <v>2.6</v>
       </c>
-      <c r="BK23">
-        <v>1.83</v>
-      </c>
-      <c r="BL23">
-        <v>2.4</v>
-      </c>
-      <c r="BM23">
-        <v>1.95</v>
-      </c>
-      <c r="BN23">
-        <v>1.85</v>
-      </c>
-      <c r="BO23">
-        <v>2.3</v>
-      </c>
       <c r="BP23">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="24" spans="1:68">
@@ -5613,7 +5613,7 @@
         <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H24" t="s">
         <v>78</v>
@@ -5804,7 +5804,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>7373202</v>
+        <v>7373200</v>
       </c>
       <c r="C25" t="s">
         <v>68</v>
@@ -5819,10 +5819,10 @@
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -5834,28 +5834,28 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="P25" t="s">
         <v>95</v>
       </c>
       <c r="Q25">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="R25">
         <v>2.05</v>
       </c>
       <c r="S25">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="T25">
         <v>1.44</v>
@@ -5870,37 +5870,37 @@
         <v>1.33</v>
       </c>
       <c r="X25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y25">
+        <v>1.07</v>
+      </c>
+      <c r="Z25">
+        <v>2.2</v>
+      </c>
+      <c r="AA25">
+        <v>3.13</v>
+      </c>
+      <c r="AB25">
+        <v>3</v>
+      </c>
+      <c r="AC25">
         <v>1.06</v>
       </c>
-      <c r="Z25">
-        <v>1.83</v>
-      </c>
-      <c r="AA25">
-        <v>3.6</v>
-      </c>
-      <c r="AB25">
-        <v>4</v>
-      </c>
-      <c r="AC25">
-        <v>1.04</v>
-      </c>
       <c r="AD25">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="AE25">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AF25">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="AG25">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AH25">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AI25">
         <v>2</v>
@@ -5909,100 +5909,100 @@
         <v>1.75</v>
       </c>
       <c r="AK25">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AL25">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AM25">
-        <v>1.83</v>
+        <v>1.6</v>
       </c>
       <c r="AN25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO25">
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>3</v>
+        <v>0.33</v>
       </c>
       <c r="AQ25">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR25">
-        <v>2.21</v>
+        <v>1.49</v>
       </c>
       <c r="AS25">
-        <v>0.79</v>
+        <v>1.26</v>
       </c>
       <c r="AT25">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW25">
+        <v>8</v>
+      </c>
+      <c r="AX25">
+        <v>3</v>
+      </c>
+      <c r="AY25">
+        <v>10</v>
+      </c>
+      <c r="AZ25">
+        <v>7</v>
+      </c>
+      <c r="BA25">
+        <v>6</v>
+      </c>
+      <c r="BB25">
         <v>5</v>
       </c>
-      <c r="AX25">
-        <v>4</v>
-      </c>
-      <c r="AY25">
-        <v>5</v>
-      </c>
-      <c r="AZ25">
-        <v>6</v>
-      </c>
-      <c r="BA25">
-        <v>5</v>
-      </c>
-      <c r="BB25">
-        <v>3</v>
-      </c>
       <c r="BC25">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BD25">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="BE25">
-        <v>9.1</v>
+        <v>10.5</v>
       </c>
       <c r="BF25">
-        <v>3.4</v>
+        <v>2.97</v>
       </c>
       <c r="BG25">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="BH25">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="BI25">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="BJ25">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="BK25">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="BL25">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="BM25">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="BN25">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="BO25">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="BP25">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="26" spans="1:68">
@@ -6010,7 +6010,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>7373200</v>
+        <v>7373202</v>
       </c>
       <c r="C26" t="s">
         <v>68</v>
@@ -6025,10 +6025,10 @@
         <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H26" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -6040,28 +6040,28 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="P26" t="s">
         <v>95</v>
       </c>
       <c r="Q26">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="R26">
         <v>2.05</v>
       </c>
       <c r="S26">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="T26">
         <v>1.44</v>
@@ -6076,37 +6076,37 @@
         <v>1.33</v>
       </c>
       <c r="X26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y26">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="Z26">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AA26">
-        <v>3.13</v>
+        <v>3.6</v>
       </c>
       <c r="AB26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC26">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="AD26">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="AE26">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AF26">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="AG26">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AH26">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AI26">
         <v>2</v>
@@ -6115,100 +6115,100 @@
         <v>1.75</v>
       </c>
       <c r="AK26">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="AL26">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM26">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AN26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO26">
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>0.33</v>
+        <v>3</v>
       </c>
       <c r="AQ26">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR26">
-        <v>1.49</v>
+        <v>2.21</v>
       </c>
       <c r="AS26">
+        <v>0.79</v>
+      </c>
+      <c r="AT26">
+        <v>3</v>
+      </c>
+      <c r="AU26">
+        <v>0</v>
+      </c>
+      <c r="AV26">
+        <v>2</v>
+      </c>
+      <c r="AW26">
+        <v>5</v>
+      </c>
+      <c r="AX26">
+        <v>4</v>
+      </c>
+      <c r="AY26">
+        <v>5</v>
+      </c>
+      <c r="AZ26">
+        <v>6</v>
+      </c>
+      <c r="BA26">
+        <v>5</v>
+      </c>
+      <c r="BB26">
+        <v>3</v>
+      </c>
+      <c r="BC26">
+        <v>8</v>
+      </c>
+      <c r="BD26">
+        <v>1.5</v>
+      </c>
+      <c r="BE26">
+        <v>9.1</v>
+      </c>
+      <c r="BF26">
+        <v>3.4</v>
+      </c>
+      <c r="BG26">
         <v>1.26</v>
       </c>
-      <c r="AT26">
-        <v>2.75</v>
-      </c>
-      <c r="AU26">
-        <v>2</v>
-      </c>
-      <c r="AV26">
-        <v>4</v>
-      </c>
-      <c r="AW26">
-        <v>8</v>
-      </c>
-      <c r="AX26">
-        <v>3</v>
-      </c>
-      <c r="AY26">
-        <v>10</v>
-      </c>
-      <c r="AZ26">
-        <v>7</v>
-      </c>
-      <c r="BA26">
-        <v>6</v>
-      </c>
-      <c r="BB26">
-        <v>5</v>
-      </c>
-      <c r="BC26">
-        <v>11</v>
-      </c>
-      <c r="BD26">
+      <c r="BH26">
+        <v>3.2</v>
+      </c>
+      <c r="BI26">
+        <v>1.5</v>
+      </c>
+      <c r="BJ26">
+        <v>2.45</v>
+      </c>
+      <c r="BK26">
+        <v>2.38</v>
+      </c>
+      <c r="BL26">
+        <v>1.88</v>
+      </c>
+      <c r="BM26">
+        <v>2.3</v>
+      </c>
+      <c r="BN26">
         <v>1.57</v>
       </c>
-      <c r="BE26">
-        <v>10.5</v>
-      </c>
-      <c r="BF26">
-        <v>2.97</v>
-      </c>
-      <c r="BG26">
-        <v>1.22</v>
-      </c>
-      <c r="BH26">
-        <v>3.5</v>
-      </c>
-      <c r="BI26">
-        <v>1.45</v>
-      </c>
-      <c r="BJ26">
-        <v>2.6</v>
-      </c>
-      <c r="BK26">
-        <v>2.1</v>
-      </c>
-      <c r="BL26">
-        <v>2</v>
-      </c>
-      <c r="BM26">
-        <v>2.2</v>
-      </c>
-      <c r="BN26">
-        <v>1.62</v>
-      </c>
       <c r="BO26">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="BP26">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="27" spans="1:68">
@@ -6440,7 +6440,7 @@
         <v>88</v>
       </c>
       <c r="H28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2</v>
@@ -7058,7 +7058,7 @@
         <v>89</v>
       </c>
       <c r="H31" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -7264,7 +7264,7 @@
         <v>80</v>
       </c>
       <c r="H32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -7658,7 +7658,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>7373206</v>
+        <v>7373210</v>
       </c>
       <c r="C34" t="s">
         <v>68</v>
@@ -7673,43 +7673,43 @@
         <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H34" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L34">
         <v>3</v>
       </c>
       <c r="M34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O34" t="s">
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="Q34">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="R34">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S34">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="T34">
         <v>1.5</v>
@@ -7730,133 +7730,133 @@
         <v>1.06</v>
       </c>
       <c r="Z34">
-        <v>1.53</v>
+        <v>2.3</v>
       </c>
       <c r="AA34">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="AB34">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="AC34">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AD34">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE34">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AF34">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="AG34">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AH34">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="AI34">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AJ34">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AK34">
-        <v>1.16</v>
+        <v>1.35</v>
       </c>
       <c r="AL34">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AM34">
-        <v>2.2</v>
+        <v>1.63</v>
       </c>
       <c r="AN34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO34">
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="AQ34">
         <v>0</v>
       </c>
       <c r="AR34">
-        <v>1.46</v>
+        <v>1.12</v>
       </c>
       <c r="AS34">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="AT34">
-        <v>1.46</v>
+        <v>2.11</v>
       </c>
       <c r="AU34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV34">
+        <v>3</v>
+      </c>
+      <c r="AW34">
         <v>4</v>
       </c>
-      <c r="AW34">
+      <c r="AX34">
         <v>5</v>
-      </c>
-      <c r="AX34">
-        <v>6</v>
       </c>
       <c r="AY34">
         <v>12</v>
       </c>
       <c r="AZ34">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA34">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BB34">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BC34">
         <v>14</v>
       </c>
       <c r="BD34">
-        <v>1.41</v>
+        <v>1.82</v>
       </c>
       <c r="BE34">
         <v>9</v>
       </c>
       <c r="BF34">
-        <v>3.55</v>
+        <v>2.44</v>
       </c>
       <c r="BG34">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="BH34">
-        <v>3.25</v>
+        <v>3.98</v>
       </c>
       <c r="BI34">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="BJ34">
-        <v>2.38</v>
+        <v>2.76</v>
       </c>
       <c r="BK34">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BL34">
-        <v>1.86</v>
+        <v>2.08</v>
       </c>
       <c r="BM34">
-        <v>2.28</v>
+        <v>2.12</v>
       </c>
       <c r="BN34">
-        <v>1.52</v>
+        <v>1.64</v>
       </c>
       <c r="BO34">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="BP34">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="35" spans="1:68">
@@ -7864,7 +7864,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>7373210</v>
+        <v>7373206</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
@@ -7879,43 +7879,43 @@
         <v>4</v>
       </c>
       <c r="G35" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L35">
         <v>3</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O35" t="s">
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="Q35">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="R35">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S35">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="T35">
         <v>1.5</v>
@@ -7936,133 +7936,133 @@
         <v>1.06</v>
       </c>
       <c r="Z35">
-        <v>2.3</v>
+        <v>1.53</v>
       </c>
       <c r="AA35">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="AB35">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="AC35">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AD35">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE35">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AF35">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="AG35">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="AH35">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="AI35">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="AJ35">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="AK35">
-        <v>1.35</v>
+        <v>1.16</v>
       </c>
       <c r="AL35">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AM35">
-        <v>1.63</v>
+        <v>2.2</v>
       </c>
       <c r="AN35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO35">
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="AQ35">
         <v>0</v>
       </c>
       <c r="AR35">
-        <v>1.12</v>
+        <v>1.46</v>
       </c>
       <c r="AS35">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="AT35">
-        <v>2.11</v>
+        <v>1.46</v>
       </c>
       <c r="AU35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX35">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY35">
         <v>12</v>
       </c>
       <c r="AZ35">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA35">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BB35">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BC35">
         <v>14</v>
       </c>
       <c r="BD35">
-        <v>1.82</v>
+        <v>1.41</v>
       </c>
       <c r="BE35">
         <v>9</v>
       </c>
       <c r="BF35">
-        <v>2.44</v>
+        <v>3.55</v>
       </c>
       <c r="BG35">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="BH35">
-        <v>3.98</v>
+        <v>3.25</v>
       </c>
       <c r="BI35">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="BJ35">
-        <v>2.76</v>
+        <v>2.38</v>
       </c>
       <c r="BK35">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="BL35">
-        <v>2.08</v>
+        <v>1.86</v>
       </c>
       <c r="BM35">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="BN35">
-        <v>1.64</v>
+        <v>1.52</v>
       </c>
       <c r="BO35">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="BP35">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="36" spans="1:68">
@@ -8085,10 +8085,10 @@
         <v>4</v>
       </c>
       <c r="G36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -8112,7 +8112,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q36">
         <v>2.63</v>
@@ -8291,7 +8291,7 @@
         <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H37" t="s">
         <v>76</v>
@@ -8706,7 +8706,7 @@
         <v>73</v>
       </c>
       <c r="H39" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -8912,7 +8912,7 @@
         <v>72</v>
       </c>
       <c r="H40" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -9115,7 +9115,7 @@
         <v>5</v>
       </c>
       <c r="G41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s">
         <v>87</v>
@@ -9324,7 +9324,7 @@
         <v>75</v>
       </c>
       <c r="H42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -10148,7 +10148,7 @@
         <v>89</v>
       </c>
       <c r="H46" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -10542,7 +10542,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>7373233</v>
+        <v>7373230</v>
       </c>
       <c r="C48" t="s">
         <v>68</v>
@@ -10557,28 +10557,28 @@
         <v>6</v>
       </c>
       <c r="G48" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H48" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48">
         <v>0</v>
       </c>
       <c r="M48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O48" t="s">
         <v>95</v>
@@ -10587,160 +10587,160 @@
         <v>154</v>
       </c>
       <c r="Q48">
-        <v>3.6</v>
+        <v>2.38</v>
       </c>
       <c r="R48">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S48">
+        <v>5.5</v>
+      </c>
+      <c r="T48">
+        <v>1.44</v>
+      </c>
+      <c r="U48">
+        <v>2.63</v>
+      </c>
+      <c r="V48">
+        <v>3.25</v>
+      </c>
+      <c r="W48">
+        <v>1.33</v>
+      </c>
+      <c r="X48">
+        <v>9</v>
+      </c>
+      <c r="Y48">
+        <v>1.07</v>
+      </c>
+      <c r="Z48">
+        <v>1.62</v>
+      </c>
+      <c r="AA48">
         <v>3.4</v>
       </c>
-      <c r="T48">
-        <v>1.53</v>
-      </c>
-      <c r="U48">
-        <v>2.38</v>
-      </c>
-      <c r="V48">
-        <v>3.5</v>
-      </c>
-      <c r="W48">
-        <v>1.29</v>
-      </c>
-      <c r="X48">
-        <v>11</v>
-      </c>
-      <c r="Y48">
-        <v>1.05</v>
-      </c>
-      <c r="Z48">
-        <v>2.55</v>
-      </c>
-      <c r="AA48">
-        <v>3</v>
-      </c>
       <c r="AB48">
-        <v>2.63</v>
+        <v>5</v>
       </c>
       <c r="AC48">
         <v>1.08</v>
       </c>
       <c r="AD48">
-        <v>6.5</v>
+        <v>8.6</v>
       </c>
       <c r="AE48">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="AF48">
-        <v>2.62</v>
+        <v>3.1</v>
       </c>
       <c r="AG48">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="AH48">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AI48">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AJ48">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AK48">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="AL48">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="AM48">
-        <v>1.42</v>
+        <v>2.2</v>
       </c>
       <c r="AN48">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO48">
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ48">
         <v>1.33</v>
       </c>
       <c r="AR48">
-        <v>0.99</v>
+        <v>1.23</v>
       </c>
       <c r="AS48">
-        <v>1.28</v>
+        <v>1.08</v>
       </c>
       <c r="AT48">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AU48">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV48">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW48">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AX48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY48">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AZ48">
         <v>9</v>
       </c>
       <c r="BA48">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BB48">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC48">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BD48">
-        <v>1.92</v>
+        <v>1.42</v>
       </c>
       <c r="BE48">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="BF48">
+        <v>3.45</v>
+      </c>
+      <c r="BG48">
+        <v>1.22</v>
+      </c>
+      <c r="BH48">
+        <v>3.55</v>
+      </c>
+      <c r="BI48">
+        <v>1.42</v>
+      </c>
+      <c r="BJ48">
+        <v>2.55</v>
+      </c>
+      <c r="BK48">
+        <v>2.1</v>
+      </c>
+      <c r="BL48">
+        <v>1.98</v>
+      </c>
+      <c r="BM48">
         <v>2.15</v>
-      </c>
-      <c r="BG48">
-        <v>1.25</v>
-      </c>
-      <c r="BH48">
-        <v>3.25</v>
-      </c>
-      <c r="BI48">
-        <v>1.39</v>
-      </c>
-      <c r="BJ48">
-        <v>2.77</v>
-      </c>
-      <c r="BK48">
-        <v>2.2</v>
-      </c>
-      <c r="BL48">
-        <v>1.99</v>
-      </c>
-      <c r="BM48">
-        <v>2.2</v>
       </c>
       <c r="BN48">
         <v>1.6</v>
       </c>
       <c r="BO48">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="BP48">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="49" spans="1:68">
@@ -10748,7 +10748,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>7373230</v>
+        <v>7373232</v>
       </c>
       <c r="C49" t="s">
         <v>68</v>
@@ -10766,40 +10766,40 @@
         <v>84</v>
       </c>
       <c r="H49" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49">
         <v>1</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N49">
         <v>2</v>
       </c>
       <c r="O49" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="P49" t="s">
         <v>155</v>
       </c>
       <c r="Q49">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="R49">
         <v>2.1</v>
       </c>
       <c r="S49">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="T49">
         <v>1.44</v>
@@ -10814,31 +10814,31 @@
         <v>1.33</v>
       </c>
       <c r="X49">
+        <v>10</v>
+      </c>
+      <c r="Y49">
+        <v>1.06</v>
+      </c>
+      <c r="Z49">
+        <v>1.8</v>
+      </c>
+      <c r="AA49">
+        <v>3.25</v>
+      </c>
+      <c r="AB49">
+        <v>4</v>
+      </c>
+      <c r="AC49">
+        <v>1.07</v>
+      </c>
+      <c r="AD49">
         <v>9</v>
       </c>
-      <c r="Y49">
-        <v>1.07</v>
-      </c>
-      <c r="Z49">
-        <v>1.62</v>
-      </c>
-      <c r="AA49">
-        <v>3.4</v>
-      </c>
-      <c r="AB49">
-        <v>5</v>
-      </c>
-      <c r="AC49">
-        <v>1.08</v>
-      </c>
-      <c r="AD49">
-        <v>8.6</v>
-      </c>
       <c r="AE49">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AF49">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="AG49">
         <v>2.1</v>
@@ -10847,106 +10847,106 @@
         <v>1.67</v>
       </c>
       <c r="AI49">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AJ49">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AK49">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="AL49">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AM49">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="AN49">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO49">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ49">
         <v>1.33</v>
       </c>
       <c r="AR49">
-        <v>1.23</v>
+        <v>1.5</v>
       </c>
       <c r="AS49">
-        <v>1.08</v>
+        <v>0.85</v>
       </c>
       <c r="AT49">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AU49">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW49">
+        <v>5</v>
+      </c>
+      <c r="AX49">
+        <v>5</v>
+      </c>
+      <c r="AY49">
+        <v>10</v>
+      </c>
+      <c r="AZ49">
         <v>11</v>
       </c>
-      <c r="AX49">
-        <v>2</v>
-      </c>
-      <c r="AY49">
-        <v>18</v>
-      </c>
-      <c r="AZ49">
-        <v>9</v>
-      </c>
       <c r="BA49">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BB49">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC49">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BD49">
-        <v>1.42</v>
+        <v>1.62</v>
       </c>
       <c r="BE49">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="BF49">
-        <v>3.45</v>
+        <v>2.75</v>
       </c>
       <c r="BG49">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="BH49">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="BI49">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="BJ49">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="BK49">
-        <v>2.1</v>
+        <v>1.87</v>
       </c>
       <c r="BL49">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="BM49">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="BN49">
-        <v>1.6</v>
+        <v>1.49</v>
       </c>
       <c r="BO49">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="BP49">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="50" spans="1:68">
@@ -10954,7 +10954,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>7373232</v>
+        <v>7373233</v>
       </c>
       <c r="C50" t="s">
         <v>68</v>
@@ -10969,190 +10969,190 @@
         <v>6</v>
       </c>
       <c r="G50" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H50" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50">
         <v>1</v>
       </c>
       <c r="N50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O50" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="P50" t="s">
         <v>156</v>
       </c>
       <c r="Q50">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="R50">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S50">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="T50">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="U50">
+        <v>2.38</v>
+      </c>
+      <c r="V50">
+        <v>3.5</v>
+      </c>
+      <c r="W50">
+        <v>1.29</v>
+      </c>
+      <c r="X50">
+        <v>11</v>
+      </c>
+      <c r="Y50">
+        <v>1.05</v>
+      </c>
+      <c r="Z50">
+        <v>2.55</v>
+      </c>
+      <c r="AA50">
+        <v>3</v>
+      </c>
+      <c r="AB50">
         <v>2.63</v>
       </c>
-      <c r="V50">
-        <v>3.25</v>
-      </c>
-      <c r="W50">
-        <v>1.33</v>
-      </c>
-      <c r="X50">
-        <v>10</v>
-      </c>
-      <c r="Y50">
-        <v>1.06</v>
-      </c>
-      <c r="Z50">
-        <v>1.8</v>
-      </c>
-      <c r="AA50">
-        <v>3.25</v>
-      </c>
-      <c r="AB50">
-        <v>4</v>
-      </c>
       <c r="AC50">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AD50">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="AE50">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="AF50">
-        <v>2.95</v>
+        <v>2.62</v>
       </c>
       <c r="AG50">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="AH50">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AI50">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AJ50">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AK50">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AL50">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="AM50">
-        <v>1.75</v>
+        <v>1.42</v>
       </c>
       <c r="AN50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO50">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ50">
         <v>1.33</v>
       </c>
       <c r="AR50">
-        <v>1.5</v>
+        <v>0.99</v>
       </c>
       <c r="AS50">
-        <v>0.85</v>
+        <v>1.28</v>
       </c>
       <c r="AT50">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="AU50">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV50">
         <v>6</v>
       </c>
       <c r="AW50">
+        <v>6</v>
+      </c>
+      <c r="AX50">
+        <v>3</v>
+      </c>
+      <c r="AY50">
+        <v>12</v>
+      </c>
+      <c r="AZ50">
+        <v>9</v>
+      </c>
+      <c r="BA50">
         <v>5</v>
-      </c>
-      <c r="AX50">
-        <v>5</v>
-      </c>
-      <c r="AY50">
-        <v>10</v>
-      </c>
-      <c r="AZ50">
-        <v>11</v>
-      </c>
-      <c r="BA50">
-        <v>6</v>
       </c>
       <c r="BB50">
         <v>5</v>
       </c>
       <c r="BC50">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD50">
-        <v>1.62</v>
+        <v>1.92</v>
       </c>
       <c r="BE50">
         <v>7.5</v>
       </c>
       <c r="BF50">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="BG50">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="BH50">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="BI50">
-        <v>1.49</v>
+        <v>1.39</v>
       </c>
       <c r="BJ50">
-        <v>2.45</v>
+        <v>2.77</v>
       </c>
       <c r="BK50">
-        <v>1.87</v>
+        <v>2.2</v>
       </c>
       <c r="BL50">
-        <v>1.83</v>
+        <v>1.99</v>
       </c>
       <c r="BM50">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="BN50">
-        <v>1.49</v>
+        <v>1.6</v>
       </c>
       <c r="BO50">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="BP50">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="51" spans="1:68">
@@ -11160,7 +11160,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>7373229</v>
+        <v>7373227</v>
       </c>
       <c r="C51" t="s">
         <v>68</v>
@@ -11175,127 +11175,127 @@
         <v>6</v>
       </c>
       <c r="G51" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O51" t="s">
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="Q51">
         <v>2.38</v>
       </c>
       <c r="R51">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S51">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="T51">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U51">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V51">
+        <v>2.75</v>
+      </c>
+      <c r="W51">
+        <v>1.4</v>
+      </c>
+      <c r="X51">
+        <v>8</v>
+      </c>
+      <c r="Y51">
+        <v>1.08</v>
+      </c>
+      <c r="Z51">
+        <v>1.75</v>
+      </c>
+      <c r="AA51">
+        <v>3.8</v>
+      </c>
+      <c r="AB51">
+        <v>4.33</v>
+      </c>
+      <c r="AC51">
+        <v>1.04</v>
+      </c>
+      <c r="AD51">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE51">
+        <v>1.3</v>
+      </c>
+      <c r="AF51">
         <v>3.4</v>
       </c>
-      <c r="W51">
-        <v>1.3</v>
-      </c>
-      <c r="X51">
-        <v>10</v>
-      </c>
-      <c r="Y51">
-        <v>1.06</v>
-      </c>
-      <c r="Z51">
-        <v>1.73</v>
-      </c>
-      <c r="AA51">
-        <v>3.6</v>
-      </c>
-      <c r="AB51">
-        <v>5</v>
-      </c>
-      <c r="AC51">
-        <v>1.06</v>
-      </c>
-      <c r="AD51">
-        <v>7.5</v>
-      </c>
-      <c r="AE51">
-        <v>1.38</v>
-      </c>
-      <c r="AF51">
-        <v>2.8</v>
-      </c>
       <c r="AG51">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="AH51">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="AI51">
+        <v>1.8</v>
+      </c>
+      <c r="AJ51">
         <v>1.95</v>
       </c>
-      <c r="AJ51">
-        <v>1.8</v>
-      </c>
       <c r="AK51">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AL51">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AM51">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AN51">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ51">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AR51">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="AS51">
-        <v>1.11</v>
+        <v>1.58</v>
       </c>
       <c r="AT51">
-        <v>2.62</v>
+        <v>3.03</v>
       </c>
       <c r="AU51">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AV51">
         <v>6</v>
@@ -11304,61 +11304,61 @@
         <v>3</v>
       </c>
       <c r="AX51">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY51">
+        <v>7</v>
+      </c>
+      <c r="AZ51">
         <v>12</v>
       </c>
-      <c r="AZ51">
-        <v>11</v>
-      </c>
       <c r="BA51">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB51">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BC51">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BD51">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="BE51">
         <v>8.5</v>
       </c>
       <c r="BF51">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="BG51">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="BH51">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="BI51">
-        <v>1.51</v>
+        <v>1.35</v>
       </c>
       <c r="BJ51">
-        <v>2.37</v>
+        <v>2.75</v>
       </c>
       <c r="BK51">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="BL51">
-        <v>1.8</v>
+        <v>2.47</v>
       </c>
       <c r="BM51">
-        <v>2.47</v>
+        <v>1.85</v>
       </c>
       <c r="BN51">
-        <v>1.48</v>
+        <v>1.85</v>
       </c>
       <c r="BO51">
-        <v>3</v>
+        <v>2.35</v>
       </c>
       <c r="BP51">
-        <v>1.3</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="52" spans="1:68">
@@ -11366,7 +11366,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>7373227</v>
+        <v>7373229</v>
       </c>
       <c r="C52" t="s">
         <v>68</v>
@@ -11381,127 +11381,127 @@
         <v>6</v>
       </c>
       <c r="G52" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52">
         <v>0</v>
       </c>
       <c r="K52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O52" t="s">
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="Q52">
         <v>2.38</v>
       </c>
       <c r="R52">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S52">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="T52">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U52">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V52">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="W52">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="X52">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y52">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="Z52">
+        <v>1.73</v>
+      </c>
+      <c r="AA52">
+        <v>3.6</v>
+      </c>
+      <c r="AB52">
+        <v>5</v>
+      </c>
+      <c r="AC52">
+        <v>1.06</v>
+      </c>
+      <c r="AD52">
+        <v>7.5</v>
+      </c>
+      <c r="AE52">
+        <v>1.38</v>
+      </c>
+      <c r="AF52">
+        <v>2.8</v>
+      </c>
+      <c r="AG52">
+        <v>2.05</v>
+      </c>
+      <c r="AH52">
         <v>1.75</v>
       </c>
-      <c r="AA52">
-        <v>3.8</v>
-      </c>
-      <c r="AB52">
-        <v>4.33</v>
-      </c>
-      <c r="AC52">
-        <v>1.04</v>
-      </c>
-      <c r="AD52">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AE52">
+      <c r="AI52">
+        <v>1.95</v>
+      </c>
+      <c r="AJ52">
+        <v>1.8</v>
+      </c>
+      <c r="AK52">
+        <v>1.2</v>
+      </c>
+      <c r="AL52">
         <v>1.3</v>
       </c>
-      <c r="AF52">
-        <v>3.4</v>
-      </c>
-      <c r="AG52">
-        <v>1.85</v>
-      </c>
-      <c r="AH52">
-        <v>1.95</v>
-      </c>
-      <c r="AI52">
-        <v>1.8</v>
-      </c>
-      <c r="AJ52">
-        <v>1.95</v>
-      </c>
-      <c r="AK52">
-        <v>1.25</v>
-      </c>
-      <c r="AL52">
-        <v>1.25</v>
-      </c>
       <c r="AM52">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="AN52">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ52">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AR52">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="AS52">
-        <v>1.58</v>
+        <v>1.11</v>
       </c>
       <c r="AT52">
-        <v>3.03</v>
+        <v>2.62</v>
       </c>
       <c r="AU52">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AV52">
         <v>6</v>
@@ -11510,61 +11510,61 @@
         <v>3</v>
       </c>
       <c r="AX52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY52">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AZ52">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA52">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB52">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BC52">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BD52">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="BE52">
         <v>8.5</v>
       </c>
       <c r="BF52">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="BG52">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="BH52">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="BI52">
-        <v>1.35</v>
+        <v>1.51</v>
       </c>
       <c r="BJ52">
-        <v>2.75</v>
+        <v>2.37</v>
       </c>
       <c r="BK52">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="BL52">
+        <v>1.8</v>
+      </c>
+      <c r="BM52">
         <v>2.47</v>
       </c>
-      <c r="BM52">
-        <v>1.85</v>
-      </c>
       <c r="BN52">
-        <v>1.85</v>
+        <v>1.48</v>
       </c>
       <c r="BO52">
-        <v>2.35</v>
+        <v>3</v>
       </c>
       <c r="BP52">
-        <v>1.52</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="53" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="160">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -488,6 +488,12 @@
   </si>
   <si>
     <t>['29']</t>
+  </si>
+  <si>
+    <t>['3', '60']</t>
+  </si>
+  <si>
+    <t>['42', '69']</t>
   </si>
 </sst>
 </file>
@@ -849,7 +855,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP53"/>
+  <dimension ref="A1:BP55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1601,7 +1607,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ4">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -3040,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ11">
         <v>2.33</v>
@@ -3452,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ13">
         <v>1.33</v>
@@ -4897,7 +4903,7 @@
         <v>2</v>
       </c>
       <c r="AQ20">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5512,7 +5518,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ23">
         <v>0</v>
@@ -6336,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ27">
         <v>1.33</v>
@@ -8193,7 +8199,7 @@
         <v>1</v>
       </c>
       <c r="AQ36">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR36">
         <v>1.19</v>
@@ -8605,7 +8611,7 @@
         <v>2</v>
       </c>
       <c r="AQ38">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR38">
         <v>2.13</v>
@@ -9838,7 +9844,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ44">
         <v>2</v>
@@ -11283,7 +11289,7 @@
         <v>3</v>
       </c>
       <c r="AQ51">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR51">
         <v>1.45</v>
@@ -11771,6 +11777,418 @@
       </c>
       <c r="BP53">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7373235</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45444.66666666666</v>
+      </c>
+      <c r="F54">
+        <v>7</v>
+      </c>
+      <c r="G54" t="s">
+        <v>81</v>
+      </c>
+      <c r="H54" t="s">
+        <v>82</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>2</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="O54" t="s">
+        <v>95</v>
+      </c>
+      <c r="P54" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q54">
+        <v>3.75</v>
+      </c>
+      <c r="R54">
+        <v>2.05</v>
+      </c>
+      <c r="S54">
+        <v>3.1</v>
+      </c>
+      <c r="T54">
+        <v>1.4</v>
+      </c>
+      <c r="U54">
+        <v>2.75</v>
+      </c>
+      <c r="V54">
+        <v>3</v>
+      </c>
+      <c r="W54">
+        <v>1.36</v>
+      </c>
+      <c r="X54">
+        <v>8</v>
+      </c>
+      <c r="Y54">
+        <v>1.08</v>
+      </c>
+      <c r="Z54">
+        <v>2.95</v>
+      </c>
+      <c r="AA54">
+        <v>3.12</v>
+      </c>
+      <c r="AB54">
+        <v>2.53</v>
+      </c>
+      <c r="AC54">
+        <v>1.02</v>
+      </c>
+      <c r="AD54">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE54">
+        <v>1.29</v>
+      </c>
+      <c r="AF54">
+        <v>3.15</v>
+      </c>
+      <c r="AG54">
+        <v>1.91</v>
+      </c>
+      <c r="AH54">
+        <v>1.8</v>
+      </c>
+      <c r="AI54">
+        <v>1.8</v>
+      </c>
+      <c r="AJ54">
+        <v>1.95</v>
+      </c>
+      <c r="AK54">
+        <v>1.22</v>
+      </c>
+      <c r="AL54">
+        <v>1.25</v>
+      </c>
+      <c r="AM54">
+        <v>1.9</v>
+      </c>
+      <c r="AN54">
+        <v>3</v>
+      </c>
+      <c r="AO54">
+        <v>0.67</v>
+      </c>
+      <c r="AP54">
+        <v>2</v>
+      </c>
+      <c r="AQ54">
+        <v>1.25</v>
+      </c>
+      <c r="AR54">
+        <v>1.51</v>
+      </c>
+      <c r="AS54">
+        <v>1.54</v>
+      </c>
+      <c r="AT54">
+        <v>3.05</v>
+      </c>
+      <c r="AU54">
+        <v>2</v>
+      </c>
+      <c r="AV54">
+        <v>5</v>
+      </c>
+      <c r="AW54">
+        <v>8</v>
+      </c>
+      <c r="AX54">
+        <v>10</v>
+      </c>
+      <c r="AY54">
+        <v>10</v>
+      </c>
+      <c r="AZ54">
+        <v>15</v>
+      </c>
+      <c r="BA54">
+        <v>6</v>
+      </c>
+      <c r="BB54">
+        <v>0</v>
+      </c>
+      <c r="BC54">
+        <v>6</v>
+      </c>
+      <c r="BD54">
+        <v>2.05</v>
+      </c>
+      <c r="BE54">
+        <v>9</v>
+      </c>
+      <c r="BF54">
+        <v>2.1</v>
+      </c>
+      <c r="BG54">
+        <v>1.1</v>
+      </c>
+      <c r="BH54">
+        <v>5.55</v>
+      </c>
+      <c r="BI54">
+        <v>1.22</v>
+      </c>
+      <c r="BJ54">
+        <v>3.65</v>
+      </c>
+      <c r="BK54">
+        <v>1.83</v>
+      </c>
+      <c r="BL54">
+        <v>2.65</v>
+      </c>
+      <c r="BM54">
+        <v>1.85</v>
+      </c>
+      <c r="BN54">
+        <v>1.85</v>
+      </c>
+      <c r="BO54">
+        <v>2.14</v>
+      </c>
+      <c r="BP54">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7373237</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45444.66666666666</v>
+      </c>
+      <c r="F55">
+        <v>7</v>
+      </c>
+      <c r="G55" t="s">
+        <v>79</v>
+      </c>
+      <c r="H55" t="s">
+        <v>77</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>2</v>
+      </c>
+      <c r="N55">
+        <v>2</v>
+      </c>
+      <c r="O55" t="s">
+        <v>95</v>
+      </c>
+      <c r="P55" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q55">
+        <v>2.88</v>
+      </c>
+      <c r="R55">
+        <v>2</v>
+      </c>
+      <c r="S55">
+        <v>4.33</v>
+      </c>
+      <c r="T55">
+        <v>1.44</v>
+      </c>
+      <c r="U55">
+        <v>2.63</v>
+      </c>
+      <c r="V55">
+        <v>3.25</v>
+      </c>
+      <c r="W55">
+        <v>1.33</v>
+      </c>
+      <c r="X55">
+        <v>10</v>
+      </c>
+      <c r="Y55">
+        <v>1.06</v>
+      </c>
+      <c r="Z55">
+        <v>2.16</v>
+      </c>
+      <c r="AA55">
+        <v>3.12</v>
+      </c>
+      <c r="AB55">
+        <v>3.68</v>
+      </c>
+      <c r="AC55">
+        <v>1.08</v>
+      </c>
+      <c r="AD55">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="AE55">
+        <v>1.38</v>
+      </c>
+      <c r="AF55">
+        <v>3.07</v>
+      </c>
+      <c r="AG55">
+        <v>2.07</v>
+      </c>
+      <c r="AH55">
+        <v>1.68</v>
+      </c>
+      <c r="AI55">
+        <v>1.95</v>
+      </c>
+      <c r="AJ55">
+        <v>1.8</v>
+      </c>
+      <c r="AK55">
+        <v>1.25</v>
+      </c>
+      <c r="AL55">
+        <v>1.28</v>
+      </c>
+      <c r="AM55">
+        <v>1.87</v>
+      </c>
+      <c r="AN55">
+        <v>0.33</v>
+      </c>
+      <c r="AO55">
+        <v>0.5</v>
+      </c>
+      <c r="AP55">
+        <v>0.25</v>
+      </c>
+      <c r="AQ55">
+        <v>1.33</v>
+      </c>
+      <c r="AR55">
+        <v>1.23</v>
+      </c>
+      <c r="AS55">
+        <v>0.86</v>
+      </c>
+      <c r="AT55">
+        <v>2.09</v>
+      </c>
+      <c r="AU55">
+        <v>4</v>
+      </c>
+      <c r="AV55">
+        <v>6</v>
+      </c>
+      <c r="AW55">
+        <v>9</v>
+      </c>
+      <c r="AX55">
+        <v>7</v>
+      </c>
+      <c r="AY55">
+        <v>13</v>
+      </c>
+      <c r="AZ55">
+        <v>13</v>
+      </c>
+      <c r="BA55">
+        <v>3</v>
+      </c>
+      <c r="BB55">
+        <v>4</v>
+      </c>
+      <c r="BC55">
+        <v>7</v>
+      </c>
+      <c r="BD55">
+        <v>1.65</v>
+      </c>
+      <c r="BE55">
+        <v>9.6</v>
+      </c>
+      <c r="BF55">
+        <v>2.78</v>
+      </c>
+      <c r="BG55">
+        <v>1.19</v>
+      </c>
+      <c r="BH55">
+        <v>4</v>
+      </c>
+      <c r="BI55">
+        <v>1.37</v>
+      </c>
+      <c r="BJ55">
+        <v>2.85</v>
+      </c>
+      <c r="BK55">
+        <v>2.1</v>
+      </c>
+      <c r="BL55">
+        <v>2.05</v>
+      </c>
+      <c r="BM55">
+        <v>2.1</v>
+      </c>
+      <c r="BN55">
+        <v>1.65</v>
+      </c>
+      <c r="BO55">
+        <v>2.77</v>
+      </c>
+      <c r="BP55">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="164">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -403,6 +403,9 @@
     <t>['32', '84']</t>
   </si>
   <si>
+    <t>['42']</t>
+  </si>
+  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -494,6 +497,15 @@
   </si>
   <si>
     <t>['42', '69']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['69']</t>
+  </si>
+  <si>
+    <t>['60']</t>
   </si>
 </sst>
 </file>
@@ -855,7 +867,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP55"/>
+  <dimension ref="A1:BP58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1114,7 +1126,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1320,7 +1332,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1401,7 +1413,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1526,7 +1538,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -1604,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
         <v>1.25</v>
@@ -1732,7 +1744,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -1938,7 +1950,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2222,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ7">
         <v>1.67</v>
@@ -2556,7 +2568,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2762,7 +2774,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -2843,7 +2855,7 @@
         <v>3</v>
       </c>
       <c r="AQ10">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2968,7 +2980,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3174,7 +3186,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3998,7 +4010,7 @@
         <v>103</v>
       </c>
       <c r="P16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4410,7 +4422,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q18">
         <v>2.3</v>
@@ -4491,7 +4503,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ18">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4616,7 +4628,7 @@
         <v>105</v>
       </c>
       <c r="P19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -5106,7 +5118,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ21">
         <v>0</v>
@@ -6139,7 +6151,7 @@
         <v>3</v>
       </c>
       <c r="AQ26">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR26">
         <v>2.21</v>
@@ -6264,7 +6276,7 @@
         <v>112</v>
       </c>
       <c r="P27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -6470,7 +6482,7 @@
         <v>113</v>
       </c>
       <c r="P28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6551,7 +6563,7 @@
         <v>2</v>
       </c>
       <c r="AQ28">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR28">
         <v>1.4</v>
@@ -6676,7 +6688,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q29">
         <v>3.5</v>
@@ -6882,7 +6894,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7088,7 +7100,7 @@
         <v>95</v>
       </c>
       <c r="P31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7500,7 +7512,7 @@
         <v>95</v>
       </c>
       <c r="P33" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7581,7 +7593,7 @@
         <v>2</v>
       </c>
       <c r="AQ33">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR33">
         <v>1.46</v>
@@ -7784,7 +7796,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ34">
         <v>0</v>
@@ -7912,7 +7924,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q35">
         <v>2.25</v>
@@ -8324,7 +8336,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8530,7 +8542,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -8942,7 +8954,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9020,7 +9032,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ40">
         <v>1.67</v>
@@ -9148,7 +9160,7 @@
         <v>121</v>
       </c>
       <c r="P41" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9432,7 +9444,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ42">
         <v>2</v>
@@ -9766,7 +9778,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -9972,7 +9984,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10178,7 +10190,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10590,7 +10602,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q48">
         <v>2.38</v>
@@ -10796,7 +10808,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -10877,7 +10889,7 @@
         <v>1</v>
       </c>
       <c r="AQ49">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR49">
         <v>1.5</v>
@@ -11002,7 +11014,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11414,7 +11426,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q52">
         <v>2.38</v>
@@ -11620,7 +11632,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q53">
         <v>2.38</v>
@@ -11826,7 +11838,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -11925,16 +11937,16 @@
         <v>5</v>
       </c>
       <c r="AW54">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AX54">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AY54">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AZ54">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA54">
         <v>6</v>
@@ -12032,7 +12044,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -12131,16 +12143,16 @@
         <v>6</v>
       </c>
       <c r="AW55">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AX55">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY55">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AZ55">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA55">
         <v>3</v>
@@ -12189,6 +12201,624 @@
       </c>
       <c r="BP55">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7373238</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45444.77083333334</v>
+      </c>
+      <c r="F56">
+        <v>7</v>
+      </c>
+      <c r="G56" t="s">
+        <v>72</v>
+      </c>
+      <c r="H56" t="s">
+        <v>83</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>2</v>
+      </c>
+      <c r="O56" t="s">
+        <v>129</v>
+      </c>
+      <c r="P56" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q56">
+        <v>2.1</v>
+      </c>
+      <c r="R56">
+        <v>2.25</v>
+      </c>
+      <c r="S56">
+        <v>6</v>
+      </c>
+      <c r="T56">
+        <v>1.4</v>
+      </c>
+      <c r="U56">
+        <v>2.75</v>
+      </c>
+      <c r="V56">
+        <v>2.75</v>
+      </c>
+      <c r="W56">
+        <v>1.4</v>
+      </c>
+      <c r="X56">
+        <v>8</v>
+      </c>
+      <c r="Y56">
+        <v>1.08</v>
+      </c>
+      <c r="Z56">
+        <v>1.57</v>
+      </c>
+      <c r="AA56">
+        <v>4.2</v>
+      </c>
+      <c r="AB56">
+        <v>5.5</v>
+      </c>
+      <c r="AC56">
+        <v>1.05</v>
+      </c>
+      <c r="AD56">
+        <v>11</v>
+      </c>
+      <c r="AE56">
+        <v>1.3</v>
+      </c>
+      <c r="AF56">
+        <v>3.4</v>
+      </c>
+      <c r="AG56">
+        <v>1.85</v>
+      </c>
+      <c r="AH56">
+        <v>1.95</v>
+      </c>
+      <c r="AI56">
+        <v>2</v>
+      </c>
+      <c r="AJ56">
+        <v>1.75</v>
+      </c>
+      <c r="AK56">
+        <v>1.07</v>
+      </c>
+      <c r="AL56">
+        <v>1.16</v>
+      </c>
+      <c r="AM56">
+        <v>2.9</v>
+      </c>
+      <c r="AN56">
+        <v>1.67</v>
+      </c>
+      <c r="AO56">
+        <v>0.5</v>
+      </c>
+      <c r="AP56">
+        <v>1.5</v>
+      </c>
+      <c r="AQ56">
+        <v>0.67</v>
+      </c>
+      <c r="AR56">
+        <v>1.86</v>
+      </c>
+      <c r="AS56">
+        <v>1.22</v>
+      </c>
+      <c r="AT56">
+        <v>3.08</v>
+      </c>
+      <c r="AU56">
+        <v>5</v>
+      </c>
+      <c r="AV56">
+        <v>4</v>
+      </c>
+      <c r="AW56">
+        <v>9</v>
+      </c>
+      <c r="AX56">
+        <v>5</v>
+      </c>
+      <c r="AY56">
+        <v>14</v>
+      </c>
+      <c r="AZ56">
+        <v>9</v>
+      </c>
+      <c r="BA56">
+        <v>5</v>
+      </c>
+      <c r="BB56">
+        <v>3</v>
+      </c>
+      <c r="BC56">
+        <v>8</v>
+      </c>
+      <c r="BD56">
+        <v>1.5</v>
+      </c>
+      <c r="BE56">
+        <v>9.9</v>
+      </c>
+      <c r="BF56">
+        <v>3.3</v>
+      </c>
+      <c r="BG56">
+        <v>1.21</v>
+      </c>
+      <c r="BH56">
+        <v>3.74</v>
+      </c>
+      <c r="BI56">
+        <v>1.42</v>
+      </c>
+      <c r="BJ56">
+        <v>2.65</v>
+      </c>
+      <c r="BK56">
+        <v>2.1</v>
+      </c>
+      <c r="BL56">
+        <v>2</v>
+      </c>
+      <c r="BM56">
+        <v>2.19</v>
+      </c>
+      <c r="BN56">
+        <v>1.6</v>
+      </c>
+      <c r="BO56">
+        <v>2.91</v>
+      </c>
+      <c r="BP56">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7373243</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45444.77083333334</v>
+      </c>
+      <c r="F57">
+        <v>7</v>
+      </c>
+      <c r="G57" t="s">
+        <v>89</v>
+      </c>
+      <c r="H57" t="s">
+        <v>70</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57" t="s">
+        <v>95</v>
+      </c>
+      <c r="P57" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q57">
+        <v>4.33</v>
+      </c>
+      <c r="R57">
+        <v>1.83</v>
+      </c>
+      <c r="S57">
+        <v>3.2</v>
+      </c>
+      <c r="T57">
+        <v>1.57</v>
+      </c>
+      <c r="U57">
+        <v>2.25</v>
+      </c>
+      <c r="V57">
+        <v>3.75</v>
+      </c>
+      <c r="W57">
+        <v>1.25</v>
+      </c>
+      <c r="X57">
+        <v>13</v>
+      </c>
+      <c r="Y57">
+        <v>1.04</v>
+      </c>
+      <c r="Z57">
+        <v>3.5</v>
+      </c>
+      <c r="AA57">
+        <v>3.1</v>
+      </c>
+      <c r="AB57">
+        <v>2.3</v>
+      </c>
+      <c r="AC57">
+        <v>1.08</v>
+      </c>
+      <c r="AD57">
+        <v>6</v>
+      </c>
+      <c r="AE57">
+        <v>1.5</v>
+      </c>
+      <c r="AF57">
+        <v>2.4</v>
+      </c>
+      <c r="AG57">
+        <v>2.88</v>
+      </c>
+      <c r="AH57">
+        <v>1.4</v>
+      </c>
+      <c r="AI57">
+        <v>2.25</v>
+      </c>
+      <c r="AJ57">
+        <v>1.57</v>
+      </c>
+      <c r="AK57">
+        <v>1.75</v>
+      </c>
+      <c r="AL57">
+        <v>1.3</v>
+      </c>
+      <c r="AM57">
+        <v>1.25</v>
+      </c>
+      <c r="AN57">
+        <v>0</v>
+      </c>
+      <c r="AO57">
+        <v>1.5</v>
+      </c>
+      <c r="AP57">
+        <v>0</v>
+      </c>
+      <c r="AQ57">
+        <v>2</v>
+      </c>
+      <c r="AR57">
+        <v>0.68</v>
+      </c>
+      <c r="AS57">
+        <v>0.68</v>
+      </c>
+      <c r="AT57">
+        <v>1.36</v>
+      </c>
+      <c r="AU57">
+        <v>4</v>
+      </c>
+      <c r="AV57">
+        <v>4</v>
+      </c>
+      <c r="AW57">
+        <v>4</v>
+      </c>
+      <c r="AX57">
+        <v>4</v>
+      </c>
+      <c r="AY57">
+        <v>8</v>
+      </c>
+      <c r="AZ57">
+        <v>8</v>
+      </c>
+      <c r="BA57">
+        <v>0</v>
+      </c>
+      <c r="BB57">
+        <v>2</v>
+      </c>
+      <c r="BC57">
+        <v>2</v>
+      </c>
+      <c r="BD57">
+        <v>2.15</v>
+      </c>
+      <c r="BE57">
+        <v>8.5</v>
+      </c>
+      <c r="BF57">
+        <v>2.03</v>
+      </c>
+      <c r="BG57">
+        <v>1.21</v>
+      </c>
+      <c r="BH57">
+        <v>3.74</v>
+      </c>
+      <c r="BI57">
+        <v>1.42</v>
+      </c>
+      <c r="BJ57">
+        <v>2.65</v>
+      </c>
+      <c r="BK57">
+        <v>2.2</v>
+      </c>
+      <c r="BL57">
+        <v>2</v>
+      </c>
+      <c r="BM57">
+        <v>2.19</v>
+      </c>
+      <c r="BN57">
+        <v>1.6</v>
+      </c>
+      <c r="BO57">
+        <v>2.91</v>
+      </c>
+      <c r="BP57">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7373240</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45444.875</v>
+      </c>
+      <c r="F58">
+        <v>7</v>
+      </c>
+      <c r="G58" t="s">
+        <v>75</v>
+      </c>
+      <c r="H58" t="s">
+        <v>88</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58" t="s">
+        <v>95</v>
+      </c>
+      <c r="P58" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q58">
+        <v>3</v>
+      </c>
+      <c r="R58">
+        <v>1.95</v>
+      </c>
+      <c r="S58">
+        <v>4</v>
+      </c>
+      <c r="T58">
+        <v>1.48</v>
+      </c>
+      <c r="U58">
+        <v>2.5</v>
+      </c>
+      <c r="V58">
+        <v>3</v>
+      </c>
+      <c r="W58">
+        <v>1.33</v>
+      </c>
+      <c r="X58">
+        <v>8</v>
+      </c>
+      <c r="Y58">
+        <v>1.05</v>
+      </c>
+      <c r="Z58">
+        <v>2.2</v>
+      </c>
+      <c r="AA58">
+        <v>3.2</v>
+      </c>
+      <c r="AB58">
+        <v>3.5</v>
+      </c>
+      <c r="AC58">
+        <v>1.07</v>
+      </c>
+      <c r="AD58">
+        <v>7</v>
+      </c>
+      <c r="AE58">
+        <v>1.4</v>
+      </c>
+      <c r="AF58">
+        <v>2.7</v>
+      </c>
+      <c r="AG58">
+        <v>2.35</v>
+      </c>
+      <c r="AH58">
+        <v>1.57</v>
+      </c>
+      <c r="AI58">
+        <v>2.05</v>
+      </c>
+      <c r="AJ58">
+        <v>1.7</v>
+      </c>
+      <c r="AK58">
+        <v>1.25</v>
+      </c>
+      <c r="AL58">
+        <v>1.35</v>
+      </c>
+      <c r="AM58">
+        <v>1.78</v>
+      </c>
+      <c r="AN58">
+        <v>1.67</v>
+      </c>
+      <c r="AO58">
+        <v>1.33</v>
+      </c>
+      <c r="AP58">
+        <v>1.25</v>
+      </c>
+      <c r="AQ58">
+        <v>1.75</v>
+      </c>
+      <c r="AR58">
+        <v>1.63</v>
+      </c>
+      <c r="AS58">
+        <v>1.01</v>
+      </c>
+      <c r="AT58">
+        <v>2.64</v>
+      </c>
+      <c r="AU58">
+        <v>8</v>
+      </c>
+      <c r="AV58">
+        <v>3</v>
+      </c>
+      <c r="AW58">
+        <v>7</v>
+      </c>
+      <c r="AX58">
+        <v>3</v>
+      </c>
+      <c r="AY58">
+        <v>15</v>
+      </c>
+      <c r="AZ58">
+        <v>6</v>
+      </c>
+      <c r="BA58">
+        <v>2</v>
+      </c>
+      <c r="BB58">
+        <v>5</v>
+      </c>
+      <c r="BC58">
+        <v>7</v>
+      </c>
+      <c r="BD58">
+        <v>1.62</v>
+      </c>
+      <c r="BE58">
+        <v>9.5</v>
+      </c>
+      <c r="BF58">
+        <v>2.88</v>
+      </c>
+      <c r="BG58">
+        <v>1.25</v>
+      </c>
+      <c r="BH58">
+        <v>3.6</v>
+      </c>
+      <c r="BI58">
+        <v>1.41</v>
+      </c>
+      <c r="BJ58">
+        <v>2.7</v>
+      </c>
+      <c r="BK58">
+        <v>2.2</v>
+      </c>
+      <c r="BL58">
+        <v>1.99</v>
+      </c>
+      <c r="BM58">
+        <v>2.2</v>
+      </c>
+      <c r="BN58">
+        <v>1.6</v>
+      </c>
+      <c r="BO58">
+        <v>2.9</v>
+      </c>
+      <c r="BP58">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="168">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -406,6 +406,18 @@
     <t>['42']</t>
   </si>
   <si>
+    <t>['69']</t>
+  </si>
+  <si>
+    <t>['62']</t>
+  </si>
+  <si>
+    <t>['5', '48']</t>
+  </si>
+  <si>
+    <t>['45']</t>
+  </si>
+  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -436,9 +448,6 @@
     <t>['89']</t>
   </si>
   <si>
-    <t>['45']</t>
-  </si>
-  <si>
     <t>['79']</t>
   </si>
   <si>
@@ -502,10 +511,13 @@
     <t>['67']</t>
   </si>
   <si>
-    <t>['69']</t>
-  </si>
-  <si>
     <t>['60']</t>
+  </si>
+  <si>
+    <t>['28', '33', '43', '51', '73', '89']</t>
+  </si>
+  <si>
+    <t>['67', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -867,7 +879,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP58"/>
+  <dimension ref="A1:BP63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1126,7 +1138,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1207,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="AQ2">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1332,7 +1344,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1410,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ3">
         <v>0.67</v>
@@ -1538,7 +1550,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -1744,7 +1756,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -1822,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ5">
         <v>2</v>
@@ -1950,7 +1962,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2028,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6">
         <v>0</v>
@@ -2568,7 +2580,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2649,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="AQ9">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2774,7 +2786,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -2980,7 +2992,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3061,7 +3073,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ11">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3186,7 +3198,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3473,7 +3485,7 @@
         <v>2</v>
       </c>
       <c r="AQ13">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4010,7 +4022,7 @@
         <v>103</v>
       </c>
       <c r="P16" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4088,10 +4100,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ16">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4294,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ17">
         <v>2</v>
@@ -4422,7 +4434,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q18">
         <v>2.3</v>
@@ -4628,7 +4640,7 @@
         <v>105</v>
       </c>
       <c r="P19" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -5736,10 +5748,10 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ24">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR24">
         <v>1.95</v>
@@ -5945,7 +5957,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ25">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR25">
         <v>1.49</v>
@@ -6276,7 +6288,7 @@
         <v>112</v>
       </c>
       <c r="P27" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -6357,7 +6369,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ27">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR27">
         <v>1.33</v>
@@ -6482,7 +6494,7 @@
         <v>113</v>
       </c>
       <c r="P28" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6688,7 +6700,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q29">
         <v>3.5</v>
@@ -6894,7 +6906,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -6972,7 +6984,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ30">
         <v>2</v>
@@ -7100,7 +7112,7 @@
         <v>95</v>
       </c>
       <c r="P31" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7512,7 +7524,7 @@
         <v>95</v>
       </c>
       <c r="P33" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7924,7 +7936,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q35">
         <v>2.25</v>
@@ -8208,7 +8220,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ36">
         <v>1.25</v>
@@ -8336,7 +8348,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8417,7 +8429,7 @@
         <v>2</v>
       </c>
       <c r="AQ37">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR37">
         <v>1.65</v>
@@ -8542,7 +8554,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -8826,10 +8838,10 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ39">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR39">
         <v>1.75</v>
@@ -8954,7 +8966,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9160,7 +9172,7 @@
         <v>121</v>
       </c>
       <c r="P41" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9241,7 +9253,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ41">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR41">
         <v>1.4</v>
@@ -9778,7 +9790,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -9984,7 +9996,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10065,7 +10077,7 @@
         <v>2</v>
       </c>
       <c r="AQ45">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR45">
         <v>1.46</v>
@@ -10190,7 +10202,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10271,7 +10283,7 @@
         <v>0</v>
       </c>
       <c r="AQ46">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR46">
         <v>0.52</v>
@@ -10602,7 +10614,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q48">
         <v>2.38</v>
@@ -10683,7 +10695,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ48">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR48">
         <v>1.23</v>
@@ -10808,7 +10820,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -10886,7 +10898,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ49">
         <v>1.75</v>
@@ -11014,7 +11026,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11095,7 +11107,7 @@
         <v>0</v>
       </c>
       <c r="AQ50">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR50">
         <v>0.99</v>
@@ -11426,7 +11438,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q52">
         <v>2.38</v>
@@ -11504,7 +11516,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ52">
         <v>0</v>
@@ -11632,7 +11644,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q53">
         <v>2.38</v>
@@ -11710,7 +11722,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ53">
         <v>0</v>
@@ -11838,7 +11850,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -12044,7 +12056,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -12250,7 +12262,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q56">
         <v>2.1</v>
@@ -12456,7 +12468,7 @@
         <v>95</v>
       </c>
       <c r="P57" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="Q57">
         <v>4.33</v>
@@ -12662,7 +12674,7 @@
         <v>95</v>
       </c>
       <c r="P58" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12819,6 +12831,1036 @@
       </c>
       <c r="BP58">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7373239</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45445.66666666666</v>
+      </c>
+      <c r="F59">
+        <v>7</v>
+      </c>
+      <c r="G59" t="s">
+        <v>74</v>
+      </c>
+      <c r="H59" t="s">
+        <v>87</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>3</v>
+      </c>
+      <c r="K59">
+        <v>4</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>6</v>
+      </c>
+      <c r="N59">
+        <v>7</v>
+      </c>
+      <c r="O59" t="s">
+        <v>117</v>
+      </c>
+      <c r="P59" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q59">
+        <v>5.5</v>
+      </c>
+      <c r="R59">
+        <v>2.1</v>
+      </c>
+      <c r="S59">
+        <v>2.38</v>
+      </c>
+      <c r="T59">
+        <v>1.44</v>
+      </c>
+      <c r="U59">
+        <v>2.63</v>
+      </c>
+      <c r="V59">
+        <v>3.25</v>
+      </c>
+      <c r="W59">
+        <v>1.33</v>
+      </c>
+      <c r="X59">
+        <v>9</v>
+      </c>
+      <c r="Y59">
+        <v>1.07</v>
+      </c>
+      <c r="Z59">
+        <v>4.29</v>
+      </c>
+      <c r="AA59">
+        <v>3.7</v>
+      </c>
+      <c r="AB59">
+        <v>1.75</v>
+      </c>
+      <c r="AC59">
+        <v>1.07</v>
+      </c>
+      <c r="AD59">
+        <v>3</v>
+      </c>
+      <c r="AE59">
+        <v>1.33</v>
+      </c>
+      <c r="AF59">
+        <v>2.93</v>
+      </c>
+      <c r="AG59">
+        <v>2</v>
+      </c>
+      <c r="AH59">
+        <v>1.72</v>
+      </c>
+      <c r="AI59">
+        <v>2</v>
+      </c>
+      <c r="AJ59">
+        <v>1.75</v>
+      </c>
+      <c r="AK59">
+        <v>2</v>
+      </c>
+      <c r="AL59">
+        <v>1.29</v>
+      </c>
+      <c r="AM59">
+        <v>1.22</v>
+      </c>
+      <c r="AN59">
+        <v>2</v>
+      </c>
+      <c r="AO59">
+        <v>1.67</v>
+      </c>
+      <c r="AP59">
+        <v>1.5</v>
+      </c>
+      <c r="AQ59">
+        <v>2</v>
+      </c>
+      <c r="AR59">
+        <v>1.58</v>
+      </c>
+      <c r="AS59">
+        <v>1.31</v>
+      </c>
+      <c r="AT59">
+        <v>2.89</v>
+      </c>
+      <c r="AU59">
+        <v>3</v>
+      </c>
+      <c r="AV59">
+        <v>19</v>
+      </c>
+      <c r="AW59">
+        <v>0</v>
+      </c>
+      <c r="AX59">
+        <v>4</v>
+      </c>
+      <c r="AY59">
+        <v>3</v>
+      </c>
+      <c r="AZ59">
+        <v>23</v>
+      </c>
+      <c r="BA59">
+        <v>1</v>
+      </c>
+      <c r="BB59">
+        <v>8</v>
+      </c>
+      <c r="BC59">
+        <v>9</v>
+      </c>
+      <c r="BD59">
+        <v>2.88</v>
+      </c>
+      <c r="BE59">
+        <v>9.5</v>
+      </c>
+      <c r="BF59">
+        <v>1.62</v>
+      </c>
+      <c r="BG59">
+        <v>1.18</v>
+      </c>
+      <c r="BH59">
+        <v>4.33</v>
+      </c>
+      <c r="BI59">
+        <v>1.39</v>
+      </c>
+      <c r="BJ59">
+        <v>2.77</v>
+      </c>
+      <c r="BK59">
+        <v>2.1</v>
+      </c>
+      <c r="BL59">
+        <v>2.05</v>
+      </c>
+      <c r="BM59">
+        <v>2.12</v>
+      </c>
+      <c r="BN59">
+        <v>1.64</v>
+      </c>
+      <c r="BO59">
+        <v>2.77</v>
+      </c>
+      <c r="BP59">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7373244</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45445.66666666666</v>
+      </c>
+      <c r="F60">
+        <v>7</v>
+      </c>
+      <c r="G60" t="s">
+        <v>71</v>
+      </c>
+      <c r="H60" t="s">
+        <v>86</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>2</v>
+      </c>
+      <c r="N60">
+        <v>3</v>
+      </c>
+      <c r="O60" t="s">
+        <v>130</v>
+      </c>
+      <c r="P60" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q60">
+        <v>4.75</v>
+      </c>
+      <c r="R60">
+        <v>2</v>
+      </c>
+      <c r="S60">
+        <v>2.63</v>
+      </c>
+      <c r="T60">
+        <v>1.4</v>
+      </c>
+      <c r="U60">
+        <v>2.75</v>
+      </c>
+      <c r="V60">
+        <v>3</v>
+      </c>
+      <c r="W60">
+        <v>1.36</v>
+      </c>
+      <c r="X60">
+        <v>8</v>
+      </c>
+      <c r="Y60">
+        <v>1.08</v>
+      </c>
+      <c r="Z60">
+        <v>3.91</v>
+      </c>
+      <c r="AA60">
+        <v>3.35</v>
+      </c>
+      <c r="AB60">
+        <v>1.92</v>
+      </c>
+      <c r="AC60">
+        <v>1.05</v>
+      </c>
+      <c r="AD60">
+        <v>11</v>
+      </c>
+      <c r="AE60">
+        <v>1.33</v>
+      </c>
+      <c r="AF60">
+        <v>3.4</v>
+      </c>
+      <c r="AG60">
+        <v>2.35</v>
+      </c>
+      <c r="AH60">
+        <v>1.53</v>
+      </c>
+      <c r="AI60">
+        <v>2.05</v>
+      </c>
+      <c r="AJ60">
+        <v>1.7</v>
+      </c>
+      <c r="AK60">
+        <v>2.1</v>
+      </c>
+      <c r="AL60">
+        <v>1.22</v>
+      </c>
+      <c r="AM60">
+        <v>1.18</v>
+      </c>
+      <c r="AN60">
+        <v>1</v>
+      </c>
+      <c r="AO60">
+        <v>2.33</v>
+      </c>
+      <c r="AP60">
+        <v>0.5</v>
+      </c>
+      <c r="AQ60">
+        <v>2.5</v>
+      </c>
+      <c r="AR60">
+        <v>0.99</v>
+      </c>
+      <c r="AS60">
+        <v>1.36</v>
+      </c>
+      <c r="AT60">
+        <v>2.35</v>
+      </c>
+      <c r="AU60">
+        <v>5</v>
+      </c>
+      <c r="AV60">
+        <v>6</v>
+      </c>
+      <c r="AW60">
+        <v>5</v>
+      </c>
+      <c r="AX60">
+        <v>11</v>
+      </c>
+      <c r="AY60">
+        <v>10</v>
+      </c>
+      <c r="AZ60">
+        <v>17</v>
+      </c>
+      <c r="BA60">
+        <v>4</v>
+      </c>
+      <c r="BB60">
+        <v>6</v>
+      </c>
+      <c r="BC60">
+        <v>10</v>
+      </c>
+      <c r="BD60">
+        <v>3.2</v>
+      </c>
+      <c r="BE60">
+        <v>10.5</v>
+      </c>
+      <c r="BF60">
+        <v>1.51</v>
+      </c>
+      <c r="BG60">
+        <v>1.15</v>
+      </c>
+      <c r="BH60">
+        <v>4.45</v>
+      </c>
+      <c r="BI60">
+        <v>1.29</v>
+      </c>
+      <c r="BJ60">
+        <v>3.3</v>
+      </c>
+      <c r="BK60">
+        <v>1.91</v>
+      </c>
+      <c r="BL60">
+        <v>2.45</v>
+      </c>
+      <c r="BM60">
+        <v>2</v>
+      </c>
+      <c r="BN60">
+        <v>1.8</v>
+      </c>
+      <c r="BO60">
+        <v>2.45</v>
+      </c>
+      <c r="BP60">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7373236</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45445.66666666666</v>
+      </c>
+      <c r="F61">
+        <v>7</v>
+      </c>
+      <c r="G61" t="s">
+        <v>85</v>
+      </c>
+      <c r="H61" t="s">
+        <v>80</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>2</v>
+      </c>
+      <c r="O61" t="s">
+        <v>131</v>
+      </c>
+      <c r="P61" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q61">
+        <v>2.3</v>
+      </c>
+      <c r="R61">
+        <v>2.2</v>
+      </c>
+      <c r="S61">
+        <v>5</v>
+      </c>
+      <c r="T61">
+        <v>1.4</v>
+      </c>
+      <c r="U61">
+        <v>2.75</v>
+      </c>
+      <c r="V61">
+        <v>3</v>
+      </c>
+      <c r="W61">
+        <v>1.36</v>
+      </c>
+      <c r="X61">
+        <v>8</v>
+      </c>
+      <c r="Y61">
+        <v>1.08</v>
+      </c>
+      <c r="Z61">
+        <v>1.68</v>
+      </c>
+      <c r="AA61">
+        <v>3.7</v>
+      </c>
+      <c r="AB61">
+        <v>4.86</v>
+      </c>
+      <c r="AC61">
+        <v>1.05</v>
+      </c>
+      <c r="AD61">
+        <v>11</v>
+      </c>
+      <c r="AE61">
+        <v>1.33</v>
+      </c>
+      <c r="AF61">
+        <v>3.4</v>
+      </c>
+      <c r="AG61">
+        <v>1.88</v>
+      </c>
+      <c r="AH61">
+        <v>1.82</v>
+      </c>
+      <c r="AI61">
+        <v>1.95</v>
+      </c>
+      <c r="AJ61">
+        <v>1.8</v>
+      </c>
+      <c r="AK61">
+        <v>1.18</v>
+      </c>
+      <c r="AL61">
+        <v>1.22</v>
+      </c>
+      <c r="AM61">
+        <v>2.1</v>
+      </c>
+      <c r="AN61">
+        <v>2</v>
+      </c>
+      <c r="AO61">
+        <v>1.33</v>
+      </c>
+      <c r="AP61">
+        <v>1.67</v>
+      </c>
+      <c r="AQ61">
+        <v>1.25</v>
+      </c>
+      <c r="AR61">
+        <v>1.55</v>
+      </c>
+      <c r="AS61">
+        <v>1.35</v>
+      </c>
+      <c r="AT61">
+        <v>2.9</v>
+      </c>
+      <c r="AU61">
+        <v>5</v>
+      </c>
+      <c r="AV61">
+        <v>3</v>
+      </c>
+      <c r="AW61">
+        <v>11</v>
+      </c>
+      <c r="AX61">
+        <v>4</v>
+      </c>
+      <c r="AY61">
+        <v>16</v>
+      </c>
+      <c r="AZ61">
+        <v>7</v>
+      </c>
+      <c r="BA61">
+        <v>5</v>
+      </c>
+      <c r="BB61">
+        <v>4</v>
+      </c>
+      <c r="BC61">
+        <v>9</v>
+      </c>
+      <c r="BD61">
+        <v>1.51</v>
+      </c>
+      <c r="BE61">
+        <v>9.5</v>
+      </c>
+      <c r="BF61">
+        <v>3.3</v>
+      </c>
+      <c r="BG61">
+        <v>1.25</v>
+      </c>
+      <c r="BH61">
+        <v>3.6</v>
+      </c>
+      <c r="BI61">
+        <v>1.48</v>
+      </c>
+      <c r="BJ61">
+        <v>2.47</v>
+      </c>
+      <c r="BK61">
+        <v>2.1</v>
+      </c>
+      <c r="BL61">
+        <v>1.85</v>
+      </c>
+      <c r="BM61">
+        <v>2.4</v>
+      </c>
+      <c r="BN61">
+        <v>1.5</v>
+      </c>
+      <c r="BO61">
+        <v>3.2</v>
+      </c>
+      <c r="BP61">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7373241</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45445.77083333334</v>
+      </c>
+      <c r="F62">
+        <v>7</v>
+      </c>
+      <c r="G62" t="s">
+        <v>73</v>
+      </c>
+      <c r="H62" t="s">
+        <v>78</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>2</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+      <c r="O62" t="s">
+        <v>132</v>
+      </c>
+      <c r="P62" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q62">
+        <v>2.75</v>
+      </c>
+      <c r="R62">
+        <v>1.95</v>
+      </c>
+      <c r="S62">
+        <v>5</v>
+      </c>
+      <c r="T62">
+        <v>1.48</v>
+      </c>
+      <c r="U62">
+        <v>2.5</v>
+      </c>
+      <c r="V62">
+        <v>3.25</v>
+      </c>
+      <c r="W62">
+        <v>1.3</v>
+      </c>
+      <c r="X62">
+        <v>8</v>
+      </c>
+      <c r="Y62">
+        <v>1.05</v>
+      </c>
+      <c r="Z62">
+        <v>2</v>
+      </c>
+      <c r="AA62">
+        <v>3.3</v>
+      </c>
+      <c r="AB62">
+        <v>4</v>
+      </c>
+      <c r="AC62">
+        <v>1.06</v>
+      </c>
+      <c r="AD62">
+        <v>8.5</v>
+      </c>
+      <c r="AE62">
+        <v>1.38</v>
+      </c>
+      <c r="AF62">
+        <v>2.95</v>
+      </c>
+      <c r="AG62">
+        <v>2.5</v>
+      </c>
+      <c r="AH62">
+        <v>1.5</v>
+      </c>
+      <c r="AI62">
+        <v>2.2</v>
+      </c>
+      <c r="AJ62">
+        <v>1.62</v>
+      </c>
+      <c r="AK62">
+        <v>1.22</v>
+      </c>
+      <c r="AL62">
+        <v>1.22</v>
+      </c>
+      <c r="AM62">
+        <v>1.93</v>
+      </c>
+      <c r="AN62">
+        <v>1.33</v>
+      </c>
+      <c r="AO62">
+        <v>1.33</v>
+      </c>
+      <c r="AP62">
+        <v>1.75</v>
+      </c>
+      <c r="AQ62">
+        <v>1</v>
+      </c>
+      <c r="AR62">
+        <v>1.52</v>
+      </c>
+      <c r="AS62">
+        <v>1.28</v>
+      </c>
+      <c r="AT62">
+        <v>2.8</v>
+      </c>
+      <c r="AU62">
+        <v>5</v>
+      </c>
+      <c r="AV62">
+        <v>4</v>
+      </c>
+      <c r="AW62">
+        <v>6</v>
+      </c>
+      <c r="AX62">
+        <v>5</v>
+      </c>
+      <c r="AY62">
+        <v>11</v>
+      </c>
+      <c r="AZ62">
+        <v>9</v>
+      </c>
+      <c r="BA62">
+        <v>4</v>
+      </c>
+      <c r="BB62">
+        <v>2</v>
+      </c>
+      <c r="BC62">
+        <v>6</v>
+      </c>
+      <c r="BD62">
+        <v>1.57</v>
+      </c>
+      <c r="BE62">
+        <v>10.5</v>
+      </c>
+      <c r="BF62">
+        <v>2.97</v>
+      </c>
+      <c r="BG62">
+        <v>1.17</v>
+      </c>
+      <c r="BH62">
+        <v>4.25</v>
+      </c>
+      <c r="BI62">
+        <v>1.32</v>
+      </c>
+      <c r="BJ62">
+        <v>3.1</v>
+      </c>
+      <c r="BK62">
+        <v>2</v>
+      </c>
+      <c r="BL62">
+        <v>2.27</v>
+      </c>
+      <c r="BM62">
+        <v>1.99</v>
+      </c>
+      <c r="BN62">
+        <v>1.73</v>
+      </c>
+      <c r="BO62">
+        <v>2.6</v>
+      </c>
+      <c r="BP62">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7373242</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45445.77083333334</v>
+      </c>
+      <c r="F63">
+        <v>7</v>
+      </c>
+      <c r="G63" t="s">
+        <v>84</v>
+      </c>
+      <c r="H63" t="s">
+        <v>76</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63" t="s">
+        <v>133</v>
+      </c>
+      <c r="P63" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q63">
+        <v>2.75</v>
+      </c>
+      <c r="R63">
+        <v>2.05</v>
+      </c>
+      <c r="S63">
+        <v>4.33</v>
+      </c>
+      <c r="T63">
+        <v>1.5</v>
+      </c>
+      <c r="U63">
+        <v>2.5</v>
+      </c>
+      <c r="V63">
+        <v>3.4</v>
+      </c>
+      <c r="W63">
+        <v>1.3</v>
+      </c>
+      <c r="X63">
+        <v>10</v>
+      </c>
+      <c r="Y63">
+        <v>1.06</v>
+      </c>
+      <c r="Z63">
+        <v>2.05</v>
+      </c>
+      <c r="AA63">
+        <v>3.25</v>
+      </c>
+      <c r="AB63">
+        <v>3.8</v>
+      </c>
+      <c r="AC63">
+        <v>1.08</v>
+      </c>
+      <c r="AD63">
+        <v>8.85</v>
+      </c>
+      <c r="AE63">
+        <v>1.4</v>
+      </c>
+      <c r="AF63">
+        <v>2.98</v>
+      </c>
+      <c r="AG63">
+        <v>2.25</v>
+      </c>
+      <c r="AH63">
+        <v>1.62</v>
+      </c>
+      <c r="AI63">
+        <v>2</v>
+      </c>
+      <c r="AJ63">
+        <v>1.75</v>
+      </c>
+      <c r="AK63">
+        <v>1.36</v>
+      </c>
+      <c r="AL63">
+        <v>1.28</v>
+      </c>
+      <c r="AM63">
+        <v>1.63</v>
+      </c>
+      <c r="AN63">
+        <v>1</v>
+      </c>
+      <c r="AO63">
+        <v>1.33</v>
+      </c>
+      <c r="AP63">
+        <v>1.5</v>
+      </c>
+      <c r="AQ63">
+        <v>1</v>
+      </c>
+      <c r="AR63">
+        <v>1.4</v>
+      </c>
+      <c r="AS63">
+        <v>1.14</v>
+      </c>
+      <c r="AT63">
+        <v>2.54</v>
+      </c>
+      <c r="AU63">
+        <v>5</v>
+      </c>
+      <c r="AV63">
+        <v>3</v>
+      </c>
+      <c r="AW63">
+        <v>4</v>
+      </c>
+      <c r="AX63">
+        <v>8</v>
+      </c>
+      <c r="AY63">
+        <v>9</v>
+      </c>
+      <c r="AZ63">
+        <v>11</v>
+      </c>
+      <c r="BA63">
+        <v>2</v>
+      </c>
+      <c r="BB63">
+        <v>4</v>
+      </c>
+      <c r="BC63">
+        <v>6</v>
+      </c>
+      <c r="BD63">
+        <v>1.67</v>
+      </c>
+      <c r="BE63">
+        <v>9.5</v>
+      </c>
+      <c r="BF63">
+        <v>2.74</v>
+      </c>
+      <c r="BG63">
+        <v>1.18</v>
+      </c>
+      <c r="BH63">
+        <v>4.33</v>
+      </c>
+      <c r="BI63">
+        <v>1.33</v>
+      </c>
+      <c r="BJ63">
+        <v>3.05</v>
+      </c>
+      <c r="BK63">
+        <v>1.83</v>
+      </c>
+      <c r="BL63">
+        <v>2.15</v>
+      </c>
+      <c r="BM63">
+        <v>2.05</v>
+      </c>
+      <c r="BN63">
+        <v>1.7</v>
+      </c>
+      <c r="BO63">
+        <v>2.75</v>
+      </c>
+      <c r="BP63">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="169">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -416,6 +416,9 @@
   </si>
   <si>
     <t>['45']</t>
+  </si>
+  <si>
+    <t>['38']</t>
   </si>
   <si>
     <t>['70']</t>
@@ -879,7 +882,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP63"/>
+  <dimension ref="A1:BP65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1138,7 +1141,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1344,7 +1347,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1550,7 +1553,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -1756,7 +1759,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -1962,7 +1965,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2580,7 +2583,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2786,7 +2789,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -2992,7 +2995,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3198,7 +3201,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3894,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ15">
         <v>0</v>
@@ -4022,7 +4025,7 @@
         <v>103</v>
       </c>
       <c r="P16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4640,7 +4643,7 @@
         <v>105</v>
       </c>
       <c r="P19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -4927,7 +4930,7 @@
         <v>2</v>
       </c>
       <c r="AQ20">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -6288,7 +6291,7 @@
         <v>112</v>
       </c>
       <c r="P27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -6494,7 +6497,7 @@
         <v>113</v>
       </c>
       <c r="P28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6700,7 +6703,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q29">
         <v>3.5</v>
@@ -6906,7 +6909,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7112,7 +7115,7 @@
         <v>95</v>
       </c>
       <c r="P31" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7190,7 +7193,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AQ31">
         <v>1.67</v>
@@ -7524,7 +7527,7 @@
         <v>95</v>
       </c>
       <c r="P33" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7936,7 +7939,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q35">
         <v>2.25</v>
@@ -8017,7 +8020,7 @@
         <v>3</v>
       </c>
       <c r="AQ35">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR35">
         <v>1.46</v>
@@ -8348,7 +8351,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8426,7 +8429,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ37">
         <v>1</v>
@@ -8554,7 +8557,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -8635,7 +8638,7 @@
         <v>2</v>
       </c>
       <c r="AQ38">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR38">
         <v>2.13</v>
@@ -8966,7 +8969,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9172,7 +9175,7 @@
         <v>121</v>
       </c>
       <c r="P41" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9790,7 +9793,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -9996,7 +9999,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10202,7 +10205,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10280,7 +10283,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AQ46">
         <v>2.5</v>
@@ -10614,7 +10617,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q48">
         <v>2.38</v>
@@ -10820,7 +10823,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11026,7 +11029,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11438,7 +11441,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q52">
         <v>2.38</v>
@@ -11519,7 +11522,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ52">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR52">
         <v>1.51</v>
@@ -11644,7 +11647,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q53">
         <v>2.38</v>
@@ -11850,7 +11853,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -12056,7 +12059,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -12137,7 +12140,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ55">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR55">
         <v>1.23</v>
@@ -12262,7 +12265,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q56">
         <v>2.1</v>
@@ -12546,7 +12549,7 @@
         <v>1.5</v>
       </c>
       <c r="AP57">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AQ57">
         <v>2</v>
@@ -12674,7 +12677,7 @@
         <v>95</v>
       </c>
       <c r="P58" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12880,7 +12883,7 @@
         <v>117</v>
       </c>
       <c r="P59" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q59">
         <v>5.5</v>
@@ -13086,7 +13089,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q60">
         <v>4.75</v>
@@ -13292,7 +13295,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q61">
         <v>2.3</v>
@@ -13861,6 +13864,418 @@
       </c>
       <c r="BP63">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7373224</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45448.79166666666</v>
+      </c>
+      <c r="F64">
+        <v>5</v>
+      </c>
+      <c r="G64" t="s">
+        <v>83</v>
+      </c>
+      <c r="H64" t="s">
+        <v>77</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64" t="s">
+        <v>134</v>
+      </c>
+      <c r="P64" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q64">
+        <v>3.2</v>
+      </c>
+      <c r="R64">
+        <v>1.91</v>
+      </c>
+      <c r="S64">
+        <v>4.33</v>
+      </c>
+      <c r="T64">
+        <v>1.5</v>
+      </c>
+      <c r="U64">
+        <v>2.5</v>
+      </c>
+      <c r="V64">
+        <v>3.4</v>
+      </c>
+      <c r="W64">
+        <v>1.3</v>
+      </c>
+      <c r="X64">
+        <v>10</v>
+      </c>
+      <c r="Y64">
+        <v>1.06</v>
+      </c>
+      <c r="Z64">
+        <v>2.3</v>
+      </c>
+      <c r="AA64">
+        <v>3</v>
+      </c>
+      <c r="AB64">
+        <v>3.4</v>
+      </c>
+      <c r="AC64">
+        <v>1.05</v>
+      </c>
+      <c r="AD64">
+        <v>7.2</v>
+      </c>
+      <c r="AE64">
+        <v>1.36</v>
+      </c>
+      <c r="AF64">
+        <v>2.78</v>
+      </c>
+      <c r="AG64">
+        <v>2.7</v>
+      </c>
+      <c r="AH64">
+        <v>1.44</v>
+      </c>
+      <c r="AI64">
+        <v>2.2</v>
+      </c>
+      <c r="AJ64">
+        <v>1.62</v>
+      </c>
+      <c r="AK64">
+        <v>1.28</v>
+      </c>
+      <c r="AL64">
+        <v>1.28</v>
+      </c>
+      <c r="AM64">
+        <v>1.75</v>
+      </c>
+      <c r="AN64">
+        <v>2</v>
+      </c>
+      <c r="AO64">
+        <v>1.33</v>
+      </c>
+      <c r="AP64">
+        <v>2.33</v>
+      </c>
+      <c r="AQ64">
+        <v>1</v>
+      </c>
+      <c r="AR64">
+        <v>1.58</v>
+      </c>
+      <c r="AS64">
+        <v>1.05</v>
+      </c>
+      <c r="AT64">
+        <v>2.63</v>
+      </c>
+      <c r="AU64">
+        <v>3</v>
+      </c>
+      <c r="AV64">
+        <v>6</v>
+      </c>
+      <c r="AW64">
+        <v>5</v>
+      </c>
+      <c r="AX64">
+        <v>9</v>
+      </c>
+      <c r="AY64">
+        <v>8</v>
+      </c>
+      <c r="AZ64">
+        <v>15</v>
+      </c>
+      <c r="BA64">
+        <v>4</v>
+      </c>
+      <c r="BB64">
+        <v>7</v>
+      </c>
+      <c r="BC64">
+        <v>11</v>
+      </c>
+      <c r="BD64">
+        <v>1.66</v>
+      </c>
+      <c r="BE64">
+        <v>7.5</v>
+      </c>
+      <c r="BF64">
+        <v>2.75</v>
+      </c>
+      <c r="BG64">
+        <v>1.26</v>
+      </c>
+      <c r="BH64">
+        <v>3.2</v>
+      </c>
+      <c r="BI64">
+        <v>1.39</v>
+      </c>
+      <c r="BJ64">
+        <v>2.77</v>
+      </c>
+      <c r="BK64">
+        <v>2.2</v>
+      </c>
+      <c r="BL64">
+        <v>1.99</v>
+      </c>
+      <c r="BM64">
+        <v>2.2</v>
+      </c>
+      <c r="BN64">
+        <v>1.6</v>
+      </c>
+      <c r="BO64">
+        <v>2.95</v>
+      </c>
+      <c r="BP64">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7373193</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45448.83333333334</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65" t="s">
+        <v>89</v>
+      </c>
+      <c r="H65" t="s">
+        <v>79</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65" t="s">
+        <v>95</v>
+      </c>
+      <c r="P65" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q65">
+        <v>3</v>
+      </c>
+      <c r="R65">
+        <v>1.91</v>
+      </c>
+      <c r="S65">
+        <v>4.33</v>
+      </c>
+      <c r="T65">
+        <v>1.44</v>
+      </c>
+      <c r="U65">
+        <v>2.63</v>
+      </c>
+      <c r="V65">
+        <v>3.25</v>
+      </c>
+      <c r="W65">
+        <v>1.33</v>
+      </c>
+      <c r="X65">
+        <v>9</v>
+      </c>
+      <c r="Y65">
+        <v>1.07</v>
+      </c>
+      <c r="Z65">
+        <v>2.2</v>
+      </c>
+      <c r="AA65">
+        <v>3.1</v>
+      </c>
+      <c r="AB65">
+        <v>3.7</v>
+      </c>
+      <c r="AC65">
+        <v>1.07</v>
+      </c>
+      <c r="AD65">
+        <v>8</v>
+      </c>
+      <c r="AE65">
+        <v>1.5</v>
+      </c>
+      <c r="AF65">
+        <v>2.5</v>
+      </c>
+      <c r="AG65">
+        <v>2.7</v>
+      </c>
+      <c r="AH65">
+        <v>1.44</v>
+      </c>
+      <c r="AI65">
+        <v>2.1</v>
+      </c>
+      <c r="AJ65">
+        <v>1.67</v>
+      </c>
+      <c r="AK65">
+        <v>1.3</v>
+      </c>
+      <c r="AL65">
+        <v>1.28</v>
+      </c>
+      <c r="AM65">
+        <v>1.7</v>
+      </c>
+      <c r="AN65">
+        <v>0</v>
+      </c>
+      <c r="AO65">
+        <v>0</v>
+      </c>
+      <c r="AP65">
+        <v>0.25</v>
+      </c>
+      <c r="AQ65">
+        <v>0.33</v>
+      </c>
+      <c r="AR65">
+        <v>0.78</v>
+      </c>
+      <c r="AS65">
+        <v>1.31</v>
+      </c>
+      <c r="AT65">
+        <v>2.09</v>
+      </c>
+      <c r="AU65">
+        <v>0</v>
+      </c>
+      <c r="AV65">
+        <v>5</v>
+      </c>
+      <c r="AW65">
+        <v>12</v>
+      </c>
+      <c r="AX65">
+        <v>9</v>
+      </c>
+      <c r="AY65">
+        <v>12</v>
+      </c>
+      <c r="AZ65">
+        <v>14</v>
+      </c>
+      <c r="BA65">
+        <v>4</v>
+      </c>
+      <c r="BB65">
+        <v>3</v>
+      </c>
+      <c r="BC65">
+        <v>7</v>
+      </c>
+      <c r="BD65">
+        <v>1.65</v>
+      </c>
+      <c r="BE65">
+        <v>9.6</v>
+      </c>
+      <c r="BF65">
+        <v>2.78</v>
+      </c>
+      <c r="BG65">
+        <v>1.26</v>
+      </c>
+      <c r="BH65">
+        <v>3.6</v>
+      </c>
+      <c r="BI65">
+        <v>1.48</v>
+      </c>
+      <c r="BJ65">
+        <v>2.55</v>
+      </c>
+      <c r="BK65">
+        <v>2.2</v>
+      </c>
+      <c r="BL65">
+        <v>2</v>
+      </c>
+      <c r="BM65">
+        <v>2.27</v>
+      </c>
+      <c r="BN65">
+        <v>1.59</v>
+      </c>
+      <c r="BO65">
+        <v>2.9</v>
+      </c>
+      <c r="BP65">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14218,16 +14218,16 @@
         <v>5</v>
       </c>
       <c r="AW65">
+        <v>8</v>
+      </c>
+      <c r="AX65">
+        <v>7</v>
+      </c>
+      <c r="AY65">
+        <v>8</v>
+      </c>
+      <c r="AZ65">
         <v>12</v>
-      </c>
-      <c r="AX65">
-        <v>9</v>
-      </c>
-      <c r="AY65">
-        <v>12</v>
-      </c>
-      <c r="AZ65">
-        <v>14</v>
       </c>
       <c r="BA65">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="171">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -421,6 +421,9 @@
     <t>['38']</t>
   </si>
   <si>
+    <t>['63', '65']</t>
+  </si>
+  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -521,6 +524,9 @@
   </si>
   <si>
     <t>['67', '90+2']</t>
+  </si>
+  <si>
+    <t>['16', '23', '35', '46', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -882,7 +888,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP65"/>
+  <dimension ref="A1:BP66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1141,7 +1147,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1347,7 +1353,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1425,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ3">
         <v>0.67</v>
@@ -1553,7 +1559,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -1759,7 +1765,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -1965,7 +1971,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2458,7 +2464,7 @@
         <v>3</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2583,7 +2589,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2789,7 +2795,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -2995,7 +3001,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3201,7 +3207,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -4025,7 +4031,7 @@
         <v>103</v>
       </c>
       <c r="P16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4643,7 +4649,7 @@
         <v>105</v>
       </c>
       <c r="P19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -5548,7 +5554,7 @@
         <v>2</v>
       </c>
       <c r="AQ23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR23">
         <v>1.64</v>
@@ -6291,7 +6297,7 @@
         <v>112</v>
       </c>
       <c r="P27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -6497,7 +6503,7 @@
         <v>113</v>
       </c>
       <c r="P28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6703,7 +6709,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q29">
         <v>3.5</v>
@@ -6909,7 +6915,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7115,7 +7121,7 @@
         <v>95</v>
       </c>
       <c r="P31" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7527,7 +7533,7 @@
         <v>95</v>
       </c>
       <c r="P33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7939,7 +7945,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q35">
         <v>2.25</v>
@@ -8351,7 +8357,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8557,7 +8563,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -8969,7 +8975,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9175,7 +9181,7 @@
         <v>121</v>
       </c>
       <c r="P41" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9793,7 +9799,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -9999,7 +10005,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10205,7 +10211,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10617,7 +10623,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q48">
         <v>2.38</v>
@@ -10823,7 +10829,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11029,7 +11035,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11441,7 +11447,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q52">
         <v>2.38</v>
@@ -11647,7 +11653,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q53">
         <v>2.38</v>
@@ -11853,7 +11859,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -12059,7 +12065,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -12265,7 +12271,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q56">
         <v>2.1</v>
@@ -12677,7 +12683,7 @@
         <v>95</v>
       </c>
       <c r="P58" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12883,7 +12889,7 @@
         <v>117</v>
       </c>
       <c r="P59" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q59">
         <v>5.5</v>
@@ -13089,7 +13095,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q60">
         <v>4.75</v>
@@ -13167,7 +13173,7 @@
         <v>2.33</v>
       </c>
       <c r="AP60">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ60">
         <v>2.5</v>
@@ -13295,7 +13301,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q61">
         <v>2.3</v>
@@ -14276,6 +14282,212 @@
       </c>
       <c r="BP65">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7373234</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45452.66666666666</v>
+      </c>
+      <c r="F66">
+        <v>6</v>
+      </c>
+      <c r="G66" t="s">
+        <v>71</v>
+      </c>
+      <c r="H66" t="s">
+        <v>89</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>3</v>
+      </c>
+      <c r="K66">
+        <v>3</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>5</v>
+      </c>
+      <c r="N66">
+        <v>7</v>
+      </c>
+      <c r="O66" t="s">
+        <v>135</v>
+      </c>
+      <c r="P66" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q66">
+        <v>2.88</v>
+      </c>
+      <c r="R66">
+        <v>1.91</v>
+      </c>
+      <c r="S66">
+        <v>5</v>
+      </c>
+      <c r="T66">
+        <v>1.53</v>
+      </c>
+      <c r="U66">
+        <v>2.38</v>
+      </c>
+      <c r="V66">
+        <v>3.75</v>
+      </c>
+      <c r="W66">
+        <v>1.25</v>
+      </c>
+      <c r="X66">
+        <v>11</v>
+      </c>
+      <c r="Y66">
+        <v>1.05</v>
+      </c>
+      <c r="Z66">
+        <v>2.05</v>
+      </c>
+      <c r="AA66">
+        <v>3.1</v>
+      </c>
+      <c r="AB66">
+        <v>3.25</v>
+      </c>
+      <c r="AC66">
+        <v>1.1</v>
+      </c>
+      <c r="AD66">
+        <v>7.6</v>
+      </c>
+      <c r="AE66">
+        <v>1.5</v>
+      </c>
+      <c r="AF66">
+        <v>2.4</v>
+      </c>
+      <c r="AG66">
+        <v>2.3</v>
+      </c>
+      <c r="AH66">
+        <v>1.55</v>
+      </c>
+      <c r="AI66">
+        <v>2.38</v>
+      </c>
+      <c r="AJ66">
+        <v>1.53</v>
+      </c>
+      <c r="AK66">
+        <v>1.25</v>
+      </c>
+      <c r="AL66">
+        <v>1.28</v>
+      </c>
+      <c r="AM66">
+        <v>1.8</v>
+      </c>
+      <c r="AN66">
+        <v>0.5</v>
+      </c>
+      <c r="AO66">
+        <v>0</v>
+      </c>
+      <c r="AP66">
+        <v>0.33</v>
+      </c>
+      <c r="AQ66">
+        <v>1</v>
+      </c>
+      <c r="AR66">
+        <v>1.13</v>
+      </c>
+      <c r="AS66">
+        <v>0.89</v>
+      </c>
+      <c r="AT66">
+        <v>2.02</v>
+      </c>
+      <c r="AU66">
+        <v>9</v>
+      </c>
+      <c r="AV66">
+        <v>8</v>
+      </c>
+      <c r="AW66">
+        <v>9</v>
+      </c>
+      <c r="AX66">
+        <v>4</v>
+      </c>
+      <c r="AY66">
+        <v>18</v>
+      </c>
+      <c r="AZ66">
+        <v>12</v>
+      </c>
+      <c r="BA66">
+        <v>6</v>
+      </c>
+      <c r="BB66">
+        <v>2</v>
+      </c>
+      <c r="BC66">
+        <v>8</v>
+      </c>
+      <c r="BD66">
+        <v>1.62</v>
+      </c>
+      <c r="BE66">
+        <v>9.5</v>
+      </c>
+      <c r="BF66">
+        <v>2.88</v>
+      </c>
+      <c r="BG66">
+        <v>1.26</v>
+      </c>
+      <c r="BH66">
+        <v>3.7</v>
+      </c>
+      <c r="BI66">
+        <v>1.45</v>
+      </c>
+      <c r="BJ66">
+        <v>2.6</v>
+      </c>
+      <c r="BK66">
+        <v>2.1</v>
+      </c>
+      <c r="BL66">
+        <v>2.05</v>
+      </c>
+      <c r="BM66">
+        <v>2.2</v>
+      </c>
+      <c r="BN66">
+        <v>1.62</v>
+      </c>
+      <c r="BO66">
+        <v>2.85</v>
+      </c>
+      <c r="BP66">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="176">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -424,6 +424,18 @@
     <t>['63', '65']</t>
   </si>
   <si>
+    <t>['66', '90+2']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['25']</t>
+  </si>
+  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -514,9 +526,6 @@
     <t>['42', '69']</t>
   </si>
   <si>
-    <t>['67']</t>
-  </si>
-  <si>
     <t>['60']</t>
   </si>
   <si>
@@ -527,6 +536,12 @@
   </si>
   <si>
     <t>['16', '23', '35', '46', '90+5']</t>
+  </si>
+  <si>
+    <t>['15', '62']</t>
+  </si>
+  <si>
+    <t>['42', '44']</t>
   </si>
 </sst>
 </file>
@@ -888,7 +903,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP66"/>
+  <dimension ref="A1:BP70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1147,7 +1162,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1353,7 +1368,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1559,7 +1574,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -1765,7 +1780,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -1971,7 +1986,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2258,7 +2273,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ7">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2589,7 +2604,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2667,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AQ9">
         <v>2</v>
@@ -2795,7 +2810,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3001,7 +3016,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3207,7 +3222,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3697,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ14">
         <v>0</v>
@@ -3903,10 +3918,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4031,7 +4046,7 @@
         <v>103</v>
       </c>
       <c r="P16" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4649,7 +4664,7 @@
         <v>105</v>
       </c>
       <c r="P19" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -4933,7 +4948,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5345,10 +5360,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ22">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR22">
         <v>1.76</v>
@@ -6297,7 +6312,7 @@
         <v>112</v>
       </c>
       <c r="P27" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -6503,7 +6518,7 @@
         <v>113</v>
       </c>
       <c r="P28" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6581,7 +6596,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ28">
         <v>0.67</v>
@@ -6709,7 +6724,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q29">
         <v>3.5</v>
@@ -6787,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AQ29">
         <v>2</v>
@@ -6915,7 +6930,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7121,7 +7136,7 @@
         <v>95</v>
       </c>
       <c r="P31" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7202,7 +7217,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ31">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR31">
         <v>0</v>
@@ -7533,7 +7548,7 @@
         <v>95</v>
       </c>
       <c r="P33" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7945,7 +7960,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q35">
         <v>2.25</v>
@@ -8026,7 +8041,7 @@
         <v>3</v>
       </c>
       <c r="AQ35">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR35">
         <v>1.46</v>
@@ -8357,7 +8372,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8435,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ37">
         <v>1</v>
@@ -8563,7 +8578,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -8975,7 +8990,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9056,7 +9071,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ40">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR40">
         <v>2.22</v>
@@ -9181,7 +9196,7 @@
         <v>121</v>
       </c>
       <c r="P41" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9259,7 +9274,7 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ41">
         <v>2</v>
@@ -9799,7 +9814,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10005,7 +10020,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10083,7 +10098,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ45">
         <v>1.25</v>
@@ -10211,7 +10226,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10498,7 +10513,7 @@
         <v>2</v>
       </c>
       <c r="AQ47">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR47">
         <v>1.36</v>
@@ -10623,7 +10638,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q48">
         <v>2.38</v>
@@ -10829,7 +10844,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11035,7 +11050,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11113,7 +11128,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AQ50">
         <v>1</v>
@@ -11447,7 +11462,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q52">
         <v>2.38</v>
@@ -11528,7 +11543,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ52">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR52">
         <v>1.51</v>
@@ -11653,7 +11668,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q53">
         <v>2.38</v>
@@ -11859,7 +11874,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -12065,7 +12080,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -12271,7 +12286,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="Q56">
         <v>2.1</v>
@@ -12683,7 +12698,7 @@
         <v>95</v>
       </c>
       <c r="P58" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12889,7 +12904,7 @@
         <v>117</v>
       </c>
       <c r="P59" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q59">
         <v>5.5</v>
@@ -13095,7 +13110,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q60">
         <v>4.75</v>
@@ -13301,7 +13316,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q61">
         <v>2.3</v>
@@ -13997,7 +14012,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ64">
         <v>1</v>
@@ -14206,7 +14221,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ65">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR65">
         <v>0.78</v>
@@ -14331,7 +14346,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14488,6 +14503,830 @@
       </c>
       <c r="BP66">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7373253</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45454.79166666666</v>
+      </c>
+      <c r="F67">
+        <v>8</v>
+      </c>
+      <c r="G67" t="s">
+        <v>77</v>
+      </c>
+      <c r="H67" t="s">
+        <v>75</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>2</v>
+      </c>
+      <c r="M67">
+        <v>2</v>
+      </c>
+      <c r="N67">
+        <v>4</v>
+      </c>
+      <c r="O67" t="s">
+        <v>136</v>
+      </c>
+      <c r="P67" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q67">
+        <v>3.5</v>
+      </c>
+      <c r="R67">
+        <v>1.91</v>
+      </c>
+      <c r="S67">
+        <v>3.75</v>
+      </c>
+      <c r="T67">
+        <v>1.5</v>
+      </c>
+      <c r="U67">
+        <v>2.5</v>
+      </c>
+      <c r="V67">
+        <v>3.5</v>
+      </c>
+      <c r="W67">
+        <v>1.29</v>
+      </c>
+      <c r="X67">
+        <v>11</v>
+      </c>
+      <c r="Y67">
+        <v>1.05</v>
+      </c>
+      <c r="Z67">
+        <v>2.63</v>
+      </c>
+      <c r="AA67">
+        <v>3.1</v>
+      </c>
+      <c r="AB67">
+        <v>2.8</v>
+      </c>
+      <c r="AC67">
+        <v>1.08</v>
+      </c>
+      <c r="AD67">
+        <v>8</v>
+      </c>
+      <c r="AE67">
+        <v>1.44</v>
+      </c>
+      <c r="AF67">
+        <v>2.75</v>
+      </c>
+      <c r="AG67">
+        <v>2.5</v>
+      </c>
+      <c r="AH67">
+        <v>1.5</v>
+      </c>
+      <c r="AI67">
+        <v>2.1</v>
+      </c>
+      <c r="AJ67">
+        <v>1.67</v>
+      </c>
+      <c r="AK67">
+        <v>1.5</v>
+      </c>
+      <c r="AL67">
+        <v>1.3</v>
+      </c>
+      <c r="AM67">
+        <v>1.44</v>
+      </c>
+      <c r="AN67">
+        <v>0</v>
+      </c>
+      <c r="AO67">
+        <v>0</v>
+      </c>
+      <c r="AP67">
+        <v>0.25</v>
+      </c>
+      <c r="AQ67">
+        <v>0.25</v>
+      </c>
+      <c r="AR67">
+        <v>1.17</v>
+      </c>
+      <c r="AS67">
+        <v>1.36</v>
+      </c>
+      <c r="AT67">
+        <v>2.53</v>
+      </c>
+      <c r="AU67">
+        <v>8</v>
+      </c>
+      <c r="AV67">
+        <v>4</v>
+      </c>
+      <c r="AW67">
+        <v>8</v>
+      </c>
+      <c r="AX67">
+        <v>3</v>
+      </c>
+      <c r="AY67">
+        <v>16</v>
+      </c>
+      <c r="AZ67">
+        <v>7</v>
+      </c>
+      <c r="BA67">
+        <v>3</v>
+      </c>
+      <c r="BB67">
+        <v>4</v>
+      </c>
+      <c r="BC67">
+        <v>7</v>
+      </c>
+      <c r="BD67">
+        <v>1.67</v>
+      </c>
+      <c r="BE67">
+        <v>10.5</v>
+      </c>
+      <c r="BF67">
+        <v>2.64</v>
+      </c>
+      <c r="BG67">
+        <v>1.13</v>
+      </c>
+      <c r="BH67">
+        <v>4.75</v>
+      </c>
+      <c r="BI67">
+        <v>1.28</v>
+      </c>
+      <c r="BJ67">
+        <v>3.2</v>
+      </c>
+      <c r="BK67">
+        <v>1.83</v>
+      </c>
+      <c r="BL67">
+        <v>2.34</v>
+      </c>
+      <c r="BM67">
+        <v>1.92</v>
+      </c>
+      <c r="BN67">
+        <v>1.88</v>
+      </c>
+      <c r="BO67">
+        <v>2.41</v>
+      </c>
+      <c r="BP67">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7373254</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45454.79166666666</v>
+      </c>
+      <c r="F68">
+        <v>8</v>
+      </c>
+      <c r="G68" t="s">
+        <v>83</v>
+      </c>
+      <c r="H68" t="s">
+        <v>79</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>2</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>2</v>
+      </c>
+      <c r="O68" t="s">
+        <v>137</v>
+      </c>
+      <c r="P68" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q68">
+        <v>2.63</v>
+      </c>
+      <c r="R68">
+        <v>2</v>
+      </c>
+      <c r="S68">
+        <v>5</v>
+      </c>
+      <c r="T68">
+        <v>1.5</v>
+      </c>
+      <c r="U68">
+        <v>2.5</v>
+      </c>
+      <c r="V68">
+        <v>3.4</v>
+      </c>
+      <c r="W68">
+        <v>1.3</v>
+      </c>
+      <c r="X68">
+        <v>10</v>
+      </c>
+      <c r="Y68">
+        <v>1.06</v>
+      </c>
+      <c r="Z68">
+        <v>1.95</v>
+      </c>
+      <c r="AA68">
+        <v>3.2</v>
+      </c>
+      <c r="AB68">
+        <v>4.5</v>
+      </c>
+      <c r="AC68">
+        <v>1.07</v>
+      </c>
+      <c r="AD68">
+        <v>7</v>
+      </c>
+      <c r="AE68">
+        <v>1.4</v>
+      </c>
+      <c r="AF68">
+        <v>2.7</v>
+      </c>
+      <c r="AG68">
+        <v>2.4</v>
+      </c>
+      <c r="AH68">
+        <v>1.53</v>
+      </c>
+      <c r="AI68">
+        <v>2.1</v>
+      </c>
+      <c r="AJ68">
+        <v>1.67</v>
+      </c>
+      <c r="AK68">
+        <v>1.25</v>
+      </c>
+      <c r="AL68">
+        <v>1.32</v>
+      </c>
+      <c r="AM68">
+        <v>1.83</v>
+      </c>
+      <c r="AN68">
+        <v>2.33</v>
+      </c>
+      <c r="AO68">
+        <v>0.33</v>
+      </c>
+      <c r="AP68">
+        <v>2</v>
+      </c>
+      <c r="AQ68">
+        <v>0.5</v>
+      </c>
+      <c r="AR68">
+        <v>1.39</v>
+      </c>
+      <c r="AS68">
+        <v>1.36</v>
+      </c>
+      <c r="AT68">
+        <v>2.75</v>
+      </c>
+      <c r="AU68">
+        <v>3</v>
+      </c>
+      <c r="AV68">
+        <v>4</v>
+      </c>
+      <c r="AW68">
+        <v>8</v>
+      </c>
+      <c r="AX68">
+        <v>10</v>
+      </c>
+      <c r="AY68">
+        <v>11</v>
+      </c>
+      <c r="AZ68">
+        <v>14</v>
+      </c>
+      <c r="BA68">
+        <v>5</v>
+      </c>
+      <c r="BB68">
+        <v>4</v>
+      </c>
+      <c r="BC68">
+        <v>9</v>
+      </c>
+      <c r="BD68">
+        <v>1.65</v>
+      </c>
+      <c r="BE68">
+        <v>9.6</v>
+      </c>
+      <c r="BF68">
+        <v>2.78</v>
+      </c>
+      <c r="BG68">
+        <v>1.27</v>
+      </c>
+      <c r="BH68">
+        <v>3.28</v>
+      </c>
+      <c r="BI68">
+        <v>1.52</v>
+      </c>
+      <c r="BJ68">
+        <v>2.36</v>
+      </c>
+      <c r="BK68">
+        <v>1.95</v>
+      </c>
+      <c r="BL68">
+        <v>1.85</v>
+      </c>
+      <c r="BM68">
+        <v>2.46</v>
+      </c>
+      <c r="BN68">
+        <v>1.48</v>
+      </c>
+      <c r="BO68">
+        <v>3.34</v>
+      </c>
+      <c r="BP68">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7373249</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45454.83333333334</v>
+      </c>
+      <c r="F69">
+        <v>8</v>
+      </c>
+      <c r="G69" t="s">
+        <v>88</v>
+      </c>
+      <c r="H69" t="s">
+        <v>72</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69" t="s">
+        <v>138</v>
+      </c>
+      <c r="P69" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q69">
+        <v>2.63</v>
+      </c>
+      <c r="R69">
+        <v>2.05</v>
+      </c>
+      <c r="S69">
+        <v>4.5</v>
+      </c>
+      <c r="T69">
+        <v>1.44</v>
+      </c>
+      <c r="U69">
+        <v>2.63</v>
+      </c>
+      <c r="V69">
+        <v>3.25</v>
+      </c>
+      <c r="W69">
+        <v>1.33</v>
+      </c>
+      <c r="X69">
+        <v>9</v>
+      </c>
+      <c r="Y69">
+        <v>1.07</v>
+      </c>
+      <c r="Z69">
+        <v>1.91</v>
+      </c>
+      <c r="AA69">
+        <v>3.3</v>
+      </c>
+      <c r="AB69">
+        <v>4.2</v>
+      </c>
+      <c r="AC69">
+        <v>1.06</v>
+      </c>
+      <c r="AD69">
+        <v>9.5</v>
+      </c>
+      <c r="AE69">
+        <v>1.36</v>
+      </c>
+      <c r="AF69">
+        <v>3.1</v>
+      </c>
+      <c r="AG69">
+        <v>2.08</v>
+      </c>
+      <c r="AH69">
+        <v>1.73</v>
+      </c>
+      <c r="AI69">
+        <v>1.95</v>
+      </c>
+      <c r="AJ69">
+        <v>1.8</v>
+      </c>
+      <c r="AK69">
+        <v>1.36</v>
+      </c>
+      <c r="AL69">
+        <v>1.28</v>
+      </c>
+      <c r="AM69">
+        <v>1.63</v>
+      </c>
+      <c r="AN69">
+        <v>2</v>
+      </c>
+      <c r="AO69">
+        <v>0</v>
+      </c>
+      <c r="AP69">
+        <v>2.25</v>
+      </c>
+      <c r="AQ69">
+        <v>0</v>
+      </c>
+      <c r="AR69">
+        <v>1.64</v>
+      </c>
+      <c r="AS69">
+        <v>1.02</v>
+      </c>
+      <c r="AT69">
+        <v>2.66</v>
+      </c>
+      <c r="AU69">
+        <v>7</v>
+      </c>
+      <c r="AV69">
+        <v>0</v>
+      </c>
+      <c r="AW69">
+        <v>9</v>
+      </c>
+      <c r="AX69">
+        <v>6</v>
+      </c>
+      <c r="AY69">
+        <v>16</v>
+      </c>
+      <c r="AZ69">
+        <v>6</v>
+      </c>
+      <c r="BA69">
+        <v>14</v>
+      </c>
+      <c r="BB69">
+        <v>2</v>
+      </c>
+      <c r="BC69">
+        <v>16</v>
+      </c>
+      <c r="BD69">
+        <v>1.75</v>
+      </c>
+      <c r="BE69">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF69">
+        <v>2.41</v>
+      </c>
+      <c r="BG69">
+        <v>1.25</v>
+      </c>
+      <c r="BH69">
+        <v>3.6</v>
+      </c>
+      <c r="BI69">
+        <v>1.42</v>
+      </c>
+      <c r="BJ69">
+        <v>2.62</v>
+      </c>
+      <c r="BK69">
+        <v>1.91</v>
+      </c>
+      <c r="BL69">
+        <v>2.12</v>
+      </c>
+      <c r="BM69">
+        <v>2.11</v>
+      </c>
+      <c r="BN69">
+        <v>1.71</v>
+      </c>
+      <c r="BO69">
+        <v>2.62</v>
+      </c>
+      <c r="BP69">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7373251</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45454.89583333334</v>
+      </c>
+      <c r="F70">
+        <v>8</v>
+      </c>
+      <c r="G70" t="s">
+        <v>82</v>
+      </c>
+      <c r="H70" t="s">
+        <v>85</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>2</v>
+      </c>
+      <c r="K70">
+        <v>3</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>2</v>
+      </c>
+      <c r="N70">
+        <v>3</v>
+      </c>
+      <c r="O70" t="s">
+        <v>139</v>
+      </c>
+      <c r="P70" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q70">
+        <v>3.25</v>
+      </c>
+      <c r="R70">
+        <v>2</v>
+      </c>
+      <c r="S70">
+        <v>3.75</v>
+      </c>
+      <c r="T70">
+        <v>1.5</v>
+      </c>
+      <c r="U70">
+        <v>2.5</v>
+      </c>
+      <c r="V70">
+        <v>3.3</v>
+      </c>
+      <c r="W70">
+        <v>1.3</v>
+      </c>
+      <c r="X70">
+        <v>8.5</v>
+      </c>
+      <c r="Y70">
+        <v>1.05</v>
+      </c>
+      <c r="Z70">
+        <v>2.45</v>
+      </c>
+      <c r="AA70">
+        <v>3.2</v>
+      </c>
+      <c r="AB70">
+        <v>3</v>
+      </c>
+      <c r="AC70">
+        <v>1.05</v>
+      </c>
+      <c r="AD70">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE70">
+        <v>1.42</v>
+      </c>
+      <c r="AF70">
+        <v>2.85</v>
+      </c>
+      <c r="AG70">
+        <v>2.35</v>
+      </c>
+      <c r="AH70">
+        <v>1.57</v>
+      </c>
+      <c r="AI70">
+        <v>2</v>
+      </c>
+      <c r="AJ70">
+        <v>1.75</v>
+      </c>
+      <c r="AK70">
+        <v>1.5</v>
+      </c>
+      <c r="AL70">
+        <v>1.3</v>
+      </c>
+      <c r="AM70">
+        <v>1.44</v>
+      </c>
+      <c r="AN70">
+        <v>2.33</v>
+      </c>
+      <c r="AO70">
+        <v>1.67</v>
+      </c>
+      <c r="AP70">
+        <v>1.75</v>
+      </c>
+      <c r="AQ70">
+        <v>2</v>
+      </c>
+      <c r="AR70">
+        <v>1.37</v>
+      </c>
+      <c r="AS70">
+        <v>1.39</v>
+      </c>
+      <c r="AT70">
+        <v>2.76</v>
+      </c>
+      <c r="AU70">
+        <v>7</v>
+      </c>
+      <c r="AV70">
+        <v>5</v>
+      </c>
+      <c r="AW70">
+        <v>7</v>
+      </c>
+      <c r="AX70">
+        <v>2</v>
+      </c>
+      <c r="AY70">
+        <v>14</v>
+      </c>
+      <c r="AZ70">
+        <v>7</v>
+      </c>
+      <c r="BA70">
+        <v>8</v>
+      </c>
+      <c r="BB70">
+        <v>5</v>
+      </c>
+      <c r="BC70">
+        <v>13</v>
+      </c>
+      <c r="BD70">
+        <v>1.69</v>
+      </c>
+      <c r="BE70">
+        <v>10.25</v>
+      </c>
+      <c r="BF70">
+        <v>2.48</v>
+      </c>
+      <c r="BG70">
+        <v>1.18</v>
+      </c>
+      <c r="BH70">
+        <v>4.33</v>
+      </c>
+      <c r="BI70">
+        <v>1.33</v>
+      </c>
+      <c r="BJ70">
+        <v>3</v>
+      </c>
+      <c r="BK70">
+        <v>1.66</v>
+      </c>
+      <c r="BL70">
+        <v>2.19</v>
+      </c>
+      <c r="BM70">
+        <v>2.03</v>
+      </c>
+      <c r="BN70">
+        <v>1.76</v>
+      </c>
+      <c r="BO70">
+        <v>2.52</v>
+      </c>
+      <c r="BP70">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="181">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -436,6 +436,21 @@
     <t>['25']</t>
   </si>
   <si>
+    <t>['45+1', '67']</t>
+  </si>
+  <si>
+    <t>['42', '67']</t>
+  </si>
+  <si>
+    <t>['22', '55', '79']</t>
+  </si>
+  <si>
+    <t>['79']</t>
+  </si>
+  <si>
+    <t>['26', '56']</t>
+  </si>
+  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -466,9 +481,6 @@
     <t>['89']</t>
   </si>
   <si>
-    <t>['79']</t>
-  </si>
-  <si>
     <t>['69', '72']</t>
   </si>
   <si>
@@ -542,6 +554,9 @@
   </si>
   <si>
     <t>['42', '44']</t>
+  </si>
+  <si>
+    <t>['90+6']</t>
   </si>
 </sst>
 </file>
@@ -903,7 +918,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP70"/>
+  <dimension ref="A1:BP76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1162,7 +1177,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1240,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ2">
         <v>1.25</v>
@@ -1368,7 +1383,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1574,7 +1589,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -1780,7 +1795,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -1861,7 +1876,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ5">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1986,7 +2001,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2479,7 +2494,7 @@
         <v>3</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2604,7 +2619,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2810,7 +2825,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3016,7 +3031,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3222,7 +3237,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -4046,7 +4061,7 @@
         <v>103</v>
       </c>
       <c r="P16" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4333,7 +4348,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ17">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4536,7 +4551,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ18">
         <v>2</v>
@@ -4664,7 +4679,7 @@
         <v>105</v>
       </c>
       <c r="P19" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -4742,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ19">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5569,7 +5584,7 @@
         <v>2</v>
       </c>
       <c r="AQ23">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR23">
         <v>1.64</v>
@@ -5978,7 +5993,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ25">
         <v>2</v>
@@ -6312,7 +6327,7 @@
         <v>112</v>
       </c>
       <c r="P27" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -6518,7 +6533,7 @@
         <v>113</v>
       </c>
       <c r="P28" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6724,7 +6739,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q29">
         <v>3.5</v>
@@ -6805,7 +6820,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ29">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR29">
         <v>1.21</v>
@@ -6930,7 +6945,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7011,7 +7026,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ30">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR30">
         <v>1.35</v>
@@ -7136,7 +7151,7 @@
         <v>95</v>
       </c>
       <c r="P31" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7548,7 +7563,7 @@
         <v>95</v>
       </c>
       <c r="P33" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7626,7 +7641,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ33">
         <v>1.75</v>
@@ -7960,7 +7975,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q35">
         <v>2.25</v>
@@ -8372,7 +8387,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8578,7 +8593,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -8656,7 +8671,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ38">
         <v>1</v>
@@ -8990,7 +9005,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9196,7 +9211,7 @@
         <v>121</v>
       </c>
       <c r="P41" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9483,7 +9498,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ42">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR42">
         <v>1.3</v>
@@ -9814,7 +9829,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -9895,7 +9910,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ44">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR44">
         <v>1.47</v>
@@ -10020,7 +10035,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10226,7 +10241,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10510,7 +10525,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ47">
         <v>0.25</v>
@@ -10638,7 +10653,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q48">
         <v>2.38</v>
@@ -10716,7 +10731,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -10844,7 +10859,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11050,7 +11065,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11462,7 +11477,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q52">
         <v>2.38</v>
@@ -11668,7 +11683,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q53">
         <v>2.38</v>
@@ -11874,7 +11889,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -12080,7 +12095,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -12698,7 +12713,7 @@
         <v>95</v>
       </c>
       <c r="P58" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12904,7 +12919,7 @@
         <v>117</v>
       </c>
       <c r="P59" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q59">
         <v>5.5</v>
@@ -13110,7 +13125,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q60">
         <v>4.75</v>
@@ -13316,7 +13331,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q61">
         <v>2.3</v>
@@ -14346,7 +14361,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14427,7 +14442,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ66">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR66">
         <v>1.13</v>
@@ -14552,7 +14567,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q67">
         <v>3.5</v>
@@ -15170,7 +15185,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15327,6 +15342,1242 @@
       </c>
       <c r="BP70">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7373246</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45456.79166666666</v>
+      </c>
+      <c r="F71">
+        <v>8</v>
+      </c>
+      <c r="G71" t="s">
+        <v>78</v>
+      </c>
+      <c r="H71" t="s">
+        <v>89</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>3</v>
+      </c>
+      <c r="O71" t="s">
+        <v>140</v>
+      </c>
+      <c r="P71" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q71">
+        <v>2.3</v>
+      </c>
+      <c r="R71">
+        <v>2</v>
+      </c>
+      <c r="S71">
+        <v>7</v>
+      </c>
+      <c r="T71">
+        <v>1.53</v>
+      </c>
+      <c r="U71">
+        <v>2.5</v>
+      </c>
+      <c r="V71">
+        <v>3.5</v>
+      </c>
+      <c r="W71">
+        <v>1.28</v>
+      </c>
+      <c r="X71">
+        <v>10</v>
+      </c>
+      <c r="Y71">
+        <v>1.04</v>
+      </c>
+      <c r="Z71">
+        <v>1.6</v>
+      </c>
+      <c r="AA71">
+        <v>3.6</v>
+      </c>
+      <c r="AB71">
+        <v>7</v>
+      </c>
+      <c r="AC71">
+        <v>1.09</v>
+      </c>
+      <c r="AD71">
+        <v>8</v>
+      </c>
+      <c r="AE71">
+        <v>1.5</v>
+      </c>
+      <c r="AF71">
+        <v>2.5</v>
+      </c>
+      <c r="AG71">
+        <v>2.6</v>
+      </c>
+      <c r="AH71">
+        <v>1.48</v>
+      </c>
+      <c r="AI71">
+        <v>2.5</v>
+      </c>
+      <c r="AJ71">
+        <v>1.5</v>
+      </c>
+      <c r="AK71">
+        <v>1.1</v>
+      </c>
+      <c r="AL71">
+        <v>1.22</v>
+      </c>
+      <c r="AM71">
+        <v>2.4</v>
+      </c>
+      <c r="AN71">
+        <v>3</v>
+      </c>
+      <c r="AO71">
+        <v>1</v>
+      </c>
+      <c r="AP71">
+        <v>3</v>
+      </c>
+      <c r="AQ71">
+        <v>0.75</v>
+      </c>
+      <c r="AR71">
+        <v>1.56</v>
+      </c>
+      <c r="AS71">
+        <v>1.13</v>
+      </c>
+      <c r="AT71">
+        <v>2.69</v>
+      </c>
+      <c r="AU71">
+        <v>7</v>
+      </c>
+      <c r="AV71">
+        <v>6</v>
+      </c>
+      <c r="AW71">
+        <v>5</v>
+      </c>
+      <c r="AX71">
+        <v>5</v>
+      </c>
+      <c r="AY71">
+        <v>12</v>
+      </c>
+      <c r="AZ71">
+        <v>11</v>
+      </c>
+      <c r="BA71">
+        <v>6</v>
+      </c>
+      <c r="BB71">
+        <v>4</v>
+      </c>
+      <c r="BC71">
+        <v>10</v>
+      </c>
+      <c r="BD71">
+        <v>1.29</v>
+      </c>
+      <c r="BE71">
+        <v>11.2</v>
+      </c>
+      <c r="BF71">
+        <v>4.54</v>
+      </c>
+      <c r="BG71">
+        <v>1.25</v>
+      </c>
+      <c r="BH71">
+        <v>3.8</v>
+      </c>
+      <c r="BI71">
+        <v>1.45</v>
+      </c>
+      <c r="BJ71">
+        <v>2.6</v>
+      </c>
+      <c r="BK71">
+        <v>2</v>
+      </c>
+      <c r="BL71">
+        <v>2</v>
+      </c>
+      <c r="BM71">
+        <v>2.2</v>
+      </c>
+      <c r="BN71">
+        <v>1.62</v>
+      </c>
+      <c r="BO71">
+        <v>2.8</v>
+      </c>
+      <c r="BP71">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7373248</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45456.83333333334</v>
+      </c>
+      <c r="F72">
+        <v>8</v>
+      </c>
+      <c r="G72" t="s">
+        <v>87</v>
+      </c>
+      <c r="H72" t="s">
+        <v>81</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>2</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>3</v>
+      </c>
+      <c r="O72" t="s">
+        <v>141</v>
+      </c>
+      <c r="P72" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q72">
+        <v>2.1</v>
+      </c>
+      <c r="R72">
+        <v>2.25</v>
+      </c>
+      <c r="S72">
+        <v>6</v>
+      </c>
+      <c r="T72">
+        <v>1.36</v>
+      </c>
+      <c r="U72">
+        <v>3</v>
+      </c>
+      <c r="V72">
+        <v>2.63</v>
+      </c>
+      <c r="W72">
+        <v>1.44</v>
+      </c>
+      <c r="X72">
+        <v>7</v>
+      </c>
+      <c r="Y72">
+        <v>1.1</v>
+      </c>
+      <c r="Z72">
+        <v>1.55</v>
+      </c>
+      <c r="AA72">
+        <v>4</v>
+      </c>
+      <c r="AB72">
+        <v>6.5</v>
+      </c>
+      <c r="AC72">
+        <v>1.04</v>
+      </c>
+      <c r="AD72">
+        <v>10</v>
+      </c>
+      <c r="AE72">
+        <v>1.25</v>
+      </c>
+      <c r="AF72">
+        <v>3.8</v>
+      </c>
+      <c r="AG72">
+        <v>1.95</v>
+      </c>
+      <c r="AH72">
+        <v>1.85</v>
+      </c>
+      <c r="AI72">
+        <v>2</v>
+      </c>
+      <c r="AJ72">
+        <v>1.75</v>
+      </c>
+      <c r="AK72">
+        <v>1.1</v>
+      </c>
+      <c r="AL72">
+        <v>1.17</v>
+      </c>
+      <c r="AM72">
+        <v>2.7</v>
+      </c>
+      <c r="AN72">
+        <v>2</v>
+      </c>
+      <c r="AO72">
+        <v>0</v>
+      </c>
+      <c r="AP72">
+        <v>2.25</v>
+      </c>
+      <c r="AQ72">
+        <v>0</v>
+      </c>
+      <c r="AR72">
+        <v>1.61</v>
+      </c>
+      <c r="AS72">
+        <v>0.83</v>
+      </c>
+      <c r="AT72">
+        <v>2.44</v>
+      </c>
+      <c r="AU72">
+        <v>7</v>
+      </c>
+      <c r="AV72">
+        <v>6</v>
+      </c>
+      <c r="AW72">
+        <v>8</v>
+      </c>
+      <c r="AX72">
+        <v>6</v>
+      </c>
+      <c r="AY72">
+        <v>15</v>
+      </c>
+      <c r="AZ72">
+        <v>12</v>
+      </c>
+      <c r="BA72">
+        <v>4</v>
+      </c>
+      <c r="BB72">
+        <v>6</v>
+      </c>
+      <c r="BC72">
+        <v>10</v>
+      </c>
+      <c r="BD72">
+        <v>1.38</v>
+      </c>
+      <c r="BE72">
+        <v>11.5</v>
+      </c>
+      <c r="BF72">
+        <v>3.9</v>
+      </c>
+      <c r="BG72">
+        <v>1.12</v>
+      </c>
+      <c r="BH72">
+        <v>5.05</v>
+      </c>
+      <c r="BI72">
+        <v>1.3</v>
+      </c>
+      <c r="BJ72">
+        <v>3.1</v>
+      </c>
+      <c r="BK72">
+        <v>1.91</v>
+      </c>
+      <c r="BL72">
+        <v>2.3</v>
+      </c>
+      <c r="BM72">
+        <v>1.98</v>
+      </c>
+      <c r="BN72">
+        <v>1.82</v>
+      </c>
+      <c r="BO72">
+        <v>2.4</v>
+      </c>
+      <c r="BP72">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7373252</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45456.83333333334</v>
+      </c>
+      <c r="F73">
+        <v>8</v>
+      </c>
+      <c r="G73" t="s">
+        <v>76</v>
+      </c>
+      <c r="H73" t="s">
+        <v>71</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>2</v>
+      </c>
+      <c r="L73">
+        <v>3</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>4</v>
+      </c>
+      <c r="O73" t="s">
+        <v>142</v>
+      </c>
+      <c r="P73" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q73">
+        <v>2</v>
+      </c>
+      <c r="R73">
+        <v>2.25</v>
+      </c>
+      <c r="S73">
+        <v>7.5</v>
+      </c>
+      <c r="T73">
+        <v>1.45</v>
+      </c>
+      <c r="U73">
+        <v>2.75</v>
+      </c>
+      <c r="V73">
+        <v>3.1</v>
+      </c>
+      <c r="W73">
+        <v>1.33</v>
+      </c>
+      <c r="X73">
+        <v>8</v>
+      </c>
+      <c r="Y73">
+        <v>1.06</v>
+      </c>
+      <c r="Z73">
+        <v>1.45</v>
+      </c>
+      <c r="AA73">
+        <v>4.33</v>
+      </c>
+      <c r="AB73">
+        <v>7.5</v>
+      </c>
+      <c r="AC73">
+        <v>1.06</v>
+      </c>
+      <c r="AD73">
+        <v>9.5</v>
+      </c>
+      <c r="AE73">
+        <v>1.36</v>
+      </c>
+      <c r="AF73">
+        <v>3.1</v>
+      </c>
+      <c r="AG73">
+        <v>2</v>
+      </c>
+      <c r="AH73">
+        <v>1.8</v>
+      </c>
+      <c r="AI73">
+        <v>2.2</v>
+      </c>
+      <c r="AJ73">
+        <v>1.62</v>
+      </c>
+      <c r="AK73">
+        <v>1.09</v>
+      </c>
+      <c r="AL73">
+        <v>1.2</v>
+      </c>
+      <c r="AM73">
+        <v>2.6</v>
+      </c>
+      <c r="AN73">
+        <v>3</v>
+      </c>
+      <c r="AO73">
+        <v>2</v>
+      </c>
+      <c r="AP73">
+        <v>3</v>
+      </c>
+      <c r="AQ73">
+        <v>1.33</v>
+      </c>
+      <c r="AR73">
+        <v>1.66</v>
+      </c>
+      <c r="AS73">
+        <v>1.38</v>
+      </c>
+      <c r="AT73">
+        <v>3.04</v>
+      </c>
+      <c r="AU73">
+        <v>8</v>
+      </c>
+      <c r="AV73">
+        <v>5</v>
+      </c>
+      <c r="AW73">
+        <v>10</v>
+      </c>
+      <c r="AX73">
+        <v>5</v>
+      </c>
+      <c r="AY73">
+        <v>18</v>
+      </c>
+      <c r="AZ73">
+        <v>10</v>
+      </c>
+      <c r="BA73">
+        <v>5</v>
+      </c>
+      <c r="BB73">
+        <v>3</v>
+      </c>
+      <c r="BC73">
+        <v>8</v>
+      </c>
+      <c r="BD73">
+        <v>1.38</v>
+      </c>
+      <c r="BE73">
+        <v>11.5</v>
+      </c>
+      <c r="BF73">
+        <v>3.9</v>
+      </c>
+      <c r="BG73">
+        <v>1.2</v>
+      </c>
+      <c r="BH73">
+        <v>4.4</v>
+      </c>
+      <c r="BI73">
+        <v>1.35</v>
+      </c>
+      <c r="BJ73">
+        <v>3</v>
+      </c>
+      <c r="BK73">
+        <v>1.91</v>
+      </c>
+      <c r="BL73">
+        <v>2</v>
+      </c>
+      <c r="BM73">
+        <v>1.98</v>
+      </c>
+      <c r="BN73">
+        <v>1.82</v>
+      </c>
+      <c r="BO73">
+        <v>2.4</v>
+      </c>
+      <c r="BP73">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7373245</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45456.83333333334</v>
+      </c>
+      <c r="F74">
+        <v>8</v>
+      </c>
+      <c r="G74" t="s">
+        <v>70</v>
+      </c>
+      <c r="H74" t="s">
+        <v>73</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74" t="s">
+        <v>95</v>
+      </c>
+      <c r="P74" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q74">
+        <v>3.6</v>
+      </c>
+      <c r="R74">
+        <v>1.83</v>
+      </c>
+      <c r="S74">
+        <v>3.75</v>
+      </c>
+      <c r="T74">
+        <v>1.53</v>
+      </c>
+      <c r="U74">
+        <v>2.38</v>
+      </c>
+      <c r="V74">
+        <v>3.75</v>
+      </c>
+      <c r="W74">
+        <v>1.25</v>
+      </c>
+      <c r="X74">
+        <v>11</v>
+      </c>
+      <c r="Y74">
+        <v>1.05</v>
+      </c>
+      <c r="Z74">
+        <v>2.7</v>
+      </c>
+      <c r="AA74">
+        <v>3.1</v>
+      </c>
+      <c r="AB74">
+        <v>2.8</v>
+      </c>
+      <c r="AC74">
+        <v>1.08</v>
+      </c>
+      <c r="AD74">
+        <v>6.5</v>
+      </c>
+      <c r="AE74">
+        <v>1.5</v>
+      </c>
+      <c r="AF74">
+        <v>2.4</v>
+      </c>
+      <c r="AG74">
+        <v>2.7</v>
+      </c>
+      <c r="AH74">
+        <v>1.44</v>
+      </c>
+      <c r="AI74">
+        <v>2.2</v>
+      </c>
+      <c r="AJ74">
+        <v>1.62</v>
+      </c>
+      <c r="AK74">
+        <v>1.5</v>
+      </c>
+      <c r="AL74">
+        <v>1.36</v>
+      </c>
+      <c r="AM74">
+        <v>1.43</v>
+      </c>
+      <c r="AN74">
+        <v>2</v>
+      </c>
+      <c r="AO74">
+        <v>2</v>
+      </c>
+      <c r="AP74">
+        <v>1.67</v>
+      </c>
+      <c r="AQ74">
+        <v>1.75</v>
+      </c>
+      <c r="AR74">
+        <v>2.08</v>
+      </c>
+      <c r="AS74">
+        <v>1.56</v>
+      </c>
+      <c r="AT74">
+        <v>3.64</v>
+      </c>
+      <c r="AU74">
+        <v>0</v>
+      </c>
+      <c r="AV74">
+        <v>5</v>
+      </c>
+      <c r="AW74">
+        <v>7</v>
+      </c>
+      <c r="AX74">
+        <v>3</v>
+      </c>
+      <c r="AY74">
+        <v>7</v>
+      </c>
+      <c r="AZ74">
+        <v>8</v>
+      </c>
+      <c r="BA74">
+        <v>5</v>
+      </c>
+      <c r="BB74">
+        <v>3</v>
+      </c>
+      <c r="BC74">
+        <v>8</v>
+      </c>
+      <c r="BD74">
+        <v>2.12</v>
+      </c>
+      <c r="BE74">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF74">
+        <v>2.07</v>
+      </c>
+      <c r="BG74">
+        <v>1.36</v>
+      </c>
+      <c r="BH74">
+        <v>2.85</v>
+      </c>
+      <c r="BI74">
+        <v>1.65</v>
+      </c>
+      <c r="BJ74">
+        <v>2.15</v>
+      </c>
+      <c r="BK74">
+        <v>2.05</v>
+      </c>
+      <c r="BL74">
+        <v>1.7</v>
+      </c>
+      <c r="BM74">
+        <v>2.7</v>
+      </c>
+      <c r="BN74">
+        <v>1.42</v>
+      </c>
+      <c r="BO74">
+        <v>3.85</v>
+      </c>
+      <c r="BP74">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7373247</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45456.89583333334</v>
+      </c>
+      <c r="F75">
+        <v>8</v>
+      </c>
+      <c r="G75" t="s">
+        <v>80</v>
+      </c>
+      <c r="H75" t="s">
+        <v>84</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75" t="s">
+        <v>143</v>
+      </c>
+      <c r="P75" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q75">
+        <v>2.75</v>
+      </c>
+      <c r="R75">
+        <v>2.05</v>
+      </c>
+      <c r="S75">
+        <v>4.33</v>
+      </c>
+      <c r="T75">
+        <v>1.44</v>
+      </c>
+      <c r="U75">
+        <v>2.63</v>
+      </c>
+      <c r="V75">
+        <v>3.25</v>
+      </c>
+      <c r="W75">
+        <v>1.33</v>
+      </c>
+      <c r="X75">
+        <v>9</v>
+      </c>
+      <c r="Y75">
+        <v>1.07</v>
+      </c>
+      <c r="Z75">
+        <v>2.05</v>
+      </c>
+      <c r="AA75">
+        <v>3.5</v>
+      </c>
+      <c r="AB75">
+        <v>3.6</v>
+      </c>
+      <c r="AC75">
+        <v>1.07</v>
+      </c>
+      <c r="AD75">
+        <v>10.25</v>
+      </c>
+      <c r="AE75">
+        <v>1.36</v>
+      </c>
+      <c r="AF75">
+        <v>3.15</v>
+      </c>
+      <c r="AG75">
+        <v>2.15</v>
+      </c>
+      <c r="AH75">
+        <v>1.67</v>
+      </c>
+      <c r="AI75">
+        <v>1.95</v>
+      </c>
+      <c r="AJ75">
+        <v>1.8</v>
+      </c>
+      <c r="AK75">
+        <v>1.26</v>
+      </c>
+      <c r="AL75">
+        <v>1.3</v>
+      </c>
+      <c r="AM75">
+        <v>1.86</v>
+      </c>
+      <c r="AN75">
+        <v>3</v>
+      </c>
+      <c r="AO75">
+        <v>2</v>
+      </c>
+      <c r="AP75">
+        <v>3</v>
+      </c>
+      <c r="AQ75">
+        <v>1.33</v>
+      </c>
+      <c r="AR75">
+        <v>1.32</v>
+      </c>
+      <c r="AS75">
+        <v>0.96</v>
+      </c>
+      <c r="AT75">
+        <v>2.28</v>
+      </c>
+      <c r="AU75">
+        <v>4</v>
+      </c>
+      <c r="AV75">
+        <v>7</v>
+      </c>
+      <c r="AW75">
+        <v>6</v>
+      </c>
+      <c r="AX75">
+        <v>8</v>
+      </c>
+      <c r="AY75">
+        <v>10</v>
+      </c>
+      <c r="AZ75">
+        <v>15</v>
+      </c>
+      <c r="BA75">
+        <v>5</v>
+      </c>
+      <c r="BB75">
+        <v>9</v>
+      </c>
+      <c r="BC75">
+        <v>14</v>
+      </c>
+      <c r="BD75">
+        <v>1.51</v>
+      </c>
+      <c r="BE75">
+        <v>10.5</v>
+      </c>
+      <c r="BF75">
+        <v>3.2</v>
+      </c>
+      <c r="BG75">
+        <v>1.2</v>
+      </c>
+      <c r="BH75">
+        <v>3.95</v>
+      </c>
+      <c r="BI75">
+        <v>1.4</v>
+      </c>
+      <c r="BJ75">
+        <v>2.75</v>
+      </c>
+      <c r="BK75">
+        <v>2.1</v>
+      </c>
+      <c r="BL75">
+        <v>2.05</v>
+      </c>
+      <c r="BM75">
+        <v>2.05</v>
+      </c>
+      <c r="BN75">
+        <v>1.7</v>
+      </c>
+      <c r="BO75">
+        <v>2.6</v>
+      </c>
+      <c r="BP75">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7373250</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45456.89583333334</v>
+      </c>
+      <c r="F76">
+        <v>8</v>
+      </c>
+      <c r="G76" t="s">
+        <v>86</v>
+      </c>
+      <c r="H76" t="s">
+        <v>74</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>2</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>2</v>
+      </c>
+      <c r="O76" t="s">
+        <v>144</v>
+      </c>
+      <c r="P76" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q76">
+        <v>2</v>
+      </c>
+      <c r="R76">
+        <v>2.3</v>
+      </c>
+      <c r="S76">
+        <v>7</v>
+      </c>
+      <c r="T76">
+        <v>1.36</v>
+      </c>
+      <c r="U76">
+        <v>3</v>
+      </c>
+      <c r="V76">
+        <v>2.75</v>
+      </c>
+      <c r="W76">
+        <v>1.42</v>
+      </c>
+      <c r="X76">
+        <v>7</v>
+      </c>
+      <c r="Y76">
+        <v>1.09</v>
+      </c>
+      <c r="Z76">
+        <v>1.44</v>
+      </c>
+      <c r="AA76">
+        <v>4.5</v>
+      </c>
+      <c r="AB76">
+        <v>8</v>
+      </c>
+      <c r="AC76">
+        <v>1.04</v>
+      </c>
+      <c r="AD76">
+        <v>12</v>
+      </c>
+      <c r="AE76">
+        <v>1.28</v>
+      </c>
+      <c r="AF76">
+        <v>3.6</v>
+      </c>
+      <c r="AG76">
+        <v>1.9</v>
+      </c>
+      <c r="AH76">
+        <v>1.9</v>
+      </c>
+      <c r="AI76">
+        <v>2.1</v>
+      </c>
+      <c r="AJ76">
+        <v>1.67</v>
+      </c>
+      <c r="AK76">
+        <v>1.07</v>
+      </c>
+      <c r="AL76">
+        <v>1.16</v>
+      </c>
+      <c r="AM76">
+        <v>2.95</v>
+      </c>
+      <c r="AN76">
+        <v>0.33</v>
+      </c>
+      <c r="AO76">
+        <v>0</v>
+      </c>
+      <c r="AP76">
+        <v>1</v>
+      </c>
+      <c r="AQ76">
+        <v>0</v>
+      </c>
+      <c r="AR76">
+        <v>1.45</v>
+      </c>
+      <c r="AS76">
+        <v>1.28</v>
+      </c>
+      <c r="AT76">
+        <v>2.73</v>
+      </c>
+      <c r="AU76">
+        <v>8</v>
+      </c>
+      <c r="AV76">
+        <v>3</v>
+      </c>
+      <c r="AW76">
+        <v>13</v>
+      </c>
+      <c r="AX76">
+        <v>6</v>
+      </c>
+      <c r="AY76">
+        <v>21</v>
+      </c>
+      <c r="AZ76">
+        <v>9</v>
+      </c>
+      <c r="BA76">
+        <v>10</v>
+      </c>
+      <c r="BB76">
+        <v>6</v>
+      </c>
+      <c r="BC76">
+        <v>16</v>
+      </c>
+      <c r="BD76">
+        <v>1.3</v>
+      </c>
+      <c r="BE76">
+        <v>13</v>
+      </c>
+      <c r="BF76">
+        <v>4.48</v>
+      </c>
+      <c r="BG76">
+        <v>1.22</v>
+      </c>
+      <c r="BH76">
+        <v>3.75</v>
+      </c>
+      <c r="BI76">
+        <v>1.45</v>
+      </c>
+      <c r="BJ76">
+        <v>2.6</v>
+      </c>
+      <c r="BK76">
+        <v>2</v>
+      </c>
+      <c r="BL76">
+        <v>2</v>
+      </c>
+      <c r="BM76">
+        <v>2.2</v>
+      </c>
+      <c r="BN76">
+        <v>1.62</v>
+      </c>
+      <c r="BO76">
+        <v>2.88</v>
+      </c>
+      <c r="BP76">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="183">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -451,6 +451,12 @@
     <t>['26', '56']</t>
   </si>
   <si>
+    <t>['2', '82']</t>
+  </si>
+  <si>
+    <t>['41']</t>
+  </si>
+  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -523,9 +529,6 @@
     <t>['45+9', '59']</t>
   </si>
   <si>
-    <t>['41']</t>
-  </si>
-  <si>
     <t>['81']</t>
   </si>
   <si>
@@ -557,6 +560,9 @@
   </si>
   <si>
     <t>['90+6']</t>
+  </si>
+  <si>
+    <t>['71', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -918,7 +924,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP76"/>
+  <dimension ref="A1:BP78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1177,7 +1183,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1383,7 +1389,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1464,7 +1470,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ3">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1589,7 +1595,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -1667,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ4">
         <v>1.25</v>
@@ -1795,7 +1801,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -2001,7 +2007,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2619,7 +2625,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2825,7 +2831,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3031,7 +3037,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3237,7 +3243,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3727,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>0</v>
@@ -4061,7 +4067,7 @@
         <v>103</v>
       </c>
       <c r="P16" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4966,7 +4972,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5169,7 +5175,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ21">
         <v>0</v>
@@ -5375,7 +5381,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
         <v>0.25</v>
@@ -6327,7 +6333,7 @@
         <v>112</v>
       </c>
       <c r="P27" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -6533,7 +6539,7 @@
         <v>113</v>
       </c>
       <c r="P28" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6614,7 +6620,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ28">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR28">
         <v>1.4</v>
@@ -6739,7 +6745,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q29">
         <v>3.5</v>
@@ -6945,7 +6951,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7151,7 +7157,7 @@
         <v>95</v>
       </c>
       <c r="P31" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7563,7 +7569,7 @@
         <v>95</v>
       </c>
       <c r="P33" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7975,7 +7981,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q35">
         <v>2.25</v>
@@ -8387,7 +8393,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8593,7 +8599,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -8674,7 +8680,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR38">
         <v>2.13</v>
@@ -9005,7 +9011,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9083,7 +9089,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ40">
         <v>2</v>
@@ -9289,7 +9295,7 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ41">
         <v>2</v>
@@ -9829,7 +9835,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10035,7 +10041,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10241,7 +10247,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10653,7 +10659,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q48">
         <v>2.38</v>
@@ -10859,7 +10865,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11065,7 +11071,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11477,7 +11483,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q52">
         <v>2.38</v>
@@ -11683,7 +11689,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q53">
         <v>2.38</v>
@@ -11889,7 +11895,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -12095,7 +12101,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -12176,7 +12182,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ55">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR55">
         <v>1.23</v>
@@ -12379,10 +12385,10 @@
         <v>0.5</v>
       </c>
       <c r="AP56">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ56">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR56">
         <v>1.86</v>
@@ -12713,7 +12719,7 @@
         <v>95</v>
       </c>
       <c r="P58" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12919,7 +12925,7 @@
         <v>117</v>
       </c>
       <c r="P59" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q59">
         <v>5.5</v>
@@ -13125,7 +13131,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q60">
         <v>4.75</v>
@@ -13331,7 +13337,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q61">
         <v>2.3</v>
@@ -14030,7 +14036,7 @@
         <v>2</v>
       </c>
       <c r="AQ64">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR64">
         <v>1.58</v>
@@ -14361,7 +14367,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14567,7 +14573,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q67">
         <v>3.5</v>
@@ -15185,7 +15191,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15263,7 +15269,7 @@
         <v>1.67</v>
       </c>
       <c r="AP70">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ70">
         <v>2</v>
@@ -15391,7 +15397,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15597,7 +15603,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q72">
         <v>2.1</v>
@@ -16578,6 +16584,418 @@
       </c>
       <c r="BP76">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7373261</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45458.77083333334</v>
+      </c>
+      <c r="F77">
+        <v>9</v>
+      </c>
+      <c r="G77" t="s">
+        <v>82</v>
+      </c>
+      <c r="H77" t="s">
+        <v>83</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>2</v>
+      </c>
+      <c r="L77">
+        <v>2</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>3</v>
+      </c>
+      <c r="O77" t="s">
+        <v>145</v>
+      </c>
+      <c r="P77" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q77">
+        <v>2.2</v>
+      </c>
+      <c r="R77">
+        <v>2.2</v>
+      </c>
+      <c r="S77">
+        <v>6</v>
+      </c>
+      <c r="T77">
+        <v>1.4</v>
+      </c>
+      <c r="U77">
+        <v>2.75</v>
+      </c>
+      <c r="V77">
+        <v>2.75</v>
+      </c>
+      <c r="W77">
+        <v>1.4</v>
+      </c>
+      <c r="X77">
+        <v>8</v>
+      </c>
+      <c r="Y77">
+        <v>1.08</v>
+      </c>
+      <c r="Z77">
+        <v>1.6</v>
+      </c>
+      <c r="AA77">
+        <v>3.9</v>
+      </c>
+      <c r="AB77">
+        <v>5.75</v>
+      </c>
+      <c r="AC77">
+        <v>1.04</v>
+      </c>
+      <c r="AD77">
+        <v>12</v>
+      </c>
+      <c r="AE77">
+        <v>1.3</v>
+      </c>
+      <c r="AF77">
+        <v>3.5</v>
+      </c>
+      <c r="AG77">
+        <v>2</v>
+      </c>
+      <c r="AH77">
+        <v>1.8</v>
+      </c>
+      <c r="AI77">
+        <v>2</v>
+      </c>
+      <c r="AJ77">
+        <v>1.75</v>
+      </c>
+      <c r="AK77">
+        <v>1.12</v>
+      </c>
+      <c r="AL77">
+        <v>1.18</v>
+      </c>
+      <c r="AM77">
+        <v>2.45</v>
+      </c>
+      <c r="AN77">
+        <v>1.75</v>
+      </c>
+      <c r="AO77">
+        <v>0.67</v>
+      </c>
+      <c r="AP77">
+        <v>2</v>
+      </c>
+      <c r="AQ77">
+        <v>0.5</v>
+      </c>
+      <c r="AR77">
+        <v>1.45</v>
+      </c>
+      <c r="AS77">
+        <v>1.17</v>
+      </c>
+      <c r="AT77">
+        <v>2.62</v>
+      </c>
+      <c r="AU77">
+        <v>3</v>
+      </c>
+      <c r="AV77">
+        <v>7</v>
+      </c>
+      <c r="AW77">
+        <v>1</v>
+      </c>
+      <c r="AX77">
+        <v>5</v>
+      </c>
+      <c r="AY77">
+        <v>4</v>
+      </c>
+      <c r="AZ77">
+        <v>12</v>
+      </c>
+      <c r="BA77">
+        <v>1</v>
+      </c>
+      <c r="BB77">
+        <v>1</v>
+      </c>
+      <c r="BC77">
+        <v>2</v>
+      </c>
+      <c r="BD77">
+        <v>1.41</v>
+      </c>
+      <c r="BE77">
+        <v>11.5</v>
+      </c>
+      <c r="BF77">
+        <v>3.6</v>
+      </c>
+      <c r="BG77">
+        <v>1.2</v>
+      </c>
+      <c r="BH77">
+        <v>3.95</v>
+      </c>
+      <c r="BI77">
+        <v>1.38</v>
+      </c>
+      <c r="BJ77">
+        <v>2.75</v>
+      </c>
+      <c r="BK77">
+        <v>2.1</v>
+      </c>
+      <c r="BL77">
+        <v>2.2</v>
+      </c>
+      <c r="BM77">
+        <v>1.95</v>
+      </c>
+      <c r="BN77">
+        <v>1.73</v>
+      </c>
+      <c r="BO77">
+        <v>2.5</v>
+      </c>
+      <c r="BP77">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7373258</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45458.875</v>
+      </c>
+      <c r="F78">
+        <v>9</v>
+      </c>
+      <c r="G78" t="s">
+        <v>72</v>
+      </c>
+      <c r="H78" t="s">
+        <v>77</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>2</v>
+      </c>
+      <c r="N78">
+        <v>3</v>
+      </c>
+      <c r="O78" t="s">
+        <v>146</v>
+      </c>
+      <c r="P78" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q78">
+        <v>2.63</v>
+      </c>
+      <c r="R78">
+        <v>2.1</v>
+      </c>
+      <c r="S78">
+        <v>4.5</v>
+      </c>
+      <c r="T78">
+        <v>1.4</v>
+      </c>
+      <c r="U78">
+        <v>2.75</v>
+      </c>
+      <c r="V78">
+        <v>2.75</v>
+      </c>
+      <c r="W78">
+        <v>1.4</v>
+      </c>
+      <c r="X78">
+        <v>8</v>
+      </c>
+      <c r="Y78">
+        <v>1.08</v>
+      </c>
+      <c r="Z78">
+        <v>1.95</v>
+      </c>
+      <c r="AA78">
+        <v>3.7</v>
+      </c>
+      <c r="AB78">
+        <v>3.75</v>
+      </c>
+      <c r="AC78">
+        <v>1.04</v>
+      </c>
+      <c r="AD78">
+        <v>12</v>
+      </c>
+      <c r="AE78">
+        <v>1.3</v>
+      </c>
+      <c r="AF78">
+        <v>3.5</v>
+      </c>
+      <c r="AG78">
+        <v>2.08</v>
+      </c>
+      <c r="AH78">
+        <v>1.73</v>
+      </c>
+      <c r="AI78">
+        <v>1.95</v>
+      </c>
+      <c r="AJ78">
+        <v>1.8</v>
+      </c>
+      <c r="AK78">
+        <v>1.18</v>
+      </c>
+      <c r="AL78">
+        <v>1.2</v>
+      </c>
+      <c r="AM78">
+        <v>2.2</v>
+      </c>
+      <c r="AN78">
+        <v>1.5</v>
+      </c>
+      <c r="AO78">
+        <v>1</v>
+      </c>
+      <c r="AP78">
+        <v>1.2</v>
+      </c>
+      <c r="AQ78">
+        <v>1.4</v>
+      </c>
+      <c r="AR78">
+        <v>1.81</v>
+      </c>
+      <c r="AS78">
+        <v>1.21</v>
+      </c>
+      <c r="AT78">
+        <v>3.02</v>
+      </c>
+      <c r="AU78">
+        <v>6</v>
+      </c>
+      <c r="AV78">
+        <v>8</v>
+      </c>
+      <c r="AW78">
+        <v>4</v>
+      </c>
+      <c r="AX78">
+        <v>7</v>
+      </c>
+      <c r="AY78">
+        <v>10</v>
+      </c>
+      <c r="AZ78">
+        <v>15</v>
+      </c>
+      <c r="BA78">
+        <v>3</v>
+      </c>
+      <c r="BB78">
+        <v>3</v>
+      </c>
+      <c r="BC78">
+        <v>6</v>
+      </c>
+      <c r="BD78">
+        <v>1.65</v>
+      </c>
+      <c r="BE78">
+        <v>9.6</v>
+      </c>
+      <c r="BF78">
+        <v>2.78</v>
+      </c>
+      <c r="BG78">
+        <v>1.18</v>
+      </c>
+      <c r="BH78">
+        <v>4.25</v>
+      </c>
+      <c r="BI78">
+        <v>1.34</v>
+      </c>
+      <c r="BJ78">
+        <v>2.95</v>
+      </c>
+      <c r="BK78">
+        <v>2</v>
+      </c>
+      <c r="BL78">
+        <v>2.2</v>
+      </c>
+      <c r="BM78">
+        <v>2</v>
+      </c>
+      <c r="BN78">
+        <v>1.7</v>
+      </c>
+      <c r="BO78">
+        <v>2.5</v>
+      </c>
+      <c r="BP78">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="194">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -457,6 +457,24 @@
     <t>['41']</t>
   </si>
   <si>
+    <t>['8', '90+11']</t>
+  </si>
+  <si>
+    <t>['31', '45+2']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['21']</t>
+  </si>
+  <si>
+    <t>['3', '11', '37', '45+8', '54']</t>
+  </si>
+  <si>
+    <t>['34', '46']</t>
+  </si>
+  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -563,6 +581,21 @@
   </si>
   <si>
     <t>['71', '90+5']</t>
+  </si>
+  <si>
+    <t>['82']</t>
+  </si>
+  <si>
+    <t>['4', '41']</t>
+  </si>
+  <si>
+    <t>['90+9']</t>
+  </si>
+  <si>
+    <t>['10', '57']</t>
+  </si>
+  <si>
+    <t>['56', '72']</t>
   </si>
 </sst>
 </file>
@@ -924,7 +957,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP78"/>
+  <dimension ref="A1:BP85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1183,7 +1216,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1264,7 +1297,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ2">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1389,7 +1422,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1467,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ3">
         <v>0.5</v>
@@ -1595,7 +1628,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -1801,7 +1834,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -1882,7 +1915,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ5">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2007,7 +2040,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2085,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ6">
         <v>0</v>
@@ -2291,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ7">
         <v>2</v>
@@ -2497,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AQ8">
         <v>0.75</v>
@@ -2625,7 +2658,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2706,7 +2739,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ9">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2831,7 +2864,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -2912,7 +2945,7 @@
         <v>3</v>
       </c>
       <c r="AQ10">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3037,7 +3070,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3115,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ11">
         <v>2.5</v>
@@ -3243,7 +3276,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3527,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
         <v>1</v>
@@ -4067,7 +4100,7 @@
         <v>103</v>
       </c>
       <c r="P16" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4560,7 +4593,7 @@
         <v>1</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4766,7 +4799,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ19">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5587,7 +5620,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ23">
         <v>0.75</v>
@@ -6002,7 +6035,7 @@
         <v>1</v>
       </c>
       <c r="AQ25">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR25">
         <v>1.49</v>
@@ -6205,10 +6238,10 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AQ26">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR26">
         <v>2.21</v>
@@ -6333,7 +6366,7 @@
         <v>112</v>
       </c>
       <c r="P27" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -6411,10 +6444,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ27">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR27">
         <v>1.33</v>
@@ -6539,7 +6572,7 @@
         <v>113</v>
       </c>
       <c r="P28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6745,7 +6778,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="Q29">
         <v>3.5</v>
@@ -6826,7 +6859,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ29">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR29">
         <v>1.21</v>
@@ -6951,7 +6984,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7029,7 +7062,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ30">
         <v>1.33</v>
@@ -7157,7 +7190,7 @@
         <v>95</v>
       </c>
       <c r="P31" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7235,7 +7268,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ31">
         <v>2</v>
@@ -7569,7 +7602,7 @@
         <v>95</v>
       </c>
       <c r="P33" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7650,7 +7683,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ33">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR33">
         <v>1.46</v>
@@ -7853,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ34">
         <v>0</v>
@@ -7981,7 +8014,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q35">
         <v>2.25</v>
@@ -8393,7 +8426,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8599,7 +8632,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -9011,7 +9044,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9298,7 +9331,7 @@
         <v>2</v>
       </c>
       <c r="AQ41">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR41">
         <v>1.4</v>
@@ -9501,10 +9534,10 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ42">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR42">
         <v>1.3</v>
@@ -9707,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AQ43">
         <v>0</v>
@@ -9835,7 +9868,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -9913,10 +9946,10 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ44">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR44">
         <v>1.47</v>
@@ -10041,7 +10074,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10122,7 +10155,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ45">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR45">
         <v>1.46</v>
@@ -10247,7 +10280,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10325,7 +10358,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ46">
         <v>2.5</v>
@@ -10659,7 +10692,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q48">
         <v>2.38</v>
@@ -10946,7 +10979,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ49">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR49">
         <v>1.5</v>
@@ -11071,7 +11104,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11483,7 +11516,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q52">
         <v>2.38</v>
@@ -11561,7 +11594,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ52">
         <v>0.5</v>
@@ -11689,7 +11722,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q53">
         <v>2.38</v>
@@ -11895,7 +11928,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -11973,7 +12006,7 @@
         <v>0.67</v>
       </c>
       <c r="AP54">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ54">
         <v>1.25</v>
@@ -12101,7 +12134,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -12179,7 +12212,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ55">
         <v>1.4</v>
@@ -12591,10 +12624,10 @@
         <v>1.5</v>
       </c>
       <c r="AP57">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ57">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR57">
         <v>0.68</v>
@@ -12719,7 +12752,7 @@
         <v>95</v>
       </c>
       <c r="P58" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12797,10 +12830,10 @@
         <v>1.33</v>
       </c>
       <c r="AP58">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ58">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR58">
         <v>1.63</v>
@@ -12925,7 +12958,7 @@
         <v>117</v>
       </c>
       <c r="P59" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q59">
         <v>5.5</v>
@@ -13003,10 +13036,10 @@
         <v>1.67</v>
       </c>
       <c r="AP59">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ59">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR59">
         <v>1.58</v>
@@ -13131,7 +13164,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q60">
         <v>4.75</v>
@@ -13209,7 +13242,7 @@
         <v>2.33</v>
       </c>
       <c r="AP60">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ60">
         <v>2.5</v>
@@ -13337,7 +13370,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Q61">
         <v>2.3</v>
@@ -13418,7 +13451,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ61">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR61">
         <v>1.55</v>
@@ -14239,7 +14272,7 @@
         <v>0</v>
       </c>
       <c r="AP65">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ65">
         <v>0.5</v>
@@ -14367,7 +14400,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14445,7 +14478,7 @@
         <v>0</v>
       </c>
       <c r="AP66">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ66">
         <v>0.75</v>
@@ -14573,7 +14606,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q67">
         <v>3.5</v>
@@ -15191,7 +15224,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15397,7 +15430,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15603,7 +15636,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q72">
         <v>2.1</v>
@@ -15887,7 +15920,7 @@
         <v>2</v>
       </c>
       <c r="AP73">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AQ73">
         <v>1.33</v>
@@ -16096,7 +16129,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ74">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR74">
         <v>2.08</v>
@@ -16302,7 +16335,7 @@
         <v>3</v>
       </c>
       <c r="AQ75">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR75">
         <v>1.32</v>
@@ -16839,7 +16872,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q78">
         <v>2.63</v>
@@ -16996,6 +17029,1448 @@
       </c>
       <c r="BP78">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7373257</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45459.66666666666</v>
+      </c>
+      <c r="F79">
+        <v>9</v>
+      </c>
+      <c r="G79" t="s">
+        <v>79</v>
+      </c>
+      <c r="H79" t="s">
+        <v>70</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>2</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>3</v>
+      </c>
+      <c r="O79" t="s">
+        <v>147</v>
+      </c>
+      <c r="P79" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q79">
+        <v>4</v>
+      </c>
+      <c r="R79">
+        <v>1.91</v>
+      </c>
+      <c r="S79">
+        <v>3.4</v>
+      </c>
+      <c r="T79">
+        <v>1.5</v>
+      </c>
+      <c r="U79">
+        <v>2.5</v>
+      </c>
+      <c r="V79">
+        <v>3.4</v>
+      </c>
+      <c r="W79">
+        <v>1.3</v>
+      </c>
+      <c r="X79">
+        <v>10</v>
+      </c>
+      <c r="Y79">
+        <v>1.06</v>
+      </c>
+      <c r="Z79">
+        <v>3.3</v>
+      </c>
+      <c r="AA79">
+        <v>3.1</v>
+      </c>
+      <c r="AB79">
+        <v>2.3</v>
+      </c>
+      <c r="AC79">
+        <v>1.04</v>
+      </c>
+      <c r="AD79">
+        <v>7.4</v>
+      </c>
+      <c r="AE79">
+        <v>1.53</v>
+      </c>
+      <c r="AF79">
+        <v>2.4</v>
+      </c>
+      <c r="AG79">
+        <v>2.5</v>
+      </c>
+      <c r="AH79">
+        <v>1.47</v>
+      </c>
+      <c r="AI79">
+        <v>2.1</v>
+      </c>
+      <c r="AJ79">
+        <v>1.67</v>
+      </c>
+      <c r="AK79">
+        <v>1.64</v>
+      </c>
+      <c r="AL79">
+        <v>1.34</v>
+      </c>
+      <c r="AM79">
+        <v>1.34</v>
+      </c>
+      <c r="AN79">
+        <v>0.25</v>
+      </c>
+      <c r="AO79">
+        <v>2</v>
+      </c>
+      <c r="AP79">
+        <v>0.8</v>
+      </c>
+      <c r="AQ79">
+        <v>1.5</v>
+      </c>
+      <c r="AR79">
+        <v>1.16</v>
+      </c>
+      <c r="AS79">
+        <v>0.83</v>
+      </c>
+      <c r="AT79">
+        <v>1.99</v>
+      </c>
+      <c r="AU79">
+        <v>5</v>
+      </c>
+      <c r="AV79">
+        <v>6</v>
+      </c>
+      <c r="AW79">
+        <v>5</v>
+      </c>
+      <c r="AX79">
+        <v>8</v>
+      </c>
+      <c r="AY79">
+        <v>10</v>
+      </c>
+      <c r="AZ79">
+        <v>14</v>
+      </c>
+      <c r="BA79">
+        <v>4</v>
+      </c>
+      <c r="BB79">
+        <v>2</v>
+      </c>
+      <c r="BC79">
+        <v>6</v>
+      </c>
+      <c r="BD79">
+        <v>2.15</v>
+      </c>
+      <c r="BE79">
+        <v>8.5</v>
+      </c>
+      <c r="BF79">
+        <v>2.03</v>
+      </c>
+      <c r="BG79">
+        <v>1.27</v>
+      </c>
+      <c r="BH79">
+        <v>3.35</v>
+      </c>
+      <c r="BI79">
+        <v>1.49</v>
+      </c>
+      <c r="BJ79">
+        <v>2.4</v>
+      </c>
+      <c r="BK79">
+        <v>1.95</v>
+      </c>
+      <c r="BL79">
+        <v>1.85</v>
+      </c>
+      <c r="BM79">
+        <v>2.38</v>
+      </c>
+      <c r="BN79">
+        <v>1.5</v>
+      </c>
+      <c r="BO79">
+        <v>3.2</v>
+      </c>
+      <c r="BP79">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7373260</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45459.66666666666</v>
+      </c>
+      <c r="F80">
+        <v>9</v>
+      </c>
+      <c r="G80" t="s">
+        <v>75</v>
+      </c>
+      <c r="H80" t="s">
+        <v>73</v>
+      </c>
+      <c r="I80">
+        <v>2</v>
+      </c>
+      <c r="J80">
+        <v>2</v>
+      </c>
+      <c r="K80">
+        <v>4</v>
+      </c>
+      <c r="L80">
+        <v>2</v>
+      </c>
+      <c r="M80">
+        <v>2</v>
+      </c>
+      <c r="N80">
+        <v>4</v>
+      </c>
+      <c r="O80" t="s">
+        <v>148</v>
+      </c>
+      <c r="P80" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q80">
+        <v>4</v>
+      </c>
+      <c r="R80">
+        <v>1.91</v>
+      </c>
+      <c r="S80">
+        <v>3.25</v>
+      </c>
+      <c r="T80">
+        <v>1.57</v>
+      </c>
+      <c r="U80">
+        <v>2.25</v>
+      </c>
+      <c r="V80">
+        <v>3.75</v>
+      </c>
+      <c r="W80">
+        <v>1.25</v>
+      </c>
+      <c r="X80">
+        <v>11</v>
+      </c>
+      <c r="Y80">
+        <v>1.05</v>
+      </c>
+      <c r="Z80">
+        <v>2.7</v>
+      </c>
+      <c r="AA80">
+        <v>3</v>
+      </c>
+      <c r="AB80">
+        <v>2.7</v>
+      </c>
+      <c r="AC80">
+        <v>1.11</v>
+      </c>
+      <c r="AD80">
+        <v>7.3</v>
+      </c>
+      <c r="AE80">
+        <v>1.5</v>
+      </c>
+      <c r="AF80">
+        <v>2.55</v>
+      </c>
+      <c r="AG80">
+        <v>2.47</v>
+      </c>
+      <c r="AH80">
+        <v>1.48</v>
+      </c>
+      <c r="AI80">
+        <v>2.1</v>
+      </c>
+      <c r="AJ80">
+        <v>1.67</v>
+      </c>
+      <c r="AK80">
+        <v>1.57</v>
+      </c>
+      <c r="AL80">
+        <v>1.33</v>
+      </c>
+      <c r="AM80">
+        <v>1.36</v>
+      </c>
+      <c r="AN80">
+        <v>1.25</v>
+      </c>
+      <c r="AO80">
+        <v>1.75</v>
+      </c>
+      <c r="AP80">
+        <v>1.2</v>
+      </c>
+      <c r="AQ80">
+        <v>1.6</v>
+      </c>
+      <c r="AR80">
+        <v>1.69</v>
+      </c>
+      <c r="AS80">
+        <v>1.42</v>
+      </c>
+      <c r="AT80">
+        <v>3.11</v>
+      </c>
+      <c r="AU80">
+        <v>9</v>
+      </c>
+      <c r="AV80">
+        <v>8</v>
+      </c>
+      <c r="AW80">
+        <v>4</v>
+      </c>
+      <c r="AX80">
+        <v>2</v>
+      </c>
+      <c r="AY80">
+        <v>13</v>
+      </c>
+      <c r="AZ80">
+        <v>10</v>
+      </c>
+      <c r="BA80">
+        <v>9</v>
+      </c>
+      <c r="BB80">
+        <v>5</v>
+      </c>
+      <c r="BC80">
+        <v>14</v>
+      </c>
+      <c r="BD80">
+        <v>2.24</v>
+      </c>
+      <c r="BE80">
+        <v>8.6</v>
+      </c>
+      <c r="BF80">
+        <v>1.95</v>
+      </c>
+      <c r="BG80">
+        <v>1.22</v>
+      </c>
+      <c r="BH80">
+        <v>3.75</v>
+      </c>
+      <c r="BI80">
+        <v>1.41</v>
+      </c>
+      <c r="BJ80">
+        <v>2.63</v>
+      </c>
+      <c r="BK80">
+        <v>2.2</v>
+      </c>
+      <c r="BL80">
+        <v>2</v>
+      </c>
+      <c r="BM80">
+        <v>2.18</v>
+      </c>
+      <c r="BN80">
+        <v>1.6</v>
+      </c>
+      <c r="BO80">
+        <v>2.88</v>
+      </c>
+      <c r="BP80">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7373262</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45459.66666666666</v>
+      </c>
+      <c r="F81">
+        <v>9</v>
+      </c>
+      <c r="G81" t="s">
+        <v>76</v>
+      </c>
+      <c r="H81" t="s">
+        <v>87</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>2</v>
+      </c>
+      <c r="O81" t="s">
+        <v>149</v>
+      </c>
+      <c r="P81" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q81">
+        <v>3.2</v>
+      </c>
+      <c r="R81">
+        <v>2</v>
+      </c>
+      <c r="S81">
+        <v>3.6</v>
+      </c>
+      <c r="T81">
+        <v>1.44</v>
+      </c>
+      <c r="U81">
+        <v>2.63</v>
+      </c>
+      <c r="V81">
+        <v>3.25</v>
+      </c>
+      <c r="W81">
+        <v>1.33</v>
+      </c>
+      <c r="X81">
+        <v>10</v>
+      </c>
+      <c r="Y81">
+        <v>1.06</v>
+      </c>
+      <c r="Z81">
+        <v>2.4</v>
+      </c>
+      <c r="AA81">
+        <v>3.3</v>
+      </c>
+      <c r="AB81">
+        <v>2.8</v>
+      </c>
+      <c r="AC81">
+        <v>1.07</v>
+      </c>
+      <c r="AD81">
+        <v>8</v>
+      </c>
+      <c r="AE81">
+        <v>1.4</v>
+      </c>
+      <c r="AF81">
+        <v>2.9</v>
+      </c>
+      <c r="AG81">
+        <v>2.03</v>
+      </c>
+      <c r="AH81">
+        <v>1.7</v>
+      </c>
+      <c r="AI81">
+        <v>1.95</v>
+      </c>
+      <c r="AJ81">
+        <v>1.8</v>
+      </c>
+      <c r="AK81">
+        <v>1.5</v>
+      </c>
+      <c r="AL81">
+        <v>1.28</v>
+      </c>
+      <c r="AM81">
+        <v>1.42</v>
+      </c>
+      <c r="AN81">
+        <v>3</v>
+      </c>
+      <c r="AO81">
+        <v>2</v>
+      </c>
+      <c r="AP81">
+        <v>2.6</v>
+      </c>
+      <c r="AQ81">
+        <v>1.8</v>
+      </c>
+      <c r="AR81">
+        <v>1.77</v>
+      </c>
+      <c r="AS81">
+        <v>1.8</v>
+      </c>
+      <c r="AT81">
+        <v>3.57</v>
+      </c>
+      <c r="AU81">
+        <v>4</v>
+      </c>
+      <c r="AV81">
+        <v>7</v>
+      </c>
+      <c r="AW81">
+        <v>6</v>
+      </c>
+      <c r="AX81">
+        <v>2</v>
+      </c>
+      <c r="AY81">
+        <v>10</v>
+      </c>
+      <c r="AZ81">
+        <v>9</v>
+      </c>
+      <c r="BA81">
+        <v>5</v>
+      </c>
+      <c r="BB81">
+        <v>9</v>
+      </c>
+      <c r="BC81">
+        <v>14</v>
+      </c>
+      <c r="BD81">
+        <v>1.87</v>
+      </c>
+      <c r="BE81">
+        <v>9</v>
+      </c>
+      <c r="BF81">
+        <v>2.36</v>
+      </c>
+      <c r="BG81">
+        <v>1.15</v>
+      </c>
+      <c r="BH81">
+        <v>4.5</v>
+      </c>
+      <c r="BI81">
+        <v>1.28</v>
+      </c>
+      <c r="BJ81">
+        <v>3.25</v>
+      </c>
+      <c r="BK81">
+        <v>2</v>
+      </c>
+      <c r="BL81">
+        <v>2.35</v>
+      </c>
+      <c r="BM81">
+        <v>1.95</v>
+      </c>
+      <c r="BN81">
+        <v>1.85</v>
+      </c>
+      <c r="BO81">
+        <v>2.35</v>
+      </c>
+      <c r="BP81">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7373255</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45459.77083333334</v>
+      </c>
+      <c r="F82">
+        <v>9</v>
+      </c>
+      <c r="G82" t="s">
+        <v>81</v>
+      </c>
+      <c r="H82" t="s">
+        <v>88</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>2</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>2</v>
+      </c>
+      <c r="N82">
+        <v>3</v>
+      </c>
+      <c r="O82" t="s">
+        <v>150</v>
+      </c>
+      <c r="P82" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q82">
+        <v>4</v>
+      </c>
+      <c r="R82">
+        <v>2</v>
+      </c>
+      <c r="S82">
+        <v>2.88</v>
+      </c>
+      <c r="T82">
+        <v>1.4</v>
+      </c>
+      <c r="U82">
+        <v>2.75</v>
+      </c>
+      <c r="V82">
+        <v>3</v>
+      </c>
+      <c r="W82">
+        <v>1.36</v>
+      </c>
+      <c r="X82">
+        <v>8</v>
+      </c>
+      <c r="Y82">
+        <v>1.08</v>
+      </c>
+      <c r="Z82">
+        <v>3.4</v>
+      </c>
+      <c r="AA82">
+        <v>3.2</v>
+      </c>
+      <c r="AB82">
+        <v>2.2</v>
+      </c>
+      <c r="AC82">
+        <v>1.02</v>
+      </c>
+      <c r="AD82">
+        <v>8.5</v>
+      </c>
+      <c r="AE82">
+        <v>1.3</v>
+      </c>
+      <c r="AF82">
+        <v>3.1</v>
+      </c>
+      <c r="AG82">
+        <v>2.3</v>
+      </c>
+      <c r="AH82">
+        <v>1.6</v>
+      </c>
+      <c r="AI82">
+        <v>1.95</v>
+      </c>
+      <c r="AJ82">
+        <v>1.8</v>
+      </c>
+      <c r="AK82">
+        <v>1.62</v>
+      </c>
+      <c r="AL82">
+        <v>1.32</v>
+      </c>
+      <c r="AM82">
+        <v>1.38</v>
+      </c>
+      <c r="AN82">
+        <v>2</v>
+      </c>
+      <c r="AO82">
+        <v>1.75</v>
+      </c>
+      <c r="AP82">
+        <v>1.5</v>
+      </c>
+      <c r="AQ82">
+        <v>2</v>
+      </c>
+      <c r="AR82">
+        <v>1.31</v>
+      </c>
+      <c r="AS82">
+        <v>0.98</v>
+      </c>
+      <c r="AT82">
+        <v>2.29</v>
+      </c>
+      <c r="AU82">
+        <v>5</v>
+      </c>
+      <c r="AV82">
+        <v>6</v>
+      </c>
+      <c r="AW82">
+        <v>5</v>
+      </c>
+      <c r="AX82">
+        <v>5</v>
+      </c>
+      <c r="AY82">
+        <v>10</v>
+      </c>
+      <c r="AZ82">
+        <v>11</v>
+      </c>
+      <c r="BA82">
+        <v>7</v>
+      </c>
+      <c r="BB82">
+        <v>4</v>
+      </c>
+      <c r="BC82">
+        <v>11</v>
+      </c>
+      <c r="BD82">
+        <v>1.87</v>
+      </c>
+      <c r="BE82">
+        <v>9</v>
+      </c>
+      <c r="BF82">
+        <v>2.36</v>
+      </c>
+      <c r="BG82">
+        <v>1.22</v>
+      </c>
+      <c r="BH82">
+        <v>3.75</v>
+      </c>
+      <c r="BI82">
+        <v>1.41</v>
+      </c>
+      <c r="BJ82">
+        <v>2.63</v>
+      </c>
+      <c r="BK82">
+        <v>2.2</v>
+      </c>
+      <c r="BL82">
+        <v>2</v>
+      </c>
+      <c r="BM82">
+        <v>2.18</v>
+      </c>
+      <c r="BN82">
+        <v>1.6</v>
+      </c>
+      <c r="BO82">
+        <v>2.88</v>
+      </c>
+      <c r="BP82">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7373259</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45459.77083333334</v>
+      </c>
+      <c r="F83">
+        <v>9</v>
+      </c>
+      <c r="G83" t="s">
+        <v>74</v>
+      </c>
+      <c r="H83" t="s">
+        <v>78</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83" t="s">
+        <v>95</v>
+      </c>
+      <c r="P83" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q83">
+        <v>3.5</v>
+      </c>
+      <c r="R83">
+        <v>1.95</v>
+      </c>
+      <c r="S83">
+        <v>3.5</v>
+      </c>
+      <c r="T83">
+        <v>1.5</v>
+      </c>
+      <c r="U83">
+        <v>2.5</v>
+      </c>
+      <c r="V83">
+        <v>3.4</v>
+      </c>
+      <c r="W83">
+        <v>1.3</v>
+      </c>
+      <c r="X83">
+        <v>10</v>
+      </c>
+      <c r="Y83">
+        <v>1.06</v>
+      </c>
+      <c r="Z83">
+        <v>2.63</v>
+      </c>
+      <c r="AA83">
+        <v>3.2</v>
+      </c>
+      <c r="AB83">
+        <v>2.7</v>
+      </c>
+      <c r="AC83">
+        <v>1.05</v>
+      </c>
+      <c r="AD83">
+        <v>7.2</v>
+      </c>
+      <c r="AE83">
+        <v>1.39</v>
+      </c>
+      <c r="AF83">
+        <v>2.68</v>
+      </c>
+      <c r="AG83">
+        <v>2.4</v>
+      </c>
+      <c r="AH83">
+        <v>1.53</v>
+      </c>
+      <c r="AI83">
+        <v>2</v>
+      </c>
+      <c r="AJ83">
+        <v>1.75</v>
+      </c>
+      <c r="AK83">
+        <v>1.45</v>
+      </c>
+      <c r="AL83">
+        <v>1.3</v>
+      </c>
+      <c r="AM83">
+        <v>1.52</v>
+      </c>
+      <c r="AN83">
+        <v>1.5</v>
+      </c>
+      <c r="AO83">
+        <v>1</v>
+      </c>
+      <c r="AP83">
+        <v>1.4</v>
+      </c>
+      <c r="AQ83">
+        <v>1</v>
+      </c>
+      <c r="AR83">
+        <v>1.32</v>
+      </c>
+      <c r="AS83">
+        <v>1.21</v>
+      </c>
+      <c r="AT83">
+        <v>2.53</v>
+      </c>
+      <c r="AU83">
+        <v>5</v>
+      </c>
+      <c r="AV83">
+        <v>3</v>
+      </c>
+      <c r="AW83">
+        <v>7</v>
+      </c>
+      <c r="AX83">
+        <v>3</v>
+      </c>
+      <c r="AY83">
+        <v>12</v>
+      </c>
+      <c r="AZ83">
+        <v>6</v>
+      </c>
+      <c r="BA83">
+        <v>5</v>
+      </c>
+      <c r="BB83">
+        <v>5</v>
+      </c>
+      <c r="BC83">
+        <v>10</v>
+      </c>
+      <c r="BD83">
+        <v>2.08</v>
+      </c>
+      <c r="BE83">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF83">
+        <v>2.08</v>
+      </c>
+      <c r="BG83">
+        <v>1.22</v>
+      </c>
+      <c r="BH83">
+        <v>3.75</v>
+      </c>
+      <c r="BI83">
+        <v>1.41</v>
+      </c>
+      <c r="BJ83">
+        <v>2.63</v>
+      </c>
+      <c r="BK83">
+        <v>2</v>
+      </c>
+      <c r="BL83">
+        <v>2</v>
+      </c>
+      <c r="BM83">
+        <v>2.18</v>
+      </c>
+      <c r="BN83">
+        <v>1.6</v>
+      </c>
+      <c r="BO83">
+        <v>2.88</v>
+      </c>
+      <c r="BP83">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7373263</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45459.77083333334</v>
+      </c>
+      <c r="F84">
+        <v>9</v>
+      </c>
+      <c r="G84" t="s">
+        <v>89</v>
+      </c>
+      <c r="H84" t="s">
+        <v>84</v>
+      </c>
+      <c r="I84">
+        <v>4</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>4</v>
+      </c>
+      <c r="L84">
+        <v>5</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>5</v>
+      </c>
+      <c r="O84" t="s">
+        <v>151</v>
+      </c>
+      <c r="P84" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q84">
+        <v>4</v>
+      </c>
+      <c r="R84">
+        <v>1.83</v>
+      </c>
+      <c r="S84">
+        <v>3.5</v>
+      </c>
+      <c r="T84">
+        <v>1.57</v>
+      </c>
+      <c r="U84">
+        <v>2.25</v>
+      </c>
+      <c r="V84">
+        <v>3.75</v>
+      </c>
+      <c r="W84">
+        <v>1.25</v>
+      </c>
+      <c r="X84">
+        <v>13</v>
+      </c>
+      <c r="Y84">
+        <v>1.04</v>
+      </c>
+      <c r="Z84">
+        <v>3.2</v>
+      </c>
+      <c r="AA84">
+        <v>2.75</v>
+      </c>
+      <c r="AB84">
+        <v>2.63</v>
+      </c>
+      <c r="AC84">
+        <v>1.12</v>
+      </c>
+      <c r="AD84">
+        <v>6.5</v>
+      </c>
+      <c r="AE84">
+        <v>1.53</v>
+      </c>
+      <c r="AF84">
+        <v>2.37</v>
+      </c>
+      <c r="AG84">
+        <v>2.88</v>
+      </c>
+      <c r="AH84">
+        <v>1.4</v>
+      </c>
+      <c r="AI84">
+        <v>2.2</v>
+      </c>
+      <c r="AJ84">
+        <v>1.62</v>
+      </c>
+      <c r="AK84">
+        <v>1.47</v>
+      </c>
+      <c r="AL84">
+        <v>1.35</v>
+      </c>
+      <c r="AM84">
+        <v>1.42</v>
+      </c>
+      <c r="AN84">
+        <v>0.25</v>
+      </c>
+      <c r="AO84">
+        <v>1.33</v>
+      </c>
+      <c r="AP84">
+        <v>0.8</v>
+      </c>
+      <c r="AQ84">
+        <v>1</v>
+      </c>
+      <c r="AR84">
+        <v>0.8</v>
+      </c>
+      <c r="AS84">
+        <v>1.25</v>
+      </c>
+      <c r="AT84">
+        <v>2.05</v>
+      </c>
+      <c r="AU84">
+        <v>14</v>
+      </c>
+      <c r="AV84">
+        <v>0</v>
+      </c>
+      <c r="AW84">
+        <v>5</v>
+      </c>
+      <c r="AX84">
+        <v>3</v>
+      </c>
+      <c r="AY84">
+        <v>19</v>
+      </c>
+      <c r="AZ84">
+        <v>3</v>
+      </c>
+      <c r="BA84">
+        <v>5</v>
+      </c>
+      <c r="BB84">
+        <v>1</v>
+      </c>
+      <c r="BC84">
+        <v>6</v>
+      </c>
+      <c r="BD84">
+        <v>1.9</v>
+      </c>
+      <c r="BE84">
+        <v>9.1</v>
+      </c>
+      <c r="BF84">
+        <v>2.28</v>
+      </c>
+      <c r="BG84">
+        <v>1.18</v>
+      </c>
+      <c r="BH84">
+        <v>4.25</v>
+      </c>
+      <c r="BI84">
+        <v>1.34</v>
+      </c>
+      <c r="BJ84">
+        <v>2.95</v>
+      </c>
+      <c r="BK84">
+        <v>2.1</v>
+      </c>
+      <c r="BL84">
+        <v>2.17</v>
+      </c>
+      <c r="BM84">
+        <v>2</v>
+      </c>
+      <c r="BN84">
+        <v>1.73</v>
+      </c>
+      <c r="BO84">
+        <v>2.6</v>
+      </c>
+      <c r="BP84">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7373264</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45459.77083333334</v>
+      </c>
+      <c r="F85">
+        <v>9</v>
+      </c>
+      <c r="G85" t="s">
+        <v>71</v>
+      </c>
+      <c r="H85" t="s">
+        <v>80</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>2</v>
+      </c>
+      <c r="M85">
+        <v>2</v>
+      </c>
+      <c r="N85">
+        <v>4</v>
+      </c>
+      <c r="O85" t="s">
+        <v>152</v>
+      </c>
+      <c r="P85" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q85">
+        <v>4</v>
+      </c>
+      <c r="R85">
+        <v>2.1</v>
+      </c>
+      <c r="S85">
+        <v>2.75</v>
+      </c>
+      <c r="T85">
+        <v>1.44</v>
+      </c>
+      <c r="U85">
+        <v>2.63</v>
+      </c>
+      <c r="V85">
+        <v>3.25</v>
+      </c>
+      <c r="W85">
+        <v>1.33</v>
+      </c>
+      <c r="X85">
+        <v>9</v>
+      </c>
+      <c r="Y85">
+        <v>1.07</v>
+      </c>
+      <c r="Z85">
+        <v>3.75</v>
+      </c>
+      <c r="AA85">
+        <v>3.25</v>
+      </c>
+      <c r="AB85">
+        <v>2.1</v>
+      </c>
+      <c r="AC85">
+        <v>1.07</v>
+      </c>
+      <c r="AD85">
+        <v>9.5</v>
+      </c>
+      <c r="AE85">
+        <v>1.36</v>
+      </c>
+      <c r="AF85">
+        <v>3.1</v>
+      </c>
+      <c r="AG85">
+        <v>2.08</v>
+      </c>
+      <c r="AH85">
+        <v>1.73</v>
+      </c>
+      <c r="AI85">
+        <v>1.8</v>
+      </c>
+      <c r="AJ85">
+        <v>1.95</v>
+      </c>
+      <c r="AK85">
+        <v>1.55</v>
+      </c>
+      <c r="AL85">
+        <v>1.3</v>
+      </c>
+      <c r="AM85">
+        <v>1.42</v>
+      </c>
+      <c r="AN85">
+        <v>0.33</v>
+      </c>
+      <c r="AO85">
+        <v>1.25</v>
+      </c>
+      <c r="AP85">
+        <v>0.5</v>
+      </c>
+      <c r="AQ85">
+        <v>1.2</v>
+      </c>
+      <c r="AR85">
+        <v>1.49</v>
+      </c>
+      <c r="AS85">
+        <v>1.23</v>
+      </c>
+      <c r="AT85">
+        <v>2.72</v>
+      </c>
+      <c r="AU85">
+        <v>6</v>
+      </c>
+      <c r="AV85">
+        <v>7</v>
+      </c>
+      <c r="AW85">
+        <v>6</v>
+      </c>
+      <c r="AX85">
+        <v>10</v>
+      </c>
+      <c r="AY85">
+        <v>12</v>
+      </c>
+      <c r="AZ85">
+        <v>17</v>
+      </c>
+      <c r="BA85">
+        <v>6</v>
+      </c>
+      <c r="BB85">
+        <v>7</v>
+      </c>
+      <c r="BC85">
+        <v>13</v>
+      </c>
+      <c r="BD85">
+        <v>2.4</v>
+      </c>
+      <c r="BE85">
+        <v>8.9</v>
+      </c>
+      <c r="BF85">
+        <v>1.85</v>
+      </c>
+      <c r="BG85">
+        <v>1.2</v>
+      </c>
+      <c r="BH85">
+        <v>3.95</v>
+      </c>
+      <c r="BI85">
+        <v>1.38</v>
+      </c>
+      <c r="BJ85">
+        <v>2.75</v>
+      </c>
+      <c r="BK85">
+        <v>2.1</v>
+      </c>
+      <c r="BL85">
+        <v>2</v>
+      </c>
+      <c r="BM85">
+        <v>2.05</v>
+      </c>
+      <c r="BN85">
+        <v>1.7</v>
+      </c>
+      <c r="BO85">
+        <v>2.7</v>
+      </c>
+      <c r="BP85">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="195">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -421,6 +421,60 @@
     <t>['38']</t>
   </si>
   <si>
+    <t>['63', '65']</t>
+  </si>
+  <si>
+    <t>['66', '90+2']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['25']</t>
+  </si>
+  <si>
+    <t>['45+1', '67']</t>
+  </si>
+  <si>
+    <t>['42', '67']</t>
+  </si>
+  <si>
+    <t>['22', '55', '79']</t>
+  </si>
+  <si>
+    <t>['79']</t>
+  </si>
+  <si>
+    <t>['26', '56']</t>
+  </si>
+  <si>
+    <t>['2', '82']</t>
+  </si>
+  <si>
+    <t>['41']</t>
+  </si>
+  <si>
+    <t>['8', '90+11']</t>
+  </si>
+  <si>
+    <t>['31', '45+2']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['21']</t>
+  </si>
+  <si>
+    <t>['3', '11', '37', '45+10', '54']</t>
+  </si>
+  <si>
+    <t>['34', '46']</t>
+  </si>
+  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -451,9 +505,6 @@
     <t>['89']</t>
   </si>
   <si>
-    <t>['79']</t>
-  </si>
-  <si>
     <t>['69', '72']</t>
   </si>
   <si>
@@ -496,9 +547,6 @@
     <t>['45+9', '59']</t>
   </si>
   <si>
-    <t>['41']</t>
-  </si>
-  <si>
     <t>['81']</t>
   </si>
   <si>
@@ -511,9 +559,6 @@
     <t>['42', '69']</t>
   </si>
   <si>
-    <t>['67']</t>
-  </si>
-  <si>
     <t>['60']</t>
   </si>
   <si>
@@ -521,6 +566,39 @@
   </si>
   <si>
     <t>['67', '90+2']</t>
+  </si>
+  <si>
+    <t>['16', '23', '35', '46', '90+5']</t>
+  </si>
+  <si>
+    <t>['15', '62']</t>
+  </si>
+  <si>
+    <t>['42', '44']</t>
+  </si>
+  <si>
+    <t>['90+6']</t>
+  </si>
+  <si>
+    <t>['71', '90+5']</t>
+  </si>
+  <si>
+    <t>['82']</t>
+  </si>
+  <si>
+    <t>['4', '41']</t>
+  </si>
+  <si>
+    <t>['90+9']</t>
+  </si>
+  <si>
+    <t>['10', '57']</t>
+  </si>
+  <si>
+    <t>['56', '72']</t>
+  </si>
+  <si>
+    <t>['25', '60', '61', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -882,7 +960,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP65"/>
+  <dimension ref="A1:BP86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1141,7 +1219,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1219,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ2">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1347,7 +1425,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1428,7 +1506,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ3">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1553,7 +1631,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -1631,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ4">
         <v>1.25</v>
@@ -1759,7 +1837,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -1840,7 +1918,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1965,7 +2043,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2043,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ6">
         <v>0</v>
@@ -2249,10 +2327,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ7">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2455,10 +2533,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2583,7 +2661,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2661,10 +2739,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AQ9">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2789,7 +2867,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -2870,7 +2948,7 @@
         <v>3</v>
       </c>
       <c r="AQ10">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2995,7 +3073,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3073,10 +3151,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ11">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3201,7 +3279,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3485,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
         <v>1</v>
@@ -3691,7 +3769,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>0</v>
@@ -3897,10 +3975,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4025,7 +4103,7 @@
         <v>103</v>
       </c>
       <c r="P16" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4309,10 +4387,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ17">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4515,10 +4593,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4643,7 +4721,7 @@
         <v>105</v>
       </c>
       <c r="P19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -4721,10 +4799,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ19">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4927,10 +5005,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5133,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ21">
         <v>0</v>
@@ -5339,10 +5417,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR22">
         <v>1.76</v>
@@ -5545,10 +5623,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ23">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR23">
         <v>1.64</v>
@@ -5751,7 +5829,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -5957,10 +6035,10 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ25">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR25">
         <v>1.49</v>
@@ -6163,10 +6241,10 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AQ26">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR26">
         <v>2.21</v>
@@ -6291,7 +6369,7 @@
         <v>112</v>
       </c>
       <c r="P27" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -6369,10 +6447,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ27">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR27">
         <v>1.33</v>
@@ -6497,7 +6575,7 @@
         <v>113</v>
       </c>
       <c r="P28" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6575,10 +6653,10 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ28">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR28">
         <v>1.4</v>
@@ -6703,7 +6781,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="Q29">
         <v>3.5</v>
@@ -6781,10 +6859,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AQ29">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR29">
         <v>1.21</v>
@@ -6909,7 +6987,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -6987,10 +7065,10 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ30">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR30">
         <v>1.35</v>
@@ -7115,7 +7193,7 @@
         <v>95</v>
       </c>
       <c r="P31" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7193,10 +7271,10 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ31">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR31">
         <v>0</v>
@@ -7527,7 +7605,7 @@
         <v>95</v>
       </c>
       <c r="P33" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7605,10 +7683,10 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ33">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR33">
         <v>1.46</v>
@@ -7811,7 +7889,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ34">
         <v>0</v>
@@ -7939,7 +8017,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="Q35">
         <v>2.25</v>
@@ -8020,7 +8098,7 @@
         <v>3</v>
       </c>
       <c r="AQ35">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR35">
         <v>1.46</v>
@@ -8351,7 +8429,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8429,7 +8507,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ37">
         <v>1</v>
@@ -8557,7 +8635,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -8635,10 +8713,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR38">
         <v>2.13</v>
@@ -8844,7 +8922,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ39">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR39">
         <v>1.75</v>
@@ -8969,7 +9047,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9047,10 +9125,10 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ40">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR40">
         <v>2.22</v>
@@ -9175,7 +9253,7 @@
         <v>121</v>
       </c>
       <c r="P41" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9253,10 +9331,10 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ41">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR41">
         <v>1.4</v>
@@ -9459,10 +9537,10 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR42">
         <v>1.3</v>
@@ -9665,7 +9743,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AQ43">
         <v>0</v>
@@ -9793,7 +9871,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -9871,10 +9949,10 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ44">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR44">
         <v>1.47</v>
@@ -9999,7 +10077,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10077,10 +10155,10 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ45">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR45">
         <v>1.46</v>
@@ -10205,7 +10283,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10283,10 +10361,10 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ46">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR46">
         <v>0.52</v>
@@ -10489,10 +10567,10 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ47">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR47">
         <v>1.36</v>
@@ -10617,7 +10695,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="Q48">
         <v>2.38</v>
@@ -10695,7 +10773,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -10823,7 +10901,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -10904,7 +10982,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ49">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR49">
         <v>1.5</v>
@@ -11029,7 +11107,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11107,7 +11185,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AQ50">
         <v>1</v>
@@ -11441,7 +11519,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="Q52">
         <v>2.38</v>
@@ -11519,10 +11597,10 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ52">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR52">
         <v>1.51</v>
@@ -11647,7 +11725,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="Q53">
         <v>2.38</v>
@@ -11853,7 +11931,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -11931,7 +12009,7 @@
         <v>0.67</v>
       </c>
       <c r="AP54">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ54">
         <v>1.25</v>
@@ -12059,7 +12137,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -12137,10 +12215,10 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ55">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR55">
         <v>1.23</v>
@@ -12265,7 +12343,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="Q56">
         <v>2.1</v>
@@ -12343,10 +12421,10 @@
         <v>0.5</v>
       </c>
       <c r="AP56">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ56">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR56">
         <v>1.86</v>
@@ -12549,10 +12627,10 @@
         <v>1.5</v>
       </c>
       <c r="AP57">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ57">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR57">
         <v>0.68</v>
@@ -12677,7 +12755,7 @@
         <v>95</v>
       </c>
       <c r="P58" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12755,10 +12833,10 @@
         <v>1.33</v>
       </c>
       <c r="AP58">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ58">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR58">
         <v>1.63</v>
@@ -12883,7 +12961,7 @@
         <v>117</v>
       </c>
       <c r="P59" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="Q59">
         <v>5.5</v>
@@ -12961,10 +13039,10 @@
         <v>1.67</v>
       </c>
       <c r="AP59">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ59">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR59">
         <v>1.58</v>
@@ -13089,7 +13167,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="Q60">
         <v>4.75</v>
@@ -13170,7 +13248,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ60">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR60">
         <v>0.99</v>
@@ -13295,7 +13373,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="Q61">
         <v>2.3</v>
@@ -13373,10 +13451,10 @@
         <v>1.33</v>
       </c>
       <c r="AP61">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ61">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR61">
         <v>1.55</v>
@@ -13991,10 +14069,10 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ64">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR64">
         <v>1.58</v>
@@ -14197,10 +14275,10 @@
         <v>0</v>
       </c>
       <c r="AP65">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ65">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR65">
         <v>0.78</v>
@@ -14218,16 +14296,16 @@
         <v>5</v>
       </c>
       <c r="AW65">
+        <v>8</v>
+      </c>
+      <c r="AX65">
+        <v>7</v>
+      </c>
+      <c r="AY65">
+        <v>8</v>
+      </c>
+      <c r="AZ65">
         <v>12</v>
-      </c>
-      <c r="AX65">
-        <v>9</v>
-      </c>
-      <c r="AY65">
-        <v>12</v>
-      </c>
-      <c r="AZ65">
-        <v>14</v>
       </c>
       <c r="BA65">
         <v>4</v>
@@ -14276,6 +14354,4332 @@
       </c>
       <c r="BP65">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7373234</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45452.66666666666</v>
+      </c>
+      <c r="F66">
+        <v>6</v>
+      </c>
+      <c r="G66" t="s">
+        <v>71</v>
+      </c>
+      <c r="H66" t="s">
+        <v>89</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>3</v>
+      </c>
+      <c r="K66">
+        <v>3</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>5</v>
+      </c>
+      <c r="N66">
+        <v>7</v>
+      </c>
+      <c r="O66" t="s">
+        <v>135</v>
+      </c>
+      <c r="P66" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q66">
+        <v>2.88</v>
+      </c>
+      <c r="R66">
+        <v>1.91</v>
+      </c>
+      <c r="S66">
+        <v>5</v>
+      </c>
+      <c r="T66">
+        <v>1.53</v>
+      </c>
+      <c r="U66">
+        <v>2.38</v>
+      </c>
+      <c r="V66">
+        <v>3.75</v>
+      </c>
+      <c r="W66">
+        <v>1.25</v>
+      </c>
+      <c r="X66">
+        <v>11</v>
+      </c>
+      <c r="Y66">
+        <v>1.05</v>
+      </c>
+      <c r="Z66">
+        <v>2.05</v>
+      </c>
+      <c r="AA66">
+        <v>3.1</v>
+      </c>
+      <c r="AB66">
+        <v>3.25</v>
+      </c>
+      <c r="AC66">
+        <v>1.1</v>
+      </c>
+      <c r="AD66">
+        <v>7.6</v>
+      </c>
+      <c r="AE66">
+        <v>1.5</v>
+      </c>
+      <c r="AF66">
+        <v>2.4</v>
+      </c>
+      <c r="AG66">
+        <v>2.3</v>
+      </c>
+      <c r="AH66">
+        <v>1.55</v>
+      </c>
+      <c r="AI66">
+        <v>2.38</v>
+      </c>
+      <c r="AJ66">
+        <v>1.53</v>
+      </c>
+      <c r="AK66">
+        <v>1.25</v>
+      </c>
+      <c r="AL66">
+        <v>1.28</v>
+      </c>
+      <c r="AM66">
+        <v>1.8</v>
+      </c>
+      <c r="AN66">
+        <v>0.5</v>
+      </c>
+      <c r="AO66">
+        <v>0</v>
+      </c>
+      <c r="AP66">
+        <v>0.5</v>
+      </c>
+      <c r="AQ66">
+        <v>0.75</v>
+      </c>
+      <c r="AR66">
+        <v>1.13</v>
+      </c>
+      <c r="AS66">
+        <v>0.89</v>
+      </c>
+      <c r="AT66">
+        <v>2.02</v>
+      </c>
+      <c r="AU66">
+        <v>9</v>
+      </c>
+      <c r="AV66">
+        <v>8</v>
+      </c>
+      <c r="AW66">
+        <v>9</v>
+      </c>
+      <c r="AX66">
+        <v>4</v>
+      </c>
+      <c r="AY66">
+        <v>18</v>
+      </c>
+      <c r="AZ66">
+        <v>12</v>
+      </c>
+      <c r="BA66">
+        <v>6</v>
+      </c>
+      <c r="BB66">
+        <v>2</v>
+      </c>
+      <c r="BC66">
+        <v>8</v>
+      </c>
+      <c r="BD66">
+        <v>1.62</v>
+      </c>
+      <c r="BE66">
+        <v>9.5</v>
+      </c>
+      <c r="BF66">
+        <v>2.88</v>
+      </c>
+      <c r="BG66">
+        <v>1.26</v>
+      </c>
+      <c r="BH66">
+        <v>3.7</v>
+      </c>
+      <c r="BI66">
+        <v>1.45</v>
+      </c>
+      <c r="BJ66">
+        <v>2.6</v>
+      </c>
+      <c r="BK66">
+        <v>2.1</v>
+      </c>
+      <c r="BL66">
+        <v>2.05</v>
+      </c>
+      <c r="BM66">
+        <v>2.2</v>
+      </c>
+      <c r="BN66">
+        <v>1.62</v>
+      </c>
+      <c r="BO66">
+        <v>2.85</v>
+      </c>
+      <c r="BP66">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7373253</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45454.79166666666</v>
+      </c>
+      <c r="F67">
+        <v>8</v>
+      </c>
+      <c r="G67" t="s">
+        <v>77</v>
+      </c>
+      <c r="H67" t="s">
+        <v>75</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>2</v>
+      </c>
+      <c r="M67">
+        <v>2</v>
+      </c>
+      <c r="N67">
+        <v>4</v>
+      </c>
+      <c r="O67" t="s">
+        <v>136</v>
+      </c>
+      <c r="P67" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q67">
+        <v>3.5</v>
+      </c>
+      <c r="R67">
+        <v>1.91</v>
+      </c>
+      <c r="S67">
+        <v>3.75</v>
+      </c>
+      <c r="T67">
+        <v>1.5</v>
+      </c>
+      <c r="U67">
+        <v>2.5</v>
+      </c>
+      <c r="V67">
+        <v>3.5</v>
+      </c>
+      <c r="W67">
+        <v>1.29</v>
+      </c>
+      <c r="X67">
+        <v>11</v>
+      </c>
+      <c r="Y67">
+        <v>1.05</v>
+      </c>
+      <c r="Z67">
+        <v>2.63</v>
+      </c>
+      <c r="AA67">
+        <v>3.1</v>
+      </c>
+      <c r="AB67">
+        <v>2.8</v>
+      </c>
+      <c r="AC67">
+        <v>1.08</v>
+      </c>
+      <c r="AD67">
+        <v>8</v>
+      </c>
+      <c r="AE67">
+        <v>1.44</v>
+      </c>
+      <c r="AF67">
+        <v>2.75</v>
+      </c>
+      <c r="AG67">
+        <v>2.5</v>
+      </c>
+      <c r="AH67">
+        <v>1.5</v>
+      </c>
+      <c r="AI67">
+        <v>2.1</v>
+      </c>
+      <c r="AJ67">
+        <v>1.67</v>
+      </c>
+      <c r="AK67">
+        <v>1.5</v>
+      </c>
+      <c r="AL67">
+        <v>1.3</v>
+      </c>
+      <c r="AM67">
+        <v>1.44</v>
+      </c>
+      <c r="AN67">
+        <v>0</v>
+      </c>
+      <c r="AO67">
+        <v>0</v>
+      </c>
+      <c r="AP67">
+        <v>0.25</v>
+      </c>
+      <c r="AQ67">
+        <v>0.25</v>
+      </c>
+      <c r="AR67">
+        <v>1.17</v>
+      </c>
+      <c r="AS67">
+        <v>1.36</v>
+      </c>
+      <c r="AT67">
+        <v>2.53</v>
+      </c>
+      <c r="AU67">
+        <v>8</v>
+      </c>
+      <c r="AV67">
+        <v>4</v>
+      </c>
+      <c r="AW67">
+        <v>8</v>
+      </c>
+      <c r="AX67">
+        <v>3</v>
+      </c>
+      <c r="AY67">
+        <v>16</v>
+      </c>
+      <c r="AZ67">
+        <v>7</v>
+      </c>
+      <c r="BA67">
+        <v>3</v>
+      </c>
+      <c r="BB67">
+        <v>4</v>
+      </c>
+      <c r="BC67">
+        <v>7</v>
+      </c>
+      <c r="BD67">
+        <v>1.67</v>
+      </c>
+      <c r="BE67">
+        <v>10.5</v>
+      </c>
+      <c r="BF67">
+        <v>2.64</v>
+      </c>
+      <c r="BG67">
+        <v>1.13</v>
+      </c>
+      <c r="BH67">
+        <v>4.75</v>
+      </c>
+      <c r="BI67">
+        <v>1.28</v>
+      </c>
+      <c r="BJ67">
+        <v>3.2</v>
+      </c>
+      <c r="BK67">
+        <v>1.83</v>
+      </c>
+      <c r="BL67">
+        <v>2.34</v>
+      </c>
+      <c r="BM67">
+        <v>1.92</v>
+      </c>
+      <c r="BN67">
+        <v>1.88</v>
+      </c>
+      <c r="BO67">
+        <v>2.41</v>
+      </c>
+      <c r="BP67">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7373254</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45454.79166666666</v>
+      </c>
+      <c r="F68">
+        <v>8</v>
+      </c>
+      <c r="G68" t="s">
+        <v>83</v>
+      </c>
+      <c r="H68" t="s">
+        <v>79</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>2</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>2</v>
+      </c>
+      <c r="O68" t="s">
+        <v>137</v>
+      </c>
+      <c r="P68" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q68">
+        <v>2.63</v>
+      </c>
+      <c r="R68">
+        <v>2</v>
+      </c>
+      <c r="S68">
+        <v>5</v>
+      </c>
+      <c r="T68">
+        <v>1.5</v>
+      </c>
+      <c r="U68">
+        <v>2.5</v>
+      </c>
+      <c r="V68">
+        <v>3.4</v>
+      </c>
+      <c r="W68">
+        <v>1.3</v>
+      </c>
+      <c r="X68">
+        <v>10</v>
+      </c>
+      <c r="Y68">
+        <v>1.06</v>
+      </c>
+      <c r="Z68">
+        <v>1.95</v>
+      </c>
+      <c r="AA68">
+        <v>3.2</v>
+      </c>
+      <c r="AB68">
+        <v>4.5</v>
+      </c>
+      <c r="AC68">
+        <v>1.07</v>
+      </c>
+      <c r="AD68">
+        <v>7</v>
+      </c>
+      <c r="AE68">
+        <v>1.4</v>
+      </c>
+      <c r="AF68">
+        <v>2.7</v>
+      </c>
+      <c r="AG68">
+        <v>2.4</v>
+      </c>
+      <c r="AH68">
+        <v>1.53</v>
+      </c>
+      <c r="AI68">
+        <v>2.1</v>
+      </c>
+      <c r="AJ68">
+        <v>1.67</v>
+      </c>
+      <c r="AK68">
+        <v>1.25</v>
+      </c>
+      <c r="AL68">
+        <v>1.32</v>
+      </c>
+      <c r="AM68">
+        <v>1.83</v>
+      </c>
+      <c r="AN68">
+        <v>2.33</v>
+      </c>
+      <c r="AO68">
+        <v>0.33</v>
+      </c>
+      <c r="AP68">
+        <v>2</v>
+      </c>
+      <c r="AQ68">
+        <v>0.5</v>
+      </c>
+      <c r="AR68">
+        <v>1.39</v>
+      </c>
+      <c r="AS68">
+        <v>1.36</v>
+      </c>
+      <c r="AT68">
+        <v>2.75</v>
+      </c>
+      <c r="AU68">
+        <v>3</v>
+      </c>
+      <c r="AV68">
+        <v>4</v>
+      </c>
+      <c r="AW68">
+        <v>8</v>
+      </c>
+      <c r="AX68">
+        <v>10</v>
+      </c>
+      <c r="AY68">
+        <v>11</v>
+      </c>
+      <c r="AZ68">
+        <v>14</v>
+      </c>
+      <c r="BA68">
+        <v>5</v>
+      </c>
+      <c r="BB68">
+        <v>4</v>
+      </c>
+      <c r="BC68">
+        <v>9</v>
+      </c>
+      <c r="BD68">
+        <v>1.65</v>
+      </c>
+      <c r="BE68">
+        <v>9.6</v>
+      </c>
+      <c r="BF68">
+        <v>2.78</v>
+      </c>
+      <c r="BG68">
+        <v>1.27</v>
+      </c>
+      <c r="BH68">
+        <v>3.28</v>
+      </c>
+      <c r="BI68">
+        <v>1.52</v>
+      </c>
+      <c r="BJ68">
+        <v>2.36</v>
+      </c>
+      <c r="BK68">
+        <v>1.95</v>
+      </c>
+      <c r="BL68">
+        <v>1.85</v>
+      </c>
+      <c r="BM68">
+        <v>2.46</v>
+      </c>
+      <c r="BN68">
+        <v>1.48</v>
+      </c>
+      <c r="BO68">
+        <v>3.34</v>
+      </c>
+      <c r="BP68">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7373249</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45454.83333333334</v>
+      </c>
+      <c r="F69">
+        <v>8</v>
+      </c>
+      <c r="G69" t="s">
+        <v>88</v>
+      </c>
+      <c r="H69" t="s">
+        <v>72</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69" t="s">
+        <v>138</v>
+      </c>
+      <c r="P69" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q69">
+        <v>2.63</v>
+      </c>
+      <c r="R69">
+        <v>2.05</v>
+      </c>
+      <c r="S69">
+        <v>4.5</v>
+      </c>
+      <c r="T69">
+        <v>1.44</v>
+      </c>
+      <c r="U69">
+        <v>2.63</v>
+      </c>
+      <c r="V69">
+        <v>3.25</v>
+      </c>
+      <c r="W69">
+        <v>1.33</v>
+      </c>
+      <c r="X69">
+        <v>9</v>
+      </c>
+      <c r="Y69">
+        <v>1.07</v>
+      </c>
+      <c r="Z69">
+        <v>1.91</v>
+      </c>
+      <c r="AA69">
+        <v>3.3</v>
+      </c>
+      <c r="AB69">
+        <v>4.2</v>
+      </c>
+      <c r="AC69">
+        <v>1.06</v>
+      </c>
+      <c r="AD69">
+        <v>9.5</v>
+      </c>
+      <c r="AE69">
+        <v>1.36</v>
+      </c>
+      <c r="AF69">
+        <v>3.1</v>
+      </c>
+      <c r="AG69">
+        <v>2.08</v>
+      </c>
+      <c r="AH69">
+        <v>1.73</v>
+      </c>
+      <c r="AI69">
+        <v>1.95</v>
+      </c>
+      <c r="AJ69">
+        <v>1.8</v>
+      </c>
+      <c r="AK69">
+        <v>1.36</v>
+      </c>
+      <c r="AL69">
+        <v>1.28</v>
+      </c>
+      <c r="AM69">
+        <v>1.63</v>
+      </c>
+      <c r="AN69">
+        <v>2</v>
+      </c>
+      <c r="AO69">
+        <v>0</v>
+      </c>
+      <c r="AP69">
+        <v>2.25</v>
+      </c>
+      <c r="AQ69">
+        <v>0</v>
+      </c>
+      <c r="AR69">
+        <v>1.64</v>
+      </c>
+      <c r="AS69">
+        <v>1.02</v>
+      </c>
+      <c r="AT69">
+        <v>2.66</v>
+      </c>
+      <c r="AU69">
+        <v>7</v>
+      </c>
+      <c r="AV69">
+        <v>0</v>
+      </c>
+      <c r="AW69">
+        <v>9</v>
+      </c>
+      <c r="AX69">
+        <v>6</v>
+      </c>
+      <c r="AY69">
+        <v>16</v>
+      </c>
+      <c r="AZ69">
+        <v>6</v>
+      </c>
+      <c r="BA69">
+        <v>14</v>
+      </c>
+      <c r="BB69">
+        <v>2</v>
+      </c>
+      <c r="BC69">
+        <v>16</v>
+      </c>
+      <c r="BD69">
+        <v>1.75</v>
+      </c>
+      <c r="BE69">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF69">
+        <v>2.41</v>
+      </c>
+      <c r="BG69">
+        <v>1.25</v>
+      </c>
+      <c r="BH69">
+        <v>3.6</v>
+      </c>
+      <c r="BI69">
+        <v>1.42</v>
+      </c>
+      <c r="BJ69">
+        <v>2.62</v>
+      </c>
+      <c r="BK69">
+        <v>1.91</v>
+      </c>
+      <c r="BL69">
+        <v>2.12</v>
+      </c>
+      <c r="BM69">
+        <v>2.11</v>
+      </c>
+      <c r="BN69">
+        <v>1.71</v>
+      </c>
+      <c r="BO69">
+        <v>2.62</v>
+      </c>
+      <c r="BP69">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7373251</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45454.89583333334</v>
+      </c>
+      <c r="F70">
+        <v>8</v>
+      </c>
+      <c r="G70" t="s">
+        <v>82</v>
+      </c>
+      <c r="H70" t="s">
+        <v>85</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>2</v>
+      </c>
+      <c r="K70">
+        <v>3</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>2</v>
+      </c>
+      <c r="N70">
+        <v>3</v>
+      </c>
+      <c r="O70" t="s">
+        <v>139</v>
+      </c>
+      <c r="P70" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q70">
+        <v>3.25</v>
+      </c>
+      <c r="R70">
+        <v>2</v>
+      </c>
+      <c r="S70">
+        <v>3.75</v>
+      </c>
+      <c r="T70">
+        <v>1.5</v>
+      </c>
+      <c r="U70">
+        <v>2.5</v>
+      </c>
+      <c r="V70">
+        <v>3.3</v>
+      </c>
+      <c r="W70">
+        <v>1.3</v>
+      </c>
+      <c r="X70">
+        <v>8.5</v>
+      </c>
+      <c r="Y70">
+        <v>1.05</v>
+      </c>
+      <c r="Z70">
+        <v>2.45</v>
+      </c>
+      <c r="AA70">
+        <v>3.2</v>
+      </c>
+      <c r="AB70">
+        <v>3</v>
+      </c>
+      <c r="AC70">
+        <v>1.05</v>
+      </c>
+      <c r="AD70">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE70">
+        <v>1.42</v>
+      </c>
+      <c r="AF70">
+        <v>2.85</v>
+      </c>
+      <c r="AG70">
+        <v>2.35</v>
+      </c>
+      <c r="AH70">
+        <v>1.57</v>
+      </c>
+      <c r="AI70">
+        <v>2</v>
+      </c>
+      <c r="AJ70">
+        <v>1.75</v>
+      </c>
+      <c r="AK70">
+        <v>1.5</v>
+      </c>
+      <c r="AL70">
+        <v>1.3</v>
+      </c>
+      <c r="AM70">
+        <v>1.44</v>
+      </c>
+      <c r="AN70">
+        <v>2.33</v>
+      </c>
+      <c r="AO70">
+        <v>1.67</v>
+      </c>
+      <c r="AP70">
+        <v>2</v>
+      </c>
+      <c r="AQ70">
+        <v>2</v>
+      </c>
+      <c r="AR70">
+        <v>1.37</v>
+      </c>
+      <c r="AS70">
+        <v>1.39</v>
+      </c>
+      <c r="AT70">
+        <v>2.76</v>
+      </c>
+      <c r="AU70">
+        <v>7</v>
+      </c>
+      <c r="AV70">
+        <v>5</v>
+      </c>
+      <c r="AW70">
+        <v>7</v>
+      </c>
+      <c r="AX70">
+        <v>2</v>
+      </c>
+      <c r="AY70">
+        <v>14</v>
+      </c>
+      <c r="AZ70">
+        <v>7</v>
+      </c>
+      <c r="BA70">
+        <v>8</v>
+      </c>
+      <c r="BB70">
+        <v>5</v>
+      </c>
+      <c r="BC70">
+        <v>13</v>
+      </c>
+      <c r="BD70">
+        <v>1.69</v>
+      </c>
+      <c r="BE70">
+        <v>10.25</v>
+      </c>
+      <c r="BF70">
+        <v>2.48</v>
+      </c>
+      <c r="BG70">
+        <v>1.18</v>
+      </c>
+      <c r="BH70">
+        <v>4.33</v>
+      </c>
+      <c r="BI70">
+        <v>1.33</v>
+      </c>
+      <c r="BJ70">
+        <v>3</v>
+      </c>
+      <c r="BK70">
+        <v>1.66</v>
+      </c>
+      <c r="BL70">
+        <v>2.19</v>
+      </c>
+      <c r="BM70">
+        <v>2.03</v>
+      </c>
+      <c r="BN70">
+        <v>1.76</v>
+      </c>
+      <c r="BO70">
+        <v>2.52</v>
+      </c>
+      <c r="BP70">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7373246</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45456.79166666666</v>
+      </c>
+      <c r="F71">
+        <v>8</v>
+      </c>
+      <c r="G71" t="s">
+        <v>78</v>
+      </c>
+      <c r="H71" t="s">
+        <v>89</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>3</v>
+      </c>
+      <c r="O71" t="s">
+        <v>140</v>
+      </c>
+      <c r="P71" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q71">
+        <v>2.3</v>
+      </c>
+      <c r="R71">
+        <v>2</v>
+      </c>
+      <c r="S71">
+        <v>7</v>
+      </c>
+      <c r="T71">
+        <v>1.53</v>
+      </c>
+      <c r="U71">
+        <v>2.5</v>
+      </c>
+      <c r="V71">
+        <v>3.5</v>
+      </c>
+      <c r="W71">
+        <v>1.28</v>
+      </c>
+      <c r="X71">
+        <v>10</v>
+      </c>
+      <c r="Y71">
+        <v>1.04</v>
+      </c>
+      <c r="Z71">
+        <v>1.6</v>
+      </c>
+      <c r="AA71">
+        <v>3.6</v>
+      </c>
+      <c r="AB71">
+        <v>7</v>
+      </c>
+      <c r="AC71">
+        <v>1.09</v>
+      </c>
+      <c r="AD71">
+        <v>8</v>
+      </c>
+      <c r="AE71">
+        <v>1.5</v>
+      </c>
+      <c r="AF71">
+        <v>2.5</v>
+      </c>
+      <c r="AG71">
+        <v>2.6</v>
+      </c>
+      <c r="AH71">
+        <v>1.48</v>
+      </c>
+      <c r="AI71">
+        <v>2.5</v>
+      </c>
+      <c r="AJ71">
+        <v>1.5</v>
+      </c>
+      <c r="AK71">
+        <v>1.1</v>
+      </c>
+      <c r="AL71">
+        <v>1.22</v>
+      </c>
+      <c r="AM71">
+        <v>2.4</v>
+      </c>
+      <c r="AN71">
+        <v>3</v>
+      </c>
+      <c r="AO71">
+        <v>1</v>
+      </c>
+      <c r="AP71">
+        <v>3</v>
+      </c>
+      <c r="AQ71">
+        <v>0.75</v>
+      </c>
+      <c r="AR71">
+        <v>1.56</v>
+      </c>
+      <c r="AS71">
+        <v>1.13</v>
+      </c>
+      <c r="AT71">
+        <v>2.69</v>
+      </c>
+      <c r="AU71">
+        <v>7</v>
+      </c>
+      <c r="AV71">
+        <v>6</v>
+      </c>
+      <c r="AW71">
+        <v>5</v>
+      </c>
+      <c r="AX71">
+        <v>5</v>
+      </c>
+      <c r="AY71">
+        <v>12</v>
+      </c>
+      <c r="AZ71">
+        <v>11</v>
+      </c>
+      <c r="BA71">
+        <v>6</v>
+      </c>
+      <c r="BB71">
+        <v>4</v>
+      </c>
+      <c r="BC71">
+        <v>10</v>
+      </c>
+      <c r="BD71">
+        <v>1.29</v>
+      </c>
+      <c r="BE71">
+        <v>11.2</v>
+      </c>
+      <c r="BF71">
+        <v>4.54</v>
+      </c>
+      <c r="BG71">
+        <v>1.25</v>
+      </c>
+      <c r="BH71">
+        <v>3.8</v>
+      </c>
+      <c r="BI71">
+        <v>1.45</v>
+      </c>
+      <c r="BJ71">
+        <v>2.6</v>
+      </c>
+      <c r="BK71">
+        <v>2</v>
+      </c>
+      <c r="BL71">
+        <v>2</v>
+      </c>
+      <c r="BM71">
+        <v>2.2</v>
+      </c>
+      <c r="BN71">
+        <v>1.62</v>
+      </c>
+      <c r="BO71">
+        <v>2.8</v>
+      </c>
+      <c r="BP71">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7373248</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45456.83333333334</v>
+      </c>
+      <c r="F72">
+        <v>8</v>
+      </c>
+      <c r="G72" t="s">
+        <v>87</v>
+      </c>
+      <c r="H72" t="s">
+        <v>81</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>2</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>3</v>
+      </c>
+      <c r="O72" t="s">
+        <v>141</v>
+      </c>
+      <c r="P72" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q72">
+        <v>2.1</v>
+      </c>
+      <c r="R72">
+        <v>2.25</v>
+      </c>
+      <c r="S72">
+        <v>6</v>
+      </c>
+      <c r="T72">
+        <v>1.36</v>
+      </c>
+      <c r="U72">
+        <v>3</v>
+      </c>
+      <c r="V72">
+        <v>2.63</v>
+      </c>
+      <c r="W72">
+        <v>1.44</v>
+      </c>
+      <c r="X72">
+        <v>7</v>
+      </c>
+      <c r="Y72">
+        <v>1.1</v>
+      </c>
+      <c r="Z72">
+        <v>1.55</v>
+      </c>
+      <c r="AA72">
+        <v>4</v>
+      </c>
+      <c r="AB72">
+        <v>6.5</v>
+      </c>
+      <c r="AC72">
+        <v>1.04</v>
+      </c>
+      <c r="AD72">
+        <v>10</v>
+      </c>
+      <c r="AE72">
+        <v>1.25</v>
+      </c>
+      <c r="AF72">
+        <v>3.8</v>
+      </c>
+      <c r="AG72">
+        <v>1.95</v>
+      </c>
+      <c r="AH72">
+        <v>1.85</v>
+      </c>
+      <c r="AI72">
+        <v>2</v>
+      </c>
+      <c r="AJ72">
+        <v>1.75</v>
+      </c>
+      <c r="AK72">
+        <v>1.1</v>
+      </c>
+      <c r="AL72">
+        <v>1.17</v>
+      </c>
+      <c r="AM72">
+        <v>2.7</v>
+      </c>
+      <c r="AN72">
+        <v>2</v>
+      </c>
+      <c r="AO72">
+        <v>0</v>
+      </c>
+      <c r="AP72">
+        <v>2.25</v>
+      </c>
+      <c r="AQ72">
+        <v>0</v>
+      </c>
+      <c r="AR72">
+        <v>1.61</v>
+      </c>
+      <c r="AS72">
+        <v>0.83</v>
+      </c>
+      <c r="AT72">
+        <v>2.44</v>
+      </c>
+      <c r="AU72">
+        <v>7</v>
+      </c>
+      <c r="AV72">
+        <v>6</v>
+      </c>
+      <c r="AW72">
+        <v>8</v>
+      </c>
+      <c r="AX72">
+        <v>6</v>
+      </c>
+      <c r="AY72">
+        <v>15</v>
+      </c>
+      <c r="AZ72">
+        <v>12</v>
+      </c>
+      <c r="BA72">
+        <v>4</v>
+      </c>
+      <c r="BB72">
+        <v>6</v>
+      </c>
+      <c r="BC72">
+        <v>10</v>
+      </c>
+      <c r="BD72">
+        <v>1.38</v>
+      </c>
+      <c r="BE72">
+        <v>11.5</v>
+      </c>
+      <c r="BF72">
+        <v>3.9</v>
+      </c>
+      <c r="BG72">
+        <v>1.12</v>
+      </c>
+      <c r="BH72">
+        <v>5.05</v>
+      </c>
+      <c r="BI72">
+        <v>1.3</v>
+      </c>
+      <c r="BJ72">
+        <v>3.1</v>
+      </c>
+      <c r="BK72">
+        <v>1.91</v>
+      </c>
+      <c r="BL72">
+        <v>2.3</v>
+      </c>
+      <c r="BM72">
+        <v>1.98</v>
+      </c>
+      <c r="BN72">
+        <v>1.82</v>
+      </c>
+      <c r="BO72">
+        <v>2.4</v>
+      </c>
+      <c r="BP72">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7373252</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45456.83333333334</v>
+      </c>
+      <c r="F73">
+        <v>8</v>
+      </c>
+      <c r="G73" t="s">
+        <v>76</v>
+      </c>
+      <c r="H73" t="s">
+        <v>71</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>2</v>
+      </c>
+      <c r="L73">
+        <v>3</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>4</v>
+      </c>
+      <c r="O73" t="s">
+        <v>142</v>
+      </c>
+      <c r="P73" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q73">
+        <v>2</v>
+      </c>
+      <c r="R73">
+        <v>2.25</v>
+      </c>
+      <c r="S73">
+        <v>7.5</v>
+      </c>
+      <c r="T73">
+        <v>1.45</v>
+      </c>
+      <c r="U73">
+        <v>2.75</v>
+      </c>
+      <c r="V73">
+        <v>3.1</v>
+      </c>
+      <c r="W73">
+        <v>1.33</v>
+      </c>
+      <c r="X73">
+        <v>8</v>
+      </c>
+      <c r="Y73">
+        <v>1.06</v>
+      </c>
+      <c r="Z73">
+        <v>1.45</v>
+      </c>
+      <c r="AA73">
+        <v>4.33</v>
+      </c>
+      <c r="AB73">
+        <v>7.5</v>
+      </c>
+      <c r="AC73">
+        <v>1.06</v>
+      </c>
+      <c r="AD73">
+        <v>9.5</v>
+      </c>
+      <c r="AE73">
+        <v>1.36</v>
+      </c>
+      <c r="AF73">
+        <v>3.1</v>
+      </c>
+      <c r="AG73">
+        <v>2</v>
+      </c>
+      <c r="AH73">
+        <v>1.8</v>
+      </c>
+      <c r="AI73">
+        <v>2.2</v>
+      </c>
+      <c r="AJ73">
+        <v>1.62</v>
+      </c>
+      <c r="AK73">
+        <v>1.09</v>
+      </c>
+      <c r="AL73">
+        <v>1.2</v>
+      </c>
+      <c r="AM73">
+        <v>2.6</v>
+      </c>
+      <c r="AN73">
+        <v>3</v>
+      </c>
+      <c r="AO73">
+        <v>2</v>
+      </c>
+      <c r="AP73">
+        <v>2.6</v>
+      </c>
+      <c r="AQ73">
+        <v>1.33</v>
+      </c>
+      <c r="AR73">
+        <v>1.66</v>
+      </c>
+      <c r="AS73">
+        <v>1.38</v>
+      </c>
+      <c r="AT73">
+        <v>3.04</v>
+      </c>
+      <c r="AU73">
+        <v>8</v>
+      </c>
+      <c r="AV73">
+        <v>5</v>
+      </c>
+      <c r="AW73">
+        <v>10</v>
+      </c>
+      <c r="AX73">
+        <v>5</v>
+      </c>
+      <c r="AY73">
+        <v>18</v>
+      </c>
+      <c r="AZ73">
+        <v>10</v>
+      </c>
+      <c r="BA73">
+        <v>5</v>
+      </c>
+      <c r="BB73">
+        <v>3</v>
+      </c>
+      <c r="BC73">
+        <v>8</v>
+      </c>
+      <c r="BD73">
+        <v>1.38</v>
+      </c>
+      <c r="BE73">
+        <v>11.5</v>
+      </c>
+      <c r="BF73">
+        <v>3.9</v>
+      </c>
+      <c r="BG73">
+        <v>1.2</v>
+      </c>
+      <c r="BH73">
+        <v>4.4</v>
+      </c>
+      <c r="BI73">
+        <v>1.35</v>
+      </c>
+      <c r="BJ73">
+        <v>3</v>
+      </c>
+      <c r="BK73">
+        <v>1.91</v>
+      </c>
+      <c r="BL73">
+        <v>2</v>
+      </c>
+      <c r="BM73">
+        <v>1.98</v>
+      </c>
+      <c r="BN73">
+        <v>1.82</v>
+      </c>
+      <c r="BO73">
+        <v>2.4</v>
+      </c>
+      <c r="BP73">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7373245</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45456.83333333334</v>
+      </c>
+      <c r="F74">
+        <v>8</v>
+      </c>
+      <c r="G74" t="s">
+        <v>70</v>
+      </c>
+      <c r="H74" t="s">
+        <v>73</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74" t="s">
+        <v>95</v>
+      </c>
+      <c r="P74" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q74">
+        <v>3.6</v>
+      </c>
+      <c r="R74">
+        <v>1.83</v>
+      </c>
+      <c r="S74">
+        <v>3.75</v>
+      </c>
+      <c r="T74">
+        <v>1.53</v>
+      </c>
+      <c r="U74">
+        <v>2.38</v>
+      </c>
+      <c r="V74">
+        <v>3.75</v>
+      </c>
+      <c r="W74">
+        <v>1.25</v>
+      </c>
+      <c r="X74">
+        <v>11</v>
+      </c>
+      <c r="Y74">
+        <v>1.05</v>
+      </c>
+      <c r="Z74">
+        <v>2.7</v>
+      </c>
+      <c r="AA74">
+        <v>3.1</v>
+      </c>
+      <c r="AB74">
+        <v>2.8</v>
+      </c>
+      <c r="AC74">
+        <v>1.08</v>
+      </c>
+      <c r="AD74">
+        <v>6.5</v>
+      </c>
+      <c r="AE74">
+        <v>1.5</v>
+      </c>
+      <c r="AF74">
+        <v>2.4</v>
+      </c>
+      <c r="AG74">
+        <v>2.7</v>
+      </c>
+      <c r="AH74">
+        <v>1.44</v>
+      </c>
+      <c r="AI74">
+        <v>2.2</v>
+      </c>
+      <c r="AJ74">
+        <v>1.62</v>
+      </c>
+      <c r="AK74">
+        <v>1.5</v>
+      </c>
+      <c r="AL74">
+        <v>1.36</v>
+      </c>
+      <c r="AM74">
+        <v>1.43</v>
+      </c>
+      <c r="AN74">
+        <v>2</v>
+      </c>
+      <c r="AO74">
+        <v>2</v>
+      </c>
+      <c r="AP74">
+        <v>1.67</v>
+      </c>
+      <c r="AQ74">
+        <v>1.6</v>
+      </c>
+      <c r="AR74">
+        <v>2.08</v>
+      </c>
+      <c r="AS74">
+        <v>1.56</v>
+      </c>
+      <c r="AT74">
+        <v>3.64</v>
+      </c>
+      <c r="AU74">
+        <v>0</v>
+      </c>
+      <c r="AV74">
+        <v>5</v>
+      </c>
+      <c r="AW74">
+        <v>7</v>
+      </c>
+      <c r="AX74">
+        <v>3</v>
+      </c>
+      <c r="AY74">
+        <v>7</v>
+      </c>
+      <c r="AZ74">
+        <v>8</v>
+      </c>
+      <c r="BA74">
+        <v>5</v>
+      </c>
+      <c r="BB74">
+        <v>3</v>
+      </c>
+      <c r="BC74">
+        <v>8</v>
+      </c>
+      <c r="BD74">
+        <v>2.12</v>
+      </c>
+      <c r="BE74">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF74">
+        <v>2.07</v>
+      </c>
+      <c r="BG74">
+        <v>1.36</v>
+      </c>
+      <c r="BH74">
+        <v>2.85</v>
+      </c>
+      <c r="BI74">
+        <v>1.65</v>
+      </c>
+      <c r="BJ74">
+        <v>2.15</v>
+      </c>
+      <c r="BK74">
+        <v>2.05</v>
+      </c>
+      <c r="BL74">
+        <v>1.7</v>
+      </c>
+      <c r="BM74">
+        <v>2.7</v>
+      </c>
+      <c r="BN74">
+        <v>1.42</v>
+      </c>
+      <c r="BO74">
+        <v>3.85</v>
+      </c>
+      <c r="BP74">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7373247</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45456.89583333334</v>
+      </c>
+      <c r="F75">
+        <v>8</v>
+      </c>
+      <c r="G75" t="s">
+        <v>80</v>
+      </c>
+      <c r="H75" t="s">
+        <v>84</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75" t="s">
+        <v>143</v>
+      </c>
+      <c r="P75" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q75">
+        <v>2.75</v>
+      </c>
+      <c r="R75">
+        <v>2.05</v>
+      </c>
+      <c r="S75">
+        <v>4.33</v>
+      </c>
+      <c r="T75">
+        <v>1.44</v>
+      </c>
+      <c r="U75">
+        <v>2.63</v>
+      </c>
+      <c r="V75">
+        <v>3.25</v>
+      </c>
+      <c r="W75">
+        <v>1.33</v>
+      </c>
+      <c r="X75">
+        <v>9</v>
+      </c>
+      <c r="Y75">
+        <v>1.07</v>
+      </c>
+      <c r="Z75">
+        <v>2.05</v>
+      </c>
+      <c r="AA75">
+        <v>3.5</v>
+      </c>
+      <c r="AB75">
+        <v>3.6</v>
+      </c>
+      <c r="AC75">
+        <v>1.07</v>
+      </c>
+      <c r="AD75">
+        <v>10.25</v>
+      </c>
+      <c r="AE75">
+        <v>1.36</v>
+      </c>
+      <c r="AF75">
+        <v>3.15</v>
+      </c>
+      <c r="AG75">
+        <v>2.15</v>
+      </c>
+      <c r="AH75">
+        <v>1.67</v>
+      </c>
+      <c r="AI75">
+        <v>1.95</v>
+      </c>
+      <c r="AJ75">
+        <v>1.8</v>
+      </c>
+      <c r="AK75">
+        <v>1.26</v>
+      </c>
+      <c r="AL75">
+        <v>1.3</v>
+      </c>
+      <c r="AM75">
+        <v>1.86</v>
+      </c>
+      <c r="AN75">
+        <v>3</v>
+      </c>
+      <c r="AO75">
+        <v>2</v>
+      </c>
+      <c r="AP75">
+        <v>3</v>
+      </c>
+      <c r="AQ75">
+        <v>1</v>
+      </c>
+      <c r="AR75">
+        <v>1.32</v>
+      </c>
+      <c r="AS75">
+        <v>0.96</v>
+      </c>
+      <c r="AT75">
+        <v>2.28</v>
+      </c>
+      <c r="AU75">
+        <v>4</v>
+      </c>
+      <c r="AV75">
+        <v>7</v>
+      </c>
+      <c r="AW75">
+        <v>6</v>
+      </c>
+      <c r="AX75">
+        <v>8</v>
+      </c>
+      <c r="AY75">
+        <v>10</v>
+      </c>
+      <c r="AZ75">
+        <v>15</v>
+      </c>
+      <c r="BA75">
+        <v>5</v>
+      </c>
+      <c r="BB75">
+        <v>9</v>
+      </c>
+      <c r="BC75">
+        <v>14</v>
+      </c>
+      <c r="BD75">
+        <v>1.51</v>
+      </c>
+      <c r="BE75">
+        <v>10.5</v>
+      </c>
+      <c r="BF75">
+        <v>3.2</v>
+      </c>
+      <c r="BG75">
+        <v>1.2</v>
+      </c>
+      <c r="BH75">
+        <v>3.95</v>
+      </c>
+      <c r="BI75">
+        <v>1.4</v>
+      </c>
+      <c r="BJ75">
+        <v>2.75</v>
+      </c>
+      <c r="BK75">
+        <v>2.1</v>
+      </c>
+      <c r="BL75">
+        <v>2.05</v>
+      </c>
+      <c r="BM75">
+        <v>2.05</v>
+      </c>
+      <c r="BN75">
+        <v>1.7</v>
+      </c>
+      <c r="BO75">
+        <v>2.6</v>
+      </c>
+      <c r="BP75">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7373250</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45456.89583333334</v>
+      </c>
+      <c r="F76">
+        <v>8</v>
+      </c>
+      <c r="G76" t="s">
+        <v>86</v>
+      </c>
+      <c r="H76" t="s">
+        <v>74</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>2</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>2</v>
+      </c>
+      <c r="O76" t="s">
+        <v>144</v>
+      </c>
+      <c r="P76" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q76">
+        <v>2</v>
+      </c>
+      <c r="R76">
+        <v>2.3</v>
+      </c>
+      <c r="S76">
+        <v>7</v>
+      </c>
+      <c r="T76">
+        <v>1.36</v>
+      </c>
+      <c r="U76">
+        <v>3</v>
+      </c>
+      <c r="V76">
+        <v>2.75</v>
+      </c>
+      <c r="W76">
+        <v>1.42</v>
+      </c>
+      <c r="X76">
+        <v>7</v>
+      </c>
+      <c r="Y76">
+        <v>1.09</v>
+      </c>
+      <c r="Z76">
+        <v>1.44</v>
+      </c>
+      <c r="AA76">
+        <v>4.5</v>
+      </c>
+      <c r="AB76">
+        <v>8</v>
+      </c>
+      <c r="AC76">
+        <v>1.04</v>
+      </c>
+      <c r="AD76">
+        <v>12</v>
+      </c>
+      <c r="AE76">
+        <v>1.28</v>
+      </c>
+      <c r="AF76">
+        <v>3.6</v>
+      </c>
+      <c r="AG76">
+        <v>1.9</v>
+      </c>
+      <c r="AH76">
+        <v>1.9</v>
+      </c>
+      <c r="AI76">
+        <v>2.1</v>
+      </c>
+      <c r="AJ76">
+        <v>1.67</v>
+      </c>
+      <c r="AK76">
+        <v>1.07</v>
+      </c>
+      <c r="AL76">
+        <v>1.16</v>
+      </c>
+      <c r="AM76">
+        <v>2.95</v>
+      </c>
+      <c r="AN76">
+        <v>0.33</v>
+      </c>
+      <c r="AO76">
+        <v>0</v>
+      </c>
+      <c r="AP76">
+        <v>1</v>
+      </c>
+      <c r="AQ76">
+        <v>0</v>
+      </c>
+      <c r="AR76">
+        <v>1.45</v>
+      </c>
+      <c r="AS76">
+        <v>1.28</v>
+      </c>
+      <c r="AT76">
+        <v>2.73</v>
+      </c>
+      <c r="AU76">
+        <v>8</v>
+      </c>
+      <c r="AV76">
+        <v>3</v>
+      </c>
+      <c r="AW76">
+        <v>13</v>
+      </c>
+      <c r="AX76">
+        <v>6</v>
+      </c>
+      <c r="AY76">
+        <v>21</v>
+      </c>
+      <c r="AZ76">
+        <v>9</v>
+      </c>
+      <c r="BA76">
+        <v>10</v>
+      </c>
+      <c r="BB76">
+        <v>6</v>
+      </c>
+      <c r="BC76">
+        <v>16</v>
+      </c>
+      <c r="BD76">
+        <v>1.3</v>
+      </c>
+      <c r="BE76">
+        <v>13</v>
+      </c>
+      <c r="BF76">
+        <v>4.48</v>
+      </c>
+      <c r="BG76">
+        <v>1.22</v>
+      </c>
+      <c r="BH76">
+        <v>3.75</v>
+      </c>
+      <c r="BI76">
+        <v>1.45</v>
+      </c>
+      <c r="BJ76">
+        <v>2.6</v>
+      </c>
+      <c r="BK76">
+        <v>2</v>
+      </c>
+      <c r="BL76">
+        <v>2</v>
+      </c>
+      <c r="BM76">
+        <v>2.2</v>
+      </c>
+      <c r="BN76">
+        <v>1.62</v>
+      </c>
+      <c r="BO76">
+        <v>2.88</v>
+      </c>
+      <c r="BP76">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7373261</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45458.77083333334</v>
+      </c>
+      <c r="F77">
+        <v>9</v>
+      </c>
+      <c r="G77" t="s">
+        <v>82</v>
+      </c>
+      <c r="H77" t="s">
+        <v>83</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>2</v>
+      </c>
+      <c r="L77">
+        <v>2</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>3</v>
+      </c>
+      <c r="O77" t="s">
+        <v>145</v>
+      </c>
+      <c r="P77" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q77">
+        <v>2.2</v>
+      </c>
+      <c r="R77">
+        <v>2.2</v>
+      </c>
+      <c r="S77">
+        <v>6</v>
+      </c>
+      <c r="T77">
+        <v>1.4</v>
+      </c>
+      <c r="U77">
+        <v>2.75</v>
+      </c>
+      <c r="V77">
+        <v>2.75</v>
+      </c>
+      <c r="W77">
+        <v>1.4</v>
+      </c>
+      <c r="X77">
+        <v>8</v>
+      </c>
+      <c r="Y77">
+        <v>1.08</v>
+      </c>
+      <c r="Z77">
+        <v>1.6</v>
+      </c>
+      <c r="AA77">
+        <v>3.9</v>
+      </c>
+      <c r="AB77">
+        <v>5.75</v>
+      </c>
+      <c r="AC77">
+        <v>1.04</v>
+      </c>
+      <c r="AD77">
+        <v>12</v>
+      </c>
+      <c r="AE77">
+        <v>1.3</v>
+      </c>
+      <c r="AF77">
+        <v>3.5</v>
+      </c>
+      <c r="AG77">
+        <v>2</v>
+      </c>
+      <c r="AH77">
+        <v>1.8</v>
+      </c>
+      <c r="AI77">
+        <v>2</v>
+      </c>
+      <c r="AJ77">
+        <v>1.75</v>
+      </c>
+      <c r="AK77">
+        <v>1.12</v>
+      </c>
+      <c r="AL77">
+        <v>1.18</v>
+      </c>
+      <c r="AM77">
+        <v>2.45</v>
+      </c>
+      <c r="AN77">
+        <v>1.75</v>
+      </c>
+      <c r="AO77">
+        <v>0.67</v>
+      </c>
+      <c r="AP77">
+        <v>2</v>
+      </c>
+      <c r="AQ77">
+        <v>0.5</v>
+      </c>
+      <c r="AR77">
+        <v>1.45</v>
+      </c>
+      <c r="AS77">
+        <v>1.17</v>
+      </c>
+      <c r="AT77">
+        <v>2.62</v>
+      </c>
+      <c r="AU77">
+        <v>3</v>
+      </c>
+      <c r="AV77">
+        <v>7</v>
+      </c>
+      <c r="AW77">
+        <v>1</v>
+      </c>
+      <c r="AX77">
+        <v>5</v>
+      </c>
+      <c r="AY77">
+        <v>4</v>
+      </c>
+      <c r="AZ77">
+        <v>12</v>
+      </c>
+      <c r="BA77">
+        <v>1</v>
+      </c>
+      <c r="BB77">
+        <v>1</v>
+      </c>
+      <c r="BC77">
+        <v>2</v>
+      </c>
+      <c r="BD77">
+        <v>1.41</v>
+      </c>
+      <c r="BE77">
+        <v>11.5</v>
+      </c>
+      <c r="BF77">
+        <v>3.6</v>
+      </c>
+      <c r="BG77">
+        <v>1.2</v>
+      </c>
+      <c r="BH77">
+        <v>3.95</v>
+      </c>
+      <c r="BI77">
+        <v>1.38</v>
+      </c>
+      <c r="BJ77">
+        <v>2.75</v>
+      </c>
+      <c r="BK77">
+        <v>2.1</v>
+      </c>
+      <c r="BL77">
+        <v>2.2</v>
+      </c>
+      <c r="BM77">
+        <v>1.95</v>
+      </c>
+      <c r="BN77">
+        <v>1.73</v>
+      </c>
+      <c r="BO77">
+        <v>2.5</v>
+      </c>
+      <c r="BP77">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7373258</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45458.875</v>
+      </c>
+      <c r="F78">
+        <v>9</v>
+      </c>
+      <c r="G78" t="s">
+        <v>72</v>
+      </c>
+      <c r="H78" t="s">
+        <v>77</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>2</v>
+      </c>
+      <c r="N78">
+        <v>3</v>
+      </c>
+      <c r="O78" t="s">
+        <v>146</v>
+      </c>
+      <c r="P78" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q78">
+        <v>2.63</v>
+      </c>
+      <c r="R78">
+        <v>2.1</v>
+      </c>
+      <c r="S78">
+        <v>4.5</v>
+      </c>
+      <c r="T78">
+        <v>1.4</v>
+      </c>
+      <c r="U78">
+        <v>2.75</v>
+      </c>
+      <c r="V78">
+        <v>2.75</v>
+      </c>
+      <c r="W78">
+        <v>1.4</v>
+      </c>
+      <c r="X78">
+        <v>8</v>
+      </c>
+      <c r="Y78">
+        <v>1.08</v>
+      </c>
+      <c r="Z78">
+        <v>1.95</v>
+      </c>
+      <c r="AA78">
+        <v>3.7</v>
+      </c>
+      <c r="AB78">
+        <v>3.75</v>
+      </c>
+      <c r="AC78">
+        <v>1.04</v>
+      </c>
+      <c r="AD78">
+        <v>12</v>
+      </c>
+      <c r="AE78">
+        <v>1.3</v>
+      </c>
+      <c r="AF78">
+        <v>3.5</v>
+      </c>
+      <c r="AG78">
+        <v>2.08</v>
+      </c>
+      <c r="AH78">
+        <v>1.73</v>
+      </c>
+      <c r="AI78">
+        <v>1.95</v>
+      </c>
+      <c r="AJ78">
+        <v>1.8</v>
+      </c>
+      <c r="AK78">
+        <v>1.18</v>
+      </c>
+      <c r="AL78">
+        <v>1.2</v>
+      </c>
+      <c r="AM78">
+        <v>2.2</v>
+      </c>
+      <c r="AN78">
+        <v>1.5</v>
+      </c>
+      <c r="AO78">
+        <v>1</v>
+      </c>
+      <c r="AP78">
+        <v>1.2</v>
+      </c>
+      <c r="AQ78">
+        <v>1.4</v>
+      </c>
+      <c r="AR78">
+        <v>1.81</v>
+      </c>
+      <c r="AS78">
+        <v>1.21</v>
+      </c>
+      <c r="AT78">
+        <v>3.02</v>
+      </c>
+      <c r="AU78">
+        <v>6</v>
+      </c>
+      <c r="AV78">
+        <v>8</v>
+      </c>
+      <c r="AW78">
+        <v>4</v>
+      </c>
+      <c r="AX78">
+        <v>7</v>
+      </c>
+      <c r="AY78">
+        <v>10</v>
+      </c>
+      <c r="AZ78">
+        <v>15</v>
+      </c>
+      <c r="BA78">
+        <v>3</v>
+      </c>
+      <c r="BB78">
+        <v>3</v>
+      </c>
+      <c r="BC78">
+        <v>6</v>
+      </c>
+      <c r="BD78">
+        <v>1.65</v>
+      </c>
+      <c r="BE78">
+        <v>9.6</v>
+      </c>
+      <c r="BF78">
+        <v>2.78</v>
+      </c>
+      <c r="BG78">
+        <v>1.18</v>
+      </c>
+      <c r="BH78">
+        <v>4.25</v>
+      </c>
+      <c r="BI78">
+        <v>1.34</v>
+      </c>
+      <c r="BJ78">
+        <v>2.95</v>
+      </c>
+      <c r="BK78">
+        <v>2</v>
+      </c>
+      <c r="BL78">
+        <v>2.2</v>
+      </c>
+      <c r="BM78">
+        <v>2</v>
+      </c>
+      <c r="BN78">
+        <v>1.7</v>
+      </c>
+      <c r="BO78">
+        <v>2.5</v>
+      </c>
+      <c r="BP78">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7373257</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45459.66666666666</v>
+      </c>
+      <c r="F79">
+        <v>9</v>
+      </c>
+      <c r="G79" t="s">
+        <v>79</v>
+      </c>
+      <c r="H79" t="s">
+        <v>70</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>2</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>3</v>
+      </c>
+      <c r="O79" t="s">
+        <v>147</v>
+      </c>
+      <c r="P79" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q79">
+        <v>4</v>
+      </c>
+      <c r="R79">
+        <v>1.91</v>
+      </c>
+      <c r="S79">
+        <v>3.4</v>
+      </c>
+      <c r="T79">
+        <v>1.5</v>
+      </c>
+      <c r="U79">
+        <v>2.5</v>
+      </c>
+      <c r="V79">
+        <v>3.4</v>
+      </c>
+      <c r="W79">
+        <v>1.3</v>
+      </c>
+      <c r="X79">
+        <v>10</v>
+      </c>
+      <c r="Y79">
+        <v>1.06</v>
+      </c>
+      <c r="Z79">
+        <v>3.3</v>
+      </c>
+      <c r="AA79">
+        <v>3.1</v>
+      </c>
+      <c r="AB79">
+        <v>2.3</v>
+      </c>
+      <c r="AC79">
+        <v>1.04</v>
+      </c>
+      <c r="AD79">
+        <v>7.4</v>
+      </c>
+      <c r="AE79">
+        <v>1.53</v>
+      </c>
+      <c r="AF79">
+        <v>2.4</v>
+      </c>
+      <c r="AG79">
+        <v>2.5</v>
+      </c>
+      <c r="AH79">
+        <v>1.47</v>
+      </c>
+      <c r="AI79">
+        <v>2.1</v>
+      </c>
+      <c r="AJ79">
+        <v>1.67</v>
+      </c>
+      <c r="AK79">
+        <v>1.64</v>
+      </c>
+      <c r="AL79">
+        <v>1.34</v>
+      </c>
+      <c r="AM79">
+        <v>1.34</v>
+      </c>
+      <c r="AN79">
+        <v>0.25</v>
+      </c>
+      <c r="AO79">
+        <v>2</v>
+      </c>
+      <c r="AP79">
+        <v>0.8</v>
+      </c>
+      <c r="AQ79">
+        <v>1.5</v>
+      </c>
+      <c r="AR79">
+        <v>1.16</v>
+      </c>
+      <c r="AS79">
+        <v>0.83</v>
+      </c>
+      <c r="AT79">
+        <v>1.99</v>
+      </c>
+      <c r="AU79">
+        <v>5</v>
+      </c>
+      <c r="AV79">
+        <v>6</v>
+      </c>
+      <c r="AW79">
+        <v>5</v>
+      </c>
+      <c r="AX79">
+        <v>8</v>
+      </c>
+      <c r="AY79">
+        <v>10</v>
+      </c>
+      <c r="AZ79">
+        <v>14</v>
+      </c>
+      <c r="BA79">
+        <v>4</v>
+      </c>
+      <c r="BB79">
+        <v>2</v>
+      </c>
+      <c r="BC79">
+        <v>6</v>
+      </c>
+      <c r="BD79">
+        <v>2.15</v>
+      </c>
+      <c r="BE79">
+        <v>8.5</v>
+      </c>
+      <c r="BF79">
+        <v>2.03</v>
+      </c>
+      <c r="BG79">
+        <v>1.27</v>
+      </c>
+      <c r="BH79">
+        <v>3.35</v>
+      </c>
+      <c r="BI79">
+        <v>1.49</v>
+      </c>
+      <c r="BJ79">
+        <v>2.4</v>
+      </c>
+      <c r="BK79">
+        <v>1.95</v>
+      </c>
+      <c r="BL79">
+        <v>1.85</v>
+      </c>
+      <c r="BM79">
+        <v>2.38</v>
+      </c>
+      <c r="BN79">
+        <v>1.5</v>
+      </c>
+      <c r="BO79">
+        <v>3.2</v>
+      </c>
+      <c r="BP79">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7373260</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45459.66666666666</v>
+      </c>
+      <c r="F80">
+        <v>9</v>
+      </c>
+      <c r="G80" t="s">
+        <v>75</v>
+      </c>
+      <c r="H80" t="s">
+        <v>73</v>
+      </c>
+      <c r="I80">
+        <v>2</v>
+      </c>
+      <c r="J80">
+        <v>2</v>
+      </c>
+      <c r="K80">
+        <v>4</v>
+      </c>
+      <c r="L80">
+        <v>2</v>
+      </c>
+      <c r="M80">
+        <v>2</v>
+      </c>
+      <c r="N80">
+        <v>4</v>
+      </c>
+      <c r="O80" t="s">
+        <v>148</v>
+      </c>
+      <c r="P80" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q80">
+        <v>4</v>
+      </c>
+      <c r="R80">
+        <v>1.91</v>
+      </c>
+      <c r="S80">
+        <v>3.25</v>
+      </c>
+      <c r="T80">
+        <v>1.57</v>
+      </c>
+      <c r="U80">
+        <v>2.25</v>
+      </c>
+      <c r="V80">
+        <v>3.75</v>
+      </c>
+      <c r="W80">
+        <v>1.25</v>
+      </c>
+      <c r="X80">
+        <v>11</v>
+      </c>
+      <c r="Y80">
+        <v>1.05</v>
+      </c>
+      <c r="Z80">
+        <v>2.7</v>
+      </c>
+      <c r="AA80">
+        <v>3</v>
+      </c>
+      <c r="AB80">
+        <v>2.7</v>
+      </c>
+      <c r="AC80">
+        <v>1.11</v>
+      </c>
+      <c r="AD80">
+        <v>7.3</v>
+      </c>
+      <c r="AE80">
+        <v>1.5</v>
+      </c>
+      <c r="AF80">
+        <v>2.55</v>
+      </c>
+      <c r="AG80">
+        <v>2.47</v>
+      </c>
+      <c r="AH80">
+        <v>1.48</v>
+      </c>
+      <c r="AI80">
+        <v>2.1</v>
+      </c>
+      <c r="AJ80">
+        <v>1.67</v>
+      </c>
+      <c r="AK80">
+        <v>1.57</v>
+      </c>
+      <c r="AL80">
+        <v>1.33</v>
+      </c>
+      <c r="AM80">
+        <v>1.36</v>
+      </c>
+      <c r="AN80">
+        <v>1.25</v>
+      </c>
+      <c r="AO80">
+        <v>1.75</v>
+      </c>
+      <c r="AP80">
+        <v>1.2</v>
+      </c>
+      <c r="AQ80">
+        <v>1.6</v>
+      </c>
+      <c r="AR80">
+        <v>1.69</v>
+      </c>
+      <c r="AS80">
+        <v>1.42</v>
+      </c>
+      <c r="AT80">
+        <v>3.11</v>
+      </c>
+      <c r="AU80">
+        <v>9</v>
+      </c>
+      <c r="AV80">
+        <v>8</v>
+      </c>
+      <c r="AW80">
+        <v>4</v>
+      </c>
+      <c r="AX80">
+        <v>2</v>
+      </c>
+      <c r="AY80">
+        <v>13</v>
+      </c>
+      <c r="AZ80">
+        <v>10</v>
+      </c>
+      <c r="BA80">
+        <v>9</v>
+      </c>
+      <c r="BB80">
+        <v>5</v>
+      </c>
+      <c r="BC80">
+        <v>14</v>
+      </c>
+      <c r="BD80">
+        <v>2.24</v>
+      </c>
+      <c r="BE80">
+        <v>8.6</v>
+      </c>
+      <c r="BF80">
+        <v>1.95</v>
+      </c>
+      <c r="BG80">
+        <v>1.22</v>
+      </c>
+      <c r="BH80">
+        <v>3.75</v>
+      </c>
+      <c r="BI80">
+        <v>1.41</v>
+      </c>
+      <c r="BJ80">
+        <v>2.63</v>
+      </c>
+      <c r="BK80">
+        <v>2.2</v>
+      </c>
+      <c r="BL80">
+        <v>2</v>
+      </c>
+      <c r="BM80">
+        <v>2.18</v>
+      </c>
+      <c r="BN80">
+        <v>1.6</v>
+      </c>
+      <c r="BO80">
+        <v>2.88</v>
+      </c>
+      <c r="BP80">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7373262</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45459.66666666666</v>
+      </c>
+      <c r="F81">
+        <v>9</v>
+      </c>
+      <c r="G81" t="s">
+        <v>76</v>
+      </c>
+      <c r="H81" t="s">
+        <v>87</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>2</v>
+      </c>
+      <c r="O81" t="s">
+        <v>149</v>
+      </c>
+      <c r="P81" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q81">
+        <v>3.2</v>
+      </c>
+      <c r="R81">
+        <v>2</v>
+      </c>
+      <c r="S81">
+        <v>3.6</v>
+      </c>
+      <c r="T81">
+        <v>1.44</v>
+      </c>
+      <c r="U81">
+        <v>2.63</v>
+      </c>
+      <c r="V81">
+        <v>3.25</v>
+      </c>
+      <c r="W81">
+        <v>1.33</v>
+      </c>
+      <c r="X81">
+        <v>10</v>
+      </c>
+      <c r="Y81">
+        <v>1.06</v>
+      </c>
+      <c r="Z81">
+        <v>2.4</v>
+      </c>
+      <c r="AA81">
+        <v>3.3</v>
+      </c>
+      <c r="AB81">
+        <v>2.8</v>
+      </c>
+      <c r="AC81">
+        <v>1.07</v>
+      </c>
+      <c r="AD81">
+        <v>8</v>
+      </c>
+      <c r="AE81">
+        <v>1.4</v>
+      </c>
+      <c r="AF81">
+        <v>2.9</v>
+      </c>
+      <c r="AG81">
+        <v>2.03</v>
+      </c>
+      <c r="AH81">
+        <v>1.7</v>
+      </c>
+      <c r="AI81">
+        <v>1.95</v>
+      </c>
+      <c r="AJ81">
+        <v>1.8</v>
+      </c>
+      <c r="AK81">
+        <v>1.5</v>
+      </c>
+      <c r="AL81">
+        <v>1.28</v>
+      </c>
+      <c r="AM81">
+        <v>1.42</v>
+      </c>
+      <c r="AN81">
+        <v>3</v>
+      </c>
+      <c r="AO81">
+        <v>2</v>
+      </c>
+      <c r="AP81">
+        <v>2.6</v>
+      </c>
+      <c r="AQ81">
+        <v>1.8</v>
+      </c>
+      <c r="AR81">
+        <v>1.77</v>
+      </c>
+      <c r="AS81">
+        <v>1.8</v>
+      </c>
+      <c r="AT81">
+        <v>3.57</v>
+      </c>
+      <c r="AU81">
+        <v>4</v>
+      </c>
+      <c r="AV81">
+        <v>7</v>
+      </c>
+      <c r="AW81">
+        <v>6</v>
+      </c>
+      <c r="AX81">
+        <v>2</v>
+      </c>
+      <c r="AY81">
+        <v>10</v>
+      </c>
+      <c r="AZ81">
+        <v>9</v>
+      </c>
+      <c r="BA81">
+        <v>5</v>
+      </c>
+      <c r="BB81">
+        <v>9</v>
+      </c>
+      <c r="BC81">
+        <v>14</v>
+      </c>
+      <c r="BD81">
+        <v>1.87</v>
+      </c>
+      <c r="BE81">
+        <v>9</v>
+      </c>
+      <c r="BF81">
+        <v>2.36</v>
+      </c>
+      <c r="BG81">
+        <v>1.15</v>
+      </c>
+      <c r="BH81">
+        <v>4.5</v>
+      </c>
+      <c r="BI81">
+        <v>1.28</v>
+      </c>
+      <c r="BJ81">
+        <v>3.25</v>
+      </c>
+      <c r="BK81">
+        <v>2</v>
+      </c>
+      <c r="BL81">
+        <v>2.35</v>
+      </c>
+      <c r="BM81">
+        <v>1.95</v>
+      </c>
+      <c r="BN81">
+        <v>1.85</v>
+      </c>
+      <c r="BO81">
+        <v>2.35</v>
+      </c>
+      <c r="BP81">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7373255</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45459.77083333334</v>
+      </c>
+      <c r="F82">
+        <v>9</v>
+      </c>
+      <c r="G82" t="s">
+        <v>81</v>
+      </c>
+      <c r="H82" t="s">
+        <v>88</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>2</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>2</v>
+      </c>
+      <c r="N82">
+        <v>3</v>
+      </c>
+      <c r="O82" t="s">
+        <v>150</v>
+      </c>
+      <c r="P82" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q82">
+        <v>4</v>
+      </c>
+      <c r="R82">
+        <v>2</v>
+      </c>
+      <c r="S82">
+        <v>2.88</v>
+      </c>
+      <c r="T82">
+        <v>1.4</v>
+      </c>
+      <c r="U82">
+        <v>2.75</v>
+      </c>
+      <c r="V82">
+        <v>3</v>
+      </c>
+      <c r="W82">
+        <v>1.36</v>
+      </c>
+      <c r="X82">
+        <v>8</v>
+      </c>
+      <c r="Y82">
+        <v>1.08</v>
+      </c>
+      <c r="Z82">
+        <v>3.4</v>
+      </c>
+      <c r="AA82">
+        <v>3.2</v>
+      </c>
+      <c r="AB82">
+        <v>2.2</v>
+      </c>
+      <c r="AC82">
+        <v>1.02</v>
+      </c>
+      <c r="AD82">
+        <v>8.5</v>
+      </c>
+      <c r="AE82">
+        <v>1.3</v>
+      </c>
+      <c r="AF82">
+        <v>3.1</v>
+      </c>
+      <c r="AG82">
+        <v>2.3</v>
+      </c>
+      <c r="AH82">
+        <v>1.6</v>
+      </c>
+      <c r="AI82">
+        <v>1.95</v>
+      </c>
+      <c r="AJ82">
+        <v>1.8</v>
+      </c>
+      <c r="AK82">
+        <v>1.62</v>
+      </c>
+      <c r="AL82">
+        <v>1.32</v>
+      </c>
+      <c r="AM82">
+        <v>1.38</v>
+      </c>
+      <c r="AN82">
+        <v>2</v>
+      </c>
+      <c r="AO82">
+        <v>1.75</v>
+      </c>
+      <c r="AP82">
+        <v>1.5</v>
+      </c>
+      <c r="AQ82">
+        <v>2</v>
+      </c>
+      <c r="AR82">
+        <v>1.31</v>
+      </c>
+      <c r="AS82">
+        <v>0.98</v>
+      </c>
+      <c r="AT82">
+        <v>2.29</v>
+      </c>
+      <c r="AU82">
+        <v>5</v>
+      </c>
+      <c r="AV82">
+        <v>6</v>
+      </c>
+      <c r="AW82">
+        <v>5</v>
+      </c>
+      <c r="AX82">
+        <v>5</v>
+      </c>
+      <c r="AY82">
+        <v>10</v>
+      </c>
+      <c r="AZ82">
+        <v>11</v>
+      </c>
+      <c r="BA82">
+        <v>7</v>
+      </c>
+      <c r="BB82">
+        <v>4</v>
+      </c>
+      <c r="BC82">
+        <v>11</v>
+      </c>
+      <c r="BD82">
+        <v>1.87</v>
+      </c>
+      <c r="BE82">
+        <v>9</v>
+      </c>
+      <c r="BF82">
+        <v>2.36</v>
+      </c>
+      <c r="BG82">
+        <v>1.22</v>
+      </c>
+      <c r="BH82">
+        <v>3.75</v>
+      </c>
+      <c r="BI82">
+        <v>1.41</v>
+      </c>
+      <c r="BJ82">
+        <v>2.63</v>
+      </c>
+      <c r="BK82">
+        <v>2.2</v>
+      </c>
+      <c r="BL82">
+        <v>2</v>
+      </c>
+      <c r="BM82">
+        <v>2.18</v>
+      </c>
+      <c r="BN82">
+        <v>1.6</v>
+      </c>
+      <c r="BO82">
+        <v>2.88</v>
+      </c>
+      <c r="BP82">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7373259</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45459.77083333334</v>
+      </c>
+      <c r="F83">
+        <v>9</v>
+      </c>
+      <c r="G83" t="s">
+        <v>74</v>
+      </c>
+      <c r="H83" t="s">
+        <v>78</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83" t="s">
+        <v>95</v>
+      </c>
+      <c r="P83" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q83">
+        <v>3.5</v>
+      </c>
+      <c r="R83">
+        <v>1.95</v>
+      </c>
+      <c r="S83">
+        <v>3.5</v>
+      </c>
+      <c r="T83">
+        <v>1.5</v>
+      </c>
+      <c r="U83">
+        <v>2.5</v>
+      </c>
+      <c r="V83">
+        <v>3.4</v>
+      </c>
+      <c r="W83">
+        <v>1.3</v>
+      </c>
+      <c r="X83">
+        <v>10</v>
+      </c>
+      <c r="Y83">
+        <v>1.06</v>
+      </c>
+      <c r="Z83">
+        <v>2.63</v>
+      </c>
+      <c r="AA83">
+        <v>3.2</v>
+      </c>
+      <c r="AB83">
+        <v>2.7</v>
+      </c>
+      <c r="AC83">
+        <v>1.05</v>
+      </c>
+      <c r="AD83">
+        <v>7.2</v>
+      </c>
+      <c r="AE83">
+        <v>1.39</v>
+      </c>
+      <c r="AF83">
+        <v>2.68</v>
+      </c>
+      <c r="AG83">
+        <v>2.4</v>
+      </c>
+      <c r="AH83">
+        <v>1.53</v>
+      </c>
+      <c r="AI83">
+        <v>2</v>
+      </c>
+      <c r="AJ83">
+        <v>1.75</v>
+      </c>
+      <c r="AK83">
+        <v>1.45</v>
+      </c>
+      <c r="AL83">
+        <v>1.3</v>
+      </c>
+      <c r="AM83">
+        <v>1.52</v>
+      </c>
+      <c r="AN83">
+        <v>1.5</v>
+      </c>
+      <c r="AO83">
+        <v>1</v>
+      </c>
+      <c r="AP83">
+        <v>1.4</v>
+      </c>
+      <c r="AQ83">
+        <v>1</v>
+      </c>
+      <c r="AR83">
+        <v>1.32</v>
+      </c>
+      <c r="AS83">
+        <v>1.21</v>
+      </c>
+      <c r="AT83">
+        <v>2.53</v>
+      </c>
+      <c r="AU83">
+        <v>5</v>
+      </c>
+      <c r="AV83">
+        <v>3</v>
+      </c>
+      <c r="AW83">
+        <v>7</v>
+      </c>
+      <c r="AX83">
+        <v>3</v>
+      </c>
+      <c r="AY83">
+        <v>12</v>
+      </c>
+      <c r="AZ83">
+        <v>6</v>
+      </c>
+      <c r="BA83">
+        <v>5</v>
+      </c>
+      <c r="BB83">
+        <v>5</v>
+      </c>
+      <c r="BC83">
+        <v>10</v>
+      </c>
+      <c r="BD83">
+        <v>2.08</v>
+      </c>
+      <c r="BE83">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF83">
+        <v>2.08</v>
+      </c>
+      <c r="BG83">
+        <v>1.22</v>
+      </c>
+      <c r="BH83">
+        <v>3.75</v>
+      </c>
+      <c r="BI83">
+        <v>1.41</v>
+      </c>
+      <c r="BJ83">
+        <v>2.63</v>
+      </c>
+      <c r="BK83">
+        <v>2</v>
+      </c>
+      <c r="BL83">
+        <v>2</v>
+      </c>
+      <c r="BM83">
+        <v>2.18</v>
+      </c>
+      <c r="BN83">
+        <v>1.6</v>
+      </c>
+      <c r="BO83">
+        <v>2.88</v>
+      </c>
+      <c r="BP83">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7373263</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45459.77083333334</v>
+      </c>
+      <c r="F84">
+        <v>9</v>
+      </c>
+      <c r="G84" t="s">
+        <v>89</v>
+      </c>
+      <c r="H84" t="s">
+        <v>84</v>
+      </c>
+      <c r="I84">
+        <v>4</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>4</v>
+      </c>
+      <c r="L84">
+        <v>5</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>5</v>
+      </c>
+      <c r="O84" t="s">
+        <v>151</v>
+      </c>
+      <c r="P84" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q84">
+        <v>4</v>
+      </c>
+      <c r="R84">
+        <v>1.83</v>
+      </c>
+      <c r="S84">
+        <v>3.5</v>
+      </c>
+      <c r="T84">
+        <v>1.57</v>
+      </c>
+      <c r="U84">
+        <v>2.25</v>
+      </c>
+      <c r="V84">
+        <v>3.75</v>
+      </c>
+      <c r="W84">
+        <v>1.25</v>
+      </c>
+      <c r="X84">
+        <v>13</v>
+      </c>
+      <c r="Y84">
+        <v>1.04</v>
+      </c>
+      <c r="Z84">
+        <v>3.2</v>
+      </c>
+      <c r="AA84">
+        <v>2.75</v>
+      </c>
+      <c r="AB84">
+        <v>2.63</v>
+      </c>
+      <c r="AC84">
+        <v>1.12</v>
+      </c>
+      <c r="AD84">
+        <v>6.5</v>
+      </c>
+      <c r="AE84">
+        <v>1.53</v>
+      </c>
+      <c r="AF84">
+        <v>2.37</v>
+      </c>
+      <c r="AG84">
+        <v>2.88</v>
+      </c>
+      <c r="AH84">
+        <v>1.4</v>
+      </c>
+      <c r="AI84">
+        <v>2.2</v>
+      </c>
+      <c r="AJ84">
+        <v>1.62</v>
+      </c>
+      <c r="AK84">
+        <v>1.47</v>
+      </c>
+      <c r="AL84">
+        <v>1.35</v>
+      </c>
+      <c r="AM84">
+        <v>1.42</v>
+      </c>
+      <c r="AN84">
+        <v>0.25</v>
+      </c>
+      <c r="AO84">
+        <v>1.33</v>
+      </c>
+      <c r="AP84">
+        <v>0.8</v>
+      </c>
+      <c r="AQ84">
+        <v>1</v>
+      </c>
+      <c r="AR84">
+        <v>0.8</v>
+      </c>
+      <c r="AS84">
+        <v>1.25</v>
+      </c>
+      <c r="AT84">
+        <v>2.05</v>
+      </c>
+      <c r="AU84">
+        <v>14</v>
+      </c>
+      <c r="AV84">
+        <v>0</v>
+      </c>
+      <c r="AW84">
+        <v>5</v>
+      </c>
+      <c r="AX84">
+        <v>3</v>
+      </c>
+      <c r="AY84">
+        <v>19</v>
+      </c>
+      <c r="AZ84">
+        <v>3</v>
+      </c>
+      <c r="BA84">
+        <v>5</v>
+      </c>
+      <c r="BB84">
+        <v>1</v>
+      </c>
+      <c r="BC84">
+        <v>6</v>
+      </c>
+      <c r="BD84">
+        <v>1.9</v>
+      </c>
+      <c r="BE84">
+        <v>9.1</v>
+      </c>
+      <c r="BF84">
+        <v>2.28</v>
+      </c>
+      <c r="BG84">
+        <v>1.18</v>
+      </c>
+      <c r="BH84">
+        <v>4.25</v>
+      </c>
+      <c r="BI84">
+        <v>1.34</v>
+      </c>
+      <c r="BJ84">
+        <v>2.95</v>
+      </c>
+      <c r="BK84">
+        <v>2.1</v>
+      </c>
+      <c r="BL84">
+        <v>2.17</v>
+      </c>
+      <c r="BM84">
+        <v>2</v>
+      </c>
+      <c r="BN84">
+        <v>1.73</v>
+      </c>
+      <c r="BO84">
+        <v>2.6</v>
+      </c>
+      <c r="BP84">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7373264</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45459.77083333334</v>
+      </c>
+      <c r="F85">
+        <v>9</v>
+      </c>
+      <c r="G85" t="s">
+        <v>71</v>
+      </c>
+      <c r="H85" t="s">
+        <v>80</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>2</v>
+      </c>
+      <c r="M85">
+        <v>2</v>
+      </c>
+      <c r="N85">
+        <v>4</v>
+      </c>
+      <c r="O85" t="s">
+        <v>152</v>
+      </c>
+      <c r="P85" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q85">
+        <v>4</v>
+      </c>
+      <c r="R85">
+        <v>2.1</v>
+      </c>
+      <c r="S85">
+        <v>2.75</v>
+      </c>
+      <c r="T85">
+        <v>1.44</v>
+      </c>
+      <c r="U85">
+        <v>2.63</v>
+      </c>
+      <c r="V85">
+        <v>3.25</v>
+      </c>
+      <c r="W85">
+        <v>1.33</v>
+      </c>
+      <c r="X85">
+        <v>9</v>
+      </c>
+      <c r="Y85">
+        <v>1.07</v>
+      </c>
+      <c r="Z85">
+        <v>3.75</v>
+      </c>
+      <c r="AA85">
+        <v>3.25</v>
+      </c>
+      <c r="AB85">
+        <v>2.1</v>
+      </c>
+      <c r="AC85">
+        <v>1.07</v>
+      </c>
+      <c r="AD85">
+        <v>9.5</v>
+      </c>
+      <c r="AE85">
+        <v>1.36</v>
+      </c>
+      <c r="AF85">
+        <v>3.1</v>
+      </c>
+      <c r="AG85">
+        <v>2.08</v>
+      </c>
+      <c r="AH85">
+        <v>1.73</v>
+      </c>
+      <c r="AI85">
+        <v>1.8</v>
+      </c>
+      <c r="AJ85">
+        <v>1.95</v>
+      </c>
+      <c r="AK85">
+        <v>1.55</v>
+      </c>
+      <c r="AL85">
+        <v>1.3</v>
+      </c>
+      <c r="AM85">
+        <v>1.42</v>
+      </c>
+      <c r="AN85">
+        <v>0.33</v>
+      </c>
+      <c r="AO85">
+        <v>1.25</v>
+      </c>
+      <c r="AP85">
+        <v>0.5</v>
+      </c>
+      <c r="AQ85">
+        <v>1.2</v>
+      </c>
+      <c r="AR85">
+        <v>1.49</v>
+      </c>
+      <c r="AS85">
+        <v>1.23</v>
+      </c>
+      <c r="AT85">
+        <v>2.72</v>
+      </c>
+      <c r="AU85">
+        <v>6</v>
+      </c>
+      <c r="AV85">
+        <v>7</v>
+      </c>
+      <c r="AW85">
+        <v>6</v>
+      </c>
+      <c r="AX85">
+        <v>10</v>
+      </c>
+      <c r="AY85">
+        <v>12</v>
+      </c>
+      <c r="AZ85">
+        <v>17</v>
+      </c>
+      <c r="BA85">
+        <v>6</v>
+      </c>
+      <c r="BB85">
+        <v>7</v>
+      </c>
+      <c r="BC85">
+        <v>13</v>
+      </c>
+      <c r="BD85">
+        <v>2.4</v>
+      </c>
+      <c r="BE85">
+        <v>8.9</v>
+      </c>
+      <c r="BF85">
+        <v>1.85</v>
+      </c>
+      <c r="BG85">
+        <v>1.2</v>
+      </c>
+      <c r="BH85">
+        <v>3.95</v>
+      </c>
+      <c r="BI85">
+        <v>1.38</v>
+      </c>
+      <c r="BJ85">
+        <v>2.75</v>
+      </c>
+      <c r="BK85">
+        <v>2.1</v>
+      </c>
+      <c r="BL85">
+        <v>2</v>
+      </c>
+      <c r="BM85">
+        <v>2.05</v>
+      </c>
+      <c r="BN85">
+        <v>1.7</v>
+      </c>
+      <c r="BO85">
+        <v>2.7</v>
+      </c>
+      <c r="BP85">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7373256</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45460.85416666666</v>
+      </c>
+      <c r="F86">
+        <v>9</v>
+      </c>
+      <c r="G86" t="s">
+        <v>85</v>
+      </c>
+      <c r="H86" t="s">
+        <v>86</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>4</v>
+      </c>
+      <c r="N86">
+        <v>4</v>
+      </c>
+      <c r="O86" t="s">
+        <v>95</v>
+      </c>
+      <c r="P86" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q86">
+        <v>3.6</v>
+      </c>
+      <c r="R86">
+        <v>1.91</v>
+      </c>
+      <c r="S86">
+        <v>3.6</v>
+      </c>
+      <c r="T86">
+        <v>1.53</v>
+      </c>
+      <c r="U86">
+        <v>2.38</v>
+      </c>
+      <c r="V86">
+        <v>3.5</v>
+      </c>
+      <c r="W86">
+        <v>1.29</v>
+      </c>
+      <c r="X86">
+        <v>11</v>
+      </c>
+      <c r="Y86">
+        <v>1.05</v>
+      </c>
+      <c r="Z86">
+        <v>2.75</v>
+      </c>
+      <c r="AA86">
+        <v>3</v>
+      </c>
+      <c r="AB86">
+        <v>2.75</v>
+      </c>
+      <c r="AC86">
+        <v>1.09</v>
+      </c>
+      <c r="AD86">
+        <v>8</v>
+      </c>
+      <c r="AE86">
+        <v>1.45</v>
+      </c>
+      <c r="AF86">
+        <v>2.7</v>
+      </c>
+      <c r="AG86">
+        <v>2.6</v>
+      </c>
+      <c r="AH86">
+        <v>1.48</v>
+      </c>
+      <c r="AI86">
+        <v>2.1</v>
+      </c>
+      <c r="AJ86">
+        <v>1.67</v>
+      </c>
+      <c r="AK86">
+        <v>1.55</v>
+      </c>
+      <c r="AL86">
+        <v>1.3</v>
+      </c>
+      <c r="AM86">
+        <v>1.4</v>
+      </c>
+      <c r="AN86">
+        <v>1.67</v>
+      </c>
+      <c r="AO86">
+        <v>2.5</v>
+      </c>
+      <c r="AP86">
+        <v>1.25</v>
+      </c>
+      <c r="AQ86">
+        <v>2.6</v>
+      </c>
+      <c r="AR86">
+        <v>1.61</v>
+      </c>
+      <c r="AS86">
+        <v>1.51</v>
+      </c>
+      <c r="AT86">
+        <v>3.12</v>
+      </c>
+      <c r="AU86">
+        <v>4</v>
+      </c>
+      <c r="AV86">
+        <v>10</v>
+      </c>
+      <c r="AW86">
+        <v>5</v>
+      </c>
+      <c r="AX86">
+        <v>8</v>
+      </c>
+      <c r="AY86">
+        <v>9</v>
+      </c>
+      <c r="AZ86">
+        <v>18</v>
+      </c>
+      <c r="BA86">
+        <v>3</v>
+      </c>
+      <c r="BB86">
+        <v>6</v>
+      </c>
+      <c r="BC86">
+        <v>9</v>
+      </c>
+      <c r="BD86">
+        <v>2.25</v>
+      </c>
+      <c r="BE86">
+        <v>6.5</v>
+      </c>
+      <c r="BF86">
+        <v>2.02</v>
+      </c>
+      <c r="BG86">
+        <v>1.25</v>
+      </c>
+      <c r="BH86">
+        <v>3.5</v>
+      </c>
+      <c r="BI86">
+        <v>1.43</v>
+      </c>
+      <c r="BJ86">
+        <v>2.62</v>
+      </c>
+      <c r="BK86">
+        <v>2.25</v>
+      </c>
+      <c r="BL86">
+        <v>1.91</v>
+      </c>
+      <c r="BM86">
+        <v>2.22</v>
+      </c>
+      <c r="BN86">
+        <v>1.59</v>
+      </c>
+      <c r="BO86">
+        <v>2.95</v>
+      </c>
+      <c r="BP86">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="201">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -475,6 +475,18 @@
     <t>['34', '46']</t>
   </si>
   <si>
+    <t>['11']</t>
+  </si>
+  <si>
+    <t>['90+8']</t>
+  </si>
+  <si>
+    <t>['52', '90+8']</t>
+  </si>
+  <si>
+    <t>['41', '90+3']</t>
+  </si>
+  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -599,6 +611,12 @@
   </si>
   <si>
     <t>['25', '60', '61', '90+5']</t>
+  </si>
+  <si>
+    <t>['60', '90+13']</t>
+  </si>
+  <si>
+    <t>['53']</t>
   </si>
 </sst>
 </file>
@@ -960,7 +978,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP86"/>
+  <dimension ref="A1:BP93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1219,7 +1237,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1297,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ2">
         <v>1.2</v>
@@ -1425,7 +1443,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1631,7 +1649,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -1837,7 +1855,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -1915,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -2043,7 +2061,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2536,7 +2554,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ8">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2661,7 +2679,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2739,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ9">
         <v>1.8</v>
@@ -2867,7 +2885,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3073,7 +3091,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3279,7 +3297,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3975,10 +3993,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ15">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4103,7 +4121,7 @@
         <v>103</v>
       </c>
       <c r="P16" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4181,7 +4199,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4390,7 +4408,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ17">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5005,7 +5023,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
         <v>1.4</v>
@@ -5420,7 +5438,7 @@
         <v>2</v>
       </c>
       <c r="AQ22">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR22">
         <v>1.76</v>
@@ -5626,7 +5644,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ23">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR23">
         <v>1.64</v>
@@ -6369,7 +6387,7 @@
         <v>112</v>
       </c>
       <c r="P27" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -6575,7 +6593,7 @@
         <v>113</v>
       </c>
       <c r="P28" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6653,7 +6671,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ28">
         <v>0.5</v>
@@ -6781,7 +6799,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q29">
         <v>3.5</v>
@@ -6859,7 +6877,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ29">
         <v>1.6</v>
@@ -6987,7 +7005,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7068,7 +7086,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ30">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR30">
         <v>1.35</v>
@@ -7193,7 +7211,7 @@
         <v>95</v>
       </c>
       <c r="P31" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7605,7 +7623,7 @@
         <v>95</v>
       </c>
       <c r="P33" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -8017,7 +8035,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q35">
         <v>2.25</v>
@@ -8301,7 +8319,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ36">
         <v>1.25</v>
@@ -8429,7 +8447,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8507,7 +8525,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ37">
         <v>1</v>
@@ -8635,7 +8653,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -8713,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
         <v>1.4</v>
@@ -8919,7 +8937,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ39">
         <v>2.6</v>
@@ -9047,7 +9065,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9871,7 +9889,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10077,7 +10095,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10155,7 +10173,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ45">
         <v>1.2</v>
@@ -10283,7 +10301,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10570,7 +10588,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ47">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR47">
         <v>1.36</v>
@@ -10695,7 +10713,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q48">
         <v>2.38</v>
@@ -10979,7 +10997,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ49">
         <v>2</v>
@@ -11107,7 +11125,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11185,7 +11203,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ50">
         <v>1</v>
@@ -11519,7 +11537,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q52">
         <v>2.38</v>
@@ -11725,7 +11743,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q53">
         <v>2.38</v>
@@ -11803,7 +11821,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ53">
         <v>0</v>
@@ -11931,7 +11949,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -12137,7 +12155,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -12755,7 +12773,7 @@
         <v>95</v>
       </c>
       <c r="P58" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12961,7 +12979,7 @@
         <v>117</v>
       </c>
       <c r="P59" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q59">
         <v>5.5</v>
@@ -13167,7 +13185,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q60">
         <v>4.75</v>
@@ -13373,7 +13391,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q61">
         <v>2.3</v>
@@ -13657,7 +13675,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ62">
         <v>1</v>
@@ -13863,7 +13881,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ63">
         <v>1</v>
@@ -14069,7 +14087,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ64">
         <v>1.4</v>
@@ -14403,7 +14421,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14484,7 +14502,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ66">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR66">
         <v>1.13</v>
@@ -14609,7 +14627,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q67">
         <v>3.5</v>
@@ -14687,10 +14705,10 @@
         <v>0</v>
       </c>
       <c r="AP67">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ67">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR67">
         <v>1.17</v>
@@ -14893,7 +14911,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ68">
         <v>0.5</v>
@@ -15099,7 +15117,7 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ69">
         <v>0</v>
@@ -15227,7 +15245,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15433,7 +15451,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15514,7 +15532,7 @@
         <v>3</v>
       </c>
       <c r="AQ71">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR71">
         <v>1.56</v>
@@ -15639,7 +15657,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q72">
         <v>2.1</v>
@@ -15926,7 +15944,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ73">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR73">
         <v>1.66</v>
@@ -16129,7 +16147,7 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ74">
         <v>1.6</v>
@@ -16875,7 +16893,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q78">
         <v>2.63</v>
@@ -17081,7 +17099,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -17287,7 +17305,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17493,7 +17511,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17699,7 +17717,7 @@
         <v>150</v>
       </c>
       <c r="P82" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18317,7 +18335,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -18523,7 +18541,7 @@
         <v>95</v>
       </c>
       <c r="P86" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -18680,6 +18698,1448 @@
       </c>
       <c r="BP86">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7373273</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45462.79166666666</v>
+      </c>
+      <c r="F87">
+        <v>10</v>
+      </c>
+      <c r="G87" t="s">
+        <v>77</v>
+      </c>
+      <c r="H87" t="s">
+        <v>71</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>2</v>
+      </c>
+      <c r="N87">
+        <v>3</v>
+      </c>
+      <c r="O87" t="s">
+        <v>153</v>
+      </c>
+      <c r="P87" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q87">
+        <v>2.38</v>
+      </c>
+      <c r="R87">
+        <v>2.1</v>
+      </c>
+      <c r="S87">
+        <v>5.5</v>
+      </c>
+      <c r="T87">
+        <v>1.5</v>
+      </c>
+      <c r="U87">
+        <v>2.5</v>
+      </c>
+      <c r="V87">
+        <v>3.4</v>
+      </c>
+      <c r="W87">
+        <v>1.3</v>
+      </c>
+      <c r="X87">
+        <v>10</v>
+      </c>
+      <c r="Y87">
+        <v>1.06</v>
+      </c>
+      <c r="Z87">
+        <v>1.73</v>
+      </c>
+      <c r="AA87">
+        <v>3.6</v>
+      </c>
+      <c r="AB87">
+        <v>5</v>
+      </c>
+      <c r="AC87">
+        <v>1.06</v>
+      </c>
+      <c r="AD87">
+        <v>7.5</v>
+      </c>
+      <c r="AE87">
+        <v>1.38</v>
+      </c>
+      <c r="AF87">
+        <v>2.8</v>
+      </c>
+      <c r="AG87">
+        <v>2.05</v>
+      </c>
+      <c r="AH87">
+        <v>1.75</v>
+      </c>
+      <c r="AI87">
+        <v>2</v>
+      </c>
+      <c r="AJ87">
+        <v>1.75</v>
+      </c>
+      <c r="AK87">
+        <v>1.3</v>
+      </c>
+      <c r="AL87">
+        <v>1.33</v>
+      </c>
+      <c r="AM87">
+        <v>1.73</v>
+      </c>
+      <c r="AN87">
+        <v>0.25</v>
+      </c>
+      <c r="AO87">
+        <v>1.33</v>
+      </c>
+      <c r="AP87">
+        <v>0.2</v>
+      </c>
+      <c r="AQ87">
+        <v>1.75</v>
+      </c>
+      <c r="AR87">
+        <v>1.45</v>
+      </c>
+      <c r="AS87">
+        <v>1.3</v>
+      </c>
+      <c r="AT87">
+        <v>2.75</v>
+      </c>
+      <c r="AU87">
+        <v>2</v>
+      </c>
+      <c r="AV87">
+        <v>8</v>
+      </c>
+      <c r="AW87">
+        <v>8</v>
+      </c>
+      <c r="AX87">
+        <v>4</v>
+      </c>
+      <c r="AY87">
+        <v>10</v>
+      </c>
+      <c r="AZ87">
+        <v>12</v>
+      </c>
+      <c r="BA87">
+        <v>5</v>
+      </c>
+      <c r="BB87">
+        <v>1</v>
+      </c>
+      <c r="BC87">
+        <v>6</v>
+      </c>
+      <c r="BD87">
+        <v>1.5</v>
+      </c>
+      <c r="BE87">
+        <v>9.9</v>
+      </c>
+      <c r="BF87">
+        <v>3.3</v>
+      </c>
+      <c r="BG87">
+        <v>1.18</v>
+      </c>
+      <c r="BH87">
+        <v>4.2</v>
+      </c>
+      <c r="BI87">
+        <v>1.35</v>
+      </c>
+      <c r="BJ87">
+        <v>2.9</v>
+      </c>
+      <c r="BK87">
+        <v>2</v>
+      </c>
+      <c r="BL87">
+        <v>2.16</v>
+      </c>
+      <c r="BM87">
+        <v>1.95</v>
+      </c>
+      <c r="BN87">
+        <v>1.7</v>
+      </c>
+      <c r="BO87">
+        <v>2.6</v>
+      </c>
+      <c r="BP87">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7373269</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45462.79166666666</v>
+      </c>
+      <c r="F88">
+        <v>10</v>
+      </c>
+      <c r="G88" t="s">
+        <v>88</v>
+      </c>
+      <c r="H88" t="s">
+        <v>76</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>2</v>
+      </c>
+      <c r="O88" t="s">
+        <v>154</v>
+      </c>
+      <c r="P88" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q88">
+        <v>2.75</v>
+      </c>
+      <c r="R88">
+        <v>2.05</v>
+      </c>
+      <c r="S88">
+        <v>4.33</v>
+      </c>
+      <c r="T88">
+        <v>1.5</v>
+      </c>
+      <c r="U88">
+        <v>2.5</v>
+      </c>
+      <c r="V88">
+        <v>3.4</v>
+      </c>
+      <c r="W88">
+        <v>1.3</v>
+      </c>
+      <c r="X88">
+        <v>10</v>
+      </c>
+      <c r="Y88">
+        <v>1.06</v>
+      </c>
+      <c r="Z88">
+        <v>2</v>
+      </c>
+      <c r="AA88">
+        <v>3.25</v>
+      </c>
+      <c r="AB88">
+        <v>4</v>
+      </c>
+      <c r="AC88">
+        <v>1.05</v>
+      </c>
+      <c r="AD88">
+        <v>8</v>
+      </c>
+      <c r="AE88">
+        <v>1.38</v>
+      </c>
+      <c r="AF88">
+        <v>2.8</v>
+      </c>
+      <c r="AG88">
+        <v>2.15</v>
+      </c>
+      <c r="AH88">
+        <v>1.67</v>
+      </c>
+      <c r="AI88">
+        <v>1.95</v>
+      </c>
+      <c r="AJ88">
+        <v>1.8</v>
+      </c>
+      <c r="AK88">
+        <v>1.25</v>
+      </c>
+      <c r="AL88">
+        <v>1.33</v>
+      </c>
+      <c r="AM88">
+        <v>1.83</v>
+      </c>
+      <c r="AN88">
+        <v>2.25</v>
+      </c>
+      <c r="AO88">
+        <v>1</v>
+      </c>
+      <c r="AP88">
+        <v>2</v>
+      </c>
+      <c r="AQ88">
+        <v>1</v>
+      </c>
+      <c r="AR88">
+        <v>1.66</v>
+      </c>
+      <c r="AS88">
+        <v>1.16</v>
+      </c>
+      <c r="AT88">
+        <v>2.82</v>
+      </c>
+      <c r="AU88">
+        <v>2</v>
+      </c>
+      <c r="AV88">
+        <v>7</v>
+      </c>
+      <c r="AW88">
+        <v>7</v>
+      </c>
+      <c r="AX88">
+        <v>5</v>
+      </c>
+      <c r="AY88">
+        <v>9</v>
+      </c>
+      <c r="AZ88">
+        <v>12</v>
+      </c>
+      <c r="BA88">
+        <v>5</v>
+      </c>
+      <c r="BB88">
+        <v>9</v>
+      </c>
+      <c r="BC88">
+        <v>14</v>
+      </c>
+      <c r="BD88">
+        <v>1.62</v>
+      </c>
+      <c r="BE88">
+        <v>9.5</v>
+      </c>
+      <c r="BF88">
+        <v>2.88</v>
+      </c>
+      <c r="BG88">
+        <v>1.27</v>
+      </c>
+      <c r="BH88">
+        <v>3.35</v>
+      </c>
+      <c r="BI88">
+        <v>1.49</v>
+      </c>
+      <c r="BJ88">
+        <v>2.4</v>
+      </c>
+      <c r="BK88">
+        <v>2.38</v>
+      </c>
+      <c r="BL88">
+        <v>1.85</v>
+      </c>
+      <c r="BM88">
+        <v>2.38</v>
+      </c>
+      <c r="BN88">
+        <v>1.5</v>
+      </c>
+      <c r="BO88">
+        <v>3.2</v>
+      </c>
+      <c r="BP88">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7373271</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45462.83333333334</v>
+      </c>
+      <c r="F89">
+        <v>10</v>
+      </c>
+      <c r="G89" t="s">
+        <v>73</v>
+      </c>
+      <c r="H89" t="s">
+        <v>89</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89" t="s">
+        <v>95</v>
+      </c>
+      <c r="P89" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q89">
+        <v>2.2</v>
+      </c>
+      <c r="R89">
+        <v>2.1</v>
+      </c>
+      <c r="S89">
+        <v>7</v>
+      </c>
+      <c r="T89">
+        <v>1.44</v>
+      </c>
+      <c r="U89">
+        <v>2.63</v>
+      </c>
+      <c r="V89">
+        <v>3.25</v>
+      </c>
+      <c r="W89">
+        <v>1.33</v>
+      </c>
+      <c r="X89">
+        <v>9</v>
+      </c>
+      <c r="Y89">
+        <v>1.07</v>
+      </c>
+      <c r="Z89">
+        <v>1.55</v>
+      </c>
+      <c r="AA89">
+        <v>3.7</v>
+      </c>
+      <c r="AB89">
+        <v>7.5</v>
+      </c>
+      <c r="AC89">
+        <v>1.05</v>
+      </c>
+      <c r="AD89">
+        <v>7.8</v>
+      </c>
+      <c r="AE89">
+        <v>1.32</v>
+      </c>
+      <c r="AF89">
+        <v>3.1</v>
+      </c>
+      <c r="AG89">
+        <v>2.3</v>
+      </c>
+      <c r="AH89">
+        <v>1.6</v>
+      </c>
+      <c r="AI89">
+        <v>2.25</v>
+      </c>
+      <c r="AJ89">
+        <v>1.57</v>
+      </c>
+      <c r="AK89">
+        <v>1.03</v>
+      </c>
+      <c r="AL89">
+        <v>1.18</v>
+      </c>
+      <c r="AM89">
+        <v>2.85</v>
+      </c>
+      <c r="AN89">
+        <v>1.75</v>
+      </c>
+      <c r="AO89">
+        <v>0.75</v>
+      </c>
+      <c r="AP89">
+        <v>1.4</v>
+      </c>
+      <c r="AQ89">
+        <v>1.2</v>
+      </c>
+      <c r="AR89">
+        <v>1.48</v>
+      </c>
+      <c r="AS89">
+        <v>1.25</v>
+      </c>
+      <c r="AT89">
+        <v>2.73</v>
+      </c>
+      <c r="AU89">
+        <v>5</v>
+      </c>
+      <c r="AV89">
+        <v>4</v>
+      </c>
+      <c r="AW89">
+        <v>11</v>
+      </c>
+      <c r="AX89">
+        <v>7</v>
+      </c>
+      <c r="AY89">
+        <v>16</v>
+      </c>
+      <c r="AZ89">
+        <v>11</v>
+      </c>
+      <c r="BA89">
+        <v>4</v>
+      </c>
+      <c r="BB89">
+        <v>6</v>
+      </c>
+      <c r="BC89">
+        <v>10</v>
+      </c>
+      <c r="BD89">
+        <v>1.26</v>
+      </c>
+      <c r="BE89">
+        <v>14.5</v>
+      </c>
+      <c r="BF89">
+        <v>4.78</v>
+      </c>
+      <c r="BG89">
+        <v>1.22</v>
+      </c>
+      <c r="BH89">
+        <v>3.75</v>
+      </c>
+      <c r="BI89">
+        <v>1.41</v>
+      </c>
+      <c r="BJ89">
+        <v>2.65</v>
+      </c>
+      <c r="BK89">
+        <v>2.1</v>
+      </c>
+      <c r="BL89">
+        <v>2.05</v>
+      </c>
+      <c r="BM89">
+        <v>2.16</v>
+      </c>
+      <c r="BN89">
+        <v>1.6</v>
+      </c>
+      <c r="BO89">
+        <v>2.85</v>
+      </c>
+      <c r="BP89">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7373274</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45462.83333333334</v>
+      </c>
+      <c r="F90">
+        <v>10</v>
+      </c>
+      <c r="G90" t="s">
+        <v>83</v>
+      </c>
+      <c r="H90" t="s">
+        <v>74</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>2</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>2</v>
+      </c>
+      <c r="O90" t="s">
+        <v>155</v>
+      </c>
+      <c r="P90" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q90">
+        <v>3</v>
+      </c>
+      <c r="R90">
+        <v>1.95</v>
+      </c>
+      <c r="S90">
+        <v>4.33</v>
+      </c>
+      <c r="T90">
+        <v>1.52</v>
+      </c>
+      <c r="U90">
+        <v>2.55</v>
+      </c>
+      <c r="V90">
+        <v>3.4</v>
+      </c>
+      <c r="W90">
+        <v>1.3</v>
+      </c>
+      <c r="X90">
+        <v>9.5</v>
+      </c>
+      <c r="Y90">
+        <v>1.04</v>
+      </c>
+      <c r="Z90">
+        <v>2.2</v>
+      </c>
+      <c r="AA90">
+        <v>3</v>
+      </c>
+      <c r="AB90">
+        <v>3.8</v>
+      </c>
+      <c r="AC90">
+        <v>1.06</v>
+      </c>
+      <c r="AD90">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE90">
+        <v>1.44</v>
+      </c>
+      <c r="AF90">
+        <v>2.75</v>
+      </c>
+      <c r="AG90">
+        <v>2.6</v>
+      </c>
+      <c r="AH90">
+        <v>1.48</v>
+      </c>
+      <c r="AI90">
+        <v>2.1</v>
+      </c>
+      <c r="AJ90">
+        <v>1.67</v>
+      </c>
+      <c r="AK90">
+        <v>1.45</v>
+      </c>
+      <c r="AL90">
+        <v>1.3</v>
+      </c>
+      <c r="AM90">
+        <v>1.5</v>
+      </c>
+      <c r="AN90">
+        <v>2</v>
+      </c>
+      <c r="AO90">
+        <v>0</v>
+      </c>
+      <c r="AP90">
+        <v>2.2</v>
+      </c>
+      <c r="AQ90">
+        <v>0</v>
+      </c>
+      <c r="AR90">
+        <v>1.35</v>
+      </c>
+      <c r="AS90">
+        <v>1.22</v>
+      </c>
+      <c r="AT90">
+        <v>2.57</v>
+      </c>
+      <c r="AU90">
+        <v>5</v>
+      </c>
+      <c r="AV90">
+        <v>3</v>
+      </c>
+      <c r="AW90">
+        <v>6</v>
+      </c>
+      <c r="AX90">
+        <v>3</v>
+      </c>
+      <c r="AY90">
+        <v>11</v>
+      </c>
+      <c r="AZ90">
+        <v>6</v>
+      </c>
+      <c r="BA90">
+        <v>5</v>
+      </c>
+      <c r="BB90">
+        <v>4</v>
+      </c>
+      <c r="BC90">
+        <v>9</v>
+      </c>
+      <c r="BD90">
+        <v>1.62</v>
+      </c>
+      <c r="BE90">
+        <v>9.5</v>
+      </c>
+      <c r="BF90">
+        <v>2.88</v>
+      </c>
+      <c r="BG90">
+        <v>1.22</v>
+      </c>
+      <c r="BH90">
+        <v>3.75</v>
+      </c>
+      <c r="BI90">
+        <v>1.41</v>
+      </c>
+      <c r="BJ90">
+        <v>2.65</v>
+      </c>
+      <c r="BK90">
+        <v>2.1</v>
+      </c>
+      <c r="BL90">
+        <v>1.95</v>
+      </c>
+      <c r="BM90">
+        <v>2.16</v>
+      </c>
+      <c r="BN90">
+        <v>1.6</v>
+      </c>
+      <c r="BO90">
+        <v>2.85</v>
+      </c>
+      <c r="BP90">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7373272</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45462.83333333334</v>
+      </c>
+      <c r="F91">
+        <v>10</v>
+      </c>
+      <c r="G91" t="s">
+        <v>84</v>
+      </c>
+      <c r="H91" t="s">
+        <v>81</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91" t="s">
+        <v>129</v>
+      </c>
+      <c r="P91" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q91">
+        <v>2.63</v>
+      </c>
+      <c r="R91">
+        <v>2.1</v>
+      </c>
+      <c r="S91">
+        <v>4.5</v>
+      </c>
+      <c r="T91">
+        <v>1.5</v>
+      </c>
+      <c r="U91">
+        <v>2.5</v>
+      </c>
+      <c r="V91">
+        <v>3.4</v>
+      </c>
+      <c r="W91">
+        <v>1.3</v>
+      </c>
+      <c r="X91">
+        <v>10</v>
+      </c>
+      <c r="Y91">
+        <v>1.06</v>
+      </c>
+      <c r="Z91">
+        <v>1.95</v>
+      </c>
+      <c r="AA91">
+        <v>3.4</v>
+      </c>
+      <c r="AB91">
+        <v>4.1</v>
+      </c>
+      <c r="AC91">
+        <v>1.07</v>
+      </c>
+      <c r="AD91">
+        <v>9</v>
+      </c>
+      <c r="AE91">
+        <v>1.4</v>
+      </c>
+      <c r="AF91">
+        <v>2.95</v>
+      </c>
+      <c r="AG91">
+        <v>2.15</v>
+      </c>
+      <c r="AH91">
+        <v>1.67</v>
+      </c>
+      <c r="AI91">
+        <v>1.91</v>
+      </c>
+      <c r="AJ91">
+        <v>1.91</v>
+      </c>
+      <c r="AK91">
+        <v>1.25</v>
+      </c>
+      <c r="AL91">
+        <v>1.25</v>
+      </c>
+      <c r="AM91">
+        <v>1.85</v>
+      </c>
+      <c r="AN91">
+        <v>1.5</v>
+      </c>
+      <c r="AO91">
+        <v>0</v>
+      </c>
+      <c r="AP91">
+        <v>1.8</v>
+      </c>
+      <c r="AQ91">
+        <v>0</v>
+      </c>
+      <c r="AR91">
+        <v>1.34</v>
+      </c>
+      <c r="AS91">
+        <v>1.1</v>
+      </c>
+      <c r="AT91">
+        <v>2.44</v>
+      </c>
+      <c r="AU91">
+        <v>5</v>
+      </c>
+      <c r="AV91">
+        <v>3</v>
+      </c>
+      <c r="AW91">
+        <v>6</v>
+      </c>
+      <c r="AX91">
+        <v>4</v>
+      </c>
+      <c r="AY91">
+        <v>11</v>
+      </c>
+      <c r="AZ91">
+        <v>7</v>
+      </c>
+      <c r="BA91">
+        <v>8</v>
+      </c>
+      <c r="BB91">
+        <v>3</v>
+      </c>
+      <c r="BC91">
+        <v>11</v>
+      </c>
+      <c r="BD91">
+        <v>1.67</v>
+      </c>
+      <c r="BE91">
+        <v>9.5</v>
+      </c>
+      <c r="BF91">
+        <v>2.74</v>
+      </c>
+      <c r="BG91">
+        <v>1.2</v>
+      </c>
+      <c r="BH91">
+        <v>3.95</v>
+      </c>
+      <c r="BI91">
+        <v>1.38</v>
+      </c>
+      <c r="BJ91">
+        <v>2.75</v>
+      </c>
+      <c r="BK91">
+        <v>2.1</v>
+      </c>
+      <c r="BL91">
+        <v>2.05</v>
+      </c>
+      <c r="BM91">
+        <v>2.08</v>
+      </c>
+      <c r="BN91">
+        <v>1.65</v>
+      </c>
+      <c r="BO91">
+        <v>2.7</v>
+      </c>
+      <c r="BP91">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7373266</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45462.89583333334</v>
+      </c>
+      <c r="F92">
+        <v>10</v>
+      </c>
+      <c r="G92" t="s">
+        <v>78</v>
+      </c>
+      <c r="H92" t="s">
+        <v>72</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>2</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>2</v>
+      </c>
+      <c r="O92" t="s">
+        <v>156</v>
+      </c>
+      <c r="P92" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q92">
+        <v>2.38</v>
+      </c>
+      <c r="R92">
+        <v>2.1</v>
+      </c>
+      <c r="S92">
+        <v>5.5</v>
+      </c>
+      <c r="T92">
+        <v>1.5</v>
+      </c>
+      <c r="U92">
+        <v>2.5</v>
+      </c>
+      <c r="V92">
+        <v>3.4</v>
+      </c>
+      <c r="W92">
+        <v>1.3</v>
+      </c>
+      <c r="X92">
+        <v>10</v>
+      </c>
+      <c r="Y92">
+        <v>1.06</v>
+      </c>
+      <c r="Z92">
+        <v>1.7</v>
+      </c>
+      <c r="AA92">
+        <v>3.6</v>
+      </c>
+      <c r="AB92">
+        <v>5.25</v>
+      </c>
+      <c r="AC92">
+        <v>1.07</v>
+      </c>
+      <c r="AD92">
+        <v>6.8</v>
+      </c>
+      <c r="AE92">
+        <v>1.35</v>
+      </c>
+      <c r="AF92">
+        <v>2.9</v>
+      </c>
+      <c r="AG92">
+        <v>2.08</v>
+      </c>
+      <c r="AH92">
+        <v>1.73</v>
+      </c>
+      <c r="AI92">
+        <v>2</v>
+      </c>
+      <c r="AJ92">
+        <v>1.75</v>
+      </c>
+      <c r="AK92">
+        <v>1.22</v>
+      </c>
+      <c r="AL92">
+        <v>1.28</v>
+      </c>
+      <c r="AM92">
+        <v>1.77</v>
+      </c>
+      <c r="AN92">
+        <v>3</v>
+      </c>
+      <c r="AO92">
+        <v>0</v>
+      </c>
+      <c r="AP92">
+        <v>3</v>
+      </c>
+      <c r="AQ92">
+        <v>0</v>
+      </c>
+      <c r="AR92">
+        <v>1.62</v>
+      </c>
+      <c r="AS92">
+        <v>0.91</v>
+      </c>
+      <c r="AT92">
+        <v>2.53</v>
+      </c>
+      <c r="AU92">
+        <v>6</v>
+      </c>
+      <c r="AV92">
+        <v>5</v>
+      </c>
+      <c r="AW92">
+        <v>7</v>
+      </c>
+      <c r="AX92">
+        <v>4</v>
+      </c>
+      <c r="AY92">
+        <v>13</v>
+      </c>
+      <c r="AZ92">
+        <v>9</v>
+      </c>
+      <c r="BA92">
+        <v>6</v>
+      </c>
+      <c r="BB92">
+        <v>5</v>
+      </c>
+      <c r="BC92">
+        <v>11</v>
+      </c>
+      <c r="BD92">
+        <v>1.48</v>
+      </c>
+      <c r="BE92">
+        <v>9.9</v>
+      </c>
+      <c r="BF92">
+        <v>3.4</v>
+      </c>
+      <c r="BG92">
+        <v>1.2</v>
+      </c>
+      <c r="BH92">
+        <v>4</v>
+      </c>
+      <c r="BI92">
+        <v>1.38</v>
+      </c>
+      <c r="BJ92">
+        <v>2.8</v>
+      </c>
+      <c r="BK92">
+        <v>2</v>
+      </c>
+      <c r="BL92">
+        <v>2.08</v>
+      </c>
+      <c r="BM92">
+        <v>2.05</v>
+      </c>
+      <c r="BN92">
+        <v>1.7</v>
+      </c>
+      <c r="BO92">
+        <v>2.7</v>
+      </c>
+      <c r="BP92">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7373265</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45462.89583333334</v>
+      </c>
+      <c r="F93">
+        <v>10</v>
+      </c>
+      <c r="G93" t="s">
+        <v>70</v>
+      </c>
+      <c r="H93" t="s">
+        <v>75</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="O93" t="s">
+        <v>129</v>
+      </c>
+      <c r="P93" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q93">
+        <v>3.1</v>
+      </c>
+      <c r="R93">
+        <v>1.91</v>
+      </c>
+      <c r="S93">
+        <v>4.33</v>
+      </c>
+      <c r="T93">
+        <v>1.53</v>
+      </c>
+      <c r="U93">
+        <v>2.38</v>
+      </c>
+      <c r="V93">
+        <v>3.5</v>
+      </c>
+      <c r="W93">
+        <v>1.29</v>
+      </c>
+      <c r="X93">
+        <v>11</v>
+      </c>
+      <c r="Y93">
+        <v>1.05</v>
+      </c>
+      <c r="Z93">
+        <v>2.25</v>
+      </c>
+      <c r="AA93">
+        <v>3.1</v>
+      </c>
+      <c r="AB93">
+        <v>3.5</v>
+      </c>
+      <c r="AC93">
+        <v>1.1</v>
+      </c>
+      <c r="AD93">
+        <v>5.8</v>
+      </c>
+      <c r="AE93">
+        <v>1.5</v>
+      </c>
+      <c r="AF93">
+        <v>2.4</v>
+      </c>
+      <c r="AG93">
+        <v>2.5</v>
+      </c>
+      <c r="AH93">
+        <v>1.5</v>
+      </c>
+      <c r="AI93">
+        <v>2.1</v>
+      </c>
+      <c r="AJ93">
+        <v>1.67</v>
+      </c>
+      <c r="AK93">
+        <v>1.15</v>
+      </c>
+      <c r="AL93">
+        <v>1.3</v>
+      </c>
+      <c r="AM93">
+        <v>1.9</v>
+      </c>
+      <c r="AN93">
+        <v>1.67</v>
+      </c>
+      <c r="AO93">
+        <v>0.25</v>
+      </c>
+      <c r="AP93">
+        <v>2</v>
+      </c>
+      <c r="AQ93">
+        <v>0.2</v>
+      </c>
+      <c r="AR93">
+        <v>1.69</v>
+      </c>
+      <c r="AS93">
+        <v>1.23</v>
+      </c>
+      <c r="AT93">
+        <v>2.92</v>
+      </c>
+      <c r="AU93">
+        <v>6</v>
+      </c>
+      <c r="AV93">
+        <v>4</v>
+      </c>
+      <c r="AW93">
+        <v>2</v>
+      </c>
+      <c r="AX93">
+        <v>4</v>
+      </c>
+      <c r="AY93">
+        <v>8</v>
+      </c>
+      <c r="AZ93">
+        <v>8</v>
+      </c>
+      <c r="BA93">
+        <v>3</v>
+      </c>
+      <c r="BB93">
+        <v>7</v>
+      </c>
+      <c r="BC93">
+        <v>10</v>
+      </c>
+      <c r="BD93">
+        <v>1.5</v>
+      </c>
+      <c r="BE93">
+        <v>9.1</v>
+      </c>
+      <c r="BF93">
+        <v>3.4</v>
+      </c>
+      <c r="BG93">
+        <v>1.22</v>
+      </c>
+      <c r="BH93">
+        <v>3.75</v>
+      </c>
+      <c r="BI93">
+        <v>1.41</v>
+      </c>
+      <c r="BJ93">
+        <v>2.65</v>
+      </c>
+      <c r="BK93">
+        <v>2.1</v>
+      </c>
+      <c r="BL93">
+        <v>2</v>
+      </c>
+      <c r="BM93">
+        <v>2.16</v>
+      </c>
+      <c r="BN93">
+        <v>1.6</v>
+      </c>
+      <c r="BO93">
+        <v>2.85</v>
+      </c>
+      <c r="BP93">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="206">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -487,6 +487,15 @@
     <t>['41', '90+3']</t>
   </si>
   <si>
+    <t>['8', '44', '66', '76']</t>
+  </si>
+  <si>
+    <t>['23', '90+4']</t>
+  </si>
+  <si>
+    <t>['21', '55']</t>
+  </si>
+  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -617,6 +626,12 @@
   </si>
   <si>
     <t>['53']</t>
+  </si>
+  <si>
+    <t>['14', '88']</t>
+  </si>
+  <si>
+    <t>['35']</t>
   </si>
 </sst>
 </file>
@@ -978,7 +993,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP93"/>
+  <dimension ref="A1:BP96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1237,7 +1252,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1318,7 +1333,7 @@
         <v>2</v>
       </c>
       <c r="AQ2">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1443,7 +1458,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1649,7 +1664,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -1730,7 +1745,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ4">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1855,7 +1870,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -2061,7 +2076,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2348,7 +2363,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ7">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2679,7 +2694,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2885,7 +2900,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3091,7 +3106,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3169,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ11">
         <v>2.6</v>
@@ -3297,7 +3312,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -4121,7 +4136,7 @@
         <v>103</v>
       </c>
       <c r="P16" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4611,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ18">
         <v>1.5</v>
@@ -4817,7 +4832,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ19">
         <v>1.6</v>
@@ -6053,7 +6068,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ25">
         <v>1.8</v>
@@ -6387,7 +6402,7 @@
         <v>112</v>
       </c>
       <c r="P27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -6465,10 +6480,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ27">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>1.33</v>
@@ -6593,7 +6608,7 @@
         <v>113</v>
       </c>
       <c r="P28" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6799,7 +6814,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q29">
         <v>3.5</v>
@@ -7005,7 +7020,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7211,7 +7226,7 @@
         <v>95</v>
       </c>
       <c r="P31" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7292,7 +7307,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ31">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR31">
         <v>0</v>
@@ -7623,7 +7638,7 @@
         <v>95</v>
       </c>
       <c r="P33" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7701,7 +7716,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ33">
         <v>2</v>
@@ -8035,7 +8050,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q35">
         <v>2.25</v>
@@ -8322,7 +8337,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ36">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>1.19</v>
@@ -8447,7 +8462,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8653,7 +8668,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -9065,7 +9080,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9146,7 +9161,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ40">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR40">
         <v>2.22</v>
@@ -9889,7 +9904,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -9967,7 +9982,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ44">
         <v>1.6</v>
@@ -10095,7 +10110,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10176,7 +10191,7 @@
         <v>2</v>
       </c>
       <c r="AQ45">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR45">
         <v>1.46</v>
@@ -10301,7 +10316,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10585,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ47">
         <v>0.2</v>
@@ -10713,7 +10728,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q48">
         <v>2.38</v>
@@ -10791,7 +10806,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -11125,7 +11140,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11412,7 +11427,7 @@
         <v>3</v>
       </c>
       <c r="AQ51">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR51">
         <v>1.45</v>
@@ -11537,7 +11552,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q52">
         <v>2.38</v>
@@ -11743,7 +11758,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q53">
         <v>2.38</v>
@@ -11949,7 +11964,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -12030,7 +12045,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ54">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR54">
         <v>1.51</v>
@@ -12155,7 +12170,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -12233,7 +12248,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ55">
         <v>1.4</v>
@@ -12773,7 +12788,7 @@
         <v>95</v>
       </c>
       <c r="P58" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12979,7 +12994,7 @@
         <v>117</v>
       </c>
       <c r="P59" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q59">
         <v>5.5</v>
@@ -13185,7 +13200,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q60">
         <v>4.75</v>
@@ -13391,7 +13406,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q61">
         <v>2.3</v>
@@ -13472,7 +13487,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ61">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR61">
         <v>1.55</v>
@@ -14421,7 +14436,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14627,7 +14642,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q67">
         <v>3.5</v>
@@ -15245,7 +15260,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15326,7 +15341,7 @@
         <v>2</v>
       </c>
       <c r="AQ70">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR70">
         <v>1.37</v>
@@ -15451,7 +15466,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15657,7 +15672,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q72">
         <v>2.1</v>
@@ -15735,7 +15750,7 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ72">
         <v>0</v>
@@ -16559,7 +16574,7 @@
         <v>0</v>
       </c>
       <c r="AP76">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ76">
         <v>0</v>
@@ -16893,7 +16908,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q78">
         <v>2.63</v>
@@ -17099,7 +17114,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -17177,7 +17192,7 @@
         <v>2</v>
       </c>
       <c r="AP79">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ79">
         <v>1.5</v>
@@ -17305,7 +17320,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17511,7 +17526,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17717,7 +17732,7 @@
         <v>150</v>
       </c>
       <c r="P82" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18335,7 +18350,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -18416,7 +18431,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ85">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR85">
         <v>1.49</v>
@@ -18541,7 +18556,7 @@
         <v>95</v>
       </c>
       <c r="P86" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -18747,7 +18762,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q87">
         <v>2.38</v>
@@ -18953,7 +18968,7 @@
         <v>154</v>
       </c>
       <c r="P88" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19159,7 +19174,7 @@
         <v>95</v>
       </c>
       <c r="P89" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -20140,6 +20155,624 @@
       </c>
       <c r="BP93">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7373267</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45463.77083333334</v>
+      </c>
+      <c r="F94">
+        <v>10</v>
+      </c>
+      <c r="G94" t="s">
+        <v>79</v>
+      </c>
+      <c r="H94" t="s">
+        <v>85</v>
+      </c>
+      <c r="I94">
+        <v>2</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>3</v>
+      </c>
+      <c r="L94">
+        <v>4</v>
+      </c>
+      <c r="M94">
+        <v>2</v>
+      </c>
+      <c r="N94">
+        <v>6</v>
+      </c>
+      <c r="O94" t="s">
+        <v>157</v>
+      </c>
+      <c r="P94" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q94">
+        <v>3.6</v>
+      </c>
+      <c r="R94">
+        <v>1.95</v>
+      </c>
+      <c r="S94">
+        <v>3.4</v>
+      </c>
+      <c r="T94">
+        <v>1.53</v>
+      </c>
+      <c r="U94">
+        <v>2.38</v>
+      </c>
+      <c r="V94">
+        <v>3.75</v>
+      </c>
+      <c r="W94">
+        <v>1.25</v>
+      </c>
+      <c r="X94">
+        <v>11</v>
+      </c>
+      <c r="Y94">
+        <v>1.05</v>
+      </c>
+      <c r="Z94">
+        <v>2.9</v>
+      </c>
+      <c r="AA94">
+        <v>3</v>
+      </c>
+      <c r="AB94">
+        <v>2.6</v>
+      </c>
+      <c r="AC94">
+        <v>1.09</v>
+      </c>
+      <c r="AD94">
+        <v>5.8</v>
+      </c>
+      <c r="AE94">
+        <v>1.45</v>
+      </c>
+      <c r="AF94">
+        <v>2.55</v>
+      </c>
+      <c r="AG94">
+        <v>2.4</v>
+      </c>
+      <c r="AH94">
+        <v>1.53</v>
+      </c>
+      <c r="AI94">
+        <v>2</v>
+      </c>
+      <c r="AJ94">
+        <v>1.75</v>
+      </c>
+      <c r="AK94">
+        <v>1.72</v>
+      </c>
+      <c r="AL94">
+        <v>1.33</v>
+      </c>
+      <c r="AM94">
+        <v>1.2</v>
+      </c>
+      <c r="AN94">
+        <v>0.8</v>
+      </c>
+      <c r="AO94">
+        <v>2</v>
+      </c>
+      <c r="AP94">
+        <v>1.17</v>
+      </c>
+      <c r="AQ94">
+        <v>1.6</v>
+      </c>
+      <c r="AR94">
+        <v>1.18</v>
+      </c>
+      <c r="AS94">
+        <v>1.3</v>
+      </c>
+      <c r="AT94">
+        <v>2.48</v>
+      </c>
+      <c r="AU94">
+        <v>7</v>
+      </c>
+      <c r="AV94">
+        <v>8</v>
+      </c>
+      <c r="AW94">
+        <v>5</v>
+      </c>
+      <c r="AX94">
+        <v>8</v>
+      </c>
+      <c r="AY94">
+        <v>12</v>
+      </c>
+      <c r="AZ94">
+        <v>16</v>
+      </c>
+      <c r="BA94">
+        <v>2</v>
+      </c>
+      <c r="BB94">
+        <v>4</v>
+      </c>
+      <c r="BC94">
+        <v>6</v>
+      </c>
+      <c r="BD94">
+        <v>2.1</v>
+      </c>
+      <c r="BE94">
+        <v>8.1</v>
+      </c>
+      <c r="BF94">
+        <v>2.1</v>
+      </c>
+      <c r="BG94">
+        <v>1.27</v>
+      </c>
+      <c r="BH94">
+        <v>3.35</v>
+      </c>
+      <c r="BI94">
+        <v>1.49</v>
+      </c>
+      <c r="BJ94">
+        <v>2.4</v>
+      </c>
+      <c r="BK94">
+        <v>1.85</v>
+      </c>
+      <c r="BL94">
+        <v>1.85</v>
+      </c>
+      <c r="BM94">
+        <v>2.38</v>
+      </c>
+      <c r="BN94">
+        <v>1.5</v>
+      </c>
+      <c r="BO94">
+        <v>3.2</v>
+      </c>
+      <c r="BP94">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7373268</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45463.83333333334</v>
+      </c>
+      <c r="F95">
+        <v>10</v>
+      </c>
+      <c r="G95" t="s">
+        <v>87</v>
+      </c>
+      <c r="H95" t="s">
+        <v>80</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>2</v>
+      </c>
+      <c r="L95">
+        <v>2</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>3</v>
+      </c>
+      <c r="O95" t="s">
+        <v>158</v>
+      </c>
+      <c r="P95" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q95">
+        <v>2.2</v>
+      </c>
+      <c r="R95">
+        <v>2.25</v>
+      </c>
+      <c r="S95">
+        <v>5.5</v>
+      </c>
+      <c r="T95">
+        <v>1.36</v>
+      </c>
+      <c r="U95">
+        <v>3</v>
+      </c>
+      <c r="V95">
+        <v>2.75</v>
+      </c>
+      <c r="W95">
+        <v>1.4</v>
+      </c>
+      <c r="X95">
+        <v>8</v>
+      </c>
+      <c r="Y95">
+        <v>1.08</v>
+      </c>
+      <c r="Z95">
+        <v>1.62</v>
+      </c>
+      <c r="AA95">
+        <v>3.7</v>
+      </c>
+      <c r="AB95">
+        <v>5.75</v>
+      </c>
+      <c r="AC95">
+        <v>1.01</v>
+      </c>
+      <c r="AD95">
+        <v>10.5</v>
+      </c>
+      <c r="AE95">
+        <v>1.25</v>
+      </c>
+      <c r="AF95">
+        <v>3.5</v>
+      </c>
+      <c r="AG95">
+        <v>1.9</v>
+      </c>
+      <c r="AH95">
+        <v>1.9</v>
+      </c>
+      <c r="AI95">
+        <v>1.95</v>
+      </c>
+      <c r="AJ95">
+        <v>1.8</v>
+      </c>
+      <c r="AK95">
+        <v>1.14</v>
+      </c>
+      <c r="AL95">
+        <v>1.25</v>
+      </c>
+      <c r="AM95">
+        <v>2.05</v>
+      </c>
+      <c r="AN95">
+        <v>2.25</v>
+      </c>
+      <c r="AO95">
+        <v>1.2</v>
+      </c>
+      <c r="AP95">
+        <v>2.4</v>
+      </c>
+      <c r="AQ95">
+        <v>1</v>
+      </c>
+      <c r="AR95">
+        <v>1.65</v>
+      </c>
+      <c r="AS95">
+        <v>1.37</v>
+      </c>
+      <c r="AT95">
+        <v>3.02</v>
+      </c>
+      <c r="AU95">
+        <v>4</v>
+      </c>
+      <c r="AV95">
+        <v>4</v>
+      </c>
+      <c r="AW95">
+        <v>7</v>
+      </c>
+      <c r="AX95">
+        <v>6</v>
+      </c>
+      <c r="AY95">
+        <v>11</v>
+      </c>
+      <c r="AZ95">
+        <v>10</v>
+      </c>
+      <c r="BA95">
+        <v>6</v>
+      </c>
+      <c r="BB95">
+        <v>2</v>
+      </c>
+      <c r="BC95">
+        <v>8</v>
+      </c>
+      <c r="BD95">
+        <v>1.46</v>
+      </c>
+      <c r="BE95">
+        <v>10.5</v>
+      </c>
+      <c r="BF95">
+        <v>3.41</v>
+      </c>
+      <c r="BG95">
+        <v>1.2</v>
+      </c>
+      <c r="BH95">
+        <v>3.95</v>
+      </c>
+      <c r="BI95">
+        <v>1.38</v>
+      </c>
+      <c r="BJ95">
+        <v>2.75</v>
+      </c>
+      <c r="BK95">
+        <v>2.1</v>
+      </c>
+      <c r="BL95">
+        <v>2.07</v>
+      </c>
+      <c r="BM95">
+        <v>2.05</v>
+      </c>
+      <c r="BN95">
+        <v>1.7</v>
+      </c>
+      <c r="BO95">
+        <v>2.7</v>
+      </c>
+      <c r="BP95">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7373270</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45463.89583333334</v>
+      </c>
+      <c r="F96">
+        <v>10</v>
+      </c>
+      <c r="G96" t="s">
+        <v>86</v>
+      </c>
+      <c r="H96" t="s">
+        <v>82</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>2</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>3</v>
+      </c>
+      <c r="O96" t="s">
+        <v>159</v>
+      </c>
+      <c r="P96" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q96">
+        <v>2.1</v>
+      </c>
+      <c r="R96">
+        <v>2.2</v>
+      </c>
+      <c r="S96">
+        <v>6</v>
+      </c>
+      <c r="T96">
+        <v>1.44</v>
+      </c>
+      <c r="U96">
+        <v>2.63</v>
+      </c>
+      <c r="V96">
+        <v>3.25</v>
+      </c>
+      <c r="W96">
+        <v>1.33</v>
+      </c>
+      <c r="X96">
+        <v>9</v>
+      </c>
+      <c r="Y96">
+        <v>1.07</v>
+      </c>
+      <c r="Z96">
+        <v>1.55</v>
+      </c>
+      <c r="AA96">
+        <v>3.8</v>
+      </c>
+      <c r="AB96">
+        <v>6.5</v>
+      </c>
+      <c r="AC96">
+        <v>1.05</v>
+      </c>
+      <c r="AD96">
+        <v>7.5</v>
+      </c>
+      <c r="AE96">
+        <v>1.35</v>
+      </c>
+      <c r="AF96">
+        <v>2.9</v>
+      </c>
+      <c r="AG96">
+        <v>2</v>
+      </c>
+      <c r="AH96">
+        <v>1.8</v>
+      </c>
+      <c r="AI96">
+        <v>2</v>
+      </c>
+      <c r="AJ96">
+        <v>1.75</v>
+      </c>
+      <c r="AK96">
+        <v>1.11</v>
+      </c>
+      <c r="AL96">
+        <v>1.22</v>
+      </c>
+      <c r="AM96">
+        <v>2.25</v>
+      </c>
+      <c r="AN96">
+        <v>1</v>
+      </c>
+      <c r="AO96">
+        <v>1.25</v>
+      </c>
+      <c r="AP96">
+        <v>1.4</v>
+      </c>
+      <c r="AQ96">
+        <v>1</v>
+      </c>
+      <c r="AR96">
+        <v>1.68</v>
+      </c>
+      <c r="AS96">
+        <v>1.48</v>
+      </c>
+      <c r="AT96">
+        <v>3.16</v>
+      </c>
+      <c r="AU96">
+        <v>8</v>
+      </c>
+      <c r="AV96">
+        <v>4</v>
+      </c>
+      <c r="AW96">
+        <v>6</v>
+      </c>
+      <c r="AX96">
+        <v>8</v>
+      </c>
+      <c r="AY96">
+        <v>14</v>
+      </c>
+      <c r="AZ96">
+        <v>12</v>
+      </c>
+      <c r="BA96">
+        <v>10</v>
+      </c>
+      <c r="BB96">
+        <v>3</v>
+      </c>
+      <c r="BC96">
+        <v>13</v>
+      </c>
+      <c r="BD96">
+        <v>1.46</v>
+      </c>
+      <c r="BE96">
+        <v>11</v>
+      </c>
+      <c r="BF96">
+        <v>3.4</v>
+      </c>
+      <c r="BG96">
+        <v>1.18</v>
+      </c>
+      <c r="BH96">
+        <v>4.2</v>
+      </c>
+      <c r="BI96">
+        <v>1.35</v>
+      </c>
+      <c r="BJ96">
+        <v>2.9</v>
+      </c>
+      <c r="BK96">
+        <v>2</v>
+      </c>
+      <c r="BL96">
+        <v>2.16</v>
+      </c>
+      <c r="BM96">
+        <v>2</v>
+      </c>
+      <c r="BN96">
+        <v>1.71</v>
+      </c>
+      <c r="BO96">
+        <v>2.6</v>
+      </c>
+      <c r="BP96">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="208">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -494,6 +494,12 @@
   </si>
   <si>
     <t>['21', '55']</t>
+  </si>
+  <si>
+    <t>['10', '84']</t>
+  </si>
+  <si>
+    <t>['33', '45+3', '80', '90+3']</t>
   </si>
   <si>
     <t>['70']</t>
@@ -993,7 +999,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP96"/>
+  <dimension ref="A1:BP100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1252,7 +1258,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1458,7 +1464,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1536,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
         <v>0.5</v>
@@ -1664,7 +1670,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -1870,7 +1876,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -2076,7 +2082,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2154,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ6">
         <v>0</v>
@@ -2694,7 +2700,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2900,7 +2906,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -2981,7 +2987,7 @@
         <v>3</v>
       </c>
       <c r="AQ10">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3106,7 +3112,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3312,7 +3318,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3596,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ13">
         <v>1</v>
@@ -4136,7 +4142,7 @@
         <v>103</v>
       </c>
       <c r="P16" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4629,7 +4635,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ18">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4835,7 +4841,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ19">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5041,7 +5047,7 @@
         <v>2</v>
       </c>
       <c r="AQ20">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5656,7 +5662,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ23">
         <v>1.2</v>
@@ -6277,7 +6283,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ26">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR26">
         <v>2.21</v>
@@ -6402,7 +6408,7 @@
         <v>112</v>
       </c>
       <c r="P27" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -6608,7 +6614,7 @@
         <v>113</v>
       </c>
       <c r="P28" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6814,7 +6820,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q29">
         <v>3.5</v>
@@ -6895,7 +6901,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ29">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR29">
         <v>1.21</v>
@@ -7020,7 +7026,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7098,7 +7104,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ30">
         <v>1.75</v>
@@ -7226,7 +7232,7 @@
         <v>95</v>
       </c>
       <c r="P31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7304,7 +7310,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ31">
         <v>1.6</v>
@@ -7638,7 +7644,7 @@
         <v>95</v>
       </c>
       <c r="P33" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7719,7 +7725,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ33">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR33">
         <v>1.46</v>
@@ -8050,7 +8056,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q35">
         <v>2.25</v>
@@ -8462,7 +8468,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8668,7 +8674,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -8749,7 +8755,7 @@
         <v>2</v>
       </c>
       <c r="AQ38">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR38">
         <v>2.13</v>
@@ -9080,7 +9086,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9904,7 +9910,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -9985,7 +9991,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ44">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR44">
         <v>1.47</v>
@@ -10110,7 +10116,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10316,7 +10322,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10394,7 +10400,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ46">
         <v>2.6</v>
@@ -10728,7 +10734,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q48">
         <v>2.38</v>
@@ -11015,7 +11021,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ49">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR49">
         <v>1.5</v>
@@ -11140,7 +11146,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11552,7 +11558,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q52">
         <v>2.38</v>
@@ -11630,7 +11636,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ52">
         <v>0.5</v>
@@ -11758,7 +11764,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q53">
         <v>2.38</v>
@@ -11964,7 +11970,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -12042,7 +12048,7 @@
         <v>0.67</v>
       </c>
       <c r="AP54">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ54">
         <v>1</v>
@@ -12170,7 +12176,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -12251,7 +12257,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ55">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR55">
         <v>1.23</v>
@@ -12660,10 +12666,10 @@
         <v>1.5</v>
       </c>
       <c r="AP57">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ57">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR57">
         <v>0.68</v>
@@ -12788,7 +12794,7 @@
         <v>95</v>
       </c>
       <c r="P58" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12869,7 +12875,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ58">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR58">
         <v>1.63</v>
@@ -12994,7 +13000,7 @@
         <v>117</v>
       </c>
       <c r="P59" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q59">
         <v>5.5</v>
@@ -13072,7 +13078,7 @@
         <v>1.67</v>
       </c>
       <c r="AP59">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ59">
         <v>1.8</v>
@@ -13200,7 +13206,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q60">
         <v>4.75</v>
@@ -13278,7 +13284,7 @@
         <v>2.33</v>
       </c>
       <c r="AP60">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ60">
         <v>2.6</v>
@@ -13406,7 +13412,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q61">
         <v>2.3</v>
@@ -14105,7 +14111,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ64">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR64">
         <v>1.58</v>
@@ -14308,7 +14314,7 @@
         <v>0</v>
       </c>
       <c r="AP65">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ65">
         <v>0.5</v>
@@ -14436,7 +14442,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14514,7 +14520,7 @@
         <v>0</v>
       </c>
       <c r="AP66">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ66">
         <v>1.2</v>
@@ -14642,7 +14648,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q67">
         <v>3.5</v>
@@ -15260,7 +15266,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15466,7 +15472,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15672,7 +15678,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q72">
         <v>2.1</v>
@@ -16165,7 +16171,7 @@
         <v>2</v>
       </c>
       <c r="AQ74">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR74">
         <v>2.08</v>
@@ -16908,7 +16914,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q78">
         <v>2.63</v>
@@ -16989,7 +16995,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ78">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR78">
         <v>1.81</v>
@@ -17114,7 +17120,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -17195,7 +17201,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ79">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR79">
         <v>1.16</v>
@@ -17320,7 +17326,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17401,7 +17407,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ80">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR80">
         <v>1.69</v>
@@ -17526,7 +17532,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17732,7 +17738,7 @@
         <v>150</v>
       </c>
       <c r="P82" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17810,10 +17816,10 @@
         <v>1.75</v>
       </c>
       <c r="AP82">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ82">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR82">
         <v>1.31</v>
@@ -18016,7 +18022,7 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ83">
         <v>1</v>
@@ -18222,7 +18228,7 @@
         <v>1.33</v>
       </c>
       <c r="AP84">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ84">
         <v>1</v>
@@ -18350,7 +18356,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -18428,7 +18434,7 @@
         <v>1.25</v>
       </c>
       <c r="AP85">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ85">
         <v>1</v>
@@ -18556,7 +18562,7 @@
         <v>95</v>
       </c>
       <c r="P86" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -18762,7 +18768,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q87">
         <v>2.38</v>
@@ -18968,7 +18974,7 @@
         <v>154</v>
       </c>
       <c r="P88" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19174,7 +19180,7 @@
         <v>95</v>
       </c>
       <c r="P89" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -20204,7 +20210,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20410,7 +20416,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -20773,6 +20779,830 @@
       </c>
       <c r="BP96">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7373284</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45465.66666666666</v>
+      </c>
+      <c r="F97">
+        <v>11</v>
+      </c>
+      <c r="G97" t="s">
+        <v>71</v>
+      </c>
+      <c r="H97" t="s">
+        <v>88</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>2</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97">
+        <v>3</v>
+      </c>
+      <c r="O97" t="s">
+        <v>160</v>
+      </c>
+      <c r="P97" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q97">
+        <v>4.75</v>
+      </c>
+      <c r="R97">
+        <v>2.05</v>
+      </c>
+      <c r="S97">
+        <v>2.63</v>
+      </c>
+      <c r="T97">
+        <v>1.48</v>
+      </c>
+      <c r="U97">
+        <v>2.45</v>
+      </c>
+      <c r="V97">
+        <v>3.3</v>
+      </c>
+      <c r="W97">
+        <v>1.28</v>
+      </c>
+      <c r="X97">
+        <v>8</v>
+      </c>
+      <c r="Y97">
+        <v>1.05</v>
+      </c>
+      <c r="Z97">
+        <v>3.3</v>
+      </c>
+      <c r="AA97">
+        <v>3.3</v>
+      </c>
+      <c r="AB97">
+        <v>2.15</v>
+      </c>
+      <c r="AC97">
+        <v>1.07</v>
+      </c>
+      <c r="AD97">
+        <v>8</v>
+      </c>
+      <c r="AE97">
+        <v>1.4</v>
+      </c>
+      <c r="AF97">
+        <v>2.88</v>
+      </c>
+      <c r="AG97">
+        <v>2.1</v>
+      </c>
+      <c r="AH97">
+        <v>1.67</v>
+      </c>
+      <c r="AI97">
+        <v>2.05</v>
+      </c>
+      <c r="AJ97">
+        <v>1.7</v>
+      </c>
+      <c r="AK97">
+        <v>1.85</v>
+      </c>
+      <c r="AL97">
+        <v>1.25</v>
+      </c>
+      <c r="AM97">
+        <v>1.22</v>
+      </c>
+      <c r="AN97">
+        <v>0.5</v>
+      </c>
+      <c r="AO97">
+        <v>2</v>
+      </c>
+      <c r="AP97">
+        <v>1</v>
+      </c>
+      <c r="AQ97">
+        <v>1.67</v>
+      </c>
+      <c r="AR97">
+        <v>1.48</v>
+      </c>
+      <c r="AS97">
+        <v>1.05</v>
+      </c>
+      <c r="AT97">
+        <v>2.53</v>
+      </c>
+      <c r="AU97">
+        <v>6</v>
+      </c>
+      <c r="AV97">
+        <v>3</v>
+      </c>
+      <c r="AW97">
+        <v>6</v>
+      </c>
+      <c r="AX97">
+        <v>6</v>
+      </c>
+      <c r="AY97">
+        <v>12</v>
+      </c>
+      <c r="AZ97">
+        <v>9</v>
+      </c>
+      <c r="BA97">
+        <v>4</v>
+      </c>
+      <c r="BB97">
+        <v>7</v>
+      </c>
+      <c r="BC97">
+        <v>11</v>
+      </c>
+      <c r="BD97">
+        <v>2.64</v>
+      </c>
+      <c r="BE97">
+        <v>9.1</v>
+      </c>
+      <c r="BF97">
+        <v>1.72</v>
+      </c>
+      <c r="BG97">
+        <v>1.22</v>
+      </c>
+      <c r="BH97">
+        <v>3.75</v>
+      </c>
+      <c r="BI97">
+        <v>1.41</v>
+      </c>
+      <c r="BJ97">
+        <v>2.63</v>
+      </c>
+      <c r="BK97">
+        <v>2.2</v>
+      </c>
+      <c r="BL97">
+        <v>1.95</v>
+      </c>
+      <c r="BM97">
+        <v>2.18</v>
+      </c>
+      <c r="BN97">
+        <v>1.6</v>
+      </c>
+      <c r="BO97">
+        <v>2.88</v>
+      </c>
+      <c r="BP97">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7373275</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45465.72916666666</v>
+      </c>
+      <c r="F98">
+        <v>11</v>
+      </c>
+      <c r="G98" t="s">
+        <v>81</v>
+      </c>
+      <c r="H98" t="s">
+        <v>70</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>1</v>
+      </c>
+      <c r="O98" t="s">
+        <v>95</v>
+      </c>
+      <c r="P98" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q98">
+        <v>3.5</v>
+      </c>
+      <c r="R98">
+        <v>2</v>
+      </c>
+      <c r="S98">
+        <v>3.4</v>
+      </c>
+      <c r="T98">
+        <v>1.53</v>
+      </c>
+      <c r="U98">
+        <v>2.38</v>
+      </c>
+      <c r="V98">
+        <v>3.75</v>
+      </c>
+      <c r="W98">
+        <v>1.25</v>
+      </c>
+      <c r="X98">
+        <v>11</v>
+      </c>
+      <c r="Y98">
+        <v>1.05</v>
+      </c>
+      <c r="Z98">
+        <v>2.8</v>
+      </c>
+      <c r="AA98">
+        <v>3</v>
+      </c>
+      <c r="AB98">
+        <v>2.63</v>
+      </c>
+      <c r="AC98">
+        <v>1.09</v>
+      </c>
+      <c r="AD98">
+        <v>8</v>
+      </c>
+      <c r="AE98">
+        <v>1.47</v>
+      </c>
+      <c r="AF98">
+        <v>2.7</v>
+      </c>
+      <c r="AG98">
+        <v>2.25</v>
+      </c>
+      <c r="AH98">
+        <v>1.57</v>
+      </c>
+      <c r="AI98">
+        <v>1.95</v>
+      </c>
+      <c r="AJ98">
+        <v>1.8</v>
+      </c>
+      <c r="AK98">
+        <v>1.47</v>
+      </c>
+      <c r="AL98">
+        <v>1.3</v>
+      </c>
+      <c r="AM98">
+        <v>1.47</v>
+      </c>
+      <c r="AN98">
+        <v>1.5</v>
+      </c>
+      <c r="AO98">
+        <v>1.5</v>
+      </c>
+      <c r="AP98">
+        <v>1.2</v>
+      </c>
+      <c r="AQ98">
+        <v>1.8</v>
+      </c>
+      <c r="AR98">
+        <v>1.35</v>
+      </c>
+      <c r="AS98">
+        <v>1.04</v>
+      </c>
+      <c r="AT98">
+        <v>2.39</v>
+      </c>
+      <c r="AU98">
+        <v>3</v>
+      </c>
+      <c r="AV98">
+        <v>3</v>
+      </c>
+      <c r="AW98">
+        <v>5</v>
+      </c>
+      <c r="AX98">
+        <v>9</v>
+      </c>
+      <c r="AY98">
+        <v>8</v>
+      </c>
+      <c r="AZ98">
+        <v>12</v>
+      </c>
+      <c r="BA98">
+        <v>5</v>
+      </c>
+      <c r="BB98">
+        <v>4</v>
+      </c>
+      <c r="BC98">
+        <v>9</v>
+      </c>
+      <c r="BD98">
+        <v>1.98</v>
+      </c>
+      <c r="BE98">
+        <v>8.6</v>
+      </c>
+      <c r="BF98">
+        <v>2.2</v>
+      </c>
+      <c r="BG98">
+        <v>1.24</v>
+      </c>
+      <c r="BH98">
+        <v>3.48</v>
+      </c>
+      <c r="BI98">
+        <v>1.47</v>
+      </c>
+      <c r="BJ98">
+        <v>2.49</v>
+      </c>
+      <c r="BK98">
+        <v>2.2</v>
+      </c>
+      <c r="BL98">
+        <v>1.91</v>
+      </c>
+      <c r="BM98">
+        <v>2.34</v>
+      </c>
+      <c r="BN98">
+        <v>1.53</v>
+      </c>
+      <c r="BO98">
+        <v>3.08</v>
+      </c>
+      <c r="BP98">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7373283</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45465.77083333334</v>
+      </c>
+      <c r="F99">
+        <v>11</v>
+      </c>
+      <c r="G99" t="s">
+        <v>89</v>
+      </c>
+      <c r="H99" t="s">
+        <v>77</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99" t="s">
+        <v>95</v>
+      </c>
+      <c r="P99" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q99">
+        <v>2.88</v>
+      </c>
+      <c r="R99">
+        <v>2</v>
+      </c>
+      <c r="S99">
+        <v>4.33</v>
+      </c>
+      <c r="T99">
+        <v>1.5</v>
+      </c>
+      <c r="U99">
+        <v>2.5</v>
+      </c>
+      <c r="V99">
+        <v>3.5</v>
+      </c>
+      <c r="W99">
+        <v>1.29</v>
+      </c>
+      <c r="X99">
+        <v>11</v>
+      </c>
+      <c r="Y99">
+        <v>1.05</v>
+      </c>
+      <c r="Z99">
+        <v>2.1</v>
+      </c>
+      <c r="AA99">
+        <v>3.25</v>
+      </c>
+      <c r="AB99">
+        <v>3.5</v>
+      </c>
+      <c r="AC99">
+        <v>1.05</v>
+      </c>
+      <c r="AD99">
+        <v>7.1</v>
+      </c>
+      <c r="AE99">
+        <v>1.41</v>
+      </c>
+      <c r="AF99">
+        <v>2.61</v>
+      </c>
+      <c r="AG99">
+        <v>2.35</v>
+      </c>
+      <c r="AH99">
+        <v>1.57</v>
+      </c>
+      <c r="AI99">
+        <v>2.05</v>
+      </c>
+      <c r="AJ99">
+        <v>1.7</v>
+      </c>
+      <c r="AK99">
+        <v>1.3</v>
+      </c>
+      <c r="AL99">
+        <v>1.28</v>
+      </c>
+      <c r="AM99">
+        <v>1.7</v>
+      </c>
+      <c r="AN99">
+        <v>0.8</v>
+      </c>
+      <c r="AO99">
+        <v>1.4</v>
+      </c>
+      <c r="AP99">
+        <v>0.83</v>
+      </c>
+      <c r="AQ99">
+        <v>1.33</v>
+      </c>
+      <c r="AR99">
+        <v>1.16</v>
+      </c>
+      <c r="AS99">
+        <v>1.34</v>
+      </c>
+      <c r="AT99">
+        <v>2.5</v>
+      </c>
+      <c r="AU99">
+        <v>4</v>
+      </c>
+      <c r="AV99">
+        <v>10</v>
+      </c>
+      <c r="AW99">
+        <v>5</v>
+      </c>
+      <c r="AX99">
+        <v>4</v>
+      </c>
+      <c r="AY99">
+        <v>9</v>
+      </c>
+      <c r="AZ99">
+        <v>14</v>
+      </c>
+      <c r="BA99">
+        <v>5</v>
+      </c>
+      <c r="BB99">
+        <v>4</v>
+      </c>
+      <c r="BC99">
+        <v>9</v>
+      </c>
+      <c r="BD99">
+        <v>1.95</v>
+      </c>
+      <c r="BE99">
+        <v>8.5</v>
+      </c>
+      <c r="BF99">
+        <v>2.25</v>
+      </c>
+      <c r="BG99">
+        <v>1.21</v>
+      </c>
+      <c r="BH99">
+        <v>3.74</v>
+      </c>
+      <c r="BI99">
+        <v>1.41</v>
+      </c>
+      <c r="BJ99">
+        <v>2.69</v>
+      </c>
+      <c r="BK99">
+        <v>2</v>
+      </c>
+      <c r="BL99">
+        <v>2.02</v>
+      </c>
+      <c r="BM99">
+        <v>2.05</v>
+      </c>
+      <c r="BN99">
+        <v>1.7</v>
+      </c>
+      <c r="BO99">
+        <v>2.88</v>
+      </c>
+      <c r="BP99">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7373279</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45465.89583333334</v>
+      </c>
+      <c r="F100">
+        <v>11</v>
+      </c>
+      <c r="G100" t="s">
+        <v>74</v>
+      </c>
+      <c r="H100" t="s">
+        <v>73</v>
+      </c>
+      <c r="I100">
+        <v>2</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>3</v>
+      </c>
+      <c r="L100">
+        <v>4</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>5</v>
+      </c>
+      <c r="O100" t="s">
+        <v>161</v>
+      </c>
+      <c r="P100" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q100">
+        <v>4.33</v>
+      </c>
+      <c r="R100">
+        <v>1.95</v>
+      </c>
+      <c r="S100">
+        <v>3</v>
+      </c>
+      <c r="T100">
+        <v>1.53</v>
+      </c>
+      <c r="U100">
+        <v>2.38</v>
+      </c>
+      <c r="V100">
+        <v>3.75</v>
+      </c>
+      <c r="W100">
+        <v>1.25</v>
+      </c>
+      <c r="X100">
+        <v>11</v>
+      </c>
+      <c r="Y100">
+        <v>1.05</v>
+      </c>
+      <c r="Z100">
+        <v>3.3</v>
+      </c>
+      <c r="AA100">
+        <v>3.2</v>
+      </c>
+      <c r="AB100">
+        <v>2.2</v>
+      </c>
+      <c r="AC100">
+        <v>1.06</v>
+      </c>
+      <c r="AD100">
+        <v>6.8</v>
+      </c>
+      <c r="AE100">
+        <v>1.43</v>
+      </c>
+      <c r="AF100">
+        <v>2.54</v>
+      </c>
+      <c r="AG100">
+        <v>2.4</v>
+      </c>
+      <c r="AH100">
+        <v>1.53</v>
+      </c>
+      <c r="AI100">
+        <v>2.05</v>
+      </c>
+      <c r="AJ100">
+        <v>1.7</v>
+      </c>
+      <c r="AK100">
+        <v>1.62</v>
+      </c>
+      <c r="AL100">
+        <v>1.28</v>
+      </c>
+      <c r="AM100">
+        <v>1.33</v>
+      </c>
+      <c r="AN100">
+        <v>1.4</v>
+      </c>
+      <c r="AO100">
+        <v>1.6</v>
+      </c>
+      <c r="AP100">
+        <v>1.67</v>
+      </c>
+      <c r="AQ100">
+        <v>1.33</v>
+      </c>
+      <c r="AR100">
+        <v>1.35</v>
+      </c>
+      <c r="AS100">
+        <v>1.43</v>
+      </c>
+      <c r="AT100">
+        <v>2.78</v>
+      </c>
+      <c r="AU100">
+        <v>8</v>
+      </c>
+      <c r="AV100">
+        <v>3</v>
+      </c>
+      <c r="AW100">
+        <v>6</v>
+      </c>
+      <c r="AX100">
+        <v>3</v>
+      </c>
+      <c r="AY100">
+        <v>14</v>
+      </c>
+      <c r="AZ100">
+        <v>6</v>
+      </c>
+      <c r="BA100">
+        <v>2</v>
+      </c>
+      <c r="BB100">
+        <v>8</v>
+      </c>
+      <c r="BC100">
+        <v>10</v>
+      </c>
+      <c r="BD100">
+        <v>2.2</v>
+      </c>
+      <c r="BE100">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF100">
+        <v>1.97</v>
+      </c>
+      <c r="BG100">
+        <v>1.18</v>
+      </c>
+      <c r="BH100">
+        <v>4.05</v>
+      </c>
+      <c r="BI100">
+        <v>1.37</v>
+      </c>
+      <c r="BJ100">
+        <v>2.75</v>
+      </c>
+      <c r="BK100">
+        <v>2.38</v>
+      </c>
+      <c r="BL100">
+        <v>1.91</v>
+      </c>
+      <c r="BM100">
+        <v>2.13</v>
+      </c>
+      <c r="BN100">
+        <v>1.67</v>
+      </c>
+      <c r="BO100">
+        <v>2.76</v>
+      </c>
+      <c r="BP100">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="214">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -502,6 +502,18 @@
     <t>['33', '45+3', '80', '90+3']</t>
   </si>
   <si>
+    <t>['45+9', '78', '90+1', '90+6']</t>
+  </si>
+  <si>
+    <t>['45+3', '66']</t>
+  </si>
+  <si>
+    <t>['49', '75', '83']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -638,6 +650,12 @@
   </si>
   <si>
     <t>['35']</t>
+  </si>
+  <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['83']</t>
   </si>
 </sst>
 </file>
@@ -999,7 +1017,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP100"/>
+  <dimension ref="A1:BP106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1258,7 +1276,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1464,7 +1482,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1545,7 +1563,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1670,7 +1688,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -1748,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -1876,7 +1894,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -2082,7 +2100,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2572,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ8">
         <v>1.2</v>
@@ -2700,7 +2718,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2781,7 +2799,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ9">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2906,7 +2924,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3112,7 +3130,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3318,7 +3336,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3808,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ14">
         <v>0</v>
@@ -4017,7 +4035,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ15">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4142,7 +4160,7 @@
         <v>103</v>
       </c>
       <c r="P16" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4223,7 +4241,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4426,7 +4444,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ17">
         <v>1.75</v>
@@ -4632,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ18">
         <v>1.8</v>
@@ -5250,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
         <v>0</v>
@@ -5456,10 +5474,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ22">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR22">
         <v>1.76</v>
@@ -5868,10 +5886,10 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR24">
         <v>1.95</v>
@@ -6074,10 +6092,10 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ25">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR25">
         <v>1.49</v>
@@ -6280,7 +6298,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ26">
         <v>1.8</v>
@@ -6408,7 +6426,7 @@
         <v>112</v>
       </c>
       <c r="P27" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -6614,7 +6632,7 @@
         <v>113</v>
       </c>
       <c r="P28" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6695,7 +6713,7 @@
         <v>2</v>
       </c>
       <c r="AQ28">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR28">
         <v>1.4</v>
@@ -6820,7 +6838,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q29">
         <v>3.5</v>
@@ -7026,7 +7044,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7232,7 +7250,7 @@
         <v>95</v>
       </c>
       <c r="P31" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7644,7 +7662,7 @@
         <v>95</v>
       </c>
       <c r="P33" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -8056,7 +8074,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q35">
         <v>2.25</v>
@@ -8137,7 +8155,7 @@
         <v>3</v>
       </c>
       <c r="AQ35">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR35">
         <v>1.46</v>
@@ -8468,7 +8486,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8674,7 +8692,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -9086,7 +9104,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9164,7 +9182,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ40">
         <v>1.6</v>
@@ -9370,10 +9388,10 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ41">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR41">
         <v>1.4</v>
@@ -9782,7 +9800,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ43">
         <v>0</v>
@@ -9910,7 +9928,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10116,7 +10134,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10322,7 +10340,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10609,7 +10627,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ47">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR47">
         <v>1.36</v>
@@ -10734,7 +10752,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q48">
         <v>2.38</v>
@@ -10812,7 +10830,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -11146,7 +11164,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11227,7 +11245,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR50">
         <v>0.99</v>
@@ -11558,7 +11576,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q52">
         <v>2.38</v>
@@ -11639,7 +11657,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ52">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR52">
         <v>1.51</v>
@@ -11764,7 +11782,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q53">
         <v>2.38</v>
@@ -11970,7 +11988,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -12176,7 +12194,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -12460,10 +12478,10 @@
         <v>0.5</v>
       </c>
       <c r="AP56">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ56">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR56">
         <v>1.86</v>
@@ -12794,7 +12812,7 @@
         <v>95</v>
       </c>
       <c r="P58" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -13000,7 +13018,7 @@
         <v>117</v>
       </c>
       <c r="P59" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q59">
         <v>5.5</v>
@@ -13081,7 +13099,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ59">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR59">
         <v>1.58</v>
@@ -13206,7 +13224,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q60">
         <v>4.75</v>
@@ -13412,7 +13430,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q61">
         <v>2.3</v>
@@ -13490,7 +13508,7 @@
         <v>1.33</v>
       </c>
       <c r="AP61">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ61">
         <v>1</v>
@@ -13699,7 +13717,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ62">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR62">
         <v>1.52</v>
@@ -14317,7 +14335,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ65">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR65">
         <v>0.78</v>
@@ -14442,7 +14460,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14648,7 +14666,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q67">
         <v>3.5</v>
@@ -14729,7 +14747,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ67">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR67">
         <v>1.17</v>
@@ -14935,7 +14953,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ68">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR68">
         <v>1.39</v>
@@ -15266,7 +15284,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15344,7 +15362,7 @@
         <v>1.67</v>
       </c>
       <c r="AP70">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ70">
         <v>1.6</v>
@@ -15472,7 +15490,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15678,7 +15696,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q72">
         <v>2.1</v>
@@ -15962,7 +15980,7 @@
         <v>2</v>
       </c>
       <c r="AP73">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ73">
         <v>1.75</v>
@@ -16580,7 +16598,7 @@
         <v>0</v>
       </c>
       <c r="AP76">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ76">
         <v>0</v>
@@ -16786,10 +16804,10 @@
         <v>0.67</v>
       </c>
       <c r="AP77">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ77">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR77">
         <v>1.45</v>
@@ -16914,7 +16932,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q78">
         <v>2.63</v>
@@ -16992,7 +17010,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ78">
         <v>1.33</v>
@@ -17120,7 +17138,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -17326,7 +17344,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17532,7 +17550,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17610,10 +17628,10 @@
         <v>2</v>
       </c>
       <c r="AP81">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ81">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR81">
         <v>1.77</v>
@@ -17738,7 +17756,7 @@
         <v>150</v>
       </c>
       <c r="P82" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18025,7 +18043,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ83">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR83">
         <v>1.32</v>
@@ -18356,7 +18374,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -18562,7 +18580,7 @@
         <v>95</v>
       </c>
       <c r="P86" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -18640,7 +18658,7 @@
         <v>2.5</v>
       </c>
       <c r="AP86">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ86">
         <v>2.6</v>
@@ -18768,7 +18786,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q87">
         <v>2.38</v>
@@ -18974,7 +18992,7 @@
         <v>154</v>
       </c>
       <c r="P88" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19180,7 +19198,7 @@
         <v>95</v>
       </c>
       <c r="P89" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -20085,7 +20103,7 @@
         <v>2</v>
       </c>
       <c r="AQ93">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR93">
         <v>1.69</v>
@@ -20210,7 +20228,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20416,7 +20434,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -20700,7 +20718,7 @@
         <v>1.25</v>
       </c>
       <c r="AP96">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ96">
         <v>1</v>
@@ -21034,7 +21052,7 @@
         <v>95</v>
       </c>
       <c r="P98" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q98">
         <v>3.5</v>
@@ -21603,6 +21621,1242 @@
       </c>
       <c r="BP100">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7373277</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45466.66666666666</v>
+      </c>
+      <c r="F101">
+        <v>11</v>
+      </c>
+      <c r="G101" t="s">
+        <v>80</v>
+      </c>
+      <c r="H101" t="s">
+        <v>78</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>2</v>
+      </c>
+      <c r="L101">
+        <v>4</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <v>5</v>
+      </c>
+      <c r="O101" t="s">
+        <v>162</v>
+      </c>
+      <c r="P101" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q101">
+        <v>2.63</v>
+      </c>
+      <c r="R101">
+        <v>2.05</v>
+      </c>
+      <c r="S101">
+        <v>4.5</v>
+      </c>
+      <c r="T101">
+        <v>1.44</v>
+      </c>
+      <c r="U101">
+        <v>2.63</v>
+      </c>
+      <c r="V101">
+        <v>3.25</v>
+      </c>
+      <c r="W101">
+        <v>1.33</v>
+      </c>
+      <c r="X101">
+        <v>10</v>
+      </c>
+      <c r="Y101">
+        <v>1.06</v>
+      </c>
+      <c r="Z101">
+        <v>1.95</v>
+      </c>
+      <c r="AA101">
+        <v>3.42</v>
+      </c>
+      <c r="AB101">
+        <v>4</v>
+      </c>
+      <c r="AC101">
+        <v>1.07</v>
+      </c>
+      <c r="AD101">
+        <v>9</v>
+      </c>
+      <c r="AE101">
+        <v>1.38</v>
+      </c>
+      <c r="AF101">
+        <v>3</v>
+      </c>
+      <c r="AG101">
+        <v>2.03</v>
+      </c>
+      <c r="AH101">
+        <v>1.7</v>
+      </c>
+      <c r="AI101">
+        <v>1.95</v>
+      </c>
+      <c r="AJ101">
+        <v>1.8</v>
+      </c>
+      <c r="AK101">
+        <v>1.25</v>
+      </c>
+      <c r="AL101">
+        <v>1.25</v>
+      </c>
+      <c r="AM101">
+        <v>1.83</v>
+      </c>
+      <c r="AN101">
+        <v>3</v>
+      </c>
+      <c r="AO101">
+        <v>1</v>
+      </c>
+      <c r="AP101">
+        <v>3</v>
+      </c>
+      <c r="AQ101">
+        <v>0.83</v>
+      </c>
+      <c r="AR101">
+        <v>1.35</v>
+      </c>
+      <c r="AS101">
+        <v>1.12</v>
+      </c>
+      <c r="AT101">
+        <v>2.47</v>
+      </c>
+      <c r="AU101">
+        <v>7</v>
+      </c>
+      <c r="AV101">
+        <v>2</v>
+      </c>
+      <c r="AW101">
+        <v>3</v>
+      </c>
+      <c r="AX101">
+        <v>5</v>
+      </c>
+      <c r="AY101">
+        <v>10</v>
+      </c>
+      <c r="AZ101">
+        <v>7</v>
+      </c>
+      <c r="BA101">
+        <v>3</v>
+      </c>
+      <c r="BB101">
+        <v>1</v>
+      </c>
+      <c r="BC101">
+        <v>4</v>
+      </c>
+      <c r="BD101">
+        <v>1.62</v>
+      </c>
+      <c r="BE101">
+        <v>9.5</v>
+      </c>
+      <c r="BF101">
+        <v>2.88</v>
+      </c>
+      <c r="BG101">
+        <v>1.17</v>
+      </c>
+      <c r="BH101">
+        <v>4.2</v>
+      </c>
+      <c r="BI101">
+        <v>1.35</v>
+      </c>
+      <c r="BJ101">
+        <v>2.84</v>
+      </c>
+      <c r="BK101">
+        <v>2.1</v>
+      </c>
+      <c r="BL101">
+        <v>2.05</v>
+      </c>
+      <c r="BM101">
+        <v>2.06</v>
+      </c>
+      <c r="BN101">
+        <v>1.71</v>
+      </c>
+      <c r="BO101">
+        <v>2.69</v>
+      </c>
+      <c r="BP101">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7373278</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45466.66666666666</v>
+      </c>
+      <c r="F102">
+        <v>11</v>
+      </c>
+      <c r="G102" t="s">
+        <v>72</v>
+      </c>
+      <c r="H102" t="s">
+        <v>87</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>1</v>
+      </c>
+      <c r="O102" t="s">
+        <v>95</v>
+      </c>
+      <c r="P102" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q102">
+        <v>5</v>
+      </c>
+      <c r="R102">
+        <v>2.1</v>
+      </c>
+      <c r="S102">
+        <v>2.4</v>
+      </c>
+      <c r="T102">
+        <v>1.44</v>
+      </c>
+      <c r="U102">
+        <v>2.63</v>
+      </c>
+      <c r="V102">
+        <v>3</v>
+      </c>
+      <c r="W102">
+        <v>1.36</v>
+      </c>
+      <c r="X102">
+        <v>9</v>
+      </c>
+      <c r="Y102">
+        <v>1.07</v>
+      </c>
+      <c r="Z102">
+        <v>4.45</v>
+      </c>
+      <c r="AA102">
+        <v>3.68</v>
+      </c>
+      <c r="AB102">
+        <v>1.79</v>
+      </c>
+      <c r="AC102">
+        <v>1.05</v>
+      </c>
+      <c r="AD102">
+        <v>10</v>
+      </c>
+      <c r="AE102">
+        <v>1.36</v>
+      </c>
+      <c r="AF102">
+        <v>3.2</v>
+      </c>
+      <c r="AG102">
+        <v>1.96</v>
+      </c>
+      <c r="AH102">
+        <v>1.75</v>
+      </c>
+      <c r="AI102">
+        <v>1.95</v>
+      </c>
+      <c r="AJ102">
+        <v>1.8</v>
+      </c>
+      <c r="AK102">
+        <v>2.1</v>
+      </c>
+      <c r="AL102">
+        <v>1.22</v>
+      </c>
+      <c r="AM102">
+        <v>1.18</v>
+      </c>
+      <c r="AN102">
+        <v>1.2</v>
+      </c>
+      <c r="AO102">
+        <v>1.8</v>
+      </c>
+      <c r="AP102">
+        <v>1</v>
+      </c>
+      <c r="AQ102">
+        <v>2</v>
+      </c>
+      <c r="AR102">
+        <v>1.72</v>
+      </c>
+      <c r="AS102">
+        <v>1.72</v>
+      </c>
+      <c r="AT102">
+        <v>3.44</v>
+      </c>
+      <c r="AU102">
+        <v>0</v>
+      </c>
+      <c r="AV102">
+        <v>5</v>
+      </c>
+      <c r="AW102">
+        <v>3</v>
+      </c>
+      <c r="AX102">
+        <v>8</v>
+      </c>
+      <c r="AY102">
+        <v>3</v>
+      </c>
+      <c r="AZ102">
+        <v>13</v>
+      </c>
+      <c r="BA102">
+        <v>2</v>
+      </c>
+      <c r="BB102">
+        <v>6</v>
+      </c>
+      <c r="BC102">
+        <v>8</v>
+      </c>
+      <c r="BD102">
+        <v>2.78</v>
+      </c>
+      <c r="BE102">
+        <v>11</v>
+      </c>
+      <c r="BF102">
+        <v>1.61</v>
+      </c>
+      <c r="BG102">
+        <v>1.13</v>
+      </c>
+      <c r="BH102">
+        <v>4.8</v>
+      </c>
+      <c r="BI102">
+        <v>1.28</v>
+      </c>
+      <c r="BJ102">
+        <v>3.2</v>
+      </c>
+      <c r="BK102">
+        <v>2</v>
+      </c>
+      <c r="BL102">
+        <v>2.36</v>
+      </c>
+      <c r="BM102">
+        <v>2</v>
+      </c>
+      <c r="BN102">
+        <v>1.73</v>
+      </c>
+      <c r="BO102">
+        <v>2.39</v>
+      </c>
+      <c r="BP102">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7373282</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45466.66666666666</v>
+      </c>
+      <c r="F103">
+        <v>11</v>
+      </c>
+      <c r="G103" t="s">
+        <v>76</v>
+      </c>
+      <c r="H103" t="s">
+        <v>75</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>2</v>
+      </c>
+      <c r="O103" t="s">
+        <v>133</v>
+      </c>
+      <c r="P103" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q103">
+        <v>2.5</v>
+      </c>
+      <c r="R103">
+        <v>2.05</v>
+      </c>
+      <c r="S103">
+        <v>5</v>
+      </c>
+      <c r="T103">
+        <v>1.5</v>
+      </c>
+      <c r="U103">
+        <v>2.5</v>
+      </c>
+      <c r="V103">
+        <v>3.4</v>
+      </c>
+      <c r="W103">
+        <v>1.3</v>
+      </c>
+      <c r="X103">
+        <v>10</v>
+      </c>
+      <c r="Y103">
+        <v>1.06</v>
+      </c>
+      <c r="Z103">
+        <v>1.74</v>
+      </c>
+      <c r="AA103">
+        <v>3.62</v>
+      </c>
+      <c r="AB103">
+        <v>4.9</v>
+      </c>
+      <c r="AC103">
+        <v>1.07</v>
+      </c>
+      <c r="AD103">
+        <v>9.5</v>
+      </c>
+      <c r="AE103">
+        <v>1.44</v>
+      </c>
+      <c r="AF103">
+        <v>2.75</v>
+      </c>
+      <c r="AG103">
+        <v>2.11</v>
+      </c>
+      <c r="AH103">
+        <v>1.65</v>
+      </c>
+      <c r="AI103">
+        <v>2.05</v>
+      </c>
+      <c r="AJ103">
+        <v>1.7</v>
+      </c>
+      <c r="AK103">
+        <v>1.2</v>
+      </c>
+      <c r="AL103">
+        <v>1.22</v>
+      </c>
+      <c r="AM103">
+        <v>2.1</v>
+      </c>
+      <c r="AN103">
+        <v>2.6</v>
+      </c>
+      <c r="AO103">
+        <v>0.2</v>
+      </c>
+      <c r="AP103">
+        <v>2.33</v>
+      </c>
+      <c r="AQ103">
+        <v>0.33</v>
+      </c>
+      <c r="AR103">
+        <v>1.66</v>
+      </c>
+      <c r="AS103">
+        <v>1.23</v>
+      </c>
+      <c r="AT103">
+        <v>2.89</v>
+      </c>
+      <c r="AU103">
+        <v>8</v>
+      </c>
+      <c r="AV103">
+        <v>7</v>
+      </c>
+      <c r="AW103">
+        <v>8</v>
+      </c>
+      <c r="AX103">
+        <v>7</v>
+      </c>
+      <c r="AY103">
+        <v>16</v>
+      </c>
+      <c r="AZ103">
+        <v>14</v>
+      </c>
+      <c r="BA103">
+        <v>11</v>
+      </c>
+      <c r="BB103">
+        <v>2</v>
+      </c>
+      <c r="BC103">
+        <v>13</v>
+      </c>
+      <c r="BD103">
+        <v>1.49</v>
+      </c>
+      <c r="BE103">
+        <v>10.5</v>
+      </c>
+      <c r="BF103">
+        <v>3.3</v>
+      </c>
+      <c r="BG103">
+        <v>1.13</v>
+      </c>
+      <c r="BH103">
+        <v>4.8</v>
+      </c>
+      <c r="BI103">
+        <v>1.28</v>
+      </c>
+      <c r="BJ103">
+        <v>3.2</v>
+      </c>
+      <c r="BK103">
+        <v>1.83</v>
+      </c>
+      <c r="BL103">
+        <v>2.36</v>
+      </c>
+      <c r="BM103">
+        <v>1.85</v>
+      </c>
+      <c r="BN103">
+        <v>1.85</v>
+      </c>
+      <c r="BO103">
+        <v>2.39</v>
+      </c>
+      <c r="BP103">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7373281</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45466.77083333334</v>
+      </c>
+      <c r="F104">
+        <v>11</v>
+      </c>
+      <c r="G104" t="s">
+        <v>82</v>
+      </c>
+      <c r="H104" t="s">
+        <v>79</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>2</v>
+      </c>
+      <c r="L104">
+        <v>2</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <v>3</v>
+      </c>
+      <c r="O104" t="s">
+        <v>163</v>
+      </c>
+      <c r="P104" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q104">
+        <v>2</v>
+      </c>
+      <c r="R104">
+        <v>2.25</v>
+      </c>
+      <c r="S104">
+        <v>7.5</v>
+      </c>
+      <c r="T104">
+        <v>1.4</v>
+      </c>
+      <c r="U104">
+        <v>2.75</v>
+      </c>
+      <c r="V104">
+        <v>3</v>
+      </c>
+      <c r="W104">
+        <v>1.36</v>
+      </c>
+      <c r="X104">
+        <v>8</v>
+      </c>
+      <c r="Y104">
+        <v>1.08</v>
+      </c>
+      <c r="Z104">
+        <v>1.44</v>
+      </c>
+      <c r="AA104">
+        <v>4.2</v>
+      </c>
+      <c r="AB104">
+        <v>7.5</v>
+      </c>
+      <c r="AC104">
+        <v>1.05</v>
+      </c>
+      <c r="AD104">
+        <v>10</v>
+      </c>
+      <c r="AE104">
+        <v>1.33</v>
+      </c>
+      <c r="AF104">
+        <v>3.3</v>
+      </c>
+      <c r="AG104">
+        <v>2</v>
+      </c>
+      <c r="AH104">
+        <v>1.8</v>
+      </c>
+      <c r="AI104">
+        <v>2.2</v>
+      </c>
+      <c r="AJ104">
+        <v>1.62</v>
+      </c>
+      <c r="AK104">
+        <v>1.08</v>
+      </c>
+      <c r="AL104">
+        <v>1.17</v>
+      </c>
+      <c r="AM104">
+        <v>2.75</v>
+      </c>
+      <c r="AN104">
+        <v>2</v>
+      </c>
+      <c r="AO104">
+        <v>0.5</v>
+      </c>
+      <c r="AP104">
+        <v>2.17</v>
+      </c>
+      <c r="AQ104">
+        <v>0.4</v>
+      </c>
+      <c r="AR104">
+        <v>1.31</v>
+      </c>
+      <c r="AS104">
+        <v>1.37</v>
+      </c>
+      <c r="AT104">
+        <v>2.68</v>
+      </c>
+      <c r="AU104">
+        <v>7</v>
+      </c>
+      <c r="AV104">
+        <v>6</v>
+      </c>
+      <c r="AW104">
+        <v>7</v>
+      </c>
+      <c r="AX104">
+        <v>3</v>
+      </c>
+      <c r="AY104">
+        <v>14</v>
+      </c>
+      <c r="AZ104">
+        <v>9</v>
+      </c>
+      <c r="BA104">
+        <v>6</v>
+      </c>
+      <c r="BB104">
+        <v>7</v>
+      </c>
+      <c r="BC104">
+        <v>13</v>
+      </c>
+      <c r="BD104">
+        <v>1.42</v>
+      </c>
+      <c r="BE104">
+        <v>11.5</v>
+      </c>
+      <c r="BF104">
+        <v>3.6</v>
+      </c>
+      <c r="BG104">
+        <v>1.18</v>
+      </c>
+      <c r="BH104">
+        <v>4.33</v>
+      </c>
+      <c r="BI104">
+        <v>1.33</v>
+      </c>
+      <c r="BJ104">
+        <v>3</v>
+      </c>
+      <c r="BK104">
+        <v>2</v>
+      </c>
+      <c r="BL104">
+        <v>2.45</v>
+      </c>
+      <c r="BM104">
+        <v>2.05</v>
+      </c>
+      <c r="BN104">
+        <v>1.7</v>
+      </c>
+      <c r="BO104">
+        <v>2.37</v>
+      </c>
+      <c r="BP104">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7373280</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45466.77083333334</v>
+      </c>
+      <c r="F105">
+        <v>11</v>
+      </c>
+      <c r="G105" t="s">
+        <v>86</v>
+      </c>
+      <c r="H105" t="s">
+        <v>83</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>3</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105">
+        <v>4</v>
+      </c>
+      <c r="O105" t="s">
+        <v>164</v>
+      </c>
+      <c r="P105" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q105">
+        <v>1.83</v>
+      </c>
+      <c r="R105">
+        <v>2.4</v>
+      </c>
+      <c r="S105">
+        <v>8</v>
+      </c>
+      <c r="T105">
+        <v>1.36</v>
+      </c>
+      <c r="U105">
+        <v>3</v>
+      </c>
+      <c r="V105">
+        <v>2.63</v>
+      </c>
+      <c r="W105">
+        <v>1.44</v>
+      </c>
+      <c r="X105">
+        <v>7</v>
+      </c>
+      <c r="Y105">
+        <v>1.1</v>
+      </c>
+      <c r="Z105">
+        <v>1.33</v>
+      </c>
+      <c r="AA105">
+        <v>4.75</v>
+      </c>
+      <c r="AB105">
+        <v>8.5</v>
+      </c>
+      <c r="AC105">
+        <v>1.03</v>
+      </c>
+      <c r="AD105">
+        <v>13</v>
+      </c>
+      <c r="AE105">
+        <v>1.25</v>
+      </c>
+      <c r="AF105">
+        <v>3.75</v>
+      </c>
+      <c r="AG105">
+        <v>1.8</v>
+      </c>
+      <c r="AH105">
+        <v>2</v>
+      </c>
+      <c r="AI105">
+        <v>2.2</v>
+      </c>
+      <c r="AJ105">
+        <v>1.62</v>
+      </c>
+      <c r="AK105">
+        <v>1.04</v>
+      </c>
+      <c r="AL105">
+        <v>1.12</v>
+      </c>
+      <c r="AM105">
+        <v>3.3</v>
+      </c>
+      <c r="AN105">
+        <v>1.4</v>
+      </c>
+      <c r="AO105">
+        <v>0.5</v>
+      </c>
+      <c r="AP105">
+        <v>1.67</v>
+      </c>
+      <c r="AQ105">
+        <v>0.4</v>
+      </c>
+      <c r="AR105">
+        <v>1.72</v>
+      </c>
+      <c r="AS105">
+        <v>1.28</v>
+      </c>
+      <c r="AT105">
+        <v>3</v>
+      </c>
+      <c r="AU105">
+        <v>11</v>
+      </c>
+      <c r="AV105">
+        <v>9</v>
+      </c>
+      <c r="AW105">
+        <v>12</v>
+      </c>
+      <c r="AX105">
+        <v>6</v>
+      </c>
+      <c r="AY105">
+        <v>23</v>
+      </c>
+      <c r="AZ105">
+        <v>15</v>
+      </c>
+      <c r="BA105">
+        <v>10</v>
+      </c>
+      <c r="BB105">
+        <v>4</v>
+      </c>
+      <c r="BC105">
+        <v>14</v>
+      </c>
+      <c r="BD105">
+        <v>1.27</v>
+      </c>
+      <c r="BE105">
+        <v>14</v>
+      </c>
+      <c r="BF105">
+        <v>4.77</v>
+      </c>
+      <c r="BG105">
+        <v>1.3</v>
+      </c>
+      <c r="BH105">
+        <v>3.4</v>
+      </c>
+      <c r="BI105">
+        <v>1.45</v>
+      </c>
+      <c r="BJ105">
+        <v>2.6</v>
+      </c>
+      <c r="BK105">
+        <v>2.38</v>
+      </c>
+      <c r="BL105">
+        <v>1.92</v>
+      </c>
+      <c r="BM105">
+        <v>2.2</v>
+      </c>
+      <c r="BN105">
+        <v>1.62</v>
+      </c>
+      <c r="BO105">
+        <v>3.1</v>
+      </c>
+      <c r="BP105">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7373276</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45466.77083333334</v>
+      </c>
+      <c r="F106">
+        <v>11</v>
+      </c>
+      <c r="G106" t="s">
+        <v>85</v>
+      </c>
+      <c r="H106" t="s">
+        <v>84</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106">
+        <v>2</v>
+      </c>
+      <c r="O106" t="s">
+        <v>165</v>
+      </c>
+      <c r="P106" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q106">
+        <v>2.25</v>
+      </c>
+      <c r="R106">
+        <v>2.2</v>
+      </c>
+      <c r="S106">
+        <v>5.5</v>
+      </c>
+      <c r="T106">
+        <v>1.4</v>
+      </c>
+      <c r="U106">
+        <v>2.75</v>
+      </c>
+      <c r="V106">
+        <v>3</v>
+      </c>
+      <c r="W106">
+        <v>1.36</v>
+      </c>
+      <c r="X106">
+        <v>9</v>
+      </c>
+      <c r="Y106">
+        <v>1.07</v>
+      </c>
+      <c r="Z106">
+        <v>1.62</v>
+      </c>
+      <c r="AA106">
+        <v>3.8</v>
+      </c>
+      <c r="AB106">
+        <v>5.25</v>
+      </c>
+      <c r="AC106">
+        <v>1.06</v>
+      </c>
+      <c r="AD106">
+        <v>10</v>
+      </c>
+      <c r="AE106">
+        <v>1.36</v>
+      </c>
+      <c r="AF106">
+        <v>3.1</v>
+      </c>
+      <c r="AG106">
+        <v>2.05</v>
+      </c>
+      <c r="AH106">
+        <v>1.75</v>
+      </c>
+      <c r="AI106">
+        <v>2</v>
+      </c>
+      <c r="AJ106">
+        <v>1.75</v>
+      </c>
+      <c r="AK106">
+        <v>1.14</v>
+      </c>
+      <c r="AL106">
+        <v>1.22</v>
+      </c>
+      <c r="AM106">
+        <v>2.3</v>
+      </c>
+      <c r="AN106">
+        <v>1.25</v>
+      </c>
+      <c r="AO106">
+        <v>1</v>
+      </c>
+      <c r="AP106">
+        <v>1.2</v>
+      </c>
+      <c r="AQ106">
+        <v>1</v>
+      </c>
+      <c r="AR106">
+        <v>1.47</v>
+      </c>
+      <c r="AS106">
+        <v>1.03</v>
+      </c>
+      <c r="AT106">
+        <v>2.5</v>
+      </c>
+      <c r="AU106">
+        <v>9</v>
+      </c>
+      <c r="AV106">
+        <v>4</v>
+      </c>
+      <c r="AW106">
+        <v>5</v>
+      </c>
+      <c r="AX106">
+        <v>7</v>
+      </c>
+      <c r="AY106">
+        <v>14</v>
+      </c>
+      <c r="AZ106">
+        <v>11</v>
+      </c>
+      <c r="BA106">
+        <v>3</v>
+      </c>
+      <c r="BB106">
+        <v>4</v>
+      </c>
+      <c r="BC106">
+        <v>7</v>
+      </c>
+      <c r="BD106">
+        <v>1.45</v>
+      </c>
+      <c r="BE106">
+        <v>11</v>
+      </c>
+      <c r="BF106">
+        <v>3.5</v>
+      </c>
+      <c r="BG106">
+        <v>1.15</v>
+      </c>
+      <c r="BH106">
+        <v>4.5</v>
+      </c>
+      <c r="BI106">
+        <v>1.31</v>
+      </c>
+      <c r="BJ106">
+        <v>3.04</v>
+      </c>
+      <c r="BK106">
+        <v>2.2</v>
+      </c>
+      <c r="BL106">
+        <v>2</v>
+      </c>
+      <c r="BM106">
+        <v>1.85</v>
+      </c>
+      <c r="BN106">
+        <v>1.83</v>
+      </c>
+      <c r="BO106">
+        <v>2.49</v>
+      </c>
+      <c r="BP106">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -508,7 +508,7 @@
     <t>['45+3', '66']</t>
   </si>
   <si>
-    <t>['49', '75', '83']</t>
+    <t>['50', '76', '84']</t>
   </si>
   <si>
     <t>['58']</t>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="223">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -514,6 +514,27 @@
     <t>['58']</t>
   </si>
   <si>
+    <t>['15', '90+1']</t>
+  </si>
+  <si>
+    <t>['21', '52']</t>
+  </si>
+  <si>
+    <t>['26', '87']</t>
+  </si>
+  <si>
+    <t>['86']</t>
+  </si>
+  <si>
+    <t>['72']</t>
+  </si>
+  <si>
+    <t>['7', '86']</t>
+  </si>
+  <si>
+    <t>['9', '47', '69']</t>
+  </si>
+  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -656,6 +677,12 @@
   </si>
   <si>
     <t>['83']</t>
+  </si>
+  <si>
+    <t>['6']</t>
+  </si>
+  <si>
+    <t>['53', '90+8']</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1044,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP106"/>
+  <dimension ref="A1:BP114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1276,7 +1303,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1354,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1482,7 +1509,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1688,7 +1715,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -1769,7 +1796,7 @@
         <v>1</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1894,7 +1921,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -2100,7 +2127,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2181,7 +2208,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2384,10 +2411,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ7">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2593,7 +2620,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ8">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2718,7 +2745,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2796,10 +2823,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ9">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2924,7 +2951,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3130,7 +3157,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3211,7 +3238,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ11">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3336,7 +3363,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3623,7 +3650,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4032,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ15">
         <v>0.33</v>
@@ -4160,7 +4187,7 @@
         <v>103</v>
       </c>
       <c r="P16" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4238,7 +4265,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
         <v>0.83</v>
@@ -5062,7 +5089,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ20">
         <v>1.33</v>
@@ -5683,7 +5710,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ23">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR23">
         <v>1.64</v>
@@ -6095,7 +6122,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ25">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR25">
         <v>1.49</v>
@@ -6426,7 +6453,7 @@
         <v>112</v>
       </c>
       <c r="P27" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -6632,7 +6659,7 @@
         <v>113</v>
       </c>
       <c r="P28" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6710,7 +6737,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ28">
         <v>0.4</v>
@@ -6838,7 +6865,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="Q29">
         <v>3.5</v>
@@ -6916,7 +6943,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ29">
         <v>1.33</v>
@@ -7044,7 +7071,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7250,7 +7277,7 @@
         <v>95</v>
       </c>
       <c r="P31" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7331,7 +7358,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ31">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR31">
         <v>0</v>
@@ -7537,7 +7564,7 @@
         <v>3</v>
       </c>
       <c r="AQ32">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR32">
         <v>1.55</v>
@@ -7662,7 +7689,7 @@
         <v>95</v>
       </c>
       <c r="P33" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7946,7 +7973,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ34">
         <v>0</v>
@@ -8074,7 +8101,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="Q35">
         <v>2.25</v>
@@ -8358,10 +8385,10 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR36">
         <v>1.19</v>
@@ -8486,7 +8513,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8564,10 +8591,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ37">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR37">
         <v>1.65</v>
@@ -8692,7 +8719,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -8770,7 +8797,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ38">
         <v>1.33</v>
@@ -8979,7 +9006,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ39">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AR39">
         <v>1.75</v>
@@ -9104,7 +9131,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9185,7 +9212,7 @@
         <v>1</v>
       </c>
       <c r="AQ40">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR40">
         <v>2.22</v>
@@ -9391,7 +9418,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ41">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR41">
         <v>1.4</v>
@@ -9594,7 +9621,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ42">
         <v>1</v>
@@ -9928,7 +9955,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10134,7 +10161,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10212,7 +10239,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ45">
         <v>1</v>
@@ -10340,7 +10367,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10421,7 +10448,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ46">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AR46">
         <v>0.52</v>
@@ -10752,7 +10779,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="Q48">
         <v>2.38</v>
@@ -10833,7 +10860,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR48">
         <v>1.23</v>
@@ -11036,7 +11063,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ49">
         <v>1.67</v>
@@ -11164,7 +11191,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11242,7 +11269,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ50">
         <v>0.83</v>
@@ -11451,7 +11478,7 @@
         <v>3</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR51">
         <v>1.45</v>
@@ -11576,7 +11603,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="Q52">
         <v>2.38</v>
@@ -11782,7 +11809,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="Q53">
         <v>2.38</v>
@@ -11988,7 +12015,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -12069,7 +12096,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR54">
         <v>1.51</v>
@@ -12194,7 +12221,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -12812,7 +12839,7 @@
         <v>95</v>
       </c>
       <c r="P58" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12890,7 +12917,7 @@
         <v>1.33</v>
       </c>
       <c r="AP58">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ58">
         <v>1.67</v>
@@ -13018,7 +13045,7 @@
         <v>117</v>
       </c>
       <c r="P59" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="Q59">
         <v>5.5</v>
@@ -13099,7 +13126,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ59">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR59">
         <v>1.58</v>
@@ -13224,7 +13251,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="Q60">
         <v>4.75</v>
@@ -13305,7 +13332,7 @@
         <v>1</v>
       </c>
       <c r="AQ60">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AR60">
         <v>0.99</v>
@@ -13430,7 +13457,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="Q61">
         <v>2.3</v>
@@ -13920,10 +13947,10 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ63">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR63">
         <v>1.4</v>
@@ -14126,7 +14153,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ64">
         <v>1.33</v>
@@ -14460,7 +14487,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14541,7 +14568,7 @@
         <v>1</v>
       </c>
       <c r="AQ66">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR66">
         <v>1.13</v>
@@ -14666,7 +14693,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="Q67">
         <v>3.5</v>
@@ -14744,7 +14771,7 @@
         <v>0</v>
       </c>
       <c r="AP67">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ67">
         <v>0.33</v>
@@ -14950,7 +14977,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ68">
         <v>0.4</v>
@@ -15156,7 +15183,7 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ69">
         <v>0</v>
@@ -15284,7 +15311,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15365,7 +15392,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ70">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR70">
         <v>1.37</v>
@@ -15490,7 +15517,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15571,7 +15598,7 @@
         <v>3</v>
       </c>
       <c r="AQ71">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR71">
         <v>1.56</v>
@@ -15696,7 +15723,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="Q72">
         <v>2.1</v>
@@ -15777,7 +15804,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ72">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR72">
         <v>1.61</v>
@@ -16186,7 +16213,7 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ74">
         <v>1.33</v>
@@ -16932,7 +16959,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="Q78">
         <v>2.63</v>
@@ -17138,7 +17165,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -17344,7 +17371,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17422,7 +17449,7 @@
         <v>1.75</v>
       </c>
       <c r="AP80">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ80">
         <v>1.33</v>
@@ -17550,7 +17577,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17631,7 +17658,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ81">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR81">
         <v>1.77</v>
@@ -17756,7 +17783,7 @@
         <v>150</v>
       </c>
       <c r="P82" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18374,7 +18401,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -18580,7 +18607,7 @@
         <v>95</v>
       </c>
       <c r="P86" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -18661,7 +18688,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ86">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AR86">
         <v>1.61</v>
@@ -18786,7 +18813,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="Q87">
         <v>2.38</v>
@@ -18864,7 +18891,7 @@
         <v>1.33</v>
       </c>
       <c r="AP87">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ87">
         <v>1.75</v>
@@ -18992,7 +19019,7 @@
         <v>154</v>
       </c>
       <c r="P88" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19070,10 +19097,10 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ88">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR88">
         <v>1.66</v>
@@ -19198,7 +19225,7 @@
         <v>95</v>
       </c>
       <c r="P89" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -19279,7 +19306,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ89">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR89">
         <v>1.48</v>
@@ -19482,7 +19509,7 @@
         <v>0</v>
       </c>
       <c r="AP90">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ90">
         <v>0</v>
@@ -19688,10 +19715,10 @@
         <v>0</v>
       </c>
       <c r="AP91">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ91">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR91">
         <v>1.34</v>
@@ -20100,7 +20127,7 @@
         <v>0.25</v>
       </c>
       <c r="AP93">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ93">
         <v>0.33</v>
@@ -20228,7 +20255,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20309,7 +20336,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ94">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR94">
         <v>1.18</v>
@@ -20434,7 +20461,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -20721,7 +20748,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ96">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR96">
         <v>1.68</v>
@@ -21052,7 +21079,7 @@
         <v>95</v>
       </c>
       <c r="P98" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="Q98">
         <v>3.5</v>
@@ -21670,7 +21697,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="Q101">
         <v>2.63</v>
@@ -21876,7 +21903,7 @@
         <v>95</v>
       </c>
       <c r="P102" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -21957,7 +21984,7 @@
         <v>1</v>
       </c>
       <c r="AQ102">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR102">
         <v>1.72</v>
@@ -22494,7 +22521,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="Q105">
         <v>1.83</v>
@@ -22857,6 +22884,1654 @@
       </c>
       <c r="BP106">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7373286</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45469.79166666666</v>
+      </c>
+      <c r="F107">
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>78</v>
+      </c>
+      <c r="H107" t="s">
+        <v>76</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>2</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>2</v>
+      </c>
+      <c r="O107" t="s">
+        <v>166</v>
+      </c>
+      <c r="P107" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q107">
+        <v>3</v>
+      </c>
+      <c r="R107">
+        <v>1.95</v>
+      </c>
+      <c r="S107">
+        <v>4</v>
+      </c>
+      <c r="T107">
+        <v>1.47</v>
+      </c>
+      <c r="U107">
+        <v>2.7</v>
+      </c>
+      <c r="V107">
+        <v>3.1</v>
+      </c>
+      <c r="W107">
+        <v>1.33</v>
+      </c>
+      <c r="X107">
+        <v>8</v>
+      </c>
+      <c r="Y107">
+        <v>1.06</v>
+      </c>
+      <c r="Z107">
+        <v>2.25</v>
+      </c>
+      <c r="AA107">
+        <v>3.1</v>
+      </c>
+      <c r="AB107">
+        <v>3.5</v>
+      </c>
+      <c r="AC107">
+        <v>1.07</v>
+      </c>
+      <c r="AD107">
+        <v>9</v>
+      </c>
+      <c r="AE107">
+        <v>1.38</v>
+      </c>
+      <c r="AF107">
+        <v>3</v>
+      </c>
+      <c r="AG107">
+        <v>2.4</v>
+      </c>
+      <c r="AH107">
+        <v>1.53</v>
+      </c>
+      <c r="AI107">
+        <v>2.05</v>
+      </c>
+      <c r="AJ107">
+        <v>1.7</v>
+      </c>
+      <c r="AK107">
+        <v>1.35</v>
+      </c>
+      <c r="AL107">
+        <v>1.28</v>
+      </c>
+      <c r="AM107">
+        <v>1.66</v>
+      </c>
+      <c r="AN107">
+        <v>3</v>
+      </c>
+      <c r="AO107">
+        <v>1</v>
+      </c>
+      <c r="AP107">
+        <v>3</v>
+      </c>
+      <c r="AQ107">
+        <v>0.83</v>
+      </c>
+      <c r="AR107">
+        <v>1.59</v>
+      </c>
+      <c r="AS107">
+        <v>1.25</v>
+      </c>
+      <c r="AT107">
+        <v>2.84</v>
+      </c>
+      <c r="AU107">
+        <v>8</v>
+      </c>
+      <c r="AV107">
+        <v>4</v>
+      </c>
+      <c r="AW107">
+        <v>9</v>
+      </c>
+      <c r="AX107">
+        <v>6</v>
+      </c>
+      <c r="AY107">
+        <v>17</v>
+      </c>
+      <c r="AZ107">
+        <v>10</v>
+      </c>
+      <c r="BA107">
+        <v>7</v>
+      </c>
+      <c r="BB107">
+        <v>12</v>
+      </c>
+      <c r="BC107">
+        <v>19</v>
+      </c>
+      <c r="BD107">
+        <v>1.62</v>
+      </c>
+      <c r="BE107">
+        <v>8.6</v>
+      </c>
+      <c r="BF107">
+        <v>2.81</v>
+      </c>
+      <c r="BG107">
+        <v>1.18</v>
+      </c>
+      <c r="BH107">
+        <v>4.25</v>
+      </c>
+      <c r="BI107">
+        <v>1.37</v>
+      </c>
+      <c r="BJ107">
+        <v>3.25</v>
+      </c>
+      <c r="BK107">
+        <v>2</v>
+      </c>
+      <c r="BL107">
+        <v>2.1</v>
+      </c>
+      <c r="BM107">
+        <v>1.98</v>
+      </c>
+      <c r="BN107">
+        <v>1.84</v>
+      </c>
+      <c r="BO107">
+        <v>2.75</v>
+      </c>
+      <c r="BP107">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7373289</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45469.79166666666</v>
+      </c>
+      <c r="F108">
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>88</v>
+      </c>
+      <c r="H108" t="s">
+        <v>82</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>2</v>
+      </c>
+      <c r="L108">
+        <v>2</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108">
+        <v>3</v>
+      </c>
+      <c r="O108" t="s">
+        <v>167</v>
+      </c>
+      <c r="P108" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q108">
+        <v>2.63</v>
+      </c>
+      <c r="R108">
+        <v>2.1</v>
+      </c>
+      <c r="S108">
+        <v>4.33</v>
+      </c>
+      <c r="T108">
+        <v>1.4</v>
+      </c>
+      <c r="U108">
+        <v>2.95</v>
+      </c>
+      <c r="V108">
+        <v>2.9</v>
+      </c>
+      <c r="W108">
+        <v>1.4</v>
+      </c>
+      <c r="X108">
+        <v>7</v>
+      </c>
+      <c r="Y108">
+        <v>1.08</v>
+      </c>
+      <c r="Z108">
+        <v>2</v>
+      </c>
+      <c r="AA108">
+        <v>3.3</v>
+      </c>
+      <c r="AB108">
+        <v>3.9</v>
+      </c>
+      <c r="AC108">
+        <v>1.05</v>
+      </c>
+      <c r="AD108">
+        <v>11</v>
+      </c>
+      <c r="AE108">
+        <v>1.3</v>
+      </c>
+      <c r="AF108">
+        <v>3.4</v>
+      </c>
+      <c r="AG108">
+        <v>2.05</v>
+      </c>
+      <c r="AH108">
+        <v>1.75</v>
+      </c>
+      <c r="AI108">
+        <v>1.91</v>
+      </c>
+      <c r="AJ108">
+        <v>1.91</v>
+      </c>
+      <c r="AK108">
+        <v>1.22</v>
+      </c>
+      <c r="AL108">
+        <v>1.22</v>
+      </c>
+      <c r="AM108">
+        <v>2</v>
+      </c>
+      <c r="AN108">
+        <v>2</v>
+      </c>
+      <c r="AO108">
+        <v>1</v>
+      </c>
+      <c r="AP108">
+        <v>2.17</v>
+      </c>
+      <c r="AQ108">
+        <v>0.83</v>
+      </c>
+      <c r="AR108">
+        <v>1.54</v>
+      </c>
+      <c r="AS108">
+        <v>1.43</v>
+      </c>
+      <c r="AT108">
+        <v>2.97</v>
+      </c>
+      <c r="AU108">
+        <v>5</v>
+      </c>
+      <c r="AV108">
+        <v>7</v>
+      </c>
+      <c r="AW108">
+        <v>7</v>
+      </c>
+      <c r="AX108">
+        <v>5</v>
+      </c>
+      <c r="AY108">
+        <v>12</v>
+      </c>
+      <c r="AZ108">
+        <v>12</v>
+      </c>
+      <c r="BA108">
+        <v>7</v>
+      </c>
+      <c r="BB108">
+        <v>4</v>
+      </c>
+      <c r="BC108">
+        <v>11</v>
+      </c>
+      <c r="BD108">
+        <v>1.72</v>
+      </c>
+      <c r="BE108">
+        <v>7.9</v>
+      </c>
+      <c r="BF108">
+        <v>2.62</v>
+      </c>
+      <c r="BG108">
+        <v>1.22</v>
+      </c>
+      <c r="BH108">
+        <v>3.75</v>
+      </c>
+      <c r="BI108">
+        <v>1.37</v>
+      </c>
+      <c r="BJ108">
+        <v>3.1</v>
+      </c>
+      <c r="BK108">
+        <v>1.73</v>
+      </c>
+      <c r="BL108">
+        <v>2</v>
+      </c>
+      <c r="BM108">
+        <v>2.08</v>
+      </c>
+      <c r="BN108">
+        <v>1.81</v>
+      </c>
+      <c r="BO108">
+        <v>3</v>
+      </c>
+      <c r="BP108">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7373294</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45469.83333333334</v>
+      </c>
+      <c r="F109">
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>83</v>
+      </c>
+      <c r="H109" t="s">
+        <v>87</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>2</v>
+      </c>
+      <c r="L109">
+        <v>2</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109">
+        <v>3</v>
+      </c>
+      <c r="O109" t="s">
+        <v>168</v>
+      </c>
+      <c r="P109" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q109">
+        <v>4.75</v>
+      </c>
+      <c r="R109">
+        <v>2.05</v>
+      </c>
+      <c r="S109">
+        <v>2.63</v>
+      </c>
+      <c r="T109">
+        <v>1.4</v>
+      </c>
+      <c r="U109">
+        <v>2.75</v>
+      </c>
+      <c r="V109">
+        <v>3</v>
+      </c>
+      <c r="W109">
+        <v>1.36</v>
+      </c>
+      <c r="X109">
+        <v>8</v>
+      </c>
+      <c r="Y109">
+        <v>1.08</v>
+      </c>
+      <c r="Z109">
+        <v>4.5</v>
+      </c>
+      <c r="AA109">
+        <v>3.2</v>
+      </c>
+      <c r="AB109">
+        <v>1.9</v>
+      </c>
+      <c r="AC109">
+        <v>1.05</v>
+      </c>
+      <c r="AD109">
+        <v>10</v>
+      </c>
+      <c r="AE109">
+        <v>1.33</v>
+      </c>
+      <c r="AF109">
+        <v>3.25</v>
+      </c>
+      <c r="AG109">
+        <v>2.25</v>
+      </c>
+      <c r="AH109">
+        <v>1.62</v>
+      </c>
+      <c r="AI109">
+        <v>2</v>
+      </c>
+      <c r="AJ109">
+        <v>1.75</v>
+      </c>
+      <c r="AK109">
+        <v>1.87</v>
+      </c>
+      <c r="AL109">
+        <v>1.25</v>
+      </c>
+      <c r="AM109">
+        <v>1.25</v>
+      </c>
+      <c r="AN109">
+        <v>2.2</v>
+      </c>
+      <c r="AO109">
+        <v>2</v>
+      </c>
+      <c r="AP109">
+        <v>2.33</v>
+      </c>
+      <c r="AQ109">
+        <v>1.71</v>
+      </c>
+      <c r="AR109">
+        <v>1.33</v>
+      </c>
+      <c r="AS109">
+        <v>1.71</v>
+      </c>
+      <c r="AT109">
+        <v>3.04</v>
+      </c>
+      <c r="AU109">
+        <v>10</v>
+      </c>
+      <c r="AV109">
+        <v>6</v>
+      </c>
+      <c r="AW109">
+        <v>6</v>
+      </c>
+      <c r="AX109">
+        <v>2</v>
+      </c>
+      <c r="AY109">
+        <v>16</v>
+      </c>
+      <c r="AZ109">
+        <v>8</v>
+      </c>
+      <c r="BA109">
+        <v>7</v>
+      </c>
+      <c r="BB109">
+        <v>8</v>
+      </c>
+      <c r="BC109">
+        <v>15</v>
+      </c>
+      <c r="BD109">
+        <v>2.91</v>
+      </c>
+      <c r="BE109">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF109">
+        <v>1.6</v>
+      </c>
+      <c r="BG109">
+        <v>1.22</v>
+      </c>
+      <c r="BH109">
+        <v>3.75</v>
+      </c>
+      <c r="BI109">
+        <v>1.43</v>
+      </c>
+      <c r="BJ109">
+        <v>2.96</v>
+      </c>
+      <c r="BK109">
+        <v>2</v>
+      </c>
+      <c r="BL109">
+        <v>2</v>
+      </c>
+      <c r="BM109">
+        <v>2.14</v>
+      </c>
+      <c r="BN109">
+        <v>1.72</v>
+      </c>
+      <c r="BO109">
+        <v>2.88</v>
+      </c>
+      <c r="BP109">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7373290</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45469.83333333334</v>
+      </c>
+      <c r="F110">
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>75</v>
+      </c>
+      <c r="H110" t="s">
+        <v>89</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110">
+        <v>2</v>
+      </c>
+      <c r="O110" t="s">
+        <v>169</v>
+      </c>
+      <c r="P110" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q110">
+        <v>2.88</v>
+      </c>
+      <c r="R110">
+        <v>1.95</v>
+      </c>
+      <c r="S110">
+        <v>4.5</v>
+      </c>
+      <c r="T110">
+        <v>1.5</v>
+      </c>
+      <c r="U110">
+        <v>2.5</v>
+      </c>
+      <c r="V110">
+        <v>3.4</v>
+      </c>
+      <c r="W110">
+        <v>1.3</v>
+      </c>
+      <c r="X110">
+        <v>10</v>
+      </c>
+      <c r="Y110">
+        <v>1.06</v>
+      </c>
+      <c r="Z110">
+        <v>2.1</v>
+      </c>
+      <c r="AA110">
+        <v>3.2</v>
+      </c>
+      <c r="AB110">
+        <v>4</v>
+      </c>
+      <c r="AC110">
+        <v>1.07</v>
+      </c>
+      <c r="AD110">
+        <v>8.5</v>
+      </c>
+      <c r="AE110">
+        <v>1.42</v>
+      </c>
+      <c r="AF110">
+        <v>2.85</v>
+      </c>
+      <c r="AG110">
+        <v>2.5</v>
+      </c>
+      <c r="AH110">
+        <v>1.5</v>
+      </c>
+      <c r="AI110">
+        <v>2.1</v>
+      </c>
+      <c r="AJ110">
+        <v>1.67</v>
+      </c>
+      <c r="AK110">
+        <v>1.17</v>
+      </c>
+      <c r="AL110">
+        <v>1.25</v>
+      </c>
+      <c r="AM110">
+        <v>2.1</v>
+      </c>
+      <c r="AN110">
+        <v>1.2</v>
+      </c>
+      <c r="AO110">
+        <v>1.2</v>
+      </c>
+      <c r="AP110">
+        <v>1.17</v>
+      </c>
+      <c r="AQ110">
+        <v>1.17</v>
+      </c>
+      <c r="AR110">
+        <v>1.71</v>
+      </c>
+      <c r="AS110">
+        <v>1.24</v>
+      </c>
+      <c r="AT110">
+        <v>2.95</v>
+      </c>
+      <c r="AU110">
+        <v>8</v>
+      </c>
+      <c r="AV110">
+        <v>5</v>
+      </c>
+      <c r="AW110">
+        <v>10</v>
+      </c>
+      <c r="AX110">
+        <v>3</v>
+      </c>
+      <c r="AY110">
+        <v>18</v>
+      </c>
+      <c r="AZ110">
+        <v>8</v>
+      </c>
+      <c r="BA110">
+        <v>13</v>
+      </c>
+      <c r="BB110">
+        <v>1</v>
+      </c>
+      <c r="BC110">
+        <v>14</v>
+      </c>
+      <c r="BD110">
+        <v>1.54</v>
+      </c>
+      <c r="BE110">
+        <v>7.8</v>
+      </c>
+      <c r="BF110">
+        <v>3.2</v>
+      </c>
+      <c r="BG110">
+        <v>1.22</v>
+      </c>
+      <c r="BH110">
+        <v>3.75</v>
+      </c>
+      <c r="BI110">
+        <v>1.43</v>
+      </c>
+      <c r="BJ110">
+        <v>2.88</v>
+      </c>
+      <c r="BK110">
+        <v>2.2</v>
+      </c>
+      <c r="BL110">
+        <v>2</v>
+      </c>
+      <c r="BM110">
+        <v>2.14</v>
+      </c>
+      <c r="BN110">
+        <v>1.72</v>
+      </c>
+      <c r="BO110">
+        <v>3.3</v>
+      </c>
+      <c r="BP110">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7373293</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45469.83333333334</v>
+      </c>
+      <c r="F111">
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>77</v>
+      </c>
+      <c r="H111" t="s">
+        <v>81</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>2</v>
+      </c>
+      <c r="O111" t="s">
+        <v>170</v>
+      </c>
+      <c r="P111" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q111">
+        <v>3</v>
+      </c>
+      <c r="R111">
+        <v>2</v>
+      </c>
+      <c r="S111">
+        <v>4</v>
+      </c>
+      <c r="T111">
+        <v>1.47</v>
+      </c>
+      <c r="U111">
+        <v>2.7</v>
+      </c>
+      <c r="V111">
+        <v>3.1</v>
+      </c>
+      <c r="W111">
+        <v>1.33</v>
+      </c>
+      <c r="X111">
+        <v>8</v>
+      </c>
+      <c r="Y111">
+        <v>1.06</v>
+      </c>
+      <c r="Z111">
+        <v>2.2</v>
+      </c>
+      <c r="AA111">
+        <v>3.1</v>
+      </c>
+      <c r="AB111">
+        <v>3.5</v>
+      </c>
+      <c r="AC111">
+        <v>1.07</v>
+      </c>
+      <c r="AD111">
+        <v>9.5</v>
+      </c>
+      <c r="AE111">
+        <v>1.36</v>
+      </c>
+      <c r="AF111">
+        <v>3.1</v>
+      </c>
+      <c r="AG111">
+        <v>2.3</v>
+      </c>
+      <c r="AH111">
+        <v>1.6</v>
+      </c>
+      <c r="AI111">
+        <v>2</v>
+      </c>
+      <c r="AJ111">
+        <v>1.75</v>
+      </c>
+      <c r="AK111">
+        <v>1.3</v>
+      </c>
+      <c r="AL111">
+        <v>1.28</v>
+      </c>
+      <c r="AM111">
+        <v>1.72</v>
+      </c>
+      <c r="AN111">
+        <v>0.2</v>
+      </c>
+      <c r="AO111">
+        <v>0</v>
+      </c>
+      <c r="AP111">
+        <v>0.33</v>
+      </c>
+      <c r="AQ111">
+        <v>0.2</v>
+      </c>
+      <c r="AR111">
+        <v>1.39</v>
+      </c>
+      <c r="AS111">
+        <v>1.08</v>
+      </c>
+      <c r="AT111">
+        <v>2.47</v>
+      </c>
+      <c r="AU111">
+        <v>6</v>
+      </c>
+      <c r="AV111">
+        <v>5</v>
+      </c>
+      <c r="AW111">
+        <v>9</v>
+      </c>
+      <c r="AX111">
+        <v>5</v>
+      </c>
+      <c r="AY111">
+        <v>15</v>
+      </c>
+      <c r="AZ111">
+        <v>10</v>
+      </c>
+      <c r="BA111">
+        <v>5</v>
+      </c>
+      <c r="BB111">
+        <v>8</v>
+      </c>
+      <c r="BC111">
+        <v>13</v>
+      </c>
+      <c r="BD111">
+        <v>1.59</v>
+      </c>
+      <c r="BE111">
+        <v>8.5</v>
+      </c>
+      <c r="BF111">
+        <v>2.91</v>
+      </c>
+      <c r="BG111">
+        <v>1.18</v>
+      </c>
+      <c r="BH111">
+        <v>4.25</v>
+      </c>
+      <c r="BI111">
+        <v>1.43</v>
+      </c>
+      <c r="BJ111">
+        <v>2.86</v>
+      </c>
+      <c r="BK111">
+        <v>2</v>
+      </c>
+      <c r="BL111">
+        <v>2.25</v>
+      </c>
+      <c r="BM111">
+        <v>2.16</v>
+      </c>
+      <c r="BN111">
+        <v>1.72</v>
+      </c>
+      <c r="BO111">
+        <v>2.6</v>
+      </c>
+      <c r="BP111">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7373285</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45469.89583333334</v>
+      </c>
+      <c r="F112">
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>70</v>
+      </c>
+      <c r="H112" t="s">
+        <v>85</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>2</v>
+      </c>
+      <c r="N112">
+        <v>3</v>
+      </c>
+      <c r="O112" t="s">
+        <v>138</v>
+      </c>
+      <c r="P112" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q112">
+        <v>3.1</v>
+      </c>
+      <c r="R112">
+        <v>1.91</v>
+      </c>
+      <c r="S112">
+        <v>4.33</v>
+      </c>
+      <c r="T112">
+        <v>1.5</v>
+      </c>
+      <c r="U112">
+        <v>2.6</v>
+      </c>
+      <c r="V112">
+        <v>3.3</v>
+      </c>
+      <c r="W112">
+        <v>1.3</v>
+      </c>
+      <c r="X112">
+        <v>9</v>
+      </c>
+      <c r="Y112">
+        <v>1.05</v>
+      </c>
+      <c r="Z112">
+        <v>2.25</v>
+      </c>
+      <c r="AA112">
+        <v>3</v>
+      </c>
+      <c r="AB112">
+        <v>3.6</v>
+      </c>
+      <c r="AC112">
+        <v>1.08</v>
+      </c>
+      <c r="AD112">
+        <v>8.5</v>
+      </c>
+      <c r="AE112">
+        <v>1.5</v>
+      </c>
+      <c r="AF112">
+        <v>2.4</v>
+      </c>
+      <c r="AG112">
+        <v>2.7</v>
+      </c>
+      <c r="AH112">
+        <v>1.44</v>
+      </c>
+      <c r="AI112">
+        <v>2.2</v>
+      </c>
+      <c r="AJ112">
+        <v>1.62</v>
+      </c>
+      <c r="AK112">
+        <v>1.35</v>
+      </c>
+      <c r="AL112">
+        <v>1.3</v>
+      </c>
+      <c r="AM112">
+        <v>1.62</v>
+      </c>
+      <c r="AN112">
+        <v>2</v>
+      </c>
+      <c r="AO112">
+        <v>1.6</v>
+      </c>
+      <c r="AP112">
+        <v>1.6</v>
+      </c>
+      <c r="AQ112">
+        <v>1.83</v>
+      </c>
+      <c r="AR112">
+        <v>1.55</v>
+      </c>
+      <c r="AS112">
+        <v>1.44</v>
+      </c>
+      <c r="AT112">
+        <v>2.99</v>
+      </c>
+      <c r="AU112">
+        <v>7</v>
+      </c>
+      <c r="AV112">
+        <v>6</v>
+      </c>
+      <c r="AW112">
+        <v>3</v>
+      </c>
+      <c r="AX112">
+        <v>5</v>
+      </c>
+      <c r="AY112">
+        <v>10</v>
+      </c>
+      <c r="AZ112">
+        <v>11</v>
+      </c>
+      <c r="BA112">
+        <v>5</v>
+      </c>
+      <c r="BB112">
+        <v>9</v>
+      </c>
+      <c r="BC112">
+        <v>14</v>
+      </c>
+      <c r="BD112">
+        <v>1.67</v>
+      </c>
+      <c r="BE112">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF112">
+        <v>2.71</v>
+      </c>
+      <c r="BG112">
+        <v>1.27</v>
+      </c>
+      <c r="BH112">
+        <v>3.35</v>
+      </c>
+      <c r="BI112">
+        <v>1.53</v>
+      </c>
+      <c r="BJ112">
+        <v>2.54</v>
+      </c>
+      <c r="BK112">
+        <v>1.85</v>
+      </c>
+      <c r="BL112">
+        <v>1.85</v>
+      </c>
+      <c r="BM112">
+        <v>2.4</v>
+      </c>
+      <c r="BN112">
+        <v>1.59</v>
+      </c>
+      <c r="BO112">
+        <v>3.8</v>
+      </c>
+      <c r="BP112">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7373287</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45469.89583333334</v>
+      </c>
+      <c r="F113">
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>80</v>
+      </c>
+      <c r="H113" t="s">
+        <v>74</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>2</v>
+      </c>
+      <c r="L113">
+        <v>2</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+      <c r="N113">
+        <v>3</v>
+      </c>
+      <c r="O113" t="s">
+        <v>171</v>
+      </c>
+      <c r="P113" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q113">
+        <v>2.2</v>
+      </c>
+      <c r="R113">
+        <v>2.25</v>
+      </c>
+      <c r="S113">
+        <v>5.5</v>
+      </c>
+      <c r="T113">
+        <v>1.42</v>
+      </c>
+      <c r="U113">
+        <v>2.85</v>
+      </c>
+      <c r="V113">
+        <v>2.95</v>
+      </c>
+      <c r="W113">
+        <v>1.38</v>
+      </c>
+      <c r="X113">
+        <v>7.5</v>
+      </c>
+      <c r="Y113">
+        <v>1.07</v>
+      </c>
+      <c r="Z113">
+        <v>1.6</v>
+      </c>
+      <c r="AA113">
+        <v>3.9</v>
+      </c>
+      <c r="AB113">
+        <v>5.5</v>
+      </c>
+      <c r="AC113">
+        <v>1.05</v>
+      </c>
+      <c r="AD113">
+        <v>10</v>
+      </c>
+      <c r="AE113">
+        <v>1.33</v>
+      </c>
+      <c r="AF113">
+        <v>3.3</v>
+      </c>
+      <c r="AG113">
+        <v>1.95</v>
+      </c>
+      <c r="AH113">
+        <v>1.85</v>
+      </c>
+      <c r="AI113">
+        <v>1.95</v>
+      </c>
+      <c r="AJ113">
+        <v>1.8</v>
+      </c>
+      <c r="AK113">
+        <v>1.17</v>
+      </c>
+      <c r="AL113">
+        <v>1.22</v>
+      </c>
+      <c r="AM113">
+        <v>2.2</v>
+      </c>
+      <c r="AN113">
+        <v>3</v>
+      </c>
+      <c r="AO113">
+        <v>0</v>
+      </c>
+      <c r="AP113">
+        <v>3</v>
+      </c>
+      <c r="AQ113">
+        <v>0</v>
+      </c>
+      <c r="AR113">
+        <v>1.4</v>
+      </c>
+      <c r="AS113">
+        <v>1.14</v>
+      </c>
+      <c r="AT113">
+        <v>2.54</v>
+      </c>
+      <c r="AU113">
+        <v>9</v>
+      </c>
+      <c r="AV113">
+        <v>4</v>
+      </c>
+      <c r="AW113">
+        <v>6</v>
+      </c>
+      <c r="AX113">
+        <v>6</v>
+      </c>
+      <c r="AY113">
+        <v>15</v>
+      </c>
+      <c r="AZ113">
+        <v>10</v>
+      </c>
+      <c r="BA113">
+        <v>7</v>
+      </c>
+      <c r="BB113">
+        <v>0</v>
+      </c>
+      <c r="BC113">
+        <v>7</v>
+      </c>
+      <c r="BD113">
+        <v>1.49</v>
+      </c>
+      <c r="BE113">
+        <v>9</v>
+      </c>
+      <c r="BF113">
+        <v>3.24</v>
+      </c>
+      <c r="BG113">
+        <v>1.18</v>
+      </c>
+      <c r="BH113">
+        <v>4.25</v>
+      </c>
+      <c r="BI113">
+        <v>1.34</v>
+      </c>
+      <c r="BJ113">
+        <v>2.92</v>
+      </c>
+      <c r="BK113">
+        <v>2</v>
+      </c>
+      <c r="BL113">
+        <v>2.2</v>
+      </c>
+      <c r="BM113">
+        <v>1.9</v>
+      </c>
+      <c r="BN113">
+        <v>1.78</v>
+      </c>
+      <c r="BO113">
+        <v>2.75</v>
+      </c>
+      <c r="BP113">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7373292</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45469.89583333334</v>
+      </c>
+      <c r="F114">
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>84</v>
+      </c>
+      <c r="H114" t="s">
+        <v>86</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>3</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>3</v>
+      </c>
+      <c r="O114" t="s">
+        <v>172</v>
+      </c>
+      <c r="P114" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q114">
+        <v>3.75</v>
+      </c>
+      <c r="R114">
+        <v>2.05</v>
+      </c>
+      <c r="S114">
+        <v>3.1</v>
+      </c>
+      <c r="T114">
+        <v>1.45</v>
+      </c>
+      <c r="U114">
+        <v>2.75</v>
+      </c>
+      <c r="V114">
+        <v>3</v>
+      </c>
+      <c r="W114">
+        <v>1.36</v>
+      </c>
+      <c r="X114">
+        <v>7.5</v>
+      </c>
+      <c r="Y114">
+        <v>1.07</v>
+      </c>
+      <c r="Z114">
+        <v>3.25</v>
+      </c>
+      <c r="AA114">
+        <v>3.1</v>
+      </c>
+      <c r="AB114">
+        <v>2.38</v>
+      </c>
+      <c r="AC114">
+        <v>1.06</v>
+      </c>
+      <c r="AD114">
+        <v>9</v>
+      </c>
+      <c r="AE114">
+        <v>1.33</v>
+      </c>
+      <c r="AF114">
+        <v>3.25</v>
+      </c>
+      <c r="AG114">
+        <v>2.3</v>
+      </c>
+      <c r="AH114">
+        <v>1.6</v>
+      </c>
+      <c r="AI114">
+        <v>1.95</v>
+      </c>
+      <c r="AJ114">
+        <v>1.8</v>
+      </c>
+      <c r="AK114">
+        <v>1.57</v>
+      </c>
+      <c r="AL114">
+        <v>1.3</v>
+      </c>
+      <c r="AM114">
+        <v>1.38</v>
+      </c>
+      <c r="AN114">
+        <v>1.8</v>
+      </c>
+      <c r="AO114">
+        <v>2.6</v>
+      </c>
+      <c r="AP114">
+        <v>2</v>
+      </c>
+      <c r="AQ114">
+        <v>2.17</v>
+      </c>
+      <c r="AR114">
+        <v>1.34</v>
+      </c>
+      <c r="AS114">
+        <v>1.63</v>
+      </c>
+      <c r="AT114">
+        <v>2.97</v>
+      </c>
+      <c r="AU114">
+        <v>7</v>
+      </c>
+      <c r="AV114">
+        <v>8</v>
+      </c>
+      <c r="AW114">
+        <v>2</v>
+      </c>
+      <c r="AX114">
+        <v>6</v>
+      </c>
+      <c r="AY114">
+        <v>9</v>
+      </c>
+      <c r="AZ114">
+        <v>14</v>
+      </c>
+      <c r="BA114">
+        <v>3</v>
+      </c>
+      <c r="BB114">
+        <v>8</v>
+      </c>
+      <c r="BC114">
+        <v>11</v>
+      </c>
+      <c r="BD114">
+        <v>2.66</v>
+      </c>
+      <c r="BE114">
+        <v>8.1</v>
+      </c>
+      <c r="BF114">
+        <v>1.69</v>
+      </c>
+      <c r="BG114">
+        <v>1.2</v>
+      </c>
+      <c r="BH114">
+        <v>3.95</v>
+      </c>
+      <c r="BI114">
+        <v>1.36</v>
+      </c>
+      <c r="BJ114">
+        <v>3.25</v>
+      </c>
+      <c r="BK114">
+        <v>1.83</v>
+      </c>
+      <c r="BL114">
+        <v>2.05</v>
+      </c>
+      <c r="BM114">
+        <v>1.95</v>
+      </c>
+      <c r="BN114">
+        <v>1.89</v>
+      </c>
+      <c r="BO114">
+        <v>2.75</v>
+      </c>
+      <c r="BP114">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="225">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -505,34 +505,37 @@
     <t>['45+9', '78', '90+1', '90+6']</t>
   </si>
   <si>
-    <t>['45+3', '66']</t>
-  </si>
-  <si>
     <t>['50', '76', '84']</t>
   </si>
   <si>
     <t>['58']</t>
   </si>
   <si>
-    <t>['15', '90+1']</t>
+    <t>['45+3', '66']</t>
   </si>
   <si>
     <t>['21', '52']</t>
   </si>
   <si>
+    <t>['15', '90+1']</t>
+  </si>
+  <si>
     <t>['26', '87']</t>
+  </si>
+  <si>
+    <t>['72']</t>
   </si>
   <si>
     <t>['86']</t>
   </si>
   <si>
-    <t>['72']</t>
+    <t>['9', '47', '69']</t>
   </si>
   <si>
     <t>['7', '86']</t>
   </si>
   <si>
-    <t>['9', '47', '69']</t>
+    <t>['1', '22']</t>
   </si>
   <si>
     <t>['70']</t>
@@ -683,6 +686,9 @@
   </si>
   <si>
     <t>['53', '90+8']</t>
+  </si>
+  <si>
+    <t>['90']</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1050,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP114"/>
+  <dimension ref="A1:BP116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1303,7 +1309,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1509,7 +1515,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1715,7 +1721,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -1793,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ4">
         <v>0.83</v>
@@ -1921,7 +1927,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -1999,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -2127,7 +2133,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2745,7 +2751,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2951,7 +2957,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3157,7 +3163,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3363,7 +3369,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -4187,7 +4193,7 @@
         <v>103</v>
       </c>
       <c r="P16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4474,7 +4480,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ17">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5295,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ21">
         <v>0</v>
@@ -6453,7 +6459,7 @@
         <v>112</v>
       </c>
       <c r="P27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -6659,7 +6665,7 @@
         <v>113</v>
       </c>
       <c r="P28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6865,7 +6871,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q29">
         <v>3.5</v>
@@ -7071,7 +7077,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7152,7 +7158,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ30">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR30">
         <v>1.35</v>
@@ -7277,7 +7283,7 @@
         <v>95</v>
       </c>
       <c r="P31" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7689,7 +7695,7 @@
         <v>95</v>
       </c>
       <c r="P33" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -8101,7 +8107,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q35">
         <v>2.25</v>
@@ -8182,7 +8188,7 @@
         <v>3</v>
       </c>
       <c r="AQ35">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR35">
         <v>1.46</v>
@@ -8513,7 +8519,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8719,7 +8725,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -9003,7 +9009,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ39">
         <v>2.17</v>
@@ -9131,7 +9137,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9209,7 +9215,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ40">
         <v>1.83</v>
@@ -9955,7 +9961,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10161,7 +10167,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10367,7 +10373,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10779,7 +10785,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q48">
         <v>2.38</v>
@@ -11191,7 +11197,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11603,7 +11609,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q52">
         <v>2.38</v>
@@ -11684,7 +11690,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ52">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR52">
         <v>1.51</v>
@@ -11809,7 +11815,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q53">
         <v>2.38</v>
@@ -11887,7 +11893,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ53">
         <v>0</v>
@@ -12015,7 +12021,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -12221,7 +12227,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -12505,7 +12511,7 @@
         <v>0.5</v>
       </c>
       <c r="AP56">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ56">
         <v>0.4</v>
@@ -12839,7 +12845,7 @@
         <v>95</v>
       </c>
       <c r="P58" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -13045,7 +13051,7 @@
         <v>117</v>
       </c>
       <c r="P59" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q59">
         <v>5.5</v>
@@ -13251,7 +13257,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q60">
         <v>4.75</v>
@@ -13457,7 +13463,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q61">
         <v>2.3</v>
@@ -13741,7 +13747,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ62">
         <v>0.83</v>
@@ -14362,7 +14368,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ65">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR65">
         <v>0.78</v>
@@ -14487,7 +14493,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14693,7 +14699,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q67">
         <v>3.5</v>
@@ -14980,7 +14986,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ68">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR68">
         <v>1.39</v>
@@ -15311,7 +15317,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15517,7 +15523,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15723,7 +15729,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q72">
         <v>2.1</v>
@@ -16010,7 +16016,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ73">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR73">
         <v>1.66</v>
@@ -16959,7 +16965,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q78">
         <v>2.63</v>
@@ -17037,7 +17043,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ78">
         <v>1.33</v>
@@ -17165,7 +17171,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -17371,7 +17377,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17577,7 +17583,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17783,7 +17789,7 @@
         <v>150</v>
       </c>
       <c r="P82" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18401,7 +18407,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -18607,7 +18613,7 @@
         <v>95</v>
       </c>
       <c r="P86" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -18813,7 +18819,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q87">
         <v>2.38</v>
@@ -18894,7 +18900,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ87">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR87">
         <v>1.45</v>
@@ -19019,7 +19025,7 @@
         <v>154</v>
       </c>
       <c r="P88" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19225,7 +19231,7 @@
         <v>95</v>
       </c>
       <c r="P89" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -19303,7 +19309,7 @@
         <v>0.75</v>
       </c>
       <c r="AP89">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ89">
         <v>1.17</v>
@@ -19801,7 +19807,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>7373266</v>
+        <v>7373265</v>
       </c>
       <c r="C92" t="s">
         <v>68</v>
@@ -19816,10 +19822,10 @@
         <v>10</v>
       </c>
       <c r="G92" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H92" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -19831,175 +19837,175 @@
         <v>1</v>
       </c>
       <c r="L92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M92">
         <v>0</v>
       </c>
       <c r="N92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O92" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="P92" t="s">
         <v>95</v>
       </c>
       <c r="Q92">
+        <v>3.1</v>
+      </c>
+      <c r="R92">
+        <v>1.91</v>
+      </c>
+      <c r="S92">
+        <v>4.33</v>
+      </c>
+      <c r="T92">
+        <v>1.53</v>
+      </c>
+      <c r="U92">
         <v>2.38</v>
       </c>
-      <c r="R92">
+      <c r="V92">
+        <v>3.5</v>
+      </c>
+      <c r="W92">
+        <v>1.29</v>
+      </c>
+      <c r="X92">
+        <v>11</v>
+      </c>
+      <c r="Y92">
+        <v>1.05</v>
+      </c>
+      <c r="Z92">
+        <v>2.25</v>
+      </c>
+      <c r="AA92">
+        <v>3.1</v>
+      </c>
+      <c r="AB92">
+        <v>3.5</v>
+      </c>
+      <c r="AC92">
+        <v>1.1</v>
+      </c>
+      <c r="AD92">
+        <v>5.8</v>
+      </c>
+      <c r="AE92">
+        <v>1.5</v>
+      </c>
+      <c r="AF92">
+        <v>2.4</v>
+      </c>
+      <c r="AG92">
+        <v>2.5</v>
+      </c>
+      <c r="AH92">
+        <v>1.5</v>
+      </c>
+      <c r="AI92">
         <v>2.1</v>
       </c>
-      <c r="S92">
-        <v>5.5</v>
-      </c>
-      <c r="T92">
-        <v>1.5</v>
-      </c>
-      <c r="U92">
-        <v>2.5</v>
-      </c>
-      <c r="V92">
-        <v>3.4</v>
-      </c>
-      <c r="W92">
+      <c r="AJ92">
+        <v>1.67</v>
+      </c>
+      <c r="AK92">
+        <v>1.15</v>
+      </c>
+      <c r="AL92">
         <v>1.3</v>
       </c>
-      <c r="X92">
-        <v>10</v>
-      </c>
-      <c r="Y92">
-        <v>1.06</v>
-      </c>
-      <c r="Z92">
-        <v>1.7</v>
-      </c>
-      <c r="AA92">
-        <v>3.6</v>
-      </c>
-      <c r="AB92">
-        <v>5.25</v>
-      </c>
-      <c r="AC92">
-        <v>1.07</v>
-      </c>
-      <c r="AD92">
-        <v>6.8</v>
-      </c>
-      <c r="AE92">
-        <v>1.35</v>
-      </c>
-      <c r="AF92">
-        <v>2.9</v>
-      </c>
-      <c r="AG92">
-        <v>2.08</v>
-      </c>
-      <c r="AH92">
-        <v>1.73</v>
-      </c>
-      <c r="AI92">
-        <v>2</v>
-      </c>
-      <c r="AJ92">
-        <v>1.75</v>
-      </c>
-      <c r="AK92">
-        <v>1.22</v>
-      </c>
-      <c r="AL92">
-        <v>1.28</v>
-      </c>
       <c r="AM92">
-        <v>1.77</v>
+        <v>1.9</v>
       </c>
       <c r="AN92">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="AO92">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AP92">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="AQ92">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR92">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="AS92">
-        <v>0.91</v>
+        <v>1.23</v>
       </c>
       <c r="AT92">
-        <v>2.53</v>
+        <v>2.92</v>
       </c>
       <c r="AU92">
         <v>6</v>
       </c>
       <c r="AV92">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW92">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AX92">
         <v>4</v>
       </c>
       <c r="AY92">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AZ92">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA92">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BB92">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BC92">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD92">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="BE92">
-        <v>9.9</v>
+        <v>9.1</v>
       </c>
       <c r="BF92">
         <v>3.4</v>
       </c>
       <c r="BG92">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="BH92">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="BI92">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="BJ92">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="BK92">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="BL92">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="BM92">
-        <v>2.05</v>
+        <v>2.16</v>
       </c>
       <c r="BN92">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="BO92">
-        <v>2.7</v>
+        <v>2.85</v>
       </c>
       <c r="BP92">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="93" spans="1:68">
@@ -20007,7 +20013,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>7373265</v>
+        <v>7373266</v>
       </c>
       <c r="C93" t="s">
         <v>68</v>
@@ -20022,10 +20028,10 @@
         <v>10</v>
       </c>
       <c r="G93" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H93" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -20037,175 +20043,175 @@
         <v>1</v>
       </c>
       <c r="L93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M93">
         <v>0</v>
       </c>
       <c r="N93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O93" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="P93" t="s">
         <v>95</v>
       </c>
       <c r="Q93">
-        <v>3.1</v>
+        <v>2.38</v>
       </c>
       <c r="R93">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="S93">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="T93">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U93">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V93">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W93">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X93">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y93">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="Z93">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="AA93">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="AB93">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="AC93">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="AD93">
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="AE93">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="AF93">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="AG93">
-        <v>2.5</v>
+        <v>2.08</v>
       </c>
       <c r="AH93">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="AI93">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AJ93">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AK93">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="AL93">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AM93">
-        <v>1.9</v>
+        <v>1.77</v>
       </c>
       <c r="AN93">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="AO93">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AP93">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="AQ93">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AR93">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="AS93">
-        <v>1.23</v>
+        <v>0.91</v>
       </c>
       <c r="AT93">
-        <v>2.92</v>
+        <v>2.53</v>
       </c>
       <c r="AU93">
         <v>6</v>
       </c>
       <c r="AV93">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW93">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AX93">
         <v>4</v>
       </c>
       <c r="AY93">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ93">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA93">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BB93">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BC93">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD93">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="BE93">
-        <v>9.1</v>
+        <v>9.9</v>
       </c>
       <c r="BF93">
         <v>3.4</v>
       </c>
       <c r="BG93">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="BH93">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="BI93">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="BJ93">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="BK93">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BL93">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="BM93">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="BN93">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="BO93">
-        <v>2.85</v>
+        <v>2.7</v>
       </c>
       <c r="BP93">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="94" spans="1:68">
@@ -20255,7 +20261,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20461,7 +20467,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -21079,7 +21085,7 @@
         <v>95</v>
       </c>
       <c r="P98" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q98">
         <v>3.5</v>
@@ -21697,7 +21703,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q101">
         <v>2.63</v>
@@ -21903,7 +21909,7 @@
         <v>95</v>
       </c>
       <c r="P102" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -21981,7 +21987,7 @@
         <v>1.8</v>
       </c>
       <c r="AP102">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ102">
         <v>1.71</v>
@@ -22273,7 +22279,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>7373281</v>
+        <v>7373280</v>
       </c>
       <c r="C104" t="s">
         <v>68</v>
@@ -22288,88 +22294,88 @@
         <v>11</v>
       </c>
       <c r="G104" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H104" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M104">
         <v>1</v>
       </c>
       <c r="N104">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O104" t="s">
         <v>163</v>
       </c>
       <c r="P104" t="s">
-        <v>114</v>
+        <v>175</v>
       </c>
       <c r="Q104">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="R104">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="S104">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="T104">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U104">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V104">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="W104">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="X104">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y104">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z104">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="AA104">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="AB104">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AC104">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AD104">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE104">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AF104">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="AG104">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AH104">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AI104">
         <v>2.2</v>
@@ -22378,100 +22384,100 @@
         <v>1.62</v>
       </c>
       <c r="AK104">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AL104">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="AM104">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="AN104">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AO104">
         <v>0.5</v>
       </c>
       <c r="AP104">
-        <v>2.17</v>
+        <v>1.67</v>
       </c>
       <c r="AQ104">
         <v>0.4</v>
       </c>
       <c r="AR104">
-        <v>1.31</v>
+        <v>1.72</v>
       </c>
       <c r="AS104">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="AT104">
-        <v>2.68</v>
+        <v>3</v>
       </c>
       <c r="AU104">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AV104">
+        <v>9</v>
+      </c>
+      <c r="AW104">
+        <v>12</v>
+      </c>
+      <c r="AX104">
         <v>6</v>
       </c>
-      <c r="AW104">
-        <v>7</v>
-      </c>
-      <c r="AX104">
-        <v>3</v>
-      </c>
       <c r="AY104">
+        <v>23</v>
+      </c>
+      <c r="AZ104">
+        <v>15</v>
+      </c>
+      <c r="BA104">
+        <v>10</v>
+      </c>
+      <c r="BB104">
+        <v>4</v>
+      </c>
+      <c r="BC104">
         <v>14</v>
       </c>
-      <c r="AZ104">
-        <v>9</v>
-      </c>
-      <c r="BA104">
-        <v>6</v>
-      </c>
-      <c r="BB104">
-        <v>7</v>
-      </c>
-      <c r="BC104">
-        <v>13</v>
-      </c>
       <c r="BD104">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="BE104">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="BF104">
-        <v>3.6</v>
+        <v>4.77</v>
       </c>
       <c r="BG104">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="BH104">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="BI104">
+        <v>1.45</v>
+      </c>
+      <c r="BJ104">
+        <v>2.6</v>
+      </c>
+      <c r="BK104">
+        <v>2.38</v>
+      </c>
+      <c r="BL104">
+        <v>1.92</v>
+      </c>
+      <c r="BM104">
+        <v>2.2</v>
+      </c>
+      <c r="BN104">
+        <v>1.62</v>
+      </c>
+      <c r="BO104">
+        <v>3.1</v>
+      </c>
+      <c r="BP104">
         <v>1.33</v>
-      </c>
-      <c r="BJ104">
-        <v>3</v>
-      </c>
-      <c r="BK104">
-        <v>2</v>
-      </c>
-      <c r="BL104">
-        <v>2.45</v>
-      </c>
-      <c r="BM104">
-        <v>2.05</v>
-      </c>
-      <c r="BN104">
-        <v>1.7</v>
-      </c>
-      <c r="BO104">
-        <v>2.37</v>
-      </c>
-      <c r="BP104">
-        <v>1.51</v>
       </c>
     </row>
     <row r="105" spans="1:68">
@@ -22479,7 +22485,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>7373280</v>
+        <v>7373276</v>
       </c>
       <c r="C105" t="s">
         <v>68</v>
@@ -22494,190 +22500,190 @@
         <v>11</v>
       </c>
       <c r="G105" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H105" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M105">
         <v>1</v>
       </c>
       <c r="N105">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O105" t="s">
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="Q105">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="R105">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="S105">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="T105">
+        <v>1.4</v>
+      </c>
+      <c r="U105">
+        <v>2.75</v>
+      </c>
+      <c r="V105">
+        <v>3</v>
+      </c>
+      <c r="W105">
         <v>1.36</v>
       </c>
-      <c r="U105">
-        <v>3</v>
-      </c>
-      <c r="V105">
-        <v>2.63</v>
-      </c>
-      <c r="W105">
-        <v>1.44</v>
-      </c>
       <c r="X105">
+        <v>9</v>
+      </c>
+      <c r="Y105">
+        <v>1.07</v>
+      </c>
+      <c r="Z105">
+        <v>1.62</v>
+      </c>
+      <c r="AA105">
+        <v>3.8</v>
+      </c>
+      <c r="AB105">
+        <v>5.25</v>
+      </c>
+      <c r="AC105">
+        <v>1.06</v>
+      </c>
+      <c r="AD105">
+        <v>10</v>
+      </c>
+      <c r="AE105">
+        <v>1.36</v>
+      </c>
+      <c r="AF105">
+        <v>3.1</v>
+      </c>
+      <c r="AG105">
+        <v>2.05</v>
+      </c>
+      <c r="AH105">
+        <v>1.75</v>
+      </c>
+      <c r="AI105">
+        <v>2</v>
+      </c>
+      <c r="AJ105">
+        <v>1.75</v>
+      </c>
+      <c r="AK105">
+        <v>1.14</v>
+      </c>
+      <c r="AL105">
+        <v>1.22</v>
+      </c>
+      <c r="AM105">
+        <v>2.3</v>
+      </c>
+      <c r="AN105">
+        <v>1.25</v>
+      </c>
+      <c r="AO105">
+        <v>1</v>
+      </c>
+      <c r="AP105">
+        <v>1.2</v>
+      </c>
+      <c r="AQ105">
+        <v>1</v>
+      </c>
+      <c r="AR105">
+        <v>1.47</v>
+      </c>
+      <c r="AS105">
+        <v>1.03</v>
+      </c>
+      <c r="AT105">
+        <v>2.5</v>
+      </c>
+      <c r="AU105">
+        <v>9</v>
+      </c>
+      <c r="AV105">
+        <v>4</v>
+      </c>
+      <c r="AW105">
+        <v>5</v>
+      </c>
+      <c r="AX105">
         <v>7</v>
       </c>
-      <c r="Y105">
-        <v>1.1</v>
-      </c>
-      <c r="Z105">
-        <v>1.33</v>
-      </c>
-      <c r="AA105">
-        <v>4.75</v>
-      </c>
-      <c r="AB105">
-        <v>8.5</v>
-      </c>
-      <c r="AC105">
-        <v>1.03</v>
-      </c>
-      <c r="AD105">
-        <v>13</v>
-      </c>
-      <c r="AE105">
-        <v>1.25</v>
-      </c>
-      <c r="AF105">
-        <v>3.75</v>
-      </c>
-      <c r="AG105">
-        <v>1.8</v>
-      </c>
-      <c r="AH105">
-        <v>2</v>
-      </c>
-      <c r="AI105">
-        <v>2.2</v>
-      </c>
-      <c r="AJ105">
-        <v>1.62</v>
-      </c>
-      <c r="AK105">
-        <v>1.04</v>
-      </c>
-      <c r="AL105">
-        <v>1.12</v>
-      </c>
-      <c r="AM105">
-        <v>3.3</v>
-      </c>
-      <c r="AN105">
-        <v>1.4</v>
-      </c>
-      <c r="AO105">
-        <v>0.5</v>
-      </c>
-      <c r="AP105">
-        <v>1.67</v>
-      </c>
-      <c r="AQ105">
-        <v>0.4</v>
-      </c>
-      <c r="AR105">
-        <v>1.72</v>
-      </c>
-      <c r="AS105">
-        <v>1.28</v>
-      </c>
-      <c r="AT105">
-        <v>3</v>
-      </c>
-      <c r="AU105">
+      <c r="AY105">
+        <v>14</v>
+      </c>
+      <c r="AZ105">
         <v>11</v>
       </c>
-      <c r="AV105">
-        <v>9</v>
-      </c>
-      <c r="AW105">
-        <v>12</v>
-      </c>
-      <c r="AX105">
-        <v>6</v>
-      </c>
-      <c r="AY105">
-        <v>23</v>
-      </c>
-      <c r="AZ105">
-        <v>15</v>
-      </c>
       <c r="BA105">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BB105">
         <v>4</v>
       </c>
       <c r="BC105">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="BD105">
-        <v>1.27</v>
+        <v>1.45</v>
       </c>
       <c r="BE105">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BF105">
-        <v>4.77</v>
+        <v>3.5</v>
       </c>
       <c r="BG105">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="BH105">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="BI105">
-        <v>1.45</v>
+        <v>1.31</v>
       </c>
       <c r="BJ105">
-        <v>2.6</v>
+        <v>3.04</v>
       </c>
       <c r="BK105">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="BL105">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="BM105">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="BN105">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="BO105">
-        <v>3.1</v>
+        <v>2.49</v>
       </c>
       <c r="BP105">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="106" spans="1:68">
@@ -22685,7 +22691,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>7373276</v>
+        <v>7373281</v>
       </c>
       <c r="C106" t="s">
         <v>68</v>
@@ -22700,43 +22706,43 @@
         <v>11</v>
       </c>
       <c r="G106" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H106" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106">
         <v>1</v>
       </c>
       <c r="K106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M106">
         <v>1</v>
       </c>
       <c r="N106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O106" t="s">
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="Q106">
+        <v>2</v>
+      </c>
+      <c r="R106">
         <v>2.25</v>
       </c>
-      <c r="R106">
-        <v>2.2</v>
-      </c>
       <c r="S106">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="T106">
         <v>1.4</v>
@@ -22751,139 +22757,139 @@
         <v>1.36</v>
       </c>
       <c r="X106">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y106">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z106">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="AA106">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="AB106">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="AC106">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AD106">
         <v>10</v>
       </c>
       <c r="AE106">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AF106">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AG106">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AH106">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AI106">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AJ106">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AK106">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="AL106">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AM106">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="AN106">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AO106">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP106">
-        <v>1.2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ106">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR106">
-        <v>1.47</v>
+        <v>1.31</v>
       </c>
       <c r="AS106">
-        <v>1.03</v>
+        <v>1.37</v>
       </c>
       <c r="AT106">
-        <v>2.5</v>
+        <v>2.68</v>
       </c>
       <c r="AU106">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV106">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW106">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX106">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AY106">
         <v>14</v>
       </c>
       <c r="AZ106">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA106">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BB106">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BC106">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BD106">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="BE106">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="BF106">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="BG106">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="BH106">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="BI106">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="BJ106">
-        <v>3.04</v>
+        <v>3</v>
       </c>
       <c r="BK106">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="BL106">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="BM106">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="BN106">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="BO106">
-        <v>2.49</v>
+        <v>2.37</v>
       </c>
       <c r="BP106">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="107" spans="1:68">
@@ -22891,7 +22897,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>7373286</v>
+        <v>7373289</v>
       </c>
       <c r="C107" t="s">
         <v>68</v>
@@ -22906,190 +22912,190 @@
         <v>12</v>
       </c>
       <c r="G107" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H107" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I107">
         <v>1</v>
       </c>
       <c r="J107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L107">
         <v>2</v>
       </c>
       <c r="M107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O107" t="s">
         <v>166</v>
       </c>
       <c r="P107" t="s">
-        <v>95</v>
+        <v>222</v>
       </c>
       <c r="Q107">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="R107">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S107">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T107">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="U107">
-        <v>2.7</v>
+        <v>2.95</v>
       </c>
       <c r="V107">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="W107">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="X107">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y107">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="Z107">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AA107">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AB107">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="AC107">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AD107">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE107">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="AF107">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AG107">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="AH107">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="AI107">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="AJ107">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="AK107">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="AL107">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AM107">
-        <v>1.66</v>
+        <v>2</v>
       </c>
       <c r="AN107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO107">
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>3</v>
+        <v>2.17</v>
       </c>
       <c r="AQ107">
         <v>0.83</v>
       </c>
       <c r="AR107">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="AS107">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="AT107">
-        <v>2.84</v>
+        <v>2.97</v>
       </c>
       <c r="AU107">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AV107">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW107">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AX107">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY107">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AZ107">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA107">
         <v>7</v>
       </c>
       <c r="BB107">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="BC107">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="BD107">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="BE107">
-        <v>8.6</v>
+        <v>7.9</v>
       </c>
       <c r="BF107">
-        <v>2.81</v>
+        <v>2.62</v>
       </c>
       <c r="BG107">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="BH107">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="BI107">
         <v>1.37</v>
       </c>
       <c r="BJ107">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="BK107">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="BL107">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BM107">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="BN107">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="BO107">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="BP107">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="108" spans="1:68">
@@ -23097,7 +23103,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>7373289</v>
+        <v>7373286</v>
       </c>
       <c r="C108" t="s">
         <v>68</v>
@@ -23112,190 +23118,190 @@
         <v>12</v>
       </c>
       <c r="G108" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H108" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I108">
         <v>1</v>
       </c>
       <c r="J108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L108">
         <v>2</v>
       </c>
       <c r="M108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O108" t="s">
         <v>167</v>
       </c>
       <c r="P108" t="s">
-        <v>221</v>
+        <v>95</v>
       </c>
       <c r="Q108">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="R108">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S108">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T108">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="U108">
-        <v>2.95</v>
+        <v>2.7</v>
       </c>
       <c r="V108">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="W108">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="X108">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y108">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="Z108">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AA108">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="AB108">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="AC108">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AD108">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE108">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="AF108">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AG108">
+        <v>2.4</v>
+      </c>
+      <c r="AH108">
+        <v>1.53</v>
+      </c>
+      <c r="AI108">
         <v>2.05</v>
       </c>
-      <c r="AH108">
-        <v>1.75</v>
-      </c>
-      <c r="AI108">
-        <v>1.91</v>
-      </c>
       <c r="AJ108">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="AK108">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="AL108">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AM108">
-        <v>2</v>
+        <v>1.66</v>
       </c>
       <c r="AN108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO108">
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>2.17</v>
+        <v>3</v>
       </c>
       <c r="AQ108">
         <v>0.83</v>
       </c>
       <c r="AR108">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="AS108">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT108">
-        <v>2.97</v>
+        <v>2.84</v>
       </c>
       <c r="AU108">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AV108">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW108">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX108">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY108">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ108">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA108">
         <v>7</v>
       </c>
       <c r="BB108">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BC108">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="BD108">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="BE108">
-        <v>7.9</v>
+        <v>8.6</v>
       </c>
       <c r="BF108">
-        <v>2.62</v>
+        <v>2.81</v>
       </c>
       <c r="BG108">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="BH108">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="BI108">
         <v>1.37</v>
       </c>
       <c r="BJ108">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="BK108">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="BL108">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="BM108">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="BN108">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="BO108">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="BP108">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="109" spans="1:68">
@@ -23509,7 +23515,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>7373290</v>
+        <v>7373293</v>
       </c>
       <c r="C110" t="s">
         <v>68</v>
@@ -23524,19 +23530,19 @@
         <v>12</v>
       </c>
       <c r="G110" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H110" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="J110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L110">
         <v>1</v>
@@ -23551,163 +23557,163 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>108</v>
+        <v>210</v>
       </c>
       <c r="Q110">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="R110">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S110">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="T110">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="U110">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="V110">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="W110">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X110">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y110">
         <v>1.06</v>
       </c>
       <c r="Z110">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AA110">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AB110">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AC110">
         <v>1.07</v>
       </c>
       <c r="AD110">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE110">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="AF110">
-        <v>2.85</v>
+        <v>3.1</v>
       </c>
       <c r="AG110">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="AH110">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AI110">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AJ110">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AK110">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="AL110">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AM110">
-        <v>2.1</v>
+        <v>1.72</v>
       </c>
       <c r="AN110">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="AO110">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AP110">
-        <v>1.17</v>
+        <v>0.33</v>
       </c>
       <c r="AQ110">
-        <v>1.17</v>
+        <v>0.2</v>
       </c>
       <c r="AR110">
-        <v>1.71</v>
+        <v>1.39</v>
       </c>
       <c r="AS110">
-        <v>1.24</v>
+        <v>1.08</v>
       </c>
       <c r="AT110">
-        <v>2.95</v>
+        <v>2.47</v>
       </c>
       <c r="AU110">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV110">
         <v>5</v>
       </c>
       <c r="AW110">
+        <v>9</v>
+      </c>
+      <c r="AX110">
+        <v>5</v>
+      </c>
+      <c r="AY110">
+        <v>15</v>
+      </c>
+      <c r="AZ110">
         <v>10</v>
       </c>
-      <c r="AX110">
-        <v>3</v>
-      </c>
-      <c r="AY110">
-        <v>18</v>
-      </c>
-      <c r="AZ110">
+      <c r="BA110">
+        <v>5</v>
+      </c>
+      <c r="BB110">
         <v>8</v>
       </c>
-      <c r="BA110">
+      <c r="BC110">
         <v>13</v>
       </c>
-      <c r="BB110">
-        <v>1</v>
-      </c>
-      <c r="BC110">
-        <v>14</v>
-      </c>
       <c r="BD110">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="BE110">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="BF110">
-        <v>3.2</v>
+        <v>2.91</v>
       </c>
       <c r="BG110">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="BH110">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="BI110">
         <v>1.43</v>
       </c>
       <c r="BJ110">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="BK110">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="BL110">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="BM110">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="BN110">
         <v>1.72</v>
       </c>
       <c r="BO110">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="BP110">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="111" spans="1:68">
@@ -23715,7 +23721,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>7373293</v>
+        <v>7373290</v>
       </c>
       <c r="C111" t="s">
         <v>68</v>
@@ -23730,19 +23736,19 @@
         <v>12</v>
       </c>
       <c r="G111" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H111" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I111">
         <v>0</v>
       </c>
       <c r="J111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L111">
         <v>1</v>
@@ -23757,163 +23763,163 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>209</v>
+        <v>108</v>
       </c>
       <c r="Q111">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="R111">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S111">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="T111">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="U111">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="V111">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="W111">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X111">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y111">
         <v>1.06</v>
       </c>
       <c r="Z111">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA111">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AB111">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AC111">
         <v>1.07</v>
       </c>
       <c r="AD111">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE111">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AF111">
-        <v>3.1</v>
+        <v>2.85</v>
       </c>
       <c r="AG111">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AH111">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AI111">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AJ111">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AK111">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="AL111">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM111">
-        <v>1.72</v>
+        <v>2.1</v>
       </c>
       <c r="AN111">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="AO111">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AP111">
-        <v>0.33</v>
+        <v>1.17</v>
       </c>
       <c r="AQ111">
-        <v>0.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR111">
-        <v>1.39</v>
+        <v>1.71</v>
       </c>
       <c r="AS111">
-        <v>1.08</v>
+        <v>1.24</v>
       </c>
       <c r="AT111">
-        <v>2.47</v>
+        <v>2.95</v>
       </c>
       <c r="AU111">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV111">
         <v>5</v>
       </c>
       <c r="AW111">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX111">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY111">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ111">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA111">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BB111">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BC111">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD111">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="BE111">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="BF111">
-        <v>2.91</v>
+        <v>3.2</v>
       </c>
       <c r="BG111">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="BH111">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="BI111">
         <v>1.43</v>
       </c>
       <c r="BJ111">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="BK111">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="BL111">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="BM111">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="BN111">
         <v>1.72</v>
       </c>
       <c r="BO111">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="BP111">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="112" spans="1:68">
@@ -23921,7 +23927,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>7373285</v>
+        <v>7373292</v>
       </c>
       <c r="C112" t="s">
         <v>68</v>
@@ -23936,190 +23942,190 @@
         <v>12</v>
       </c>
       <c r="G112" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="H112" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112">
         <v>0</v>
       </c>
       <c r="K112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N112">
         <v>3</v>
       </c>
       <c r="O112" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>222</v>
+        <v>95</v>
       </c>
       <c r="Q112">
+        <v>3.75</v>
+      </c>
+      <c r="R112">
+        <v>2.05</v>
+      </c>
+      <c r="S112">
         <v>3.1</v>
       </c>
-      <c r="R112">
-        <v>1.91</v>
-      </c>
-      <c r="S112">
-        <v>4.33</v>
-      </c>
       <c r="T112">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="U112">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="V112">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="W112">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="X112">
+        <v>7.5</v>
+      </c>
+      <c r="Y112">
+        <v>1.07</v>
+      </c>
+      <c r="Z112">
+        <v>3.25</v>
+      </c>
+      <c r="AA112">
+        <v>3.1</v>
+      </c>
+      <c r="AB112">
+        <v>2.38</v>
+      </c>
+      <c r="AC112">
+        <v>1.06</v>
+      </c>
+      <c r="AD112">
         <v>9</v>
       </c>
-      <c r="Y112">
-        <v>1.05</v>
-      </c>
-      <c r="Z112">
-        <v>2.25</v>
-      </c>
-      <c r="AA112">
-        <v>3</v>
-      </c>
-      <c r="AB112">
-        <v>3.6</v>
-      </c>
-      <c r="AC112">
-        <v>1.08</v>
-      </c>
-      <c r="AD112">
-        <v>8.5</v>
-      </c>
       <c r="AE112">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AF112">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="AG112">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="AH112">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AI112">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AJ112">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AK112">
-        <v>1.35</v>
+        <v>1.57</v>
       </c>
       <c r="AL112">
         <v>1.3</v>
       </c>
       <c r="AM112">
-        <v>1.62</v>
+        <v>1.38</v>
       </c>
       <c r="AN112">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AO112">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="AP112">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AQ112">
-        <v>1.83</v>
+        <v>2.17</v>
       </c>
       <c r="AR112">
-        <v>1.55</v>
+        <v>1.34</v>
       </c>
       <c r="AS112">
-        <v>1.44</v>
+        <v>1.63</v>
       </c>
       <c r="AT112">
-        <v>2.99</v>
+        <v>2.97</v>
       </c>
       <c r="AU112">
         <v>7</v>
       </c>
       <c r="AV112">
+        <v>8</v>
+      </c>
+      <c r="AW112">
+        <v>2</v>
+      </c>
+      <c r="AX112">
         <v>6</v>
       </c>
-      <c r="AW112">
-        <v>3</v>
-      </c>
-      <c r="AX112">
-        <v>5</v>
-      </c>
       <c r="AY112">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ112">
+        <v>14</v>
+      </c>
+      <c r="BA112">
+        <v>3</v>
+      </c>
+      <c r="BB112">
+        <v>8</v>
+      </c>
+      <c r="BC112">
         <v>11</v>
       </c>
-      <c r="BA112">
-        <v>5</v>
-      </c>
-      <c r="BB112">
-        <v>9</v>
-      </c>
-      <c r="BC112">
-        <v>14</v>
-      </c>
       <c r="BD112">
-        <v>1.67</v>
+        <v>2.66</v>
       </c>
       <c r="BE112">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="BF112">
-        <v>2.71</v>
+        <v>1.69</v>
       </c>
       <c r="BG112">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="BH112">
-        <v>3.35</v>
+        <v>3.95</v>
       </c>
       <c r="BI112">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="BJ112">
-        <v>2.54</v>
+        <v>3.25</v>
       </c>
       <c r="BK112">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="BL112">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="BM112">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="BN112">
-        <v>1.59</v>
+        <v>1.89</v>
       </c>
       <c r="BO112">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="BP112">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="113" spans="1:68">
@@ -24166,10 +24172,10 @@
         <v>3</v>
       </c>
       <c r="O113" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -24333,7 +24339,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>7373292</v>
+        <v>7373285</v>
       </c>
       <c r="C114" t="s">
         <v>68</v>
@@ -24348,190 +24354,602 @@
         <v>12</v>
       </c>
       <c r="G114" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="H114" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114">
         <v>0</v>
       </c>
       <c r="K114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N114">
         <v>3</v>
       </c>
       <c r="O114" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="P114" t="s">
-        <v>95</v>
+        <v>223</v>
       </c>
       <c r="Q114">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="R114">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="S114">
-        <v>3.1</v>
+        <v>4.33</v>
       </c>
       <c r="T114">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="U114">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="V114">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="W114">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="X114">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="Y114">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="Z114">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="AA114">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AB114">
-        <v>2.38</v>
+        <v>3.6</v>
       </c>
       <c r="AC114">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AD114">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE114">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AF114">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="AG114">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="AH114">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="AI114">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="AJ114">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="AK114">
-        <v>1.57</v>
+        <v>1.35</v>
       </c>
       <c r="AL114">
         <v>1.3</v>
       </c>
       <c r="AM114">
-        <v>1.38</v>
+        <v>1.62</v>
       </c>
       <c r="AN114">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AO114">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="AP114">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ114">
-        <v>2.17</v>
+        <v>1.83</v>
       </c>
       <c r="AR114">
-        <v>1.34</v>
+        <v>1.55</v>
       </c>
       <c r="AS114">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT114">
-        <v>2.97</v>
+        <v>2.99</v>
       </c>
       <c r="AU114">
         <v>7</v>
       </c>
       <c r="AV114">
+        <v>6</v>
+      </c>
+      <c r="AW114">
+        <v>3</v>
+      </c>
+      <c r="AX114">
+        <v>5</v>
+      </c>
+      <c r="AY114">
+        <v>10</v>
+      </c>
+      <c r="AZ114">
+        <v>11</v>
+      </c>
+      <c r="BA114">
+        <v>5</v>
+      </c>
+      <c r="BB114">
+        <v>9</v>
+      </c>
+      <c r="BC114">
+        <v>14</v>
+      </c>
+      <c r="BD114">
+        <v>1.67</v>
+      </c>
+      <c r="BE114">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF114">
+        <v>2.71</v>
+      </c>
+      <c r="BG114">
+        <v>1.27</v>
+      </c>
+      <c r="BH114">
+        <v>3.35</v>
+      </c>
+      <c r="BI114">
+        <v>1.53</v>
+      </c>
+      <c r="BJ114">
+        <v>2.54</v>
+      </c>
+      <c r="BK114">
+        <v>1.85</v>
+      </c>
+      <c r="BL114">
+        <v>1.85</v>
+      </c>
+      <c r="BM114">
+        <v>2.4</v>
+      </c>
+      <c r="BN114">
+        <v>1.59</v>
+      </c>
+      <c r="BO114">
+        <v>3.8</v>
+      </c>
+      <c r="BP114">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7373288</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45470.79166666666</v>
+      </c>
+      <c r="F115">
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>72</v>
+      </c>
+      <c r="H115" t="s">
+        <v>79</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>1</v>
+      </c>
+      <c r="O115" t="s">
+        <v>95</v>
+      </c>
+      <c r="P115" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q115">
+        <v>2.6</v>
+      </c>
+      <c r="R115">
+        <v>2.1</v>
+      </c>
+      <c r="S115">
+        <v>4.75</v>
+      </c>
+      <c r="T115">
+        <v>1.42</v>
+      </c>
+      <c r="U115">
+        <v>2.85</v>
+      </c>
+      <c r="V115">
+        <v>3</v>
+      </c>
+      <c r="W115">
+        <v>1.36</v>
+      </c>
+      <c r="X115">
+        <v>7.5</v>
+      </c>
+      <c r="Y115">
+        <v>1.07</v>
+      </c>
+      <c r="Z115">
+        <v>1.91</v>
+      </c>
+      <c r="AA115">
+        <v>3.4</v>
+      </c>
+      <c r="AB115">
+        <v>4.33</v>
+      </c>
+      <c r="AC115">
+        <v>1.05</v>
+      </c>
+      <c r="AD115">
+        <v>10</v>
+      </c>
+      <c r="AE115">
+        <v>1.33</v>
+      </c>
+      <c r="AF115">
+        <v>3.3</v>
+      </c>
+      <c r="AG115">
+        <v>2.1</v>
+      </c>
+      <c r="AH115">
+        <v>1.7</v>
+      </c>
+      <c r="AI115">
+        <v>1.95</v>
+      </c>
+      <c r="AJ115">
+        <v>1.8</v>
+      </c>
+      <c r="AK115">
+        <v>1.17</v>
+      </c>
+      <c r="AL115">
+        <v>1.22</v>
+      </c>
+      <c r="AM115">
+        <v>2.15</v>
+      </c>
+      <c r="AN115">
+        <v>1</v>
+      </c>
+      <c r="AO115">
+        <v>0.4</v>
+      </c>
+      <c r="AP115">
+        <v>0.86</v>
+      </c>
+      <c r="AQ115">
+        <v>0.83</v>
+      </c>
+      <c r="AR115">
+        <v>1.49</v>
+      </c>
+      <c r="AS115">
+        <v>1.35</v>
+      </c>
+      <c r="AT115">
+        <v>2.84</v>
+      </c>
+      <c r="AU115">
+        <v>6</v>
+      </c>
+      <c r="AV115">
+        <v>7</v>
+      </c>
+      <c r="AW115">
+        <v>4</v>
+      </c>
+      <c r="AX115">
+        <v>1</v>
+      </c>
+      <c r="AY115">
+        <v>10</v>
+      </c>
+      <c r="AZ115">
         <v>8</v>
       </c>
-      <c r="AW114">
-        <v>2</v>
-      </c>
-      <c r="AX114">
+      <c r="BA115">
         <v>6</v>
       </c>
-      <c r="AY114">
+      <c r="BB115">
+        <v>2</v>
+      </c>
+      <c r="BC115">
+        <v>8</v>
+      </c>
+      <c r="BD115">
+        <v>1.57</v>
+      </c>
+      <c r="BE115">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF115">
+        <v>3.07</v>
+      </c>
+      <c r="BG115">
+        <v>1.22</v>
+      </c>
+      <c r="BH115">
+        <v>3.75</v>
+      </c>
+      <c r="BI115">
+        <v>1.45</v>
+      </c>
+      <c r="BJ115">
+        <v>2.76</v>
+      </c>
+      <c r="BK115">
+        <v>2.2</v>
+      </c>
+      <c r="BL115">
+        <v>2</v>
+      </c>
+      <c r="BM115">
+        <v>2.16</v>
+      </c>
+      <c r="BN115">
+        <v>1.71</v>
+      </c>
+      <c r="BO115">
+        <v>2.88</v>
+      </c>
+      <c r="BP115">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7373291</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45470.83333333334</v>
+      </c>
+      <c r="F116">
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>73</v>
+      </c>
+      <c r="H116" t="s">
+        <v>71</v>
+      </c>
+      <c r="I116">
+        <v>2</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>2</v>
+      </c>
+      <c r="L116">
+        <v>2</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>3</v>
+      </c>
+      <c r="O116" t="s">
+        <v>173</v>
+      </c>
+      <c r="P116" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q116">
+        <v>2.1</v>
+      </c>
+      <c r="R116">
+        <v>2.2</v>
+      </c>
+      <c r="S116">
+        <v>6.5</v>
+      </c>
+      <c r="T116">
+        <v>1.4</v>
+      </c>
+      <c r="U116">
+        <v>2.9</v>
+      </c>
+      <c r="V116">
+        <v>2.9</v>
+      </c>
+      <c r="W116">
+        <v>1.38</v>
+      </c>
+      <c r="X116">
+        <v>7</v>
+      </c>
+      <c r="Y116">
+        <v>1.08</v>
+      </c>
+      <c r="Z116">
+        <v>1.55</v>
+      </c>
+      <c r="AA116">
+        <v>4</v>
+      </c>
+      <c r="AB116">
+        <v>6.25</v>
+      </c>
+      <c r="AC116">
+        <v>1.05</v>
+      </c>
+      <c r="AD116">
+        <v>11</v>
+      </c>
+      <c r="AE116">
+        <v>1.3</v>
+      </c>
+      <c r="AF116">
+        <v>3.4</v>
+      </c>
+      <c r="AG116">
+        <v>2.05</v>
+      </c>
+      <c r="AH116">
+        <v>1.75</v>
+      </c>
+      <c r="AI116">
+        <v>2.05</v>
+      </c>
+      <c r="AJ116">
+        <v>1.7</v>
+      </c>
+      <c r="AK116">
+        <v>1.08</v>
+      </c>
+      <c r="AL116">
+        <v>1.17</v>
+      </c>
+      <c r="AM116">
+        <v>2.75</v>
+      </c>
+      <c r="AN116">
+        <v>1.4</v>
+      </c>
+      <c r="AO116">
+        <v>1.75</v>
+      </c>
+      <c r="AP116">
+        <v>1.67</v>
+      </c>
+      <c r="AQ116">
+        <v>1.4</v>
+      </c>
+      <c r="AR116">
+        <v>1.55</v>
+      </c>
+      <c r="AS116">
+        <v>1.38</v>
+      </c>
+      <c r="AT116">
+        <v>2.93</v>
+      </c>
+      <c r="AU116">
+        <v>7</v>
+      </c>
+      <c r="AV116">
+        <v>3</v>
+      </c>
+      <c r="AW116">
+        <v>4</v>
+      </c>
+      <c r="AX116">
+        <v>6</v>
+      </c>
+      <c r="AY116">
+        <v>11</v>
+      </c>
+      <c r="AZ116">
         <v>9</v>
       </c>
-      <c r="AZ114">
-        <v>14</v>
-      </c>
-      <c r="BA114">
-        <v>3</v>
-      </c>
-      <c r="BB114">
-        <v>8</v>
-      </c>
-      <c r="BC114">
-        <v>11</v>
-      </c>
-      <c r="BD114">
-        <v>2.66</v>
-      </c>
-      <c r="BE114">
-        <v>8.1</v>
-      </c>
-      <c r="BF114">
-        <v>1.69</v>
-      </c>
-      <c r="BG114">
+      <c r="BA116">
+        <v>2</v>
+      </c>
+      <c r="BB116">
+        <v>2</v>
+      </c>
+      <c r="BC116">
+        <v>4</v>
+      </c>
+      <c r="BD116">
         <v>1.2</v>
       </c>
-      <c r="BH114">
-        <v>3.95</v>
-      </c>
-      <c r="BI114">
-        <v>1.36</v>
-      </c>
-      <c r="BJ114">
-        <v>3.25</v>
-      </c>
-      <c r="BK114">
-        <v>1.83</v>
-      </c>
-      <c r="BL114">
-        <v>2.05</v>
-      </c>
-      <c r="BM114">
-        <v>1.95</v>
-      </c>
-      <c r="BN114">
-        <v>1.89</v>
-      </c>
-      <c r="BO114">
-        <v>2.75</v>
-      </c>
-      <c r="BP114">
-        <v>1.4</v>
+      <c r="BE116">
+        <v>18</v>
+      </c>
+      <c r="BF116">
+        <v>5.54</v>
+      </c>
+      <c r="BG116">
+        <v>1.16</v>
+      </c>
+      <c r="BH116">
+        <v>4.4</v>
+      </c>
+      <c r="BI116">
+        <v>1.3</v>
+      </c>
+      <c r="BJ116">
+        <v>3.1</v>
+      </c>
+      <c r="BK116">
+        <v>1.91</v>
+      </c>
+      <c r="BL116">
+        <v>2.3</v>
+      </c>
+      <c r="BM116">
+        <v>1.91</v>
+      </c>
+      <c r="BN116">
+        <v>1.8</v>
+      </c>
+      <c r="BO116">
+        <v>2.43</v>
+      </c>
+      <c r="BP116">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="233">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -541,6 +541,21 @@
     <t>['33']</t>
   </si>
   <si>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['61']</t>
+  </si>
+  <si>
+    <t>['30', '32', '65']</t>
+  </si>
+  <si>
+    <t>['21', '45+3']</t>
+  </si>
+  <si>
+    <t>['17', '65']</t>
+  </si>
+  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -692,6 +707,12 @@
   </si>
   <si>
     <t>['90']</t>
+  </si>
+  <si>
+    <t>['75']</t>
+  </si>
+  <si>
+    <t>['80']</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1074,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP118"/>
+  <dimension ref="A1:BP125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1312,7 +1333,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1393,7 +1414,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1518,7 +1539,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1599,7 +1620,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1724,7 +1745,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -1930,7 +1951,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -2008,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -2136,7 +2157,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2754,7 +2775,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2960,7 +2981,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3166,7 +3187,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3244,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
         <v>2.17</v>
@@ -3372,7 +3393,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3656,10 +3677,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3990,7 +4011,7 @@
         <v>102</v>
       </c>
       <c r="P15" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q15">
         <v>2.75</v>
@@ -4068,10 +4089,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ15">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4277,7 +4298,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ16">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4686,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ18">
         <v>1.4</v>
@@ -4892,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ19">
         <v>1.33</v>
@@ -5101,7 +5122,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ20">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5716,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ23">
         <v>1.17</v>
@@ -5922,10 +5943,10 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ24">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR24">
         <v>1.95</v>
@@ -6337,7 +6358,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ26">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR26">
         <v>2.21</v>
@@ -6462,7 +6483,7 @@
         <v>112</v>
       </c>
       <c r="P27" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -6540,10 +6561,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR27">
         <v>1.33</v>
@@ -6668,7 +6689,7 @@
         <v>95</v>
       </c>
       <c r="P28" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6874,7 +6895,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q29">
         <v>2.38</v>
@@ -6955,7 +6976,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ29">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR29">
         <v>1.4</v>
@@ -7080,7 +7101,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7286,7 +7307,7 @@
         <v>95</v>
       </c>
       <c r="P31" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7698,7 +7719,7 @@
         <v>95</v>
       </c>
       <c r="P33" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7776,7 +7797,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ33">
         <v>1.57</v>
@@ -7904,7 +7925,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q34">
         <v>2.25</v>
@@ -8394,7 +8415,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ36">
         <v>0.86</v>
@@ -8522,7 +8543,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8603,7 +8624,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ37">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR37">
         <v>1.65</v>
@@ -8728,7 +8749,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -8809,7 +8830,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ38">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR38">
         <v>2.13</v>
@@ -9012,7 +9033,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ39">
         <v>2.17</v>
@@ -9140,7 +9161,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9758,7 +9779,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -9836,7 +9857,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ43">
         <v>1.33</v>
@@ -10170,7 +10191,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10251,7 +10272,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ45">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR45">
         <v>1.46</v>
@@ -10376,7 +10397,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10660,7 +10681,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ47">
         <v>0.33</v>
@@ -10788,7 +10809,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q48">
         <v>3.6</v>
@@ -10869,7 +10890,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ48">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR48">
         <v>0.99</v>
@@ -11072,7 +11093,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ49">
         <v>1.57</v>
@@ -11200,7 +11221,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q50">
         <v>2.38</v>
@@ -11281,7 +11302,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ50">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR50">
         <v>1.23</v>
@@ -11406,7 +11427,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q51">
         <v>2.38</v>
@@ -11818,7 +11839,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q53">
         <v>2.38</v>
@@ -11896,7 +11917,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ53">
         <v>0</v>
@@ -12024,7 +12045,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -12102,7 +12123,7 @@
         <v>0.67</v>
       </c>
       <c r="AP54">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ54">
         <v>0.86</v>
@@ -12230,7 +12251,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -12308,10 +12329,10 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ55">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR55">
         <v>1.23</v>
@@ -12517,7 +12538,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ56">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR56">
         <v>0.68</v>
@@ -12723,7 +12744,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ57">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR57">
         <v>1.86</v>
@@ -12848,7 +12869,7 @@
         <v>95</v>
       </c>
       <c r="P58" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -13054,7 +13075,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q59">
         <v>4.75</v>
@@ -13260,7 +13281,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13338,10 +13359,10 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR60">
         <v>1.55</v>
@@ -13466,7 +13487,7 @@
         <v>117</v>
       </c>
       <c r="P61" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q61">
         <v>5.5</v>
@@ -13750,10 +13771,10 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ62">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR62">
         <v>1.4</v>
@@ -13956,10 +13977,10 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ63">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR63">
         <v>1.52</v>
@@ -14165,7 +14186,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ64">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR64">
         <v>1.58</v>
@@ -14496,7 +14517,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14908,7 +14929,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15320,7 +15341,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15526,7 +15547,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16144,7 +16165,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16222,7 +16243,7 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ74">
         <v>0.2</v>
@@ -16843,7 +16864,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ77">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR77">
         <v>1.45</v>
@@ -16968,7 +16989,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q78">
         <v>2.63</v>
@@ -17049,7 +17070,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ78">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR78">
         <v>1.81</v>
@@ -17174,7 +17195,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -17252,10 +17273,10 @@
         <v>2</v>
       </c>
       <c r="AP79">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ79">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR79">
         <v>1.16</v>
@@ -17380,7 +17401,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17586,7 +17607,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17998,7 +18019,7 @@
         <v>151</v>
       </c>
       <c r="P83" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -18076,7 +18097,7 @@
         <v>1.75</v>
       </c>
       <c r="AP83">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ83">
         <v>1.57</v>
@@ -18285,7 +18306,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ84">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR84">
         <v>1.32</v>
@@ -18410,7 +18431,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -18491,7 +18512,7 @@
         <v>1</v>
       </c>
       <c r="AQ85">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR85">
         <v>1.49</v>
@@ -18616,7 +18637,7 @@
         <v>95</v>
       </c>
       <c r="P86" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -18694,7 +18715,7 @@
         <v>2.5</v>
       </c>
       <c r="AP86">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ86">
         <v>2.17</v>
@@ -18822,7 +18843,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q87">
         <v>2.38</v>
@@ -19028,7 +19049,7 @@
         <v>154</v>
       </c>
       <c r="P88" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19109,7 +19130,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ88">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR88">
         <v>1.66</v>
@@ -19312,7 +19333,7 @@
         <v>0</v>
       </c>
       <c r="AP89">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ89">
         <v>0.2</v>
@@ -19440,7 +19461,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -19518,7 +19539,7 @@
         <v>0.75</v>
       </c>
       <c r="AP90">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ90">
         <v>1.17</v>
@@ -20264,7 +20285,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20342,7 +20363,7 @@
         <v>2</v>
       </c>
       <c r="AP94">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ94">
         <v>1.83</v>
@@ -20470,7 +20491,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -20548,10 +20569,10 @@
         <v>1.2</v>
       </c>
       <c r="AP95">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ95">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR95">
         <v>1.65</v>
@@ -21088,7 +21109,7 @@
         <v>95</v>
       </c>
       <c r="P98" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q98">
         <v>3.5</v>
@@ -21166,10 +21187,10 @@
         <v>1.5</v>
       </c>
       <c r="AP98">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ98">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR98">
         <v>1.35</v>
@@ -21375,7 +21396,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ99">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR99">
         <v>1.16</v>
@@ -21706,7 +21727,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q101">
         <v>2.63</v>
@@ -21787,7 +21808,7 @@
         <v>3</v>
       </c>
       <c r="AQ101">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR101">
         <v>1.35</v>
@@ -21912,7 +21933,7 @@
         <v>95</v>
       </c>
       <c r="P102" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22324,7 +22345,7 @@
         <v>163</v>
       </c>
       <c r="P104" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q104">
         <v>1.83</v>
@@ -22405,7 +22426,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ104">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR104">
         <v>1.72</v>
@@ -22608,7 +22629,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ105">
         <v>1</v>
@@ -23023,7 +23044,7 @@
         <v>3</v>
       </c>
       <c r="AQ107">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR107">
         <v>1.59</v>
@@ -23148,7 +23169,7 @@
         <v>167</v>
       </c>
       <c r="P108" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23766,7 +23787,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -23972,7 +23993,7 @@
         <v>138</v>
       </c>
       <c r="P112" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24178,7 +24199,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -24462,7 +24483,7 @@
         <v>2.6</v>
       </c>
       <c r="AP114">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ114">
         <v>2.17</v>
@@ -24590,7 +24611,7 @@
         <v>95</v>
       </c>
       <c r="P115" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -24874,7 +24895,7 @@
         <v>1.75</v>
       </c>
       <c r="AP116">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ116">
         <v>1.4</v>
@@ -25002,7 +25023,7 @@
         <v>93</v>
       </c>
       <c r="P117" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25365,6 +25386,1448 @@
       </c>
       <c r="BP118">
         <v>1.55</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7373296</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45473.45833333334</v>
+      </c>
+      <c r="F119">
+        <v>13</v>
+      </c>
+      <c r="G119" t="s">
+        <v>86</v>
+      </c>
+      <c r="H119" t="s">
+        <v>77</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>2</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>2</v>
+      </c>
+      <c r="O119" t="s">
+        <v>175</v>
+      </c>
+      <c r="P119" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q119">
+        <v>2.3</v>
+      </c>
+      <c r="R119">
+        <v>2.1</v>
+      </c>
+      <c r="S119">
+        <v>6</v>
+      </c>
+      <c r="T119">
+        <v>1.45</v>
+      </c>
+      <c r="U119">
+        <v>2.64</v>
+      </c>
+      <c r="V119">
+        <v>3.14</v>
+      </c>
+      <c r="W119">
+        <v>1.33</v>
+      </c>
+      <c r="X119">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y119">
+        <v>1.06</v>
+      </c>
+      <c r="Z119">
+        <v>1.38</v>
+      </c>
+      <c r="AA119">
+        <v>4.7</v>
+      </c>
+      <c r="AB119">
+        <v>9</v>
+      </c>
+      <c r="AC119">
+        <v>1.03</v>
+      </c>
+      <c r="AD119">
+        <v>7.9</v>
+      </c>
+      <c r="AE119">
+        <v>1.35</v>
+      </c>
+      <c r="AF119">
+        <v>2.84</v>
+      </c>
+      <c r="AG119">
+        <v>2.1</v>
+      </c>
+      <c r="AH119">
+        <v>1.65</v>
+      </c>
+      <c r="AI119">
+        <v>2.1</v>
+      </c>
+      <c r="AJ119">
+        <v>1.67</v>
+      </c>
+      <c r="AK119">
+        <v>1.05</v>
+      </c>
+      <c r="AL119">
+        <v>1.17</v>
+      </c>
+      <c r="AM119">
+        <v>3.2</v>
+      </c>
+      <c r="AN119">
+        <v>1.2</v>
+      </c>
+      <c r="AO119">
+        <v>1.33</v>
+      </c>
+      <c r="AP119">
+        <v>1.17</v>
+      </c>
+      <c r="AQ119">
+        <v>1.29</v>
+      </c>
+      <c r="AR119">
+        <v>1.55</v>
+      </c>
+      <c r="AS119">
+        <v>1.43</v>
+      </c>
+      <c r="AT119">
+        <v>2.98</v>
+      </c>
+      <c r="AU119">
+        <v>7</v>
+      </c>
+      <c r="AV119">
+        <v>7</v>
+      </c>
+      <c r="AW119">
+        <v>4</v>
+      </c>
+      <c r="AX119">
+        <v>4</v>
+      </c>
+      <c r="AY119">
+        <v>11</v>
+      </c>
+      <c r="AZ119">
+        <v>11</v>
+      </c>
+      <c r="BA119">
+        <v>5</v>
+      </c>
+      <c r="BB119">
+        <v>8</v>
+      </c>
+      <c r="BC119">
+        <v>13</v>
+      </c>
+      <c r="BD119">
+        <v>1.43</v>
+      </c>
+      <c r="BE119">
+        <v>7.5</v>
+      </c>
+      <c r="BF119">
+        <v>3.84</v>
+      </c>
+      <c r="BG119">
+        <v>1.18</v>
+      </c>
+      <c r="BH119">
+        <v>4.1</v>
+      </c>
+      <c r="BI119">
+        <v>1.36</v>
+      </c>
+      <c r="BJ119">
+        <v>2.79</v>
+      </c>
+      <c r="BK119">
+        <v>2.2</v>
+      </c>
+      <c r="BL119">
+        <v>2.09</v>
+      </c>
+      <c r="BM119">
+        <v>2.11</v>
+      </c>
+      <c r="BN119">
+        <v>1.68</v>
+      </c>
+      <c r="BO119">
+        <v>2.76</v>
+      </c>
+      <c r="BP119">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7373295</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45473.66666666666</v>
+      </c>
+      <c r="F120">
+        <v>13</v>
+      </c>
+      <c r="G120" t="s">
+        <v>81</v>
+      </c>
+      <c r="H120" t="s">
+        <v>72</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>1</v>
+      </c>
+      <c r="O120" t="s">
+        <v>176</v>
+      </c>
+      <c r="P120" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q120">
+        <v>2.75</v>
+      </c>
+      <c r="R120">
+        <v>2.05</v>
+      </c>
+      <c r="S120">
+        <v>4.33</v>
+      </c>
+      <c r="T120">
+        <v>1.45</v>
+      </c>
+      <c r="U120">
+        <v>2.75</v>
+      </c>
+      <c r="V120">
+        <v>3.1</v>
+      </c>
+      <c r="W120">
+        <v>1.35</v>
+      </c>
+      <c r="X120">
+        <v>8</v>
+      </c>
+      <c r="Y120">
+        <v>1.06</v>
+      </c>
+      <c r="Z120">
+        <v>2.39</v>
+      </c>
+      <c r="AA120">
+        <v>3.32</v>
+      </c>
+      <c r="AB120">
+        <v>2.99</v>
+      </c>
+      <c r="AC120">
+        <v>1.06</v>
+      </c>
+      <c r="AD120">
+        <v>9.5</v>
+      </c>
+      <c r="AE120">
+        <v>1.36</v>
+      </c>
+      <c r="AF120">
+        <v>3.1</v>
+      </c>
+      <c r="AG120">
+        <v>2.12</v>
+      </c>
+      <c r="AH120">
+        <v>1.73</v>
+      </c>
+      <c r="AI120">
+        <v>1.91</v>
+      </c>
+      <c r="AJ120">
+        <v>1.91</v>
+      </c>
+      <c r="AK120">
+        <v>1.4</v>
+      </c>
+      <c r="AL120">
+        <v>1.28</v>
+      </c>
+      <c r="AM120">
+        <v>1.57</v>
+      </c>
+      <c r="AN120">
+        <v>1.2</v>
+      </c>
+      <c r="AO120">
+        <v>0</v>
+      </c>
+      <c r="AP120">
+        <v>1.5</v>
+      </c>
+      <c r="AQ120">
+        <v>0</v>
+      </c>
+      <c r="AR120">
+        <v>1.32</v>
+      </c>
+      <c r="AS120">
+        <v>0.99</v>
+      </c>
+      <c r="AT120">
+        <v>2.31</v>
+      </c>
+      <c r="AU120">
+        <v>10</v>
+      </c>
+      <c r="AV120">
+        <v>4</v>
+      </c>
+      <c r="AW120">
+        <v>4</v>
+      </c>
+      <c r="AX120">
+        <v>3</v>
+      </c>
+      <c r="AY120">
+        <v>14</v>
+      </c>
+      <c r="AZ120">
+        <v>7</v>
+      </c>
+      <c r="BA120">
+        <v>6</v>
+      </c>
+      <c r="BB120">
+        <v>1</v>
+      </c>
+      <c r="BC120">
+        <v>7</v>
+      </c>
+      <c r="BD120">
+        <v>1.62</v>
+      </c>
+      <c r="BE120">
+        <v>9.5</v>
+      </c>
+      <c r="BF120">
+        <v>2.88</v>
+      </c>
+      <c r="BG120">
+        <v>1.14</v>
+      </c>
+      <c r="BH120">
+        <v>4.6</v>
+      </c>
+      <c r="BI120">
+        <v>1.3</v>
+      </c>
+      <c r="BJ120">
+        <v>3.08</v>
+      </c>
+      <c r="BK120">
+        <v>2</v>
+      </c>
+      <c r="BL120">
+        <v>2.05</v>
+      </c>
+      <c r="BM120">
+        <v>1.93</v>
+      </c>
+      <c r="BN120">
+        <v>1.81</v>
+      </c>
+      <c r="BO120">
+        <v>2.46</v>
+      </c>
+      <c r="BP120">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7373301</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45473.66666666666</v>
+      </c>
+      <c r="F121">
+        <v>13</v>
+      </c>
+      <c r="G121" t="s">
+        <v>73</v>
+      </c>
+      <c r="H121" t="s">
+        <v>80</v>
+      </c>
+      <c r="I121">
+        <v>2</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>2</v>
+      </c>
+      <c r="L121">
+        <v>3</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+      <c r="N121">
+        <v>4</v>
+      </c>
+      <c r="O121" t="s">
+        <v>177</v>
+      </c>
+      <c r="P121" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q121">
+        <v>2.75</v>
+      </c>
+      <c r="R121">
+        <v>2.05</v>
+      </c>
+      <c r="S121">
+        <v>4.5</v>
+      </c>
+      <c r="T121">
+        <v>1.45</v>
+      </c>
+      <c r="U121">
+        <v>2.75</v>
+      </c>
+      <c r="V121">
+        <v>3.1</v>
+      </c>
+      <c r="W121">
+        <v>1.33</v>
+      </c>
+      <c r="X121">
+        <v>8</v>
+      </c>
+      <c r="Y121">
+        <v>1.06</v>
+      </c>
+      <c r="Z121">
+        <v>2.06</v>
+      </c>
+      <c r="AA121">
+        <v>3.4</v>
+      </c>
+      <c r="AB121">
+        <v>3.62</v>
+      </c>
+      <c r="AC121">
+        <v>1.06</v>
+      </c>
+      <c r="AD121">
+        <v>10</v>
+      </c>
+      <c r="AE121">
+        <v>1.38</v>
+      </c>
+      <c r="AF121">
+        <v>3</v>
+      </c>
+      <c r="AG121">
+        <v>2.16</v>
+      </c>
+      <c r="AH121">
+        <v>1.7</v>
+      </c>
+      <c r="AI121">
+        <v>2</v>
+      </c>
+      <c r="AJ121">
+        <v>1.75</v>
+      </c>
+      <c r="AK121">
+        <v>1.28</v>
+      </c>
+      <c r="AL121">
+        <v>1.25</v>
+      </c>
+      <c r="AM121">
+        <v>1.83</v>
+      </c>
+      <c r="AN121">
+        <v>1.67</v>
+      </c>
+      <c r="AO121">
+        <v>1</v>
+      </c>
+      <c r="AP121">
+        <v>1.86</v>
+      </c>
+      <c r="AQ121">
+        <v>0.86</v>
+      </c>
+      <c r="AR121">
+        <v>1.52</v>
+      </c>
+      <c r="AS121">
+        <v>1.35</v>
+      </c>
+      <c r="AT121">
+        <v>2.87</v>
+      </c>
+      <c r="AU121">
+        <v>6</v>
+      </c>
+      <c r="AV121">
+        <v>7</v>
+      </c>
+      <c r="AW121">
+        <v>6</v>
+      </c>
+      <c r="AX121">
+        <v>7</v>
+      </c>
+      <c r="AY121">
+        <v>12</v>
+      </c>
+      <c r="AZ121">
+        <v>14</v>
+      </c>
+      <c r="BA121">
+        <v>4</v>
+      </c>
+      <c r="BB121">
+        <v>4</v>
+      </c>
+      <c r="BC121">
+        <v>8</v>
+      </c>
+      <c r="BD121">
+        <v>1.59</v>
+      </c>
+      <c r="BE121">
+        <v>9.5</v>
+      </c>
+      <c r="BF121">
+        <v>2.98</v>
+      </c>
+      <c r="BG121">
+        <v>1.19</v>
+      </c>
+      <c r="BH121">
+        <v>3.98</v>
+      </c>
+      <c r="BI121">
+        <v>1.39</v>
+      </c>
+      <c r="BJ121">
+        <v>2.76</v>
+      </c>
+      <c r="BK121">
+        <v>2.1</v>
+      </c>
+      <c r="BL121">
+        <v>2.05</v>
+      </c>
+      <c r="BM121">
+        <v>2.05</v>
+      </c>
+      <c r="BN121">
+        <v>1.7</v>
+      </c>
+      <c r="BO121">
+        <v>2.75</v>
+      </c>
+      <c r="BP121">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7373302</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45473.66666666666</v>
+      </c>
+      <c r="F122">
+        <v>13</v>
+      </c>
+      <c r="G122" t="s">
+        <v>83</v>
+      </c>
+      <c r="H122" t="s">
+        <v>85</v>
+      </c>
+      <c r="I122">
+        <v>2</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>2</v>
+      </c>
+      <c r="L122">
+        <v>2</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>3</v>
+      </c>
+      <c r="O122" t="s">
+        <v>178</v>
+      </c>
+      <c r="P122" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q122">
+        <v>2.3</v>
+      </c>
+      <c r="R122">
+        <v>2.1</v>
+      </c>
+      <c r="S122">
+        <v>5.5</v>
+      </c>
+      <c r="T122">
+        <v>1.45</v>
+      </c>
+      <c r="U122">
+        <v>2.75</v>
+      </c>
+      <c r="V122">
+        <v>3.1</v>
+      </c>
+      <c r="W122">
+        <v>1.33</v>
+      </c>
+      <c r="X122">
+        <v>8</v>
+      </c>
+      <c r="Y122">
+        <v>1.06</v>
+      </c>
+      <c r="Z122">
+        <v>1.56</v>
+      </c>
+      <c r="AA122">
+        <v>3.94</v>
+      </c>
+      <c r="AB122">
+        <v>6.3</v>
+      </c>
+      <c r="AC122">
+        <v>1.06</v>
+      </c>
+      <c r="AD122">
+        <v>9.5</v>
+      </c>
+      <c r="AE122">
+        <v>1.36</v>
+      </c>
+      <c r="AF122">
+        <v>3.1</v>
+      </c>
+      <c r="AG122">
+        <v>2.18</v>
+      </c>
+      <c r="AH122">
+        <v>1.69</v>
+      </c>
+      <c r="AI122">
+        <v>2.05</v>
+      </c>
+      <c r="AJ122">
+        <v>1.7</v>
+      </c>
+      <c r="AK122">
+        <v>1.15</v>
+      </c>
+      <c r="AL122">
+        <v>1.22</v>
+      </c>
+      <c r="AM122">
+        <v>2.25</v>
+      </c>
+      <c r="AN122">
+        <v>2</v>
+      </c>
+      <c r="AO122">
+        <v>0.4</v>
+      </c>
+      <c r="AP122">
+        <v>2.14</v>
+      </c>
+      <c r="AQ122">
+        <v>0.33</v>
+      </c>
+      <c r="AR122">
+        <v>1.32</v>
+      </c>
+      <c r="AS122">
+        <v>1.39</v>
+      </c>
+      <c r="AT122">
+        <v>2.71</v>
+      </c>
+      <c r="AU122">
+        <v>8</v>
+      </c>
+      <c r="AV122">
+        <v>4</v>
+      </c>
+      <c r="AW122">
+        <v>7</v>
+      </c>
+      <c r="AX122">
+        <v>7</v>
+      </c>
+      <c r="AY122">
+        <v>15</v>
+      </c>
+      <c r="AZ122">
+        <v>11</v>
+      </c>
+      <c r="BA122">
+        <v>7</v>
+      </c>
+      <c r="BB122">
+        <v>5</v>
+      </c>
+      <c r="BC122">
+        <v>12</v>
+      </c>
+      <c r="BD122">
+        <v>1.46</v>
+      </c>
+      <c r="BE122">
+        <v>7.3</v>
+      </c>
+      <c r="BF122">
+        <v>3.68</v>
+      </c>
+      <c r="BG122">
+        <v>1.2</v>
+      </c>
+      <c r="BH122">
+        <v>3.84</v>
+      </c>
+      <c r="BI122">
+        <v>1.41</v>
+      </c>
+      <c r="BJ122">
+        <v>2.69</v>
+      </c>
+      <c r="BK122">
+        <v>2.38</v>
+      </c>
+      <c r="BL122">
+        <v>1.95</v>
+      </c>
+      <c r="BM122">
+        <v>2.17</v>
+      </c>
+      <c r="BN122">
+        <v>1.61</v>
+      </c>
+      <c r="BO122">
+        <v>2.84</v>
+      </c>
+      <c r="BP122">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7373297</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45473.77083333334</v>
+      </c>
+      <c r="F123">
+        <v>13</v>
+      </c>
+      <c r="G123" t="s">
+        <v>79</v>
+      </c>
+      <c r="H123" t="s">
+        <v>76</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>1</v>
+      </c>
+      <c r="O123" t="s">
+        <v>95</v>
+      </c>
+      <c r="P123" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q123">
+        <v>3.1</v>
+      </c>
+      <c r="R123">
+        <v>2</v>
+      </c>
+      <c r="S123">
+        <v>4</v>
+      </c>
+      <c r="T123">
+        <v>1.52</v>
+      </c>
+      <c r="U123">
+        <v>2.55</v>
+      </c>
+      <c r="V123">
+        <v>3.3</v>
+      </c>
+      <c r="W123">
+        <v>1.3</v>
+      </c>
+      <c r="X123">
+        <v>9</v>
+      </c>
+      <c r="Y123">
+        <v>1.05</v>
+      </c>
+      <c r="Z123">
+        <v>2.38</v>
+      </c>
+      <c r="AA123">
+        <v>3</v>
+      </c>
+      <c r="AB123">
+        <v>3.4</v>
+      </c>
+      <c r="AC123">
+        <v>1.08</v>
+      </c>
+      <c r="AD123">
+        <v>8</v>
+      </c>
+      <c r="AE123">
+        <v>1.42</v>
+      </c>
+      <c r="AF123">
+        <v>2.9</v>
+      </c>
+      <c r="AG123">
+        <v>2.35</v>
+      </c>
+      <c r="AH123">
+        <v>1.57</v>
+      </c>
+      <c r="AI123">
+        <v>1.95</v>
+      </c>
+      <c r="AJ123">
+        <v>1.8</v>
+      </c>
+      <c r="AK123">
+        <v>1.55</v>
+      </c>
+      <c r="AL123">
+        <v>1.3</v>
+      </c>
+      <c r="AM123">
+        <v>1.4</v>
+      </c>
+      <c r="AN123">
+        <v>1.17</v>
+      </c>
+      <c r="AO123">
+        <v>0.83</v>
+      </c>
+      <c r="AP123">
+        <v>1</v>
+      </c>
+      <c r="AQ123">
+        <v>1.14</v>
+      </c>
+      <c r="AR123">
+        <v>1.22</v>
+      </c>
+      <c r="AS123">
+        <v>1.27</v>
+      </c>
+      <c r="AT123">
+        <v>2.49</v>
+      </c>
+      <c r="AU123">
+        <v>4</v>
+      </c>
+      <c r="AV123">
+        <v>3</v>
+      </c>
+      <c r="AW123">
+        <v>6</v>
+      </c>
+      <c r="AX123">
+        <v>2</v>
+      </c>
+      <c r="AY123">
+        <v>10</v>
+      </c>
+      <c r="AZ123">
+        <v>5</v>
+      </c>
+      <c r="BA123">
+        <v>7</v>
+      </c>
+      <c r="BB123">
+        <v>6</v>
+      </c>
+      <c r="BC123">
+        <v>13</v>
+      </c>
+      <c r="BD123">
+        <v>2.08</v>
+      </c>
+      <c r="BE123">
+        <v>8.5</v>
+      </c>
+      <c r="BF123">
+        <v>2.1</v>
+      </c>
+      <c r="BG123">
+        <v>1.18</v>
+      </c>
+      <c r="BH123">
+        <v>4.15</v>
+      </c>
+      <c r="BI123">
+        <v>1.35</v>
+      </c>
+      <c r="BJ123">
+        <v>2.84</v>
+      </c>
+      <c r="BK123">
+        <v>2.2</v>
+      </c>
+      <c r="BL123">
+        <v>1.95</v>
+      </c>
+      <c r="BM123">
+        <v>2.08</v>
+      </c>
+      <c r="BN123">
+        <v>1.7</v>
+      </c>
+      <c r="BO123">
+        <v>2.72</v>
+      </c>
+      <c r="BP123">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7373298</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45473.77083333334</v>
+      </c>
+      <c r="F124">
+        <v>13</v>
+      </c>
+      <c r="G124" t="s">
+        <v>87</v>
+      </c>
+      <c r="H124" t="s">
+        <v>78</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>2</v>
+      </c>
+      <c r="L124">
+        <v>2</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>3</v>
+      </c>
+      <c r="O124" t="s">
+        <v>179</v>
+      </c>
+      <c r="P124" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q124">
+        <v>2.3</v>
+      </c>
+      <c r="R124">
+        <v>2.2</v>
+      </c>
+      <c r="S124">
+        <v>5.5</v>
+      </c>
+      <c r="T124">
+        <v>1.44</v>
+      </c>
+      <c r="U124">
+        <v>2.8</v>
+      </c>
+      <c r="V124">
+        <v>3.1</v>
+      </c>
+      <c r="W124">
+        <v>1.33</v>
+      </c>
+      <c r="X124">
+        <v>8.5</v>
+      </c>
+      <c r="Y124">
+        <v>1.06</v>
+      </c>
+      <c r="Z124">
+        <v>1.67</v>
+      </c>
+      <c r="AA124">
+        <v>4</v>
+      </c>
+      <c r="AB124">
+        <v>5</v>
+      </c>
+      <c r="AC124">
+        <v>1.05</v>
+      </c>
+      <c r="AD124">
+        <v>10</v>
+      </c>
+      <c r="AE124">
+        <v>1.38</v>
+      </c>
+      <c r="AF124">
+        <v>3</v>
+      </c>
+      <c r="AG124">
+        <v>2.05</v>
+      </c>
+      <c r="AH124">
+        <v>1.75</v>
+      </c>
+      <c r="AI124">
+        <v>2</v>
+      </c>
+      <c r="AJ124">
+        <v>1.75</v>
+      </c>
+      <c r="AK124">
+        <v>1.14</v>
+      </c>
+      <c r="AL124">
+        <v>1.2</v>
+      </c>
+      <c r="AM124">
+        <v>2.35</v>
+      </c>
+      <c r="AN124">
+        <v>2.4</v>
+      </c>
+      <c r="AO124">
+        <v>0.83</v>
+      </c>
+      <c r="AP124">
+        <v>2.5</v>
+      </c>
+      <c r="AQ124">
+        <v>0.71</v>
+      </c>
+      <c r="AR124">
+        <v>1.59</v>
+      </c>
+      <c r="AS124">
+        <v>1.06</v>
+      </c>
+      <c r="AT124">
+        <v>2.65</v>
+      </c>
+      <c r="AU124">
+        <v>4</v>
+      </c>
+      <c r="AV124">
+        <v>6</v>
+      </c>
+      <c r="AW124">
+        <v>3</v>
+      </c>
+      <c r="AX124">
+        <v>6</v>
+      </c>
+      <c r="AY124">
+        <v>7</v>
+      </c>
+      <c r="AZ124">
+        <v>12</v>
+      </c>
+      <c r="BA124">
+        <v>2</v>
+      </c>
+      <c r="BB124">
+        <v>5</v>
+      </c>
+      <c r="BC124">
+        <v>7</v>
+      </c>
+      <c r="BD124">
+        <v>1.48</v>
+      </c>
+      <c r="BE124">
+        <v>7.4</v>
+      </c>
+      <c r="BF124">
+        <v>3.54</v>
+      </c>
+      <c r="BG124">
+        <v>1.14</v>
+      </c>
+      <c r="BH124">
+        <v>4.7</v>
+      </c>
+      <c r="BI124">
+        <v>1.28</v>
+      </c>
+      <c r="BJ124">
+        <v>3.18</v>
+      </c>
+      <c r="BK124">
+        <v>2</v>
+      </c>
+      <c r="BL124">
+        <v>2.34</v>
+      </c>
+      <c r="BM124">
+        <v>1.9</v>
+      </c>
+      <c r="BN124">
+        <v>1.84</v>
+      </c>
+      <c r="BO124">
+        <v>2.41</v>
+      </c>
+      <c r="BP124">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7373304</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45473.77083333334</v>
+      </c>
+      <c r="F125">
+        <v>13</v>
+      </c>
+      <c r="G125" t="s">
+        <v>71</v>
+      </c>
+      <c r="H125" t="s">
+        <v>70</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+      <c r="N125">
+        <v>2</v>
+      </c>
+      <c r="O125" t="s">
+        <v>144</v>
+      </c>
+      <c r="P125" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q125">
+        <v>3.6</v>
+      </c>
+      <c r="R125">
+        <v>1.91</v>
+      </c>
+      <c r="S125">
+        <v>3.6</v>
+      </c>
+      <c r="T125">
+        <v>1.53</v>
+      </c>
+      <c r="U125">
+        <v>2.5</v>
+      </c>
+      <c r="V125">
+        <v>3.4</v>
+      </c>
+      <c r="W125">
+        <v>1.28</v>
+      </c>
+      <c r="X125">
+        <v>9.5</v>
+      </c>
+      <c r="Y125">
+        <v>1.04</v>
+      </c>
+      <c r="Z125">
+        <v>2.75</v>
+      </c>
+      <c r="AA125">
+        <v>3</v>
+      </c>
+      <c r="AB125">
+        <v>2.7</v>
+      </c>
+      <c r="AC125">
+        <v>1.09</v>
+      </c>
+      <c r="AD125">
+        <v>8</v>
+      </c>
+      <c r="AE125">
+        <v>1.45</v>
+      </c>
+      <c r="AF125">
+        <v>2.8</v>
+      </c>
+      <c r="AG125">
+        <v>2.6</v>
+      </c>
+      <c r="AH125">
+        <v>1.48</v>
+      </c>
+      <c r="AI125">
+        <v>2.05</v>
+      </c>
+      <c r="AJ125">
+        <v>1.7</v>
+      </c>
+      <c r="AK125">
+        <v>1.6</v>
+      </c>
+      <c r="AL125">
+        <v>1.3</v>
+      </c>
+      <c r="AM125">
+        <v>1.36</v>
+      </c>
+      <c r="AN125">
+        <v>1</v>
+      </c>
+      <c r="AO125">
+        <v>1.8</v>
+      </c>
+      <c r="AP125">
+        <v>1</v>
+      </c>
+      <c r="AQ125">
+        <v>1.67</v>
+      </c>
+      <c r="AR125">
+        <v>1.49</v>
+      </c>
+      <c r="AS125">
+        <v>1.08</v>
+      </c>
+      <c r="AT125">
+        <v>2.57</v>
+      </c>
+      <c r="AU125">
+        <v>8</v>
+      </c>
+      <c r="AV125">
+        <v>5</v>
+      </c>
+      <c r="AW125">
+        <v>5</v>
+      </c>
+      <c r="AX125">
+        <v>6</v>
+      </c>
+      <c r="AY125">
+        <v>13</v>
+      </c>
+      <c r="AZ125">
+        <v>11</v>
+      </c>
+      <c r="BA125">
+        <v>5</v>
+      </c>
+      <c r="BB125">
+        <v>5</v>
+      </c>
+      <c r="BC125">
+        <v>10</v>
+      </c>
+      <c r="BD125">
+        <v>2.33</v>
+      </c>
+      <c r="BE125">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF125">
+        <v>1.9</v>
+      </c>
+      <c r="BG125">
+        <v>1.24</v>
+      </c>
+      <c r="BH125">
+        <v>3.48</v>
+      </c>
+      <c r="BI125">
+        <v>1.47</v>
+      </c>
+      <c r="BJ125">
+        <v>2.55</v>
+      </c>
+      <c r="BK125">
+        <v>2.38</v>
+      </c>
+      <c r="BL125">
+        <v>1.95</v>
+      </c>
+      <c r="BM125">
+        <v>2.25</v>
+      </c>
+      <c r="BN125">
+        <v>1.6</v>
+      </c>
+      <c r="BO125">
+        <v>3.08</v>
+      </c>
+      <c r="BP125">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="234">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -556,6 +556,9 @@
     <t>['17', '65']</t>
   </si>
   <si>
+    <t>['53', '57']</t>
+  </si>
+  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -1074,7 +1077,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP125"/>
+  <dimension ref="A1:BP126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1333,7 +1336,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1539,7 +1542,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1745,7 +1748,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -1951,7 +1954,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -2157,7 +2160,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2775,7 +2778,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2981,7 +2984,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3187,7 +3190,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3393,7 +3396,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -4011,7 +4014,7 @@
         <v>102</v>
       </c>
       <c r="P15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q15">
         <v>2.75</v>
@@ -4295,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ16">
         <v>1.67</v>
@@ -4504,7 +4507,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ17">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5534,7 +5537,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ22">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR22">
         <v>1.76</v>
@@ -6149,7 +6152,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ25">
         <v>1.71</v>
@@ -6483,7 +6486,7 @@
         <v>112</v>
       </c>
       <c r="P27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -6689,7 +6692,7 @@
         <v>95</v>
       </c>
       <c r="P28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6895,7 +6898,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q29">
         <v>2.38</v>
@@ -7101,7 +7104,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7307,7 +7310,7 @@
         <v>95</v>
       </c>
       <c r="P31" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7719,7 +7722,7 @@
         <v>95</v>
       </c>
       <c r="P33" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7925,7 +7928,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q34">
         <v>2.25</v>
@@ -8543,7 +8546,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8749,7 +8752,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -9161,7 +9164,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9779,7 +9782,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -10191,7 +10194,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10397,7 +10400,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10684,7 +10687,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ47">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR47">
         <v>1.36</v>
@@ -10809,7 +10812,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q48">
         <v>3.6</v>
@@ -11221,7 +11224,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q50">
         <v>2.38</v>
@@ -11299,7 +11302,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ50">
         <v>1.14</v>
@@ -11427,7 +11430,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q51">
         <v>2.38</v>
@@ -11839,7 +11842,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q53">
         <v>2.38</v>
@@ -12045,7 +12048,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -12251,7 +12254,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -12869,7 +12872,7 @@
         <v>95</v>
       </c>
       <c r="P58" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -13075,7 +13078,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q59">
         <v>4.75</v>
@@ -13281,7 +13284,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13487,7 +13490,7 @@
         <v>117</v>
       </c>
       <c r="P61" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q61">
         <v>5.5</v>
@@ -14517,7 +14520,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14929,7 +14932,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15010,7 +15013,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ68">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR68">
         <v>1.17</v>
@@ -15341,7 +15344,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15547,7 +15550,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16165,7 +16168,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16449,7 +16452,7 @@
         <v>0</v>
       </c>
       <c r="AP75">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ75">
         <v>0</v>
@@ -16989,7 +16992,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q78">
         <v>2.63</v>
@@ -17195,7 +17198,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -17401,7 +17404,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17607,7 +17610,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -18019,7 +18022,7 @@
         <v>151</v>
       </c>
       <c r="P83" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -18431,7 +18434,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -18637,7 +18640,7 @@
         <v>95</v>
       </c>
       <c r="P86" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -18843,7 +18846,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q87">
         <v>2.38</v>
@@ -19049,7 +19052,7 @@
         <v>154</v>
       </c>
       <c r="P88" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19461,7 +19464,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -19954,7 +19957,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ92">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR92">
         <v>1.69</v>
@@ -20285,7 +20288,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20491,7 +20494,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -20775,7 +20778,7 @@
         <v>1.25</v>
       </c>
       <c r="AP96">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ96">
         <v>0.86</v>
@@ -21109,7 +21112,7 @@
         <v>95</v>
       </c>
       <c r="P98" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q98">
         <v>3.5</v>
@@ -21727,7 +21730,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q101">
         <v>2.63</v>
@@ -21933,7 +21936,7 @@
         <v>95</v>
       </c>
       <c r="P102" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22220,7 +22223,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ103">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR103">
         <v>1.66</v>
@@ -22345,7 +22348,7 @@
         <v>163</v>
       </c>
       <c r="P104" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q104">
         <v>1.83</v>
@@ -22423,7 +22426,7 @@
         <v>0.5</v>
       </c>
       <c r="AP104">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ104">
         <v>0.33</v>
@@ -23169,7 +23172,7 @@
         <v>167</v>
       </c>
       <c r="P108" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23787,7 +23790,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -23993,7 +23996,7 @@
         <v>138</v>
       </c>
       <c r="P112" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24199,7 +24202,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -24611,7 +24614,7 @@
         <v>95</v>
       </c>
       <c r="P115" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -25023,7 +25026,7 @@
         <v>93</v>
       </c>
       <c r="P117" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -26053,7 +26056,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q122">
         <v>2.3</v>
@@ -26259,7 +26262,7 @@
         <v>95</v>
       </c>
       <c r="P123" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q123">
         <v>3.1</v>
@@ -26828,6 +26831,212 @@
       </c>
       <c r="BP125">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7373300</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45474.83333333334</v>
+      </c>
+      <c r="F126">
+        <v>13</v>
+      </c>
+      <c r="G126" t="s">
+        <v>84</v>
+      </c>
+      <c r="H126" t="s">
+        <v>75</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>2</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>2</v>
+      </c>
+      <c r="O126" t="s">
+        <v>180</v>
+      </c>
+      <c r="P126" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q126">
+        <v>2.1</v>
+      </c>
+      <c r="R126">
+        <v>2.3</v>
+      </c>
+      <c r="S126">
+        <v>6</v>
+      </c>
+      <c r="T126">
+        <v>1.4</v>
+      </c>
+      <c r="U126">
+        <v>2.75</v>
+      </c>
+      <c r="V126">
+        <v>3</v>
+      </c>
+      <c r="W126">
+        <v>1.36</v>
+      </c>
+      <c r="X126">
+        <v>8</v>
+      </c>
+      <c r="Y126">
+        <v>1.08</v>
+      </c>
+      <c r="Z126">
+        <v>1.53</v>
+      </c>
+      <c r="AA126">
+        <v>4.2</v>
+      </c>
+      <c r="AB126">
+        <v>6.25</v>
+      </c>
+      <c r="AC126">
+        <v>1.05</v>
+      </c>
+      <c r="AD126">
+        <v>10</v>
+      </c>
+      <c r="AE126">
+        <v>1.33</v>
+      </c>
+      <c r="AF126">
+        <v>3.25</v>
+      </c>
+      <c r="AG126">
+        <v>1.9</v>
+      </c>
+      <c r="AH126">
+        <v>1.9</v>
+      </c>
+      <c r="AI126">
+        <v>2</v>
+      </c>
+      <c r="AJ126">
+        <v>1.75</v>
+      </c>
+      <c r="AK126">
+        <v>1.08</v>
+      </c>
+      <c r="AL126">
+        <v>1.18</v>
+      </c>
+      <c r="AM126">
+        <v>2.75</v>
+      </c>
+      <c r="AN126">
+        <v>1.67</v>
+      </c>
+      <c r="AO126">
+        <v>0.33</v>
+      </c>
+      <c r="AP126">
+        <v>1.86</v>
+      </c>
+      <c r="AQ126">
+        <v>0.29</v>
+      </c>
+      <c r="AR126">
+        <v>1.89</v>
+      </c>
+      <c r="AS126">
+        <v>1.28</v>
+      </c>
+      <c r="AT126">
+        <v>3.17</v>
+      </c>
+      <c r="AU126">
+        <v>11</v>
+      </c>
+      <c r="AV126">
+        <v>5</v>
+      </c>
+      <c r="AW126">
+        <v>3</v>
+      </c>
+      <c r="AX126">
+        <v>9</v>
+      </c>
+      <c r="AY126">
+        <v>14</v>
+      </c>
+      <c r="AZ126">
+        <v>14</v>
+      </c>
+      <c r="BA126">
+        <v>7</v>
+      </c>
+      <c r="BB126">
+        <v>3</v>
+      </c>
+      <c r="BC126">
+        <v>10</v>
+      </c>
+      <c r="BD126">
+        <v>1.3</v>
+      </c>
+      <c r="BE126">
+        <v>13</v>
+      </c>
+      <c r="BF126">
+        <v>4.48</v>
+      </c>
+      <c r="BG126">
+        <v>1.14</v>
+      </c>
+      <c r="BH126">
+        <v>4.65</v>
+      </c>
+      <c r="BI126">
+        <v>1.29</v>
+      </c>
+      <c r="BJ126">
+        <v>3.14</v>
+      </c>
+      <c r="BK126">
+        <v>2.1</v>
+      </c>
+      <c r="BL126">
+        <v>2.33</v>
+      </c>
+      <c r="BM126">
+        <v>1.91</v>
+      </c>
+      <c r="BN126">
+        <v>1.83</v>
+      </c>
+      <c r="BO126">
+        <v>2.44</v>
+      </c>
+      <c r="BP126">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="241">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -559,6 +559,18 @@
     <t>['53', '57']</t>
   </si>
   <si>
+    <t>['46']</t>
+  </si>
+  <si>
+    <t>['45+3', '63']</t>
+  </si>
+  <si>
+    <t>['6', '20', '45']</t>
+  </si>
+  <si>
+    <t>['57', '90']</t>
+  </si>
+  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -716,6 +728,15 @@
   </si>
   <si>
     <t>['80']</t>
+  </si>
+  <si>
+    <t>['5', '76']</t>
+  </si>
+  <si>
+    <t>['33', '60']</t>
+  </si>
+  <si>
+    <t>['14', '24', '51', '68']</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1098,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP126"/>
+  <dimension ref="A1:BP132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1336,7 +1357,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1542,7 +1563,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1620,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ3">
         <v>0.33</v>
@@ -1748,7 +1769,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -1954,7 +1975,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -2035,7 +2056,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2160,7 +2181,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2238,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ6">
         <v>0.2</v>
@@ -2650,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
         <v>1.17</v>
@@ -2778,7 +2799,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2859,7 +2880,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ9">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2984,7 +3005,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3065,7 +3086,7 @@
         <v>3</v>
       </c>
       <c r="AQ10">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3190,7 +3211,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3396,7 +3417,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3886,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ14">
         <v>0</v>
@@ -4014,7 +4035,7 @@
         <v>102</v>
       </c>
       <c r="P15" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q15">
         <v>2.75</v>
@@ -4095,7 +4116,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ15">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4710,7 +4731,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ18">
         <v>1.4</v>
@@ -4919,7 +4940,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ19">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5125,7 +5146,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ20">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5534,7 +5555,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ22">
         <v>0.29</v>
@@ -5946,10 +5967,10 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR24">
         <v>1.95</v>
@@ -6155,7 +6176,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ25">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR25">
         <v>1.49</v>
@@ -6358,7 +6379,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ26">
         <v>1.67</v>
@@ -6486,7 +6507,7 @@
         <v>112</v>
       </c>
       <c r="P27" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -6692,7 +6713,7 @@
         <v>95</v>
       </c>
       <c r="P28" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6773,7 +6794,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ28">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR28">
         <v>1.21</v>
@@ -6898,7 +6919,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q29">
         <v>2.38</v>
@@ -7104,7 +7125,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7182,7 +7203,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ30">
         <v>1.4</v>
@@ -7310,7 +7331,7 @@
         <v>95</v>
       </c>
       <c r="P31" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7388,7 +7409,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ31">
         <v>1.83</v>
@@ -7722,7 +7743,7 @@
         <v>95</v>
       </c>
       <c r="P33" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7803,7 +7824,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ33">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR33">
         <v>1.46</v>
@@ -7928,7 +7949,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q34">
         <v>2.25</v>
@@ -8546,7 +8567,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8752,7 +8773,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -8833,7 +8854,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ38">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR38">
         <v>2.13</v>
@@ -9164,7 +9185,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9448,10 +9469,10 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ41">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR41">
         <v>1.4</v>
@@ -9657,7 +9678,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR42">
         <v>1.3</v>
@@ -9782,7 +9803,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -9863,7 +9884,7 @@
         <v>1</v>
       </c>
       <c r="AQ43">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR43">
         <v>1.47</v>
@@ -10066,7 +10087,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
         <v>0</v>
@@ -10194,7 +10215,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10400,7 +10421,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10478,7 +10499,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ46">
         <v>2.17</v>
@@ -10812,7 +10833,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q48">
         <v>3.6</v>
@@ -10893,7 +10914,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ48">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR48">
         <v>0.99</v>
@@ -11099,7 +11120,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ49">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR49">
         <v>1.5</v>
@@ -11224,7 +11245,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q50">
         <v>2.38</v>
@@ -11430,7 +11451,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q51">
         <v>2.38</v>
@@ -11508,7 +11529,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ51">
         <v>0.83</v>
@@ -11842,7 +11863,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q53">
         <v>2.38</v>
@@ -12048,7 +12069,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -12254,7 +12275,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -12335,7 +12356,7 @@
         <v>1</v>
       </c>
       <c r="AQ55">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR55">
         <v>1.23</v>
@@ -12538,7 +12559,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ56">
         <v>1.67</v>
@@ -12872,7 +12893,7 @@
         <v>95</v>
       </c>
       <c r="P58" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12953,7 +12974,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ58">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR58">
         <v>1.63</v>
@@ -13078,7 +13099,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q59">
         <v>4.75</v>
@@ -13156,7 +13177,7 @@
         <v>2.33</v>
       </c>
       <c r="AP59">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ59">
         <v>2.17</v>
@@ -13284,7 +13305,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13362,7 +13383,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ60">
         <v>0.86</v>
@@ -13490,7 +13511,7 @@
         <v>117</v>
       </c>
       <c r="P61" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q61">
         <v>5.5</v>
@@ -13568,10 +13589,10 @@
         <v>1.67</v>
       </c>
       <c r="AP61">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ61">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR61">
         <v>1.58</v>
@@ -13983,7 +14004,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ63">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR63">
         <v>1.52</v>
@@ -14189,7 +14210,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ64">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR64">
         <v>1.58</v>
@@ -14392,7 +14413,7 @@
         <v>0</v>
       </c>
       <c r="AP65">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ65">
         <v>0.83</v>
@@ -14520,7 +14541,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14598,7 +14619,7 @@
         <v>0</v>
       </c>
       <c r="AP66">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ66">
         <v>1.17</v>
@@ -14932,7 +14953,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15344,7 +15365,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15422,7 +15443,7 @@
         <v>1.67</v>
       </c>
       <c r="AP70">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ70">
         <v>1.83</v>
@@ -15550,7 +15571,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15834,7 +15855,7 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ72">
         <v>1.4</v>
@@ -16043,7 +16064,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ73">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR73">
         <v>2.08</v>
@@ -16168,7 +16189,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16661,7 +16682,7 @@
         <v>3</v>
       </c>
       <c r="AQ76">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR76">
         <v>1.32</v>
@@ -16864,7 +16885,7 @@
         <v>0.67</v>
       </c>
       <c r="AP77">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ77">
         <v>0.33</v>
@@ -16992,7 +17013,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q78">
         <v>2.63</v>
@@ -17073,7 +17094,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ78">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR78">
         <v>1.81</v>
@@ -17198,7 +17219,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -17404,7 +17425,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17485,7 +17506,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ80">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR80">
         <v>1.69</v>
@@ -17610,7 +17631,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17688,10 +17709,10 @@
         <v>2</v>
       </c>
       <c r="AP81">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ81">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR81">
         <v>1.77</v>
@@ -17894,10 +17915,10 @@
         <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ82">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR82">
         <v>0.8</v>
@@ -18022,7 +18043,7 @@
         <v>151</v>
       </c>
       <c r="P83" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -18103,7 +18124,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ83">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR83">
         <v>1.31</v>
@@ -18306,10 +18327,10 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ84">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR84">
         <v>1.32</v>
@@ -18434,7 +18455,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -18512,7 +18533,7 @@
         <v>1.25</v>
       </c>
       <c r="AP85">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ85">
         <v>0.86</v>
@@ -18640,7 +18661,7 @@
         <v>95</v>
       </c>
       <c r="P86" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -18718,7 +18739,7 @@
         <v>2.5</v>
       </c>
       <c r="AP86">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ86">
         <v>2.17</v>
@@ -18846,7 +18867,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q87">
         <v>2.38</v>
@@ -19052,7 +19073,7 @@
         <v>154</v>
       </c>
       <c r="P88" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19464,7 +19485,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -20288,7 +20309,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20494,7 +20515,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -20984,10 +21005,10 @@
         <v>2</v>
       </c>
       <c r="AP97">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ97">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR97">
         <v>1.48</v>
@@ -21112,7 +21133,7 @@
         <v>95</v>
       </c>
       <c r="P98" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q98">
         <v>3.5</v>
@@ -21396,10 +21417,10 @@
         <v>1.4</v>
       </c>
       <c r="AP99">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ99">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR99">
         <v>1.16</v>
@@ -21602,10 +21623,10 @@
         <v>1.6</v>
       </c>
       <c r="AP100">
+        <v>1.75</v>
+      </c>
+      <c r="AQ100">
         <v>1.57</v>
-      </c>
-      <c r="AQ100">
-        <v>1.33</v>
       </c>
       <c r="AR100">
         <v>1.35</v>
@@ -21730,7 +21751,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q101">
         <v>2.63</v>
@@ -21811,7 +21832,7 @@
         <v>3</v>
       </c>
       <c r="AQ101">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR101">
         <v>1.35</v>
@@ -21936,7 +21957,7 @@
         <v>95</v>
       </c>
       <c r="P102" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22017,7 +22038,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ102">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR102">
         <v>1.72</v>
@@ -22220,7 +22241,7 @@
         <v>0.2</v>
       </c>
       <c r="AP103">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ103">
         <v>0.29</v>
@@ -22348,7 +22369,7 @@
         <v>163</v>
       </c>
       <c r="P104" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q104">
         <v>1.83</v>
@@ -22632,10 +22653,10 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ105">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR105">
         <v>1.47</v>
@@ -22838,7 +22859,7 @@
         <v>0.5</v>
       </c>
       <c r="AP106">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ106">
         <v>0.83</v>
@@ -23172,7 +23193,7 @@
         <v>167</v>
       </c>
       <c r="P108" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23665,7 +23686,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ110">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR110">
         <v>1.33</v>
@@ -23790,7 +23811,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -23996,7 +24017,7 @@
         <v>138</v>
       </c>
       <c r="P112" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24202,7 +24223,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -24614,7 +24635,7 @@
         <v>95</v>
       </c>
       <c r="P115" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -25026,7 +25047,7 @@
         <v>93</v>
       </c>
       <c r="P117" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25104,10 +25125,10 @@
         <v>1.67</v>
       </c>
       <c r="AP117">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ117">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR117">
         <v>1.41</v>
@@ -25310,7 +25331,7 @@
         <v>0.83</v>
       </c>
       <c r="AP118">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ118">
         <v>0.86</v>
@@ -25516,10 +25537,10 @@
         <v>1.33</v>
       </c>
       <c r="AP119">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ119">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR119">
         <v>1.55</v>
@@ -26056,7 +26077,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q122">
         <v>2.3</v>
@@ -26262,7 +26283,7 @@
         <v>95</v>
       </c>
       <c r="P123" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q123">
         <v>3.1</v>
@@ -26549,7 +26570,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ124">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR124">
         <v>1.59</v>
@@ -26752,7 +26773,7 @@
         <v>1.8</v>
       </c>
       <c r="AP125">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ125">
         <v>1.67</v>
@@ -27037,6 +27058,1242 @@
       </c>
       <c r="BP126">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7373313</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45476.79166666666</v>
+      </c>
+      <c r="F127">
+        <v>14</v>
+      </c>
+      <c r="G127" t="s">
+        <v>89</v>
+      </c>
+      <c r="H127" t="s">
+        <v>88</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127">
+        <v>2</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>2</v>
+      </c>
+      <c r="N127">
+        <v>3</v>
+      </c>
+      <c r="O127" t="s">
+        <v>132</v>
+      </c>
+      <c r="P127" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q127">
+        <v>3.6</v>
+      </c>
+      <c r="R127">
+        <v>1.91</v>
+      </c>
+      <c r="S127">
+        <v>3.5</v>
+      </c>
+      <c r="T127">
+        <v>1.53</v>
+      </c>
+      <c r="U127">
+        <v>2.38</v>
+      </c>
+      <c r="V127">
+        <v>3.5</v>
+      </c>
+      <c r="W127">
+        <v>1.29</v>
+      </c>
+      <c r="X127">
+        <v>11</v>
+      </c>
+      <c r="Y127">
+        <v>1.05</v>
+      </c>
+      <c r="Z127">
+        <v>2.8</v>
+      </c>
+      <c r="AA127">
+        <v>3.1</v>
+      </c>
+      <c r="AB127">
+        <v>2.7</v>
+      </c>
+      <c r="AC127">
+        <v>0</v>
+      </c>
+      <c r="AD127">
+        <v>0</v>
+      </c>
+      <c r="AE127">
+        <v>1.53</v>
+      </c>
+      <c r="AF127">
+        <v>2.52</v>
+      </c>
+      <c r="AG127">
+        <v>2.6</v>
+      </c>
+      <c r="AH127">
+        <v>1.48</v>
+      </c>
+      <c r="AI127">
+        <v>2.1</v>
+      </c>
+      <c r="AJ127">
+        <v>1.67</v>
+      </c>
+      <c r="AK127">
+        <v>0</v>
+      </c>
+      <c r="AL127">
+        <v>0</v>
+      </c>
+      <c r="AM127">
+        <v>0</v>
+      </c>
+      <c r="AN127">
+        <v>0.86</v>
+      </c>
+      <c r="AO127">
+        <v>1.57</v>
+      </c>
+      <c r="AP127">
+        <v>0.75</v>
+      </c>
+      <c r="AQ127">
+        <v>1.75</v>
+      </c>
+      <c r="AR127">
+        <v>1.11</v>
+      </c>
+      <c r="AS127">
+        <v>1.13</v>
+      </c>
+      <c r="AT127">
+        <v>2.24</v>
+      </c>
+      <c r="AU127">
+        <v>7</v>
+      </c>
+      <c r="AV127">
+        <v>5</v>
+      </c>
+      <c r="AW127">
+        <v>4</v>
+      </c>
+      <c r="AX127">
+        <v>0</v>
+      </c>
+      <c r="AY127">
+        <v>11</v>
+      </c>
+      <c r="AZ127">
+        <v>5</v>
+      </c>
+      <c r="BA127">
+        <v>7</v>
+      </c>
+      <c r="BB127">
+        <v>5</v>
+      </c>
+      <c r="BC127">
+        <v>12</v>
+      </c>
+      <c r="BD127">
+        <v>0</v>
+      </c>
+      <c r="BE127">
+        <v>0</v>
+      </c>
+      <c r="BF127">
+        <v>0</v>
+      </c>
+      <c r="BG127">
+        <v>0</v>
+      </c>
+      <c r="BH127">
+        <v>0</v>
+      </c>
+      <c r="BI127">
+        <v>0</v>
+      </c>
+      <c r="BJ127">
+        <v>0</v>
+      </c>
+      <c r="BK127">
+        <v>2.38</v>
+      </c>
+      <c r="BL127">
+        <v>0</v>
+      </c>
+      <c r="BM127">
+        <v>0</v>
+      </c>
+      <c r="BN127">
+        <v>0</v>
+      </c>
+      <c r="BO127">
+        <v>0</v>
+      </c>
+      <c r="BP127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7373314</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45476.83333333334</v>
+      </c>
+      <c r="F128">
+        <v>14</v>
+      </c>
+      <c r="G128" t="s">
+        <v>71</v>
+      </c>
+      <c r="H128" t="s">
+        <v>78</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>1</v>
+      </c>
+      <c r="O128" t="s">
+        <v>181</v>
+      </c>
+      <c r="P128" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q128">
+        <v>3.5</v>
+      </c>
+      <c r="R128">
+        <v>1.91</v>
+      </c>
+      <c r="S128">
+        <v>3.6</v>
+      </c>
+      <c r="T128">
+        <v>1.5</v>
+      </c>
+      <c r="U128">
+        <v>2.5</v>
+      </c>
+      <c r="V128">
+        <v>3.4</v>
+      </c>
+      <c r="W128">
+        <v>1.3</v>
+      </c>
+      <c r="X128">
+        <v>10</v>
+      </c>
+      <c r="Y128">
+        <v>1.06</v>
+      </c>
+      <c r="Z128">
+        <v>2.7</v>
+      </c>
+      <c r="AA128">
+        <v>3.1</v>
+      </c>
+      <c r="AB128">
+        <v>2.88</v>
+      </c>
+      <c r="AC128">
+        <v>1.07</v>
+      </c>
+      <c r="AD128">
+        <v>9</v>
+      </c>
+      <c r="AE128">
+        <v>1.38</v>
+      </c>
+      <c r="AF128">
+        <v>3</v>
+      </c>
+      <c r="AG128">
+        <v>2.5</v>
+      </c>
+      <c r="AH128">
+        <v>1.5</v>
+      </c>
+      <c r="AI128">
+        <v>2.1</v>
+      </c>
+      <c r="AJ128">
+        <v>1.67</v>
+      </c>
+      <c r="AK128">
+        <v>1.53</v>
+      </c>
+      <c r="AL128">
+        <v>1.3</v>
+      </c>
+      <c r="AM128">
+        <v>1.42</v>
+      </c>
+      <c r="AN128">
+        <v>1</v>
+      </c>
+      <c r="AO128">
+        <v>0.71</v>
+      </c>
+      <c r="AP128">
+        <v>1.29</v>
+      </c>
+      <c r="AQ128">
+        <v>0.63</v>
+      </c>
+      <c r="AR128">
+        <v>1.53</v>
+      </c>
+      <c r="AS128">
+        <v>1.12</v>
+      </c>
+      <c r="AT128">
+        <v>2.65</v>
+      </c>
+      <c r="AU128">
+        <v>7</v>
+      </c>
+      <c r="AV128">
+        <v>7</v>
+      </c>
+      <c r="AW128">
+        <v>5</v>
+      </c>
+      <c r="AX128">
+        <v>10</v>
+      </c>
+      <c r="AY128">
+        <v>12</v>
+      </c>
+      <c r="AZ128">
+        <v>17</v>
+      </c>
+      <c r="BA128">
+        <v>7</v>
+      </c>
+      <c r="BB128">
+        <v>10</v>
+      </c>
+      <c r="BC128">
+        <v>17</v>
+      </c>
+      <c r="BD128">
+        <v>2.74</v>
+      </c>
+      <c r="BE128">
+        <v>9.5</v>
+      </c>
+      <c r="BF128">
+        <v>1.67</v>
+      </c>
+      <c r="BG128">
+        <v>1.18</v>
+      </c>
+      <c r="BH128">
+        <v>4.1</v>
+      </c>
+      <c r="BI128">
+        <v>1.36</v>
+      </c>
+      <c r="BJ128">
+        <v>2.79</v>
+      </c>
+      <c r="BK128">
+        <v>2.25</v>
+      </c>
+      <c r="BL128">
+        <v>2</v>
+      </c>
+      <c r="BM128">
+        <v>2.09</v>
+      </c>
+      <c r="BN128">
+        <v>1.69</v>
+      </c>
+      <c r="BO128">
+        <v>2.72</v>
+      </c>
+      <c r="BP128">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7373309</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45476.83333333334</v>
+      </c>
+      <c r="F129">
+        <v>14</v>
+      </c>
+      <c r="G129" t="s">
+        <v>74</v>
+      </c>
+      <c r="H129" t="s">
+        <v>83</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>2</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>2</v>
+      </c>
+      <c r="O129" t="s">
+        <v>182</v>
+      </c>
+      <c r="P129" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q129">
+        <v>3.1</v>
+      </c>
+      <c r="R129">
+        <v>2.1</v>
+      </c>
+      <c r="S129">
+        <v>3.6</v>
+      </c>
+      <c r="T129">
+        <v>1.5</v>
+      </c>
+      <c r="U129">
+        <v>2.5</v>
+      </c>
+      <c r="V129">
+        <v>3.4</v>
+      </c>
+      <c r="W129">
+        <v>1.3</v>
+      </c>
+      <c r="X129">
+        <v>10</v>
+      </c>
+      <c r="Y129">
+        <v>1.06</v>
+      </c>
+      <c r="Z129">
+        <v>2.4</v>
+      </c>
+      <c r="AA129">
+        <v>3.25</v>
+      </c>
+      <c r="AB129">
+        <v>3.1</v>
+      </c>
+      <c r="AC129">
+        <v>1.08</v>
+      </c>
+      <c r="AD129">
+        <v>8.5</v>
+      </c>
+      <c r="AE129">
+        <v>1.44</v>
+      </c>
+      <c r="AF129">
+        <v>2.8</v>
+      </c>
+      <c r="AG129">
+        <v>2.08</v>
+      </c>
+      <c r="AH129">
+        <v>1.73</v>
+      </c>
+      <c r="AI129">
+        <v>1.8</v>
+      </c>
+      <c r="AJ129">
+        <v>1.95</v>
+      </c>
+      <c r="AK129">
+        <v>1.36</v>
+      </c>
+      <c r="AL129">
+        <v>1.28</v>
+      </c>
+      <c r="AM129">
+        <v>1.62</v>
+      </c>
+      <c r="AN129">
+        <v>1.57</v>
+      </c>
+      <c r="AO129">
+        <v>1</v>
+      </c>
+      <c r="AP129">
+        <v>1.75</v>
+      </c>
+      <c r="AQ129">
+        <v>0.83</v>
+      </c>
+      <c r="AR129">
+        <v>1.35</v>
+      </c>
+      <c r="AS129">
+        <v>1.04</v>
+      </c>
+      <c r="AT129">
+        <v>2.39</v>
+      </c>
+      <c r="AU129">
+        <v>10</v>
+      </c>
+      <c r="AV129">
+        <v>5</v>
+      </c>
+      <c r="AW129">
+        <v>5</v>
+      </c>
+      <c r="AX129">
+        <v>5</v>
+      </c>
+      <c r="AY129">
+        <v>15</v>
+      </c>
+      <c r="AZ129">
+        <v>10</v>
+      </c>
+      <c r="BA129">
+        <v>7</v>
+      </c>
+      <c r="BB129">
+        <v>3</v>
+      </c>
+      <c r="BC129">
+        <v>10</v>
+      </c>
+      <c r="BD129">
+        <v>1.67</v>
+      </c>
+      <c r="BE129">
+        <v>10.5</v>
+      </c>
+      <c r="BF129">
+        <v>2.64</v>
+      </c>
+      <c r="BG129">
+        <v>1.13</v>
+      </c>
+      <c r="BH129">
+        <v>4.75</v>
+      </c>
+      <c r="BI129">
+        <v>1.28</v>
+      </c>
+      <c r="BJ129">
+        <v>3.2</v>
+      </c>
+      <c r="BK129">
+        <v>1.91</v>
+      </c>
+      <c r="BL129">
+        <v>2.36</v>
+      </c>
+      <c r="BM129">
+        <v>2</v>
+      </c>
+      <c r="BN129">
+        <v>1.8</v>
+      </c>
+      <c r="BO129">
+        <v>2.41</v>
+      </c>
+      <c r="BP129">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7373311</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45476.89583333334</v>
+      </c>
+      <c r="F130">
+        <v>14</v>
+      </c>
+      <c r="G130" t="s">
+        <v>82</v>
+      </c>
+      <c r="H130" t="s">
+        <v>77</v>
+      </c>
+      <c r="I130">
+        <v>3</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>4</v>
+      </c>
+      <c r="L130">
+        <v>3</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="N130">
+        <v>4</v>
+      </c>
+      <c r="O130" t="s">
+        <v>183</v>
+      </c>
+      <c r="P130" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q130">
+        <v>2.5</v>
+      </c>
+      <c r="R130">
+        <v>2.1</v>
+      </c>
+      <c r="S130">
+        <v>5</v>
+      </c>
+      <c r="T130">
+        <v>1.44</v>
+      </c>
+      <c r="U130">
+        <v>2.63</v>
+      </c>
+      <c r="V130">
+        <v>3</v>
+      </c>
+      <c r="W130">
+        <v>1.36</v>
+      </c>
+      <c r="X130">
+        <v>9</v>
+      </c>
+      <c r="Y130">
+        <v>1.07</v>
+      </c>
+      <c r="Z130">
+        <v>1.83</v>
+      </c>
+      <c r="AA130">
+        <v>3.4</v>
+      </c>
+      <c r="AB130">
+        <v>4.5</v>
+      </c>
+      <c r="AC130">
+        <v>1.02</v>
+      </c>
+      <c r="AD130">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE130">
+        <v>1.3</v>
+      </c>
+      <c r="AF130">
+        <v>3.4</v>
+      </c>
+      <c r="AG130">
+        <v>2.1</v>
+      </c>
+      <c r="AH130">
+        <v>1.7</v>
+      </c>
+      <c r="AI130">
+        <v>1.95</v>
+      </c>
+      <c r="AJ130">
+        <v>1.8</v>
+      </c>
+      <c r="AK130">
+        <v>1.18</v>
+      </c>
+      <c r="AL130">
+        <v>1.22</v>
+      </c>
+      <c r="AM130">
+        <v>2.15</v>
+      </c>
+      <c r="AN130">
+        <v>2.17</v>
+      </c>
+      <c r="AO130">
+        <v>1.29</v>
+      </c>
+      <c r="AP130">
+        <v>2.29</v>
+      </c>
+      <c r="AQ130">
+        <v>1.13</v>
+      </c>
+      <c r="AR130">
+        <v>1.4</v>
+      </c>
+      <c r="AS130">
+        <v>1.44</v>
+      </c>
+      <c r="AT130">
+        <v>2.84</v>
+      </c>
+      <c r="AU130">
+        <v>6</v>
+      </c>
+      <c r="AV130">
+        <v>7</v>
+      </c>
+      <c r="AW130">
+        <v>5</v>
+      </c>
+      <c r="AX130">
+        <v>6</v>
+      </c>
+      <c r="AY130">
+        <v>11</v>
+      </c>
+      <c r="AZ130">
+        <v>13</v>
+      </c>
+      <c r="BA130">
+        <v>3</v>
+      </c>
+      <c r="BB130">
+        <v>8</v>
+      </c>
+      <c r="BC130">
+        <v>11</v>
+      </c>
+      <c r="BD130">
+        <v>1.5</v>
+      </c>
+      <c r="BE130">
+        <v>9.9</v>
+      </c>
+      <c r="BF130">
+        <v>3.3</v>
+      </c>
+      <c r="BG130">
+        <v>1.11</v>
+      </c>
+      <c r="BH130">
+        <v>5.5</v>
+      </c>
+      <c r="BI130">
+        <v>1.16</v>
+      </c>
+      <c r="BJ130">
+        <v>4.4</v>
+      </c>
+      <c r="BK130">
+        <v>1.31</v>
+      </c>
+      <c r="BL130">
+        <v>3.04</v>
+      </c>
+      <c r="BM130">
+        <v>1.56</v>
+      </c>
+      <c r="BN130">
+        <v>2.27</v>
+      </c>
+      <c r="BO130">
+        <v>1.85</v>
+      </c>
+      <c r="BP130">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7373312</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45476.89583333334</v>
+      </c>
+      <c r="F131">
+        <v>14</v>
+      </c>
+      <c r="G131" t="s">
+        <v>76</v>
+      </c>
+      <c r="H131" t="s">
+        <v>73</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>2</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>2</v>
+      </c>
+      <c r="N131">
+        <v>3</v>
+      </c>
+      <c r="O131" t="s">
+        <v>134</v>
+      </c>
+      <c r="P131" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q131">
+        <v>3.2</v>
+      </c>
+      <c r="R131">
+        <v>2</v>
+      </c>
+      <c r="S131">
+        <v>3.75</v>
+      </c>
+      <c r="T131">
+        <v>1.5</v>
+      </c>
+      <c r="U131">
+        <v>2.5</v>
+      </c>
+      <c r="V131">
+        <v>3.4</v>
+      </c>
+      <c r="W131">
+        <v>1.3</v>
+      </c>
+      <c r="X131">
+        <v>10</v>
+      </c>
+      <c r="Y131">
+        <v>1.06</v>
+      </c>
+      <c r="Z131">
+        <v>2.38</v>
+      </c>
+      <c r="AA131">
+        <v>3.1</v>
+      </c>
+      <c r="AB131">
+        <v>3.2</v>
+      </c>
+      <c r="AC131">
+        <v>1.08</v>
+      </c>
+      <c r="AD131">
+        <v>8</v>
+      </c>
+      <c r="AE131">
+        <v>1.42</v>
+      </c>
+      <c r="AF131">
+        <v>2.85</v>
+      </c>
+      <c r="AG131">
+        <v>2.3</v>
+      </c>
+      <c r="AH131">
+        <v>1.6</v>
+      </c>
+      <c r="AI131">
+        <v>1.95</v>
+      </c>
+      <c r="AJ131">
+        <v>1.8</v>
+      </c>
+      <c r="AK131">
+        <v>1.33</v>
+      </c>
+      <c r="AL131">
+        <v>1.3</v>
+      </c>
+      <c r="AM131">
+        <v>1.65</v>
+      </c>
+      <c r="AN131">
+        <v>2.33</v>
+      </c>
+      <c r="AO131">
+        <v>1.33</v>
+      </c>
+      <c r="AP131">
+        <v>2</v>
+      </c>
+      <c r="AQ131">
+        <v>1.57</v>
+      </c>
+      <c r="AR131">
+        <v>1.7</v>
+      </c>
+      <c r="AS131">
+        <v>1.37</v>
+      </c>
+      <c r="AT131">
+        <v>3.07</v>
+      </c>
+      <c r="AU131">
+        <v>5</v>
+      </c>
+      <c r="AV131">
+        <v>9</v>
+      </c>
+      <c r="AW131">
+        <v>6</v>
+      </c>
+      <c r="AX131">
+        <v>1</v>
+      </c>
+      <c r="AY131">
+        <v>11</v>
+      </c>
+      <c r="AZ131">
+        <v>10</v>
+      </c>
+      <c r="BA131">
+        <v>6</v>
+      </c>
+      <c r="BB131">
+        <v>2</v>
+      </c>
+      <c r="BC131">
+        <v>8</v>
+      </c>
+      <c r="BD131">
+        <v>1.64</v>
+      </c>
+      <c r="BE131">
+        <v>9.9</v>
+      </c>
+      <c r="BF131">
+        <v>2.78</v>
+      </c>
+      <c r="BG131">
+        <v>1.15</v>
+      </c>
+      <c r="BH131">
+        <v>4.5</v>
+      </c>
+      <c r="BI131">
+        <v>1.31</v>
+      </c>
+      <c r="BJ131">
+        <v>3.04</v>
+      </c>
+      <c r="BK131">
+        <v>2</v>
+      </c>
+      <c r="BL131">
+        <v>1.91</v>
+      </c>
+      <c r="BM131">
+        <v>1.97</v>
+      </c>
+      <c r="BN131">
+        <v>1.78</v>
+      </c>
+      <c r="BO131">
+        <v>2.52</v>
+      </c>
+      <c r="BP131">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7373306</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45476.89583333334</v>
+      </c>
+      <c r="F132">
+        <v>14</v>
+      </c>
+      <c r="G132" t="s">
+        <v>86</v>
+      </c>
+      <c r="H132" t="s">
+        <v>87</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>2</v>
+      </c>
+      <c r="K132">
+        <v>2</v>
+      </c>
+      <c r="L132">
+        <v>2</v>
+      </c>
+      <c r="M132">
+        <v>4</v>
+      </c>
+      <c r="N132">
+        <v>6</v>
+      </c>
+      <c r="O132" t="s">
+        <v>184</v>
+      </c>
+      <c r="P132" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q132">
+        <v>3.4</v>
+      </c>
+      <c r="R132">
+        <v>2</v>
+      </c>
+      <c r="S132">
+        <v>3.5</v>
+      </c>
+      <c r="T132">
+        <v>1.5</v>
+      </c>
+      <c r="U132">
+        <v>2.5</v>
+      </c>
+      <c r="V132">
+        <v>3.4</v>
+      </c>
+      <c r="W132">
+        <v>1.3</v>
+      </c>
+      <c r="X132">
+        <v>10</v>
+      </c>
+      <c r="Y132">
+        <v>1.06</v>
+      </c>
+      <c r="Z132">
+        <v>2.7</v>
+      </c>
+      <c r="AA132">
+        <v>3.25</v>
+      </c>
+      <c r="AB132">
+        <v>2.75</v>
+      </c>
+      <c r="AC132">
+        <v>1.07</v>
+      </c>
+      <c r="AD132">
+        <v>9</v>
+      </c>
+      <c r="AE132">
+        <v>1.38</v>
+      </c>
+      <c r="AF132">
+        <v>3</v>
+      </c>
+      <c r="AG132">
+        <v>2.3</v>
+      </c>
+      <c r="AH132">
+        <v>1.6</v>
+      </c>
+      <c r="AI132">
+        <v>1.95</v>
+      </c>
+      <c r="AJ132">
+        <v>1.8</v>
+      </c>
+      <c r="AK132">
+        <v>1.45</v>
+      </c>
+      <c r="AL132">
+        <v>1.3</v>
+      </c>
+      <c r="AM132">
+        <v>1.5</v>
+      </c>
+      <c r="AN132">
+        <v>1.17</v>
+      </c>
+      <c r="AO132">
+        <v>1.71</v>
+      </c>
+      <c r="AP132">
+        <v>1</v>
+      </c>
+      <c r="AQ132">
+        <v>1.88</v>
+      </c>
+      <c r="AR132">
+        <v>1.55</v>
+      </c>
+      <c r="AS132">
+        <v>1.65</v>
+      </c>
+      <c r="AT132">
+        <v>3.2</v>
+      </c>
+      <c r="AU132">
+        <v>5</v>
+      </c>
+      <c r="AV132">
+        <v>9</v>
+      </c>
+      <c r="AW132">
+        <v>3</v>
+      </c>
+      <c r="AX132">
+        <v>3</v>
+      </c>
+      <c r="AY132">
+        <v>8</v>
+      </c>
+      <c r="AZ132">
+        <v>12</v>
+      </c>
+      <c r="BA132">
+        <v>4</v>
+      </c>
+      <c r="BB132">
+        <v>4</v>
+      </c>
+      <c r="BC132">
+        <v>8</v>
+      </c>
+      <c r="BD132">
+        <v>2</v>
+      </c>
+      <c r="BE132">
+        <v>8.6</v>
+      </c>
+      <c r="BF132">
+        <v>2.18</v>
+      </c>
+      <c r="BG132">
+        <v>1.15</v>
+      </c>
+      <c r="BH132">
+        <v>4.45</v>
+      </c>
+      <c r="BI132">
+        <v>1.32</v>
+      </c>
+      <c r="BJ132">
+        <v>2.98</v>
+      </c>
+      <c r="BK132">
+        <v>2.1</v>
+      </c>
+      <c r="BL132">
+        <v>2.23</v>
+      </c>
+      <c r="BM132">
+        <v>2</v>
+      </c>
+      <c r="BN132">
+        <v>1.7</v>
+      </c>
+      <c r="BO132">
+        <v>2.57</v>
+      </c>
+      <c r="BP132">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="247">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -571,6 +571,18 @@
     <t>['57', '90']</t>
   </si>
   <si>
+    <t>['59', '68']</t>
+  </si>
+  <si>
+    <t>['2', '69']</t>
+  </si>
+  <si>
+    <t>['26', '43', '90+5']</t>
+  </si>
+  <si>
+    <t>['45+4']</t>
+  </si>
+  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -737,6 +749,12 @@
   </si>
   <si>
     <t>['14', '24', '51', '68']</t>
+  </si>
+  <si>
+    <t>['74', '77']</t>
+  </si>
+  <si>
+    <t>['37', '86']</t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP132"/>
+  <dimension ref="A1:BP136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1357,7 +1375,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1563,7 +1581,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1644,7 +1662,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ3">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1769,7 +1787,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -1847,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ4">
         <v>0.86</v>
@@ -1975,7 +1993,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -2181,7 +2199,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2465,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ7">
         <v>1.83</v>
@@ -2799,7 +2817,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3005,7 +3023,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3211,7 +3229,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3292,7 +3310,7 @@
         <v>1</v>
       </c>
       <c r="AQ11">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3417,7 +3435,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3701,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ13">
         <v>1.14</v>
@@ -4035,7 +4053,7 @@
         <v>102</v>
       </c>
       <c r="P15" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q15">
         <v>2.75</v>
@@ -4322,7 +4340,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ16">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5349,7 +5367,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ21">
         <v>0</v>
@@ -5761,7 +5779,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ23">
         <v>1.17</v>
@@ -6382,7 +6400,7 @@
         <v>2</v>
       </c>
       <c r="AQ26">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR26">
         <v>2.21</v>
@@ -6507,7 +6525,7 @@
         <v>112</v>
       </c>
       <c r="P27" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -6713,7 +6731,7 @@
         <v>95</v>
       </c>
       <c r="P28" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6919,7 +6937,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q29">
         <v>2.38</v>
@@ -7000,7 +7018,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ29">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR29">
         <v>1.4</v>
@@ -7125,7 +7143,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7331,7 +7349,7 @@
         <v>95</v>
       </c>
       <c r="P31" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7743,7 +7761,7 @@
         <v>95</v>
       </c>
       <c r="P33" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7949,7 +7967,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q34">
         <v>2.25</v>
@@ -8030,7 +8048,7 @@
         <v>3</v>
       </c>
       <c r="AQ34">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR34">
         <v>1.46</v>
@@ -8233,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ35">
         <v>0</v>
@@ -8567,7 +8585,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8773,7 +8791,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -9060,7 +9078,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ39">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR39">
         <v>1.75</v>
@@ -9185,7 +9203,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9263,7 +9281,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ40">
         <v>1.83</v>
@@ -9675,7 +9693,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ42">
         <v>0.83</v>
@@ -9803,7 +9821,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -10215,7 +10233,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10421,7 +10439,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10502,7 +10520,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ46">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR46">
         <v>0.52</v>
@@ -10833,7 +10851,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q48">
         <v>3.6</v>
@@ -11245,7 +11263,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q50">
         <v>2.38</v>
@@ -11451,7 +11469,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q51">
         <v>2.38</v>
@@ -11532,7 +11550,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ51">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR51">
         <v>1.51</v>
@@ -11863,7 +11881,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q53">
         <v>2.38</v>
@@ -12069,7 +12087,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -12147,7 +12165,7 @@
         <v>0.67</v>
       </c>
       <c r="AP54">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ54">
         <v>0.86</v>
@@ -12275,7 +12293,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -12562,7 +12580,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ56">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR56">
         <v>0.68</v>
@@ -12765,10 +12783,10 @@
         <v>0.5</v>
       </c>
       <c r="AP57">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ57">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR57">
         <v>1.86</v>
@@ -12893,7 +12911,7 @@
         <v>95</v>
       </c>
       <c r="P58" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12971,7 +12989,7 @@
         <v>1.33</v>
       </c>
       <c r="AP58">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ58">
         <v>1.75</v>
@@ -13099,7 +13117,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q59">
         <v>4.75</v>
@@ -13180,7 +13198,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ59">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR59">
         <v>0.99</v>
@@ -13305,7 +13323,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13511,7 +13529,7 @@
         <v>117</v>
       </c>
       <c r="P61" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q61">
         <v>5.5</v>
@@ -14416,7 +14434,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ65">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR65">
         <v>0.78</v>
@@ -14541,7 +14559,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14828,7 +14846,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ67">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR67">
         <v>1.39</v>
@@ -14953,7 +14971,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15365,7 +15383,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15571,7 +15589,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16189,7 +16207,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16888,7 +16906,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ77">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR77">
         <v>1.45</v>
@@ -17013,7 +17031,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q78">
         <v>2.63</v>
@@ -17091,7 +17109,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ78">
         <v>1.13</v>
@@ -17219,7 +17237,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -17300,7 +17318,7 @@
         <v>1</v>
       </c>
       <c r="AQ79">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR79">
         <v>1.16</v>
@@ -17425,7 +17443,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17503,7 +17521,7 @@
         <v>1.75</v>
       </c>
       <c r="AP80">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ80">
         <v>1.57</v>
@@ -17631,7 +17649,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -18043,7 +18061,7 @@
         <v>151</v>
       </c>
       <c r="P83" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -18121,7 +18139,7 @@
         <v>1.75</v>
       </c>
       <c r="AP83">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ83">
         <v>1.75</v>
@@ -18455,7 +18473,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -18661,7 +18679,7 @@
         <v>95</v>
       </c>
       <c r="P86" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -18742,7 +18760,7 @@
         <v>1</v>
       </c>
       <c r="AQ86">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR86">
         <v>1.61</v>
@@ -18867,7 +18885,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q87">
         <v>2.38</v>
@@ -19073,7 +19091,7 @@
         <v>154</v>
       </c>
       <c r="P88" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19485,7 +19503,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -20309,7 +20327,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20515,7 +20533,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -21133,7 +21151,7 @@
         <v>95</v>
       </c>
       <c r="P98" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q98">
         <v>3.5</v>
@@ -21211,10 +21229,10 @@
         <v>1.5</v>
       </c>
       <c r="AP98">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ98">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR98">
         <v>1.35</v>
@@ -21751,7 +21769,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q101">
         <v>2.63</v>
@@ -21957,7 +21975,7 @@
         <v>95</v>
       </c>
       <c r="P102" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22035,7 +22053,7 @@
         <v>1.8</v>
       </c>
       <c r="AP102">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ102">
         <v>1.88</v>
@@ -22369,7 +22387,7 @@
         <v>163</v>
       </c>
       <c r="P104" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q104">
         <v>1.83</v>
@@ -22450,7 +22468,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ104">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR104">
         <v>1.72</v>
@@ -22862,7 +22880,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ106">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR106">
         <v>1.31</v>
@@ -23193,7 +23211,7 @@
         <v>167</v>
       </c>
       <c r="P108" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23477,7 +23495,7 @@
         <v>1.2</v>
       </c>
       <c r="AP109">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ109">
         <v>1.17</v>
@@ -23811,7 +23829,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -24017,7 +24035,7 @@
         <v>138</v>
       </c>
       <c r="P112" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24223,7 +24241,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -24510,7 +24528,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ114">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR114">
         <v>1.34</v>
@@ -24635,7 +24653,7 @@
         <v>95</v>
       </c>
       <c r="P115" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -24713,10 +24731,10 @@
         <v>0.4</v>
       </c>
       <c r="AP115">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ115">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR115">
         <v>1.49</v>
@@ -25047,7 +25065,7 @@
         <v>93</v>
       </c>
       <c r="P117" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25743,7 +25761,7 @@
         <v>0</v>
       </c>
       <c r="AP120">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ120">
         <v>0</v>
@@ -26077,7 +26095,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q122">
         <v>2.3</v>
@@ -26158,7 +26176,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ122">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR122">
         <v>1.32</v>
@@ -26283,7 +26301,7 @@
         <v>95</v>
       </c>
       <c r="P123" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q123">
         <v>3.1</v>
@@ -26776,7 +26794,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ125">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR125">
         <v>1.49</v>
@@ -27107,7 +27125,7 @@
         <v>132</v>
       </c>
       <c r="P127" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q127">
         <v>3.6</v>
@@ -27725,7 +27743,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -27931,7 +27949,7 @@
         <v>134</v>
       </c>
       <c r="P131" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q131">
         <v>3.2</v>
@@ -28137,7 +28155,7 @@
         <v>184</v>
       </c>
       <c r="P132" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28294,6 +28312,830 @@
       </c>
       <c r="BP132">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7373307</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45477.79166666666</v>
+      </c>
+      <c r="F133">
+        <v>14</v>
+      </c>
+      <c r="G133" t="s">
+        <v>80</v>
+      </c>
+      <c r="H133" t="s">
+        <v>85</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>2</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>2</v>
+      </c>
+      <c r="O133" t="s">
+        <v>185</v>
+      </c>
+      <c r="P133" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q133">
+        <v>2.05</v>
+      </c>
+      <c r="R133">
+        <v>2.38</v>
+      </c>
+      <c r="S133">
+        <v>6</v>
+      </c>
+      <c r="T133">
+        <v>1.36</v>
+      </c>
+      <c r="U133">
+        <v>3</v>
+      </c>
+      <c r="V133">
+        <v>2.75</v>
+      </c>
+      <c r="W133">
+        <v>1.4</v>
+      </c>
+      <c r="X133">
+        <v>8</v>
+      </c>
+      <c r="Y133">
+        <v>1.08</v>
+      </c>
+      <c r="Z133">
+        <v>1.5</v>
+      </c>
+      <c r="AA133">
+        <v>4.33</v>
+      </c>
+      <c r="AB133">
+        <v>6.25</v>
+      </c>
+      <c r="AC133">
+        <v>1.04</v>
+      </c>
+      <c r="AD133">
+        <v>12</v>
+      </c>
+      <c r="AE133">
+        <v>1.3</v>
+      </c>
+      <c r="AF133">
+        <v>3.5</v>
+      </c>
+      <c r="AG133">
+        <v>1.75</v>
+      </c>
+      <c r="AH133">
+        <v>2.05</v>
+      </c>
+      <c r="AI133">
+        <v>1.91</v>
+      </c>
+      <c r="AJ133">
+        <v>1.91</v>
+      </c>
+      <c r="AK133">
+        <v>1.16</v>
+      </c>
+      <c r="AL133">
+        <v>1.2</v>
+      </c>
+      <c r="AM133">
+        <v>2.3</v>
+      </c>
+      <c r="AN133">
+        <v>3</v>
+      </c>
+      <c r="AO133">
+        <v>0.33</v>
+      </c>
+      <c r="AP133">
+        <v>3</v>
+      </c>
+      <c r="AQ133">
+        <v>0.29</v>
+      </c>
+      <c r="AR133">
+        <v>1.52</v>
+      </c>
+      <c r="AS133">
+        <v>1.37</v>
+      </c>
+      <c r="AT133">
+        <v>2.89</v>
+      </c>
+      <c r="AU133">
+        <v>10</v>
+      </c>
+      <c r="AV133">
+        <v>3</v>
+      </c>
+      <c r="AW133">
+        <v>8</v>
+      </c>
+      <c r="AX133">
+        <v>5</v>
+      </c>
+      <c r="AY133">
+        <v>18</v>
+      </c>
+      <c r="AZ133">
+        <v>8</v>
+      </c>
+      <c r="BA133">
+        <v>6</v>
+      </c>
+      <c r="BB133">
+        <v>7</v>
+      </c>
+      <c r="BC133">
+        <v>13</v>
+      </c>
+      <c r="BD133">
+        <v>1.41</v>
+      </c>
+      <c r="BE133">
+        <v>10.5</v>
+      </c>
+      <c r="BF133">
+        <v>3.8</v>
+      </c>
+      <c r="BG133">
+        <v>1.21</v>
+      </c>
+      <c r="BH133">
+        <v>3.74</v>
+      </c>
+      <c r="BI133">
+        <v>1.53</v>
+      </c>
+      <c r="BJ133">
+        <v>2.4</v>
+      </c>
+      <c r="BK133">
+        <v>2.38</v>
+      </c>
+      <c r="BL133">
+        <v>1.85</v>
+      </c>
+      <c r="BM133">
+        <v>2.4</v>
+      </c>
+      <c r="BN133">
+        <v>1.53</v>
+      </c>
+      <c r="BO133">
+        <v>2.88</v>
+      </c>
+      <c r="BP133">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7373305</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45477.79166666666</v>
+      </c>
+      <c r="F134">
+        <v>14</v>
+      </c>
+      <c r="G134" t="s">
+        <v>81</v>
+      </c>
+      <c r="H134" t="s">
+        <v>84</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>2</v>
+      </c>
+      <c r="M134">
+        <v>2</v>
+      </c>
+      <c r="N134">
+        <v>4</v>
+      </c>
+      <c r="O134" t="s">
+        <v>186</v>
+      </c>
+      <c r="P134" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q134">
+        <v>3.75</v>
+      </c>
+      <c r="R134">
+        <v>2</v>
+      </c>
+      <c r="S134">
+        <v>3.1</v>
+      </c>
+      <c r="T134">
+        <v>1.44</v>
+      </c>
+      <c r="U134">
+        <v>2.63</v>
+      </c>
+      <c r="V134">
+        <v>3.25</v>
+      </c>
+      <c r="W134">
+        <v>1.33</v>
+      </c>
+      <c r="X134">
+        <v>10</v>
+      </c>
+      <c r="Y134">
+        <v>1.06</v>
+      </c>
+      <c r="Z134">
+        <v>3.1</v>
+      </c>
+      <c r="AA134">
+        <v>3.25</v>
+      </c>
+      <c r="AB134">
+        <v>2.38</v>
+      </c>
+      <c r="AC134">
+        <v>1.06</v>
+      </c>
+      <c r="AD134">
+        <v>9.5</v>
+      </c>
+      <c r="AE134">
+        <v>1.38</v>
+      </c>
+      <c r="AF134">
+        <v>3</v>
+      </c>
+      <c r="AG134">
+        <v>2.25</v>
+      </c>
+      <c r="AH134">
+        <v>1.62</v>
+      </c>
+      <c r="AI134">
+        <v>1.95</v>
+      </c>
+      <c r="AJ134">
+        <v>1.8</v>
+      </c>
+      <c r="AK134">
+        <v>1.75</v>
+      </c>
+      <c r="AL134">
+        <v>1.25</v>
+      </c>
+      <c r="AM134">
+        <v>1.3</v>
+      </c>
+      <c r="AN134">
+        <v>1.5</v>
+      </c>
+      <c r="AO134">
+        <v>2.17</v>
+      </c>
+      <c r="AP134">
+        <v>1.43</v>
+      </c>
+      <c r="AQ134">
+        <v>2</v>
+      </c>
+      <c r="AR134">
+        <v>1.45</v>
+      </c>
+      <c r="AS134">
+        <v>1.66</v>
+      </c>
+      <c r="AT134">
+        <v>3.11</v>
+      </c>
+      <c r="AU134">
+        <v>6</v>
+      </c>
+      <c r="AV134">
+        <v>6</v>
+      </c>
+      <c r="AW134">
+        <v>4</v>
+      </c>
+      <c r="AX134">
+        <v>9</v>
+      </c>
+      <c r="AY134">
+        <v>10</v>
+      </c>
+      <c r="AZ134">
+        <v>15</v>
+      </c>
+      <c r="BA134">
+        <v>5</v>
+      </c>
+      <c r="BB134">
+        <v>10</v>
+      </c>
+      <c r="BC134">
+        <v>15</v>
+      </c>
+      <c r="BD134">
+        <v>2.78</v>
+      </c>
+      <c r="BE134">
+        <v>11</v>
+      </c>
+      <c r="BF134">
+        <v>1.61</v>
+      </c>
+      <c r="BG134">
+        <v>1.2</v>
+      </c>
+      <c r="BH134">
+        <v>4</v>
+      </c>
+      <c r="BI134">
+        <v>1.36</v>
+      </c>
+      <c r="BJ134">
+        <v>2.9</v>
+      </c>
+      <c r="BK134">
+        <v>2.1</v>
+      </c>
+      <c r="BL134">
+        <v>2.05</v>
+      </c>
+      <c r="BM134">
+        <v>2.05</v>
+      </c>
+      <c r="BN134">
+        <v>1.7</v>
+      </c>
+      <c r="BO134">
+        <v>2.6</v>
+      </c>
+      <c r="BP134">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7373310</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45477.83333333334</v>
+      </c>
+      <c r="F135">
+        <v>14</v>
+      </c>
+      <c r="G135" t="s">
+        <v>75</v>
+      </c>
+      <c r="H135" t="s">
+        <v>79</v>
+      </c>
+      <c r="I135">
+        <v>2</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+      <c r="K135">
+        <v>3</v>
+      </c>
+      <c r="L135">
+        <v>3</v>
+      </c>
+      <c r="M135">
+        <v>2</v>
+      </c>
+      <c r="N135">
+        <v>5</v>
+      </c>
+      <c r="O135" t="s">
+        <v>187</v>
+      </c>
+      <c r="P135" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q135">
+        <v>2.5</v>
+      </c>
+      <c r="R135">
+        <v>2.05</v>
+      </c>
+      <c r="S135">
+        <v>5</v>
+      </c>
+      <c r="T135">
+        <v>1.44</v>
+      </c>
+      <c r="U135">
+        <v>2.63</v>
+      </c>
+      <c r="V135">
+        <v>3.25</v>
+      </c>
+      <c r="W135">
+        <v>1.33</v>
+      </c>
+      <c r="X135">
+        <v>10</v>
+      </c>
+      <c r="Y135">
+        <v>1.06</v>
+      </c>
+      <c r="Z135">
+        <v>1.83</v>
+      </c>
+      <c r="AA135">
+        <v>3.25</v>
+      </c>
+      <c r="AB135">
+        <v>5</v>
+      </c>
+      <c r="AC135">
+        <v>1.08</v>
+      </c>
+      <c r="AD135">
+        <v>7.5</v>
+      </c>
+      <c r="AE135">
+        <v>1.4</v>
+      </c>
+      <c r="AF135">
+        <v>2.9</v>
+      </c>
+      <c r="AG135">
+        <v>2.3</v>
+      </c>
+      <c r="AH135">
+        <v>1.6</v>
+      </c>
+      <c r="AI135">
+        <v>2.05</v>
+      </c>
+      <c r="AJ135">
+        <v>1.7</v>
+      </c>
+      <c r="AK135">
+        <v>1.18</v>
+      </c>
+      <c r="AL135">
+        <v>1.25</v>
+      </c>
+      <c r="AM135">
+        <v>1.95</v>
+      </c>
+      <c r="AN135">
+        <v>1.17</v>
+      </c>
+      <c r="AO135">
+        <v>0.83</v>
+      </c>
+      <c r="AP135">
+        <v>1.43</v>
+      </c>
+      <c r="AQ135">
+        <v>0.71</v>
+      </c>
+      <c r="AR135">
+        <v>1.8</v>
+      </c>
+      <c r="AS135">
+        <v>1.33</v>
+      </c>
+      <c r="AT135">
+        <v>3.13</v>
+      </c>
+      <c r="AU135">
+        <v>6</v>
+      </c>
+      <c r="AV135">
+        <v>7</v>
+      </c>
+      <c r="AW135">
+        <v>5</v>
+      </c>
+      <c r="AX135">
+        <v>7</v>
+      </c>
+      <c r="AY135">
+        <v>11</v>
+      </c>
+      <c r="AZ135">
+        <v>14</v>
+      </c>
+      <c r="BA135">
+        <v>9</v>
+      </c>
+      <c r="BB135">
+        <v>9</v>
+      </c>
+      <c r="BC135">
+        <v>18</v>
+      </c>
+      <c r="BD135">
+        <v>1.67</v>
+      </c>
+      <c r="BE135">
+        <v>9.5</v>
+      </c>
+      <c r="BF135">
+        <v>2.74</v>
+      </c>
+      <c r="BG135">
+        <v>1.17</v>
+      </c>
+      <c r="BH135">
+        <v>4.25</v>
+      </c>
+      <c r="BI135">
+        <v>1.34</v>
+      </c>
+      <c r="BJ135">
+        <v>2.88</v>
+      </c>
+      <c r="BK135">
+        <v>2</v>
+      </c>
+      <c r="BL135">
+        <v>2.15</v>
+      </c>
+      <c r="BM135">
+        <v>1.95</v>
+      </c>
+      <c r="BN135">
+        <v>1.77</v>
+      </c>
+      <c r="BO135">
+        <v>2.55</v>
+      </c>
+      <c r="BP135">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7373308</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45477.83333333334</v>
+      </c>
+      <c r="F136">
+        <v>14</v>
+      </c>
+      <c r="G136" t="s">
+        <v>72</v>
+      </c>
+      <c r="H136" t="s">
+        <v>70</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>2</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>2</v>
+      </c>
+      <c r="O136" t="s">
+        <v>188</v>
+      </c>
+      <c r="P136" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q136">
+        <v>3.6</v>
+      </c>
+      <c r="R136">
+        <v>1.95</v>
+      </c>
+      <c r="S136">
+        <v>3.5</v>
+      </c>
+      <c r="T136">
+        <v>1.5</v>
+      </c>
+      <c r="U136">
+        <v>2.5</v>
+      </c>
+      <c r="V136">
+        <v>3.4</v>
+      </c>
+      <c r="W136">
+        <v>1.3</v>
+      </c>
+      <c r="X136">
+        <v>10</v>
+      </c>
+      <c r="Y136">
+        <v>1.06</v>
+      </c>
+      <c r="Z136">
+        <v>2.75</v>
+      </c>
+      <c r="AA136">
+        <v>3.1</v>
+      </c>
+      <c r="AB136">
+        <v>2.7</v>
+      </c>
+      <c r="AC136">
+        <v>1.08</v>
+      </c>
+      <c r="AD136">
+        <v>8.5</v>
+      </c>
+      <c r="AE136">
+        <v>1.42</v>
+      </c>
+      <c r="AF136">
+        <v>2.9</v>
+      </c>
+      <c r="AG136">
+        <v>2.5</v>
+      </c>
+      <c r="AH136">
+        <v>1.5</v>
+      </c>
+      <c r="AI136">
+        <v>2.05</v>
+      </c>
+      <c r="AJ136">
+        <v>1.7</v>
+      </c>
+      <c r="AK136">
+        <v>1.5</v>
+      </c>
+      <c r="AL136">
+        <v>1.3</v>
+      </c>
+      <c r="AM136">
+        <v>1.45</v>
+      </c>
+      <c r="AN136">
+        <v>0.86</v>
+      </c>
+      <c r="AO136">
+        <v>1.67</v>
+      </c>
+      <c r="AP136">
+        <v>0.88</v>
+      </c>
+      <c r="AQ136">
+        <v>1.57</v>
+      </c>
+      <c r="AR136">
+        <v>1.48</v>
+      </c>
+      <c r="AS136">
+        <v>1.15</v>
+      </c>
+      <c r="AT136">
+        <v>2.63</v>
+      </c>
+      <c r="AU136">
+        <v>4</v>
+      </c>
+      <c r="AV136">
+        <v>5</v>
+      </c>
+      <c r="AW136">
+        <v>4</v>
+      </c>
+      <c r="AX136">
+        <v>3</v>
+      </c>
+      <c r="AY136">
+        <v>8</v>
+      </c>
+      <c r="AZ136">
+        <v>8</v>
+      </c>
+      <c r="BA136">
+        <v>3</v>
+      </c>
+      <c r="BB136">
+        <v>4</v>
+      </c>
+      <c r="BC136">
+        <v>7</v>
+      </c>
+      <c r="BD136">
+        <v>1.97</v>
+      </c>
+      <c r="BE136">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF136">
+        <v>2.2</v>
+      </c>
+      <c r="BG136">
+        <v>1.29</v>
+      </c>
+      <c r="BH136">
+        <v>3.4</v>
+      </c>
+      <c r="BI136">
+        <v>1.5</v>
+      </c>
+      <c r="BJ136">
+        <v>2.45</v>
+      </c>
+      <c r="BK136">
+        <v>2.38</v>
+      </c>
+      <c r="BL136">
+        <v>1.85</v>
+      </c>
+      <c r="BM136">
+        <v>2.35</v>
+      </c>
+      <c r="BN136">
+        <v>1.55</v>
+      </c>
+      <c r="BO136">
+        <v>3</v>
+      </c>
+      <c r="BP136">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="258">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -583,6 +583,36 @@
     <t>['45+4']</t>
   </si>
   <si>
+    <t>['66', '90']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>['6', '45+5', '48']</t>
+  </si>
+  <si>
+    <t>['56']</t>
+  </si>
+  <si>
+    <t>['25', '32', '83']</t>
+  </si>
+  <si>
+    <t>['80']</t>
+  </si>
+  <si>
+    <t>['31', '37']</t>
+  </si>
+  <si>
+    <t>['45+3', '61']</t>
+  </si>
+  <si>
+    <t>['48']</t>
+  </si>
+  <si>
+    <t>['13', '79', '90+4']</t>
+  </si>
+  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -667,9 +697,6 @@
     <t>['42', '69']</t>
   </si>
   <si>
-    <t>['60']</t>
-  </si>
-  <si>
     <t>['67', '90+2']</t>
   </si>
   <si>
@@ -739,9 +766,6 @@
     <t>['75']</t>
   </si>
   <si>
-    <t>['80']</t>
-  </si>
-  <si>
     <t>['5', '76']</t>
   </si>
   <si>
@@ -755,6 +779,15 @@
   </si>
   <si>
     <t>['37', '86']</t>
+  </si>
+  <si>
+    <t>['61', '72']</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>['50', '78']</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1149,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP136"/>
+  <dimension ref="A1:BP146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1375,7 +1408,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1453,10 +1486,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ2">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1581,7 +1614,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1787,7 +1820,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -1868,7 +1901,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ4">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1993,7 +2026,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -2071,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ5">
         <v>0.83</v>
@@ -2199,7 +2232,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2280,7 +2313,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ6">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2486,7 +2519,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ7">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2692,7 +2725,7 @@
         <v>2</v>
       </c>
       <c r="AQ8">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2817,7 +2850,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2895,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ9">
         <v>1.88</v>
@@ -3023,7 +3056,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3229,7 +3262,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3307,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ11">
         <v>2</v>
@@ -3435,7 +3468,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3722,7 +3755,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ13">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3928,7 +3961,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4053,7 +4086,7 @@
         <v>102</v>
       </c>
       <c r="P15" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="Q15">
         <v>2.75</v>
@@ -4131,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ15">
         <v>0.63</v>
@@ -4337,7 +4370,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
         <v>1.57</v>
@@ -4543,10 +4576,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ17">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4752,7 +4785,7 @@
         <v>1</v>
       </c>
       <c r="AQ18">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4955,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ19">
         <v>1.57</v>
@@ -5161,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ20">
         <v>1.13</v>
@@ -5370,7 +5403,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ21">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AR21">
         <v>2.75</v>
@@ -5576,7 +5609,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ22">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR22">
         <v>1.76</v>
@@ -5782,7 +5815,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ23">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR23">
         <v>1.64</v>
@@ -6191,7 +6224,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
         <v>1.88</v>
@@ -6525,7 +6558,7 @@
         <v>112</v>
       </c>
       <c r="P27" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -6603,10 +6636,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ27">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR27">
         <v>1.33</v>
@@ -6731,7 +6764,7 @@
         <v>95</v>
       </c>
       <c r="P28" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6809,7 +6842,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ28">
         <v>1.57</v>
@@ -6937,7 +6970,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="Q29">
         <v>2.38</v>
@@ -7015,7 +7048,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ29">
         <v>0.29</v>
@@ -7143,7 +7176,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7224,7 +7257,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ30">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR30">
         <v>1.35</v>
@@ -7349,7 +7382,7 @@
         <v>95</v>
       </c>
       <c r="P31" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7430,7 +7463,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ31">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR31">
         <v>0</v>
@@ -7636,7 +7669,7 @@
         <v>3</v>
       </c>
       <c r="AQ32">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR32">
         <v>1.55</v>
@@ -7761,7 +7794,7 @@
         <v>95</v>
       </c>
       <c r="P33" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7839,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ33">
         <v>1.75</v>
@@ -7967,7 +8000,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="Q34">
         <v>2.25</v>
@@ -8457,10 +8490,10 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ36">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR36">
         <v>1.19</v>
@@ -8585,7 +8618,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8663,10 +8696,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ37">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR37">
         <v>1.65</v>
@@ -8791,7 +8824,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -8869,7 +8902,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ38">
         <v>1.13</v>
@@ -9075,7 +9108,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ39">
         <v>2</v>
@@ -9203,7 +9236,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9284,7 +9317,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ40">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR40">
         <v>2.22</v>
@@ -9821,7 +9854,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -9899,7 +9932,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ43">
         <v>1.57</v>
@@ -10108,7 +10141,7 @@
         <v>2</v>
       </c>
       <c r="AQ44">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AR44">
         <v>1.32</v>
@@ -10233,7 +10266,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10311,10 +10344,10 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ45">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR45">
         <v>1.46</v>
@@ -10439,7 +10472,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10723,10 +10756,10 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ47">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR47">
         <v>1.36</v>
@@ -10851,7 +10884,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="Q48">
         <v>3.6</v>
@@ -10929,7 +10962,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ48">
         <v>0.63</v>
@@ -11135,7 +11168,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ49">
         <v>1.75</v>
@@ -11263,7 +11296,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="Q50">
         <v>2.38</v>
@@ -11341,10 +11374,10 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ50">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR50">
         <v>1.23</v>
@@ -11469,7 +11502,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="Q51">
         <v>2.38</v>
@@ -11756,7 +11789,7 @@
         <v>3</v>
       </c>
       <c r="AQ52">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR52">
         <v>1.45</v>
@@ -11881,7 +11914,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="Q53">
         <v>2.38</v>
@@ -11959,7 +11992,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ53">
         <v>0</v>
@@ -12087,7 +12120,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -12168,7 +12201,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ54">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR54">
         <v>1.51</v>
@@ -12293,7 +12326,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -12371,7 +12404,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ55">
         <v>1.13</v>
@@ -12911,7 +12944,7 @@
         <v>95</v>
       </c>
       <c r="P58" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -13117,7 +13150,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="Q59">
         <v>4.75</v>
@@ -13323,7 +13356,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13404,7 +13437,7 @@
         <v>1</v>
       </c>
       <c r="AQ60">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR60">
         <v>1.55</v>
@@ -13529,7 +13562,7 @@
         <v>117</v>
       </c>
       <c r="P61" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="Q61">
         <v>5.5</v>
@@ -13813,10 +13846,10 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ62">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR62">
         <v>1.4</v>
@@ -14019,7 +14052,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ63">
         <v>0.63</v>
@@ -14225,7 +14258,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ64">
         <v>1.13</v>
@@ -14559,7 +14592,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14640,7 +14673,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ66">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR66">
         <v>1.13</v>
@@ -14843,7 +14876,7 @@
         <v>0.33</v>
       </c>
       <c r="AP67">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ67">
         <v>0.71</v>
@@ -14971,7 +15004,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15049,10 +15082,10 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ68">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR68">
         <v>1.17</v>
@@ -15255,7 +15288,7 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ69">
         <v>0</v>
@@ -15383,7 +15416,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15464,7 +15497,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ70">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR70">
         <v>1.37</v>
@@ -15589,7 +15622,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15670,7 +15703,7 @@
         <v>3</v>
       </c>
       <c r="AQ71">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR71">
         <v>1.56</v>
@@ -15876,7 +15909,7 @@
         <v>2</v>
       </c>
       <c r="AQ72">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR72">
         <v>1.66</v>
@@ -16079,7 +16112,7 @@
         <v>2</v>
       </c>
       <c r="AP73">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ73">
         <v>1.57</v>
@@ -16207,7 +16240,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16285,10 +16318,10 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ74">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR74">
         <v>1.61</v>
@@ -16491,10 +16524,10 @@
         <v>0</v>
       </c>
       <c r="AP75">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ75">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AR75">
         <v>1.45</v>
@@ -17031,7 +17064,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="Q78">
         <v>2.63</v>
@@ -17237,7 +17270,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -17315,7 +17348,7 @@
         <v>2</v>
       </c>
       <c r="AP79">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ79">
         <v>1.57</v>
@@ -17443,7 +17476,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17649,7 +17682,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -18061,7 +18094,7 @@
         <v>151</v>
       </c>
       <c r="P83" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -18473,7 +18506,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -18554,7 +18587,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ85">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR85">
         <v>1.49</v>
@@ -18679,7 +18712,7 @@
         <v>95</v>
       </c>
       <c r="P86" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -18885,7 +18918,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="Q87">
         <v>2.38</v>
@@ -18963,10 +18996,10 @@
         <v>1.33</v>
       </c>
       <c r="AP87">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ87">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR87">
         <v>1.45</v>
@@ -19091,7 +19124,7 @@
         <v>154</v>
       </c>
       <c r="P88" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19169,10 +19202,10 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ88">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR88">
         <v>1.66</v>
@@ -19375,10 +19408,10 @@
         <v>0</v>
       </c>
       <c r="AP89">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ89">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR89">
         <v>1.34</v>
@@ -19503,7 +19536,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -19581,10 +19614,10 @@
         <v>0.75</v>
       </c>
       <c r="AP90">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ90">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR90">
         <v>1.48</v>
@@ -19787,10 +19820,10 @@
         <v>0</v>
       </c>
       <c r="AP91">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ91">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AR91">
         <v>1.35</v>
@@ -19993,10 +20026,10 @@
         <v>0.25</v>
       </c>
       <c r="AP92">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ92">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR92">
         <v>1.69</v>
@@ -20327,7 +20360,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20405,10 +20438,10 @@
         <v>2</v>
       </c>
       <c r="AP94">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ94">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR94">
         <v>1.18</v>
@@ -20533,7 +20566,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -20611,10 +20644,10 @@
         <v>1.2</v>
       </c>
       <c r="AP95">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ95">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR95">
         <v>1.65</v>
@@ -20817,10 +20850,10 @@
         <v>1.25</v>
       </c>
       <c r="AP96">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ96">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR96">
         <v>1.68</v>
@@ -21151,7 +21184,7 @@
         <v>95</v>
       </c>
       <c r="P98" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="Q98">
         <v>3.5</v>
@@ -21769,7 +21802,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="Q101">
         <v>2.63</v>
@@ -21975,7 +22008,7 @@
         <v>95</v>
       </c>
       <c r="P102" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22262,7 +22295,7 @@
         <v>2</v>
       </c>
       <c r="AQ103">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR103">
         <v>1.66</v>
@@ -22387,7 +22420,7 @@
         <v>163</v>
       </c>
       <c r="P104" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="Q104">
         <v>1.83</v>
@@ -22465,7 +22498,7 @@
         <v>0.5</v>
       </c>
       <c r="AP104">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ104">
         <v>0.29</v>
@@ -23086,7 +23119,7 @@
         <v>3</v>
       </c>
       <c r="AQ107">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR107">
         <v>1.59</v>
@@ -23211,7 +23244,7 @@
         <v>167</v>
       </c>
       <c r="P108" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23289,10 +23322,10 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ108">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR108">
         <v>1.54</v>
@@ -23498,7 +23531,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ109">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR109">
         <v>1.71</v>
@@ -23701,7 +23734,7 @@
         <v>2</v>
       </c>
       <c r="AP110">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ110">
         <v>1.88</v>
@@ -23829,7 +23862,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -23907,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="AP111">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ111">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR111">
         <v>1.39</v>
@@ -24035,7 +24068,7 @@
         <v>138</v>
       </c>
       <c r="P112" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24113,10 +24146,10 @@
         <v>1.6</v>
       </c>
       <c r="AP112">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ112">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR112">
         <v>1.55</v>
@@ -24241,7 +24274,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -24322,7 +24355,7 @@
         <v>3</v>
       </c>
       <c r="AQ113">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AR113">
         <v>1.4</v>
@@ -24525,7 +24558,7 @@
         <v>2.6</v>
       </c>
       <c r="AP114">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ114">
         <v>2</v>
@@ -24653,7 +24686,7 @@
         <v>95</v>
       </c>
       <c r="P115" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -24937,10 +24970,10 @@
         <v>1.75</v>
       </c>
       <c r="AP116">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ116">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR116">
         <v>1.55</v>
@@ -25065,7 +25098,7 @@
         <v>93</v>
       </c>
       <c r="P117" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25352,7 +25385,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ118">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR118">
         <v>1.17</v>
@@ -25967,10 +26000,10 @@
         <v>1</v>
       </c>
       <c r="AP121">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ121">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR121">
         <v>1.52</v>
@@ -26095,7 +26128,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="Q122">
         <v>2.3</v>
@@ -26173,7 +26206,7 @@
         <v>0.4</v>
       </c>
       <c r="AP122">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ122">
         <v>0.29</v>
@@ -26301,7 +26334,7 @@
         <v>95</v>
       </c>
       <c r="P123" t="s">
-        <v>241</v>
+        <v>194</v>
       </c>
       <c r="Q123">
         <v>3.1</v>
@@ -26379,10 +26412,10 @@
         <v>0.83</v>
       </c>
       <c r="AP123">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ123">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR123">
         <v>1.22</v>
@@ -26585,7 +26618,7 @@
         <v>0.83</v>
       </c>
       <c r="AP124">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ124">
         <v>0.63</v>
@@ -26997,10 +27030,10 @@
         <v>0.33</v>
       </c>
       <c r="AP126">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ126">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR126">
         <v>1.89</v>
@@ -27125,7 +27158,7 @@
         <v>132</v>
       </c>
       <c r="P127" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="Q127">
         <v>3.6</v>
@@ -27743,7 +27776,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -27949,7 +27982,7 @@
         <v>134</v>
       </c>
       <c r="P131" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="Q131">
         <v>3.2</v>
@@ -28155,7 +28188,7 @@
         <v>184</v>
       </c>
       <c r="P132" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28567,7 +28600,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -28773,7 +28806,7 @@
         <v>187</v>
       </c>
       <c r="P135" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -29136,6 +29169,2066 @@
       </c>
       <c r="BP136">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7373321</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45479.83333333334</v>
+      </c>
+      <c r="F137">
+        <v>15</v>
+      </c>
+      <c r="G137" t="s">
+        <v>73</v>
+      </c>
+      <c r="H137" t="s">
+        <v>82</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>2</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>2</v>
+      </c>
+      <c r="O137" t="s">
+        <v>189</v>
+      </c>
+      <c r="P137" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q137">
+        <v>2.63</v>
+      </c>
+      <c r="R137">
+        <v>2</v>
+      </c>
+      <c r="S137">
+        <v>4.75</v>
+      </c>
+      <c r="T137">
+        <v>1.44</v>
+      </c>
+      <c r="U137">
+        <v>2.63</v>
+      </c>
+      <c r="V137">
+        <v>3</v>
+      </c>
+      <c r="W137">
+        <v>1.36</v>
+      </c>
+      <c r="X137">
+        <v>9</v>
+      </c>
+      <c r="Y137">
+        <v>1.07</v>
+      </c>
+      <c r="Z137">
+        <v>1.95</v>
+      </c>
+      <c r="AA137">
+        <v>3.4</v>
+      </c>
+      <c r="AB137">
+        <v>4</v>
+      </c>
+      <c r="AC137">
+        <v>1.05</v>
+      </c>
+      <c r="AD137">
+        <v>10</v>
+      </c>
+      <c r="AE137">
+        <v>1.36</v>
+      </c>
+      <c r="AF137">
+        <v>3.1</v>
+      </c>
+      <c r="AG137">
+        <v>2.3</v>
+      </c>
+      <c r="AH137">
+        <v>1.6</v>
+      </c>
+      <c r="AI137">
+        <v>2.05</v>
+      </c>
+      <c r="AJ137">
+        <v>1.7</v>
+      </c>
+      <c r="AK137">
+        <v>1.22</v>
+      </c>
+      <c r="AL137">
+        <v>1.25</v>
+      </c>
+      <c r="AM137">
+        <v>2</v>
+      </c>
+      <c r="AN137">
+        <v>1.86</v>
+      </c>
+      <c r="AO137">
+        <v>0.86</v>
+      </c>
+      <c r="AP137">
+        <v>2</v>
+      </c>
+      <c r="AQ137">
+        <v>0.75</v>
+      </c>
+      <c r="AR137">
+        <v>1.5</v>
+      </c>
+      <c r="AS137">
+        <v>1.48</v>
+      </c>
+      <c r="AT137">
+        <v>2.98</v>
+      </c>
+      <c r="AU137">
+        <v>5</v>
+      </c>
+      <c r="AV137">
+        <v>4</v>
+      </c>
+      <c r="AW137">
+        <v>3</v>
+      </c>
+      <c r="AX137">
+        <v>5</v>
+      </c>
+      <c r="AY137">
+        <v>8</v>
+      </c>
+      <c r="AZ137">
+        <v>9</v>
+      </c>
+      <c r="BA137">
+        <v>6</v>
+      </c>
+      <c r="BB137">
+        <v>3</v>
+      </c>
+      <c r="BC137">
+        <v>9</v>
+      </c>
+      <c r="BD137">
+        <v>1.59</v>
+      </c>
+      <c r="BE137">
+        <v>9.5</v>
+      </c>
+      <c r="BF137">
+        <v>2.98</v>
+      </c>
+      <c r="BG137">
+        <v>1.18</v>
+      </c>
+      <c r="BH137">
+        <v>4.33</v>
+      </c>
+      <c r="BI137">
+        <v>1.33</v>
+      </c>
+      <c r="BJ137">
+        <v>3</v>
+      </c>
+      <c r="BK137">
+        <v>1.83</v>
+      </c>
+      <c r="BL137">
+        <v>2.47</v>
+      </c>
+      <c r="BM137">
+        <v>1.95</v>
+      </c>
+      <c r="BN137">
+        <v>1.85</v>
+      </c>
+      <c r="BO137">
+        <v>2.35</v>
+      </c>
+      <c r="BP137">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7373318</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45479.83333333334</v>
+      </c>
+      <c r="F138">
+        <v>15</v>
+      </c>
+      <c r="G138" t="s">
+        <v>87</v>
+      </c>
+      <c r="H138" t="s">
+        <v>89</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <v>1</v>
+      </c>
+      <c r="N138">
+        <v>2</v>
+      </c>
+      <c r="O138" t="s">
+        <v>190</v>
+      </c>
+      <c r="P138" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q138">
+        <v>2</v>
+      </c>
+      <c r="R138">
+        <v>2.25</v>
+      </c>
+      <c r="S138">
+        <v>7.5</v>
+      </c>
+      <c r="T138">
+        <v>1.33</v>
+      </c>
+      <c r="U138">
+        <v>3.25</v>
+      </c>
+      <c r="V138">
+        <v>2.63</v>
+      </c>
+      <c r="W138">
+        <v>1.44</v>
+      </c>
+      <c r="X138">
+        <v>6.5</v>
+      </c>
+      <c r="Y138">
+        <v>1.11</v>
+      </c>
+      <c r="Z138">
+        <v>1.42</v>
+      </c>
+      <c r="AA138">
+        <v>4.33</v>
+      </c>
+      <c r="AB138">
+        <v>7.5</v>
+      </c>
+      <c r="AC138">
+        <v>1.03</v>
+      </c>
+      <c r="AD138">
+        <v>13</v>
+      </c>
+      <c r="AE138">
+        <v>1.22</v>
+      </c>
+      <c r="AF138">
+        <v>4.2</v>
+      </c>
+      <c r="AG138">
+        <v>2</v>
+      </c>
+      <c r="AH138">
+        <v>1.8</v>
+      </c>
+      <c r="AI138">
+        <v>2.2</v>
+      </c>
+      <c r="AJ138">
+        <v>1.62</v>
+      </c>
+      <c r="AK138">
+        <v>1.06</v>
+      </c>
+      <c r="AL138">
+        <v>1.14</v>
+      </c>
+      <c r="AM138">
+        <v>3.1</v>
+      </c>
+      <c r="AN138">
+        <v>2.5</v>
+      </c>
+      <c r="AO138">
+        <v>1.17</v>
+      </c>
+      <c r="AP138">
+        <v>2.29</v>
+      </c>
+      <c r="AQ138">
+        <v>1.14</v>
+      </c>
+      <c r="AR138">
+        <v>1.48</v>
+      </c>
+      <c r="AS138">
+        <v>1.21</v>
+      </c>
+      <c r="AT138">
+        <v>2.69</v>
+      </c>
+      <c r="AU138">
+        <v>11</v>
+      </c>
+      <c r="AV138">
+        <v>4</v>
+      </c>
+      <c r="AW138">
+        <v>6</v>
+      </c>
+      <c r="AX138">
+        <v>4</v>
+      </c>
+      <c r="AY138">
+        <v>17</v>
+      </c>
+      <c r="AZ138">
+        <v>8</v>
+      </c>
+      <c r="BA138">
+        <v>7</v>
+      </c>
+      <c r="BB138">
+        <v>0</v>
+      </c>
+      <c r="BC138">
+        <v>7</v>
+      </c>
+      <c r="BD138">
+        <v>1.27</v>
+      </c>
+      <c r="BE138">
+        <v>14</v>
+      </c>
+      <c r="BF138">
+        <v>4.77</v>
+      </c>
+      <c r="BG138">
+        <v>1.17</v>
+      </c>
+      <c r="BH138">
+        <v>4.5</v>
+      </c>
+      <c r="BI138">
+        <v>1.3</v>
+      </c>
+      <c r="BJ138">
+        <v>3.2</v>
+      </c>
+      <c r="BK138">
+        <v>1.83</v>
+      </c>
+      <c r="BL138">
+        <v>2.52</v>
+      </c>
+      <c r="BM138">
+        <v>1.8</v>
+      </c>
+      <c r="BN138">
+        <v>1.9</v>
+      </c>
+      <c r="BO138">
+        <v>2.27</v>
+      </c>
+      <c r="BP138">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7373316</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45480.66666666666</v>
+      </c>
+      <c r="F139">
+        <v>15</v>
+      </c>
+      <c r="G139" t="s">
+        <v>78</v>
+      </c>
+      <c r="H139" t="s">
+        <v>75</v>
+      </c>
+      <c r="I139">
+        <v>2</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>2</v>
+      </c>
+      <c r="L139">
+        <v>3</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>3</v>
+      </c>
+      <c r="O139" t="s">
+        <v>191</v>
+      </c>
+      <c r="P139" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q139">
+        <v>2.38</v>
+      </c>
+      <c r="R139">
+        <v>2.1</v>
+      </c>
+      <c r="S139">
+        <v>6</v>
+      </c>
+      <c r="T139">
+        <v>1.44</v>
+      </c>
+      <c r="U139">
+        <v>2.63</v>
+      </c>
+      <c r="V139">
+        <v>3.4</v>
+      </c>
+      <c r="W139">
+        <v>1.3</v>
+      </c>
+      <c r="X139">
+        <v>10</v>
+      </c>
+      <c r="Y139">
+        <v>1.06</v>
+      </c>
+      <c r="Z139">
+        <v>1.8</v>
+      </c>
+      <c r="AA139">
+        <v>3.3</v>
+      </c>
+      <c r="AB139">
+        <v>4.5</v>
+      </c>
+      <c r="AC139">
+        <v>1.07</v>
+      </c>
+      <c r="AD139">
+        <v>9</v>
+      </c>
+      <c r="AE139">
+        <v>1.4</v>
+      </c>
+      <c r="AF139">
+        <v>2.95</v>
+      </c>
+      <c r="AG139">
+        <v>2.1</v>
+      </c>
+      <c r="AH139">
+        <v>1.65</v>
+      </c>
+      <c r="AI139">
+        <v>2.1</v>
+      </c>
+      <c r="AJ139">
+        <v>1.67</v>
+      </c>
+      <c r="AK139">
+        <v>1.16</v>
+      </c>
+      <c r="AL139">
+        <v>1.22</v>
+      </c>
+      <c r="AM139">
+        <v>2.2</v>
+      </c>
+      <c r="AN139">
+        <v>3</v>
+      </c>
+      <c r="AO139">
+        <v>0.29</v>
+      </c>
+      <c r="AP139">
+        <v>3</v>
+      </c>
+      <c r="AQ139">
+        <v>0.25</v>
+      </c>
+      <c r="AR139">
+        <v>1.67</v>
+      </c>
+      <c r="AS139">
+        <v>1.31</v>
+      </c>
+      <c r="AT139">
+        <v>2.98</v>
+      </c>
+      <c r="AU139">
+        <v>7</v>
+      </c>
+      <c r="AV139">
+        <v>3</v>
+      </c>
+      <c r="AW139">
+        <v>4</v>
+      </c>
+      <c r="AX139">
+        <v>8</v>
+      </c>
+      <c r="AY139">
+        <v>11</v>
+      </c>
+      <c r="AZ139">
+        <v>11</v>
+      </c>
+      <c r="BA139">
+        <v>8</v>
+      </c>
+      <c r="BB139">
+        <v>8</v>
+      </c>
+      <c r="BC139">
+        <v>16</v>
+      </c>
+      <c r="BD139">
+        <v>1.36</v>
+      </c>
+      <c r="BE139">
+        <v>10.5</v>
+      </c>
+      <c r="BF139">
+        <v>4.19</v>
+      </c>
+      <c r="BG139">
+        <v>1.12</v>
+      </c>
+      <c r="BH139">
+        <v>4.9</v>
+      </c>
+      <c r="BI139">
+        <v>1.27</v>
+      </c>
+      <c r="BJ139">
+        <v>3.28</v>
+      </c>
+      <c r="BK139">
+        <v>1.91</v>
+      </c>
+      <c r="BL139">
+        <v>2.41</v>
+      </c>
+      <c r="BM139">
+        <v>2</v>
+      </c>
+      <c r="BN139">
+        <v>1.8</v>
+      </c>
+      <c r="BO139">
+        <v>2.34</v>
+      </c>
+      <c r="BP139">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7373322</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45480.66666666666</v>
+      </c>
+      <c r="F140">
+        <v>15</v>
+      </c>
+      <c r="G140" t="s">
+        <v>83</v>
+      </c>
+      <c r="H140" t="s">
+        <v>72</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>1</v>
+      </c>
+      <c r="O140" t="s">
+        <v>192</v>
+      </c>
+      <c r="P140" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q140">
+        <v>2.38</v>
+      </c>
+      <c r="R140">
+        <v>2.1</v>
+      </c>
+      <c r="S140">
+        <v>5.5</v>
+      </c>
+      <c r="T140">
+        <v>1.44</v>
+      </c>
+      <c r="U140">
+        <v>2.63</v>
+      </c>
+      <c r="V140">
+        <v>3.4</v>
+      </c>
+      <c r="W140">
+        <v>1.3</v>
+      </c>
+      <c r="X140">
+        <v>10</v>
+      </c>
+      <c r="Y140">
+        <v>1.06</v>
+      </c>
+      <c r="Z140">
+        <v>1.75</v>
+      </c>
+      <c r="AA140">
+        <v>3.4</v>
+      </c>
+      <c r="AB140">
+        <v>4.33</v>
+      </c>
+      <c r="AC140">
+        <v>1.06</v>
+      </c>
+      <c r="AD140">
+        <v>9.5</v>
+      </c>
+      <c r="AE140">
+        <v>1.4</v>
+      </c>
+      <c r="AF140">
+        <v>2.9</v>
+      </c>
+      <c r="AG140">
+        <v>2.1</v>
+      </c>
+      <c r="AH140">
+        <v>1.65</v>
+      </c>
+      <c r="AI140">
+        <v>2</v>
+      </c>
+      <c r="AJ140">
+        <v>1.75</v>
+      </c>
+      <c r="AK140">
+        <v>1.2</v>
+      </c>
+      <c r="AL140">
+        <v>1.22</v>
+      </c>
+      <c r="AM140">
+        <v>2</v>
+      </c>
+      <c r="AN140">
+        <v>2.14</v>
+      </c>
+      <c r="AO140">
+        <v>0</v>
+      </c>
+      <c r="AP140">
+        <v>2.25</v>
+      </c>
+      <c r="AQ140">
+        <v>0</v>
+      </c>
+      <c r="AR140">
+        <v>1.39</v>
+      </c>
+      <c r="AS140">
+        <v>0.98</v>
+      </c>
+      <c r="AT140">
+        <v>2.37</v>
+      </c>
+      <c r="AU140">
+        <v>7</v>
+      </c>
+      <c r="AV140">
+        <v>4</v>
+      </c>
+      <c r="AW140">
+        <v>9</v>
+      </c>
+      <c r="AX140">
+        <v>7</v>
+      </c>
+      <c r="AY140">
+        <v>16</v>
+      </c>
+      <c r="AZ140">
+        <v>11</v>
+      </c>
+      <c r="BA140">
+        <v>12</v>
+      </c>
+      <c r="BB140">
+        <v>3</v>
+      </c>
+      <c r="BC140">
+        <v>15</v>
+      </c>
+      <c r="BD140">
+        <v>1.57</v>
+      </c>
+      <c r="BE140">
+        <v>10.5</v>
+      </c>
+      <c r="BF140">
+        <v>2.97</v>
+      </c>
+      <c r="BG140">
+        <v>1.14</v>
+      </c>
+      <c r="BH140">
+        <v>4.6</v>
+      </c>
+      <c r="BI140">
+        <v>1.3</v>
+      </c>
+      <c r="BJ140">
+        <v>3.08</v>
+      </c>
+      <c r="BK140">
+        <v>2</v>
+      </c>
+      <c r="BL140">
+        <v>2</v>
+      </c>
+      <c r="BM140">
+        <v>1.93</v>
+      </c>
+      <c r="BN140">
+        <v>1.81</v>
+      </c>
+      <c r="BO140">
+        <v>2.46</v>
+      </c>
+      <c r="BP140">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>7373324</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45480.66666666666</v>
+      </c>
+      <c r="F141">
+        <v>15</v>
+      </c>
+      <c r="G141" t="s">
+        <v>85</v>
+      </c>
+      <c r="H141" t="s">
+        <v>81</v>
+      </c>
+      <c r="I141">
+        <v>2</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>2</v>
+      </c>
+      <c r="L141">
+        <v>3</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>3</v>
+      </c>
+      <c r="O141" t="s">
+        <v>193</v>
+      </c>
+      <c r="P141" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q141">
+        <v>3.25</v>
+      </c>
+      <c r="R141">
+        <v>2</v>
+      </c>
+      <c r="S141">
+        <v>3.6</v>
+      </c>
+      <c r="T141">
+        <v>1.5</v>
+      </c>
+      <c r="U141">
+        <v>2.5</v>
+      </c>
+      <c r="V141">
+        <v>3.5</v>
+      </c>
+      <c r="W141">
+        <v>1.29</v>
+      </c>
+      <c r="X141">
+        <v>11</v>
+      </c>
+      <c r="Y141">
+        <v>1.05</v>
+      </c>
+      <c r="Z141">
+        <v>2.38</v>
+      </c>
+      <c r="AA141">
+        <v>3</v>
+      </c>
+      <c r="AB141">
+        <v>3</v>
+      </c>
+      <c r="AC141">
+        <v>1.08</v>
+      </c>
+      <c r="AD141">
+        <v>8.5</v>
+      </c>
+      <c r="AE141">
+        <v>1.45</v>
+      </c>
+      <c r="AF141">
+        <v>2.75</v>
+      </c>
+      <c r="AG141">
+        <v>2.3</v>
+      </c>
+      <c r="AH141">
+        <v>1.55</v>
+      </c>
+      <c r="AI141">
+        <v>1.95</v>
+      </c>
+      <c r="AJ141">
+        <v>1.8</v>
+      </c>
+      <c r="AK141">
+        <v>1.38</v>
+      </c>
+      <c r="AL141">
+        <v>1.28</v>
+      </c>
+      <c r="AM141">
+        <v>1.6</v>
+      </c>
+      <c r="AN141">
+        <v>2.33</v>
+      </c>
+      <c r="AO141">
+        <v>0.2</v>
+      </c>
+      <c r="AP141">
+        <v>2.43</v>
+      </c>
+      <c r="AQ141">
+        <v>0.17</v>
+      </c>
+      <c r="AR141">
+        <v>1.44</v>
+      </c>
+      <c r="AS141">
+        <v>1.14</v>
+      </c>
+      <c r="AT141">
+        <v>2.58</v>
+      </c>
+      <c r="AU141">
+        <v>7</v>
+      </c>
+      <c r="AV141">
+        <v>6</v>
+      </c>
+      <c r="AW141">
+        <v>6</v>
+      </c>
+      <c r="AX141">
+        <v>3</v>
+      </c>
+      <c r="AY141">
+        <v>13</v>
+      </c>
+      <c r="AZ141">
+        <v>9</v>
+      </c>
+      <c r="BA141">
+        <v>3</v>
+      </c>
+      <c r="BB141">
+        <v>8</v>
+      </c>
+      <c r="BC141">
+        <v>11</v>
+      </c>
+      <c r="BD141">
+        <v>1.67</v>
+      </c>
+      <c r="BE141">
+        <v>9.5</v>
+      </c>
+      <c r="BF141">
+        <v>2.74</v>
+      </c>
+      <c r="BG141">
+        <v>1.19</v>
+      </c>
+      <c r="BH141">
+        <v>3.92</v>
+      </c>
+      <c r="BI141">
+        <v>1.4</v>
+      </c>
+      <c r="BJ141">
+        <v>2.72</v>
+      </c>
+      <c r="BK141">
+        <v>2.2</v>
+      </c>
+      <c r="BL141">
+        <v>1.95</v>
+      </c>
+      <c r="BM141">
+        <v>2.14</v>
+      </c>
+      <c r="BN141">
+        <v>1.63</v>
+      </c>
+      <c r="BO141">
+        <v>2.79</v>
+      </c>
+      <c r="BP141">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7373315</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45480.75</v>
+      </c>
+      <c r="F142">
+        <v>15</v>
+      </c>
+      <c r="G142" t="s">
+        <v>70</v>
+      </c>
+      <c r="H142" t="s">
+        <v>74</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>2</v>
+      </c>
+      <c r="N142">
+        <v>3</v>
+      </c>
+      <c r="O142" t="s">
+        <v>194</v>
+      </c>
+      <c r="P142" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q142">
+        <v>2.38</v>
+      </c>
+      <c r="R142">
+        <v>2.05</v>
+      </c>
+      <c r="S142">
+        <v>6</v>
+      </c>
+      <c r="T142">
+        <v>1.44</v>
+      </c>
+      <c r="U142">
+        <v>2.63</v>
+      </c>
+      <c r="V142">
+        <v>3.25</v>
+      </c>
+      <c r="W142">
+        <v>1.33</v>
+      </c>
+      <c r="X142">
+        <v>9</v>
+      </c>
+      <c r="Y142">
+        <v>1.07</v>
+      </c>
+      <c r="Z142">
+        <v>1.7</v>
+      </c>
+      <c r="AA142">
+        <v>3.6</v>
+      </c>
+      <c r="AB142">
+        <v>5.5</v>
+      </c>
+      <c r="AC142">
+        <v>1.03</v>
+      </c>
+      <c r="AD142">
+        <v>8.5</v>
+      </c>
+      <c r="AE142">
+        <v>1.3</v>
+      </c>
+      <c r="AF142">
+        <v>3.2</v>
+      </c>
+      <c r="AG142">
+        <v>2.35</v>
+      </c>
+      <c r="AH142">
+        <v>1.57</v>
+      </c>
+      <c r="AI142">
+        <v>2.2</v>
+      </c>
+      <c r="AJ142">
+        <v>1.62</v>
+      </c>
+      <c r="AK142">
+        <v>1.11</v>
+      </c>
+      <c r="AL142">
+        <v>1.22</v>
+      </c>
+      <c r="AM142">
+        <v>2.25</v>
+      </c>
+      <c r="AN142">
+        <v>1.6</v>
+      </c>
+      <c r="AO142">
+        <v>0</v>
+      </c>
+      <c r="AP142">
+        <v>1.33</v>
+      </c>
+      <c r="AQ142">
+        <v>0.43</v>
+      </c>
+      <c r="AR142">
+        <v>1.54</v>
+      </c>
+      <c r="AS142">
+        <v>1.12</v>
+      </c>
+      <c r="AT142">
+        <v>2.66</v>
+      </c>
+      <c r="AU142">
+        <v>7</v>
+      </c>
+      <c r="AV142">
+        <v>7</v>
+      </c>
+      <c r="AW142">
+        <v>7</v>
+      </c>
+      <c r="AX142">
+        <v>3</v>
+      </c>
+      <c r="AY142">
+        <v>14</v>
+      </c>
+      <c r="AZ142">
+        <v>10</v>
+      </c>
+      <c r="BA142">
+        <v>4</v>
+      </c>
+      <c r="BB142">
+        <v>4</v>
+      </c>
+      <c r="BC142">
+        <v>8</v>
+      </c>
+      <c r="BD142">
+        <v>1.39</v>
+      </c>
+      <c r="BE142">
+        <v>9.9</v>
+      </c>
+      <c r="BF142">
+        <v>4</v>
+      </c>
+      <c r="BG142">
+        <v>1.19</v>
+      </c>
+      <c r="BH142">
+        <v>4</v>
+      </c>
+      <c r="BI142">
+        <v>1.38</v>
+      </c>
+      <c r="BJ142">
+        <v>2.8</v>
+      </c>
+      <c r="BK142">
+        <v>2.1</v>
+      </c>
+      <c r="BL142">
+        <v>2.09</v>
+      </c>
+      <c r="BM142">
+        <v>2.05</v>
+      </c>
+      <c r="BN142">
+        <v>1.7</v>
+      </c>
+      <c r="BO142">
+        <v>2.75</v>
+      </c>
+      <c r="BP142">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7373317</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45480.77083333334</v>
+      </c>
+      <c r="F143">
+        <v>15</v>
+      </c>
+      <c r="G143" t="s">
+        <v>79</v>
+      </c>
+      <c r="H143" t="s">
+        <v>71</v>
+      </c>
+      <c r="I143">
+        <v>2</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143">
+        <v>3</v>
+      </c>
+      <c r="L143">
+        <v>2</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143">
+        <v>3</v>
+      </c>
+      <c r="O143" t="s">
+        <v>195</v>
+      </c>
+      <c r="P143" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q143">
+        <v>2.88</v>
+      </c>
+      <c r="R143">
+        <v>2.05</v>
+      </c>
+      <c r="S143">
+        <v>4.33</v>
+      </c>
+      <c r="T143">
+        <v>1.4</v>
+      </c>
+      <c r="U143">
+        <v>2.75</v>
+      </c>
+      <c r="V143">
+        <v>3</v>
+      </c>
+      <c r="W143">
+        <v>1.36</v>
+      </c>
+      <c r="X143">
+        <v>8</v>
+      </c>
+      <c r="Y143">
+        <v>1.08</v>
+      </c>
+      <c r="Z143">
+        <v>2.1</v>
+      </c>
+      <c r="AA143">
+        <v>3.1</v>
+      </c>
+      <c r="AB143">
+        <v>3.8</v>
+      </c>
+      <c r="AC143">
+        <v>1.07</v>
+      </c>
+      <c r="AD143">
+        <v>9</v>
+      </c>
+      <c r="AE143">
+        <v>1.4</v>
+      </c>
+      <c r="AF143">
+        <v>2.95</v>
+      </c>
+      <c r="AG143">
+        <v>2.2</v>
+      </c>
+      <c r="AH143">
+        <v>1.65</v>
+      </c>
+      <c r="AI143">
+        <v>1.95</v>
+      </c>
+      <c r="AJ143">
+        <v>1.8</v>
+      </c>
+      <c r="AK143">
+        <v>1.29</v>
+      </c>
+      <c r="AL143">
+        <v>1.36</v>
+      </c>
+      <c r="AM143">
+        <v>1.82</v>
+      </c>
+      <c r="AN143">
+        <v>1</v>
+      </c>
+      <c r="AO143">
+        <v>1.4</v>
+      </c>
+      <c r="AP143">
+        <v>1.25</v>
+      </c>
+      <c r="AQ143">
+        <v>1.17</v>
+      </c>
+      <c r="AR143">
+        <v>1.23</v>
+      </c>
+      <c r="AS143">
+        <v>1.3</v>
+      </c>
+      <c r="AT143">
+        <v>2.53</v>
+      </c>
+      <c r="AU143">
+        <v>4</v>
+      </c>
+      <c r="AV143">
+        <v>4</v>
+      </c>
+      <c r="AW143">
+        <v>4</v>
+      </c>
+      <c r="AX143">
+        <v>5</v>
+      </c>
+      <c r="AY143">
+        <v>8</v>
+      </c>
+      <c r="AZ143">
+        <v>9</v>
+      </c>
+      <c r="BA143">
+        <v>6</v>
+      </c>
+      <c r="BB143">
+        <v>3</v>
+      </c>
+      <c r="BC143">
+        <v>9</v>
+      </c>
+      <c r="BD143">
+        <v>1.51</v>
+      </c>
+      <c r="BE143">
+        <v>10.5</v>
+      </c>
+      <c r="BF143">
+        <v>3.2</v>
+      </c>
+      <c r="BG143">
+        <v>1.2</v>
+      </c>
+      <c r="BH143">
+        <v>3.88</v>
+      </c>
+      <c r="BI143">
+        <v>1.4</v>
+      </c>
+      <c r="BJ143">
+        <v>2.72</v>
+      </c>
+      <c r="BK143">
+        <v>2</v>
+      </c>
+      <c r="BL143">
+        <v>2.05</v>
+      </c>
+      <c r="BM143">
+        <v>2.16</v>
+      </c>
+      <c r="BN143">
+        <v>1.62</v>
+      </c>
+      <c r="BO143">
+        <v>2.84</v>
+      </c>
+      <c r="BP143">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7373320</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45480.77083333334</v>
+      </c>
+      <c r="F144">
+        <v>15</v>
+      </c>
+      <c r="G144" t="s">
+        <v>84</v>
+      </c>
+      <c r="H144" t="s">
+        <v>80</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>2</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>2</v>
+      </c>
+      <c r="O144" t="s">
+        <v>196</v>
+      </c>
+      <c r="P144" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q144">
+        <v>2.25</v>
+      </c>
+      <c r="R144">
+        <v>2.25</v>
+      </c>
+      <c r="S144">
+        <v>5.5</v>
+      </c>
+      <c r="T144">
+        <v>1.36</v>
+      </c>
+      <c r="U144">
+        <v>3</v>
+      </c>
+      <c r="V144">
+        <v>2.63</v>
+      </c>
+      <c r="W144">
+        <v>1.44</v>
+      </c>
+      <c r="X144">
+        <v>7</v>
+      </c>
+      <c r="Y144">
+        <v>1.1</v>
+      </c>
+      <c r="Z144">
+        <v>1.7</v>
+      </c>
+      <c r="AA144">
+        <v>4.2</v>
+      </c>
+      <c r="AB144">
+        <v>4.33</v>
+      </c>
+      <c r="AC144">
+        <v>1.04</v>
+      </c>
+      <c r="AD144">
+        <v>12</v>
+      </c>
+      <c r="AE144">
+        <v>1.28</v>
+      </c>
+      <c r="AF144">
+        <v>3.6</v>
+      </c>
+      <c r="AG144">
+        <v>1.65</v>
+      </c>
+      <c r="AH144">
+        <v>2.2</v>
+      </c>
+      <c r="AI144">
+        <v>1.67</v>
+      </c>
+      <c r="AJ144">
+        <v>2.1</v>
+      </c>
+      <c r="AK144">
+        <v>1.17</v>
+      </c>
+      <c r="AL144">
+        <v>1.28</v>
+      </c>
+      <c r="AM144">
+        <v>2.4</v>
+      </c>
+      <c r="AN144">
+        <v>1.86</v>
+      </c>
+      <c r="AO144">
+        <v>0.86</v>
+      </c>
+      <c r="AP144">
+        <v>2</v>
+      </c>
+      <c r="AQ144">
+        <v>0.75</v>
+      </c>
+      <c r="AR144">
+        <v>1.9</v>
+      </c>
+      <c r="AS144">
+        <v>1.39</v>
+      </c>
+      <c r="AT144">
+        <v>3.29</v>
+      </c>
+      <c r="AU144">
+        <v>5</v>
+      </c>
+      <c r="AV144">
+        <v>4</v>
+      </c>
+      <c r="AW144">
+        <v>6</v>
+      </c>
+      <c r="AX144">
+        <v>6</v>
+      </c>
+      <c r="AY144">
+        <v>11</v>
+      </c>
+      <c r="AZ144">
+        <v>10</v>
+      </c>
+      <c r="BA144">
+        <v>4</v>
+      </c>
+      <c r="BB144">
+        <v>3</v>
+      </c>
+      <c r="BC144">
+        <v>7</v>
+      </c>
+      <c r="BD144">
+        <v>1.44</v>
+      </c>
+      <c r="BE144">
+        <v>11.5</v>
+      </c>
+      <c r="BF144">
+        <v>3.5</v>
+      </c>
+      <c r="BG144">
+        <v>1.15</v>
+      </c>
+      <c r="BH144">
+        <v>4.45</v>
+      </c>
+      <c r="BI144">
+        <v>1.31</v>
+      </c>
+      <c r="BJ144">
+        <v>3.04</v>
+      </c>
+      <c r="BK144">
+        <v>1.91</v>
+      </c>
+      <c r="BL144">
+        <v>2.05</v>
+      </c>
+      <c r="BM144">
+        <v>1.91</v>
+      </c>
+      <c r="BN144">
+        <v>1.8</v>
+      </c>
+      <c r="BO144">
+        <v>2.52</v>
+      </c>
+      <c r="BP144">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7373323</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45480.77083333334</v>
+      </c>
+      <c r="F145">
+        <v>15</v>
+      </c>
+      <c r="G145" t="s">
+        <v>77</v>
+      </c>
+      <c r="H145" t="s">
+        <v>76</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>2</v>
+      </c>
+      <c r="N145">
+        <v>3</v>
+      </c>
+      <c r="O145" t="s">
+        <v>197</v>
+      </c>
+      <c r="P145" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q145">
+        <v>2.63</v>
+      </c>
+      <c r="R145">
+        <v>2.05</v>
+      </c>
+      <c r="S145">
+        <v>4.5</v>
+      </c>
+      <c r="T145">
+        <v>1.44</v>
+      </c>
+      <c r="U145">
+        <v>2.63</v>
+      </c>
+      <c r="V145">
+        <v>3.25</v>
+      </c>
+      <c r="W145">
+        <v>1.33</v>
+      </c>
+      <c r="X145">
+        <v>10</v>
+      </c>
+      <c r="Y145">
+        <v>1.06</v>
+      </c>
+      <c r="Z145">
+        <v>1.95</v>
+      </c>
+      <c r="AA145">
+        <v>3.3</v>
+      </c>
+      <c r="AB145">
+        <v>4.2</v>
+      </c>
+      <c r="AC145">
+        <v>1.08</v>
+      </c>
+      <c r="AD145">
+        <v>8.6</v>
+      </c>
+      <c r="AE145">
+        <v>1.42</v>
+      </c>
+      <c r="AF145">
+        <v>3.05</v>
+      </c>
+      <c r="AG145">
+        <v>2.15</v>
+      </c>
+      <c r="AH145">
+        <v>1.67</v>
+      </c>
+      <c r="AI145">
+        <v>1.95</v>
+      </c>
+      <c r="AJ145">
+        <v>1.8</v>
+      </c>
+      <c r="AK145">
+        <v>1.35</v>
+      </c>
+      <c r="AL145">
+        <v>1.28</v>
+      </c>
+      <c r="AM145">
+        <v>1.65</v>
+      </c>
+      <c r="AN145">
+        <v>0.33</v>
+      </c>
+      <c r="AO145">
+        <v>1.14</v>
+      </c>
+      <c r="AP145">
+        <v>0.29</v>
+      </c>
+      <c r="AQ145">
+        <v>1.38</v>
+      </c>
+      <c r="AR145">
+        <v>1.45</v>
+      </c>
+      <c r="AS145">
+        <v>1.21</v>
+      </c>
+      <c r="AT145">
+        <v>2.66</v>
+      </c>
+      <c r="AU145">
+        <v>4</v>
+      </c>
+      <c r="AV145">
+        <v>7</v>
+      </c>
+      <c r="AW145">
+        <v>5</v>
+      </c>
+      <c r="AX145">
+        <v>5</v>
+      </c>
+      <c r="AY145">
+        <v>9</v>
+      </c>
+      <c r="AZ145">
+        <v>12</v>
+      </c>
+      <c r="BA145">
+        <v>4</v>
+      </c>
+      <c r="BB145">
+        <v>11</v>
+      </c>
+      <c r="BC145">
+        <v>15</v>
+      </c>
+      <c r="BD145">
+        <v>1.75</v>
+      </c>
+      <c r="BE145">
+        <v>8.5</v>
+      </c>
+      <c r="BF145">
+        <v>2.3</v>
+      </c>
+      <c r="BG145">
+        <v>1.14</v>
+      </c>
+      <c r="BH145">
+        <v>4.65</v>
+      </c>
+      <c r="BI145">
+        <v>1.34</v>
+      </c>
+      <c r="BJ145">
+        <v>3.15</v>
+      </c>
+      <c r="BK145">
+        <v>2</v>
+      </c>
+      <c r="BL145">
+        <v>2.32</v>
+      </c>
+      <c r="BM145">
+        <v>1.91</v>
+      </c>
+      <c r="BN145">
+        <v>1.87</v>
+      </c>
+      <c r="BO145">
+        <v>2.44</v>
+      </c>
+      <c r="BP145">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7373319</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45480.85416666666</v>
+      </c>
+      <c r="F146">
+        <v>15</v>
+      </c>
+      <c r="G146" t="s">
+        <v>88</v>
+      </c>
+      <c r="H146" t="s">
+        <v>86</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>3</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>3</v>
+      </c>
+      <c r="O146" t="s">
+        <v>198</v>
+      </c>
+      <c r="P146" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q146">
+        <v>2.75</v>
+      </c>
+      <c r="R146">
+        <v>2.05</v>
+      </c>
+      <c r="S146">
+        <v>4.33</v>
+      </c>
+      <c r="T146">
+        <v>1.44</v>
+      </c>
+      <c r="U146">
+        <v>2.63</v>
+      </c>
+      <c r="V146">
+        <v>3.25</v>
+      </c>
+      <c r="W146">
+        <v>1.33</v>
+      </c>
+      <c r="X146">
+        <v>9</v>
+      </c>
+      <c r="Y146">
+        <v>1.07</v>
+      </c>
+      <c r="Z146">
+        <v>2.05</v>
+      </c>
+      <c r="AA146">
+        <v>3.5</v>
+      </c>
+      <c r="AB146">
+        <v>3.6</v>
+      </c>
+      <c r="AC146">
+        <v>1.09</v>
+      </c>
+      <c r="AD146">
+        <v>3.15</v>
+      </c>
+      <c r="AE146">
+        <v>1.41</v>
+      </c>
+      <c r="AF146">
+        <v>3.15</v>
+      </c>
+      <c r="AG146">
+        <v>2.15</v>
+      </c>
+      <c r="AH146">
+        <v>1.67</v>
+      </c>
+      <c r="AI146">
+        <v>1.95</v>
+      </c>
+      <c r="AJ146">
+        <v>1.8</v>
+      </c>
+      <c r="AK146">
+        <v>1.25</v>
+      </c>
+      <c r="AL146">
+        <v>1.25</v>
+      </c>
+      <c r="AM146">
+        <v>1.83</v>
+      </c>
+      <c r="AN146">
+        <v>2.17</v>
+      </c>
+      <c r="AO146">
+        <v>1.83</v>
+      </c>
+      <c r="AP146">
+        <v>2.29</v>
+      </c>
+      <c r="AQ146">
+        <v>1.57</v>
+      </c>
+      <c r="AR146">
+        <v>1.52</v>
+      </c>
+      <c r="AS146">
+        <v>1.43</v>
+      </c>
+      <c r="AT146">
+        <v>2.95</v>
+      </c>
+      <c r="AU146">
+        <v>9</v>
+      </c>
+      <c r="AV146">
+        <v>3</v>
+      </c>
+      <c r="AW146">
+        <v>6</v>
+      </c>
+      <c r="AX146">
+        <v>3</v>
+      </c>
+      <c r="AY146">
+        <v>15</v>
+      </c>
+      <c r="AZ146">
+        <v>6</v>
+      </c>
+      <c r="BA146">
+        <v>3</v>
+      </c>
+      <c r="BB146">
+        <v>2</v>
+      </c>
+      <c r="BC146">
+        <v>5</v>
+      </c>
+      <c r="BD146">
+        <v>1.62</v>
+      </c>
+      <c r="BE146">
+        <v>8.5</v>
+      </c>
+      <c r="BF146">
+        <v>2.6</v>
+      </c>
+      <c r="BG146">
+        <v>1.17</v>
+      </c>
+      <c r="BH146">
+        <v>4.2</v>
+      </c>
+      <c r="BI146">
+        <v>1.42</v>
+      </c>
+      <c r="BJ146">
+        <v>2.94</v>
+      </c>
+      <c r="BK146">
+        <v>1.91</v>
+      </c>
+      <c r="BL146">
+        <v>2</v>
+      </c>
+      <c r="BM146">
+        <v>2.1</v>
+      </c>
+      <c r="BN146">
+        <v>1.74</v>
+      </c>
+      <c r="BO146">
+        <v>2.69</v>
+      </c>
+      <c r="BP146">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="261">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -613,6 +613,9 @@
     <t>['13', '79', '90+4']</t>
   </si>
   <si>
+    <t>['55', '90+5']</t>
+  </si>
+  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -788,6 +791,12 @@
   </si>
   <si>
     <t>['50', '78']</t>
+  </si>
+  <si>
+    <t>['15', '17']</t>
+  </si>
+  <si>
+    <t>['9', '15', '78']</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP146"/>
+  <dimension ref="A1:BP149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1408,7 +1417,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1489,7 +1498,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1614,7 +1623,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1820,7 +1829,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -2026,7 +2035,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -2232,7 +2241,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2310,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ6">
         <v>0.17</v>
@@ -2722,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ8">
         <v>1.14</v>
@@ -2850,7 +2859,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3056,7 +3065,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3262,7 +3271,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3468,7 +3477,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3752,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ13">
         <v>1.38</v>
@@ -4086,7 +4095,7 @@
         <v>102</v>
       </c>
       <c r="P15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q15">
         <v>2.75</v>
@@ -4167,7 +4176,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ15">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4579,7 +4588,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ17">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5609,7 +5618,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ22">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR22">
         <v>1.76</v>
@@ -5812,7 +5821,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ23">
         <v>1.14</v>
@@ -6021,7 +6030,7 @@
         <v>1</v>
       </c>
       <c r="AQ24">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR24">
         <v>1.95</v>
@@ -6430,7 +6439,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ26">
         <v>1.57</v>
@@ -6558,7 +6567,7 @@
         <v>112</v>
       </c>
       <c r="P27" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -6639,7 +6648,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ27">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>1.33</v>
@@ -6764,7 +6773,7 @@
         <v>95</v>
       </c>
       <c r="P28" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6970,7 +6979,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q29">
         <v>2.38</v>
@@ -7176,7 +7185,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7254,7 +7263,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ30">
         <v>1.17</v>
@@ -7382,7 +7391,7 @@
         <v>95</v>
       </c>
       <c r="P31" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7794,7 +7803,7 @@
         <v>95</v>
       </c>
       <c r="P33" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -8000,7 +8009,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q34">
         <v>2.25</v>
@@ -8618,7 +8627,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8824,7 +8833,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -9236,7 +9245,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9854,7 +9863,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -10138,7 +10147,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ44">
         <v>0.43</v>
@@ -10266,7 +10275,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10347,7 +10356,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ45">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR45">
         <v>1.46</v>
@@ -10472,7 +10481,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10759,7 +10768,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ47">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR47">
         <v>1.36</v>
@@ -10884,7 +10893,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q48">
         <v>3.6</v>
@@ -10965,7 +10974,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ48">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR48">
         <v>0.99</v>
@@ -11296,7 +11305,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q50">
         <v>2.38</v>
@@ -11502,7 +11511,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q51">
         <v>2.38</v>
@@ -11580,7 +11589,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ51">
         <v>0.71</v>
@@ -11914,7 +11923,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q53">
         <v>2.38</v>
@@ -12120,7 +12129,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -12198,7 +12207,7 @@
         <v>0.67</v>
       </c>
       <c r="AP54">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ54">
         <v>0.75</v>
@@ -12326,7 +12335,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -13150,7 +13159,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q59">
         <v>4.75</v>
@@ -13356,7 +13365,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13437,7 +13446,7 @@
         <v>1</v>
       </c>
       <c r="AQ60">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR60">
         <v>1.55</v>
@@ -13562,7 +13571,7 @@
         <v>117</v>
       </c>
       <c r="P61" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q61">
         <v>5.5</v>
@@ -13640,7 +13649,7 @@
         <v>1.67</v>
       </c>
       <c r="AP61">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ61">
         <v>1.88</v>
@@ -14055,7 +14064,7 @@
         <v>2</v>
       </c>
       <c r="AQ63">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR63">
         <v>1.52</v>
@@ -14592,7 +14601,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -15004,7 +15013,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15085,7 +15094,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ68">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR68">
         <v>1.17</v>
@@ -15416,7 +15425,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15622,7 +15631,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15906,7 +15915,7 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ72">
         <v>1.17</v>
@@ -16240,7 +16249,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -17064,7 +17073,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q78">
         <v>2.63</v>
@@ -17270,7 +17279,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -17476,7 +17485,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17682,7 +17691,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17760,7 +17769,7 @@
         <v>2</v>
       </c>
       <c r="AP81">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ81">
         <v>1.88</v>
@@ -18094,7 +18103,7 @@
         <v>151</v>
       </c>
       <c r="P83" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -18172,7 +18181,7 @@
         <v>1.75</v>
       </c>
       <c r="AP83">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ83">
         <v>1.75</v>
@@ -18378,10 +18387,10 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ84">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR84">
         <v>1.32</v>
@@ -18506,7 +18515,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -18587,7 +18596,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ85">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR85">
         <v>1.49</v>
@@ -18712,7 +18721,7 @@
         <v>95</v>
       </c>
       <c r="P86" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -18918,7 +18927,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q87">
         <v>2.38</v>
@@ -19124,7 +19133,7 @@
         <v>154</v>
       </c>
       <c r="P88" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19536,7 +19545,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -20029,7 +20038,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ92">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR92">
         <v>1.69</v>
@@ -20360,7 +20369,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20566,7 +20575,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -20647,7 +20656,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ95">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR95">
         <v>1.65</v>
@@ -21184,7 +21193,7 @@
         <v>95</v>
       </c>
       <c r="P98" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q98">
         <v>3.5</v>
@@ -21262,7 +21271,7 @@
         <v>1.5</v>
       </c>
       <c r="AP98">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ98">
         <v>1.57</v>
@@ -21674,7 +21683,7 @@
         <v>1.6</v>
       </c>
       <c r="AP100">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ100">
         <v>1.57</v>
@@ -21802,7 +21811,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q101">
         <v>2.63</v>
@@ -21883,7 +21892,7 @@
         <v>3</v>
       </c>
       <c r="AQ101">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR101">
         <v>1.35</v>
@@ -22008,7 +22017,7 @@
         <v>95</v>
       </c>
       <c r="P102" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22292,10 +22301,10 @@
         <v>0.2</v>
       </c>
       <c r="AP103">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ103">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR103">
         <v>1.66</v>
@@ -22420,7 +22429,7 @@
         <v>163</v>
       </c>
       <c r="P104" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q104">
         <v>1.83</v>
@@ -23244,7 +23253,7 @@
         <v>167</v>
       </c>
       <c r="P108" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23862,7 +23871,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -24068,7 +24077,7 @@
         <v>138</v>
       </c>
       <c r="P112" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24274,7 +24283,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -24686,7 +24695,7 @@
         <v>95</v>
       </c>
       <c r="P115" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -25098,7 +25107,7 @@
         <v>93</v>
       </c>
       <c r="P117" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25176,7 +25185,7 @@
         <v>1.67</v>
       </c>
       <c r="AP117">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ117">
         <v>1.75</v>
@@ -25794,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="AP120">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ120">
         <v>0</v>
@@ -26003,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="AQ121">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR121">
         <v>1.52</v>
@@ -26128,7 +26137,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q122">
         <v>2.3</v>
@@ -26621,7 +26630,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ124">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR124">
         <v>1.59</v>
@@ -27033,7 +27042,7 @@
         <v>2</v>
       </c>
       <c r="AQ126">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR126">
         <v>1.89</v>
@@ -27158,7 +27167,7 @@
         <v>132</v>
       </c>
       <c r="P127" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q127">
         <v>3.6</v>
@@ -27445,7 +27454,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ128">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR128">
         <v>1.53</v>
@@ -27648,7 +27657,7 @@
         <v>1</v>
       </c>
       <c r="AP129">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ129">
         <v>0.83</v>
@@ -27776,7 +27785,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -27982,7 +27991,7 @@
         <v>134</v>
       </c>
       <c r="P131" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q131">
         <v>3.2</v>
@@ -28060,7 +28069,7 @@
         <v>1.33</v>
       </c>
       <c r="AP131">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ131">
         <v>1.57</v>
@@ -28188,7 +28197,7 @@
         <v>184</v>
       </c>
       <c r="P132" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28600,7 +28609,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -28678,7 +28687,7 @@
         <v>2.17</v>
       </c>
       <c r="AP134">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ134">
         <v>2</v>
@@ -28806,7 +28815,7 @@
         <v>187</v>
       </c>
       <c r="P135" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -29424,7 +29433,7 @@
         <v>190</v>
       </c>
       <c r="P138" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -29711,7 +29720,7 @@
         <v>3</v>
       </c>
       <c r="AQ139">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR139">
         <v>1.67</v>
@@ -30248,7 +30257,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -30454,7 +30463,7 @@
         <v>195</v>
       </c>
       <c r="P143" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q143">
         <v>2.88</v>
@@ -30741,7 +30750,7 @@
         <v>2</v>
       </c>
       <c r="AQ144">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR144">
         <v>1.9</v>
@@ -30866,7 +30875,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q145">
         <v>2.63</v>
@@ -31229,6 +31238,624 @@
       </c>
       <c r="BP146">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7373325</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45483.77083333334</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147" t="s">
+        <v>81</v>
+      </c>
+      <c r="H147" t="s">
+        <v>78</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>2</v>
+      </c>
+      <c r="K147">
+        <v>2</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>2</v>
+      </c>
+      <c r="N147">
+        <v>2</v>
+      </c>
+      <c r="O147" t="s">
+        <v>95</v>
+      </c>
+      <c r="P147" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q147">
+        <v>3.25</v>
+      </c>
+      <c r="R147">
+        <v>2</v>
+      </c>
+      <c r="S147">
+        <v>3.6</v>
+      </c>
+      <c r="T147">
+        <v>1.5</v>
+      </c>
+      <c r="U147">
+        <v>2.5</v>
+      </c>
+      <c r="V147">
+        <v>3.4</v>
+      </c>
+      <c r="W147">
+        <v>1.3</v>
+      </c>
+      <c r="X147">
+        <v>10</v>
+      </c>
+      <c r="Y147">
+        <v>1.06</v>
+      </c>
+      <c r="Z147">
+        <v>2.5</v>
+      </c>
+      <c r="AA147">
+        <v>3.3</v>
+      </c>
+      <c r="AB147">
+        <v>2.8</v>
+      </c>
+      <c r="AC147">
+        <v>1.08</v>
+      </c>
+      <c r="AD147">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE147">
+        <v>1.43</v>
+      </c>
+      <c r="AF147">
+        <v>2.85</v>
+      </c>
+      <c r="AG147">
+        <v>2.25</v>
+      </c>
+      <c r="AH147">
+        <v>1.62</v>
+      </c>
+      <c r="AI147">
+        <v>1.95</v>
+      </c>
+      <c r="AJ147">
+        <v>1.8</v>
+      </c>
+      <c r="AK147">
+        <v>1.36</v>
+      </c>
+      <c r="AL147">
+        <v>1.28</v>
+      </c>
+      <c r="AM147">
+        <v>1.45</v>
+      </c>
+      <c r="AN147">
+        <v>1.43</v>
+      </c>
+      <c r="AO147">
+        <v>0.63</v>
+      </c>
+      <c r="AP147">
+        <v>1.25</v>
+      </c>
+      <c r="AQ147">
+        <v>0.89</v>
+      </c>
+      <c r="AR147">
+        <v>1.45</v>
+      </c>
+      <c r="AS147">
+        <v>1.23</v>
+      </c>
+      <c r="AT147">
+        <v>2.68</v>
+      </c>
+      <c r="AU147">
+        <v>4</v>
+      </c>
+      <c r="AV147">
+        <v>7</v>
+      </c>
+      <c r="AW147">
+        <v>3</v>
+      </c>
+      <c r="AX147">
+        <v>4</v>
+      </c>
+      <c r="AY147">
+        <v>7</v>
+      </c>
+      <c r="AZ147">
+        <v>11</v>
+      </c>
+      <c r="BA147">
+        <v>1</v>
+      </c>
+      <c r="BB147">
+        <v>5</v>
+      </c>
+      <c r="BC147">
+        <v>6</v>
+      </c>
+      <c r="BD147">
+        <v>1.95</v>
+      </c>
+      <c r="BE147">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF147">
+        <v>2.2</v>
+      </c>
+      <c r="BG147">
+        <v>1.17</v>
+      </c>
+      <c r="BH147">
+        <v>4.8</v>
+      </c>
+      <c r="BI147">
+        <v>1.3</v>
+      </c>
+      <c r="BJ147">
+        <v>3.55</v>
+      </c>
+      <c r="BK147">
+        <v>2</v>
+      </c>
+      <c r="BL147">
+        <v>2.1</v>
+      </c>
+      <c r="BM147">
+        <v>2.05</v>
+      </c>
+      <c r="BN147">
+        <v>1.7</v>
+      </c>
+      <c r="BO147">
+        <v>2.88</v>
+      </c>
+      <c r="BP147">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7373329</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45483.79166666666</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148" t="s">
+        <v>74</v>
+      </c>
+      <c r="H148" t="s">
+        <v>75</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>2</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>2</v>
+      </c>
+      <c r="O148" t="s">
+        <v>199</v>
+      </c>
+      <c r="P148" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q148">
+        <v>2.88</v>
+      </c>
+      <c r="R148">
+        <v>2.05</v>
+      </c>
+      <c r="S148">
+        <v>4.33</v>
+      </c>
+      <c r="T148">
+        <v>1.53</v>
+      </c>
+      <c r="U148">
+        <v>2.38</v>
+      </c>
+      <c r="V148">
+        <v>3.5</v>
+      </c>
+      <c r="W148">
+        <v>1.29</v>
+      </c>
+      <c r="X148">
+        <v>11</v>
+      </c>
+      <c r="Y148">
+        <v>1.05</v>
+      </c>
+      <c r="Z148">
+        <v>2.15</v>
+      </c>
+      <c r="AA148">
+        <v>3</v>
+      </c>
+      <c r="AB148">
+        <v>3.8</v>
+      </c>
+      <c r="AC148">
+        <v>1.09</v>
+      </c>
+      <c r="AD148">
+        <v>8</v>
+      </c>
+      <c r="AE148">
+        <v>1.5</v>
+      </c>
+      <c r="AF148">
+        <v>2.45</v>
+      </c>
+      <c r="AG148">
+        <v>2.2</v>
+      </c>
+      <c r="AH148">
+        <v>1.65</v>
+      </c>
+      <c r="AI148">
+        <v>1.95</v>
+      </c>
+      <c r="AJ148">
+        <v>1.8</v>
+      </c>
+      <c r="AK148">
+        <v>1.28</v>
+      </c>
+      <c r="AL148">
+        <v>1.3</v>
+      </c>
+      <c r="AM148">
+        <v>1.53</v>
+      </c>
+      <c r="AN148">
+        <v>1.75</v>
+      </c>
+      <c r="AO148">
+        <v>0.25</v>
+      </c>
+      <c r="AP148">
+        <v>1.89</v>
+      </c>
+      <c r="AQ148">
+        <v>0.22</v>
+      </c>
+      <c r="AR148">
+        <v>1.43</v>
+      </c>
+      <c r="AS148">
+        <v>1.3</v>
+      </c>
+      <c r="AT148">
+        <v>2.73</v>
+      </c>
+      <c r="AU148">
+        <v>4</v>
+      </c>
+      <c r="AV148">
+        <v>3</v>
+      </c>
+      <c r="AW148">
+        <v>5</v>
+      </c>
+      <c r="AX148">
+        <v>7</v>
+      </c>
+      <c r="AY148">
+        <v>9</v>
+      </c>
+      <c r="AZ148">
+        <v>10</v>
+      </c>
+      <c r="BA148">
+        <v>7</v>
+      </c>
+      <c r="BB148">
+        <v>5</v>
+      </c>
+      <c r="BC148">
+        <v>12</v>
+      </c>
+      <c r="BD148">
+        <v>1.62</v>
+      </c>
+      <c r="BE148">
+        <v>11</v>
+      </c>
+      <c r="BF148">
+        <v>2.78</v>
+      </c>
+      <c r="BG148">
+        <v>1.17</v>
+      </c>
+      <c r="BH148">
+        <v>4.8</v>
+      </c>
+      <c r="BI148">
+        <v>1.3</v>
+      </c>
+      <c r="BJ148">
+        <v>3.25</v>
+      </c>
+      <c r="BK148">
+        <v>2.1</v>
+      </c>
+      <c r="BL148">
+        <v>2</v>
+      </c>
+      <c r="BM148">
+        <v>2.05</v>
+      </c>
+      <c r="BN148">
+        <v>1.7</v>
+      </c>
+      <c r="BO148">
+        <v>2.75</v>
+      </c>
+      <c r="BP148">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7373332</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45483.79166666666</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149" t="s">
+        <v>76</v>
+      </c>
+      <c r="H149" t="s">
+        <v>80</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>2</v>
+      </c>
+      <c r="K149">
+        <v>2</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="M149">
+        <v>3</v>
+      </c>
+      <c r="N149">
+        <v>4</v>
+      </c>
+      <c r="O149" t="s">
+        <v>176</v>
+      </c>
+      <c r="P149" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q149">
+        <v>2.88</v>
+      </c>
+      <c r="R149">
+        <v>2.1</v>
+      </c>
+      <c r="S149">
+        <v>4</v>
+      </c>
+      <c r="T149">
+        <v>1.45</v>
+      </c>
+      <c r="U149">
+        <v>2.55</v>
+      </c>
+      <c r="V149">
+        <v>3.1</v>
+      </c>
+      <c r="W149">
+        <v>1.33</v>
+      </c>
+      <c r="X149">
+        <v>7.5</v>
+      </c>
+      <c r="Y149">
+        <v>1.06</v>
+      </c>
+      <c r="Z149">
+        <v>2.2</v>
+      </c>
+      <c r="AA149">
+        <v>3.4</v>
+      </c>
+      <c r="AB149">
+        <v>3.3</v>
+      </c>
+      <c r="AC149">
+        <v>1.06</v>
+      </c>
+      <c r="AD149">
+        <v>8.5</v>
+      </c>
+      <c r="AE149">
+        <v>1.36</v>
+      </c>
+      <c r="AF149">
+        <v>3.1</v>
+      </c>
+      <c r="AG149">
+        <v>2</v>
+      </c>
+      <c r="AH149">
+        <v>1.8</v>
+      </c>
+      <c r="AI149">
+        <v>1.8</v>
+      </c>
+      <c r="AJ149">
+        <v>1.95</v>
+      </c>
+      <c r="AK149">
+        <v>1.25</v>
+      </c>
+      <c r="AL149">
+        <v>1.25</v>
+      </c>
+      <c r="AM149">
+        <v>1.65</v>
+      </c>
+      <c r="AN149">
+        <v>2</v>
+      </c>
+      <c r="AO149">
+        <v>0.75</v>
+      </c>
+      <c r="AP149">
+        <v>1.75</v>
+      </c>
+      <c r="AQ149">
+        <v>1</v>
+      </c>
+      <c r="AR149">
+        <v>1.66</v>
+      </c>
+      <c r="AS149">
+        <v>1.36</v>
+      </c>
+      <c r="AT149">
+        <v>3.02</v>
+      </c>
+      <c r="AU149">
+        <v>10</v>
+      </c>
+      <c r="AV149">
+        <v>6</v>
+      </c>
+      <c r="AW149">
+        <v>9</v>
+      </c>
+      <c r="AX149">
+        <v>2</v>
+      </c>
+      <c r="AY149">
+        <v>19</v>
+      </c>
+      <c r="AZ149">
+        <v>8</v>
+      </c>
+      <c r="BA149">
+        <v>9</v>
+      </c>
+      <c r="BB149">
+        <v>2</v>
+      </c>
+      <c r="BC149">
+        <v>11</v>
+      </c>
+      <c r="BD149">
+        <v>1.67</v>
+      </c>
+      <c r="BE149">
+        <v>10.5</v>
+      </c>
+      <c r="BF149">
+        <v>2.64</v>
+      </c>
+      <c r="BG149">
+        <v>1.18</v>
+      </c>
+      <c r="BH149">
+        <v>4.7</v>
+      </c>
+      <c r="BI149">
+        <v>1.32</v>
+      </c>
+      <c r="BJ149">
+        <v>3.2</v>
+      </c>
+      <c r="BK149">
+        <v>2</v>
+      </c>
+      <c r="BL149">
+        <v>2.2</v>
+      </c>
+      <c r="BM149">
+        <v>1.95</v>
+      </c>
+      <c r="BN149">
+        <v>1.77</v>
+      </c>
+      <c r="BO149">
+        <v>2.75</v>
+      </c>
+      <c r="BP149">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="266">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -616,6 +616,18 @@
     <t>['55', '90+5']</t>
   </si>
   <si>
+    <t>['6', '51', '53']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
+    <t>['39']</t>
+  </si>
+  <si>
+    <t>['13', '45+3']</t>
+  </si>
+  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -742,9 +754,6 @@
     <t>['60', '90+13']</t>
   </si>
   <si>
-    <t>['53']</t>
-  </si>
-  <si>
     <t>['14', '88']</t>
   </si>
   <si>
@@ -797,6 +806,12 @@
   </si>
   <si>
     <t>['9', '15', '78']</t>
+  </si>
+  <si>
+    <t>['11', '63']</t>
+  </si>
+  <si>
+    <t>['18']</t>
   </si>
 </sst>
 </file>
@@ -1158,7 +1173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP149"/>
+  <dimension ref="A1:BP154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1417,7 +1432,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1623,7 +1638,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1701,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ3">
         <v>0.29</v>
@@ -1829,7 +1844,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -2035,7 +2050,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -2116,7 +2131,7 @@
         <v>2</v>
       </c>
       <c r="AQ5">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2241,7 +2256,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2859,7 +2874,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3065,7 +3080,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3146,7 +3161,7 @@
         <v>3</v>
       </c>
       <c r="AQ10">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3271,7 +3286,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3349,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ11">
         <v>2</v>
@@ -3477,7 +3492,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3558,7 +3573,7 @@
         <v>3</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4095,7 +4110,7 @@
         <v>102</v>
       </c>
       <c r="P15" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q15">
         <v>2.75</v>
@@ -4379,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ16">
         <v>1.57</v>
@@ -4791,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ18">
         <v>1.17</v>
@@ -4997,10 +5012,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ19">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5206,7 +5221,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ20">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -6027,7 +6042,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ24">
         <v>0.89</v>
@@ -6233,7 +6248,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ25">
         <v>1.88</v>
@@ -6567,7 +6582,7 @@
         <v>112</v>
       </c>
       <c r="P27" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -6645,7 +6660,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -6773,7 +6788,7 @@
         <v>95</v>
       </c>
       <c r="P28" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6854,7 +6869,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ28">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR28">
         <v>1.21</v>
@@ -6979,7 +6994,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q29">
         <v>2.38</v>
@@ -7185,7 +7200,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7391,7 +7406,7 @@
         <v>95</v>
       </c>
       <c r="P31" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7803,7 +7818,7 @@
         <v>95</v>
       </c>
       <c r="P33" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7881,10 +7896,10 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ33">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR33">
         <v>1.46</v>
@@ -8009,7 +8024,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q34">
         <v>2.25</v>
@@ -8296,7 +8311,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ35">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AR35">
         <v>1.12</v>
@@ -8627,7 +8642,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8833,7 +8848,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -8914,7 +8929,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ38">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR38">
         <v>2.13</v>
@@ -9245,7 +9260,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9738,7 +9753,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ42">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR42">
         <v>1.3</v>
@@ -9863,7 +9878,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -9941,10 +9956,10 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ43">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR43">
         <v>1.47</v>
@@ -10275,7 +10290,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10481,7 +10496,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10765,7 +10780,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ47">
         <v>0.22</v>
@@ -10893,7 +10908,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q48">
         <v>3.6</v>
@@ -11180,7 +11195,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ49">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR49">
         <v>1.5</v>
@@ -11305,7 +11320,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q50">
         <v>2.38</v>
@@ -11383,7 +11398,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ50">
         <v>1.38</v>
@@ -11511,7 +11526,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q51">
         <v>2.38</v>
@@ -11923,7 +11938,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q53">
         <v>2.38</v>
@@ -12004,7 +12019,7 @@
         <v>2</v>
       </c>
       <c r="AQ53">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AR53">
         <v>1.37</v>
@@ -12129,7 +12144,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -12335,7 +12350,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -12413,10 +12428,10 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ55">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR55">
         <v>1.23</v>
@@ -13034,7 +13049,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ58">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR58">
         <v>1.63</v>
@@ -13159,7 +13174,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q59">
         <v>4.75</v>
@@ -13237,7 +13252,7 @@
         <v>2.33</v>
       </c>
       <c r="AP59">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ59">
         <v>2</v>
@@ -13365,7 +13380,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13443,7 +13458,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ60">
         <v>1</v>
@@ -13571,7 +13586,7 @@
         <v>117</v>
       </c>
       <c r="P61" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q61">
         <v>5.5</v>
@@ -14270,7 +14285,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ64">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR64">
         <v>1.58</v>
@@ -14601,7 +14616,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14679,7 +14694,7 @@
         <v>0</v>
       </c>
       <c r="AP66">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ66">
         <v>1.14</v>
@@ -15013,7 +15028,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15300,7 +15315,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ69">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AR69">
         <v>1.64</v>
@@ -15425,7 +15440,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15631,7 +15646,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16124,7 +16139,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ73">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR73">
         <v>2.08</v>
@@ -16249,7 +16264,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16327,7 +16342,7 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ74">
         <v>0.17</v>
@@ -16533,7 +16548,7 @@
         <v>0</v>
       </c>
       <c r="AP75">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ75">
         <v>0.43</v>
@@ -16742,7 +16757,7 @@
         <v>3</v>
       </c>
       <c r="AQ76">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR76">
         <v>1.32</v>
@@ -17073,7 +17088,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q78">
         <v>2.63</v>
@@ -17154,7 +17169,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ78">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR78">
         <v>1.81</v>
@@ -17279,7 +17294,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -17357,7 +17372,7 @@
         <v>2</v>
       </c>
       <c r="AP79">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ79">
         <v>1.57</v>
@@ -17485,7 +17500,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17566,7 +17581,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ80">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR80">
         <v>1.69</v>
@@ -17691,7 +17706,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17978,7 +17993,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ82">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR82">
         <v>0.8</v>
@@ -18103,7 +18118,7 @@
         <v>151</v>
       </c>
       <c r="P83" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -18184,7 +18199,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ83">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR83">
         <v>1.31</v>
@@ -18515,7 +18530,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -18593,7 +18608,7 @@
         <v>1.25</v>
       </c>
       <c r="AP85">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ85">
         <v>1</v>
@@ -18721,7 +18736,7 @@
         <v>95</v>
       </c>
       <c r="P86" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -18799,7 +18814,7 @@
         <v>2.5</v>
       </c>
       <c r="AP86">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ86">
         <v>2</v>
@@ -18927,7 +18942,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q87">
         <v>2.38</v>
@@ -19133,7 +19148,7 @@
         <v>154</v>
       </c>
       <c r="P88" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19545,7 +19560,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -20244,7 +20259,7 @@
         <v>3</v>
       </c>
       <c r="AQ93">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AR93">
         <v>1.62</v>
@@ -20369,7 +20384,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20447,7 +20462,7 @@
         <v>2</v>
       </c>
       <c r="AP94">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ94">
         <v>1.57</v>
@@ -20575,7 +20590,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -20653,7 +20668,7 @@
         <v>1.2</v>
       </c>
       <c r="AP95">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ95">
         <v>1</v>
@@ -20859,7 +20874,7 @@
         <v>1.25</v>
       </c>
       <c r="AP96">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ96">
         <v>0.75</v>
@@ -21065,10 +21080,10 @@
         <v>2</v>
       </c>
       <c r="AP97">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ97">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR97">
         <v>1.48</v>
@@ -21193,7 +21208,7 @@
         <v>95</v>
       </c>
       <c r="P98" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q98">
         <v>3.5</v>
@@ -21480,7 +21495,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ99">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR99">
         <v>1.16</v>
@@ -21686,7 +21701,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ100">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR100">
         <v>1.35</v>
@@ -21811,7 +21826,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q101">
         <v>2.63</v>
@@ -22017,7 +22032,7 @@
         <v>95</v>
       </c>
       <c r="P102" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22429,7 +22444,7 @@
         <v>163</v>
       </c>
       <c r="P104" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q104">
         <v>1.83</v>
@@ -22507,7 +22522,7 @@
         <v>0.5</v>
       </c>
       <c r="AP104">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ104">
         <v>0.29</v>
@@ -22713,10 +22728,10 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ105">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR105">
         <v>1.47</v>
@@ -23253,7 +23268,7 @@
         <v>167</v>
       </c>
       <c r="P108" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23871,7 +23886,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -24077,7 +24092,7 @@
         <v>138</v>
       </c>
       <c r="P112" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24283,7 +24298,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -24695,7 +24710,7 @@
         <v>95</v>
       </c>
       <c r="P115" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -25107,7 +25122,7 @@
         <v>93</v>
       </c>
       <c r="P117" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25188,7 +25203,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ117">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR117">
         <v>1.41</v>
@@ -25597,10 +25612,10 @@
         <v>1.33</v>
       </c>
       <c r="AP119">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ119">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR119">
         <v>1.55</v>
@@ -25806,7 +25821,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ120">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AR120">
         <v>1.32</v>
@@ -26137,7 +26152,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q122">
         <v>2.3</v>
@@ -26421,7 +26436,7 @@
         <v>0.83</v>
       </c>
       <c r="AP123">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ123">
         <v>1.38</v>
@@ -26627,7 +26642,7 @@
         <v>0.83</v>
       </c>
       <c r="AP124">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ124">
         <v>0.89</v>
@@ -26833,7 +26848,7 @@
         <v>1.8</v>
       </c>
       <c r="AP125">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ125">
         <v>1.57</v>
@@ -27039,7 +27054,7 @@
         <v>0.33</v>
       </c>
       <c r="AP126">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ126">
         <v>0.22</v>
@@ -27167,7 +27182,7 @@
         <v>132</v>
       </c>
       <c r="P127" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q127">
         <v>3.6</v>
@@ -27248,7 +27263,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ127">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR127">
         <v>1.11</v>
@@ -27451,7 +27466,7 @@
         <v>0.71</v>
       </c>
       <c r="AP128">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ128">
         <v>0.89</v>
@@ -27660,7 +27675,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ129">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR129">
         <v>1.35</v>
@@ -27785,7 +27800,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -27866,7 +27881,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ130">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR130">
         <v>1.4</v>
@@ -27991,7 +28006,7 @@
         <v>134</v>
       </c>
       <c r="P131" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q131">
         <v>3.2</v>
@@ -28072,7 +28087,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ131">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR131">
         <v>1.7</v>
@@ -28197,7 +28212,7 @@
         <v>184</v>
       </c>
       <c r="P132" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28275,7 +28290,7 @@
         <v>1.71</v>
       </c>
       <c r="AP132">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ132">
         <v>1.88</v>
@@ -28609,7 +28624,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -28815,7 +28830,7 @@
         <v>187</v>
       </c>
       <c r="P135" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -29433,7 +29448,7 @@
         <v>190</v>
       </c>
       <c r="P138" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -29511,7 +29526,7 @@
         <v>1.17</v>
       </c>
       <c r="AP138">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ138">
         <v>1.14</v>
@@ -29926,7 +29941,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ140">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AR140">
         <v>1.39</v>
@@ -30257,7 +30272,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -30463,7 +30478,7 @@
         <v>195</v>
       </c>
       <c r="P143" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q143">
         <v>2.88</v>
@@ -30541,7 +30556,7 @@
         <v>1.4</v>
       </c>
       <c r="AP143">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ143">
         <v>1.17</v>
@@ -30747,7 +30762,7 @@
         <v>0.86</v>
       </c>
       <c r="AP144">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ144">
         <v>1</v>
@@ -30875,7 +30890,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q145">
         <v>2.63</v>
@@ -31257,7 +31272,7 @@
         <v>45483.77083333334</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G147" t="s">
         <v>81</v>
@@ -31287,7 +31302,7 @@
         <v>95</v>
       </c>
       <c r="P147" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31463,7 +31478,7 @@
         <v>45483.79166666666</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G148" t="s">
         <v>74</v>
@@ -31669,7 +31684,7 @@
         <v>45483.79166666666</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G149" t="s">
         <v>76</v>
@@ -31699,7 +31714,7 @@
         <v>176</v>
       </c>
       <c r="P149" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q149">
         <v>2.88</v>
@@ -31856,6 +31871,1036 @@
       </c>
       <c r="BP149">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7373330</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45484.8125</v>
+      </c>
+      <c r="F150">
+        <v>16</v>
+      </c>
+      <c r="G150" t="s">
+        <v>84</v>
+      </c>
+      <c r="H150" t="s">
+        <v>77</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <v>2</v>
+      </c>
+      <c r="L150">
+        <v>3</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+      <c r="N150">
+        <v>4</v>
+      </c>
+      <c r="O150" t="s">
+        <v>200</v>
+      </c>
+      <c r="P150" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q150">
+        <v>1.91</v>
+      </c>
+      <c r="R150">
+        <v>2.4</v>
+      </c>
+      <c r="S150">
+        <v>7.5</v>
+      </c>
+      <c r="T150">
+        <v>1.4</v>
+      </c>
+      <c r="U150">
+        <v>2.85</v>
+      </c>
+      <c r="V150">
+        <v>2.71</v>
+      </c>
+      <c r="W150">
+        <v>1.44</v>
+      </c>
+      <c r="X150">
+        <v>7.04</v>
+      </c>
+      <c r="Y150">
+        <v>1.05</v>
+      </c>
+      <c r="Z150">
+        <v>1.36</v>
+      </c>
+      <c r="AA150">
+        <v>5</v>
+      </c>
+      <c r="AB150">
+        <v>8.5</v>
+      </c>
+      <c r="AC150">
+        <v>1.02</v>
+      </c>
+      <c r="AD150">
+        <v>12.5</v>
+      </c>
+      <c r="AE150">
+        <v>1.28</v>
+      </c>
+      <c r="AF150">
+        <v>3.6</v>
+      </c>
+      <c r="AG150">
+        <v>1.8</v>
+      </c>
+      <c r="AH150">
+        <v>2</v>
+      </c>
+      <c r="AI150">
+        <v>2.1</v>
+      </c>
+      <c r="AJ150">
+        <v>1.67</v>
+      </c>
+      <c r="AK150">
+        <v>1.09</v>
+      </c>
+      <c r="AL150">
+        <v>1.17</v>
+      </c>
+      <c r="AM150">
+        <v>2.65</v>
+      </c>
+      <c r="AN150">
+        <v>2</v>
+      </c>
+      <c r="AO150">
+        <v>1.13</v>
+      </c>
+      <c r="AP150">
+        <v>2.11</v>
+      </c>
+      <c r="AQ150">
+        <v>1</v>
+      </c>
+      <c r="AR150">
+        <v>1.83</v>
+      </c>
+      <c r="AS150">
+        <v>1.48</v>
+      </c>
+      <c r="AT150">
+        <v>3.31</v>
+      </c>
+      <c r="AU150">
+        <v>7</v>
+      </c>
+      <c r="AV150">
+        <v>4</v>
+      </c>
+      <c r="AW150">
+        <v>13</v>
+      </c>
+      <c r="AX150">
+        <v>4</v>
+      </c>
+      <c r="AY150">
+        <v>20</v>
+      </c>
+      <c r="AZ150">
+        <v>8</v>
+      </c>
+      <c r="BA150">
+        <v>9</v>
+      </c>
+      <c r="BB150">
+        <v>2</v>
+      </c>
+      <c r="BC150">
+        <v>11</v>
+      </c>
+      <c r="BD150">
+        <v>1.29</v>
+      </c>
+      <c r="BE150">
+        <v>13.5</v>
+      </c>
+      <c r="BF150">
+        <v>4.49</v>
+      </c>
+      <c r="BG150">
+        <v>1.18</v>
+      </c>
+      <c r="BH150">
+        <v>4.5</v>
+      </c>
+      <c r="BI150">
+        <v>1.38</v>
+      </c>
+      <c r="BJ150">
+        <v>3.3</v>
+      </c>
+      <c r="BK150">
+        <v>1.83</v>
+      </c>
+      <c r="BL150">
+        <v>2.05</v>
+      </c>
+      <c r="BM150">
+        <v>2.05</v>
+      </c>
+      <c r="BN150">
+        <v>1.7</v>
+      </c>
+      <c r="BO150">
+        <v>2.9</v>
+      </c>
+      <c r="BP150">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7373334</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45484.83333333334</v>
+      </c>
+      <c r="F151">
+        <v>16</v>
+      </c>
+      <c r="G151" t="s">
+        <v>71</v>
+      </c>
+      <c r="H151" t="s">
+        <v>72</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+      <c r="N151">
+        <v>2</v>
+      </c>
+      <c r="O151" t="s">
+        <v>201</v>
+      </c>
+      <c r="P151" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q151">
+        <v>2.63</v>
+      </c>
+      <c r="R151">
+        <v>2</v>
+      </c>
+      <c r="S151">
+        <v>4.75</v>
+      </c>
+      <c r="T151">
+        <v>1.44</v>
+      </c>
+      <c r="U151">
+        <v>2.63</v>
+      </c>
+      <c r="V151">
+        <v>3.25</v>
+      </c>
+      <c r="W151">
+        <v>1.33</v>
+      </c>
+      <c r="X151">
+        <v>9</v>
+      </c>
+      <c r="Y151">
+        <v>1.07</v>
+      </c>
+      <c r="Z151">
+        <v>1.91</v>
+      </c>
+      <c r="AA151">
+        <v>3.3</v>
+      </c>
+      <c r="AB151">
+        <v>4.1</v>
+      </c>
+      <c r="AC151">
+        <v>1.07</v>
+      </c>
+      <c r="AD151">
+        <v>9</v>
+      </c>
+      <c r="AE151">
+        <v>1.38</v>
+      </c>
+      <c r="AF151">
+        <v>3</v>
+      </c>
+      <c r="AG151">
+        <v>2.35</v>
+      </c>
+      <c r="AH151">
+        <v>1.57</v>
+      </c>
+      <c r="AI151">
+        <v>2.05</v>
+      </c>
+      <c r="AJ151">
+        <v>1.7</v>
+      </c>
+      <c r="AK151">
+        <v>1.28</v>
+      </c>
+      <c r="AL151">
+        <v>1.28</v>
+      </c>
+      <c r="AM151">
+        <v>1.7</v>
+      </c>
+      <c r="AN151">
+        <v>1.29</v>
+      </c>
+      <c r="AO151">
+        <v>0</v>
+      </c>
+      <c r="AP151">
+        <v>1.25</v>
+      </c>
+      <c r="AQ151">
+        <v>0.13</v>
+      </c>
+      <c r="AR151">
+        <v>1.53</v>
+      </c>
+      <c r="AS151">
+        <v>1.03</v>
+      </c>
+      <c r="AT151">
+        <v>2.56</v>
+      </c>
+      <c r="AU151">
+        <v>5</v>
+      </c>
+      <c r="AV151">
+        <v>11</v>
+      </c>
+      <c r="AW151">
+        <v>5</v>
+      </c>
+      <c r="AX151">
+        <v>2</v>
+      </c>
+      <c r="AY151">
+        <v>10</v>
+      </c>
+      <c r="AZ151">
+        <v>13</v>
+      </c>
+      <c r="BA151">
+        <v>2</v>
+      </c>
+      <c r="BB151">
+        <v>5</v>
+      </c>
+      <c r="BC151">
+        <v>7</v>
+      </c>
+      <c r="BD151">
+        <v>1.87</v>
+      </c>
+      <c r="BE151">
+        <v>9</v>
+      </c>
+      <c r="BF151">
+        <v>2.36</v>
+      </c>
+      <c r="BG151">
+        <v>1.2</v>
+      </c>
+      <c r="BH151">
+        <v>4.23</v>
+      </c>
+      <c r="BI151">
+        <v>1.4</v>
+      </c>
+      <c r="BJ151">
+        <v>2.8</v>
+      </c>
+      <c r="BK151">
+        <v>2.1</v>
+      </c>
+      <c r="BL151">
+        <v>2.05</v>
+      </c>
+      <c r="BM151">
+        <v>2.05</v>
+      </c>
+      <c r="BN151">
+        <v>1.7</v>
+      </c>
+      <c r="BO151">
+        <v>2.65</v>
+      </c>
+      <c r="BP151">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>7373328</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45484.83333333334</v>
+      </c>
+      <c r="F152">
+        <v>16</v>
+      </c>
+      <c r="G152" t="s">
+        <v>87</v>
+      </c>
+      <c r="H152" t="s">
+        <v>83</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+      <c r="K152">
+        <v>2</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>2</v>
+      </c>
+      <c r="N152">
+        <v>3</v>
+      </c>
+      <c r="O152" t="s">
+        <v>202</v>
+      </c>
+      <c r="P152" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q152">
+        <v>2.2</v>
+      </c>
+      <c r="R152">
+        <v>2.2</v>
+      </c>
+      <c r="S152">
+        <v>6</v>
+      </c>
+      <c r="T152">
+        <v>1.4</v>
+      </c>
+      <c r="U152">
+        <v>3</v>
+      </c>
+      <c r="V152">
+        <v>2.85</v>
+      </c>
+      <c r="W152">
+        <v>1.4</v>
+      </c>
+      <c r="X152">
+        <v>7</v>
+      </c>
+      <c r="Y152">
+        <v>1.08</v>
+      </c>
+      <c r="Z152">
+        <v>1.6</v>
+      </c>
+      <c r="AA152">
+        <v>3.9</v>
+      </c>
+      <c r="AB152">
+        <v>6</v>
+      </c>
+      <c r="AC152">
+        <v>1.04</v>
+      </c>
+      <c r="AD152">
+        <v>12</v>
+      </c>
+      <c r="AE152">
+        <v>1.3</v>
+      </c>
+      <c r="AF152">
+        <v>3.5</v>
+      </c>
+      <c r="AG152">
+        <v>1.95</v>
+      </c>
+      <c r="AH152">
+        <v>1.85</v>
+      </c>
+      <c r="AI152">
+        <v>1.95</v>
+      </c>
+      <c r="AJ152">
+        <v>1.8</v>
+      </c>
+      <c r="AK152">
+        <v>1.14</v>
+      </c>
+      <c r="AL152">
+        <v>1.2</v>
+      </c>
+      <c r="AM152">
+        <v>2.4</v>
+      </c>
+      <c r="AN152">
+        <v>2.29</v>
+      </c>
+      <c r="AO152">
+        <v>0.83</v>
+      </c>
+      <c r="AP152">
+        <v>2</v>
+      </c>
+      <c r="AQ152">
+        <v>1.14</v>
+      </c>
+      <c r="AR152">
+        <v>1.6</v>
+      </c>
+      <c r="AS152">
+        <v>1.06</v>
+      </c>
+      <c r="AT152">
+        <v>2.66</v>
+      </c>
+      <c r="AU152">
+        <v>8</v>
+      </c>
+      <c r="AV152">
+        <v>3</v>
+      </c>
+      <c r="AW152">
+        <v>9</v>
+      </c>
+      <c r="AX152">
+        <v>3</v>
+      </c>
+      <c r="AY152">
+        <v>17</v>
+      </c>
+      <c r="AZ152">
+        <v>6</v>
+      </c>
+      <c r="BA152">
+        <v>9</v>
+      </c>
+      <c r="BB152">
+        <v>4</v>
+      </c>
+      <c r="BC152">
+        <v>13</v>
+      </c>
+      <c r="BD152">
+        <v>1.4</v>
+      </c>
+      <c r="BE152">
+        <v>11</v>
+      </c>
+      <c r="BF152">
+        <v>3.54</v>
+      </c>
+      <c r="BG152">
+        <v>1.11</v>
+      </c>
+      <c r="BH152">
+        <v>6.7</v>
+      </c>
+      <c r="BI152">
+        <v>1.2</v>
+      </c>
+      <c r="BJ152">
+        <v>4.3</v>
+      </c>
+      <c r="BK152">
+        <v>1.91</v>
+      </c>
+      <c r="BL152">
+        <v>3.05</v>
+      </c>
+      <c r="BM152">
+        <v>1.91</v>
+      </c>
+      <c r="BN152">
+        <v>1.8</v>
+      </c>
+      <c r="BO152">
+        <v>1.9</v>
+      </c>
+      <c r="BP152">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7373327</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45484.89583333334</v>
+      </c>
+      <c r="F153">
+        <v>16</v>
+      </c>
+      <c r="G153" t="s">
+        <v>79</v>
+      </c>
+      <c r="H153" t="s">
+        <v>88</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+      <c r="N153">
+        <v>1</v>
+      </c>
+      <c r="O153" t="s">
+        <v>95</v>
+      </c>
+      <c r="P153" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q153">
+        <v>4</v>
+      </c>
+      <c r="R153">
+        <v>1.91</v>
+      </c>
+      <c r="S153">
+        <v>3.25</v>
+      </c>
+      <c r="T153">
+        <v>1.5</v>
+      </c>
+      <c r="U153">
+        <v>2.5</v>
+      </c>
+      <c r="V153">
+        <v>3.4</v>
+      </c>
+      <c r="W153">
+        <v>1.3</v>
+      </c>
+      <c r="X153">
+        <v>10</v>
+      </c>
+      <c r="Y153">
+        <v>1.06</v>
+      </c>
+      <c r="Z153">
+        <v>3.2</v>
+      </c>
+      <c r="AA153">
+        <v>3</v>
+      </c>
+      <c r="AB153">
+        <v>2.45</v>
+      </c>
+      <c r="AC153">
+        <v>1.08</v>
+      </c>
+      <c r="AD153">
+        <v>8.5</v>
+      </c>
+      <c r="AE153">
+        <v>1.42</v>
+      </c>
+      <c r="AF153">
+        <v>2.9</v>
+      </c>
+      <c r="AG153">
+        <v>2.5</v>
+      </c>
+      <c r="AH153">
+        <v>1.5</v>
+      </c>
+      <c r="AI153">
+        <v>2.05</v>
+      </c>
+      <c r="AJ153">
+        <v>1.7</v>
+      </c>
+      <c r="AK153">
+        <v>1.48</v>
+      </c>
+      <c r="AL153">
+        <v>1.3</v>
+      </c>
+      <c r="AM153">
+        <v>1.44</v>
+      </c>
+      <c r="AN153">
+        <v>1.25</v>
+      </c>
+      <c r="AO153">
+        <v>1.75</v>
+      </c>
+      <c r="AP153">
+        <v>1.11</v>
+      </c>
+      <c r="AQ153">
+        <v>1.89</v>
+      </c>
+      <c r="AR153">
+        <v>1.2</v>
+      </c>
+      <c r="AS153">
+        <v>1.1</v>
+      </c>
+      <c r="AT153">
+        <v>2.3</v>
+      </c>
+      <c r="AU153">
+        <v>6</v>
+      </c>
+      <c r="AV153">
+        <v>5</v>
+      </c>
+      <c r="AW153">
+        <v>6</v>
+      </c>
+      <c r="AX153">
+        <v>8</v>
+      </c>
+      <c r="AY153">
+        <v>12</v>
+      </c>
+      <c r="AZ153">
+        <v>13</v>
+      </c>
+      <c r="BA153">
+        <v>4</v>
+      </c>
+      <c r="BB153">
+        <v>5</v>
+      </c>
+      <c r="BC153">
+        <v>9</v>
+      </c>
+      <c r="BD153">
+        <v>1.89</v>
+      </c>
+      <c r="BE153">
+        <v>7.5</v>
+      </c>
+      <c r="BF153">
+        <v>2.34</v>
+      </c>
+      <c r="BG153">
+        <v>1.23</v>
+      </c>
+      <c r="BH153">
+        <v>3.7</v>
+      </c>
+      <c r="BI153">
+        <v>1.45</v>
+      </c>
+      <c r="BJ153">
+        <v>2.66</v>
+      </c>
+      <c r="BK153">
+        <v>2.38</v>
+      </c>
+      <c r="BL153">
+        <v>1.85</v>
+      </c>
+      <c r="BM153">
+        <v>2.2</v>
+      </c>
+      <c r="BN153">
+        <v>1.67</v>
+      </c>
+      <c r="BO153">
+        <v>2.7</v>
+      </c>
+      <c r="BP153">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>7373326</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45484.89583333334</v>
+      </c>
+      <c r="F154">
+        <v>16</v>
+      </c>
+      <c r="G154" t="s">
+        <v>86</v>
+      </c>
+      <c r="H154" t="s">
+        <v>73</v>
+      </c>
+      <c r="I154">
+        <v>2</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <v>3</v>
+      </c>
+      <c r="L154">
+        <v>2</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="N154">
+        <v>3</v>
+      </c>
+      <c r="O154" t="s">
+        <v>203</v>
+      </c>
+      <c r="P154" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q154">
+        <v>3.4</v>
+      </c>
+      <c r="R154">
+        <v>1.95</v>
+      </c>
+      <c r="S154">
+        <v>3.75</v>
+      </c>
+      <c r="T154">
+        <v>1.57</v>
+      </c>
+      <c r="U154">
+        <v>2.25</v>
+      </c>
+      <c r="V154">
+        <v>3.75</v>
+      </c>
+      <c r="W154">
+        <v>1.25</v>
+      </c>
+      <c r="X154">
+        <v>11</v>
+      </c>
+      <c r="Y154">
+        <v>1.05</v>
+      </c>
+      <c r="Z154">
+        <v>2.55</v>
+      </c>
+      <c r="AA154">
+        <v>3.1</v>
+      </c>
+      <c r="AB154">
+        <v>2.9</v>
+      </c>
+      <c r="AC154">
+        <v>1.09</v>
+      </c>
+      <c r="AD154">
+        <v>7.5</v>
+      </c>
+      <c r="AE154">
+        <v>1.5</v>
+      </c>
+      <c r="AF154">
+        <v>2.6</v>
+      </c>
+      <c r="AG154">
+        <v>2.35</v>
+      </c>
+      <c r="AH154">
+        <v>1.57</v>
+      </c>
+      <c r="AI154">
+        <v>2</v>
+      </c>
+      <c r="AJ154">
+        <v>1.75</v>
+      </c>
+      <c r="AK154">
+        <v>1.33</v>
+      </c>
+      <c r="AL154">
+        <v>1.28</v>
+      </c>
+      <c r="AM154">
+        <v>1.62</v>
+      </c>
+      <c r="AN154">
+        <v>1</v>
+      </c>
+      <c r="AO154">
+        <v>1.57</v>
+      </c>
+      <c r="AP154">
+        <v>1.25</v>
+      </c>
+      <c r="AQ154">
+        <v>1.38</v>
+      </c>
+      <c r="AR154">
+        <v>1.48</v>
+      </c>
+      <c r="AS154">
+        <v>1.39</v>
+      </c>
+      <c r="AT154">
+        <v>2.87</v>
+      </c>
+      <c r="AU154">
+        <v>6</v>
+      </c>
+      <c r="AV154">
+        <v>5</v>
+      </c>
+      <c r="AW154">
+        <v>7</v>
+      </c>
+      <c r="AX154">
+        <v>4</v>
+      </c>
+      <c r="AY154">
+        <v>13</v>
+      </c>
+      <c r="AZ154">
+        <v>9</v>
+      </c>
+      <c r="BA154">
+        <v>2</v>
+      </c>
+      <c r="BB154">
+        <v>6</v>
+      </c>
+      <c r="BC154">
+        <v>8</v>
+      </c>
+      <c r="BD154">
+        <v>1.92</v>
+      </c>
+      <c r="BE154">
+        <v>8.6</v>
+      </c>
+      <c r="BF154">
+        <v>2.28</v>
+      </c>
+      <c r="BG154">
+        <v>1.32</v>
+      </c>
+      <c r="BH154">
+        <v>3.2</v>
+      </c>
+      <c r="BI154">
+        <v>1.55</v>
+      </c>
+      <c r="BJ154">
+        <v>2.3</v>
+      </c>
+      <c r="BK154">
+        <v>2.25</v>
+      </c>
+      <c r="BL154">
+        <v>1.8</v>
+      </c>
+      <c r="BM154">
+        <v>2.45</v>
+      </c>
+      <c r="BN154">
+        <v>1.5</v>
+      </c>
+      <c r="BO154">
+        <v>3.25</v>
+      </c>
+      <c r="BP154">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="269">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -628,6 +628,9 @@
     <t>['13', '45+3']</t>
   </si>
   <si>
+    <t>['8', '84']</t>
+  </si>
+  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -812,6 +815,12 @@
   </si>
   <si>
     <t>['18']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['22', '51']</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP154"/>
+  <dimension ref="A1:BP156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1432,7 +1441,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1638,7 +1647,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1844,7 +1853,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -1925,7 +1934,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ4">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2050,7 +2059,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -2256,7 +2265,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2749,7 +2758,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ8">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2874,7 +2883,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3080,7 +3089,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3286,7 +3295,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3492,7 +3501,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3570,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AQ12">
         <v>0.13</v>
@@ -4110,7 +4119,7 @@
         <v>102</v>
       </c>
       <c r="P15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q15">
         <v>2.75</v>
@@ -5839,7 +5848,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ23">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR23">
         <v>1.64</v>
@@ -6582,7 +6591,7 @@
         <v>112</v>
       </c>
       <c r="P27" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -6788,7 +6797,7 @@
         <v>95</v>
       </c>
       <c r="P28" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6994,7 +7003,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q29">
         <v>2.38</v>
@@ -7200,7 +7209,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7406,7 +7415,7 @@
         <v>95</v>
       </c>
       <c r="P31" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7690,7 +7699,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AQ32">
         <v>0.17</v>
@@ -7818,7 +7827,7 @@
         <v>95</v>
       </c>
       <c r="P33" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -8024,7 +8033,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q34">
         <v>2.25</v>
@@ -8517,7 +8526,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ36">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR36">
         <v>1.19</v>
@@ -8642,7 +8651,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8848,7 +8857,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -9260,7 +9269,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9878,7 +9887,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -10290,7 +10299,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10496,7 +10505,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10908,7 +10917,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q48">
         <v>3.6</v>
@@ -11320,7 +11329,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q50">
         <v>2.38</v>
@@ -11526,7 +11535,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q51">
         <v>2.38</v>
@@ -11810,10 +11819,10 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AQ52">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR52">
         <v>1.45</v>
@@ -11938,7 +11947,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q53">
         <v>2.38</v>
@@ -12144,7 +12153,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -12225,7 +12234,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ54">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR54">
         <v>1.51</v>
@@ -12350,7 +12359,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -13174,7 +13183,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q59">
         <v>4.75</v>
@@ -13380,7 +13389,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13586,7 +13595,7 @@
         <v>117</v>
       </c>
       <c r="P61" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q61">
         <v>5.5</v>
@@ -14616,7 +14625,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14697,7 +14706,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ66">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR66">
         <v>1.13</v>
@@ -15028,7 +15037,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15440,7 +15449,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15646,7 +15655,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15727,7 +15736,7 @@
         <v>3</v>
       </c>
       <c r="AQ71">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR71">
         <v>1.56</v>
@@ -16264,7 +16273,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16754,7 +16763,7 @@
         <v>2</v>
       </c>
       <c r="AP76">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AQ76">
         <v>1.14</v>
@@ -17088,7 +17097,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q78">
         <v>2.63</v>
@@ -17294,7 +17303,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -17500,7 +17509,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17706,7 +17715,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -18118,7 +18127,7 @@
         <v>151</v>
       </c>
       <c r="P83" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -18530,7 +18539,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -18736,7 +18745,7 @@
         <v>95</v>
       </c>
       <c r="P86" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -18942,7 +18951,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q87">
         <v>2.38</v>
@@ -19560,7 +19569,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -19641,7 +19650,7 @@
         <v>2</v>
       </c>
       <c r="AQ90">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR90">
         <v>1.48</v>
@@ -20384,7 +20393,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20590,7 +20599,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -20877,7 +20886,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ96">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR96">
         <v>1.68</v>
@@ -21208,7 +21217,7 @@
         <v>95</v>
       </c>
       <c r="P98" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q98">
         <v>3.5</v>
@@ -21826,7 +21835,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q101">
         <v>2.63</v>
@@ -21904,7 +21913,7 @@
         <v>1</v>
       </c>
       <c r="AP101">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AQ101">
         <v>0.89</v>
@@ -22032,7 +22041,7 @@
         <v>95</v>
       </c>
       <c r="P102" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22444,7 +22453,7 @@
         <v>163</v>
       </c>
       <c r="P104" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q104">
         <v>1.83</v>
@@ -23268,7 +23277,7 @@
         <v>167</v>
       </c>
       <c r="P108" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23349,7 +23358,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ108">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR108">
         <v>1.54</v>
@@ -23555,7 +23564,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ109">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR109">
         <v>1.71</v>
@@ -23886,7 +23895,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -24092,7 +24101,7 @@
         <v>138</v>
       </c>
       <c r="P112" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24298,7 +24307,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -24376,7 +24385,7 @@
         <v>0</v>
       </c>
       <c r="AP113">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AQ113">
         <v>0.43</v>
@@ -24710,7 +24719,7 @@
         <v>95</v>
       </c>
       <c r="P115" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -25122,7 +25131,7 @@
         <v>93</v>
       </c>
       <c r="P117" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25409,7 +25418,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ118">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR118">
         <v>1.17</v>
@@ -26152,7 +26161,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q122">
         <v>2.3</v>
@@ -27182,7 +27191,7 @@
         <v>132</v>
       </c>
       <c r="P127" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q127">
         <v>3.6</v>
@@ -27800,7 +27809,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28006,7 +28015,7 @@
         <v>134</v>
       </c>
       <c r="P131" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q131">
         <v>3.2</v>
@@ -28212,7 +28221,7 @@
         <v>184</v>
       </c>
       <c r="P132" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28496,7 +28505,7 @@
         <v>0.33</v>
       </c>
       <c r="AP133">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AQ133">
         <v>0.29</v>
@@ -28624,7 +28633,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -28830,7 +28839,7 @@
         <v>187</v>
       </c>
       <c r="P135" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -29323,7 +29332,7 @@
         <v>2</v>
       </c>
       <c r="AQ137">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR137">
         <v>1.5</v>
@@ -29448,7 +29457,7 @@
         <v>190</v>
       </c>
       <c r="P138" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -29529,7 +29538,7 @@
         <v>2</v>
       </c>
       <c r="AQ138">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR138">
         <v>1.48</v>
@@ -30272,7 +30281,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -30478,7 +30487,7 @@
         <v>195</v>
       </c>
       <c r="P143" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q143">
         <v>2.88</v>
@@ -30890,7 +30899,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q145">
         <v>2.63</v>
@@ -31302,7 +31311,7 @@
         <v>95</v>
       </c>
       <c r="P147" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31714,7 +31723,7 @@
         <v>176</v>
       </c>
       <c r="P149" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q149">
         <v>2.88</v>
@@ -32126,7 +32135,7 @@
         <v>201</v>
       </c>
       <c r="P151" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32332,7 +32341,7 @@
         <v>202</v>
       </c>
       <c r="P152" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q152">
         <v>2.2</v>
@@ -32744,7 +32753,7 @@
         <v>203</v>
       </c>
       <c r="P154" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q154">
         <v>3.4</v>
@@ -32901,6 +32910,418 @@
       </c>
       <c r="BP154">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:68">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>7373336</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45486.66666666666</v>
+      </c>
+      <c r="F155">
+        <v>17</v>
+      </c>
+      <c r="G155" t="s">
+        <v>78</v>
+      </c>
+      <c r="H155" t="s">
+        <v>82</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+      <c r="L155">
+        <v>2</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+      <c r="N155">
+        <v>3</v>
+      </c>
+      <c r="O155" t="s">
+        <v>204</v>
+      </c>
+      <c r="P155" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q155">
+        <v>2.6</v>
+      </c>
+      <c r="R155">
+        <v>2.1</v>
+      </c>
+      <c r="S155">
+        <v>4.75</v>
+      </c>
+      <c r="T155">
+        <v>1.44</v>
+      </c>
+      <c r="U155">
+        <v>2.63</v>
+      </c>
+      <c r="V155">
+        <v>3.4</v>
+      </c>
+      <c r="W155">
+        <v>1.3</v>
+      </c>
+      <c r="X155">
+        <v>10</v>
+      </c>
+      <c r="Y155">
+        <v>1.06</v>
+      </c>
+      <c r="Z155">
+        <v>1.96</v>
+      </c>
+      <c r="AA155">
+        <v>3.31</v>
+      </c>
+      <c r="AB155">
+        <v>3.48</v>
+      </c>
+      <c r="AC155">
+        <v>1.06</v>
+      </c>
+      <c r="AD155">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE155">
+        <v>1.38</v>
+      </c>
+      <c r="AF155">
+        <v>2.82</v>
+      </c>
+      <c r="AG155">
+        <v>2.25</v>
+      </c>
+      <c r="AH155">
+        <v>1.65</v>
+      </c>
+      <c r="AI155">
+        <v>1.95</v>
+      </c>
+      <c r="AJ155">
+        <v>1.8</v>
+      </c>
+      <c r="AK155">
+        <v>1.3</v>
+      </c>
+      <c r="AL155">
+        <v>1.32</v>
+      </c>
+      <c r="AM155">
+        <v>1.75</v>
+      </c>
+      <c r="AN155">
+        <v>3</v>
+      </c>
+      <c r="AO155">
+        <v>0.75</v>
+      </c>
+      <c r="AP155">
+        <v>3</v>
+      </c>
+      <c r="AQ155">
+        <v>0.67</v>
+      </c>
+      <c r="AR155">
+        <v>1.63</v>
+      </c>
+      <c r="AS155">
+        <v>1.43</v>
+      </c>
+      <c r="AT155">
+        <v>3.06</v>
+      </c>
+      <c r="AU155">
+        <v>5</v>
+      </c>
+      <c r="AV155">
+        <v>6</v>
+      </c>
+      <c r="AW155">
+        <v>5</v>
+      </c>
+      <c r="AX155">
+        <v>6</v>
+      </c>
+      <c r="AY155">
+        <v>10</v>
+      </c>
+      <c r="AZ155">
+        <v>12</v>
+      </c>
+      <c r="BA155">
+        <v>1</v>
+      </c>
+      <c r="BB155">
+        <v>8</v>
+      </c>
+      <c r="BC155">
+        <v>9</v>
+      </c>
+      <c r="BD155">
+        <v>1.62</v>
+      </c>
+      <c r="BE155">
+        <v>8.6</v>
+      </c>
+      <c r="BF155">
+        <v>2.81</v>
+      </c>
+      <c r="BG155">
+        <v>1.1</v>
+      </c>
+      <c r="BH155">
+        <v>5.3</v>
+      </c>
+      <c r="BI155">
+        <v>1.24</v>
+      </c>
+      <c r="BJ155">
+        <v>3.48</v>
+      </c>
+      <c r="BK155">
+        <v>1.91</v>
+      </c>
+      <c r="BL155">
+        <v>2.57</v>
+      </c>
+      <c r="BM155">
+        <v>1.95</v>
+      </c>
+      <c r="BN155">
+        <v>1.7</v>
+      </c>
+      <c r="BO155">
+        <v>2.21</v>
+      </c>
+      <c r="BP155">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="156" spans="1:68">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>7373337</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45486.66666666666</v>
+      </c>
+      <c r="F156">
+        <v>17</v>
+      </c>
+      <c r="G156" t="s">
+        <v>80</v>
+      </c>
+      <c r="H156" t="s">
+        <v>89</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>1</v>
+      </c>
+      <c r="K156">
+        <v>1</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="M156">
+        <v>2</v>
+      </c>
+      <c r="N156">
+        <v>3</v>
+      </c>
+      <c r="O156" t="s">
+        <v>122</v>
+      </c>
+      <c r="P156" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q156">
+        <v>2.2</v>
+      </c>
+      <c r="R156">
+        <v>2.2</v>
+      </c>
+      <c r="S156">
+        <v>6</v>
+      </c>
+      <c r="T156">
+        <v>1.44</v>
+      </c>
+      <c r="U156">
+        <v>2.63</v>
+      </c>
+      <c r="V156">
+        <v>3.25</v>
+      </c>
+      <c r="W156">
+        <v>1.33</v>
+      </c>
+      <c r="X156">
+        <v>9</v>
+      </c>
+      <c r="Y156">
+        <v>1.07</v>
+      </c>
+      <c r="Z156">
+        <v>1.5</v>
+      </c>
+      <c r="AA156">
+        <v>3.78</v>
+      </c>
+      <c r="AB156">
+        <v>5.95</v>
+      </c>
+      <c r="AC156">
+        <v>1.06</v>
+      </c>
+      <c r="AD156">
+        <v>9.35</v>
+      </c>
+      <c r="AE156">
+        <v>1.34</v>
+      </c>
+      <c r="AF156">
+        <v>2.99</v>
+      </c>
+      <c r="AG156">
+        <v>2.05</v>
+      </c>
+      <c r="AH156">
+        <v>1.81</v>
+      </c>
+      <c r="AI156">
+        <v>2</v>
+      </c>
+      <c r="AJ156">
+        <v>1.75</v>
+      </c>
+      <c r="AK156">
+        <v>1.15</v>
+      </c>
+      <c r="AL156">
+        <v>1.28</v>
+      </c>
+      <c r="AM156">
+        <v>2.25</v>
+      </c>
+      <c r="AN156">
+        <v>3</v>
+      </c>
+      <c r="AO156">
+        <v>1.14</v>
+      </c>
+      <c r="AP156">
+        <v>2.63</v>
+      </c>
+      <c r="AQ156">
+        <v>1.38</v>
+      </c>
+      <c r="AR156">
+        <v>1.6</v>
+      </c>
+      <c r="AS156">
+        <v>1.17</v>
+      </c>
+      <c r="AT156">
+        <v>2.77</v>
+      </c>
+      <c r="AU156">
+        <v>3</v>
+      </c>
+      <c r="AV156">
+        <v>4</v>
+      </c>
+      <c r="AW156">
+        <v>7</v>
+      </c>
+      <c r="AX156">
+        <v>6</v>
+      </c>
+      <c r="AY156">
+        <v>10</v>
+      </c>
+      <c r="AZ156">
+        <v>10</v>
+      </c>
+      <c r="BA156">
+        <v>8</v>
+      </c>
+      <c r="BB156">
+        <v>4</v>
+      </c>
+      <c r="BC156">
+        <v>12</v>
+      </c>
+      <c r="BD156">
+        <v>1.38</v>
+      </c>
+      <c r="BE156">
+        <v>10.5</v>
+      </c>
+      <c r="BF156">
+        <v>3.66</v>
+      </c>
+      <c r="BG156">
+        <v>1.18</v>
+      </c>
+      <c r="BH156">
+        <v>4.1</v>
+      </c>
+      <c r="BI156">
+        <v>1.37</v>
+      </c>
+      <c r="BJ156">
+        <v>2.84</v>
+      </c>
+      <c r="BK156">
+        <v>2.2</v>
+      </c>
+      <c r="BL156">
+        <v>1.95</v>
+      </c>
+      <c r="BM156">
+        <v>2.09</v>
+      </c>
+      <c r="BN156">
+        <v>1.66</v>
+      </c>
+      <c r="BO156">
+        <v>2.71</v>
+      </c>
+      <c r="BP156">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="270">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -631,6 +631,12 @@
     <t>['8', '84']</t>
   </si>
   <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>['54', '62']</t>
+  </si>
+  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -797,9 +803,6 @@
   </si>
   <si>
     <t>['61', '72']</t>
-  </si>
-  <si>
-    <t>['43']</t>
   </si>
   <si>
     <t>['50', '78']</t>
@@ -1182,7 +1185,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP156"/>
+  <dimension ref="A1:BP158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1441,7 +1444,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1647,7 +1650,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1853,7 +1856,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -2059,7 +2062,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -2265,7 +2268,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2549,10 +2552,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ7">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2883,7 +2886,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3089,7 +3092,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3295,7 +3298,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3501,7 +3504,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -4119,7 +4122,7 @@
         <v>102</v>
       </c>
       <c r="P15" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q15">
         <v>2.75</v>
@@ -4609,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ17">
         <v>0.22</v>
@@ -4818,7 +4821,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ18">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -6591,7 +6594,7 @@
         <v>112</v>
       </c>
       <c r="P27" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -6797,7 +6800,7 @@
         <v>95</v>
       </c>
       <c r="P28" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -7003,7 +7006,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q29">
         <v>2.38</v>
@@ -7209,7 +7212,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7290,7 +7293,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ30">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR30">
         <v>1.35</v>
@@ -7415,7 +7418,7 @@
         <v>95</v>
       </c>
       <c r="P31" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7496,7 +7499,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ31">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR31">
         <v>0</v>
@@ -7827,7 +7830,7 @@
         <v>95</v>
       </c>
       <c r="P33" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -8033,7 +8036,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q34">
         <v>2.25</v>
@@ -8317,7 +8320,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ35">
         <v>0.13</v>
@@ -8651,7 +8654,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8729,7 +8732,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ37">
         <v>1.38</v>
@@ -8857,7 +8860,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -9269,7 +9272,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9350,7 +9353,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ40">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR40">
         <v>2.22</v>
@@ -9759,7 +9762,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ42">
         <v>1.14</v>
@@ -9887,7 +9890,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -10299,7 +10302,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10505,7 +10508,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10917,7 +10920,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q48">
         <v>3.6</v>
@@ -11329,7 +11332,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q50">
         <v>2.38</v>
@@ -11535,7 +11538,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q51">
         <v>2.38</v>
@@ -11947,7 +11950,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q53">
         <v>2.38</v>
@@ -12153,7 +12156,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -12359,7 +12362,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -13055,7 +13058,7 @@
         <v>1.33</v>
       </c>
       <c r="AP58">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ58">
         <v>1.89</v>
@@ -13183,7 +13186,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q59">
         <v>4.75</v>
@@ -13389,7 +13392,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13595,7 +13598,7 @@
         <v>117</v>
       </c>
       <c r="P61" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q61">
         <v>5.5</v>
@@ -14291,7 +14294,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ64">
         <v>1</v>
@@ -14625,7 +14628,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14909,7 +14912,7 @@
         <v>0.33</v>
       </c>
       <c r="AP67">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ67">
         <v>0.71</v>
@@ -15037,7 +15040,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15449,7 +15452,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15530,7 +15533,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ70">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR70">
         <v>1.37</v>
@@ -15655,7 +15658,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15942,7 +15945,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ72">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR72">
         <v>1.66</v>
@@ -16273,7 +16276,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -17097,7 +17100,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q78">
         <v>2.63</v>
@@ -17303,7 +17306,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -17509,7 +17512,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17587,7 +17590,7 @@
         <v>1.75</v>
       </c>
       <c r="AP80">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ80">
         <v>1.38</v>
@@ -17715,7 +17718,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -18127,7 +18130,7 @@
         <v>151</v>
       </c>
       <c r="P83" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -18539,7 +18542,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -18745,7 +18748,7 @@
         <v>95</v>
       </c>
       <c r="P86" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -18951,7 +18954,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q87">
         <v>2.38</v>
@@ -19032,7 +19035,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ87">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR87">
         <v>1.45</v>
@@ -19569,7 +19572,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -19853,7 +19856,7 @@
         <v>0</v>
       </c>
       <c r="AP91">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ91">
         <v>0.43</v>
@@ -20393,7 +20396,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20474,7 +20477,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ94">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR94">
         <v>1.18</v>
@@ -20599,7 +20602,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -21217,7 +21220,7 @@
         <v>95</v>
       </c>
       <c r="P98" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q98">
         <v>3.5</v>
@@ -21835,7 +21838,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q101">
         <v>2.63</v>
@@ -22041,7 +22044,7 @@
         <v>95</v>
       </c>
       <c r="P102" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22453,7 +22456,7 @@
         <v>163</v>
       </c>
       <c r="P104" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q104">
         <v>1.83</v>
@@ -23277,7 +23280,7 @@
         <v>167</v>
       </c>
       <c r="P108" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23561,7 +23564,7 @@
         <v>1.2</v>
       </c>
       <c r="AP109">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ109">
         <v>1.38</v>
@@ -23767,7 +23770,7 @@
         <v>2</v>
       </c>
       <c r="AP110">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ110">
         <v>1.88</v>
@@ -23895,7 +23898,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -24101,7 +24104,7 @@
         <v>138</v>
       </c>
       <c r="P112" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24182,7 +24185,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ112">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR112">
         <v>1.55</v>
@@ -24307,7 +24310,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -24719,7 +24722,7 @@
         <v>95</v>
       </c>
       <c r="P115" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -25006,7 +25009,7 @@
         <v>2</v>
       </c>
       <c r="AQ116">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR116">
         <v>1.55</v>
@@ -25131,7 +25134,7 @@
         <v>93</v>
       </c>
       <c r="P117" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -26161,7 +26164,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q122">
         <v>2.3</v>
@@ -27191,7 +27194,7 @@
         <v>132</v>
       </c>
       <c r="P127" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q127">
         <v>3.6</v>
@@ -27809,7 +27812,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28015,7 +28018,7 @@
         <v>134</v>
       </c>
       <c r="P131" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q131">
         <v>3.2</v>
@@ -28221,7 +28224,7 @@
         <v>184</v>
       </c>
       <c r="P132" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28633,7 +28636,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -28839,7 +28842,7 @@
         <v>187</v>
       </c>
       <c r="P135" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -28917,7 +28920,7 @@
         <v>0.83</v>
       </c>
       <c r="AP135">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ135">
         <v>0.71</v>
@@ -29457,7 +29460,7 @@
         <v>190</v>
       </c>
       <c r="P138" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -30153,7 +30156,7 @@
         <v>0.2</v>
       </c>
       <c r="AP141">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ141">
         <v>0.17</v>
@@ -30281,7 +30284,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -30487,7 +30490,7 @@
         <v>195</v>
       </c>
       <c r="P143" t="s">
-        <v>261</v>
+        <v>205</v>
       </c>
       <c r="Q143">
         <v>2.88</v>
@@ -30568,7 +30571,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ143">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR143">
         <v>1.23</v>
@@ -30899,7 +30902,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q145">
         <v>2.63</v>
@@ -31186,7 +31189,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ146">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR146">
         <v>1.52</v>
@@ -31311,7 +31314,7 @@
         <v>95</v>
       </c>
       <c r="P147" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31723,7 +31726,7 @@
         <v>176</v>
       </c>
       <c r="P149" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q149">
         <v>2.88</v>
@@ -32135,7 +32138,7 @@
         <v>201</v>
       </c>
       <c r="P151" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32341,7 +32344,7 @@
         <v>202</v>
       </c>
       <c r="P152" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q152">
         <v>2.2</v>
@@ -32753,7 +32756,7 @@
         <v>203</v>
       </c>
       <c r="P154" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q154">
         <v>3.4</v>
@@ -32959,7 +32962,7 @@
         <v>204</v>
       </c>
       <c r="P155" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q155">
         <v>2.6</v>
@@ -33165,7 +33168,7 @@
         <v>122</v>
       </c>
       <c r="P156" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33322,6 +33325,418 @@
       </c>
       <c r="BP156">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="157" spans="1:68">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>7373344</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45489.79166666666</v>
+      </c>
+      <c r="F157">
+        <v>17</v>
+      </c>
+      <c r="G157" t="s">
+        <v>85</v>
+      </c>
+      <c r="H157" t="s">
+        <v>86</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>1</v>
+      </c>
+      <c r="K157">
+        <v>2</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157">
+        <v>2</v>
+      </c>
+      <c r="O157" t="s">
+        <v>205</v>
+      </c>
+      <c r="P157" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q157">
+        <v>4</v>
+      </c>
+      <c r="R157">
+        <v>2.05</v>
+      </c>
+      <c r="S157">
+        <v>3</v>
+      </c>
+      <c r="T157">
+        <v>1.5</v>
+      </c>
+      <c r="U157">
+        <v>2.5</v>
+      </c>
+      <c r="V157">
+        <v>3.5</v>
+      </c>
+      <c r="W157">
+        <v>1.29</v>
+      </c>
+      <c r="X157">
+        <v>11</v>
+      </c>
+      <c r="Y157">
+        <v>1.05</v>
+      </c>
+      <c r="Z157">
+        <v>3.4</v>
+      </c>
+      <c r="AA157">
+        <v>3.2</v>
+      </c>
+      <c r="AB157">
+        <v>2.2</v>
+      </c>
+      <c r="AC157">
+        <v>1.09</v>
+      </c>
+      <c r="AD157">
+        <v>8</v>
+      </c>
+      <c r="AE157">
+        <v>1.45</v>
+      </c>
+      <c r="AF157">
+        <v>2.75</v>
+      </c>
+      <c r="AG157">
+        <v>2.1</v>
+      </c>
+      <c r="AH157">
+        <v>1.7</v>
+      </c>
+      <c r="AI157">
+        <v>1.91</v>
+      </c>
+      <c r="AJ157">
+        <v>1.91</v>
+      </c>
+      <c r="AK157">
+        <v>1.68</v>
+      </c>
+      <c r="AL157">
+        <v>1.3</v>
+      </c>
+      <c r="AM157">
+        <v>1.3</v>
+      </c>
+      <c r="AN157">
+        <v>2.43</v>
+      </c>
+      <c r="AO157">
+        <v>1.57</v>
+      </c>
+      <c r="AP157">
+        <v>2.25</v>
+      </c>
+      <c r="AQ157">
+        <v>1.5</v>
+      </c>
+      <c r="AR157">
+        <v>1.45</v>
+      </c>
+      <c r="AS157">
+        <v>1.33</v>
+      </c>
+      <c r="AT157">
+        <v>2.78</v>
+      </c>
+      <c r="AU157">
+        <v>3</v>
+      </c>
+      <c r="AV157">
+        <v>6</v>
+      </c>
+      <c r="AW157">
+        <v>2</v>
+      </c>
+      <c r="AX157">
+        <v>10</v>
+      </c>
+      <c r="AY157">
+        <v>5</v>
+      </c>
+      <c r="AZ157">
+        <v>16</v>
+      </c>
+      <c r="BA157">
+        <v>1</v>
+      </c>
+      <c r="BB157">
+        <v>8</v>
+      </c>
+      <c r="BC157">
+        <v>9</v>
+      </c>
+      <c r="BD157">
+        <v>2.28</v>
+      </c>
+      <c r="BE157">
+        <v>6.55</v>
+      </c>
+      <c r="BF157">
+        <v>1.99</v>
+      </c>
+      <c r="BG157">
+        <v>1.2</v>
+      </c>
+      <c r="BH157">
+        <v>3.88</v>
+      </c>
+      <c r="BI157">
+        <v>1.4</v>
+      </c>
+      <c r="BJ157">
+        <v>2.72</v>
+      </c>
+      <c r="BK157">
+        <v>2.1</v>
+      </c>
+      <c r="BL157">
+        <v>2.05</v>
+      </c>
+      <c r="BM157">
+        <v>2.16</v>
+      </c>
+      <c r="BN157">
+        <v>1.62</v>
+      </c>
+      <c r="BO157">
+        <v>2.84</v>
+      </c>
+      <c r="BP157">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="158" spans="1:68">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>7373340</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>69</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45489.875</v>
+      </c>
+      <c r="F158">
+        <v>17</v>
+      </c>
+      <c r="G158" t="s">
+        <v>75</v>
+      </c>
+      <c r="H158" t="s">
+        <v>71</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>1</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158">
+        <v>2</v>
+      </c>
+      <c r="M158">
+        <v>1</v>
+      </c>
+      <c r="N158">
+        <v>3</v>
+      </c>
+      <c r="O158" t="s">
+        <v>206</v>
+      </c>
+      <c r="P158" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q158">
+        <v>2.5</v>
+      </c>
+      <c r="R158">
+        <v>2.1</v>
+      </c>
+      <c r="S158">
+        <v>4.75</v>
+      </c>
+      <c r="T158">
+        <v>1.44</v>
+      </c>
+      <c r="U158">
+        <v>2.63</v>
+      </c>
+      <c r="V158">
+        <v>3.25</v>
+      </c>
+      <c r="W158">
+        <v>1.33</v>
+      </c>
+      <c r="X158">
+        <v>9</v>
+      </c>
+      <c r="Y158">
+        <v>1.07</v>
+      </c>
+      <c r="Z158">
+        <v>1.85</v>
+      </c>
+      <c r="AA158">
+        <v>3.4</v>
+      </c>
+      <c r="AB158">
+        <v>4.5</v>
+      </c>
+      <c r="AC158">
+        <v>1.06</v>
+      </c>
+      <c r="AD158">
+        <v>9.5</v>
+      </c>
+      <c r="AE158">
+        <v>1.36</v>
+      </c>
+      <c r="AF158">
+        <v>3.1</v>
+      </c>
+      <c r="AG158">
+        <v>2.08</v>
+      </c>
+      <c r="AH158">
+        <v>1.73</v>
+      </c>
+      <c r="AI158">
+        <v>1.95</v>
+      </c>
+      <c r="AJ158">
+        <v>1.8</v>
+      </c>
+      <c r="AK158">
+        <v>1.22</v>
+      </c>
+      <c r="AL158">
+        <v>1.25</v>
+      </c>
+      <c r="AM158">
+        <v>1.9</v>
+      </c>
+      <c r="AN158">
+        <v>1.43</v>
+      </c>
+      <c r="AO158">
+        <v>1.17</v>
+      </c>
+      <c r="AP158">
+        <v>1.63</v>
+      </c>
+      <c r="AQ158">
+        <v>1</v>
+      </c>
+      <c r="AR158">
+        <v>1.73</v>
+      </c>
+      <c r="AS158">
+        <v>1.28</v>
+      </c>
+      <c r="AT158">
+        <v>3.01</v>
+      </c>
+      <c r="AU158">
+        <v>7</v>
+      </c>
+      <c r="AV158">
+        <v>5</v>
+      </c>
+      <c r="AW158">
+        <v>5</v>
+      </c>
+      <c r="AX158">
+        <v>8</v>
+      </c>
+      <c r="AY158">
+        <v>12</v>
+      </c>
+      <c r="AZ158">
+        <v>13</v>
+      </c>
+      <c r="BA158">
+        <v>5</v>
+      </c>
+      <c r="BB158">
+        <v>5</v>
+      </c>
+      <c r="BC158">
+        <v>10</v>
+      </c>
+      <c r="BD158">
+        <v>1.38</v>
+      </c>
+      <c r="BE158">
+        <v>7.8</v>
+      </c>
+      <c r="BF158">
+        <v>4.15</v>
+      </c>
+      <c r="BG158">
+        <v>1.14</v>
+      </c>
+      <c r="BH158">
+        <v>4.7</v>
+      </c>
+      <c r="BI158">
+        <v>1.28</v>
+      </c>
+      <c r="BJ158">
+        <v>3.18</v>
+      </c>
+      <c r="BK158">
+        <v>1.91</v>
+      </c>
+      <c r="BL158">
+        <v>2.33</v>
+      </c>
+      <c r="BM158">
+        <v>1.91</v>
+      </c>
+      <c r="BN158">
+        <v>1.8</v>
+      </c>
+      <c r="BO158">
+        <v>2.44</v>
+      </c>
+      <c r="BP158">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="272">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -637,6 +637,9 @@
     <t>['54', '62']</t>
   </si>
   <si>
+    <t>['25', '39', '55']</t>
+  </si>
+  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -824,6 +827,9 @@
   </si>
   <si>
     <t>['22', '51']</t>
+  </si>
+  <si>
+    <t>['51']</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1191,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP158"/>
+  <dimension ref="A1:BP162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1444,7 +1450,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1650,7 +1656,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1856,7 +1862,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -2062,7 +2068,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -2140,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ5">
         <v>1.14</v>
@@ -2268,7 +2274,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2349,7 +2355,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ6">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2886,7 +2892,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2964,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ9">
         <v>1.88</v>
@@ -3092,7 +3098,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3298,7 +3304,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3379,7 +3385,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3504,7 +3510,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3997,7 +4003,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ14">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4122,7 +4128,7 @@
         <v>102</v>
       </c>
       <c r="P15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q15">
         <v>2.75</v>
@@ -4200,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ15">
         <v>0.89</v>
@@ -5230,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5439,7 +5445,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ21">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR21">
         <v>2.75</v>
@@ -6594,7 +6600,7 @@
         <v>112</v>
       </c>
       <c r="P27" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -6800,7 +6806,7 @@
         <v>95</v>
       </c>
       <c r="P28" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6878,7 +6884,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ28">
         <v>1.38</v>
@@ -7006,7 +7012,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q29">
         <v>2.38</v>
@@ -7084,7 +7090,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ29">
         <v>0.29</v>
@@ -7212,7 +7218,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7418,7 +7424,7 @@
         <v>95</v>
       </c>
       <c r="P31" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7705,7 +7711,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ32">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR32">
         <v>1.55</v>
@@ -7830,7 +7836,7 @@
         <v>95</v>
       </c>
       <c r="P33" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -8036,7 +8042,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q34">
         <v>2.25</v>
@@ -8117,7 +8123,7 @@
         <v>3</v>
       </c>
       <c r="AQ34">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR34">
         <v>1.46</v>
@@ -8526,7 +8532,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ36">
         <v>0.67</v>
@@ -8654,7 +8660,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8860,7 +8866,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -9144,10 +9150,10 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ39">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR39">
         <v>1.75</v>
@@ -9272,7 +9278,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9890,7 +9896,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -10177,7 +10183,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ44">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR44">
         <v>1.32</v>
@@ -10302,7 +10308,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10380,7 +10386,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ45">
         <v>1</v>
@@ -10508,7 +10514,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10589,7 +10595,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ46">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR46">
         <v>0.52</v>
@@ -10920,7 +10926,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q48">
         <v>3.6</v>
@@ -10998,7 +11004,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ48">
         <v>0.89</v>
@@ -11204,7 +11210,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ49">
         <v>1.89</v>
@@ -11332,7 +11338,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q50">
         <v>2.38</v>
@@ -11538,7 +11544,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q51">
         <v>2.38</v>
@@ -11619,7 +11625,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ51">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR51">
         <v>1.51</v>
@@ -11950,7 +11956,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q53">
         <v>2.38</v>
@@ -12028,7 +12034,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ53">
         <v>0.13</v>
@@ -12156,7 +12162,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -12362,7 +12368,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -13186,7 +13192,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q59">
         <v>4.75</v>
@@ -13267,7 +13273,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ59">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR59">
         <v>0.99</v>
@@ -13392,7 +13398,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13598,7 +13604,7 @@
         <v>117</v>
       </c>
       <c r="P61" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q61">
         <v>5.5</v>
@@ -13882,7 +13888,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ62">
         <v>1.38</v>
@@ -14088,7 +14094,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ63">
         <v>0.89</v>
@@ -14503,7 +14509,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ65">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR65">
         <v>0.78</v>
@@ -14628,7 +14634,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14915,7 +14921,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ67">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR67">
         <v>1.39</v>
@@ -15040,7 +15046,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15118,7 +15124,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ68">
         <v>0.22</v>
@@ -15324,7 +15330,7 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ69">
         <v>0.13</v>
@@ -15452,7 +15458,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15658,7 +15664,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16276,7 +16282,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16357,7 +16363,7 @@
         <v>2</v>
       </c>
       <c r="AQ74">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR74">
         <v>1.61</v>
@@ -16563,7 +16569,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ75">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR75">
         <v>1.45</v>
@@ -17100,7 +17106,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q78">
         <v>2.63</v>
@@ -17306,7 +17312,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -17512,7 +17518,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17718,7 +17724,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -18130,7 +18136,7 @@
         <v>151</v>
       </c>
       <c r="P83" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -18542,7 +18548,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -18748,7 +18754,7 @@
         <v>95</v>
       </c>
       <c r="P86" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -18829,7 +18835,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ86">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR86">
         <v>1.61</v>
@@ -18954,7 +18960,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q87">
         <v>2.38</v>
@@ -19032,7 +19038,7 @@
         <v>1.33</v>
       </c>
       <c r="AP87">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ87">
         <v>1</v>
@@ -19238,7 +19244,7 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ88">
         <v>1.38</v>
@@ -19444,10 +19450,10 @@
         <v>0</v>
       </c>
       <c r="AP89">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ89">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR89">
         <v>1.34</v>
@@ -19572,7 +19578,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -19650,7 +19656,7 @@
         <v>0.75</v>
       </c>
       <c r="AP90">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ90">
         <v>1.38</v>
@@ -19859,7 +19865,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ91">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR91">
         <v>1.35</v>
@@ -20396,7 +20402,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20602,7 +20608,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -21220,7 +21226,7 @@
         <v>95</v>
       </c>
       <c r="P98" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q98">
         <v>3.5</v>
@@ -21838,7 +21844,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q101">
         <v>2.63</v>
@@ -22044,7 +22050,7 @@
         <v>95</v>
       </c>
       <c r="P102" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22456,7 +22462,7 @@
         <v>163</v>
       </c>
       <c r="P104" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q104">
         <v>1.83</v>
@@ -22949,7 +22955,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ106">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR106">
         <v>1.31</v>
@@ -23280,7 +23286,7 @@
         <v>167</v>
       </c>
       <c r="P108" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23358,7 +23364,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ108">
         <v>0.67</v>
@@ -23898,7 +23904,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -23976,10 +23982,10 @@
         <v>0</v>
       </c>
       <c r="AP111">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ111">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR111">
         <v>1.39</v>
@@ -24104,7 +24110,7 @@
         <v>138</v>
       </c>
       <c r="P112" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24310,7 +24316,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -24391,7 +24397,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ113">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR113">
         <v>1.4</v>
@@ -24594,10 +24600,10 @@
         <v>2.6</v>
       </c>
       <c r="AP114">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ114">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR114">
         <v>1.34</v>
@@ -24722,7 +24728,7 @@
         <v>95</v>
       </c>
       <c r="P115" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -24803,7 +24809,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ115">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR115">
         <v>1.49</v>
@@ -25006,7 +25012,7 @@
         <v>1.75</v>
       </c>
       <c r="AP116">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ116">
         <v>1</v>
@@ -25134,7 +25140,7 @@
         <v>93</v>
       </c>
       <c r="P117" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -26036,7 +26042,7 @@
         <v>1</v>
       </c>
       <c r="AP121">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ121">
         <v>1</v>
@@ -26164,7 +26170,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q122">
         <v>2.3</v>
@@ -26242,7 +26248,7 @@
         <v>0.4</v>
       </c>
       <c r="AP122">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ122">
         <v>0.29</v>
@@ -27194,7 +27200,7 @@
         <v>132</v>
       </c>
       <c r="P127" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q127">
         <v>3.6</v>
@@ -27812,7 +27818,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28018,7 +28024,7 @@
         <v>134</v>
       </c>
       <c r="P131" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q131">
         <v>3.2</v>
@@ -28224,7 +28230,7 @@
         <v>184</v>
       </c>
       <c r="P132" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28636,7 +28642,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -28717,7 +28723,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ134">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR134">
         <v>1.45</v>
@@ -28842,7 +28848,7 @@
         <v>187</v>
       </c>
       <c r="P135" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -28923,7 +28929,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ135">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR135">
         <v>1.8</v>
@@ -29332,7 +29338,7 @@
         <v>0.86</v>
       </c>
       <c r="AP137">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ137">
         <v>0.67</v>
@@ -29460,7 +29466,7 @@
         <v>190</v>
       </c>
       <c r="P138" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -29950,7 +29956,7 @@
         <v>0</v>
       </c>
       <c r="AP140">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ140">
         <v>0.13</v>
@@ -30159,7 +30165,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ141">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR141">
         <v>1.44</v>
@@ -30284,7 +30290,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -30365,7 +30371,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ142">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR142">
         <v>1.54</v>
@@ -30902,7 +30908,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q145">
         <v>2.63</v>
@@ -30980,7 +30986,7 @@
         <v>1.14</v>
       </c>
       <c r="AP145">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ145">
         <v>1.38</v>
@@ -31186,7 +31192,7 @@
         <v>1.83</v>
       </c>
       <c r="AP146">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ146">
         <v>1.5</v>
@@ -31314,7 +31320,7 @@
         <v>95</v>
       </c>
       <c r="P147" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31726,7 +31732,7 @@
         <v>176</v>
       </c>
       <c r="P149" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q149">
         <v>2.88</v>
@@ -32138,7 +32144,7 @@
         <v>201</v>
       </c>
       <c r="P151" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32344,7 +32350,7 @@
         <v>202</v>
       </c>
       <c r="P152" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q152">
         <v>2.2</v>
@@ -32756,7 +32762,7 @@
         <v>203</v>
       </c>
       <c r="P154" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q154">
         <v>3.4</v>
@@ -32962,7 +32968,7 @@
         <v>204</v>
       </c>
       <c r="P155" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q155">
         <v>2.6</v>
@@ -33168,7 +33174,7 @@
         <v>122</v>
       </c>
       <c r="P156" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33374,7 +33380,7 @@
         <v>205</v>
       </c>
       <c r="P157" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -33737,6 +33743,830 @@
       </c>
       <c r="BP158">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="159" spans="1:68">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>7373343</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45490.79166666666</v>
+      </c>
+      <c r="F159">
+        <v>17</v>
+      </c>
+      <c r="G159" t="s">
+        <v>77</v>
+      </c>
+      <c r="H159" t="s">
+        <v>74</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <v>1</v>
+      </c>
+      <c r="N159">
+        <v>1</v>
+      </c>
+      <c r="O159" t="s">
+        <v>95</v>
+      </c>
+      <c r="P159" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q159">
+        <v>2.88</v>
+      </c>
+      <c r="R159">
+        <v>2</v>
+      </c>
+      <c r="S159">
+        <v>4.33</v>
+      </c>
+      <c r="T159">
+        <v>1.44</v>
+      </c>
+      <c r="U159">
+        <v>2.63</v>
+      </c>
+      <c r="V159">
+        <v>3.25</v>
+      </c>
+      <c r="W159">
+        <v>1.33</v>
+      </c>
+      <c r="X159">
+        <v>10</v>
+      </c>
+      <c r="Y159">
+        <v>1.06</v>
+      </c>
+      <c r="Z159">
+        <v>2.15</v>
+      </c>
+      <c r="AA159">
+        <v>3.3</v>
+      </c>
+      <c r="AB159">
+        <v>3.5</v>
+      </c>
+      <c r="AC159">
+        <v>1.06</v>
+      </c>
+      <c r="AD159">
+        <v>10</v>
+      </c>
+      <c r="AE159">
+        <v>1.36</v>
+      </c>
+      <c r="AF159">
+        <v>3.1</v>
+      </c>
+      <c r="AG159">
+        <v>2.35</v>
+      </c>
+      <c r="AH159">
+        <v>1.57</v>
+      </c>
+      <c r="AI159">
+        <v>2</v>
+      </c>
+      <c r="AJ159">
+        <v>1.75</v>
+      </c>
+      <c r="AK159">
+        <v>1.36</v>
+      </c>
+      <c r="AL159">
+        <v>1.25</v>
+      </c>
+      <c r="AM159">
+        <v>1.66</v>
+      </c>
+      <c r="AN159">
+        <v>0.29</v>
+      </c>
+      <c r="AO159">
+        <v>0.43</v>
+      </c>
+      <c r="AP159">
+        <v>0.25</v>
+      </c>
+      <c r="AQ159">
+        <v>0.75</v>
+      </c>
+      <c r="AR159">
+        <v>1.42</v>
+      </c>
+      <c r="AS159">
+        <v>1.15</v>
+      </c>
+      <c r="AT159">
+        <v>2.57</v>
+      </c>
+      <c r="AU159">
+        <v>8</v>
+      </c>
+      <c r="AV159">
+        <v>6</v>
+      </c>
+      <c r="AW159">
+        <v>5</v>
+      </c>
+      <c r="AX159">
+        <v>8</v>
+      </c>
+      <c r="AY159">
+        <v>13</v>
+      </c>
+      <c r="AZ159">
+        <v>14</v>
+      </c>
+      <c r="BA159">
+        <v>4</v>
+      </c>
+      <c r="BB159">
+        <v>6</v>
+      </c>
+      <c r="BC159">
+        <v>10</v>
+      </c>
+      <c r="BD159">
+        <v>1.54</v>
+      </c>
+      <c r="BE159">
+        <v>7.3</v>
+      </c>
+      <c r="BF159">
+        <v>3.26</v>
+      </c>
+      <c r="BG159">
+        <v>1.14</v>
+      </c>
+      <c r="BH159">
+        <v>4.7</v>
+      </c>
+      <c r="BI159">
+        <v>1.28</v>
+      </c>
+      <c r="BJ159">
+        <v>3.18</v>
+      </c>
+      <c r="BK159">
+        <v>1.91</v>
+      </c>
+      <c r="BL159">
+        <v>2.33</v>
+      </c>
+      <c r="BM159">
+        <v>2</v>
+      </c>
+      <c r="BN159">
+        <v>1.8</v>
+      </c>
+      <c r="BO159">
+        <v>2.44</v>
+      </c>
+      <c r="BP159">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="160" spans="1:68">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>7373341</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45490.83333333334</v>
+      </c>
+      <c r="F160">
+        <v>17</v>
+      </c>
+      <c r="G160" t="s">
+        <v>73</v>
+      </c>
+      <c r="H160" t="s">
+        <v>81</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>1</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>1</v>
+      </c>
+      <c r="O160" t="s">
+        <v>125</v>
+      </c>
+      <c r="P160" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q160">
+        <v>2.2</v>
+      </c>
+      <c r="R160">
+        <v>2.2</v>
+      </c>
+      <c r="S160">
+        <v>6.5</v>
+      </c>
+      <c r="T160">
+        <v>1.44</v>
+      </c>
+      <c r="U160">
+        <v>2.63</v>
+      </c>
+      <c r="V160">
+        <v>3.25</v>
+      </c>
+      <c r="W160">
+        <v>1.33</v>
+      </c>
+      <c r="X160">
+        <v>9</v>
+      </c>
+      <c r="Y160">
+        <v>1.07</v>
+      </c>
+      <c r="Z160">
+        <v>1.55</v>
+      </c>
+      <c r="AA160">
+        <v>3.7</v>
+      </c>
+      <c r="AB160">
+        <v>7</v>
+      </c>
+      <c r="AC160">
+        <v>1.06</v>
+      </c>
+      <c r="AD160">
+        <v>10</v>
+      </c>
+      <c r="AE160">
+        <v>1.36</v>
+      </c>
+      <c r="AF160">
+        <v>3.1</v>
+      </c>
+      <c r="AG160">
+        <v>2.1</v>
+      </c>
+      <c r="AH160">
+        <v>1.7</v>
+      </c>
+      <c r="AI160">
+        <v>2.1</v>
+      </c>
+      <c r="AJ160">
+        <v>1.67</v>
+      </c>
+      <c r="AK160">
+        <v>1.14</v>
+      </c>
+      <c r="AL160">
+        <v>1.22</v>
+      </c>
+      <c r="AM160">
+        <v>2.3</v>
+      </c>
+      <c r="AN160">
+        <v>2</v>
+      </c>
+      <c r="AO160">
+        <v>0.17</v>
+      </c>
+      <c r="AP160">
+        <v>2.11</v>
+      </c>
+      <c r="AQ160">
+        <v>0.14</v>
+      </c>
+      <c r="AR160">
+        <v>1.46</v>
+      </c>
+      <c r="AS160">
+        <v>1.16</v>
+      </c>
+      <c r="AT160">
+        <v>2.62</v>
+      </c>
+      <c r="AU160">
+        <v>9</v>
+      </c>
+      <c r="AV160">
+        <v>6</v>
+      </c>
+      <c r="AW160">
+        <v>3</v>
+      </c>
+      <c r="AX160">
+        <v>7</v>
+      </c>
+      <c r="AY160">
+        <v>12</v>
+      </c>
+      <c r="AZ160">
+        <v>13</v>
+      </c>
+      <c r="BA160">
+        <v>8</v>
+      </c>
+      <c r="BB160">
+        <v>9</v>
+      </c>
+      <c r="BC160">
+        <v>17</v>
+      </c>
+      <c r="BD160">
+        <v>1.43</v>
+      </c>
+      <c r="BE160">
+        <v>11</v>
+      </c>
+      <c r="BF160">
+        <v>3.6</v>
+      </c>
+      <c r="BG160">
+        <v>1.22</v>
+      </c>
+      <c r="BH160">
+        <v>3.8</v>
+      </c>
+      <c r="BI160">
+        <v>1.3</v>
+      </c>
+      <c r="BJ160">
+        <v>3.2</v>
+      </c>
+      <c r="BK160">
+        <v>1.91</v>
+      </c>
+      <c r="BL160">
+        <v>2.32</v>
+      </c>
+      <c r="BM160">
+        <v>2</v>
+      </c>
+      <c r="BN160">
+        <v>1.8</v>
+      </c>
+      <c r="BO160">
+        <v>2.52</v>
+      </c>
+      <c r="BP160">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="161" spans="1:68">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>7373342</v>
+      </c>
+      <c r="C161" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45490.89583333334</v>
+      </c>
+      <c r="F161">
+        <v>17</v>
+      </c>
+      <c r="G161" t="s">
+        <v>83</v>
+      </c>
+      <c r="H161" t="s">
+        <v>79</v>
+      </c>
+      <c r="I161">
+        <v>2</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>2</v>
+      </c>
+      <c r="L161">
+        <v>3</v>
+      </c>
+      <c r="M161">
+        <v>1</v>
+      </c>
+      <c r="N161">
+        <v>4</v>
+      </c>
+      <c r="O161" t="s">
+        <v>207</v>
+      </c>
+      <c r="P161" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q161">
+        <v>2.25</v>
+      </c>
+      <c r="R161">
+        <v>2.1</v>
+      </c>
+      <c r="S161">
+        <v>6</v>
+      </c>
+      <c r="T161">
+        <v>1.44</v>
+      </c>
+      <c r="U161">
+        <v>2.63</v>
+      </c>
+      <c r="V161">
+        <v>3.25</v>
+      </c>
+      <c r="W161">
+        <v>1.33</v>
+      </c>
+      <c r="X161">
+        <v>9</v>
+      </c>
+      <c r="Y161">
+        <v>1.07</v>
+      </c>
+      <c r="Z161">
+        <v>1.65</v>
+      </c>
+      <c r="AA161">
+        <v>3.75</v>
+      </c>
+      <c r="AB161">
+        <v>5.5</v>
+      </c>
+      <c r="AC161">
+        <v>1.06</v>
+      </c>
+      <c r="AD161">
+        <v>10</v>
+      </c>
+      <c r="AE161">
+        <v>1.36</v>
+      </c>
+      <c r="AF161">
+        <v>3.1</v>
+      </c>
+      <c r="AG161">
+        <v>2.1</v>
+      </c>
+      <c r="AH161">
+        <v>1.7</v>
+      </c>
+      <c r="AI161">
+        <v>2.05</v>
+      </c>
+      <c r="AJ161">
+        <v>1.7</v>
+      </c>
+      <c r="AK161">
+        <v>1.15</v>
+      </c>
+      <c r="AL161">
+        <v>1.22</v>
+      </c>
+      <c r="AM161">
+        <v>2.25</v>
+      </c>
+      <c r="AN161">
+        <v>2.25</v>
+      </c>
+      <c r="AO161">
+        <v>0.71</v>
+      </c>
+      <c r="AP161">
+        <v>2.33</v>
+      </c>
+      <c r="AQ161">
+        <v>0.63</v>
+      </c>
+      <c r="AR161">
+        <v>1.45</v>
+      </c>
+      <c r="AS161">
+        <v>1.39</v>
+      </c>
+      <c r="AT161">
+        <v>2.84</v>
+      </c>
+      <c r="AU161">
+        <v>5</v>
+      </c>
+      <c r="AV161">
+        <v>4</v>
+      </c>
+      <c r="AW161">
+        <v>5</v>
+      </c>
+      <c r="AX161">
+        <v>5</v>
+      </c>
+      <c r="AY161">
+        <v>10</v>
+      </c>
+      <c r="AZ161">
+        <v>9</v>
+      </c>
+      <c r="BA161">
+        <v>1</v>
+      </c>
+      <c r="BB161">
+        <v>6</v>
+      </c>
+      <c r="BC161">
+        <v>7</v>
+      </c>
+      <c r="BD161">
+        <v>1.47</v>
+      </c>
+      <c r="BE161">
+        <v>7.4</v>
+      </c>
+      <c r="BF161">
+        <v>3.6</v>
+      </c>
+      <c r="BG161">
+        <v>1.15</v>
+      </c>
+      <c r="BH161">
+        <v>4.4</v>
+      </c>
+      <c r="BI161">
+        <v>1.32</v>
+      </c>
+      <c r="BJ161">
+        <v>2.98</v>
+      </c>
+      <c r="BK161">
+        <v>2.1</v>
+      </c>
+      <c r="BL161">
+        <v>1.95</v>
+      </c>
+      <c r="BM161">
+        <v>2</v>
+      </c>
+      <c r="BN161">
+        <v>1.76</v>
+      </c>
+      <c r="BO161">
+        <v>2.57</v>
+      </c>
+      <c r="BP161">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="162" spans="1:68">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>7373339</v>
+      </c>
+      <c r="C162" t="s">
+        <v>68</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45490.89583333334</v>
+      </c>
+      <c r="F162">
+        <v>17</v>
+      </c>
+      <c r="G162" t="s">
+        <v>88</v>
+      </c>
+      <c r="H162" t="s">
+        <v>84</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>1</v>
+      </c>
+      <c r="O162" t="s">
+        <v>192</v>
+      </c>
+      <c r="P162" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q162">
+        <v>3.4</v>
+      </c>
+      <c r="R162">
+        <v>2.1</v>
+      </c>
+      <c r="S162">
+        <v>3.2</v>
+      </c>
+      <c r="T162">
+        <v>1.44</v>
+      </c>
+      <c r="U162">
+        <v>2.63</v>
+      </c>
+      <c r="V162">
+        <v>3.25</v>
+      </c>
+      <c r="W162">
+        <v>1.33</v>
+      </c>
+      <c r="X162">
+        <v>10</v>
+      </c>
+      <c r="Y162">
+        <v>1.06</v>
+      </c>
+      <c r="Z162">
+        <v>2.8</v>
+      </c>
+      <c r="AA162">
+        <v>3.3</v>
+      </c>
+      <c r="AB162">
+        <v>2.6</v>
+      </c>
+      <c r="AC162">
+        <v>1.05</v>
+      </c>
+      <c r="AD162">
+        <v>2.78</v>
+      </c>
+      <c r="AE162">
+        <v>1.39</v>
+      </c>
+      <c r="AF162">
+        <v>2.78</v>
+      </c>
+      <c r="AG162">
+        <v>2</v>
+      </c>
+      <c r="AH162">
+        <v>1.8</v>
+      </c>
+      <c r="AI162">
+        <v>1.75</v>
+      </c>
+      <c r="AJ162">
+        <v>2</v>
+      </c>
+      <c r="AK162">
+        <v>1.47</v>
+      </c>
+      <c r="AL162">
+        <v>1.42</v>
+      </c>
+      <c r="AM162">
+        <v>1.54</v>
+      </c>
+      <c r="AN162">
+        <v>2.29</v>
+      </c>
+      <c r="AO162">
+        <v>2</v>
+      </c>
+      <c r="AP162">
+        <v>2.38</v>
+      </c>
+      <c r="AQ162">
+        <v>1.75</v>
+      </c>
+      <c r="AR162">
+        <v>1.58</v>
+      </c>
+      <c r="AS162">
+        <v>1.68</v>
+      </c>
+      <c r="AT162">
+        <v>3.26</v>
+      </c>
+      <c r="AU162">
+        <v>8</v>
+      </c>
+      <c r="AV162">
+        <v>6</v>
+      </c>
+      <c r="AW162">
+        <v>5</v>
+      </c>
+      <c r="AX162">
+        <v>7</v>
+      </c>
+      <c r="AY162">
+        <v>13</v>
+      </c>
+      <c r="AZ162">
+        <v>13</v>
+      </c>
+      <c r="BA162">
+        <v>5</v>
+      </c>
+      <c r="BB162">
+        <v>4</v>
+      </c>
+      <c r="BC162">
+        <v>9</v>
+      </c>
+      <c r="BD162">
+        <v>2.22</v>
+      </c>
+      <c r="BE162">
+        <v>6.65</v>
+      </c>
+      <c r="BF162">
+        <v>2.03</v>
+      </c>
+      <c r="BG162">
+        <v>1.18</v>
+      </c>
+      <c r="BH162">
+        <v>4.15</v>
+      </c>
+      <c r="BI162">
+        <v>1.36</v>
+      </c>
+      <c r="BJ162">
+        <v>2.79</v>
+      </c>
+      <c r="BK162">
+        <v>2.2</v>
+      </c>
+      <c r="BL162">
+        <v>1.92</v>
+      </c>
+      <c r="BM162">
+        <v>2.09</v>
+      </c>
+      <c r="BN162">
+        <v>1.69</v>
+      </c>
+      <c r="BO162">
+        <v>2.72</v>
+      </c>
+      <c r="BP162">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="277">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -640,6 +640,21 @@
     <t>['25', '39', '55']</t>
   </si>
   <si>
+    <t>['76', '89']</t>
+  </si>
+  <si>
+    <t>['36', '90+2']</t>
+  </si>
+  <si>
+    <t>['63', '90+6']</t>
+  </si>
+  <si>
+    <t>['27', '39']</t>
+  </si>
+  <si>
+    <t>['23', '62', '74']</t>
+  </si>
+  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -1191,7 +1206,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP162"/>
+  <dimension ref="A1:BP172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1450,7 +1465,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1656,7 +1671,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1862,7 +1877,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -2068,7 +2083,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -2274,7 +2289,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2892,7 +2907,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3098,7 +3113,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3304,7 +3319,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3510,7 +3525,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3588,10 +3603,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AQ12">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3794,10 +3809,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ13">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4000,10 +4015,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ14">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4128,7 +4143,7 @@
         <v>102</v>
       </c>
       <c r="P15" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q15">
         <v>2.75</v>
@@ -4206,10 +4221,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ15">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4412,10 +4427,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ16">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4618,10 +4633,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ17">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4824,10 +4839,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5030,10 +5045,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ19">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5236,10 +5251,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5445,7 +5460,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ21">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR21">
         <v>2.75</v>
@@ -5648,10 +5663,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ22">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR22">
         <v>1.76</v>
@@ -5854,7 +5869,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ23">
         <v>1.38</v>
@@ -6060,10 +6075,10 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ24">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR24">
         <v>1.95</v>
@@ -6266,7 +6281,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ25">
         <v>1.88</v>
@@ -6475,7 +6490,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ26">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR26">
         <v>2.21</v>
@@ -6600,7 +6615,7 @@
         <v>112</v>
       </c>
       <c r="P27" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -6806,7 +6821,7 @@
         <v>95</v>
       </c>
       <c r="P28" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6887,7 +6902,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ28">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR28">
         <v>1.21</v>
@@ -7012,7 +7027,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q29">
         <v>2.38</v>
@@ -7090,7 +7105,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ29">
         <v>0.29</v>
@@ -7218,7 +7233,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7299,7 +7314,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR30">
         <v>1.35</v>
@@ -7424,7 +7439,7 @@
         <v>95</v>
       </c>
       <c r="P31" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7502,7 +7517,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ31">
         <v>1.5</v>
@@ -7708,7 +7723,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AQ32">
         <v>0.14</v>
@@ -7836,7 +7851,7 @@
         <v>95</v>
       </c>
       <c r="P33" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7914,7 +7929,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ33">
         <v>1.89</v>
@@ -8042,7 +8057,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q34">
         <v>2.25</v>
@@ -8123,7 +8138,7 @@
         <v>3</v>
       </c>
       <c r="AQ34">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR34">
         <v>1.46</v>
@@ -8329,7 +8344,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ35">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AR35">
         <v>1.12</v>
@@ -8532,7 +8547,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ36">
         <v>0.67</v>
@@ -8660,7 +8675,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8738,10 +8753,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ37">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR37">
         <v>1.65</v>
@@ -8866,7 +8881,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -8947,7 +8962,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR38">
         <v>2.13</v>
@@ -9278,7 +9293,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9562,7 +9577,7 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ41">
         <v>1.88</v>
@@ -9896,7 +9911,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -9977,7 +9992,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ43">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR43">
         <v>1.47</v>
@@ -10183,7 +10198,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ44">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR44">
         <v>1.32</v>
@@ -10308,7 +10323,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10386,7 +10401,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ45">
         <v>1</v>
@@ -10514,7 +10529,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10592,7 +10607,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ46">
         <v>1.75</v>
@@ -10798,10 +10813,10 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ47">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR47">
         <v>1.36</v>
@@ -10926,7 +10941,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q48">
         <v>3.6</v>
@@ -11007,7 +11022,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ48">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR48">
         <v>0.99</v>
@@ -11210,7 +11225,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ49">
         <v>1.89</v>
@@ -11338,7 +11353,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q50">
         <v>2.38</v>
@@ -11416,10 +11431,10 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ50">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR50">
         <v>1.23</v>
@@ -11544,7 +11559,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q51">
         <v>2.38</v>
@@ -11625,7 +11640,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ51">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR51">
         <v>1.51</v>
@@ -11828,7 +11843,7 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AQ52">
         <v>0.67</v>
@@ -11956,7 +11971,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q53">
         <v>2.38</v>
@@ -12037,7 +12052,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ53">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AR53">
         <v>1.37</v>
@@ -12162,7 +12177,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -12240,7 +12255,7 @@
         <v>0.67</v>
       </c>
       <c r="AP54">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ54">
         <v>0.67</v>
@@ -12368,7 +12383,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -12449,7 +12464,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ55">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR55">
         <v>1.23</v>
@@ -12652,10 +12667,10 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ56">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR56">
         <v>0.68</v>
@@ -13192,7 +13207,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q59">
         <v>4.75</v>
@@ -13398,7 +13413,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13476,7 +13491,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ60">
         <v>1</v>
@@ -13604,7 +13619,7 @@
         <v>117</v>
       </c>
       <c r="P61" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q61">
         <v>5.5</v>
@@ -13888,10 +13903,10 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ62">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR62">
         <v>1.4</v>
@@ -14097,7 +14112,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ63">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR63">
         <v>1.52</v>
@@ -14300,10 +14315,10 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ64">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR64">
         <v>1.58</v>
@@ -14506,10 +14521,10 @@
         <v>0</v>
       </c>
       <c r="AP65">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ65">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR65">
         <v>0.78</v>
@@ -14634,7 +14649,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14918,10 +14933,10 @@
         <v>0.33</v>
       </c>
       <c r="AP67">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ67">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR67">
         <v>1.39</v>
@@ -15046,7 +15061,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15127,7 +15142,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ68">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR68">
         <v>1.17</v>
@@ -15330,10 +15345,10 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ69">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AR69">
         <v>1.64</v>
@@ -15458,7 +15473,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15536,7 +15551,7 @@
         <v>1.67</v>
       </c>
       <c r="AP70">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ70">
         <v>1.5</v>
@@ -15664,7 +15679,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15951,7 +15966,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ72">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR72">
         <v>1.66</v>
@@ -16157,7 +16172,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ73">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR73">
         <v>2.08</v>
@@ -16282,7 +16297,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16360,7 +16375,7 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ74">
         <v>0.14</v>
@@ -16566,10 +16581,10 @@
         <v>0</v>
       </c>
       <c r="AP75">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ75">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR75">
         <v>1.45</v>
@@ -16772,7 +16787,7 @@
         <v>2</v>
       </c>
       <c r="AP76">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AQ76">
         <v>1.14</v>
@@ -16978,7 +16993,7 @@
         <v>0.67</v>
       </c>
       <c r="AP77">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ77">
         <v>0.29</v>
@@ -17106,7 +17121,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q78">
         <v>2.63</v>
@@ -17187,7 +17202,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ78">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR78">
         <v>1.81</v>
@@ -17312,7 +17327,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -17393,7 +17408,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ79">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR79">
         <v>1.16</v>
@@ -17518,7 +17533,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17599,7 +17614,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ80">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR80">
         <v>1.69</v>
@@ -17724,7 +17739,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -18008,7 +18023,7 @@
         <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ82">
         <v>1.14</v>
@@ -18136,7 +18151,7 @@
         <v>151</v>
       </c>
       <c r="P83" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -18214,7 +18229,7 @@
         <v>1.75</v>
       </c>
       <c r="AP83">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ83">
         <v>1.89</v>
@@ -18423,7 +18438,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ84">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR84">
         <v>1.32</v>
@@ -18548,7 +18563,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -18754,7 +18769,7 @@
         <v>95</v>
       </c>
       <c r="P86" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -18832,7 +18847,7 @@
         <v>2.5</v>
       </c>
       <c r="AP86">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ86">
         <v>1.75</v>
@@ -18960,7 +18975,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q87">
         <v>2.38</v>
@@ -19041,7 +19056,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ87">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR87">
         <v>1.45</v>
@@ -19244,10 +19259,10 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ88">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR88">
         <v>1.66</v>
@@ -19450,7 +19465,7 @@
         <v>0</v>
       </c>
       <c r="AP89">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ89">
         <v>0.14</v>
@@ -19578,7 +19593,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -19862,10 +19877,10 @@
         <v>0</v>
       </c>
       <c r="AP91">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ91">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR91">
         <v>1.35</v>
@@ -20071,7 +20086,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ92">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR92">
         <v>1.69</v>
@@ -20277,7 +20292,7 @@
         <v>3</v>
       </c>
       <c r="AQ93">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AR93">
         <v>1.62</v>
@@ -20402,7 +20417,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20608,7 +20623,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -20686,7 +20701,7 @@
         <v>1.2</v>
       </c>
       <c r="AP95">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ95">
         <v>1</v>
@@ -20892,7 +20907,7 @@
         <v>1.25</v>
       </c>
       <c r="AP96">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ96">
         <v>0.67</v>
@@ -21226,7 +21241,7 @@
         <v>95</v>
       </c>
       <c r="P98" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q98">
         <v>3.5</v>
@@ -21304,10 +21319,10 @@
         <v>1.5</v>
       </c>
       <c r="AP98">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ98">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR98">
         <v>1.35</v>
@@ -21510,10 +21525,10 @@
         <v>1.4</v>
       </c>
       <c r="AP99">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ99">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR99">
         <v>1.16</v>
@@ -21719,7 +21734,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ100">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR100">
         <v>1.35</v>
@@ -21844,7 +21859,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q101">
         <v>2.63</v>
@@ -21922,10 +21937,10 @@
         <v>1</v>
       </c>
       <c r="AP101">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AQ101">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR101">
         <v>1.35</v>
@@ -22050,7 +22065,7 @@
         <v>95</v>
       </c>
       <c r="P102" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22337,7 +22352,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ103">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR103">
         <v>1.66</v>
@@ -22462,7 +22477,7 @@
         <v>163</v>
       </c>
       <c r="P104" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q104">
         <v>1.83</v>
@@ -22540,7 +22555,7 @@
         <v>0.5</v>
       </c>
       <c r="AP104">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ104">
         <v>0.29</v>
@@ -22746,7 +22761,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ105">
         <v>1.14</v>
@@ -22952,10 +22967,10 @@
         <v>0.5</v>
       </c>
       <c r="AP106">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ106">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR106">
         <v>1.31</v>
@@ -23161,7 +23176,7 @@
         <v>3</v>
       </c>
       <c r="AQ107">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR107">
         <v>1.59</v>
@@ -23286,7 +23301,7 @@
         <v>167</v>
       </c>
       <c r="P108" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23364,7 +23379,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ108">
         <v>0.67</v>
@@ -23776,7 +23791,7 @@
         <v>2</v>
       </c>
       <c r="AP110">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ110">
         <v>1.88</v>
@@ -23904,7 +23919,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -24110,7 +24125,7 @@
         <v>138</v>
       </c>
       <c r="P112" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24316,7 +24331,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -24394,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="AP113">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AQ113">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR113">
         <v>1.4</v>
@@ -24600,7 +24615,7 @@
         <v>2.6</v>
       </c>
       <c r="AP114">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ114">
         <v>1.75</v>
@@ -24728,7 +24743,7 @@
         <v>95</v>
       </c>
       <c r="P115" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -24809,7 +24824,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ115">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR115">
         <v>1.49</v>
@@ -25015,7 +25030,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ116">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR116">
         <v>1.55</v>
@@ -25140,7 +25155,7 @@
         <v>93</v>
       </c>
       <c r="P117" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25424,7 +25439,7 @@
         <v>0.83</v>
       </c>
       <c r="AP118">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ118">
         <v>0.67</v>
@@ -25630,10 +25645,10 @@
         <v>1.33</v>
       </c>
       <c r="AP119">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ119">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR119">
         <v>1.55</v>
@@ -25836,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="AP120">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ120">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AR120">
         <v>1.32</v>
@@ -26170,7 +26185,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q122">
         <v>2.3</v>
@@ -26248,7 +26263,7 @@
         <v>0.4</v>
       </c>
       <c r="AP122">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ122">
         <v>0.29</v>
@@ -26457,7 +26472,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ123">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR123">
         <v>1.22</v>
@@ -26660,10 +26675,10 @@
         <v>0.83</v>
       </c>
       <c r="AP124">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ124">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR124">
         <v>1.59</v>
@@ -26869,7 +26884,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ125">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR125">
         <v>1.49</v>
@@ -27072,10 +27087,10 @@
         <v>0.33</v>
       </c>
       <c r="AP126">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ126">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR126">
         <v>1.89</v>
@@ -27200,7 +27215,7 @@
         <v>132</v>
       </c>
       <c r="P127" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q127">
         <v>3.6</v>
@@ -27278,7 +27293,7 @@
         <v>1.57</v>
       </c>
       <c r="AP127">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ127">
         <v>1.89</v>
@@ -27487,7 +27502,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ128">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR128">
         <v>1.53</v>
@@ -27818,7 +27833,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -27896,10 +27911,10 @@
         <v>1.29</v>
       </c>
       <c r="AP130">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ130">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR130">
         <v>1.4</v>
@@ -28024,7 +28039,7 @@
         <v>134</v>
       </c>
       <c r="P131" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q131">
         <v>3.2</v>
@@ -28105,7 +28120,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ131">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR131">
         <v>1.7</v>
@@ -28230,7 +28245,7 @@
         <v>184</v>
       </c>
       <c r="P132" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28308,7 +28323,7 @@
         <v>1.71</v>
       </c>
       <c r="AP132">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ132">
         <v>1.88</v>
@@ -28514,7 +28529,7 @@
         <v>0.33</v>
       </c>
       <c r="AP133">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AQ133">
         <v>0.29</v>
@@ -28642,7 +28657,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -28720,7 +28735,7 @@
         <v>2.17</v>
       </c>
       <c r="AP134">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ134">
         <v>1.75</v>
@@ -28848,7 +28863,7 @@
         <v>187</v>
       </c>
       <c r="P135" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -28929,7 +28944,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ135">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR135">
         <v>1.8</v>
@@ -29135,7 +29150,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ136">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR136">
         <v>1.48</v>
@@ -29466,7 +29481,7 @@
         <v>190</v>
       </c>
       <c r="P138" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -29544,7 +29559,7 @@
         <v>1.17</v>
       </c>
       <c r="AP138">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ138">
         <v>1.38</v>
@@ -29753,7 +29768,7 @@
         <v>3</v>
       </c>
       <c r="AQ139">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR139">
         <v>1.67</v>
@@ -29956,10 +29971,10 @@
         <v>0</v>
       </c>
       <c r="AP140">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ140">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AR140">
         <v>1.39</v>
@@ -30162,7 +30177,7 @@
         <v>0.2</v>
       </c>
       <c r="AP141">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ141">
         <v>0.14</v>
@@ -30290,7 +30305,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -30371,7 +30386,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ142">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR142">
         <v>1.54</v>
@@ -30577,7 +30592,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ143">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR143">
         <v>1.23</v>
@@ -30780,7 +30795,7 @@
         <v>0.86</v>
       </c>
       <c r="AP144">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ144">
         <v>1</v>
@@ -30908,7 +30923,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q145">
         <v>2.63</v>
@@ -30989,7 +31004,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ145">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR145">
         <v>1.45</v>
@@ -31192,7 +31207,7 @@
         <v>1.83</v>
       </c>
       <c r="AP146">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ146">
         <v>1.5</v>
@@ -31320,7 +31335,7 @@
         <v>95</v>
       </c>
       <c r="P147" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31398,10 +31413,10 @@
         <v>0.63</v>
       </c>
       <c r="AP147">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ147">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR147">
         <v>1.45</v>
@@ -31607,7 +31622,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ148">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR148">
         <v>1.43</v>
@@ -31732,7 +31747,7 @@
         <v>176</v>
       </c>
       <c r="P149" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q149">
         <v>2.88</v>
@@ -32016,10 +32031,10 @@
         <v>1.13</v>
       </c>
       <c r="AP150">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ150">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR150">
         <v>1.83</v>
@@ -32144,7 +32159,7 @@
         <v>201</v>
       </c>
       <c r="P151" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32225,7 +32240,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ151">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AR151">
         <v>1.53</v>
@@ -32350,7 +32365,7 @@
         <v>202</v>
       </c>
       <c r="P152" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q152">
         <v>2.2</v>
@@ -32428,7 +32443,7 @@
         <v>0.83</v>
       </c>
       <c r="AP152">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ152">
         <v>1.14</v>
@@ -32762,7 +32777,7 @@
         <v>203</v>
       </c>
       <c r="P154" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q154">
         <v>3.4</v>
@@ -32840,10 +32855,10 @@
         <v>1.57</v>
       </c>
       <c r="AP154">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ154">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR154">
         <v>1.48</v>
@@ -32968,7 +32983,7 @@
         <v>204</v>
       </c>
       <c r="P155" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q155">
         <v>2.6</v>
@@ -33174,7 +33189,7 @@
         <v>122</v>
       </c>
       <c r="P156" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33252,7 +33267,7 @@
         <v>1.14</v>
       </c>
       <c r="AP156">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AQ156">
         <v>1.38</v>
@@ -33380,7 +33395,7 @@
         <v>205</v>
       </c>
       <c r="P157" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -33458,7 +33473,7 @@
         <v>1.57</v>
       </c>
       <c r="AP157">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ157">
         <v>1.5</v>
@@ -33667,7 +33682,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ158">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR158">
         <v>1.73</v>
@@ -33792,7 +33807,7 @@
         <v>95</v>
       </c>
       <c r="P159" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -33873,7 +33888,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ159">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR159">
         <v>1.42</v>
@@ -34204,7 +34219,7 @@
         <v>207</v>
       </c>
       <c r="P161" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q161">
         <v>2.25</v>
@@ -34282,10 +34297,10 @@
         <v>0.71</v>
       </c>
       <c r="AP161">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ161">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR161">
         <v>1.45</v>
@@ -34488,7 +34503,7 @@
         <v>2</v>
       </c>
       <c r="AP162">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ162">
         <v>1.75</v>
@@ -34566,6 +34581,2066 @@
         <v>2.72</v>
       </c>
       <c r="BP162">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:68">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>7373348</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45493.66666666666</v>
+      </c>
+      <c r="F163">
+        <v>18</v>
+      </c>
+      <c r="G163" t="s">
+        <v>87</v>
+      </c>
+      <c r="H163" t="s">
+        <v>71</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>1</v>
+      </c>
+      <c r="K163">
+        <v>1</v>
+      </c>
+      <c r="L163">
+        <v>2</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+      <c r="N163">
+        <v>3</v>
+      </c>
+      <c r="O163" t="s">
+        <v>208</v>
+      </c>
+      <c r="P163" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q163">
+        <v>1.95</v>
+      </c>
+      <c r="R163">
+        <v>2.38</v>
+      </c>
+      <c r="S163">
+        <v>6.5</v>
+      </c>
+      <c r="T163">
+        <v>1.33</v>
+      </c>
+      <c r="U163">
+        <v>3.25</v>
+      </c>
+      <c r="V163">
+        <v>2.63</v>
+      </c>
+      <c r="W163">
+        <v>1.44</v>
+      </c>
+      <c r="X163">
+        <v>6.5</v>
+      </c>
+      <c r="Y163">
+        <v>1.11</v>
+      </c>
+      <c r="Z163">
+        <v>1.33</v>
+      </c>
+      <c r="AA163">
+        <v>4.6</v>
+      </c>
+      <c r="AB163">
+        <v>9</v>
+      </c>
+      <c r="AC163">
+        <v>1.03</v>
+      </c>
+      <c r="AD163">
+        <v>13</v>
+      </c>
+      <c r="AE163">
+        <v>1.22</v>
+      </c>
+      <c r="AF163">
+        <v>4</v>
+      </c>
+      <c r="AG163">
+        <v>1.7</v>
+      </c>
+      <c r="AH163">
+        <v>2</v>
+      </c>
+      <c r="AI163">
+        <v>1.95</v>
+      </c>
+      <c r="AJ163">
+        <v>1.8</v>
+      </c>
+      <c r="AK163">
+        <v>1.06</v>
+      </c>
+      <c r="AL163">
+        <v>1.14</v>
+      </c>
+      <c r="AM163">
+        <v>3.1</v>
+      </c>
+      <c r="AN163">
+        <v>2</v>
+      </c>
+      <c r="AO163">
+        <v>1</v>
+      </c>
+      <c r="AP163">
+        <v>2.11</v>
+      </c>
+      <c r="AQ163">
+        <v>0.88</v>
+      </c>
+      <c r="AR163">
+        <v>1.66</v>
+      </c>
+      <c r="AS163">
+        <v>1.3</v>
+      </c>
+      <c r="AT163">
+        <v>2.96</v>
+      </c>
+      <c r="AU163">
+        <v>7</v>
+      </c>
+      <c r="AV163">
+        <v>5</v>
+      </c>
+      <c r="AW163">
+        <v>7</v>
+      </c>
+      <c r="AX163">
+        <v>7</v>
+      </c>
+      <c r="AY163">
+        <v>14</v>
+      </c>
+      <c r="AZ163">
+        <v>12</v>
+      </c>
+      <c r="BA163">
+        <v>7</v>
+      </c>
+      <c r="BB163">
+        <v>4</v>
+      </c>
+      <c r="BC163">
+        <v>11</v>
+      </c>
+      <c r="BD163">
+        <v>1.26</v>
+      </c>
+      <c r="BE163">
+        <v>15</v>
+      </c>
+      <c r="BF163">
+        <v>4.77</v>
+      </c>
+      <c r="BG163">
+        <v>1.15</v>
+      </c>
+      <c r="BH163">
+        <v>4.5</v>
+      </c>
+      <c r="BI163">
+        <v>1.31</v>
+      </c>
+      <c r="BJ163">
+        <v>3.04</v>
+      </c>
+      <c r="BK163">
+        <v>1.91</v>
+      </c>
+      <c r="BL163">
+        <v>2.25</v>
+      </c>
+      <c r="BM163">
+        <v>2</v>
+      </c>
+      <c r="BN163">
+        <v>1.8</v>
+      </c>
+      <c r="BO163">
+        <v>2.52</v>
+      </c>
+      <c r="BP163">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="164" spans="1:68">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>7373349</v>
+      </c>
+      <c r="C164" t="s">
+        <v>68</v>
+      </c>
+      <c r="D164" t="s">
+        <v>69</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45493.77083333334</v>
+      </c>
+      <c r="F164">
+        <v>18</v>
+      </c>
+      <c r="G164" t="s">
+        <v>88</v>
+      </c>
+      <c r="H164" t="s">
+        <v>70</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>1</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>1</v>
+      </c>
+      <c r="O164" t="s">
+        <v>134</v>
+      </c>
+      <c r="P164" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q164">
+        <v>2.6</v>
+      </c>
+      <c r="R164">
+        <v>2.05</v>
+      </c>
+      <c r="S164">
+        <v>5</v>
+      </c>
+      <c r="T164">
+        <v>1.5</v>
+      </c>
+      <c r="U164">
+        <v>2.5</v>
+      </c>
+      <c r="V164">
+        <v>3.4</v>
+      </c>
+      <c r="W164">
+        <v>1.3</v>
+      </c>
+      <c r="X164">
+        <v>10</v>
+      </c>
+      <c r="Y164">
+        <v>1.06</v>
+      </c>
+      <c r="Z164">
+        <v>1.8</v>
+      </c>
+      <c r="AA164">
+        <v>3.4</v>
+      </c>
+      <c r="AB164">
+        <v>5</v>
+      </c>
+      <c r="AC164">
+        <v>1.08</v>
+      </c>
+      <c r="AD164">
+        <v>8</v>
+      </c>
+      <c r="AE164">
+        <v>1.44</v>
+      </c>
+      <c r="AF164">
+        <v>2.8</v>
+      </c>
+      <c r="AG164">
+        <v>2.3</v>
+      </c>
+      <c r="AH164">
+        <v>1.6</v>
+      </c>
+      <c r="AI164">
+        <v>2.05</v>
+      </c>
+      <c r="AJ164">
+        <v>1.7</v>
+      </c>
+      <c r="AK164">
+        <v>1.17</v>
+      </c>
+      <c r="AL164">
+        <v>1.25</v>
+      </c>
+      <c r="AM164">
+        <v>2.05</v>
+      </c>
+      <c r="AN164">
+        <v>2.38</v>
+      </c>
+      <c r="AO164">
+        <v>1.57</v>
+      </c>
+      <c r="AP164">
+        <v>2.44</v>
+      </c>
+      <c r="AQ164">
+        <v>1.38</v>
+      </c>
+      <c r="AR164">
+        <v>1.59</v>
+      </c>
+      <c r="AS164">
+        <v>1.14</v>
+      </c>
+      <c r="AT164">
+        <v>2.73</v>
+      </c>
+      <c r="AU164">
+        <v>5</v>
+      </c>
+      <c r="AV164">
+        <v>2</v>
+      </c>
+      <c r="AW164">
+        <v>4</v>
+      </c>
+      <c r="AX164">
+        <v>7</v>
+      </c>
+      <c r="AY164">
+        <v>9</v>
+      </c>
+      <c r="AZ164">
+        <v>9</v>
+      </c>
+      <c r="BA164">
+        <v>2</v>
+      </c>
+      <c r="BB164">
+        <v>1</v>
+      </c>
+      <c r="BC164">
+        <v>3</v>
+      </c>
+      <c r="BD164">
+        <v>1.62</v>
+      </c>
+      <c r="BE164">
+        <v>9.5</v>
+      </c>
+      <c r="BF164">
+        <v>2.88</v>
+      </c>
+      <c r="BG164">
+        <v>1.27</v>
+      </c>
+      <c r="BH164">
+        <v>3.28</v>
+      </c>
+      <c r="BI164">
+        <v>1.52</v>
+      </c>
+      <c r="BJ164">
+        <v>2.36</v>
+      </c>
+      <c r="BK164">
+        <v>2.38</v>
+      </c>
+      <c r="BL164">
+        <v>1.7</v>
+      </c>
+      <c r="BM164">
+        <v>2.46</v>
+      </c>
+      <c r="BN164">
+        <v>1.48</v>
+      </c>
+      <c r="BO164">
+        <v>3.34</v>
+      </c>
+      <c r="BP164">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="165" spans="1:68">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>7373350</v>
+      </c>
+      <c r="C165" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45493.875</v>
+      </c>
+      <c r="F165">
+        <v>18</v>
+      </c>
+      <c r="G165" t="s">
+        <v>84</v>
+      </c>
+      <c r="H165" t="s">
+        <v>78</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165">
+        <v>2</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>2</v>
+      </c>
+      <c r="O165" t="s">
+        <v>209</v>
+      </c>
+      <c r="P165" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q165">
+        <v>2.38</v>
+      </c>
+      <c r="R165">
+        <v>2.1</v>
+      </c>
+      <c r="S165">
+        <v>5.5</v>
+      </c>
+      <c r="T165">
+        <v>1.44</v>
+      </c>
+      <c r="U165">
+        <v>2.63</v>
+      </c>
+      <c r="V165">
+        <v>3.25</v>
+      </c>
+      <c r="W165">
+        <v>1.33</v>
+      </c>
+      <c r="X165">
+        <v>9</v>
+      </c>
+      <c r="Y165">
+        <v>1.07</v>
+      </c>
+      <c r="Z165">
+        <v>1.73</v>
+      </c>
+      <c r="AA165">
+        <v>3.5</v>
+      </c>
+      <c r="AB165">
+        <v>5.25</v>
+      </c>
+      <c r="AC165">
+        <v>1.05</v>
+      </c>
+      <c r="AD165">
+        <v>10</v>
+      </c>
+      <c r="AE165">
+        <v>1.36</v>
+      </c>
+      <c r="AF165">
+        <v>3.2</v>
+      </c>
+      <c r="AG165">
+        <v>2.05</v>
+      </c>
+      <c r="AH165">
+        <v>1.75</v>
+      </c>
+      <c r="AI165">
+        <v>1.95</v>
+      </c>
+      <c r="AJ165">
+        <v>1.8</v>
+      </c>
+      <c r="AK165">
+        <v>1.12</v>
+      </c>
+      <c r="AL165">
+        <v>1.2</v>
+      </c>
+      <c r="AM165">
+        <v>2.45</v>
+      </c>
+      <c r="AN165">
+        <v>2.11</v>
+      </c>
+      <c r="AO165">
+        <v>0.89</v>
+      </c>
+      <c r="AP165">
+        <v>2.2</v>
+      </c>
+      <c r="AQ165">
+        <v>0.8</v>
+      </c>
+      <c r="AR165">
+        <v>1.87</v>
+      </c>
+      <c r="AS165">
+        <v>1.26</v>
+      </c>
+      <c r="AT165">
+        <v>3.13</v>
+      </c>
+      <c r="AU165">
+        <v>6</v>
+      </c>
+      <c r="AV165">
+        <v>3</v>
+      </c>
+      <c r="AW165">
+        <v>5</v>
+      </c>
+      <c r="AX165">
+        <v>4</v>
+      </c>
+      <c r="AY165">
+        <v>11</v>
+      </c>
+      <c r="AZ165">
+        <v>7</v>
+      </c>
+      <c r="BA165">
+        <v>6</v>
+      </c>
+      <c r="BB165">
+        <v>4</v>
+      </c>
+      <c r="BC165">
+        <v>10</v>
+      </c>
+      <c r="BD165">
+        <v>1.28</v>
+      </c>
+      <c r="BE165">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF165">
+        <v>5.05</v>
+      </c>
+      <c r="BG165">
+        <v>1.1</v>
+      </c>
+      <c r="BH165">
+        <v>5.4</v>
+      </c>
+      <c r="BI165">
+        <v>1.23</v>
+      </c>
+      <c r="BJ165">
+        <v>3.56</v>
+      </c>
+      <c r="BK165">
+        <v>2.2</v>
+      </c>
+      <c r="BL165">
+        <v>2.58</v>
+      </c>
+      <c r="BM165">
+        <v>1.76</v>
+      </c>
+      <c r="BN165">
+        <v>2</v>
+      </c>
+      <c r="BO165">
+        <v>2.19</v>
+      </c>
+      <c r="BP165">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:68">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>7373345</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45494.45833333334</v>
+      </c>
+      <c r="F166">
+        <v>18</v>
+      </c>
+      <c r="G166" t="s">
+        <v>81</v>
+      </c>
+      <c r="H166" t="s">
+        <v>79</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>2</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>2</v>
+      </c>
+      <c r="O166" t="s">
+        <v>210</v>
+      </c>
+      <c r="P166" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q166">
+        <v>2.5</v>
+      </c>
+      <c r="R166">
+        <v>2.1</v>
+      </c>
+      <c r="S166">
+        <v>5</v>
+      </c>
+      <c r="T166">
+        <v>1.5</v>
+      </c>
+      <c r="U166">
+        <v>2.5</v>
+      </c>
+      <c r="V166">
+        <v>3.4</v>
+      </c>
+      <c r="W166">
+        <v>1.3</v>
+      </c>
+      <c r="X166">
+        <v>10</v>
+      </c>
+      <c r="Y166">
+        <v>1.06</v>
+      </c>
+      <c r="Z166">
+        <v>1.84</v>
+      </c>
+      <c r="AA166">
+        <v>3.4</v>
+      </c>
+      <c r="AB166">
+        <v>4.5</v>
+      </c>
+      <c r="AC166">
+        <v>1.08</v>
+      </c>
+      <c r="AD166">
+        <v>8</v>
+      </c>
+      <c r="AE166">
+        <v>1.44</v>
+      </c>
+      <c r="AF166">
+        <v>2.8</v>
+      </c>
+      <c r="AG166">
+        <v>2.23</v>
+      </c>
+      <c r="AH166">
+        <v>1.61</v>
+      </c>
+      <c r="AI166">
+        <v>2</v>
+      </c>
+      <c r="AJ166">
+        <v>1.75</v>
+      </c>
+      <c r="AK166">
+        <v>1.22</v>
+      </c>
+      <c r="AL166">
+        <v>1.28</v>
+      </c>
+      <c r="AM166">
+        <v>1.9</v>
+      </c>
+      <c r="AN166">
+        <v>1.25</v>
+      </c>
+      <c r="AO166">
+        <v>0.63</v>
+      </c>
+      <c r="AP166">
+        <v>1.44</v>
+      </c>
+      <c r="AQ166">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR166">
+        <v>1.41</v>
+      </c>
+      <c r="AS166">
+        <v>1.35</v>
+      </c>
+      <c r="AT166">
+        <v>2.76</v>
+      </c>
+      <c r="AU166">
+        <v>7</v>
+      </c>
+      <c r="AV166">
+        <v>0</v>
+      </c>
+      <c r="AW166">
+        <v>4</v>
+      </c>
+      <c r="AX166">
+        <v>4</v>
+      </c>
+      <c r="AY166">
+        <v>11</v>
+      </c>
+      <c r="AZ166">
+        <v>4</v>
+      </c>
+      <c r="BA166">
+        <v>7</v>
+      </c>
+      <c r="BB166">
+        <v>4</v>
+      </c>
+      <c r="BC166">
+        <v>11</v>
+      </c>
+      <c r="BD166">
+        <v>1.47</v>
+      </c>
+      <c r="BE166">
+        <v>7.5</v>
+      </c>
+      <c r="BF166">
+        <v>3.58</v>
+      </c>
+      <c r="BG166">
+        <v>1.15</v>
+      </c>
+      <c r="BH166">
+        <v>4.45</v>
+      </c>
+      <c r="BI166">
+        <v>1.31</v>
+      </c>
+      <c r="BJ166">
+        <v>3.04</v>
+      </c>
+      <c r="BK166">
+        <v>2</v>
+      </c>
+      <c r="BL166">
+        <v>2.25</v>
+      </c>
+      <c r="BM166">
+        <v>1.97</v>
+      </c>
+      <c r="BN166">
+        <v>1.78</v>
+      </c>
+      <c r="BO166">
+        <v>2.55</v>
+      </c>
+      <c r="BP166">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="167" spans="1:68">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>7373346</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>69</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45494.66666666666</v>
+      </c>
+      <c r="F167">
+        <v>18</v>
+      </c>
+      <c r="G167" t="s">
+        <v>86</v>
+      </c>
+      <c r="H167" t="s">
+        <v>74</v>
+      </c>
+      <c r="I167">
+        <v>2</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>2</v>
+      </c>
+      <c r="L167">
+        <v>2</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167">
+        <v>2</v>
+      </c>
+      <c r="O167" t="s">
+        <v>211</v>
+      </c>
+      <c r="P167" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q167">
+        <v>2.4</v>
+      </c>
+      <c r="R167">
+        <v>2.1</v>
+      </c>
+      <c r="S167">
+        <v>5</v>
+      </c>
+      <c r="T167">
+        <v>1.44</v>
+      </c>
+      <c r="U167">
+        <v>2.63</v>
+      </c>
+      <c r="V167">
+        <v>3.25</v>
+      </c>
+      <c r="W167">
+        <v>1.33</v>
+      </c>
+      <c r="X167">
+        <v>9</v>
+      </c>
+      <c r="Y167">
+        <v>1.07</v>
+      </c>
+      <c r="Z167">
+        <v>1.73</v>
+      </c>
+      <c r="AA167">
+        <v>3.65</v>
+      </c>
+      <c r="AB167">
+        <v>4.75</v>
+      </c>
+      <c r="AC167">
+        <v>1.06</v>
+      </c>
+      <c r="AD167">
+        <v>9.5</v>
+      </c>
+      <c r="AE167">
+        <v>1.38</v>
+      </c>
+      <c r="AF167">
+        <v>3</v>
+      </c>
+      <c r="AG167">
+        <v>2.05</v>
+      </c>
+      <c r="AH167">
+        <v>1.75</v>
+      </c>
+      <c r="AI167">
+        <v>1.95</v>
+      </c>
+      <c r="AJ167">
+        <v>1.8</v>
+      </c>
+      <c r="AK167">
+        <v>1.22</v>
+      </c>
+      <c r="AL167">
+        <v>1.25</v>
+      </c>
+      <c r="AM167">
+        <v>1.95</v>
+      </c>
+      <c r="AN167">
+        <v>1.25</v>
+      </c>
+      <c r="AO167">
+        <v>0.75</v>
+      </c>
+      <c r="AP167">
+        <v>1.44</v>
+      </c>
+      <c r="AQ167">
+        <v>0.67</v>
+      </c>
+      <c r="AR167">
+        <v>1.49</v>
+      </c>
+      <c r="AS167">
+        <v>1.2</v>
+      </c>
+      <c r="AT167">
+        <v>2.69</v>
+      </c>
+      <c r="AU167">
+        <v>4</v>
+      </c>
+      <c r="AV167">
+        <v>2</v>
+      </c>
+      <c r="AW167">
+        <v>4</v>
+      </c>
+      <c r="AX167">
+        <v>5</v>
+      </c>
+      <c r="AY167">
+        <v>8</v>
+      </c>
+      <c r="AZ167">
+        <v>7</v>
+      </c>
+      <c r="BA167">
+        <v>6</v>
+      </c>
+      <c r="BB167">
+        <v>1</v>
+      </c>
+      <c r="BC167">
+        <v>7</v>
+      </c>
+      <c r="BD167">
+        <v>1.5</v>
+      </c>
+      <c r="BE167">
+        <v>7.3</v>
+      </c>
+      <c r="BF167">
+        <v>3.45</v>
+      </c>
+      <c r="BG167">
+        <v>1.16</v>
+      </c>
+      <c r="BH167">
+        <v>4.25</v>
+      </c>
+      <c r="BI167">
+        <v>1.33</v>
+      </c>
+      <c r="BJ167">
+        <v>2.91</v>
+      </c>
+      <c r="BK167">
+        <v>2.1</v>
+      </c>
+      <c r="BL167">
+        <v>2.17</v>
+      </c>
+      <c r="BM167">
+        <v>2.04</v>
+      </c>
+      <c r="BN167">
+        <v>1.73</v>
+      </c>
+      <c r="BO167">
+        <v>2.65</v>
+      </c>
+      <c r="BP167">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="168" spans="1:68">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>7373347</v>
+      </c>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45494.66666666666</v>
+      </c>
+      <c r="F168">
+        <v>18</v>
+      </c>
+      <c r="G168" t="s">
+        <v>80</v>
+      </c>
+      <c r="H168" t="s">
+        <v>75</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>1</v>
+      </c>
+      <c r="K168">
+        <v>1</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>1</v>
+      </c>
+      <c r="N168">
+        <v>1</v>
+      </c>
+      <c r="O168" t="s">
+        <v>95</v>
+      </c>
+      <c r="P168" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q168">
+        <v>2.25</v>
+      </c>
+      <c r="R168">
+        <v>2.3</v>
+      </c>
+      <c r="S168">
+        <v>5</v>
+      </c>
+      <c r="T168">
+        <v>1.4</v>
+      </c>
+      <c r="U168">
+        <v>2.75</v>
+      </c>
+      <c r="V168">
+        <v>2.75</v>
+      </c>
+      <c r="W168">
+        <v>1.4</v>
+      </c>
+      <c r="X168">
+        <v>8</v>
+      </c>
+      <c r="Y168">
+        <v>1.08</v>
+      </c>
+      <c r="Z168">
+        <v>1.6</v>
+      </c>
+      <c r="AA168">
+        <v>3.95</v>
+      </c>
+      <c r="AB168">
+        <v>5.5</v>
+      </c>
+      <c r="AC168">
+        <v>1.05</v>
+      </c>
+      <c r="AD168">
+        <v>11</v>
+      </c>
+      <c r="AE168">
+        <v>1.3</v>
+      </c>
+      <c r="AF168">
+        <v>3.4</v>
+      </c>
+      <c r="AG168">
+        <v>1.83</v>
+      </c>
+      <c r="AH168">
+        <v>1.95</v>
+      </c>
+      <c r="AI168">
+        <v>1.8</v>
+      </c>
+      <c r="AJ168">
+        <v>1.95</v>
+      </c>
+      <c r="AK168">
+        <v>1.2</v>
+      </c>
+      <c r="AL168">
+        <v>1.22</v>
+      </c>
+      <c r="AM168">
+        <v>2.05</v>
+      </c>
+      <c r="AN168">
+        <v>2.63</v>
+      </c>
+      <c r="AO168">
+        <v>0.22</v>
+      </c>
+      <c r="AP168">
+        <v>2.33</v>
+      </c>
+      <c r="AQ168">
+        <v>0.5</v>
+      </c>
+      <c r="AR168">
+        <v>1.59</v>
+      </c>
+      <c r="AS168">
+        <v>1.28</v>
+      </c>
+      <c r="AT168">
+        <v>2.87</v>
+      </c>
+      <c r="AU168">
+        <v>8</v>
+      </c>
+      <c r="AV168">
+        <v>3</v>
+      </c>
+      <c r="AW168">
+        <v>5</v>
+      </c>
+      <c r="AX168">
+        <v>4</v>
+      </c>
+      <c r="AY168">
+        <v>13</v>
+      </c>
+      <c r="AZ168">
+        <v>7</v>
+      </c>
+      <c r="BA168">
+        <v>6</v>
+      </c>
+      <c r="BB168">
+        <v>3</v>
+      </c>
+      <c r="BC168">
+        <v>9</v>
+      </c>
+      <c r="BD168">
+        <v>1.31</v>
+      </c>
+      <c r="BE168">
+        <v>8.4</v>
+      </c>
+      <c r="BF168">
+        <v>4.75</v>
+      </c>
+      <c r="BG168">
+        <v>1.12</v>
+      </c>
+      <c r="BH168">
+        <v>5.05</v>
+      </c>
+      <c r="BI168">
+        <v>1.26</v>
+      </c>
+      <c r="BJ168">
+        <v>3.34</v>
+      </c>
+      <c r="BK168">
+        <v>2</v>
+      </c>
+      <c r="BL168">
+        <v>2.47</v>
+      </c>
+      <c r="BM168">
+        <v>1.83</v>
+      </c>
+      <c r="BN168">
+        <v>1.91</v>
+      </c>
+      <c r="BO168">
+        <v>2.29</v>
+      </c>
+      <c r="BP168">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="169" spans="1:68">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>7373354</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45494.77083333334</v>
+      </c>
+      <c r="F169">
+        <v>18</v>
+      </c>
+      <c r="G169" t="s">
+        <v>85</v>
+      </c>
+      <c r="H169" t="s">
+        <v>73</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169">
+        <v>0</v>
+      </c>
+      <c r="O169" t="s">
+        <v>95</v>
+      </c>
+      <c r="P169" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q169">
+        <v>4.33</v>
+      </c>
+      <c r="R169">
+        <v>2</v>
+      </c>
+      <c r="S169">
+        <v>2.88</v>
+      </c>
+      <c r="T169">
+        <v>1.5</v>
+      </c>
+      <c r="U169">
+        <v>2.5</v>
+      </c>
+      <c r="V169">
+        <v>3.4</v>
+      </c>
+      <c r="W169">
+        <v>1.3</v>
+      </c>
+      <c r="X169">
+        <v>10</v>
+      </c>
+      <c r="Y169">
+        <v>1.06</v>
+      </c>
+      <c r="Z169">
+        <v>3.6</v>
+      </c>
+      <c r="AA169">
+        <v>3.2</v>
+      </c>
+      <c r="AB169">
+        <v>2.15</v>
+      </c>
+      <c r="AC169">
+        <v>1.07</v>
+      </c>
+      <c r="AD169">
+        <v>8.5</v>
+      </c>
+      <c r="AE169">
+        <v>1.42</v>
+      </c>
+      <c r="AF169">
+        <v>2.85</v>
+      </c>
+      <c r="AG169">
+        <v>2.35</v>
+      </c>
+      <c r="AH169">
+        <v>1.57</v>
+      </c>
+      <c r="AI169">
+        <v>2</v>
+      </c>
+      <c r="AJ169">
+        <v>1.75</v>
+      </c>
+      <c r="AK169">
+        <v>1.9</v>
+      </c>
+      <c r="AL169">
+        <v>1.25</v>
+      </c>
+      <c r="AM169">
+        <v>1.22</v>
+      </c>
+      <c r="AN169">
+        <v>2.25</v>
+      </c>
+      <c r="AO169">
+        <v>1.38</v>
+      </c>
+      <c r="AP169">
+        <v>2.11</v>
+      </c>
+      <c r="AQ169">
+        <v>1.33</v>
+      </c>
+      <c r="AR169">
+        <v>1.36</v>
+      </c>
+      <c r="AS169">
+        <v>1.36</v>
+      </c>
+      <c r="AT169">
+        <v>2.72</v>
+      </c>
+      <c r="AU169">
+        <v>2</v>
+      </c>
+      <c r="AV169">
+        <v>3</v>
+      </c>
+      <c r="AW169">
+        <v>8</v>
+      </c>
+      <c r="AX169">
+        <v>6</v>
+      </c>
+      <c r="AY169">
+        <v>10</v>
+      </c>
+      <c r="AZ169">
+        <v>9</v>
+      </c>
+      <c r="BA169">
+        <v>1</v>
+      </c>
+      <c r="BB169">
+        <v>4</v>
+      </c>
+      <c r="BC169">
+        <v>5</v>
+      </c>
+      <c r="BD169">
+        <v>2.91</v>
+      </c>
+      <c r="BE169">
+        <v>6.8</v>
+      </c>
+      <c r="BF169">
+        <v>1.66</v>
+      </c>
+      <c r="BG169">
+        <v>1.22</v>
+      </c>
+      <c r="BH169">
+        <v>3.65</v>
+      </c>
+      <c r="BI169">
+        <v>1.44</v>
+      </c>
+      <c r="BJ169">
+        <v>2.58</v>
+      </c>
+      <c r="BK169">
+        <v>1.92</v>
+      </c>
+      <c r="BL169">
+        <v>1.88</v>
+      </c>
+      <c r="BM169">
+        <v>2.27</v>
+      </c>
+      <c r="BN169">
+        <v>1.56</v>
+      </c>
+      <c r="BO169">
+        <v>2.98</v>
+      </c>
+      <c r="BP169">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="170" spans="1:68">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>7373351</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45494.77083333334</v>
+      </c>
+      <c r="F170">
+        <v>18</v>
+      </c>
+      <c r="G170" t="s">
+        <v>82</v>
+      </c>
+      <c r="H170" t="s">
+        <v>76</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>1</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <v>1</v>
+      </c>
+      <c r="O170" t="s">
+        <v>118</v>
+      </c>
+      <c r="P170" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q170">
+        <v>2.63</v>
+      </c>
+      <c r="R170">
+        <v>2.1</v>
+      </c>
+      <c r="S170">
+        <v>4.5</v>
+      </c>
+      <c r="T170">
+        <v>1.44</v>
+      </c>
+      <c r="U170">
+        <v>2.63</v>
+      </c>
+      <c r="V170">
+        <v>3.25</v>
+      </c>
+      <c r="W170">
+        <v>1.33</v>
+      </c>
+      <c r="X170">
+        <v>9</v>
+      </c>
+      <c r="Y170">
+        <v>1.07</v>
+      </c>
+      <c r="Z170">
+        <v>1.95</v>
+      </c>
+      <c r="AA170">
+        <v>3.3</v>
+      </c>
+      <c r="AB170">
+        <v>4.2</v>
+      </c>
+      <c r="AC170">
+        <v>1.06</v>
+      </c>
+      <c r="AD170">
+        <v>10</v>
+      </c>
+      <c r="AE170">
+        <v>1.36</v>
+      </c>
+      <c r="AF170">
+        <v>3.2</v>
+      </c>
+      <c r="AG170">
+        <v>2.1</v>
+      </c>
+      <c r="AH170">
+        <v>1.7</v>
+      </c>
+      <c r="AI170">
+        <v>1.95</v>
+      </c>
+      <c r="AJ170">
+        <v>1.8</v>
+      </c>
+      <c r="AK170">
+        <v>1.28</v>
+      </c>
+      <c r="AL170">
+        <v>1.25</v>
+      </c>
+      <c r="AM170">
+        <v>1.78</v>
+      </c>
+      <c r="AN170">
+        <v>2.29</v>
+      </c>
+      <c r="AO170">
+        <v>1.38</v>
+      </c>
+      <c r="AP170">
+        <v>2.38</v>
+      </c>
+      <c r="AQ170">
+        <v>1.22</v>
+      </c>
+      <c r="AR170">
+        <v>1.4</v>
+      </c>
+      <c r="AS170">
+        <v>1.26</v>
+      </c>
+      <c r="AT170">
+        <v>2.66</v>
+      </c>
+      <c r="AU170">
+        <v>4</v>
+      </c>
+      <c r="AV170">
+        <v>8</v>
+      </c>
+      <c r="AW170">
+        <v>4</v>
+      </c>
+      <c r="AX170">
+        <v>8</v>
+      </c>
+      <c r="AY170">
+        <v>8</v>
+      </c>
+      <c r="AZ170">
+        <v>16</v>
+      </c>
+      <c r="BA170">
+        <v>2</v>
+      </c>
+      <c r="BB170">
+        <v>11</v>
+      </c>
+      <c r="BC170">
+        <v>13</v>
+      </c>
+      <c r="BD170">
+        <v>1.66</v>
+      </c>
+      <c r="BE170">
+        <v>7.2</v>
+      </c>
+      <c r="BF170">
+        <v>2.84</v>
+      </c>
+      <c r="BG170">
+        <v>1.12</v>
+      </c>
+      <c r="BH170">
+        <v>5.1</v>
+      </c>
+      <c r="BI170">
+        <v>1.16</v>
+      </c>
+      <c r="BJ170">
+        <v>4.4</v>
+      </c>
+      <c r="BK170">
+        <v>1.31</v>
+      </c>
+      <c r="BL170">
+        <v>3.04</v>
+      </c>
+      <c r="BM170">
+        <v>1.8</v>
+      </c>
+      <c r="BN170">
+        <v>2</v>
+      </c>
+      <c r="BO170">
+        <v>1.92</v>
+      </c>
+      <c r="BP170">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="171" spans="1:68">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>7373352</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45494.77083333334</v>
+      </c>
+      <c r="F171">
+        <v>18</v>
+      </c>
+      <c r="G171" t="s">
+        <v>83</v>
+      </c>
+      <c r="H171" t="s">
+        <v>77</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <v>1</v>
+      </c>
+      <c r="K171">
+        <v>2</v>
+      </c>
+      <c r="L171">
+        <v>3</v>
+      </c>
+      <c r="M171">
+        <v>1</v>
+      </c>
+      <c r="N171">
+        <v>4</v>
+      </c>
+      <c r="O171" t="s">
+        <v>212</v>
+      </c>
+      <c r="P171" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q171">
+        <v>2.3</v>
+      </c>
+      <c r="R171">
+        <v>2.2</v>
+      </c>
+      <c r="S171">
+        <v>5.5</v>
+      </c>
+      <c r="T171">
+        <v>1.44</v>
+      </c>
+      <c r="U171">
+        <v>2.63</v>
+      </c>
+      <c r="V171">
+        <v>3</v>
+      </c>
+      <c r="W171">
+        <v>1.36</v>
+      </c>
+      <c r="X171">
+        <v>9</v>
+      </c>
+      <c r="Y171">
+        <v>1.07</v>
+      </c>
+      <c r="Z171">
+        <v>1.67</v>
+      </c>
+      <c r="AA171">
+        <v>3.6</v>
+      </c>
+      <c r="AB171">
+        <v>5.25</v>
+      </c>
+      <c r="AC171">
+        <v>1.06</v>
+      </c>
+      <c r="AD171">
+        <v>10</v>
+      </c>
+      <c r="AE171">
+        <v>1.36</v>
+      </c>
+      <c r="AF171">
+        <v>3.2</v>
+      </c>
+      <c r="AG171">
+        <v>2</v>
+      </c>
+      <c r="AH171">
+        <v>1.8</v>
+      </c>
+      <c r="AI171">
+        <v>1.95</v>
+      </c>
+      <c r="AJ171">
+        <v>1.8</v>
+      </c>
+      <c r="AK171">
+        <v>1.2</v>
+      </c>
+      <c r="AL171">
+        <v>1.25</v>
+      </c>
+      <c r="AM171">
+        <v>2.05</v>
+      </c>
+      <c r="AN171">
+        <v>2.33</v>
+      </c>
+      <c r="AO171">
+        <v>1</v>
+      </c>
+      <c r="AP171">
+        <v>2.4</v>
+      </c>
+      <c r="AQ171">
+        <v>0.9</v>
+      </c>
+      <c r="AR171">
+        <v>1.42</v>
+      </c>
+      <c r="AS171">
+        <v>1.43</v>
+      </c>
+      <c r="AT171">
+        <v>2.85</v>
+      </c>
+      <c r="AU171">
+        <v>4</v>
+      </c>
+      <c r="AV171">
+        <v>3</v>
+      </c>
+      <c r="AW171">
+        <v>5</v>
+      </c>
+      <c r="AX171">
+        <v>6</v>
+      </c>
+      <c r="AY171">
+        <v>9</v>
+      </c>
+      <c r="AZ171">
+        <v>9</v>
+      </c>
+      <c r="BA171">
+        <v>5</v>
+      </c>
+      <c r="BB171">
+        <v>6</v>
+      </c>
+      <c r="BC171">
+        <v>11</v>
+      </c>
+      <c r="BD171">
+        <v>1.51</v>
+      </c>
+      <c r="BE171">
+        <v>7.4</v>
+      </c>
+      <c r="BF171">
+        <v>3.38</v>
+      </c>
+      <c r="BG171">
+        <v>1.12</v>
+      </c>
+      <c r="BH171">
+        <v>5.1</v>
+      </c>
+      <c r="BI171">
+        <v>1.25</v>
+      </c>
+      <c r="BJ171">
+        <v>3.42</v>
+      </c>
+      <c r="BK171">
+        <v>2.1</v>
+      </c>
+      <c r="BL171">
+        <v>2.47</v>
+      </c>
+      <c r="BM171">
+        <v>1.82</v>
+      </c>
+      <c r="BN171">
+        <v>1.92</v>
+      </c>
+      <c r="BO171">
+        <v>2.29</v>
+      </c>
+      <c r="BP171">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="172" spans="1:68">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>7373353</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45494.83333333334</v>
+      </c>
+      <c r="F172">
+        <v>18</v>
+      </c>
+      <c r="G172" t="s">
+        <v>89</v>
+      </c>
+      <c r="H172" t="s">
+        <v>72</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>1</v>
+      </c>
+      <c r="N172">
+        <v>1</v>
+      </c>
+      <c r="O172" t="s">
+        <v>95</v>
+      </c>
+      <c r="P172" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q172">
+        <v>3.2</v>
+      </c>
+      <c r="R172">
+        <v>1.91</v>
+      </c>
+      <c r="S172">
+        <v>4.33</v>
+      </c>
+      <c r="T172">
+        <v>1.53</v>
+      </c>
+      <c r="U172">
+        <v>2.38</v>
+      </c>
+      <c r="V172">
+        <v>3.75</v>
+      </c>
+      <c r="W172">
+        <v>1.25</v>
+      </c>
+      <c r="X172">
+        <v>11</v>
+      </c>
+      <c r="Y172">
+        <v>1.05</v>
+      </c>
+      <c r="Z172">
+        <v>2.25</v>
+      </c>
+      <c r="AA172">
+        <v>3.1</v>
+      </c>
+      <c r="AB172">
+        <v>3.4</v>
+      </c>
+      <c r="AC172">
+        <v>1.09</v>
+      </c>
+      <c r="AD172">
+        <v>7.5</v>
+      </c>
+      <c r="AE172">
+        <v>1.47</v>
+      </c>
+      <c r="AF172">
+        <v>2.7</v>
+      </c>
+      <c r="AG172">
+        <v>2.7</v>
+      </c>
+      <c r="AH172">
+        <v>1.44</v>
+      </c>
+      <c r="AI172">
+        <v>2.2</v>
+      </c>
+      <c r="AJ172">
+        <v>1.62</v>
+      </c>
+      <c r="AK172">
+        <v>1.35</v>
+      </c>
+      <c r="AL172">
+        <v>1.3</v>
+      </c>
+      <c r="AM172">
+        <v>1.62</v>
+      </c>
+      <c r="AN172">
+        <v>0.75</v>
+      </c>
+      <c r="AO172">
+        <v>0.13</v>
+      </c>
+      <c r="AP172">
+        <v>0.67</v>
+      </c>
+      <c r="AQ172">
+        <v>0.44</v>
+      </c>
+      <c r="AR172">
+        <v>1.18</v>
+      </c>
+      <c r="AS172">
+        <v>1.16</v>
+      </c>
+      <c r="AT172">
+        <v>2.34</v>
+      </c>
+      <c r="AU172">
+        <v>7</v>
+      </c>
+      <c r="AV172">
+        <v>5</v>
+      </c>
+      <c r="AW172">
+        <v>5</v>
+      </c>
+      <c r="AX172">
+        <v>6</v>
+      </c>
+      <c r="AY172">
+        <v>12</v>
+      </c>
+      <c r="AZ172">
+        <v>11</v>
+      </c>
+      <c r="BA172">
+        <v>6</v>
+      </c>
+      <c r="BB172">
+        <v>4</v>
+      </c>
+      <c r="BC172">
+        <v>10</v>
+      </c>
+      <c r="BD172">
+        <v>1.71</v>
+      </c>
+      <c r="BE172">
+        <v>6.75</v>
+      </c>
+      <c r="BF172">
+        <v>2.77</v>
+      </c>
+      <c r="BG172">
+        <v>1.18</v>
+      </c>
+      <c r="BH172">
+        <v>4.15</v>
+      </c>
+      <c r="BI172">
+        <v>1.36</v>
+      </c>
+      <c r="BJ172">
+        <v>2.79</v>
+      </c>
+      <c r="BK172">
+        <v>2.2</v>
+      </c>
+      <c r="BL172">
+        <v>2.11</v>
+      </c>
+      <c r="BM172">
+        <v>2.09</v>
+      </c>
+      <c r="BN172">
+        <v>1.69</v>
+      </c>
+      <c r="BO172">
+        <v>2.72</v>
+      </c>
+      <c r="BP172">
         <v>1.4</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="283">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -655,6 +655,21 @@
     <t>['23', '62', '74']</t>
   </si>
   <si>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>['45', '86']</t>
+  </si>
+  <si>
+    <t>['6', '60']</t>
+  </si>
+  <si>
+    <t>['75']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -802,9 +817,6 @@
     <t>['90']</t>
   </si>
   <si>
-    <t>['75']</t>
-  </si>
-  <si>
     <t>['5', '76']</t>
   </si>
   <si>
@@ -845,6 +857,12 @@
   </si>
   <si>
     <t>['51']</t>
+  </si>
+  <si>
+    <t>['11', '22']</t>
+  </si>
+  <si>
+    <t>['39', '90']</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1224,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP172"/>
+  <dimension ref="A1:BP178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1465,7 +1483,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1671,7 +1689,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1749,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ3">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1877,7 +1895,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -1955,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ4">
         <v>0.67</v>
@@ -2083,7 +2101,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -2161,10 +2179,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ5">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2289,7 +2307,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2907,7 +2925,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2985,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AQ9">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3113,7 +3131,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3194,7 +3212,7 @@
         <v>3</v>
       </c>
       <c r="AQ10">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3319,7 +3337,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3397,10 +3415,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3525,7 +3543,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -4143,7 +4161,7 @@
         <v>102</v>
       </c>
       <c r="P15" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q15">
         <v>2.75</v>
@@ -5457,7 +5475,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ21">
         <v>0.67</v>
@@ -6284,7 +6302,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ25">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR25">
         <v>1.49</v>
@@ -6615,7 +6633,7 @@
         <v>112</v>
       </c>
       <c r="P27" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -6693,7 +6711,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -6821,7 +6839,7 @@
         <v>95</v>
       </c>
       <c r="P28" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6899,7 +6917,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AQ28">
         <v>1.33</v>
@@ -7027,7 +7045,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q29">
         <v>2.38</v>
@@ -7108,7 +7126,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ29">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR29">
         <v>1.4</v>
@@ -7233,7 +7251,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7439,7 +7457,7 @@
         <v>95</v>
       </c>
       <c r="P31" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7851,7 +7869,7 @@
         <v>95</v>
       </c>
       <c r="P33" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7932,7 +7950,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ33">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR33">
         <v>1.46</v>
@@ -8057,7 +8075,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q34">
         <v>2.25</v>
@@ -8675,7 +8693,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8881,7 +8899,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -9165,10 +9183,10 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ39">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR39">
         <v>1.75</v>
@@ -9293,7 +9311,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9371,7 +9389,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ40">
         <v>1.5</v>
@@ -9580,7 +9598,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ41">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR41">
         <v>1.4</v>
@@ -9786,7 +9804,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ42">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR42">
         <v>1.3</v>
@@ -9911,7 +9929,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -9989,7 +10007,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ43">
         <v>1.33</v>
@@ -10323,7 +10341,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10529,7 +10547,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10610,7 +10628,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ46">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR46">
         <v>0.52</v>
@@ -10941,7 +10959,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q48">
         <v>3.6</v>
@@ -11019,7 +11037,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AQ48">
         <v>0.8</v>
@@ -11228,7 +11246,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ49">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR49">
         <v>1.5</v>
@@ -11353,7 +11371,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q50">
         <v>2.38</v>
@@ -11559,7 +11577,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q51">
         <v>2.38</v>
@@ -11971,7 +11989,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q53">
         <v>2.38</v>
@@ -12049,7 +12067,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ53">
         <v>0.44</v>
@@ -12177,7 +12195,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -12383,7 +12401,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -12461,7 +12479,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ55">
         <v>0.9</v>
@@ -12873,10 +12891,10 @@
         <v>0.5</v>
       </c>
       <c r="AP57">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ57">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR57">
         <v>1.86</v>
@@ -13082,7 +13100,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ58">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR58">
         <v>1.63</v>
@@ -13207,7 +13225,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q59">
         <v>4.75</v>
@@ -13285,10 +13303,10 @@
         <v>2.33</v>
       </c>
       <c r="AP59">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ59">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR59">
         <v>0.99</v>
@@ -13413,7 +13431,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13619,7 +13637,7 @@
         <v>117</v>
       </c>
       <c r="P61" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q61">
         <v>5.5</v>
@@ -13700,7 +13718,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ61">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR61">
         <v>1.58</v>
@@ -14109,7 +14127,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ63">
         <v>0.8</v>
@@ -14649,7 +14667,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14727,7 +14745,7 @@
         <v>0</v>
       </c>
       <c r="AP66">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ66">
         <v>1.38</v>
@@ -15061,7 +15079,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15139,7 +15157,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AQ68">
         <v>0.5</v>
@@ -15473,7 +15491,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15679,7 +15697,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16297,7 +16315,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16790,7 +16808,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ76">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR76">
         <v>1.32</v>
@@ -16996,7 +17014,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ77">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR77">
         <v>1.45</v>
@@ -17121,7 +17139,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q78">
         <v>2.63</v>
@@ -17199,7 +17217,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ78">
         <v>0.9</v>
@@ -17327,7 +17345,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -17405,7 +17423,7 @@
         <v>2</v>
       </c>
       <c r="AP79">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ79">
         <v>1.38</v>
@@ -17533,7 +17551,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17739,7 +17757,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17820,7 +17838,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ81">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR81">
         <v>1.77</v>
@@ -18026,7 +18044,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ82">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR82">
         <v>0.8</v>
@@ -18151,7 +18169,7 @@
         <v>151</v>
       </c>
       <c r="P83" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -18232,7 +18250,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ83">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR83">
         <v>1.31</v>
@@ -18563,7 +18581,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -18641,7 +18659,7 @@
         <v>1.25</v>
       </c>
       <c r="AP85">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ85">
         <v>1</v>
@@ -18769,7 +18787,7 @@
         <v>95</v>
       </c>
       <c r="P86" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -18850,7 +18868,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ86">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR86">
         <v>1.61</v>
@@ -18975,7 +18993,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q87">
         <v>2.38</v>
@@ -19053,7 +19071,7 @@
         <v>1.33</v>
       </c>
       <c r="AP87">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AQ87">
         <v>0.88</v>
@@ -19593,7 +19611,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -19671,7 +19689,7 @@
         <v>0.75</v>
       </c>
       <c r="AP90">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ90">
         <v>1.38</v>
@@ -20417,7 +20435,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20495,7 +20513,7 @@
         <v>2</v>
       </c>
       <c r="AP94">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ94">
         <v>1.5</v>
@@ -20623,7 +20641,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -21113,10 +21131,10 @@
         <v>2</v>
       </c>
       <c r="AP97">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ97">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR97">
         <v>1.48</v>
@@ -21241,7 +21259,7 @@
         <v>95</v>
       </c>
       <c r="P98" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q98">
         <v>3.5</v>
@@ -21859,7 +21877,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q101">
         <v>2.63</v>
@@ -22065,7 +22083,7 @@
         <v>95</v>
       </c>
       <c r="P102" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22143,10 +22161,10 @@
         <v>1.8</v>
       </c>
       <c r="AP102">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ102">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR102">
         <v>1.72</v>
@@ -22477,7 +22495,7 @@
         <v>163</v>
       </c>
       <c r="P104" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q104">
         <v>1.83</v>
@@ -22558,7 +22576,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ104">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR104">
         <v>1.72</v>
@@ -22764,7 +22782,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ105">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR105">
         <v>1.47</v>
@@ -23301,7 +23319,7 @@
         <v>167</v>
       </c>
       <c r="P108" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23794,7 +23812,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ110">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR110">
         <v>1.33</v>
@@ -23919,7 +23937,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -23997,7 +24015,7 @@
         <v>0</v>
       </c>
       <c r="AP111">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AQ111">
         <v>0.14</v>
@@ -24125,7 +24143,7 @@
         <v>138</v>
       </c>
       <c r="P112" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24331,7 +24349,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -24618,7 +24636,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ114">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR114">
         <v>1.34</v>
@@ -24743,7 +24761,7 @@
         <v>95</v>
       </c>
       <c r="P115" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -24821,7 +24839,7 @@
         <v>0.4</v>
       </c>
       <c r="AP115">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ115">
         <v>0.5600000000000001</v>
@@ -25027,7 +25045,7 @@
         <v>1.75</v>
       </c>
       <c r="AP116">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ116">
         <v>0.88</v>
@@ -25155,7 +25173,7 @@
         <v>93</v>
       </c>
       <c r="P117" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25236,7 +25254,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ117">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR117">
         <v>1.41</v>
@@ -26057,7 +26075,7 @@
         <v>1</v>
       </c>
       <c r="AP121">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ121">
         <v>1</v>
@@ -26185,7 +26203,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="Q122">
         <v>2.3</v>
@@ -26266,7 +26284,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ122">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR122">
         <v>1.32</v>
@@ -26469,7 +26487,7 @@
         <v>0.83</v>
       </c>
       <c r="AP123">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ123">
         <v>1.22</v>
@@ -26881,7 +26899,7 @@
         <v>1.8</v>
       </c>
       <c r="AP125">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ125">
         <v>1.38</v>
@@ -27215,7 +27233,7 @@
         <v>132</v>
       </c>
       <c r="P127" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q127">
         <v>3.6</v>
@@ -27296,7 +27314,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ127">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR127">
         <v>1.11</v>
@@ -27499,7 +27517,7 @@
         <v>0.71</v>
       </c>
       <c r="AP128">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ128">
         <v>0.8</v>
@@ -27708,7 +27726,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ129">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR129">
         <v>1.35</v>
@@ -27833,7 +27851,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28039,7 +28057,7 @@
         <v>134</v>
       </c>
       <c r="P131" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q131">
         <v>3.2</v>
@@ -28245,7 +28263,7 @@
         <v>184</v>
       </c>
       <c r="P132" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28326,7 +28344,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ132">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR132">
         <v>1.55</v>
@@ -28532,7 +28550,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ133">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR133">
         <v>1.52</v>
@@ -28657,7 +28675,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -28738,7 +28756,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ134">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR134">
         <v>1.45</v>
@@ -28863,7 +28881,7 @@
         <v>187</v>
       </c>
       <c r="P135" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -29147,7 +29165,7 @@
         <v>1.67</v>
       </c>
       <c r="AP136">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ136">
         <v>1.38</v>
@@ -29353,7 +29371,7 @@
         <v>0.86</v>
       </c>
       <c r="AP137">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ137">
         <v>0.67</v>
@@ -29481,7 +29499,7 @@
         <v>190</v>
       </c>
       <c r="P138" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -30305,7 +30323,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -30589,7 +30607,7 @@
         <v>1.4</v>
       </c>
       <c r="AP143">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ143">
         <v>0.88</v>
@@ -30923,7 +30941,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q145">
         <v>2.63</v>
@@ -31001,7 +31019,7 @@
         <v>1.14</v>
       </c>
       <c r="AP145">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AQ145">
         <v>1.22</v>
@@ -31335,7 +31353,7 @@
         <v>95</v>
       </c>
       <c r="P147" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31747,7 +31765,7 @@
         <v>176</v>
       </c>
       <c r="P149" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q149">
         <v>2.88</v>
@@ -32159,7 +32177,7 @@
         <v>201</v>
       </c>
       <c r="P151" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32237,7 +32255,7 @@
         <v>0</v>
       </c>
       <c r="AP151">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ151">
         <v>0.44</v>
@@ -32365,7 +32383,7 @@
         <v>202</v>
       </c>
       <c r="P152" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q152">
         <v>2.2</v>
@@ -32446,7 +32464,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ152">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR152">
         <v>1.6</v>
@@ -32649,10 +32667,10 @@
         <v>1.75</v>
       </c>
       <c r="AP153">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ153">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR153">
         <v>1.2</v>
@@ -32777,7 +32795,7 @@
         <v>203</v>
       </c>
       <c r="P154" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q154">
         <v>3.4</v>
@@ -32983,7 +33001,7 @@
         <v>204</v>
       </c>
       <c r="P155" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q155">
         <v>2.6</v>
@@ -33189,7 +33207,7 @@
         <v>122</v>
       </c>
       <c r="P156" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33395,7 +33413,7 @@
         <v>205</v>
       </c>
       <c r="P157" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -33807,7 +33825,7 @@
         <v>95</v>
       </c>
       <c r="P159" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -33885,7 +33903,7 @@
         <v>0.43</v>
       </c>
       <c r="AP159">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AQ159">
         <v>0.67</v>
@@ -34091,7 +34109,7 @@
         <v>0.17</v>
       </c>
       <c r="AP160">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ160">
         <v>0.14</v>
@@ -34219,7 +34237,7 @@
         <v>207</v>
       </c>
       <c r="P161" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q161">
         <v>2.25</v>
@@ -34506,7 +34524,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ162">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR162">
         <v>1.58</v>
@@ -34631,7 +34649,7 @@
         <v>208</v>
       </c>
       <c r="P163" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q163">
         <v>1.95</v>
@@ -36485,7 +36503,7 @@
         <v>95</v>
       </c>
       <c r="P172" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q172">
         <v>3.2</v>
@@ -36641,6 +36659,1242 @@
         <v>2.72</v>
       </c>
       <c r="BP172">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:68">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>7373204</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45497.79166666666</v>
+      </c>
+      <c r="F173">
+        <v>3</v>
+      </c>
+      <c r="G173" t="s">
+        <v>71</v>
+      </c>
+      <c r="H173" t="s">
+        <v>83</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>1</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+      <c r="M173">
+        <v>1</v>
+      </c>
+      <c r="N173">
+        <v>2</v>
+      </c>
+      <c r="O173" t="s">
+        <v>213</v>
+      </c>
+      <c r="P173" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q173">
+        <v>3.5</v>
+      </c>
+      <c r="R173">
+        <v>1.95</v>
+      </c>
+      <c r="S173">
+        <v>3.5</v>
+      </c>
+      <c r="T173">
+        <v>1.5</v>
+      </c>
+      <c r="U173">
+        <v>2.5</v>
+      </c>
+      <c r="V173">
+        <v>3.5</v>
+      </c>
+      <c r="W173">
+        <v>1.29</v>
+      </c>
+      <c r="X173">
+        <v>11</v>
+      </c>
+      <c r="Y173">
+        <v>1.05</v>
+      </c>
+      <c r="Z173">
+        <v>2.7</v>
+      </c>
+      <c r="AA173">
+        <v>3.1</v>
+      </c>
+      <c r="AB173">
+        <v>2.75</v>
+      </c>
+      <c r="AC173">
+        <v>1.07</v>
+      </c>
+      <c r="AD173">
+        <v>8</v>
+      </c>
+      <c r="AE173">
+        <v>1.42</v>
+      </c>
+      <c r="AF173">
+        <v>2.8</v>
+      </c>
+      <c r="AG173">
+        <v>2.35</v>
+      </c>
+      <c r="AH173">
+        <v>1.57</v>
+      </c>
+      <c r="AI173">
+        <v>2</v>
+      </c>
+      <c r="AJ173">
+        <v>1.75</v>
+      </c>
+      <c r="AK173">
+        <v>1.42</v>
+      </c>
+      <c r="AL173">
+        <v>1.25</v>
+      </c>
+      <c r="AM173">
+        <v>1.53</v>
+      </c>
+      <c r="AN173">
+        <v>1.25</v>
+      </c>
+      <c r="AO173">
+        <v>1.14</v>
+      </c>
+      <c r="AP173">
+        <v>1.22</v>
+      </c>
+      <c r="AQ173">
+        <v>1.13</v>
+      </c>
+      <c r="AR173">
+        <v>1.5</v>
+      </c>
+      <c r="AS173">
+        <v>1.02</v>
+      </c>
+      <c r="AT173">
+        <v>2.52</v>
+      </c>
+      <c r="AU173">
+        <v>8</v>
+      </c>
+      <c r="AV173">
+        <v>5</v>
+      </c>
+      <c r="AW173">
+        <v>5</v>
+      </c>
+      <c r="AX173">
+        <v>9</v>
+      </c>
+      <c r="AY173">
+        <v>13</v>
+      </c>
+      <c r="AZ173">
+        <v>14</v>
+      </c>
+      <c r="BA173">
+        <v>4</v>
+      </c>
+      <c r="BB173">
+        <v>5</v>
+      </c>
+      <c r="BC173">
+        <v>9</v>
+      </c>
+      <c r="BD173">
+        <v>1.93</v>
+      </c>
+      <c r="BE173">
+        <v>9</v>
+      </c>
+      <c r="BF173">
+        <v>2.24</v>
+      </c>
+      <c r="BG173">
+        <v>1.19</v>
+      </c>
+      <c r="BH173">
+        <v>4.1</v>
+      </c>
+      <c r="BI173">
+        <v>1.34</v>
+      </c>
+      <c r="BJ173">
+        <v>2.9</v>
+      </c>
+      <c r="BK173">
+        <v>1.91</v>
+      </c>
+      <c r="BL173">
+        <v>2.3</v>
+      </c>
+      <c r="BM173">
+        <v>1.98</v>
+      </c>
+      <c r="BN173">
+        <v>1.82</v>
+      </c>
+      <c r="BO173">
+        <v>2.4</v>
+      </c>
+      <c r="BP173">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7373357</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45497.79166666666</v>
+      </c>
+      <c r="F174">
+        <v>19</v>
+      </c>
+      <c r="G174" t="s">
+        <v>78</v>
+      </c>
+      <c r="H174" t="s">
+        <v>85</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>2</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <v>2</v>
+      </c>
+      <c r="O174" t="s">
+        <v>214</v>
+      </c>
+      <c r="P174" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q174">
+        <v>2.05</v>
+      </c>
+      <c r="R174">
+        <v>2.3</v>
+      </c>
+      <c r="S174">
+        <v>6.5</v>
+      </c>
+      <c r="T174">
+        <v>1.45</v>
+      </c>
+      <c r="U174">
+        <v>2.6</v>
+      </c>
+      <c r="V174">
+        <v>3</v>
+      </c>
+      <c r="W174">
+        <v>1.35</v>
+      </c>
+      <c r="X174">
+        <v>7</v>
+      </c>
+      <c r="Y174">
+        <v>1.07</v>
+      </c>
+      <c r="Z174">
+        <v>1.5</v>
+      </c>
+      <c r="AA174">
+        <v>4.1</v>
+      </c>
+      <c r="AB174">
+        <v>7</v>
+      </c>
+      <c r="AC174">
+        <v>1.07</v>
+      </c>
+      <c r="AD174">
+        <v>9.75</v>
+      </c>
+      <c r="AE174">
+        <v>1.37</v>
+      </c>
+      <c r="AF174">
+        <v>3.1</v>
+      </c>
+      <c r="AG174">
+        <v>1.95</v>
+      </c>
+      <c r="AH174">
+        <v>1.85</v>
+      </c>
+      <c r="AI174">
+        <v>2</v>
+      </c>
+      <c r="AJ174">
+        <v>1.75</v>
+      </c>
+      <c r="AK174">
+        <v>1.11</v>
+      </c>
+      <c r="AL174">
+        <v>1.2</v>
+      </c>
+      <c r="AM174">
+        <v>2.35</v>
+      </c>
+      <c r="AN174">
+        <v>3</v>
+      </c>
+      <c r="AO174">
+        <v>0.29</v>
+      </c>
+      <c r="AP174">
+        <v>3</v>
+      </c>
+      <c r="AQ174">
+        <v>0.25</v>
+      </c>
+      <c r="AR174">
+        <v>1.59</v>
+      </c>
+      <c r="AS174">
+        <v>1.31</v>
+      </c>
+      <c r="AT174">
+        <v>2.9</v>
+      </c>
+      <c r="AU174">
+        <v>6</v>
+      </c>
+      <c r="AV174">
+        <v>3</v>
+      </c>
+      <c r="AW174">
+        <v>3</v>
+      </c>
+      <c r="AX174">
+        <v>3</v>
+      </c>
+      <c r="AY174">
+        <v>9</v>
+      </c>
+      <c r="AZ174">
+        <v>6</v>
+      </c>
+      <c r="BA174">
+        <v>6</v>
+      </c>
+      <c r="BB174">
+        <v>5</v>
+      </c>
+      <c r="BC174">
+        <v>11</v>
+      </c>
+      <c r="BD174">
+        <v>1.29</v>
+      </c>
+      <c r="BE174">
+        <v>13.5</v>
+      </c>
+      <c r="BF174">
+        <v>4.49</v>
+      </c>
+      <c r="BG174">
+        <v>1.23</v>
+      </c>
+      <c r="BH174">
+        <v>3.65</v>
+      </c>
+      <c r="BI174">
+        <v>1.41</v>
+      </c>
+      <c r="BJ174">
+        <v>2.65</v>
+      </c>
+      <c r="BK174">
+        <v>2.1</v>
+      </c>
+      <c r="BL174">
+        <v>2.1</v>
+      </c>
+      <c r="BM174">
+        <v>2.05</v>
+      </c>
+      <c r="BN174">
+        <v>1.7</v>
+      </c>
+      <c r="BO174">
+        <v>2.6</v>
+      </c>
+      <c r="BP174">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>7373366</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45497.8125</v>
+      </c>
+      <c r="F175">
+        <v>19</v>
+      </c>
+      <c r="G175" t="s">
+        <v>73</v>
+      </c>
+      <c r="H175" t="s">
+        <v>88</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175">
+        <v>2</v>
+      </c>
+      <c r="K175">
+        <v>3</v>
+      </c>
+      <c r="L175">
+        <v>2</v>
+      </c>
+      <c r="M175">
+        <v>2</v>
+      </c>
+      <c r="N175">
+        <v>4</v>
+      </c>
+      <c r="O175" t="s">
+        <v>215</v>
+      </c>
+      <c r="P175" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q175">
+        <v>3.1</v>
+      </c>
+      <c r="R175">
+        <v>1.91</v>
+      </c>
+      <c r="S175">
+        <v>4.5</v>
+      </c>
+      <c r="T175">
+        <v>1.5</v>
+      </c>
+      <c r="U175">
+        <v>2.5</v>
+      </c>
+      <c r="V175">
+        <v>3.4</v>
+      </c>
+      <c r="W175">
+        <v>1.3</v>
+      </c>
+      <c r="X175">
+        <v>10</v>
+      </c>
+      <c r="Y175">
+        <v>1.06</v>
+      </c>
+      <c r="Z175">
+        <v>2.25</v>
+      </c>
+      <c r="AA175">
+        <v>3</v>
+      </c>
+      <c r="AB175">
+        <v>3.75</v>
+      </c>
+      <c r="AC175">
+        <v>1.08</v>
+      </c>
+      <c r="AD175">
+        <v>9.35</v>
+      </c>
+      <c r="AE175">
+        <v>1.53</v>
+      </c>
+      <c r="AF175">
+        <v>2.35</v>
+      </c>
+      <c r="AG175">
+        <v>2.88</v>
+      </c>
+      <c r="AH175">
+        <v>1.4</v>
+      </c>
+      <c r="AI175">
+        <v>2.25</v>
+      </c>
+      <c r="AJ175">
+        <v>1.57</v>
+      </c>
+      <c r="AK175">
+        <v>1.36</v>
+      </c>
+      <c r="AL175">
+        <v>1.25</v>
+      </c>
+      <c r="AM175">
+        <v>1.6</v>
+      </c>
+      <c r="AN175">
+        <v>2.11</v>
+      </c>
+      <c r="AO175">
+        <v>1.89</v>
+      </c>
+      <c r="AP175">
+        <v>2</v>
+      </c>
+      <c r="AQ175">
+        <v>1.8</v>
+      </c>
+      <c r="AR175">
+        <v>1.48</v>
+      </c>
+      <c r="AS175">
+        <v>1.13</v>
+      </c>
+      <c r="AT175">
+        <v>2.61</v>
+      </c>
+      <c r="AU175">
+        <v>7</v>
+      </c>
+      <c r="AV175">
+        <v>7</v>
+      </c>
+      <c r="AW175">
+        <v>5</v>
+      </c>
+      <c r="AX175">
+        <v>4</v>
+      </c>
+      <c r="AY175">
+        <v>12</v>
+      </c>
+      <c r="AZ175">
+        <v>11</v>
+      </c>
+      <c r="BA175">
+        <v>7</v>
+      </c>
+      <c r="BB175">
+        <v>1</v>
+      </c>
+      <c r="BC175">
+        <v>8</v>
+      </c>
+      <c r="BD175">
+        <v>1.65</v>
+      </c>
+      <c r="BE175">
+        <v>9.6</v>
+      </c>
+      <c r="BF175">
+        <v>2.78</v>
+      </c>
+      <c r="BG175">
+        <v>1.26</v>
+      </c>
+      <c r="BH175">
+        <v>3.4</v>
+      </c>
+      <c r="BI175">
+        <v>1.45</v>
+      </c>
+      <c r="BJ175">
+        <v>2.6</v>
+      </c>
+      <c r="BK175">
+        <v>2.2</v>
+      </c>
+      <c r="BL175">
+        <v>1.95</v>
+      </c>
+      <c r="BM175">
+        <v>2.2</v>
+      </c>
+      <c r="BN175">
+        <v>1.62</v>
+      </c>
+      <c r="BO175">
+        <v>2.7</v>
+      </c>
+      <c r="BP175">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>7373359</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45497.83333333334</v>
+      </c>
+      <c r="F176">
+        <v>19</v>
+      </c>
+      <c r="G176" t="s">
+        <v>79</v>
+      </c>
+      <c r="H176" t="s">
+        <v>87</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>1</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+      <c r="L176">
+        <v>1</v>
+      </c>
+      <c r="M176">
+        <v>2</v>
+      </c>
+      <c r="N176">
+        <v>3</v>
+      </c>
+      <c r="O176" t="s">
+        <v>216</v>
+      </c>
+      <c r="P176" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q176">
+        <v>5</v>
+      </c>
+      <c r="R176">
+        <v>2.1</v>
+      </c>
+      <c r="S176">
+        <v>2.5</v>
+      </c>
+      <c r="T176">
+        <v>1.44</v>
+      </c>
+      <c r="U176">
+        <v>2.63</v>
+      </c>
+      <c r="V176">
+        <v>3</v>
+      </c>
+      <c r="W176">
+        <v>1.36</v>
+      </c>
+      <c r="X176">
+        <v>9</v>
+      </c>
+      <c r="Y176">
+        <v>1.07</v>
+      </c>
+      <c r="Z176">
+        <v>4.5</v>
+      </c>
+      <c r="AA176">
+        <v>3.6</v>
+      </c>
+      <c r="AB176">
+        <v>1.8</v>
+      </c>
+      <c r="AC176">
+        <v>1.05</v>
+      </c>
+      <c r="AD176">
+        <v>9</v>
+      </c>
+      <c r="AE176">
+        <v>1.33</v>
+      </c>
+      <c r="AF176">
+        <v>3.25</v>
+      </c>
+      <c r="AG176">
+        <v>2.1</v>
+      </c>
+      <c r="AH176">
+        <v>1.7</v>
+      </c>
+      <c r="AI176">
+        <v>2</v>
+      </c>
+      <c r="AJ176">
+        <v>1.75</v>
+      </c>
+      <c r="AK176">
+        <v>1.93</v>
+      </c>
+      <c r="AL176">
+        <v>1.22</v>
+      </c>
+      <c r="AM176">
+        <v>1.22</v>
+      </c>
+      <c r="AN176">
+        <v>1.11</v>
+      </c>
+      <c r="AO176">
+        <v>1.88</v>
+      </c>
+      <c r="AP176">
+        <v>1</v>
+      </c>
+      <c r="AQ176">
+        <v>2</v>
+      </c>
+      <c r="AR176">
+        <v>1.23</v>
+      </c>
+      <c r="AS176">
+        <v>1.66</v>
+      </c>
+      <c r="AT176">
+        <v>2.89</v>
+      </c>
+      <c r="AU176">
+        <v>4</v>
+      </c>
+      <c r="AV176">
+        <v>5</v>
+      </c>
+      <c r="AW176">
+        <v>6</v>
+      </c>
+      <c r="AX176">
+        <v>3</v>
+      </c>
+      <c r="AY176">
+        <v>10</v>
+      </c>
+      <c r="AZ176">
+        <v>8</v>
+      </c>
+      <c r="BA176">
+        <v>4</v>
+      </c>
+      <c r="BB176">
+        <v>8</v>
+      </c>
+      <c r="BC176">
+        <v>12</v>
+      </c>
+      <c r="BD176">
+        <v>2.97</v>
+      </c>
+      <c r="BE176">
+        <v>10.5</v>
+      </c>
+      <c r="BF176">
+        <v>1.57</v>
+      </c>
+      <c r="BG176">
+        <v>1.24</v>
+      </c>
+      <c r="BH176">
+        <v>3.55</v>
+      </c>
+      <c r="BI176">
+        <v>1.44</v>
+      </c>
+      <c r="BJ176">
+        <v>2.65</v>
+      </c>
+      <c r="BK176">
+        <v>2.2</v>
+      </c>
+      <c r="BL176">
+        <v>2.05</v>
+      </c>
+      <c r="BM176">
+        <v>2.15</v>
+      </c>
+      <c r="BN176">
+        <v>1.65</v>
+      </c>
+      <c r="BO176">
+        <v>2.65</v>
+      </c>
+      <c r="BP176">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7373360</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45497.89583333334</v>
+      </c>
+      <c r="F177">
+        <v>19</v>
+      </c>
+      <c r="G177" t="s">
+        <v>72</v>
+      </c>
+      <c r="H177" t="s">
+        <v>84</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>1</v>
+      </c>
+      <c r="O177" t="s">
+        <v>217</v>
+      </c>
+      <c r="P177" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q177">
+        <v>4</v>
+      </c>
+      <c r="R177">
+        <v>2.05</v>
+      </c>
+      <c r="S177">
+        <v>3</v>
+      </c>
+      <c r="T177">
+        <v>1.45</v>
+      </c>
+      <c r="U177">
+        <v>2.55</v>
+      </c>
+      <c r="V177">
+        <v>3.05</v>
+      </c>
+      <c r="W177">
+        <v>1.32</v>
+      </c>
+      <c r="X177">
+        <v>7</v>
+      </c>
+      <c r="Y177">
+        <v>1.07</v>
+      </c>
+      <c r="Z177">
+        <v>3.4</v>
+      </c>
+      <c r="AA177">
+        <v>3.1</v>
+      </c>
+      <c r="AB177">
+        <v>2.2</v>
+      </c>
+      <c r="AC177">
+        <v>1.07</v>
+      </c>
+      <c r="AD177">
+        <v>9.65</v>
+      </c>
+      <c r="AE177">
+        <v>1.37</v>
+      </c>
+      <c r="AF177">
+        <v>3.13</v>
+      </c>
+      <c r="AG177">
+        <v>2.25</v>
+      </c>
+      <c r="AH177">
+        <v>1.62</v>
+      </c>
+      <c r="AI177">
+        <v>1.95</v>
+      </c>
+      <c r="AJ177">
+        <v>1.8</v>
+      </c>
+      <c r="AK177">
+        <v>1.65</v>
+      </c>
+      <c r="AL177">
+        <v>1.28</v>
+      </c>
+      <c r="AM177">
+        <v>1.33</v>
+      </c>
+      <c r="AN177">
+        <v>0.88</v>
+      </c>
+      <c r="AO177">
+        <v>1.75</v>
+      </c>
+      <c r="AP177">
+        <v>1.11</v>
+      </c>
+      <c r="AQ177">
+        <v>1.56</v>
+      </c>
+      <c r="AR177">
+        <v>1.44</v>
+      </c>
+      <c r="AS177">
+        <v>1.67</v>
+      </c>
+      <c r="AT177">
+        <v>3.11</v>
+      </c>
+      <c r="AU177">
+        <v>3</v>
+      </c>
+      <c r="AV177">
+        <v>2</v>
+      </c>
+      <c r="AW177">
+        <v>7</v>
+      </c>
+      <c r="AX177">
+        <v>2</v>
+      </c>
+      <c r="AY177">
+        <v>10</v>
+      </c>
+      <c r="AZ177">
+        <v>4</v>
+      </c>
+      <c r="BA177">
+        <v>4</v>
+      </c>
+      <c r="BB177">
+        <v>2</v>
+      </c>
+      <c r="BC177">
+        <v>6</v>
+      </c>
+      <c r="BD177">
+        <v>2.17</v>
+      </c>
+      <c r="BE177">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF177">
+        <v>2</v>
+      </c>
+      <c r="BG177">
+        <v>1.17</v>
+      </c>
+      <c r="BH177">
+        <v>4.3</v>
+      </c>
+      <c r="BI177">
+        <v>1.3</v>
+      </c>
+      <c r="BJ177">
+        <v>3.05</v>
+      </c>
+      <c r="BK177">
+        <v>1.83</v>
+      </c>
+      <c r="BL177">
+        <v>2.1</v>
+      </c>
+      <c r="BM177">
+        <v>2.05</v>
+      </c>
+      <c r="BN177">
+        <v>1.7</v>
+      </c>
+      <c r="BO177">
+        <v>2.6</v>
+      </c>
+      <c r="BP177">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>7373370</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45497.89583333334</v>
+      </c>
+      <c r="F178">
+        <v>19</v>
+      </c>
+      <c r="G178" t="s">
+        <v>77</v>
+      </c>
+      <c r="H178" t="s">
+        <v>80</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>1</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+      <c r="N178">
+        <v>2</v>
+      </c>
+      <c r="O178" t="s">
+        <v>190</v>
+      </c>
+      <c r="P178" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q178">
+        <v>3.5</v>
+      </c>
+      <c r="R178">
+        <v>2.05</v>
+      </c>
+      <c r="S178">
+        <v>3.25</v>
+      </c>
+      <c r="T178">
+        <v>1.44</v>
+      </c>
+      <c r="U178">
+        <v>2.63</v>
+      </c>
+      <c r="V178">
+        <v>3.25</v>
+      </c>
+      <c r="W178">
+        <v>1.33</v>
+      </c>
+      <c r="X178">
+        <v>10</v>
+      </c>
+      <c r="Y178">
+        <v>1.06</v>
+      </c>
+      <c r="Z178">
+        <v>2.88</v>
+      </c>
+      <c r="AA178">
+        <v>3.2</v>
+      </c>
+      <c r="AB178">
+        <v>2.6</v>
+      </c>
+      <c r="AC178">
+        <v>1.07</v>
+      </c>
+      <c r="AD178">
+        <v>9.85</v>
+      </c>
+      <c r="AE178">
+        <v>1.37</v>
+      </c>
+      <c r="AF178">
+        <v>3.12</v>
+      </c>
+      <c r="AG178">
+        <v>2.1</v>
+      </c>
+      <c r="AH178">
+        <v>1.7</v>
+      </c>
+      <c r="AI178">
+        <v>1.8</v>
+      </c>
+      <c r="AJ178">
+        <v>1.95</v>
+      </c>
+      <c r="AK178">
+        <v>1.5</v>
+      </c>
+      <c r="AL178">
+        <v>1.25</v>
+      </c>
+      <c r="AM178">
+        <v>1.44</v>
+      </c>
+      <c r="AN178">
+        <v>0.25</v>
+      </c>
+      <c r="AO178">
+        <v>1</v>
+      </c>
+      <c r="AP178">
+        <v>0.33</v>
+      </c>
+      <c r="AQ178">
+        <v>1</v>
+      </c>
+      <c r="AR178">
+        <v>1.48</v>
+      </c>
+      <c r="AS178">
+        <v>1.32</v>
+      </c>
+      <c r="AT178">
+        <v>2.8</v>
+      </c>
+      <c r="AU178">
+        <v>5</v>
+      </c>
+      <c r="AV178">
+        <v>3</v>
+      </c>
+      <c r="AW178">
+        <v>9</v>
+      </c>
+      <c r="AX178">
+        <v>4</v>
+      </c>
+      <c r="AY178">
+        <v>14</v>
+      </c>
+      <c r="AZ178">
+        <v>7</v>
+      </c>
+      <c r="BA178">
+        <v>8</v>
+      </c>
+      <c r="BB178">
+        <v>4</v>
+      </c>
+      <c r="BC178">
+        <v>12</v>
+      </c>
+      <c r="BD178">
+        <v>2.2</v>
+      </c>
+      <c r="BE178">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF178">
+        <v>1.97</v>
+      </c>
+      <c r="BG178">
+        <v>1.24</v>
+      </c>
+      <c r="BH178">
+        <v>3.55</v>
+      </c>
+      <c r="BI178">
+        <v>1.44</v>
+      </c>
+      <c r="BJ178">
+        <v>2.65</v>
+      </c>
+      <c r="BK178">
+        <v>2.2</v>
+      </c>
+      <c r="BL178">
+        <v>2.05</v>
+      </c>
+      <c r="BM178">
+        <v>2.15</v>
+      </c>
+      <c r="BN178">
+        <v>1.65</v>
+      </c>
+      <c r="BO178">
+        <v>2.7</v>
+      </c>
+      <c r="BP178">
         <v>1.4</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="285">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -670,6 +670,9 @@
     <t>['87']</t>
   </si>
   <si>
+    <t>['25', '87']</t>
+  </si>
+  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -863,6 +866,9 @@
   </si>
   <si>
     <t>['39', '90']</t>
+  </si>
+  <si>
+    <t>['2', '76']</t>
   </si>
 </sst>
 </file>
@@ -1224,7 +1230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP178"/>
+  <dimension ref="A1:BP179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1483,7 +1489,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1689,7 +1695,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1895,7 +1901,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -2101,7 +2107,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -2307,7 +2313,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2388,7 +2394,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ6">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2591,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ7">
         <v>1.5</v>
@@ -2925,7 +2931,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3131,7 +3137,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3337,7 +3343,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3543,7 +3549,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -4161,7 +4167,7 @@
         <v>102</v>
       </c>
       <c r="P15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q15">
         <v>2.75</v>
@@ -6633,7 +6639,7 @@
         <v>112</v>
       </c>
       <c r="P27" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -6839,7 +6845,7 @@
         <v>95</v>
       </c>
       <c r="P28" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -7045,7 +7051,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q29">
         <v>2.38</v>
@@ -7251,7 +7257,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7457,7 +7463,7 @@
         <v>95</v>
       </c>
       <c r="P31" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7744,7 +7750,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ32">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR32">
         <v>1.55</v>
@@ -7869,7 +7875,7 @@
         <v>95</v>
       </c>
       <c r="P33" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -8075,7 +8081,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q34">
         <v>2.25</v>
@@ -8359,7 +8365,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ35">
         <v>0.44</v>
@@ -8693,7 +8699,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8899,7 +8905,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -9311,7 +9317,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9801,7 +9807,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ42">
         <v>1.13</v>
@@ -9929,7 +9935,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -10341,7 +10347,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10547,7 +10553,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10959,7 +10965,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q48">
         <v>3.6</v>
@@ -11371,7 +11377,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q50">
         <v>2.38</v>
@@ -11577,7 +11583,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q51">
         <v>2.38</v>
@@ -11989,7 +11995,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q53">
         <v>2.38</v>
@@ -12195,7 +12201,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -12401,7 +12407,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -13097,7 +13103,7 @@
         <v>1.33</v>
       </c>
       <c r="AP58">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ58">
         <v>1.8</v>
@@ -13225,7 +13231,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q59">
         <v>4.75</v>
@@ -13431,7 +13437,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13637,7 +13643,7 @@
         <v>117</v>
       </c>
       <c r="P61" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q61">
         <v>5.5</v>
@@ -14667,7 +14673,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -15079,7 +15085,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15491,7 +15497,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15697,7 +15703,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16315,7 +16321,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16396,7 +16402,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ74">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR74">
         <v>1.61</v>
@@ -17139,7 +17145,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q78">
         <v>2.63</v>
@@ -17345,7 +17351,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -17551,7 +17557,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17629,7 +17635,7 @@
         <v>1.75</v>
       </c>
       <c r="AP80">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ80">
         <v>1.33</v>
@@ -17757,7 +17763,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -18169,7 +18175,7 @@
         <v>151</v>
       </c>
       <c r="P83" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -18581,7 +18587,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -18787,7 +18793,7 @@
         <v>95</v>
       </c>
       <c r="P86" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -18993,7 +18999,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q87">
         <v>2.38</v>
@@ -19486,7 +19492,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ89">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR89">
         <v>1.34</v>
@@ -19611,7 +19617,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -20435,7 +20441,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20641,7 +20647,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -21259,7 +21265,7 @@
         <v>95</v>
       </c>
       <c r="P98" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q98">
         <v>3.5</v>
@@ -21877,7 +21883,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q101">
         <v>2.63</v>
@@ -22083,7 +22089,7 @@
         <v>95</v>
       </c>
       <c r="P102" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22495,7 +22501,7 @@
         <v>163</v>
       </c>
       <c r="P104" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q104">
         <v>1.83</v>
@@ -23319,7 +23325,7 @@
         <v>167</v>
       </c>
       <c r="P108" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23603,7 +23609,7 @@
         <v>1.2</v>
       </c>
       <c r="AP109">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ109">
         <v>1.38</v>
@@ -23937,7 +23943,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -24018,7 +24024,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ111">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR111">
         <v>1.39</v>
@@ -24143,7 +24149,7 @@
         <v>138</v>
       </c>
       <c r="P112" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24349,7 +24355,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -24761,7 +24767,7 @@
         <v>95</v>
       </c>
       <c r="P115" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -25173,7 +25179,7 @@
         <v>93</v>
       </c>
       <c r="P117" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -27233,7 +27239,7 @@
         <v>132</v>
       </c>
       <c r="P127" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q127">
         <v>3.6</v>
@@ -27851,7 +27857,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28057,7 +28063,7 @@
         <v>134</v>
       </c>
       <c r="P131" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q131">
         <v>3.2</v>
@@ -28263,7 +28269,7 @@
         <v>184</v>
       </c>
       <c r="P132" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28675,7 +28681,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -28881,7 +28887,7 @@
         <v>187</v>
       </c>
       <c r="P135" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -28959,7 +28965,7 @@
         <v>0.83</v>
       </c>
       <c r="AP135">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ135">
         <v>0.5600000000000001</v>
@@ -29499,7 +29505,7 @@
         <v>190</v>
       </c>
       <c r="P138" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -30198,7 +30204,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ141">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR141">
         <v>1.44</v>
@@ -30323,7 +30329,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -30941,7 +30947,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q145">
         <v>2.63</v>
@@ -31353,7 +31359,7 @@
         <v>95</v>
       </c>
       <c r="P147" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31765,7 +31771,7 @@
         <v>176</v>
       </c>
       <c r="P149" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q149">
         <v>2.88</v>
@@ -32177,7 +32183,7 @@
         <v>201</v>
       </c>
       <c r="P151" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32383,7 +32389,7 @@
         <v>202</v>
       </c>
       <c r="P152" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q152">
         <v>2.2</v>
@@ -32795,7 +32801,7 @@
         <v>203</v>
       </c>
       <c r="P154" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q154">
         <v>3.4</v>
@@ -33001,7 +33007,7 @@
         <v>204</v>
       </c>
       <c r="P155" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q155">
         <v>2.6</v>
@@ -33207,7 +33213,7 @@
         <v>122</v>
       </c>
       <c r="P156" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33413,7 +33419,7 @@
         <v>205</v>
       </c>
       <c r="P157" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -33697,7 +33703,7 @@
         <v>1.17</v>
       </c>
       <c r="AP158">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ158">
         <v>0.88</v>
@@ -33825,7 +33831,7 @@
         <v>95</v>
       </c>
       <c r="P159" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34112,7 +34118,7 @@
         <v>2</v>
       </c>
       <c r="AQ160">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR160">
         <v>1.46</v>
@@ -34237,7 +34243,7 @@
         <v>207</v>
       </c>
       <c r="P161" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q161">
         <v>2.25</v>
@@ -34649,7 +34655,7 @@
         <v>208</v>
       </c>
       <c r="P163" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q163">
         <v>1.95</v>
@@ -36503,7 +36509,7 @@
         <v>95</v>
       </c>
       <c r="P172" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q172">
         <v>3.2</v>
@@ -37121,7 +37127,7 @@
         <v>215</v>
       </c>
       <c r="P175" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q175">
         <v>3.1</v>
@@ -37327,7 +37333,7 @@
         <v>216</v>
       </c>
       <c r="P176" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q176">
         <v>5</v>
@@ -37441,10 +37447,10 @@
         <v>4</v>
       </c>
       <c r="BB176">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC176">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD176">
         <v>2.97</v>
@@ -37739,7 +37745,7 @@
         <v>190</v>
       </c>
       <c r="P178" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q178">
         <v>3.5</v>
@@ -37896,6 +37902,212 @@
       </c>
       <c r="BP178">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:68">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>7373364</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45498.83333333334</v>
+      </c>
+      <c r="F179">
+        <v>19</v>
+      </c>
+      <c r="G179" t="s">
+        <v>75</v>
+      </c>
+      <c r="H179" t="s">
+        <v>81</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179">
+        <v>1</v>
+      </c>
+      <c r="K179">
+        <v>2</v>
+      </c>
+      <c r="L179">
+        <v>2</v>
+      </c>
+      <c r="M179">
+        <v>2</v>
+      </c>
+      <c r="N179">
+        <v>4</v>
+      </c>
+      <c r="O179" t="s">
+        <v>218</v>
+      </c>
+      <c r="P179" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q179">
+        <v>2.88</v>
+      </c>
+      <c r="R179">
+        <v>1.95</v>
+      </c>
+      <c r="S179">
+        <v>4.5</v>
+      </c>
+      <c r="T179">
+        <v>1.48</v>
+      </c>
+      <c r="U179">
+        <v>2.5</v>
+      </c>
+      <c r="V179">
+        <v>3.15</v>
+      </c>
+      <c r="W179">
+        <v>1.32</v>
+      </c>
+      <c r="X179">
+        <v>7.5</v>
+      </c>
+      <c r="Y179">
+        <v>1.06</v>
+      </c>
+      <c r="Z179">
+        <v>2.1</v>
+      </c>
+      <c r="AA179">
+        <v>3.2</v>
+      </c>
+      <c r="AB179">
+        <v>3.75</v>
+      </c>
+      <c r="AC179">
+        <v>1.08</v>
+      </c>
+      <c r="AD179">
+        <v>9.1</v>
+      </c>
+      <c r="AE179">
+        <v>1.41</v>
+      </c>
+      <c r="AF179">
+        <v>2.96</v>
+      </c>
+      <c r="AG179">
+        <v>2.5</v>
+      </c>
+      <c r="AH179">
+        <v>1.5</v>
+      </c>
+      <c r="AI179">
+        <v>2.1</v>
+      </c>
+      <c r="AJ179">
+        <v>1.67</v>
+      </c>
+      <c r="AK179">
+        <v>1.25</v>
+      </c>
+      <c r="AL179">
+        <v>1.25</v>
+      </c>
+      <c r="AM179">
+        <v>1.8</v>
+      </c>
+      <c r="AN179">
+        <v>1.63</v>
+      </c>
+      <c r="AO179">
+        <v>0.14</v>
+      </c>
+      <c r="AP179">
+        <v>1.56</v>
+      </c>
+      <c r="AQ179">
+        <v>0.25</v>
+      </c>
+      <c r="AR179">
+        <v>1.71</v>
+      </c>
+      <c r="AS179">
+        <v>1.21</v>
+      </c>
+      <c r="AT179">
+        <v>2.92</v>
+      </c>
+      <c r="AU179">
+        <v>8</v>
+      </c>
+      <c r="AV179">
+        <v>8</v>
+      </c>
+      <c r="AW179">
+        <v>5</v>
+      </c>
+      <c r="AX179">
+        <v>7</v>
+      </c>
+      <c r="AY179">
+        <v>13</v>
+      </c>
+      <c r="AZ179">
+        <v>15</v>
+      </c>
+      <c r="BA179">
+        <v>4</v>
+      </c>
+      <c r="BB179">
+        <v>5</v>
+      </c>
+      <c r="BC179">
+        <v>9</v>
+      </c>
+      <c r="BD179">
+        <v>1.64</v>
+      </c>
+      <c r="BE179">
+        <v>9.9</v>
+      </c>
+      <c r="BF179">
+        <v>2.78</v>
+      </c>
+      <c r="BG179">
+        <v>1.14</v>
+      </c>
+      <c r="BH179">
+        <v>4.65</v>
+      </c>
+      <c r="BI179">
+        <v>1.29</v>
+      </c>
+      <c r="BJ179">
+        <v>3.14</v>
+      </c>
+      <c r="BK179">
+        <v>1.83</v>
+      </c>
+      <c r="BL179">
+        <v>2.32</v>
+      </c>
+      <c r="BM179">
+        <v>1.95</v>
+      </c>
+      <c r="BN179">
+        <v>1.85</v>
+      </c>
+      <c r="BO179">
+        <v>2.44</v>
+      </c>
+      <c r="BP179">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="289">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -673,6 +673,12 @@
     <t>['25', '87']</t>
   </si>
   <si>
+    <t>['13']</t>
+  </si>
+  <si>
+    <t>['4']</t>
+  </si>
+  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -695,9 +701,6 @@
   </si>
   <si>
     <t>['20']</t>
-  </si>
-  <si>
-    <t>['4']</t>
   </si>
   <si>
     <t>['89']</t>
@@ -869,6 +872,15 @@
   </si>
   <si>
     <t>['2', '76']</t>
+  </si>
+  <si>
+    <t>['57', '83']</t>
+  </si>
+  <si>
+    <t>['52', '83']</t>
+  </si>
+  <si>
+    <t>['13', '37', '77']</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP179"/>
+  <dimension ref="A1:BP184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1489,7 +1501,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1695,7 +1707,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1901,7 +1913,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -2107,7 +2119,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -2313,7 +2325,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2931,7 +2943,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3137,7 +3149,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3343,7 +3355,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3549,7 +3561,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3627,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ12">
         <v>0.44</v>
@@ -4167,7 +4179,7 @@
         <v>102</v>
       </c>
       <c r="P15" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q15">
         <v>2.75</v>
@@ -4245,10 +4257,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ15">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4451,10 +4463,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4657,7 +4669,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ17">
         <v>0.5</v>
@@ -4866,7 +4878,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ18">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5072,7 +5084,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ19">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5275,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ20">
         <v>0.9</v>
@@ -6102,7 +6114,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ24">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR24">
         <v>1.95</v>
@@ -6305,7 +6317,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
         <v>2</v>
@@ -6514,7 +6526,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ26">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR26">
         <v>2.21</v>
@@ -6639,7 +6651,7 @@
         <v>112</v>
       </c>
       <c r="P27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -6845,7 +6857,7 @@
         <v>95</v>
       </c>
       <c r="P28" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -6926,7 +6938,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ28">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR28">
         <v>1.21</v>
@@ -7051,7 +7063,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q29">
         <v>2.38</v>
@@ -7129,7 +7141,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ29">
         <v>0.25</v>
@@ -7257,7 +7269,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7338,7 +7350,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ30">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR30">
         <v>1.35</v>
@@ -7463,7 +7475,7 @@
         <v>95</v>
       </c>
       <c r="P31" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7747,7 +7759,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ32">
         <v>0.25</v>
@@ -7875,7 +7887,7 @@
         <v>95</v>
       </c>
       <c r="P33" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -8081,7 +8093,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q34">
         <v>2.25</v>
@@ -8162,7 +8174,7 @@
         <v>3</v>
       </c>
       <c r="AQ34">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR34">
         <v>1.46</v>
@@ -8571,7 +8583,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ36">
         <v>0.67</v>
@@ -8699,7 +8711,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8777,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ37">
         <v>1.22</v>
@@ -8905,7 +8917,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -9317,7 +9329,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9935,7 +9947,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -10016,7 +10028,7 @@
         <v>1</v>
       </c>
       <c r="AQ43">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR43">
         <v>1.47</v>
@@ -10347,7 +10359,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10425,7 +10437,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ45">
         <v>1</v>
@@ -10553,7 +10565,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10965,7 +10977,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q48">
         <v>3.6</v>
@@ -11046,7 +11058,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ48">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR48">
         <v>0.99</v>
@@ -11249,7 +11261,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ49">
         <v>1.8</v>
@@ -11377,7 +11389,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q50">
         <v>2.38</v>
@@ -11455,7 +11467,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ50">
         <v>1.22</v>
@@ -11583,7 +11595,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q51">
         <v>2.38</v>
@@ -11664,7 +11676,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ51">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR51">
         <v>1.51</v>
@@ -11867,7 +11879,7 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ52">
         <v>0.67</v>
@@ -11995,7 +12007,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q53">
         <v>2.38</v>
@@ -12201,7 +12213,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -12407,7 +12419,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -12694,7 +12706,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ56">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR56">
         <v>0.68</v>
@@ -13231,7 +13243,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q59">
         <v>4.75</v>
@@ -13437,7 +13449,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13643,7 +13655,7 @@
         <v>117</v>
       </c>
       <c r="P61" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q61">
         <v>5.5</v>
@@ -13927,7 +13939,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ62">
         <v>1.22</v>
@@ -14136,7 +14148,7 @@
         <v>2</v>
       </c>
       <c r="AQ63">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR63">
         <v>1.52</v>
@@ -14339,7 +14351,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ64">
         <v>0.9</v>
@@ -14548,7 +14560,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ65">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR65">
         <v>0.78</v>
@@ -14673,7 +14685,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14957,10 +14969,10 @@
         <v>0.33</v>
       </c>
       <c r="AP67">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ67">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR67">
         <v>1.39</v>
@@ -15085,7 +15097,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15369,7 +15381,7 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ69">
         <v>0.44</v>
@@ -15497,7 +15509,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15703,7 +15715,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15990,7 +16002,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ72">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR72">
         <v>1.66</v>
@@ -16196,7 +16208,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ73">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR73">
         <v>2.08</v>
@@ -16321,7 +16333,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16605,7 +16617,7 @@
         <v>0</v>
       </c>
       <c r="AP75">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ75">
         <v>0.67</v>
@@ -16811,7 +16823,7 @@
         <v>2</v>
       </c>
       <c r="AP76">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ76">
         <v>1.13</v>
@@ -17145,7 +17157,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q78">
         <v>2.63</v>
@@ -17351,7 +17363,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -17432,7 +17444,7 @@
         <v>1</v>
       </c>
       <c r="AQ79">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR79">
         <v>1.16</v>
@@ -17557,7 +17569,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17638,7 +17650,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ80">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR80">
         <v>1.69</v>
@@ -17763,7 +17775,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -18175,7 +18187,7 @@
         <v>151</v>
       </c>
       <c r="P83" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -18462,7 +18474,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ84">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR84">
         <v>1.32</v>
@@ -18587,7 +18599,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -18793,7 +18805,7 @@
         <v>95</v>
       </c>
       <c r="P86" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -18999,7 +19011,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q87">
         <v>2.38</v>
@@ -19080,7 +19092,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ87">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR87">
         <v>1.45</v>
@@ -19283,7 +19295,7 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ88">
         <v>1.22</v>
@@ -19489,7 +19501,7 @@
         <v>0</v>
       </c>
       <c r="AP89">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ89">
         <v>0.25</v>
@@ -19617,7 +19629,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -19901,7 +19913,7 @@
         <v>0</v>
       </c>
       <c r="AP91">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ91">
         <v>0.67</v>
@@ -20441,7 +20453,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20647,7 +20659,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -20931,7 +20943,7 @@
         <v>1.25</v>
       </c>
       <c r="AP96">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ96">
         <v>0.67</v>
@@ -21265,7 +21277,7 @@
         <v>95</v>
       </c>
       <c r="P98" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q98">
         <v>3.5</v>
@@ -21346,7 +21358,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ98">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR98">
         <v>1.35</v>
@@ -21758,7 +21770,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ100">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR100">
         <v>1.35</v>
@@ -21883,7 +21895,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q101">
         <v>2.63</v>
@@ -21961,10 +21973,10 @@
         <v>1</v>
       </c>
       <c r="AP101">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ101">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR101">
         <v>1.35</v>
@@ -22089,7 +22101,7 @@
         <v>95</v>
       </c>
       <c r="P102" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22501,7 +22513,7 @@
         <v>163</v>
       </c>
       <c r="P104" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q104">
         <v>1.83</v>
@@ -22579,7 +22591,7 @@
         <v>0.5</v>
       </c>
       <c r="AP104">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ104">
         <v>0.25</v>
@@ -22994,7 +23006,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ106">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR106">
         <v>1.31</v>
@@ -23325,7 +23337,7 @@
         <v>167</v>
       </c>
       <c r="P108" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23403,7 +23415,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ108">
         <v>0.67</v>
@@ -23815,7 +23827,7 @@
         <v>2</v>
       </c>
       <c r="AP110">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ110">
         <v>2</v>
@@ -23943,7 +23955,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -24149,7 +24161,7 @@
         <v>138</v>
       </c>
       <c r="P112" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24355,7 +24367,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -24433,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="AP113">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ113">
         <v>0.67</v>
@@ -24639,7 +24651,7 @@
         <v>2.6</v>
       </c>
       <c r="AP114">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ114">
         <v>1.56</v>
@@ -24767,7 +24779,7 @@
         <v>95</v>
       </c>
       <c r="P115" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -24848,7 +24860,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ115">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR115">
         <v>1.49</v>
@@ -25054,7 +25066,7 @@
         <v>2</v>
       </c>
       <c r="AQ116">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR116">
         <v>1.55</v>
@@ -25179,7 +25191,7 @@
         <v>93</v>
       </c>
       <c r="P117" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -26287,7 +26299,7 @@
         <v>0.4</v>
       </c>
       <c r="AP122">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ122">
         <v>0.25</v>
@@ -26702,7 +26714,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ124">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR124">
         <v>1.59</v>
@@ -26908,7 +26920,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ125">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR125">
         <v>1.49</v>
@@ -27111,7 +27123,7 @@
         <v>0.33</v>
       </c>
       <c r="AP126">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ126">
         <v>0.5</v>
@@ -27239,7 +27251,7 @@
         <v>132</v>
       </c>
       <c r="P127" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q127">
         <v>3.6</v>
@@ -27526,7 +27538,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ128">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR128">
         <v>1.53</v>
@@ -27857,7 +27869,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28063,7 +28075,7 @@
         <v>134</v>
       </c>
       <c r="P131" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q131">
         <v>3.2</v>
@@ -28144,7 +28156,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ131">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR131">
         <v>1.7</v>
@@ -28269,7 +28281,7 @@
         <v>184</v>
       </c>
       <c r="P132" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28553,7 +28565,7 @@
         <v>0.33</v>
       </c>
       <c r="AP133">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ133">
         <v>0.25</v>
@@ -28681,7 +28693,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -28887,7 +28899,7 @@
         <v>187</v>
       </c>
       <c r="P135" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -28968,7 +28980,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ135">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR135">
         <v>1.8</v>
@@ -29174,7 +29186,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ136">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR136">
         <v>1.48</v>
@@ -29505,7 +29517,7 @@
         <v>190</v>
       </c>
       <c r="P138" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -29995,7 +30007,7 @@
         <v>0</v>
       </c>
       <c r="AP140">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ140">
         <v>0.44</v>
@@ -30201,7 +30213,7 @@
         <v>0.2</v>
       </c>
       <c r="AP141">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ141">
         <v>0.25</v>
@@ -30329,7 +30341,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -30616,7 +30628,7 @@
         <v>1</v>
       </c>
       <c r="AQ143">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR143">
         <v>1.23</v>
@@ -30819,7 +30831,7 @@
         <v>0.86</v>
       </c>
       <c r="AP144">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ144">
         <v>1</v>
@@ -30947,7 +30959,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q145">
         <v>2.63</v>
@@ -31231,7 +31243,7 @@
         <v>1.83</v>
       </c>
       <c r="AP146">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ146">
         <v>1.5</v>
@@ -31359,7 +31371,7 @@
         <v>95</v>
       </c>
       <c r="P147" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31440,7 +31452,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ147">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR147">
         <v>1.45</v>
@@ -31771,7 +31783,7 @@
         <v>176</v>
       </c>
       <c r="P149" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q149">
         <v>2.88</v>
@@ -32055,7 +32067,7 @@
         <v>1.13</v>
       </c>
       <c r="AP150">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ150">
         <v>0.9</v>
@@ -32183,7 +32195,7 @@
         <v>201</v>
       </c>
       <c r="P151" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32389,7 +32401,7 @@
         <v>202</v>
       </c>
       <c r="P152" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q152">
         <v>2.2</v>
@@ -32801,7 +32813,7 @@
         <v>203</v>
       </c>
       <c r="P154" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q154">
         <v>3.4</v>
@@ -32882,7 +32894,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ154">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR154">
         <v>1.48</v>
@@ -33007,7 +33019,7 @@
         <v>204</v>
       </c>
       <c r="P155" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q155">
         <v>2.6</v>
@@ -33213,7 +33225,7 @@
         <v>122</v>
       </c>
       <c r="P156" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33291,7 +33303,7 @@
         <v>1.14</v>
       </c>
       <c r="AP156">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ156">
         <v>1.38</v>
@@ -33419,7 +33431,7 @@
         <v>205</v>
       </c>
       <c r="P157" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -33497,7 +33509,7 @@
         <v>1.57</v>
       </c>
       <c r="AP157">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ157">
         <v>1.5</v>
@@ -33706,7 +33718,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ158">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR158">
         <v>1.73</v>
@@ -33831,7 +33843,7 @@
         <v>95</v>
       </c>
       <c r="P159" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34243,7 +34255,7 @@
         <v>207</v>
       </c>
       <c r="P161" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q161">
         <v>2.25</v>
@@ -34321,10 +34333,10 @@
         <v>0.71</v>
       </c>
       <c r="AP161">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ161">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR161">
         <v>1.45</v>
@@ -34527,7 +34539,7 @@
         <v>2</v>
       </c>
       <c r="AP162">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ162">
         <v>1.56</v>
@@ -34655,7 +34667,7 @@
         <v>208</v>
       </c>
       <c r="P163" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q163">
         <v>1.95</v>
@@ -34736,7 +34748,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ163">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR163">
         <v>1.66</v>
@@ -34939,10 +34951,10 @@
         <v>1.57</v>
       </c>
       <c r="AP164">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ164">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR164">
         <v>1.59</v>
@@ -35145,10 +35157,10 @@
         <v>0.89</v>
       </c>
       <c r="AP165">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ165">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR165">
         <v>1.87</v>
@@ -35354,7 +35366,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ166">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR166">
         <v>1.41</v>
@@ -35763,7 +35775,7 @@
         <v>0.22</v>
       </c>
       <c r="AP168">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ168">
         <v>0.5</v>
@@ -35969,10 +35981,10 @@
         <v>1.38</v>
       </c>
       <c r="AP169">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ169">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR169">
         <v>1.36</v>
@@ -36381,7 +36393,7 @@
         <v>1</v>
       </c>
       <c r="AP171">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ171">
         <v>0.9</v>
@@ -36509,7 +36521,7 @@
         <v>95</v>
       </c>
       <c r="P172" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q172">
         <v>3.2</v>
@@ -37127,7 +37139,7 @@
         <v>215</v>
       </c>
       <c r="P175" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q175">
         <v>3.1</v>
@@ -37333,7 +37345,7 @@
         <v>216</v>
       </c>
       <c r="P176" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q176">
         <v>5</v>
@@ -37745,7 +37757,7 @@
         <v>190</v>
       </c>
       <c r="P178" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q178">
         <v>3.5</v>
@@ -37951,7 +37963,7 @@
         <v>218</v>
       </c>
       <c r="P179" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q179">
         <v>2.88</v>
@@ -38108,6 +38120,1036 @@
       </c>
       <c r="BP179">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="180" spans="1:68">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>7373392</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45500.79166666666</v>
+      </c>
+      <c r="F180">
+        <v>20</v>
+      </c>
+      <c r="G180" t="s">
+        <v>85</v>
+      </c>
+      <c r="H180" t="s">
+        <v>71</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>1</v>
+      </c>
+      <c r="M180">
+        <v>2</v>
+      </c>
+      <c r="N180">
+        <v>3</v>
+      </c>
+      <c r="O180" t="s">
+        <v>190</v>
+      </c>
+      <c r="P180" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q180">
+        <v>3</v>
+      </c>
+      <c r="R180">
+        <v>2</v>
+      </c>
+      <c r="S180">
+        <v>4</v>
+      </c>
+      <c r="T180">
+        <v>1.45</v>
+      </c>
+      <c r="U180">
+        <v>2.55</v>
+      </c>
+      <c r="V180">
+        <v>3</v>
+      </c>
+      <c r="W180">
+        <v>1.33</v>
+      </c>
+      <c r="X180">
+        <v>7.5</v>
+      </c>
+      <c r="Y180">
+        <v>1.06</v>
+      </c>
+      <c r="Z180">
+        <v>2.2</v>
+      </c>
+      <c r="AA180">
+        <v>3.2</v>
+      </c>
+      <c r="AB180">
+        <v>3.5</v>
+      </c>
+      <c r="AC180">
+        <v>1.07</v>
+      </c>
+      <c r="AD180">
+        <v>8</v>
+      </c>
+      <c r="AE180">
+        <v>1.38</v>
+      </c>
+      <c r="AF180">
+        <v>3</v>
+      </c>
+      <c r="AG180">
+        <v>2.25</v>
+      </c>
+      <c r="AH180">
+        <v>1.62</v>
+      </c>
+      <c r="AI180">
+        <v>1.95</v>
+      </c>
+      <c r="AJ180">
+        <v>1.8</v>
+      </c>
+      <c r="AK180">
+        <v>1.3</v>
+      </c>
+      <c r="AL180">
+        <v>1.28</v>
+      </c>
+      <c r="AM180">
+        <v>1.65</v>
+      </c>
+      <c r="AN180">
+        <v>2.11</v>
+      </c>
+      <c r="AO180">
+        <v>0.88</v>
+      </c>
+      <c r="AP180">
+        <v>1.9</v>
+      </c>
+      <c r="AQ180">
+        <v>1.11</v>
+      </c>
+      <c r="AR180">
+        <v>1.33</v>
+      </c>
+      <c r="AS180">
+        <v>1.3</v>
+      </c>
+      <c r="AT180">
+        <v>2.63</v>
+      </c>
+      <c r="AU180">
+        <v>6</v>
+      </c>
+      <c r="AV180">
+        <v>8</v>
+      </c>
+      <c r="AW180">
+        <v>4</v>
+      </c>
+      <c r="AX180">
+        <v>4</v>
+      </c>
+      <c r="AY180">
+        <v>10</v>
+      </c>
+      <c r="AZ180">
+        <v>12</v>
+      </c>
+      <c r="BA180">
+        <v>5</v>
+      </c>
+      <c r="BB180">
+        <v>7</v>
+      </c>
+      <c r="BC180">
+        <v>12</v>
+      </c>
+      <c r="BD180">
+        <v>1.62</v>
+      </c>
+      <c r="BE180">
+        <v>9.5</v>
+      </c>
+      <c r="BF180">
+        <v>2.88</v>
+      </c>
+      <c r="BG180">
+        <v>1.18</v>
+      </c>
+      <c r="BH180">
+        <v>4.05</v>
+      </c>
+      <c r="BI180">
+        <v>1.36</v>
+      </c>
+      <c r="BJ180">
+        <v>2.79</v>
+      </c>
+      <c r="BK180">
+        <v>2.2</v>
+      </c>
+      <c r="BL180">
+        <v>1.95</v>
+      </c>
+      <c r="BM180">
+        <v>2.11</v>
+      </c>
+      <c r="BN180">
+        <v>1.68</v>
+      </c>
+      <c r="BO180">
+        <v>2.76</v>
+      </c>
+      <c r="BP180">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="181" spans="1:68">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>7373384</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45500.79166666666</v>
+      </c>
+      <c r="F181">
+        <v>20</v>
+      </c>
+      <c r="G181" t="s">
+        <v>84</v>
+      </c>
+      <c r="H181" t="s">
+        <v>79</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+      <c r="M181">
+        <v>2</v>
+      </c>
+      <c r="N181">
+        <v>2</v>
+      </c>
+      <c r="O181" t="s">
+        <v>95</v>
+      </c>
+      <c r="P181" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q181">
+        <v>1.91</v>
+      </c>
+      <c r="R181">
+        <v>2.3</v>
+      </c>
+      <c r="S181">
+        <v>8</v>
+      </c>
+      <c r="T181">
+        <v>1.33</v>
+      </c>
+      <c r="U181">
+        <v>3.1</v>
+      </c>
+      <c r="V181">
+        <v>2.55</v>
+      </c>
+      <c r="W181">
+        <v>1.45</v>
+      </c>
+      <c r="X181">
+        <v>5.75</v>
+      </c>
+      <c r="Y181">
+        <v>1.1</v>
+      </c>
+      <c r="Z181">
+        <v>1.36</v>
+      </c>
+      <c r="AA181">
+        <v>4.75</v>
+      </c>
+      <c r="AB181">
+        <v>9</v>
+      </c>
+      <c r="AC181">
+        <v>1.04</v>
+      </c>
+      <c r="AD181">
+        <v>10</v>
+      </c>
+      <c r="AE181">
+        <v>1.22</v>
+      </c>
+      <c r="AF181">
+        <v>4.2</v>
+      </c>
+      <c r="AG181">
+        <v>2</v>
+      </c>
+      <c r="AH181">
+        <v>1.8</v>
+      </c>
+      <c r="AI181">
+        <v>2.25</v>
+      </c>
+      <c r="AJ181">
+        <v>1.57</v>
+      </c>
+      <c r="AK181">
+        <v>1.06</v>
+      </c>
+      <c r="AL181">
+        <v>1.12</v>
+      </c>
+      <c r="AM181">
+        <v>3.1</v>
+      </c>
+      <c r="AN181">
+        <v>2.2</v>
+      </c>
+      <c r="AO181">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP181">
+        <v>2</v>
+      </c>
+      <c r="AQ181">
+        <v>0.8</v>
+      </c>
+      <c r="AR181">
+        <v>1.83</v>
+      </c>
+      <c r="AS181">
+        <v>1.25</v>
+      </c>
+      <c r="AT181">
+        <v>3.08</v>
+      </c>
+      <c r="AU181">
+        <v>4</v>
+      </c>
+      <c r="AV181">
+        <v>4</v>
+      </c>
+      <c r="AW181">
+        <v>13</v>
+      </c>
+      <c r="AX181">
+        <v>4</v>
+      </c>
+      <c r="AY181">
+        <v>17</v>
+      </c>
+      <c r="AZ181">
+        <v>8</v>
+      </c>
+      <c r="BA181">
+        <v>13</v>
+      </c>
+      <c r="BB181">
+        <v>2</v>
+      </c>
+      <c r="BC181">
+        <v>15</v>
+      </c>
+      <c r="BD181">
+        <v>1.26</v>
+      </c>
+      <c r="BE181">
+        <v>15</v>
+      </c>
+      <c r="BF181">
+        <v>4.77</v>
+      </c>
+      <c r="BG181">
+        <v>1.12</v>
+      </c>
+      <c r="BH181">
+        <v>5.1</v>
+      </c>
+      <c r="BI181">
+        <v>1.25</v>
+      </c>
+      <c r="BJ181">
+        <v>3.42</v>
+      </c>
+      <c r="BK181">
+        <v>2.2</v>
+      </c>
+      <c r="BL181">
+        <v>1.95</v>
+      </c>
+      <c r="BM181">
+        <v>1.82</v>
+      </c>
+      <c r="BN181">
+        <v>1.92</v>
+      </c>
+      <c r="BO181">
+        <v>2.29</v>
+      </c>
+      <c r="BP181">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="182" spans="1:68">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>7373379</v>
+      </c>
+      <c r="C182" t="s">
+        <v>68</v>
+      </c>
+      <c r="D182" t="s">
+        <v>69</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45500.83333333334</v>
+      </c>
+      <c r="F182">
+        <v>20</v>
+      </c>
+      <c r="G182" t="s">
+        <v>80</v>
+      </c>
+      <c r="H182" t="s">
+        <v>70</v>
+      </c>
+      <c r="I182">
+        <v>1</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>1</v>
+      </c>
+      <c r="L182">
+        <v>1</v>
+      </c>
+      <c r="M182">
+        <v>1</v>
+      </c>
+      <c r="N182">
+        <v>2</v>
+      </c>
+      <c r="O182" t="s">
+        <v>219</v>
+      </c>
+      <c r="P182" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q182">
+        <v>2.75</v>
+      </c>
+      <c r="R182">
+        <v>2.05</v>
+      </c>
+      <c r="S182">
+        <v>4.33</v>
+      </c>
+      <c r="T182">
+        <v>1.45</v>
+      </c>
+      <c r="U182">
+        <v>2.8</v>
+      </c>
+      <c r="V182">
+        <v>3</v>
+      </c>
+      <c r="W182">
+        <v>1.36</v>
+      </c>
+      <c r="X182">
+        <v>8</v>
+      </c>
+      <c r="Y182">
+        <v>1.07</v>
+      </c>
+      <c r="Z182">
+        <v>2.1</v>
+      </c>
+      <c r="AA182">
+        <v>3.2</v>
+      </c>
+      <c r="AB182">
+        <v>3.8</v>
+      </c>
+      <c r="AC182">
+        <v>1.04</v>
+      </c>
+      <c r="AD182">
+        <v>3.15</v>
+      </c>
+      <c r="AE182">
+        <v>1.32</v>
+      </c>
+      <c r="AF182">
+        <v>2.98</v>
+      </c>
+      <c r="AG182">
+        <v>2.2</v>
+      </c>
+      <c r="AH182">
+        <v>1.65</v>
+      </c>
+      <c r="AI182">
+        <v>1.95</v>
+      </c>
+      <c r="AJ182">
+        <v>1.8</v>
+      </c>
+      <c r="AK182">
+        <v>1.25</v>
+      </c>
+      <c r="AL182">
+        <v>1.25</v>
+      </c>
+      <c r="AM182">
+        <v>1.83</v>
+      </c>
+      <c r="AN182">
+        <v>2.33</v>
+      </c>
+      <c r="AO182">
+        <v>1.38</v>
+      </c>
+      <c r="AP182">
+        <v>2.2</v>
+      </c>
+      <c r="AQ182">
+        <v>1.33</v>
+      </c>
+      <c r="AR182">
+        <v>1.62</v>
+      </c>
+      <c r="AS182">
+        <v>1.12</v>
+      </c>
+      <c r="AT182">
+        <v>2.74</v>
+      </c>
+      <c r="AU182">
+        <v>4</v>
+      </c>
+      <c r="AV182">
+        <v>3</v>
+      </c>
+      <c r="AW182">
+        <v>3</v>
+      </c>
+      <c r="AX182">
+        <v>6</v>
+      </c>
+      <c r="AY182">
+        <v>7</v>
+      </c>
+      <c r="AZ182">
+        <v>9</v>
+      </c>
+      <c r="BA182">
+        <v>4</v>
+      </c>
+      <c r="BB182">
+        <v>2</v>
+      </c>
+      <c r="BC182">
+        <v>6</v>
+      </c>
+      <c r="BD182">
+        <v>1.62</v>
+      </c>
+      <c r="BE182">
+        <v>9.5</v>
+      </c>
+      <c r="BF182">
+        <v>2.88</v>
+      </c>
+      <c r="BG182">
+        <v>1.24</v>
+      </c>
+      <c r="BH182">
+        <v>3.48</v>
+      </c>
+      <c r="BI182">
+        <v>1.47</v>
+      </c>
+      <c r="BJ182">
+        <v>2.49</v>
+      </c>
+      <c r="BK182">
+        <v>2.25</v>
+      </c>
+      <c r="BL182">
+        <v>1.98</v>
+      </c>
+      <c r="BM182">
+        <v>2.34</v>
+      </c>
+      <c r="BN182">
+        <v>1.53</v>
+      </c>
+      <c r="BO182">
+        <v>3.08</v>
+      </c>
+      <c r="BP182">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:68">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>7373382</v>
+      </c>
+      <c r="C183" t="s">
+        <v>68</v>
+      </c>
+      <c r="D183" t="s">
+        <v>69</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45500.89583333334</v>
+      </c>
+      <c r="F183">
+        <v>20</v>
+      </c>
+      <c r="G183" t="s">
+        <v>88</v>
+      </c>
+      <c r="H183" t="s">
+        <v>78</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>2</v>
+      </c>
+      <c r="K183">
+        <v>2</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+      <c r="M183">
+        <v>3</v>
+      </c>
+      <c r="N183">
+        <v>3</v>
+      </c>
+      <c r="O183" t="s">
+        <v>95</v>
+      </c>
+      <c r="P183" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q183">
+        <v>2.63</v>
+      </c>
+      <c r="R183">
+        <v>1.95</v>
+      </c>
+      <c r="S183">
+        <v>5</v>
+      </c>
+      <c r="T183">
+        <v>1.44</v>
+      </c>
+      <c r="U183">
+        <v>2.63</v>
+      </c>
+      <c r="V183">
+        <v>3.25</v>
+      </c>
+      <c r="W183">
+        <v>1.33</v>
+      </c>
+      <c r="X183">
+        <v>10</v>
+      </c>
+      <c r="Y183">
+        <v>1.06</v>
+      </c>
+      <c r="Z183">
+        <v>1.9</v>
+      </c>
+      <c r="AA183">
+        <v>3.3</v>
+      </c>
+      <c r="AB183">
+        <v>4.33</v>
+      </c>
+      <c r="AC183">
+        <v>1.07</v>
+      </c>
+      <c r="AD183">
+        <v>8</v>
+      </c>
+      <c r="AE183">
+        <v>1.38</v>
+      </c>
+      <c r="AF183">
+        <v>3</v>
+      </c>
+      <c r="AG183">
+        <v>2.4</v>
+      </c>
+      <c r="AH183">
+        <v>1.53</v>
+      </c>
+      <c r="AI183">
+        <v>2.2</v>
+      </c>
+      <c r="AJ183">
+        <v>1.62</v>
+      </c>
+      <c r="AK183">
+        <v>1.22</v>
+      </c>
+      <c r="AL183">
+        <v>1.25</v>
+      </c>
+      <c r="AM183">
+        <v>1.85</v>
+      </c>
+      <c r="AN183">
+        <v>2.44</v>
+      </c>
+      <c r="AO183">
+        <v>0.8</v>
+      </c>
+      <c r="AP183">
+        <v>2.2</v>
+      </c>
+      <c r="AQ183">
+        <v>1</v>
+      </c>
+      <c r="AR183">
+        <v>1.56</v>
+      </c>
+      <c r="AS183">
+        <v>1.23</v>
+      </c>
+      <c r="AT183">
+        <v>2.79</v>
+      </c>
+      <c r="AU183">
+        <v>11</v>
+      </c>
+      <c r="AV183">
+        <v>6</v>
+      </c>
+      <c r="AW183">
+        <v>5</v>
+      </c>
+      <c r="AX183">
+        <v>6</v>
+      </c>
+      <c r="AY183">
+        <v>16</v>
+      </c>
+      <c r="AZ183">
+        <v>12</v>
+      </c>
+      <c r="BA183">
+        <v>8</v>
+      </c>
+      <c r="BB183">
+        <v>1</v>
+      </c>
+      <c r="BC183">
+        <v>9</v>
+      </c>
+      <c r="BD183">
+        <v>1.62</v>
+      </c>
+      <c r="BE183">
+        <v>11</v>
+      </c>
+      <c r="BF183">
+        <v>2.78</v>
+      </c>
+      <c r="BG183">
+        <v>1.17</v>
+      </c>
+      <c r="BH183">
+        <v>4.2</v>
+      </c>
+      <c r="BI183">
+        <v>1.34</v>
+      </c>
+      <c r="BJ183">
+        <v>2.88</v>
+      </c>
+      <c r="BK183">
+        <v>2.1</v>
+      </c>
+      <c r="BL183">
+        <v>1.88</v>
+      </c>
+      <c r="BM183">
+        <v>2.06</v>
+      </c>
+      <c r="BN183">
+        <v>1.71</v>
+      </c>
+      <c r="BO183">
+        <v>2.69</v>
+      </c>
+      <c r="BP183">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="184" spans="1:68">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>7373388</v>
+      </c>
+      <c r="C184" t="s">
+        <v>68</v>
+      </c>
+      <c r="D184" t="s">
+        <v>69</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45500.89583333334</v>
+      </c>
+      <c r="F184">
+        <v>20</v>
+      </c>
+      <c r="G184" t="s">
+        <v>83</v>
+      </c>
+      <c r="H184" t="s">
+        <v>73</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
+      <c r="L184">
+        <v>1</v>
+      </c>
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184">
+        <v>1</v>
+      </c>
+      <c r="O184" t="s">
+        <v>220</v>
+      </c>
+      <c r="P184" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q184">
+        <v>3.1</v>
+      </c>
+      <c r="R184">
+        <v>1.95</v>
+      </c>
+      <c r="S184">
+        <v>4</v>
+      </c>
+      <c r="T184">
+        <v>1.5</v>
+      </c>
+      <c r="U184">
+        <v>2.5</v>
+      </c>
+      <c r="V184">
+        <v>3.5</v>
+      </c>
+      <c r="W184">
+        <v>1.29</v>
+      </c>
+      <c r="X184">
+        <v>11</v>
+      </c>
+      <c r="Y184">
+        <v>1.05</v>
+      </c>
+      <c r="Z184">
+        <v>2.35</v>
+      </c>
+      <c r="AA184">
+        <v>3</v>
+      </c>
+      <c r="AB184">
+        <v>3.5</v>
+      </c>
+      <c r="AC184">
+        <v>1.08</v>
+      </c>
+      <c r="AD184">
+        <v>7.5</v>
+      </c>
+      <c r="AE184">
+        <v>1.42</v>
+      </c>
+      <c r="AF184">
+        <v>2.8</v>
+      </c>
+      <c r="AG184">
+        <v>2.5</v>
+      </c>
+      <c r="AH184">
+        <v>1.5</v>
+      </c>
+      <c r="AI184">
+        <v>2.05</v>
+      </c>
+      <c r="AJ184">
+        <v>1.7</v>
+      </c>
+      <c r="AK184">
+        <v>1.35</v>
+      </c>
+      <c r="AL184">
+        <v>1.3</v>
+      </c>
+      <c r="AM184">
+        <v>1.57</v>
+      </c>
+      <c r="AN184">
+        <v>2.4</v>
+      </c>
+      <c r="AO184">
+        <v>1.33</v>
+      </c>
+      <c r="AP184">
+        <v>2.45</v>
+      </c>
+      <c r="AQ184">
+        <v>1.2</v>
+      </c>
+      <c r="AR184">
+        <v>1.39</v>
+      </c>
+      <c r="AS184">
+        <v>1.33</v>
+      </c>
+      <c r="AT184">
+        <v>2.72</v>
+      </c>
+      <c r="AU184">
+        <v>4</v>
+      </c>
+      <c r="AV184">
+        <v>2</v>
+      </c>
+      <c r="AW184">
+        <v>5</v>
+      </c>
+      <c r="AX184">
+        <v>4</v>
+      </c>
+      <c r="AY184">
+        <v>9</v>
+      </c>
+      <c r="AZ184">
+        <v>6</v>
+      </c>
+      <c r="BA184">
+        <v>3</v>
+      </c>
+      <c r="BB184">
+        <v>10</v>
+      </c>
+      <c r="BC184">
+        <v>13</v>
+      </c>
+      <c r="BD184">
+        <v>2.03</v>
+      </c>
+      <c r="BE184">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF184">
+        <v>2.14</v>
+      </c>
+      <c r="BG184">
+        <v>1.18</v>
+      </c>
+      <c r="BH184">
+        <v>4.15</v>
+      </c>
+      <c r="BI184">
+        <v>1.35</v>
+      </c>
+      <c r="BJ184">
+        <v>2.84</v>
+      </c>
+      <c r="BK184">
+        <v>2.25</v>
+      </c>
+      <c r="BL184">
+        <v>1.98</v>
+      </c>
+      <c r="BM184">
+        <v>2.09</v>
+      </c>
+      <c r="BN184">
+        <v>1.69</v>
+      </c>
+      <c r="BO184">
+        <v>2.72</v>
+      </c>
+      <c r="BP184">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="294">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -679,6 +679,18 @@
     <t>['4']</t>
   </si>
   <si>
+    <t>['19', '61']</t>
+  </si>
+  <si>
+    <t>['31', '84']</t>
+  </si>
+  <si>
+    <t>['90+7']</t>
+  </si>
+  <si>
+    <t>['57']</t>
+  </si>
+  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -881,6 +893,9 @@
   </si>
   <si>
     <t>['13', '37', '77']</t>
+  </si>
+  <si>
+    <t>['11', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -1242,7 +1257,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP184"/>
+  <dimension ref="A1:BP189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1501,7 +1516,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1707,7 +1722,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1913,7 +1928,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -2119,7 +2134,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -2325,7 +2340,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2943,7 +2958,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3149,7 +3164,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3355,7 +3370,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3642,7 +3657,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ12">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3845,10 +3860,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ13">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4051,10 +4066,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ14">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4179,7 +4194,7 @@
         <v>102</v>
       </c>
       <c r="P15" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q15">
         <v>2.75</v>
@@ -4672,7 +4687,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ17">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4875,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ18">
         <v>1.11</v>
@@ -5081,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ19">
         <v>1.2</v>
@@ -5290,7 +5305,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ20">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5496,7 +5511,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ21">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR21">
         <v>2.75</v>
@@ -5699,10 +5714,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ22">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR22">
         <v>1.76</v>
@@ -5905,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ23">
         <v>1.38</v>
@@ -6111,7 +6126,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -6651,7 +6666,7 @@
         <v>112</v>
       </c>
       <c r="P27" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -6857,7 +6872,7 @@
         <v>95</v>
       </c>
       <c r="P28" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -7063,7 +7078,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q29">
         <v>2.38</v>
@@ -7269,7 +7284,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7475,7 +7490,7 @@
         <v>95</v>
       </c>
       <c r="P31" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7553,7 +7568,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ31">
         <v>1.5</v>
@@ -7887,7 +7902,7 @@
         <v>95</v>
       </c>
       <c r="P33" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7965,7 +7980,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ33">
         <v>1.8</v>
@@ -8093,7 +8108,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q34">
         <v>2.25</v>
@@ -8380,7 +8395,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ35">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR35">
         <v>1.12</v>
@@ -8711,7 +8726,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8792,7 +8807,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ37">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR37">
         <v>1.65</v>
@@ -8917,7 +8932,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -8998,7 +9013,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ38">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR38">
         <v>2.13</v>
@@ -9329,7 +9344,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9613,7 +9628,7 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ41">
         <v>2</v>
@@ -9947,7 +9962,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q43">
         <v>4.33</v>
@@ -10234,7 +10249,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ44">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR44">
         <v>1.32</v>
@@ -10359,7 +10374,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10565,7 +10580,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10643,7 +10658,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ46">
         <v>1.56</v>
@@ -10849,10 +10864,10 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ47">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR47">
         <v>1.36</v>
@@ -10977,7 +10992,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q48">
         <v>3.6</v>
@@ -11389,7 +11404,7 @@
         <v>95</v>
       </c>
       <c r="P50" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q50">
         <v>2.38</v>
@@ -11470,7 +11485,7 @@
         <v>2</v>
       </c>
       <c r="AQ50">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR50">
         <v>1.23</v>
@@ -11595,7 +11610,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q51">
         <v>2.38</v>
@@ -12007,7 +12022,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q53">
         <v>2.38</v>
@@ -12088,7 +12103,7 @@
         <v>2</v>
       </c>
       <c r="AQ53">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR53">
         <v>1.37</v>
@@ -12213,7 +12228,7 @@
         <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -12291,7 +12306,7 @@
         <v>0.67</v>
       </c>
       <c r="AP54">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ54">
         <v>0.67</v>
@@ -12419,7 +12434,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -12500,7 +12515,7 @@
         <v>1</v>
       </c>
       <c r="AQ55">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR55">
         <v>1.23</v>
@@ -12703,7 +12718,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ56">
         <v>1.33</v>
@@ -13243,7 +13258,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q59">
         <v>4.75</v>
@@ -13449,7 +13464,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13527,7 +13542,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ60">
         <v>1</v>
@@ -13655,7 +13670,7 @@
         <v>117</v>
       </c>
       <c r="P61" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q61">
         <v>5.5</v>
@@ -13942,7 +13957,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ62">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR62">
         <v>1.4</v>
@@ -14354,7 +14369,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ64">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR64">
         <v>1.58</v>
@@ -14557,7 +14572,7 @@
         <v>0</v>
       </c>
       <c r="AP65">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ65">
         <v>0.8</v>
@@ -14685,7 +14700,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -15097,7 +15112,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15178,7 +15193,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ68">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR68">
         <v>1.17</v>
@@ -15384,7 +15399,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ69">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR69">
         <v>1.64</v>
@@ -15509,7 +15524,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15587,7 +15602,7 @@
         <v>1.67</v>
       </c>
       <c r="AP70">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ70">
         <v>1.5</v>
@@ -15715,7 +15730,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16333,7 +16348,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16411,7 +16426,7 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ74">
         <v>0.25</v>
@@ -16620,7 +16635,7 @@
         <v>2</v>
       </c>
       <c r="AQ75">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR75">
         <v>1.45</v>
@@ -17029,7 +17044,7 @@
         <v>0.67</v>
       </c>
       <c r="AP77">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ77">
         <v>0.25</v>
@@ -17157,7 +17172,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q78">
         <v>2.63</v>
@@ -17238,7 +17253,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ78">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR78">
         <v>1.81</v>
@@ -17363,7 +17378,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -17569,7 +17584,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17775,7 +17790,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -18059,7 +18074,7 @@
         <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ82">
         <v>1.13</v>
@@ -18187,7 +18202,7 @@
         <v>151</v>
       </c>
       <c r="P83" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -18265,7 +18280,7 @@
         <v>1.75</v>
       </c>
       <c r="AP83">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ83">
         <v>1.8</v>
@@ -18599,7 +18614,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -18805,7 +18820,7 @@
         <v>95</v>
       </c>
       <c r="P86" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -18883,7 +18898,7 @@
         <v>2.5</v>
       </c>
       <c r="AP86">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ86">
         <v>1.56</v>
@@ -19011,7 +19026,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q87">
         <v>2.38</v>
@@ -19298,7 +19313,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ88">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR88">
         <v>1.66</v>
@@ -19629,7 +19644,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -19916,7 +19931,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ91">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR91">
         <v>1.35</v>
@@ -20122,7 +20137,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ92">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR92">
         <v>1.69</v>
@@ -20328,7 +20343,7 @@
         <v>3</v>
       </c>
       <c r="AQ93">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR93">
         <v>1.62</v>
@@ -20453,7 +20468,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20659,7 +20674,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -20737,7 +20752,7 @@
         <v>1.2</v>
       </c>
       <c r="AP95">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ95">
         <v>1</v>
@@ -21277,7 +21292,7 @@
         <v>95</v>
       </c>
       <c r="P98" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q98">
         <v>3.5</v>
@@ -21355,7 +21370,7 @@
         <v>1.5</v>
       </c>
       <c r="AP98">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ98">
         <v>1.33</v>
@@ -21561,10 +21576,10 @@
         <v>1.4</v>
       </c>
       <c r="AP99">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ99">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR99">
         <v>1.16</v>
@@ -21895,7 +21910,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q101">
         <v>2.63</v>
@@ -22101,7 +22116,7 @@
         <v>95</v>
       </c>
       <c r="P102" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22388,7 +22403,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ103">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR103">
         <v>1.66</v>
@@ -22513,7 +22528,7 @@
         <v>163</v>
       </c>
       <c r="P104" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q104">
         <v>1.83</v>
@@ -22797,7 +22812,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ105">
         <v>1.13</v>
@@ -23003,7 +23018,7 @@
         <v>0.5</v>
       </c>
       <c r="AP106">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ106">
         <v>0.8</v>
@@ -23212,7 +23227,7 @@
         <v>3</v>
       </c>
       <c r="AQ107">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR107">
         <v>1.59</v>
@@ -23337,7 +23352,7 @@
         <v>167</v>
       </c>
       <c r="P108" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23955,7 +23970,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -24161,7 +24176,7 @@
         <v>138</v>
       </c>
       <c r="P112" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24367,7 +24382,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -24448,7 +24463,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ113">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR113">
         <v>1.4</v>
@@ -24779,7 +24794,7 @@
         <v>95</v>
       </c>
       <c r="P115" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -25191,7 +25206,7 @@
         <v>93</v>
       </c>
       <c r="P117" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25475,7 +25490,7 @@
         <v>0.83</v>
       </c>
       <c r="AP118">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ118">
         <v>0.67</v>
@@ -25681,10 +25696,10 @@
         <v>1.33</v>
       </c>
       <c r="AP119">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ119">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR119">
         <v>1.55</v>
@@ -25887,10 +25902,10 @@
         <v>0</v>
       </c>
       <c r="AP120">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ120">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR120">
         <v>1.32</v>
@@ -26508,7 +26523,7 @@
         <v>1</v>
       </c>
       <c r="AQ123">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR123">
         <v>1.22</v>
@@ -26711,7 +26726,7 @@
         <v>0.83</v>
       </c>
       <c r="AP124">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ124">
         <v>1</v>
@@ -27126,7 +27141,7 @@
         <v>2</v>
       </c>
       <c r="AQ126">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR126">
         <v>1.89</v>
@@ -27251,7 +27266,7 @@
         <v>132</v>
       </c>
       <c r="P127" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q127">
         <v>3.6</v>
@@ -27329,7 +27344,7 @@
         <v>1.57</v>
       </c>
       <c r="AP127">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ127">
         <v>1.8</v>
@@ -27869,7 +27884,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -27947,10 +27962,10 @@
         <v>1.29</v>
       </c>
       <c r="AP130">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ130">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR130">
         <v>1.4</v>
@@ -28075,7 +28090,7 @@
         <v>134</v>
       </c>
       <c r="P131" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q131">
         <v>3.2</v>
@@ -28281,7 +28296,7 @@
         <v>184</v>
       </c>
       <c r="P132" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28359,7 +28374,7 @@
         <v>1.71</v>
       </c>
       <c r="AP132">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ132">
         <v>2</v>
@@ -28693,7 +28708,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -28771,7 +28786,7 @@
         <v>2.17</v>
       </c>
       <c r="AP134">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ134">
         <v>1.56</v>
@@ -28899,7 +28914,7 @@
         <v>187</v>
       </c>
       <c r="P135" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -29517,7 +29532,7 @@
         <v>190</v>
       </c>
       <c r="P138" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -29595,7 +29610,7 @@
         <v>1.17</v>
       </c>
       <c r="AP138">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ138">
         <v>1.38</v>
@@ -29804,7 +29819,7 @@
         <v>3</v>
       </c>
       <c r="AQ139">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR139">
         <v>1.67</v>
@@ -30010,7 +30025,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ140">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR140">
         <v>1.39</v>
@@ -30341,7 +30356,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -30422,7 +30437,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ142">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR142">
         <v>1.54</v>
@@ -30959,7 +30974,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q145">
         <v>2.63</v>
@@ -31040,7 +31055,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ145">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR145">
         <v>1.45</v>
@@ -31371,7 +31386,7 @@
         <v>95</v>
       </c>
       <c r="P147" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31449,7 +31464,7 @@
         <v>0.63</v>
       </c>
       <c r="AP147">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ147">
         <v>1</v>
@@ -31658,7 +31673,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ148">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR148">
         <v>1.43</v>
@@ -31783,7 +31798,7 @@
         <v>176</v>
       </c>
       <c r="P149" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q149">
         <v>2.88</v>
@@ -32070,7 +32085,7 @@
         <v>2</v>
       </c>
       <c r="AQ150">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR150">
         <v>1.83</v>
@@ -32195,7 +32210,7 @@
         <v>201</v>
       </c>
       <c r="P151" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32276,7 +32291,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ151">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR151">
         <v>1.53</v>
@@ -32401,7 +32416,7 @@
         <v>202</v>
       </c>
       <c r="P152" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q152">
         <v>2.2</v>
@@ -32479,7 +32494,7 @@
         <v>0.83</v>
       </c>
       <c r="AP152">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ152">
         <v>1.13</v>
@@ -32813,7 +32828,7 @@
         <v>203</v>
       </c>
       <c r="P154" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q154">
         <v>3.4</v>
@@ -32891,7 +32906,7 @@
         <v>1.57</v>
       </c>
       <c r="AP154">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ154">
         <v>1.2</v>
@@ -33019,7 +33034,7 @@
         <v>204</v>
       </c>
       <c r="P155" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q155">
         <v>2.6</v>
@@ -33225,7 +33240,7 @@
         <v>122</v>
       </c>
       <c r="P156" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33431,7 +33446,7 @@
         <v>205</v>
       </c>
       <c r="P157" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -33843,7 +33858,7 @@
         <v>95</v>
       </c>
       <c r="P159" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -33924,7 +33939,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ159">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR159">
         <v>1.42</v>
@@ -34255,7 +34270,7 @@
         <v>207</v>
       </c>
       <c r="P161" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q161">
         <v>2.25</v>
@@ -34667,7 +34682,7 @@
         <v>208</v>
       </c>
       <c r="P163" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q163">
         <v>1.95</v>
@@ -34745,7 +34760,7 @@
         <v>1</v>
       </c>
       <c r="AP163">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ163">
         <v>1.11</v>
@@ -35363,7 +35378,7 @@
         <v>0.63</v>
       </c>
       <c r="AP166">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ166">
         <v>0.8</v>
@@ -35569,10 +35584,10 @@
         <v>0.75</v>
       </c>
       <c r="AP167">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ167">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR167">
         <v>1.49</v>
@@ -35778,7 +35793,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ168">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR168">
         <v>1.59</v>
@@ -36187,10 +36202,10 @@
         <v>1.38</v>
       </c>
       <c r="AP170">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ170">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR170">
         <v>1.4</v>
@@ -36396,7 +36411,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ171">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR171">
         <v>1.42</v>
@@ -36521,7 +36536,7 @@
         <v>95</v>
       </c>
       <c r="P172" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q172">
         <v>3.2</v>
@@ -36599,10 +36614,10 @@
         <v>0.13</v>
       </c>
       <c r="AP172">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ172">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR172">
         <v>1.18</v>
@@ -37139,7 +37154,7 @@
         <v>215</v>
       </c>
       <c r="P175" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q175">
         <v>3.1</v>
@@ -37345,7 +37360,7 @@
         <v>216</v>
       </c>
       <c r="P176" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q176">
         <v>5</v>
@@ -37757,7 +37772,7 @@
         <v>190</v>
       </c>
       <c r="P178" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q178">
         <v>3.5</v>
@@ -37963,7 +37978,7 @@
         <v>218</v>
       </c>
       <c r="P179" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q179">
         <v>2.88</v>
@@ -38169,7 +38184,7 @@
         <v>190</v>
       </c>
       <c r="P180" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q180">
         <v>3</v>
@@ -38375,7 +38390,7 @@
         <v>95</v>
       </c>
       <c r="P181" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q181">
         <v>1.91</v>
@@ -38581,7 +38596,7 @@
         <v>219</v>
       </c>
       <c r="P182" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q182">
         <v>2.75</v>
@@ -38787,7 +38802,7 @@
         <v>95</v>
       </c>
       <c r="P183" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q183">
         <v>2.63</v>
@@ -39150,6 +39165,1036 @@
       </c>
       <c r="BP184">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:68">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>7373386</v>
+      </c>
+      <c r="C185" t="s">
+        <v>68</v>
+      </c>
+      <c r="D185" t="s">
+        <v>69</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45501.45833333334</v>
+      </c>
+      <c r="F185">
+        <v>20</v>
+      </c>
+      <c r="G185" t="s">
+        <v>82</v>
+      </c>
+      <c r="H185" t="s">
+        <v>72</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>1</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+      <c r="M185">
+        <v>1</v>
+      </c>
+      <c r="N185">
+        <v>1</v>
+      </c>
+      <c r="O185" t="s">
+        <v>95</v>
+      </c>
+      <c r="P185" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q185">
+        <v>3</v>
+      </c>
+      <c r="R185">
+        <v>2.05</v>
+      </c>
+      <c r="S185">
+        <v>4</v>
+      </c>
+      <c r="T185">
+        <v>1.4</v>
+      </c>
+      <c r="U185">
+        <v>2.75</v>
+      </c>
+      <c r="V185">
+        <v>3</v>
+      </c>
+      <c r="W185">
+        <v>1.36</v>
+      </c>
+      <c r="X185">
+        <v>8</v>
+      </c>
+      <c r="Y185">
+        <v>1.08</v>
+      </c>
+      <c r="Z185">
+        <v>1.8</v>
+      </c>
+      <c r="AA185">
+        <v>3.4</v>
+      </c>
+      <c r="AB185">
+        <v>4.33</v>
+      </c>
+      <c r="AC185">
+        <v>1.06</v>
+      </c>
+      <c r="AD185">
+        <v>8.5</v>
+      </c>
+      <c r="AE185">
+        <v>1.33</v>
+      </c>
+      <c r="AF185">
+        <v>3.25</v>
+      </c>
+      <c r="AG185">
+        <v>2</v>
+      </c>
+      <c r="AH185">
+        <v>1.7</v>
+      </c>
+      <c r="AI185">
+        <v>1.8</v>
+      </c>
+      <c r="AJ185">
+        <v>1.95</v>
+      </c>
+      <c r="AK185">
+        <v>1.2</v>
+      </c>
+      <c r="AL185">
+        <v>1.25</v>
+      </c>
+      <c r="AM185">
+        <v>1.95</v>
+      </c>
+      <c r="AN185">
+        <v>2.38</v>
+      </c>
+      <c r="AO185">
+        <v>0.44</v>
+      </c>
+      <c r="AP185">
+        <v>2.11</v>
+      </c>
+      <c r="AQ185">
+        <v>0.7</v>
+      </c>
+      <c r="AR185">
+        <v>1.37</v>
+      </c>
+      <c r="AS185">
+        <v>1.18</v>
+      </c>
+      <c r="AT185">
+        <v>2.55</v>
+      </c>
+      <c r="AU185">
+        <v>3</v>
+      </c>
+      <c r="AV185">
+        <v>4</v>
+      </c>
+      <c r="AW185">
+        <v>9</v>
+      </c>
+      <c r="AX185">
+        <v>1</v>
+      </c>
+      <c r="AY185">
+        <v>12</v>
+      </c>
+      <c r="AZ185">
+        <v>5</v>
+      </c>
+      <c r="BA185">
+        <v>5</v>
+      </c>
+      <c r="BB185">
+        <v>6</v>
+      </c>
+      <c r="BC185">
+        <v>11</v>
+      </c>
+      <c r="BD185">
+        <v>1.48</v>
+      </c>
+      <c r="BE185">
+        <v>9.9</v>
+      </c>
+      <c r="BF185">
+        <v>3.4</v>
+      </c>
+      <c r="BG185">
+        <v>1.1</v>
+      </c>
+      <c r="BH185">
+        <v>5.4</v>
+      </c>
+      <c r="BI185">
+        <v>1.23</v>
+      </c>
+      <c r="BJ185">
+        <v>3.56</v>
+      </c>
+      <c r="BK185">
+        <v>2</v>
+      </c>
+      <c r="BL185">
+        <v>2.58</v>
+      </c>
+      <c r="BM185">
+        <v>1.76</v>
+      </c>
+      <c r="BN185">
+        <v>2</v>
+      </c>
+      <c r="BO185">
+        <v>2.19</v>
+      </c>
+      <c r="BP185">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:68">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>7373380</v>
+      </c>
+      <c r="C186" t="s">
+        <v>68</v>
+      </c>
+      <c r="D186" t="s">
+        <v>69</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45501.66666666666</v>
+      </c>
+      <c r="F186">
+        <v>20</v>
+      </c>
+      <c r="G186" t="s">
+        <v>87</v>
+      </c>
+      <c r="H186" t="s">
+        <v>77</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186">
+        <v>2</v>
+      </c>
+      <c r="M186">
+        <v>0</v>
+      </c>
+      <c r="N186">
+        <v>2</v>
+      </c>
+      <c r="O186" t="s">
+        <v>221</v>
+      </c>
+      <c r="P186" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q186">
+        <v>1.8</v>
+      </c>
+      <c r="R186">
+        <v>2.5</v>
+      </c>
+      <c r="S186">
+        <v>8.5</v>
+      </c>
+      <c r="T186">
+        <v>1.33</v>
+      </c>
+      <c r="U186">
+        <v>3.25</v>
+      </c>
+      <c r="V186">
+        <v>2.63</v>
+      </c>
+      <c r="W186">
+        <v>1.44</v>
+      </c>
+      <c r="X186">
+        <v>6.5</v>
+      </c>
+      <c r="Y186">
+        <v>1.11</v>
+      </c>
+      <c r="Z186">
+        <v>1.33</v>
+      </c>
+      <c r="AA186">
+        <v>5</v>
+      </c>
+      <c r="AB186">
+        <v>10</v>
+      </c>
+      <c r="AC186">
+        <v>1.05</v>
+      </c>
+      <c r="AD186">
+        <v>9.5</v>
+      </c>
+      <c r="AE186">
+        <v>1.22</v>
+      </c>
+      <c r="AF186">
+        <v>1.02</v>
+      </c>
+      <c r="AG186">
+        <v>1.7</v>
+      </c>
+      <c r="AH186">
+        <v>2.1</v>
+      </c>
+      <c r="AI186">
+        <v>2.1</v>
+      </c>
+      <c r="AJ186">
+        <v>1.67</v>
+      </c>
+      <c r="AK186">
+        <v>1.06</v>
+      </c>
+      <c r="AL186">
+        <v>1.14</v>
+      </c>
+      <c r="AM186">
+        <v>3.1</v>
+      </c>
+      <c r="AN186">
+        <v>2.11</v>
+      </c>
+      <c r="AO186">
+        <v>0.9</v>
+      </c>
+      <c r="AP186">
+        <v>2.2</v>
+      </c>
+      <c r="AQ186">
+        <v>0.82</v>
+      </c>
+      <c r="AR186">
+        <v>1.68</v>
+      </c>
+      <c r="AS186">
+        <v>1.39</v>
+      </c>
+      <c r="AT186">
+        <v>3.07</v>
+      </c>
+      <c r="AU186">
+        <v>7</v>
+      </c>
+      <c r="AV186">
+        <v>4</v>
+      </c>
+      <c r="AW186">
+        <v>4</v>
+      </c>
+      <c r="AX186">
+        <v>5</v>
+      </c>
+      <c r="AY186">
+        <v>11</v>
+      </c>
+      <c r="AZ186">
+        <v>9</v>
+      </c>
+      <c r="BA186">
+        <v>6</v>
+      </c>
+      <c r="BB186">
+        <v>3</v>
+      </c>
+      <c r="BC186">
+        <v>9</v>
+      </c>
+      <c r="BD186">
+        <v>1.39</v>
+      </c>
+      <c r="BE186">
+        <v>11.5</v>
+      </c>
+      <c r="BF186">
+        <v>3.8</v>
+      </c>
+      <c r="BG186">
+        <v>1.1</v>
+      </c>
+      <c r="BH186">
+        <v>5.55</v>
+      </c>
+      <c r="BI186">
+        <v>1.22</v>
+      </c>
+      <c r="BJ186">
+        <v>3.65</v>
+      </c>
+      <c r="BK186">
+        <v>2</v>
+      </c>
+      <c r="BL186">
+        <v>2.65</v>
+      </c>
+      <c r="BM186">
+        <v>1.73</v>
+      </c>
+      <c r="BN186">
+        <v>2.04</v>
+      </c>
+      <c r="BO186">
+        <v>2.14</v>
+      </c>
+      <c r="BP186">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="187" spans="1:68">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>7373376</v>
+      </c>
+      <c r="C187" t="s">
+        <v>68</v>
+      </c>
+      <c r="D187" t="s">
+        <v>69</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45501.79166666666</v>
+      </c>
+      <c r="F187">
+        <v>20</v>
+      </c>
+      <c r="G187" t="s">
+        <v>86</v>
+      </c>
+      <c r="H187" t="s">
+        <v>75</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>1</v>
+      </c>
+      <c r="K187">
+        <v>2</v>
+      </c>
+      <c r="L187">
+        <v>2</v>
+      </c>
+      <c r="M187">
+        <v>1</v>
+      </c>
+      <c r="N187">
+        <v>3</v>
+      </c>
+      <c r="O187" t="s">
+        <v>222</v>
+      </c>
+      <c r="P187" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q187">
+        <v>2.38</v>
+      </c>
+      <c r="R187">
+        <v>2.1</v>
+      </c>
+      <c r="S187">
+        <v>5.5</v>
+      </c>
+      <c r="T187">
+        <v>1.44</v>
+      </c>
+      <c r="U187">
+        <v>2.63</v>
+      </c>
+      <c r="V187">
+        <v>3</v>
+      </c>
+      <c r="W187">
+        <v>1.36</v>
+      </c>
+      <c r="X187">
+        <v>9</v>
+      </c>
+      <c r="Y187">
+        <v>1.07</v>
+      </c>
+      <c r="Z187">
+        <v>1.73</v>
+      </c>
+      <c r="AA187">
+        <v>3.5</v>
+      </c>
+      <c r="AB187">
+        <v>5.25</v>
+      </c>
+      <c r="AC187">
+        <v>1.05</v>
+      </c>
+      <c r="AD187">
+        <v>10</v>
+      </c>
+      <c r="AE187">
+        <v>1.33</v>
+      </c>
+      <c r="AF187">
+        <v>3.25</v>
+      </c>
+      <c r="AG187">
+        <v>2.15</v>
+      </c>
+      <c r="AH187">
+        <v>1.67</v>
+      </c>
+      <c r="AI187">
+        <v>2</v>
+      </c>
+      <c r="AJ187">
+        <v>1.75</v>
+      </c>
+      <c r="AK187">
+        <v>1.17</v>
+      </c>
+      <c r="AL187">
+        <v>1.22</v>
+      </c>
+      <c r="AM187">
+        <v>2.2</v>
+      </c>
+      <c r="AN187">
+        <v>1.44</v>
+      </c>
+      <c r="AO187">
+        <v>0.5</v>
+      </c>
+      <c r="AP187">
+        <v>1.6</v>
+      </c>
+      <c r="AQ187">
+        <v>0.45</v>
+      </c>
+      <c r="AR187">
+        <v>1.45</v>
+      </c>
+      <c r="AS187">
+        <v>1.24</v>
+      </c>
+      <c r="AT187">
+        <v>2.69</v>
+      </c>
+      <c r="AU187">
+        <v>5</v>
+      </c>
+      <c r="AV187">
+        <v>8</v>
+      </c>
+      <c r="AW187">
+        <v>4</v>
+      </c>
+      <c r="AX187">
+        <v>3</v>
+      </c>
+      <c r="AY187">
+        <v>9</v>
+      </c>
+      <c r="AZ187">
+        <v>11</v>
+      </c>
+      <c r="BA187">
+        <v>4</v>
+      </c>
+      <c r="BB187">
+        <v>4</v>
+      </c>
+      <c r="BC187">
+        <v>8</v>
+      </c>
+      <c r="BD187">
+        <v>1.46</v>
+      </c>
+      <c r="BE187">
+        <v>6.75</v>
+      </c>
+      <c r="BF187">
+        <v>2.8</v>
+      </c>
+      <c r="BG187">
+        <v>1.28</v>
+      </c>
+      <c r="BH187">
+        <v>3.3</v>
+      </c>
+      <c r="BI187">
+        <v>1.48</v>
+      </c>
+      <c r="BJ187">
+        <v>2.43</v>
+      </c>
+      <c r="BK187">
+        <v>2.2</v>
+      </c>
+      <c r="BL187">
+        <v>1.91</v>
+      </c>
+      <c r="BM187">
+        <v>2.23</v>
+      </c>
+      <c r="BN187">
+        <v>1.57</v>
+      </c>
+      <c r="BO187">
+        <v>2.8</v>
+      </c>
+      <c r="BP187">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="188" spans="1:68">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>7373390</v>
+      </c>
+      <c r="C188" t="s">
+        <v>68</v>
+      </c>
+      <c r="D188" t="s">
+        <v>69</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45501.79166666666</v>
+      </c>
+      <c r="F188">
+        <v>20</v>
+      </c>
+      <c r="G188" t="s">
+        <v>89</v>
+      </c>
+      <c r="H188" t="s">
+        <v>76</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>1</v>
+      </c>
+      <c r="K188">
+        <v>1</v>
+      </c>
+      <c r="L188">
+        <v>1</v>
+      </c>
+      <c r="M188">
+        <v>2</v>
+      </c>
+      <c r="N188">
+        <v>3</v>
+      </c>
+      <c r="O188" t="s">
+        <v>223</v>
+      </c>
+      <c r="P188" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q188">
+        <v>3.4</v>
+      </c>
+      <c r="R188">
+        <v>1.91</v>
+      </c>
+      <c r="S188">
+        <v>3.75</v>
+      </c>
+      <c r="T188">
+        <v>1.5</v>
+      </c>
+      <c r="U188">
+        <v>2.5</v>
+      </c>
+      <c r="V188">
+        <v>3.5</v>
+      </c>
+      <c r="W188">
+        <v>1.29</v>
+      </c>
+      <c r="X188">
+        <v>11</v>
+      </c>
+      <c r="Y188">
+        <v>1.05</v>
+      </c>
+      <c r="Z188">
+        <v>2.6</v>
+      </c>
+      <c r="AA188">
+        <v>3</v>
+      </c>
+      <c r="AB188">
+        <v>3</v>
+      </c>
+      <c r="AC188">
+        <v>1.08</v>
+      </c>
+      <c r="AD188">
+        <v>8</v>
+      </c>
+      <c r="AE188">
+        <v>1.44</v>
+      </c>
+      <c r="AF188">
+        <v>2.75</v>
+      </c>
+      <c r="AG188">
+        <v>2.6</v>
+      </c>
+      <c r="AH188">
+        <v>1.48</v>
+      </c>
+      <c r="AI188">
+        <v>2.1</v>
+      </c>
+      <c r="AJ188">
+        <v>1.67</v>
+      </c>
+      <c r="AK188">
+        <v>1.45</v>
+      </c>
+      <c r="AL188">
+        <v>1.3</v>
+      </c>
+      <c r="AM188">
+        <v>1.5</v>
+      </c>
+      <c r="AN188">
+        <v>0.67</v>
+      </c>
+      <c r="AO188">
+        <v>1.22</v>
+      </c>
+      <c r="AP188">
+        <v>0.6</v>
+      </c>
+      <c r="AQ188">
+        <v>1.4</v>
+      </c>
+      <c r="AR188">
+        <v>1.23</v>
+      </c>
+      <c r="AS188">
+        <v>1.35</v>
+      </c>
+      <c r="AT188">
+        <v>2.58</v>
+      </c>
+      <c r="AU188">
+        <v>5</v>
+      </c>
+      <c r="AV188">
+        <v>5</v>
+      </c>
+      <c r="AW188">
+        <v>11</v>
+      </c>
+      <c r="AX188">
+        <v>4</v>
+      </c>
+      <c r="AY188">
+        <v>16</v>
+      </c>
+      <c r="AZ188">
+        <v>9</v>
+      </c>
+      <c r="BA188">
+        <v>12</v>
+      </c>
+      <c r="BB188">
+        <v>2</v>
+      </c>
+      <c r="BC188">
+        <v>14</v>
+      </c>
+      <c r="BD188">
+        <v>2.45</v>
+      </c>
+      <c r="BE188">
+        <v>6.75</v>
+      </c>
+      <c r="BF188">
+        <v>1.86</v>
+      </c>
+      <c r="BG188">
+        <v>1.12</v>
+      </c>
+      <c r="BH188">
+        <v>4.9</v>
+      </c>
+      <c r="BI188">
+        <v>1.27</v>
+      </c>
+      <c r="BJ188">
+        <v>3.28</v>
+      </c>
+      <c r="BK188">
+        <v>1.91</v>
+      </c>
+      <c r="BL188">
+        <v>2.41</v>
+      </c>
+      <c r="BM188">
+        <v>2</v>
+      </c>
+      <c r="BN188">
+        <v>1.8</v>
+      </c>
+      <c r="BO188">
+        <v>2.34</v>
+      </c>
+      <c r="BP188">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="189" spans="1:68">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>7373374</v>
+      </c>
+      <c r="C189" t="s">
+        <v>68</v>
+      </c>
+      <c r="D189" t="s">
+        <v>69</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45501.79166666666</v>
+      </c>
+      <c r="F189">
+        <v>20</v>
+      </c>
+      <c r="G189" t="s">
+        <v>81</v>
+      </c>
+      <c r="H189" t="s">
+        <v>74</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>1</v>
+      </c>
+      <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189">
+        <v>1</v>
+      </c>
+      <c r="O189" t="s">
+        <v>224</v>
+      </c>
+      <c r="P189" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q189">
+        <v>2.88</v>
+      </c>
+      <c r="R189">
+        <v>2.05</v>
+      </c>
+      <c r="S189">
+        <v>4</v>
+      </c>
+      <c r="T189">
+        <v>1.44</v>
+      </c>
+      <c r="U189">
+        <v>2.63</v>
+      </c>
+      <c r="V189">
+        <v>3.25</v>
+      </c>
+      <c r="W189">
+        <v>1.33</v>
+      </c>
+      <c r="X189">
+        <v>9</v>
+      </c>
+      <c r="Y189">
+        <v>1.07</v>
+      </c>
+      <c r="Z189">
+        <v>2.15</v>
+      </c>
+      <c r="AA189">
+        <v>3.25</v>
+      </c>
+      <c r="AB189">
+        <v>3.6</v>
+      </c>
+      <c r="AC189">
+        <v>1.07</v>
+      </c>
+      <c r="AD189">
+        <v>8</v>
+      </c>
+      <c r="AE189">
+        <v>1.38</v>
+      </c>
+      <c r="AF189">
+        <v>3</v>
+      </c>
+      <c r="AG189">
+        <v>2.2</v>
+      </c>
+      <c r="AH189">
+        <v>1.65</v>
+      </c>
+      <c r="AI189">
+        <v>1.95</v>
+      </c>
+      <c r="AJ189">
+        <v>1.8</v>
+      </c>
+      <c r="AK189">
+        <v>1.25</v>
+      </c>
+      <c r="AL189">
+        <v>1.25</v>
+      </c>
+      <c r="AM189">
+        <v>1.77</v>
+      </c>
+      <c r="AN189">
+        <v>1.44</v>
+      </c>
+      <c r="AO189">
+        <v>0.67</v>
+      </c>
+      <c r="AP189">
+        <v>1.6</v>
+      </c>
+      <c r="AQ189">
+        <v>0.6</v>
+      </c>
+      <c r="AR189">
+        <v>1.43</v>
+      </c>
+      <c r="AS189">
+        <v>1.17</v>
+      </c>
+      <c r="AT189">
+        <v>2.6</v>
+      </c>
+      <c r="AU189">
+        <v>4</v>
+      </c>
+      <c r="AV189">
+        <v>2</v>
+      </c>
+      <c r="AW189">
+        <v>7</v>
+      </c>
+      <c r="AX189">
+        <v>7</v>
+      </c>
+      <c r="AY189">
+        <v>11</v>
+      </c>
+      <c r="AZ189">
+        <v>9</v>
+      </c>
+      <c r="BA189">
+        <v>8</v>
+      </c>
+      <c r="BB189">
+        <v>3</v>
+      </c>
+      <c r="BC189">
+        <v>11</v>
+      </c>
+      <c r="BD189">
+        <v>1.58</v>
+      </c>
+      <c r="BE189">
+        <v>6.75</v>
+      </c>
+      <c r="BF189">
+        <v>2.43</v>
+      </c>
+      <c r="BG189">
+        <v>1.2</v>
+      </c>
+      <c r="BH189">
+        <v>3.95</v>
+      </c>
+      <c r="BI189">
+        <v>1.35</v>
+      </c>
+      <c r="BJ189">
+        <v>2.9</v>
+      </c>
+      <c r="BK189">
+        <v>1.91</v>
+      </c>
+      <c r="BL189">
+        <v>2.23</v>
+      </c>
+      <c r="BM189">
+        <v>2</v>
+      </c>
+      <c r="BN189">
+        <v>1.8</v>
+      </c>
+      <c r="BO189">
+        <v>2.35</v>
+      </c>
+      <c r="BP189">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="298">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -691,6 +691,12 @@
     <t>['57']</t>
   </si>
   <si>
+    <t>['50', '60']</t>
+  </si>
+  <si>
+    <t>['58', '66']</t>
+  </si>
+  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -896,6 +902,12 @@
   </si>
   <si>
     <t>['11', '90+4']</t>
+  </si>
+  <si>
+    <t>['5', '89']</t>
+  </si>
+  <si>
+    <t>['21', '68', '81', '88']</t>
   </si>
 </sst>
 </file>
@@ -1257,7 +1269,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP189"/>
+  <dimension ref="A1:BP194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1516,7 +1528,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1722,7 +1734,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1800,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ3">
         <v>0.25</v>
@@ -1928,7 +1940,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -2009,7 +2021,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ4">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2134,7 +2146,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -2212,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ5">
         <v>1.13</v>
@@ -2421,7 +2433,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ6">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2546,7 +2558,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2624,10 +2636,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ7">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2752,7 +2764,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2830,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ8">
         <v>0.25</v>
@@ -3039,7 +3051,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ9">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3164,7 +3176,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3245,7 +3257,7 @@
         <v>3</v>
       </c>
       <c r="AQ10">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3370,7 +3382,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3448,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ11">
         <v>1.56</v>
@@ -4812,7 +4824,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5717,7 +5729,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ22">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR22">
         <v>1.64</v>
@@ -6460,7 +6472,7 @@
         <v>112</v>
       </c>
       <c r="P26" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6538,7 +6550,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6747,7 +6759,7 @@
         <v>2</v>
       </c>
       <c r="AQ27">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR27">
         <v>1.49</v>
@@ -6872,7 +6884,7 @@
         <v>113</v>
       </c>
       <c r="P28" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -7078,7 +7090,7 @@
         <v>97</v>
       </c>
       <c r="P29" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q29">
         <v>3.5</v>
@@ -7156,7 +7168,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ29">
         <v>1.2</v>
@@ -7284,7 +7296,7 @@
         <v>97</v>
       </c>
       <c r="P30" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7362,7 +7374,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ30">
         <v>1.11</v>
@@ -7490,7 +7502,7 @@
         <v>97</v>
       </c>
       <c r="P31" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7571,7 +7583,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ31">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR31">
         <v>0</v>
@@ -7902,7 +7914,7 @@
         <v>97</v>
       </c>
       <c r="P33" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7983,7 +7995,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ33">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR33">
         <v>1.46</v>
@@ -8108,7 +8120,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q34">
         <v>2.25</v>
@@ -8601,7 +8613,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ36">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR36">
         <v>1.19</v>
@@ -8726,7 +8738,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8932,7 +8944,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -9216,7 +9228,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ39">
         <v>1.56</v>
@@ -9344,7 +9356,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9425,7 +9437,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ40">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR40">
         <v>2.22</v>
@@ -9631,7 +9643,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ41">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR41">
         <v>1.4</v>
@@ -10168,7 +10180,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10246,7 +10258,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ44">
         <v>1.2</v>
@@ -10374,7 +10386,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10580,7 +10592,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10992,7 +11004,7 @@
         <v>97</v>
       </c>
       <c r="P48" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q48">
         <v>3.6</v>
@@ -11070,7 +11082,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -11279,7 +11291,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ49">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR49">
         <v>1.5</v>
@@ -11404,7 +11416,7 @@
         <v>97</v>
       </c>
       <c r="P50" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q50">
         <v>2.38</v>
@@ -11691,7 +11703,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ51">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR51">
         <v>1.45</v>
@@ -11816,7 +11828,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q52">
         <v>2.38</v>
@@ -11894,7 +11906,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ52">
         <v>0.8</v>
@@ -12022,7 +12034,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q53">
         <v>2.38</v>
@@ -12100,7 +12112,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ53">
         <v>0.7</v>
@@ -12228,7 +12240,7 @@
         <v>97</v>
       </c>
       <c r="P54" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -12309,7 +12321,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ54">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR54">
         <v>1.51</v>
@@ -12434,7 +12446,7 @@
         <v>97</v>
       </c>
       <c r="P55" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -12512,7 +12524,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ55">
         <v>0.82</v>
@@ -13133,7 +13145,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ58">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR58">
         <v>1.63</v>
@@ -13258,7 +13270,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q59">
         <v>2.3</v>
@@ -13464,7 +13476,7 @@
         <v>117</v>
       </c>
       <c r="P60" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q60">
         <v>5.5</v>
@@ -13542,10 +13554,10 @@
         <v>1.67</v>
       </c>
       <c r="AP60">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ60">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR60">
         <v>1.58</v>
@@ -13670,7 +13682,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q61">
         <v>4.75</v>
@@ -13748,7 +13760,7 @@
         <v>2.33</v>
       </c>
       <c r="AP61">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ61">
         <v>1.56</v>
@@ -13954,7 +13966,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ62">
         <v>1</v>
@@ -14700,7 +14712,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14778,10 +14790,10 @@
         <v>0</v>
       </c>
       <c r="AP66">
+        <v>1.4</v>
+      </c>
+      <c r="AQ66">
         <v>1.22</v>
-      </c>
-      <c r="AQ66">
-        <v>1.38</v>
       </c>
       <c r="AR66">
         <v>1.13</v>
@@ -14906,7 +14918,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q67">
         <v>3.5</v>
@@ -14984,7 +14996,7 @@
         <v>0</v>
       </c>
       <c r="AP67">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ67">
         <v>0.45</v>
@@ -15524,7 +15536,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15605,7 +15617,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ70">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR70">
         <v>1.37</v>
@@ -15730,7 +15742,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15811,7 +15823,7 @@
         <v>3</v>
       </c>
       <c r="AQ71">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR71">
         <v>1.56</v>
@@ -15936,7 +15948,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q72">
         <v>2.1</v>
@@ -17172,7 +17184,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q78">
         <v>2.63</v>
@@ -17378,7 +17390,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -17584,7 +17596,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17662,7 +17674,7 @@
         <v>2</v>
       </c>
       <c r="AP80">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ80">
         <v>1.33</v>
@@ -17790,7 +17802,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17871,7 +17883,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ81">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR81">
         <v>1.77</v>
@@ -18280,7 +18292,7 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ83">
         <v>1</v>
@@ -18408,7 +18420,7 @@
         <v>151</v>
       </c>
       <c r="P84" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -18486,7 +18498,7 @@
         <v>1.25</v>
       </c>
       <c r="AP84">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ84">
         <v>1</v>
@@ -18614,7 +18626,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -18695,7 +18707,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ85">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR85">
         <v>1.31</v>
@@ -18820,7 +18832,7 @@
         <v>97</v>
       </c>
       <c r="P86" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -19232,7 +19244,7 @@
         <v>154</v>
       </c>
       <c r="P88" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q88">
         <v>2.38</v>
@@ -19310,7 +19322,7 @@
         <v>1.33</v>
       </c>
       <c r="AP88">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ88">
         <v>1.11</v>
@@ -19644,7 +19656,7 @@
         <v>97</v>
       </c>
       <c r="P90" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -19722,10 +19734,10 @@
         <v>0.75</v>
       </c>
       <c r="AP90">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ90">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR90">
         <v>1.48</v>
@@ -20468,7 +20480,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20546,10 +20558,10 @@
         <v>2</v>
       </c>
       <c r="AP94">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ94">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR94">
         <v>1.18</v>
@@ -20674,7 +20686,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -20961,7 +20973,7 @@
         <v>2</v>
       </c>
       <c r="AQ96">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR96">
         <v>1.68</v>
@@ -21164,10 +21176,10 @@
         <v>2</v>
       </c>
       <c r="AP97">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ97">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR97">
         <v>1.48</v>
@@ -21292,7 +21304,7 @@
         <v>97</v>
       </c>
       <c r="P98" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q98">
         <v>3.5</v>
@@ -21782,7 +21794,7 @@
         <v>1.6</v>
       </c>
       <c r="AP100">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ100">
         <v>1.2</v>
@@ -21910,7 +21922,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q101">
         <v>2.63</v>
@@ -22116,7 +22128,7 @@
         <v>97</v>
       </c>
       <c r="P102" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22197,7 +22209,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ102">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR102">
         <v>1.72</v>
@@ -22734,7 +22746,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q105">
         <v>1.83</v>
@@ -23352,7 +23364,7 @@
         <v>167</v>
       </c>
       <c r="P108" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23433,7 +23445,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ108">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR108">
         <v>1.54</v>
@@ -23639,7 +23651,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ109">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR109">
         <v>1.33</v>
@@ -23764,7 +23776,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -23842,7 +23854,7 @@
         <v>0</v>
       </c>
       <c r="AP110">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ110">
         <v>0.25</v>
@@ -24051,7 +24063,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ111">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR111">
         <v>1.71</v>
@@ -24176,7 +24188,7 @@
         <v>138</v>
       </c>
       <c r="P112" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24257,7 +24269,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ112">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR112">
         <v>1.55</v>
@@ -24382,7 +24394,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -24794,7 +24806,7 @@
         <v>97</v>
       </c>
       <c r="P115" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -25078,7 +25090,7 @@
         <v>1.75</v>
       </c>
       <c r="AP116">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ116">
         <v>1.11</v>
@@ -25287,7 +25299,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ117">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR117">
         <v>1.17</v>
@@ -25412,7 +25424,7 @@
         <v>93</v>
       </c>
       <c r="P118" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q118">
         <v>3.6</v>
@@ -25490,10 +25502,10 @@
         <v>1.67</v>
       </c>
       <c r="AP118">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ118">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR118">
         <v>1.41</v>
@@ -26314,7 +26326,7 @@
         <v>1</v>
       </c>
       <c r="AP122">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ122">
         <v>1</v>
@@ -26520,7 +26532,7 @@
         <v>1.8</v>
       </c>
       <c r="AP123">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ123">
         <v>1.33</v>
@@ -26726,7 +26738,7 @@
         <v>0.83</v>
       </c>
       <c r="AP124">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ124">
         <v>1.4</v>
@@ -27266,7 +27278,7 @@
         <v>133</v>
       </c>
       <c r="P127" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q127">
         <v>3.6</v>
@@ -27347,7 +27359,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ127">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR127">
         <v>1.11</v>
@@ -27550,7 +27562,7 @@
         <v>0.71</v>
       </c>
       <c r="AP128">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ128">
         <v>1</v>
@@ -27756,7 +27768,7 @@
         <v>1</v>
       </c>
       <c r="AP129">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ129">
         <v>1.13</v>
@@ -27884,7 +27896,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q130">
         <v>3.4</v>
@@ -27965,7 +27977,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ130">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR130">
         <v>1.55</v>
@@ -28090,7 +28102,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q131">
         <v>2.5</v>
@@ -28296,7 +28308,7 @@
         <v>134</v>
       </c>
       <c r="P132" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q132">
         <v>3.2</v>
@@ -28708,7 +28720,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -28914,7 +28926,7 @@
         <v>187</v>
       </c>
       <c r="P135" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -29326,7 +29338,7 @@
         <v>189</v>
       </c>
       <c r="P137" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q137">
         <v>2</v>
@@ -29407,7 +29419,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ137">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR137">
         <v>1.48</v>
@@ -29610,10 +29622,10 @@
         <v>0.86</v>
       </c>
       <c r="AP138">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ138">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR138">
         <v>1.5</v>
@@ -30356,7 +30368,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -30562,7 +30574,7 @@
         <v>195</v>
       </c>
       <c r="P143" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q143">
         <v>2.63</v>
@@ -30640,7 +30652,7 @@
         <v>1.14</v>
       </c>
       <c r="AP143">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ143">
         <v>1.4</v>
@@ -30846,7 +30858,7 @@
         <v>1.4</v>
       </c>
       <c r="AP144">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ144">
         <v>1.11</v>
@@ -31261,7 +31273,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ146">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR146">
         <v>1.52</v>
@@ -31386,7 +31398,7 @@
         <v>97</v>
       </c>
       <c r="P147" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31592,7 +31604,7 @@
         <v>176</v>
       </c>
       <c r="P148" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q148">
         <v>2.88</v>
@@ -31876,7 +31888,7 @@
         <v>0.25</v>
       </c>
       <c r="AP149">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ149">
         <v>0.45</v>
@@ -32210,7 +32222,7 @@
         <v>201</v>
       </c>
       <c r="P151" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q151">
         <v>2.2</v>
@@ -32416,7 +32428,7 @@
         <v>202</v>
       </c>
       <c r="P152" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q152">
         <v>2.63</v>
@@ -32494,7 +32506,7 @@
         <v>0</v>
       </c>
       <c r="AP152">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ152">
         <v>0.7</v>
@@ -32622,7 +32634,7 @@
         <v>203</v>
       </c>
       <c r="P153" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q153">
         <v>3.4</v>
@@ -32906,10 +32918,10 @@
         <v>1.75</v>
       </c>
       <c r="AP154">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ154">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR154">
         <v>1.2</v>
@@ -33034,7 +33046,7 @@
         <v>123</v>
       </c>
       <c r="P155" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q155">
         <v>2.2</v>
@@ -33115,7 +33127,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ155">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR155">
         <v>1.6</v>
@@ -33240,7 +33252,7 @@
         <v>204</v>
       </c>
       <c r="P156" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q156">
         <v>2.6</v>
@@ -33321,7 +33333,7 @@
         <v>3</v>
       </c>
       <c r="AQ156">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR156">
         <v>1.63</v>
@@ -33446,7 +33458,7 @@
         <v>205</v>
       </c>
       <c r="P157" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -33527,7 +33539,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ157">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR157">
         <v>1.45</v>
@@ -33858,7 +33870,7 @@
         <v>97</v>
       </c>
       <c r="P159" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -33936,7 +33948,7 @@
         <v>0.43</v>
       </c>
       <c r="AP159">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ159">
         <v>0.6</v>
@@ -34142,7 +34154,7 @@
         <v>0.17</v>
       </c>
       <c r="AP160">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ160">
         <v>0.25</v>
@@ -34270,7 +34282,7 @@
         <v>207</v>
       </c>
       <c r="P161" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q161">
         <v>2.25</v>
@@ -34682,7 +34694,7 @@
         <v>208</v>
       </c>
       <c r="P163" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q163">
         <v>1.95</v>
@@ -36536,7 +36548,7 @@
         <v>97</v>
       </c>
       <c r="P172" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q172">
         <v>3.2</v>
@@ -37026,7 +37038,7 @@
         <v>1.14</v>
       </c>
       <c r="AP174">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ174">
         <v>1.13</v>
@@ -37154,7 +37166,7 @@
         <v>215</v>
       </c>
       <c r="P175" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q175">
         <v>3.1</v>
@@ -37232,10 +37244,10 @@
         <v>1.89</v>
       </c>
       <c r="AP175">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ175">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR175">
         <v>1.48</v>
@@ -37360,7 +37372,7 @@
         <v>216</v>
       </c>
       <c r="P176" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q176">
         <v>5</v>
@@ -37438,10 +37450,10 @@
         <v>1.88</v>
       </c>
       <c r="AP176">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ176">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR176">
         <v>1.23</v>
@@ -37772,7 +37784,7 @@
         <v>189</v>
       </c>
       <c r="P178" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q178">
         <v>3.5</v>
@@ -37850,7 +37862,7 @@
         <v>1</v>
       </c>
       <c r="AP178">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ178">
         <v>1</v>
@@ -37978,7 +37990,7 @@
         <v>218</v>
       </c>
       <c r="P179" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q179">
         <v>2.88</v>
@@ -38184,7 +38196,7 @@
         <v>189</v>
       </c>
       <c r="P180" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q180">
         <v>3</v>
@@ -38390,7 +38402,7 @@
         <v>97</v>
       </c>
       <c r="P181" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q181">
         <v>1.91</v>
@@ -38596,7 +38608,7 @@
         <v>219</v>
       </c>
       <c r="P182" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q182">
         <v>2.75</v>
@@ -38802,7 +38814,7 @@
         <v>97</v>
       </c>
       <c r="P183" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q183">
         <v>2.63</v>
@@ -39832,7 +39844,7 @@
         <v>223</v>
       </c>
       <c r="P188" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q188">
         <v>3.4</v>
@@ -40195,6 +40207,1036 @@
       </c>
       <c r="BP189">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:68">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>7373398</v>
+      </c>
+      <c r="C190" t="s">
+        <v>68</v>
+      </c>
+      <c r="D190" t="s">
+        <v>69</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45507.66666666666</v>
+      </c>
+      <c r="F190">
+        <v>21</v>
+      </c>
+      <c r="G190" t="s">
+        <v>79</v>
+      </c>
+      <c r="H190" t="s">
+        <v>89</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>1</v>
+      </c>
+      <c r="M190">
+        <v>0</v>
+      </c>
+      <c r="N190">
+        <v>1</v>
+      </c>
+      <c r="O190" t="s">
+        <v>111</v>
+      </c>
+      <c r="P190" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q190">
+        <v>3.6</v>
+      </c>
+      <c r="R190">
+        <v>1.83</v>
+      </c>
+      <c r="S190">
+        <v>3.75</v>
+      </c>
+      <c r="T190">
+        <v>1.57</v>
+      </c>
+      <c r="U190">
+        <v>2.25</v>
+      </c>
+      <c r="V190">
+        <v>3.75</v>
+      </c>
+      <c r="W190">
+        <v>1.25</v>
+      </c>
+      <c r="X190">
+        <v>13</v>
+      </c>
+      <c r="Y190">
+        <v>1.04</v>
+      </c>
+      <c r="Z190">
+        <v>2.7</v>
+      </c>
+      <c r="AA190">
+        <v>2.9</v>
+      </c>
+      <c r="AB190">
+        <v>2.9</v>
+      </c>
+      <c r="AC190">
+        <v>1.1</v>
+      </c>
+      <c r="AD190">
+        <v>6.5</v>
+      </c>
+      <c r="AE190">
+        <v>1.5</v>
+      </c>
+      <c r="AF190">
+        <v>2.5</v>
+      </c>
+      <c r="AG190">
+        <v>2.88</v>
+      </c>
+      <c r="AH190">
+        <v>1.4</v>
+      </c>
+      <c r="AI190">
+        <v>2.2</v>
+      </c>
+      <c r="AJ190">
+        <v>1.62</v>
+      </c>
+      <c r="AK190">
+        <v>1.3</v>
+      </c>
+      <c r="AL190">
+        <v>1.3</v>
+      </c>
+      <c r="AM190">
+        <v>1.62</v>
+      </c>
+      <c r="AN190">
+        <v>1</v>
+      </c>
+      <c r="AO190">
+        <v>1.38</v>
+      </c>
+      <c r="AP190">
+        <v>1.18</v>
+      </c>
+      <c r="AQ190">
+        <v>1.22</v>
+      </c>
+      <c r="AR190">
+        <v>1.23</v>
+      </c>
+      <c r="AS190">
+        <v>1.17</v>
+      </c>
+      <c r="AT190">
+        <v>2.4</v>
+      </c>
+      <c r="AU190">
+        <v>4</v>
+      </c>
+      <c r="AV190">
+        <v>3</v>
+      </c>
+      <c r="AW190">
+        <v>8</v>
+      </c>
+      <c r="AX190">
+        <v>4</v>
+      </c>
+      <c r="AY190">
+        <v>12</v>
+      </c>
+      <c r="AZ190">
+        <v>7</v>
+      </c>
+      <c r="BA190">
+        <v>4</v>
+      </c>
+      <c r="BB190">
+        <v>5</v>
+      </c>
+      <c r="BC190">
+        <v>9</v>
+      </c>
+      <c r="BD190">
+        <v>1.65</v>
+      </c>
+      <c r="BE190">
+        <v>6.5</v>
+      </c>
+      <c r="BF190">
+        <v>2.33</v>
+      </c>
+      <c r="BG190">
+        <v>1.3</v>
+      </c>
+      <c r="BH190">
+        <v>3.1</v>
+      </c>
+      <c r="BI190">
+        <v>1.52</v>
+      </c>
+      <c r="BJ190">
+        <v>2.32</v>
+      </c>
+      <c r="BK190">
+        <v>2</v>
+      </c>
+      <c r="BL190">
+        <v>1.9</v>
+      </c>
+      <c r="BM190">
+        <v>2.32</v>
+      </c>
+      <c r="BN190">
+        <v>1.53</v>
+      </c>
+      <c r="BO190">
+        <v>2.95</v>
+      </c>
+      <c r="BP190">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="191" spans="1:68">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>7373402</v>
+      </c>
+      <c r="C191" t="s">
+        <v>68</v>
+      </c>
+      <c r="D191" t="s">
+        <v>69</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45507.79166666666</v>
+      </c>
+      <c r="F191">
+        <v>21</v>
+      </c>
+      <c r="G191" t="s">
+        <v>76</v>
+      </c>
+      <c r="H191" t="s">
+        <v>81</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>1</v>
+      </c>
+      <c r="K191">
+        <v>1</v>
+      </c>
+      <c r="L191">
+        <v>2</v>
+      </c>
+      <c r="M191">
+        <v>2</v>
+      </c>
+      <c r="N191">
+        <v>4</v>
+      </c>
+      <c r="O191" t="s">
+        <v>225</v>
+      </c>
+      <c r="P191" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q191">
+        <v>2.63</v>
+      </c>
+      <c r="R191">
+        <v>2.38</v>
+      </c>
+      <c r="S191">
+        <v>3.5</v>
+      </c>
+      <c r="T191">
+        <v>1.44</v>
+      </c>
+      <c r="U191">
+        <v>2.63</v>
+      </c>
+      <c r="V191">
+        <v>3.25</v>
+      </c>
+      <c r="W191">
+        <v>1.33</v>
+      </c>
+      <c r="X191">
+        <v>10</v>
+      </c>
+      <c r="Y191">
+        <v>1.06</v>
+      </c>
+      <c r="Z191">
+        <v>2.02</v>
+      </c>
+      <c r="AA191">
+        <v>3.25</v>
+      </c>
+      <c r="AB191">
+        <v>3.45</v>
+      </c>
+      <c r="AC191">
+        <v>1.07</v>
+      </c>
+      <c r="AD191">
+        <v>8</v>
+      </c>
+      <c r="AE191">
+        <v>1.38</v>
+      </c>
+      <c r="AF191">
+        <v>3</v>
+      </c>
+      <c r="AG191">
+        <v>2.15</v>
+      </c>
+      <c r="AH191">
+        <v>1.68</v>
+      </c>
+      <c r="AI191">
+        <v>1.5</v>
+      </c>
+      <c r="AJ191">
+        <v>2.5</v>
+      </c>
+      <c r="AK191">
+        <v>1.28</v>
+      </c>
+      <c r="AL191">
+        <v>1.25</v>
+      </c>
+      <c r="AM191">
+        <v>1.7</v>
+      </c>
+      <c r="AN191">
+        <v>1.89</v>
+      </c>
+      <c r="AO191">
+        <v>0.67</v>
+      </c>
+      <c r="AP191">
+        <v>1.8</v>
+      </c>
+      <c r="AQ191">
+        <v>0.7</v>
+      </c>
+      <c r="AR191">
+        <v>1.42</v>
+      </c>
+      <c r="AS191">
+        <v>1.44</v>
+      </c>
+      <c r="AT191">
+        <v>2.86</v>
+      </c>
+      <c r="AU191">
+        <v>4</v>
+      </c>
+      <c r="AV191">
+        <v>4</v>
+      </c>
+      <c r="AW191">
+        <v>4</v>
+      </c>
+      <c r="AX191">
+        <v>3</v>
+      </c>
+      <c r="AY191">
+        <v>8</v>
+      </c>
+      <c r="AZ191">
+        <v>7</v>
+      </c>
+      <c r="BA191">
+        <v>4</v>
+      </c>
+      <c r="BB191">
+        <v>3</v>
+      </c>
+      <c r="BC191">
+        <v>7</v>
+      </c>
+      <c r="BD191">
+        <v>1.77</v>
+      </c>
+      <c r="BE191">
+        <v>6.75</v>
+      </c>
+      <c r="BF191">
+        <v>2.08</v>
+      </c>
+      <c r="BG191">
+        <v>1.21</v>
+      </c>
+      <c r="BH191">
+        <v>3.8</v>
+      </c>
+      <c r="BI191">
+        <v>1.37</v>
+      </c>
+      <c r="BJ191">
+        <v>2.8</v>
+      </c>
+      <c r="BK191">
+        <v>2</v>
+      </c>
+      <c r="BL191">
+        <v>2.15</v>
+      </c>
+      <c r="BM191">
+        <v>1.97</v>
+      </c>
+      <c r="BN191">
+        <v>1.72</v>
+      </c>
+      <c r="BO191">
+        <v>2.48</v>
+      </c>
+      <c r="BP191">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="192" spans="1:68">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>7373411</v>
+      </c>
+      <c r="C192" t="s">
+        <v>68</v>
+      </c>
+      <c r="D192" t="s">
+        <v>69</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45507.83333333334</v>
+      </c>
+      <c r="F192">
+        <v>21</v>
+      </c>
+      <c r="G192" t="s">
+        <v>75</v>
+      </c>
+      <c r="H192" t="s">
+        <v>88</v>
+      </c>
+      <c r="I192">
+        <v>1</v>
+      </c>
+      <c r="J192">
+        <v>1</v>
+      </c>
+      <c r="K192">
+        <v>2</v>
+      </c>
+      <c r="L192">
+        <v>1</v>
+      </c>
+      <c r="M192">
+        <v>4</v>
+      </c>
+      <c r="N192">
+        <v>5</v>
+      </c>
+      <c r="O192" t="s">
+        <v>205</v>
+      </c>
+      <c r="P192" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q192">
+        <v>3.6</v>
+      </c>
+      <c r="R192">
+        <v>2</v>
+      </c>
+      <c r="S192">
+        <v>3.25</v>
+      </c>
+      <c r="T192">
+        <v>1.5</v>
+      </c>
+      <c r="U192">
+        <v>2.5</v>
+      </c>
+      <c r="V192">
+        <v>3.4</v>
+      </c>
+      <c r="W192">
+        <v>1.3</v>
+      </c>
+      <c r="X192">
+        <v>10</v>
+      </c>
+      <c r="Y192">
+        <v>1.06</v>
+      </c>
+      <c r="Z192">
+        <v>3.4</v>
+      </c>
+      <c r="AA192">
+        <v>3.2</v>
+      </c>
+      <c r="AB192">
+        <v>2.05</v>
+      </c>
+      <c r="AC192">
+        <v>1.06</v>
+      </c>
+      <c r="AD192">
+        <v>8.5</v>
+      </c>
+      <c r="AE192">
+        <v>1.4</v>
+      </c>
+      <c r="AF192">
+        <v>2.9</v>
+      </c>
+      <c r="AG192">
+        <v>2.3</v>
+      </c>
+      <c r="AH192">
+        <v>1.6</v>
+      </c>
+      <c r="AI192">
+        <v>1.95</v>
+      </c>
+      <c r="AJ192">
+        <v>1.8</v>
+      </c>
+      <c r="AK192">
+        <v>1.7</v>
+      </c>
+      <c r="AL192">
+        <v>1.25</v>
+      </c>
+      <c r="AM192">
+        <v>1.3</v>
+      </c>
+      <c r="AN192">
+        <v>0.33</v>
+      </c>
+      <c r="AO192">
+        <v>1.8</v>
+      </c>
+      <c r="AP192">
+        <v>0.3</v>
+      </c>
+      <c r="AQ192">
+        <v>1.91</v>
+      </c>
+      <c r="AR192">
+        <v>1.49</v>
+      </c>
+      <c r="AS192">
+        <v>1.15</v>
+      </c>
+      <c r="AT192">
+        <v>2.64</v>
+      </c>
+      <c r="AU192">
+        <v>4</v>
+      </c>
+      <c r="AV192">
+        <v>10</v>
+      </c>
+      <c r="AW192">
+        <v>2</v>
+      </c>
+      <c r="AX192">
+        <v>1</v>
+      </c>
+      <c r="AY192">
+        <v>6</v>
+      </c>
+      <c r="AZ192">
+        <v>11</v>
+      </c>
+      <c r="BA192">
+        <v>3</v>
+      </c>
+      <c r="BB192">
+        <v>7</v>
+      </c>
+      <c r="BC192">
+        <v>10</v>
+      </c>
+      <c r="BD192">
+        <v>1.76</v>
+      </c>
+      <c r="BE192">
+        <v>6.4</v>
+      </c>
+      <c r="BF192">
+        <v>2.15</v>
+      </c>
+      <c r="BG192">
+        <v>1.27</v>
+      </c>
+      <c r="BH192">
+        <v>3.3</v>
+      </c>
+      <c r="BI192">
+        <v>1.47</v>
+      </c>
+      <c r="BJ192">
+        <v>2.43</v>
+      </c>
+      <c r="BK192">
+        <v>2.25</v>
+      </c>
+      <c r="BL192">
+        <v>2</v>
+      </c>
+      <c r="BM192">
+        <v>2.2</v>
+      </c>
+      <c r="BN192">
+        <v>1.58</v>
+      </c>
+      <c r="BO192">
+        <v>2.8</v>
+      </c>
+      <c r="BP192">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="193" spans="1:68">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>7373412</v>
+      </c>
+      <c r="C193" t="s">
+        <v>68</v>
+      </c>
+      <c r="D193" t="s">
+        <v>69</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45507.83333333334</v>
+      </c>
+      <c r="F193">
+        <v>21</v>
+      </c>
+      <c r="G193" t="s">
+        <v>71</v>
+      </c>
+      <c r="H193" t="s">
+        <v>83</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="L193">
+        <v>2</v>
+      </c>
+      <c r="M193">
+        <v>1</v>
+      </c>
+      <c r="N193">
+        <v>3</v>
+      </c>
+      <c r="O193" t="s">
+        <v>226</v>
+      </c>
+      <c r="P193" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q193">
+        <v>4</v>
+      </c>
+      <c r="R193">
+        <v>2.05</v>
+      </c>
+      <c r="S193">
+        <v>2.88</v>
+      </c>
+      <c r="T193">
+        <v>1.44</v>
+      </c>
+      <c r="U193">
+        <v>2.63</v>
+      </c>
+      <c r="V193">
+        <v>3.25</v>
+      </c>
+      <c r="W193">
+        <v>1.33</v>
+      </c>
+      <c r="X193">
+        <v>10</v>
+      </c>
+      <c r="Y193">
+        <v>1.06</v>
+      </c>
+      <c r="Z193">
+        <v>2.88</v>
+      </c>
+      <c r="AA193">
+        <v>3.15</v>
+      </c>
+      <c r="AB193">
+        <v>2.31</v>
+      </c>
+      <c r="AC193">
+        <v>1.06</v>
+      </c>
+      <c r="AD193">
+        <v>8.5</v>
+      </c>
+      <c r="AE193">
+        <v>1.38</v>
+      </c>
+      <c r="AF193">
+        <v>3</v>
+      </c>
+      <c r="AG193">
+        <v>2.35</v>
+      </c>
+      <c r="AH193">
+        <v>1.57</v>
+      </c>
+      <c r="AI193">
+        <v>1.95</v>
+      </c>
+      <c r="AJ193">
+        <v>1.8</v>
+      </c>
+      <c r="AK193">
+        <v>1.57</v>
+      </c>
+      <c r="AL193">
+        <v>1.25</v>
+      </c>
+      <c r="AM193">
+        <v>1.4</v>
+      </c>
+      <c r="AN193">
+        <v>1.22</v>
+      </c>
+      <c r="AO193">
+        <v>1.5</v>
+      </c>
+      <c r="AP193">
+        <v>1.4</v>
+      </c>
+      <c r="AQ193">
+        <v>1.33</v>
+      </c>
+      <c r="AR193">
+        <v>1.53</v>
+      </c>
+      <c r="AS193">
+        <v>1.41</v>
+      </c>
+      <c r="AT193">
+        <v>2.94</v>
+      </c>
+      <c r="AU193">
+        <v>6</v>
+      </c>
+      <c r="AV193">
+        <v>4</v>
+      </c>
+      <c r="AW193">
+        <v>4</v>
+      </c>
+      <c r="AX193">
+        <v>13</v>
+      </c>
+      <c r="AY193">
+        <v>10</v>
+      </c>
+      <c r="AZ193">
+        <v>17</v>
+      </c>
+      <c r="BA193">
+        <v>5</v>
+      </c>
+      <c r="BB193">
+        <v>1</v>
+      </c>
+      <c r="BC193">
+        <v>6</v>
+      </c>
+      <c r="BD193">
+        <v>2.05</v>
+      </c>
+      <c r="BE193">
+        <v>6.5</v>
+      </c>
+      <c r="BF193">
+        <v>1.82</v>
+      </c>
+      <c r="BG193">
+        <v>1.21</v>
+      </c>
+      <c r="BH193">
+        <v>3.7</v>
+      </c>
+      <c r="BI193">
+        <v>1.4</v>
+      </c>
+      <c r="BJ193">
+        <v>2.7</v>
+      </c>
+      <c r="BK193">
+        <v>2.1</v>
+      </c>
+      <c r="BL193">
+        <v>2.08</v>
+      </c>
+      <c r="BM193">
+        <v>2</v>
+      </c>
+      <c r="BN193">
+        <v>1.71</v>
+      </c>
+      <c r="BO193">
+        <v>2.55</v>
+      </c>
+      <c r="BP193">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="194" spans="1:68">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>7373406</v>
+      </c>
+      <c r="C194" t="s">
+        <v>68</v>
+      </c>
+      <c r="D194" t="s">
+        <v>69</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45507.89583333334</v>
+      </c>
+      <c r="F194">
+        <v>21</v>
+      </c>
+      <c r="G194" t="s">
+        <v>73</v>
+      </c>
+      <c r="H194" t="s">
+        <v>87</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+      <c r="L194">
+        <v>1</v>
+      </c>
+      <c r="M194">
+        <v>0</v>
+      </c>
+      <c r="N194">
+        <v>1</v>
+      </c>
+      <c r="O194" t="s">
+        <v>176</v>
+      </c>
+      <c r="P194" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q194">
+        <v>3.2</v>
+      </c>
+      <c r="R194">
+        <v>1.91</v>
+      </c>
+      <c r="S194">
+        <v>4.33</v>
+      </c>
+      <c r="T194">
+        <v>1.5</v>
+      </c>
+      <c r="U194">
+        <v>2.5</v>
+      </c>
+      <c r="V194">
+        <v>3.4</v>
+      </c>
+      <c r="W194">
+        <v>1.3</v>
+      </c>
+      <c r="X194">
+        <v>10</v>
+      </c>
+      <c r="Y194">
+        <v>1.06</v>
+      </c>
+      <c r="Z194">
+        <v>2.57</v>
+      </c>
+      <c r="AA194">
+        <v>3.1</v>
+      </c>
+      <c r="AB194">
+        <v>2.7</v>
+      </c>
+      <c r="AC194">
+        <v>1.08</v>
+      </c>
+      <c r="AD194">
+        <v>8.5</v>
+      </c>
+      <c r="AE194">
+        <v>1.5</v>
+      </c>
+      <c r="AF194">
+        <v>2.4</v>
+      </c>
+      <c r="AG194">
+        <v>2.35</v>
+      </c>
+      <c r="AH194">
+        <v>1.57</v>
+      </c>
+      <c r="AI194">
+        <v>2.2</v>
+      </c>
+      <c r="AJ194">
+        <v>1.62</v>
+      </c>
+      <c r="AK194">
+        <v>1.44</v>
+      </c>
+      <c r="AL194">
+        <v>1.3</v>
+      </c>
+      <c r="AM194">
+        <v>1.5</v>
+      </c>
+      <c r="AN194">
+        <v>2</v>
+      </c>
+      <c r="AO194">
+        <v>2</v>
+      </c>
+      <c r="AP194">
+        <v>2.09</v>
+      </c>
+      <c r="AQ194">
+        <v>1.8</v>
+      </c>
+      <c r="AR194">
+        <v>1.49</v>
+      </c>
+      <c r="AS194">
+        <v>1.61</v>
+      </c>
+      <c r="AT194">
+        <v>3.1</v>
+      </c>
+      <c r="AU194">
+        <v>4</v>
+      </c>
+      <c r="AV194">
+        <v>0</v>
+      </c>
+      <c r="AW194">
+        <v>9</v>
+      </c>
+      <c r="AX194">
+        <v>6</v>
+      </c>
+      <c r="AY194">
+        <v>13</v>
+      </c>
+      <c r="AZ194">
+        <v>6</v>
+      </c>
+      <c r="BA194">
+        <v>8</v>
+      </c>
+      <c r="BB194">
+        <v>3</v>
+      </c>
+      <c r="BC194">
+        <v>11</v>
+      </c>
+      <c r="BD194">
+        <v>1.57</v>
+      </c>
+      <c r="BE194">
+        <v>6.75</v>
+      </c>
+      <c r="BF194">
+        <v>2.43</v>
+      </c>
+      <c r="BG194">
+        <v>1.23</v>
+      </c>
+      <c r="BH194">
+        <v>3.65</v>
+      </c>
+      <c r="BI194">
+        <v>1.41</v>
+      </c>
+      <c r="BJ194">
+        <v>2.65</v>
+      </c>
+      <c r="BK194">
+        <v>2</v>
+      </c>
+      <c r="BL194">
+        <v>2.08</v>
+      </c>
+      <c r="BM194">
+        <v>2</v>
+      </c>
+      <c r="BN194">
+        <v>1.71</v>
+      </c>
+      <c r="BO194">
+        <v>2.55</v>
+      </c>
+      <c r="BP194">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="300">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -697,6 +697,9 @@
     <t>['58', '66']</t>
   </si>
   <si>
+    <t>['31']</t>
+  </si>
+  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -908,6 +911,9 @@
   </si>
   <si>
     <t>['21', '68', '81', '88']</t>
+  </si>
+  <si>
+    <t>['18', '21']</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1275,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP194"/>
+  <dimension ref="A1:BP198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1528,7 +1534,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1606,10 +1612,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1734,7 +1740,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1815,7 +1821,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ3">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1940,7 +1946,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -2018,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ4">
         <v>0.7</v>
@@ -2146,7 +2152,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -2430,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ6">
         <v>1.22</v>
@@ -2558,7 +2564,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2764,7 +2770,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2845,7 +2851,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ8">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3048,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ9">
         <v>1.33</v>
@@ -3176,7 +3182,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3382,7 +3388,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3463,7 +3469,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ11">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4824,7 +4830,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5520,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ21">
         <v>0.6</v>
@@ -6344,7 +6350,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ25">
         <v>1.33</v>
@@ -6472,7 +6478,7 @@
         <v>112</v>
       </c>
       <c r="P26" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6553,7 +6559,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR26">
         <v>1.33</v>
@@ -6884,7 +6890,7 @@
         <v>113</v>
       </c>
       <c r="P28" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6965,7 +6971,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ28">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR28">
         <v>1.4</v>
@@ -7090,7 +7096,7 @@
         <v>97</v>
       </c>
       <c r="P29" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q29">
         <v>3.5</v>
@@ -7296,7 +7302,7 @@
         <v>97</v>
       </c>
       <c r="P30" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7502,7 +7508,7 @@
         <v>97</v>
       </c>
       <c r="P31" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7789,7 +7795,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ32">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR32">
         <v>1.55</v>
@@ -7914,7 +7920,7 @@
         <v>97</v>
       </c>
       <c r="P33" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -8120,7 +8126,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q34">
         <v>2.25</v>
@@ -8404,7 +8410,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ35">
         <v>0.7</v>
@@ -8738,7 +8744,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8944,7 +8950,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -9022,7 +9028,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ38">
         <v>0.82</v>
@@ -9231,7 +9237,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ39">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR39">
         <v>1.75</v>
@@ -9356,7 +9362,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9434,7 +9440,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ40">
         <v>1.33</v>
@@ -9846,7 +9852,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ42">
         <v>1.13</v>
@@ -10052,7 +10058,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ43">
         <v>0.6</v>
@@ -10180,7 +10186,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10386,7 +10392,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10467,7 +10473,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ45">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR45">
         <v>0.52</v>
@@ -10592,7 +10598,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10673,7 +10679,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR46">
         <v>1.46</v>
@@ -11004,7 +11010,7 @@
         <v>97</v>
       </c>
       <c r="P48" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q48">
         <v>3.6</v>
@@ -11416,7 +11422,7 @@
         <v>97</v>
       </c>
       <c r="P50" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q50">
         <v>2.38</v>
@@ -11828,7 +11834,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q52">
         <v>2.38</v>
@@ -12034,7 +12040,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q53">
         <v>2.38</v>
@@ -12240,7 +12246,7 @@
         <v>97</v>
       </c>
       <c r="P54" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -12446,7 +12452,7 @@
         <v>97</v>
       </c>
       <c r="P55" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -12936,10 +12942,10 @@
         <v>0.5</v>
       </c>
       <c r="AP57">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ57">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR57">
         <v>1.86</v>
@@ -13142,7 +13148,7 @@
         <v>1.33</v>
       </c>
       <c r="AP58">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ58">
         <v>1.91</v>
@@ -13270,7 +13276,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q59">
         <v>2.3</v>
@@ -13351,7 +13357,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ59">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR59">
         <v>1.55</v>
@@ -13476,7 +13482,7 @@
         <v>117</v>
       </c>
       <c r="P60" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q60">
         <v>5.5</v>
@@ -13682,7 +13688,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q61">
         <v>4.75</v>
@@ -13763,7 +13769,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ61">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR61">
         <v>0.99</v>
@@ -14712,7 +14718,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14918,7 +14924,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q67">
         <v>3.5</v>
@@ -15536,7 +15542,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15742,7 +15748,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15948,7 +15954,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q72">
         <v>2.1</v>
@@ -16029,7 +16035,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ72">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR72">
         <v>1.61</v>
@@ -16232,7 +16238,7 @@
         <v>2</v>
       </c>
       <c r="AP73">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ73">
         <v>1.2</v>
@@ -16438,7 +16444,7 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ74">
         <v>1.11</v>
@@ -17059,7 +17065,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ77">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR77">
         <v>1.45</v>
@@ -17184,7 +17190,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q78">
         <v>2.63</v>
@@ -17262,7 +17268,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ78">
         <v>0.82</v>
@@ -17390,7 +17396,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -17468,7 +17474,7 @@
         <v>1.75</v>
       </c>
       <c r="AP79">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ79">
         <v>1.2</v>
@@ -17596,7 +17602,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17802,7 +17808,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17880,7 +17886,7 @@
         <v>2</v>
       </c>
       <c r="AP81">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ81">
         <v>1.8</v>
@@ -18420,7 +18426,7 @@
         <v>151</v>
       </c>
       <c r="P84" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -18501,7 +18507,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ84">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR84">
         <v>1.49</v>
@@ -18626,7 +18632,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -18832,7 +18838,7 @@
         <v>97</v>
       </c>
       <c r="P86" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -18913,7 +18919,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ86">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR86">
         <v>1.61</v>
@@ -19244,7 +19250,7 @@
         <v>154</v>
       </c>
       <c r="P88" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q88">
         <v>2.38</v>
@@ -19656,7 +19662,7 @@
         <v>97</v>
       </c>
       <c r="P90" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -19943,7 +19949,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ91">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR91">
         <v>1.34</v>
@@ -20146,7 +20152,7 @@
         <v>0.25</v>
       </c>
       <c r="AP92">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ92">
         <v>0.45</v>
@@ -20480,7 +20486,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20686,7 +20692,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -20767,7 +20773,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ95">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR95">
         <v>1.65</v>
@@ -21304,7 +21310,7 @@
         <v>97</v>
       </c>
       <c r="P98" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q98">
         <v>3.5</v>
@@ -21922,7 +21928,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q101">
         <v>2.63</v>
@@ -22128,7 +22134,7 @@
         <v>97</v>
       </c>
       <c r="P102" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22206,7 +22212,7 @@
         <v>1.8</v>
       </c>
       <c r="AP102">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ102">
         <v>1.8</v>
@@ -22412,7 +22418,7 @@
         <v>0.2</v>
       </c>
       <c r="AP103">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ103">
         <v>0.45</v>
@@ -22746,7 +22752,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q105">
         <v>1.83</v>
@@ -22827,7 +22833,7 @@
         <v>2</v>
       </c>
       <c r="AQ105">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR105">
         <v>1.72</v>
@@ -23364,7 +23370,7 @@
         <v>167</v>
       </c>
       <c r="P108" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23776,7 +23782,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -23857,7 +23863,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ110">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR110">
         <v>1.39</v>
@@ -24060,7 +24066,7 @@
         <v>1.2</v>
       </c>
       <c r="AP111">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ111">
         <v>1.22</v>
@@ -24188,7 +24194,7 @@
         <v>138</v>
       </c>
       <c r="P112" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24266,7 +24272,7 @@
         <v>1.6</v>
       </c>
       <c r="AP112">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ112">
         <v>1.33</v>
@@ -24394,7 +24400,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -24681,7 +24687,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ114">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR114">
         <v>1.34</v>
@@ -24806,7 +24812,7 @@
         <v>97</v>
       </c>
       <c r="P115" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -24884,7 +24890,7 @@
         <v>0.4</v>
       </c>
       <c r="AP115">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ115">
         <v>0.8</v>
@@ -25424,7 +25430,7 @@
         <v>93</v>
       </c>
       <c r="P118" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q118">
         <v>3.6</v>
@@ -26123,7 +26129,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ121">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR121">
         <v>1.32</v>
@@ -26329,7 +26335,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ122">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR122">
         <v>1.52</v>
@@ -27278,7 +27284,7 @@
         <v>133</v>
       </c>
       <c r="P127" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q127">
         <v>3.6</v>
@@ -27896,7 +27902,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q130">
         <v>3.4</v>
@@ -28102,7 +28108,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q131">
         <v>2.5</v>
@@ -28308,7 +28314,7 @@
         <v>134</v>
       </c>
       <c r="P132" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q132">
         <v>3.2</v>
@@ -28386,7 +28392,7 @@
         <v>1.33</v>
       </c>
       <c r="AP132">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ132">
         <v>1.2</v>
@@ -28595,7 +28601,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ133">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR133">
         <v>1.52</v>
@@ -28720,7 +28726,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -28801,7 +28807,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ134">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR134">
         <v>1.45</v>
@@ -28926,7 +28932,7 @@
         <v>187</v>
       </c>
       <c r="P135" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -29004,7 +29010,7 @@
         <v>0.83</v>
       </c>
       <c r="AP135">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ135">
         <v>0.8</v>
@@ -29210,7 +29216,7 @@
         <v>1.67</v>
       </c>
       <c r="AP136">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ136">
         <v>1.33</v>
@@ -29338,7 +29344,7 @@
         <v>189</v>
       </c>
       <c r="P137" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q137">
         <v>2</v>
@@ -29831,7 +29837,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ139">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR139">
         <v>1.44</v>
@@ -30368,7 +30374,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -30446,7 +30452,7 @@
         <v>0</v>
       </c>
       <c r="AP142">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ142">
         <v>0.6</v>
@@ -30574,7 +30580,7 @@
         <v>195</v>
       </c>
       <c r="P143" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q143">
         <v>2.63</v>
@@ -31067,7 +31073,7 @@
         <v>2</v>
       </c>
       <c r="AQ145">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR145">
         <v>1.9</v>
@@ -31398,7 +31404,7 @@
         <v>97</v>
       </c>
       <c r="P147" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31604,7 +31610,7 @@
         <v>176</v>
       </c>
       <c r="P148" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q148">
         <v>2.88</v>
@@ -31682,10 +31688,10 @@
         <v>0.75</v>
       </c>
       <c r="AP148">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ148">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR148">
         <v>1.66</v>
@@ -32222,7 +32228,7 @@
         <v>201</v>
       </c>
       <c r="P151" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q151">
         <v>2.2</v>
@@ -32428,7 +32434,7 @@
         <v>202</v>
       </c>
       <c r="P152" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q152">
         <v>2.63</v>
@@ -32634,7 +32640,7 @@
         <v>203</v>
       </c>
       <c r="P153" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q153">
         <v>3.4</v>
@@ -33046,7 +33052,7 @@
         <v>123</v>
       </c>
       <c r="P155" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q155">
         <v>2.2</v>
@@ -33252,7 +33258,7 @@
         <v>204</v>
       </c>
       <c r="P156" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q156">
         <v>2.6</v>
@@ -33458,7 +33464,7 @@
         <v>205</v>
       </c>
       <c r="P157" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -33742,7 +33748,7 @@
         <v>1.17</v>
       </c>
       <c r="AP158">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ158">
         <v>1.11</v>
@@ -33870,7 +33876,7 @@
         <v>97</v>
       </c>
       <c r="P159" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34157,7 +34163,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ160">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR160">
         <v>1.46</v>
@@ -34282,7 +34288,7 @@
         <v>207</v>
       </c>
       <c r="P161" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q161">
         <v>2.25</v>
@@ -34569,7 +34575,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ162">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR162">
         <v>1.58</v>
@@ -34694,7 +34700,7 @@
         <v>208</v>
       </c>
       <c r="P163" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q163">
         <v>1.95</v>
@@ -36548,7 +36554,7 @@
         <v>97</v>
       </c>
       <c r="P172" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q172">
         <v>3.2</v>
@@ -36835,7 +36841,7 @@
         <v>3</v>
       </c>
       <c r="AQ173">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR173">
         <v>1.59</v>
@@ -37166,7 +37172,7 @@
         <v>215</v>
       </c>
       <c r="P175" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q175">
         <v>3.1</v>
@@ -37372,7 +37378,7 @@
         <v>216</v>
       </c>
       <c r="P176" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q176">
         <v>5</v>
@@ -37656,10 +37662,10 @@
         <v>1.75</v>
       </c>
       <c r="AP177">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ177">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR177">
         <v>1.44</v>
@@ -37784,7 +37790,7 @@
         <v>189</v>
       </c>
       <c r="P178" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q178">
         <v>3.5</v>
@@ -37865,7 +37871,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ178">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR178">
         <v>1.48</v>
@@ -37990,7 +37996,7 @@
         <v>218</v>
       </c>
       <c r="P179" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q179">
         <v>2.88</v>
@@ -38068,10 +38074,10 @@
         <v>0.14</v>
       </c>
       <c r="AP179">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ179">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR179">
         <v>1.71</v>
@@ -38196,7 +38202,7 @@
         <v>189</v>
       </c>
       <c r="P180" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q180">
         <v>3</v>
@@ -38402,7 +38408,7 @@
         <v>97</v>
       </c>
       <c r="P181" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q181">
         <v>1.91</v>
@@ -38608,7 +38614,7 @@
         <v>219</v>
       </c>
       <c r="P182" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q182">
         <v>2.75</v>
@@ -38814,7 +38820,7 @@
         <v>97</v>
       </c>
       <c r="P183" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q183">
         <v>2.63</v>
@@ -39844,7 +39850,7 @@
         <v>223</v>
       </c>
       <c r="P188" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q188">
         <v>3.4</v>
@@ -40462,7 +40468,7 @@
         <v>225</v>
       </c>
       <c r="P191" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q191">
         <v>2.63</v>
@@ -40668,7 +40674,7 @@
         <v>205</v>
       </c>
       <c r="P192" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q192">
         <v>3.6</v>
@@ -40874,7 +40880,7 @@
         <v>226</v>
       </c>
       <c r="P193" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -41237,6 +41243,830 @@
       </c>
       <c r="BP194">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="195" spans="1:68">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>7373404</v>
+      </c>
+      <c r="C195" t="s">
+        <v>68</v>
+      </c>
+      <c r="D195" t="s">
+        <v>69</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45508.66666666666</v>
+      </c>
+      <c r="F195">
+        <v>21</v>
+      </c>
+      <c r="G195" t="s">
+        <v>77</v>
+      </c>
+      <c r="H195" t="s">
+        <v>84</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>1</v>
+      </c>
+      <c r="K195">
+        <v>1</v>
+      </c>
+      <c r="L195">
+        <v>1</v>
+      </c>
+      <c r="M195">
+        <v>1</v>
+      </c>
+      <c r="N195">
+        <v>2</v>
+      </c>
+      <c r="O195" t="s">
+        <v>195</v>
+      </c>
+      <c r="P195" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q195">
+        <v>2.4</v>
+      </c>
+      <c r="R195">
+        <v>2.1</v>
+      </c>
+      <c r="S195">
+        <v>5.5</v>
+      </c>
+      <c r="T195">
+        <v>1.44</v>
+      </c>
+      <c r="U195">
+        <v>2.63</v>
+      </c>
+      <c r="V195">
+        <v>3.25</v>
+      </c>
+      <c r="W195">
+        <v>1.33</v>
+      </c>
+      <c r="X195">
+        <v>10</v>
+      </c>
+      <c r="Y195">
+        <v>1.06</v>
+      </c>
+      <c r="Z195">
+        <v>1.73</v>
+      </c>
+      <c r="AA195">
+        <v>3.4</v>
+      </c>
+      <c r="AB195">
+        <v>4.75</v>
+      </c>
+      <c r="AC195">
+        <v>1.06</v>
+      </c>
+      <c r="AD195">
+        <v>9.5</v>
+      </c>
+      <c r="AE195">
+        <v>1.38</v>
+      </c>
+      <c r="AF195">
+        <v>3</v>
+      </c>
+      <c r="AG195">
+        <v>2.2</v>
+      </c>
+      <c r="AH195">
+        <v>1.65</v>
+      </c>
+      <c r="AI195">
+        <v>2.05</v>
+      </c>
+      <c r="AJ195">
+        <v>1.7</v>
+      </c>
+      <c r="AK195">
+        <v>1.16</v>
+      </c>
+      <c r="AL195">
+        <v>1.22</v>
+      </c>
+      <c r="AM195">
+        <v>2.2</v>
+      </c>
+      <c r="AN195">
+        <v>1.56</v>
+      </c>
+      <c r="AO195">
+        <v>0.25</v>
+      </c>
+      <c r="AP195">
+        <v>1.5</v>
+      </c>
+      <c r="AQ195">
+        <v>0.33</v>
+      </c>
+      <c r="AR195">
+        <v>1.69</v>
+      </c>
+      <c r="AS195">
+        <v>1.24</v>
+      </c>
+      <c r="AT195">
+        <v>2.93</v>
+      </c>
+      <c r="AU195">
+        <v>11</v>
+      </c>
+      <c r="AV195">
+        <v>4</v>
+      </c>
+      <c r="AW195">
+        <v>14</v>
+      </c>
+      <c r="AX195">
+        <v>1</v>
+      </c>
+      <c r="AY195">
+        <v>25</v>
+      </c>
+      <c r="AZ195">
+        <v>5</v>
+      </c>
+      <c r="BA195">
+        <v>11</v>
+      </c>
+      <c r="BB195">
+        <v>3</v>
+      </c>
+      <c r="BC195">
+        <v>14</v>
+      </c>
+      <c r="BD195">
+        <v>1.41</v>
+      </c>
+      <c r="BE195">
+        <v>7</v>
+      </c>
+      <c r="BF195">
+        <v>2.95</v>
+      </c>
+      <c r="BG195">
+        <v>1.25</v>
+      </c>
+      <c r="BH195">
+        <v>3.45</v>
+      </c>
+      <c r="BI195">
+        <v>1.44</v>
+      </c>
+      <c r="BJ195">
+        <v>2.55</v>
+      </c>
+      <c r="BK195">
+        <v>2</v>
+      </c>
+      <c r="BL195">
+        <v>1.97</v>
+      </c>
+      <c r="BM195">
+        <v>2.15</v>
+      </c>
+      <c r="BN195">
+        <v>1.61</v>
+      </c>
+      <c r="BO195">
+        <v>2.7</v>
+      </c>
+      <c r="BP195">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:68">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>7373408</v>
+      </c>
+      <c r="C196" t="s">
+        <v>68</v>
+      </c>
+      <c r="D196" t="s">
+        <v>69</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45508.66666666666</v>
+      </c>
+      <c r="F196">
+        <v>21</v>
+      </c>
+      <c r="G196" t="s">
+        <v>74</v>
+      </c>
+      <c r="H196" t="s">
+        <v>82</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>2</v>
+      </c>
+      <c r="K196">
+        <v>2</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+      <c r="M196">
+        <v>2</v>
+      </c>
+      <c r="N196">
+        <v>2</v>
+      </c>
+      <c r="O196" t="s">
+        <v>97</v>
+      </c>
+      <c r="P196" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q196">
+        <v>2.4</v>
+      </c>
+      <c r="R196">
+        <v>2.1</v>
+      </c>
+      <c r="S196">
+        <v>5.5</v>
+      </c>
+      <c r="T196">
+        <v>1.44</v>
+      </c>
+      <c r="U196">
+        <v>2.63</v>
+      </c>
+      <c r="V196">
+        <v>3.25</v>
+      </c>
+      <c r="W196">
+        <v>1.33</v>
+      </c>
+      <c r="X196">
+        <v>10</v>
+      </c>
+      <c r="Y196">
+        <v>1.06</v>
+      </c>
+      <c r="Z196">
+        <v>1.73</v>
+      </c>
+      <c r="AA196">
+        <v>3.75</v>
+      </c>
+      <c r="AB196">
+        <v>4.5</v>
+      </c>
+      <c r="AC196">
+        <v>1.06</v>
+      </c>
+      <c r="AD196">
+        <v>9</v>
+      </c>
+      <c r="AE196">
+        <v>1.38</v>
+      </c>
+      <c r="AF196">
+        <v>3</v>
+      </c>
+      <c r="AG196">
+        <v>2.1</v>
+      </c>
+      <c r="AH196">
+        <v>1.7</v>
+      </c>
+      <c r="AI196">
+        <v>2</v>
+      </c>
+      <c r="AJ196">
+        <v>1.75</v>
+      </c>
+      <c r="AK196">
+        <v>1.22</v>
+      </c>
+      <c r="AL196">
+        <v>1.25</v>
+      </c>
+      <c r="AM196">
+        <v>1.9</v>
+      </c>
+      <c r="AN196">
+        <v>1.75</v>
+      </c>
+      <c r="AO196">
+        <v>0.25</v>
+      </c>
+      <c r="AP196">
+        <v>1.56</v>
+      </c>
+      <c r="AQ196">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR196">
+        <v>1.75</v>
+      </c>
+      <c r="AS196">
+        <v>1.25</v>
+      </c>
+      <c r="AT196">
+        <v>3</v>
+      </c>
+      <c r="AU196">
+        <v>4</v>
+      </c>
+      <c r="AV196">
+        <v>8</v>
+      </c>
+      <c r="AW196">
+        <v>10</v>
+      </c>
+      <c r="AX196">
+        <v>0</v>
+      </c>
+      <c r="AY196">
+        <v>14</v>
+      </c>
+      <c r="AZ196">
+        <v>8</v>
+      </c>
+      <c r="BA196">
+        <v>9</v>
+      </c>
+      <c r="BB196">
+        <v>0</v>
+      </c>
+      <c r="BC196">
+        <v>9</v>
+      </c>
+      <c r="BD196">
+        <v>1.39</v>
+      </c>
+      <c r="BE196">
+        <v>11</v>
+      </c>
+      <c r="BF196">
+        <v>3.89</v>
+      </c>
+      <c r="BG196">
+        <v>1.13</v>
+      </c>
+      <c r="BH196">
+        <v>5</v>
+      </c>
+      <c r="BI196">
+        <v>1.28</v>
+      </c>
+      <c r="BJ196">
+        <v>3.25</v>
+      </c>
+      <c r="BK196">
+        <v>1.83</v>
+      </c>
+      <c r="BL196">
+        <v>2.35</v>
+      </c>
+      <c r="BM196">
+        <v>1.92</v>
+      </c>
+      <c r="BN196">
+        <v>1.88</v>
+      </c>
+      <c r="BO196">
+        <v>2.35</v>
+      </c>
+      <c r="BP196">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:68">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>7373400</v>
+      </c>
+      <c r="C197" t="s">
+        <v>68</v>
+      </c>
+      <c r="D197" t="s">
+        <v>69</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45508.66666666666</v>
+      </c>
+      <c r="F197">
+        <v>21</v>
+      </c>
+      <c r="G197" t="s">
+        <v>72</v>
+      </c>
+      <c r="H197" t="s">
+        <v>80</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>1</v>
+      </c>
+      <c r="L197">
+        <v>1</v>
+      </c>
+      <c r="M197">
+        <v>0</v>
+      </c>
+      <c r="N197">
+        <v>1</v>
+      </c>
+      <c r="O197" t="s">
+        <v>133</v>
+      </c>
+      <c r="P197" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q197">
+        <v>2.88</v>
+      </c>
+      <c r="R197">
+        <v>2.05</v>
+      </c>
+      <c r="S197">
+        <v>4</v>
+      </c>
+      <c r="T197">
+        <v>1.4</v>
+      </c>
+      <c r="U197">
+        <v>2.75</v>
+      </c>
+      <c r="V197">
+        <v>3</v>
+      </c>
+      <c r="W197">
+        <v>1.36</v>
+      </c>
+      <c r="X197">
+        <v>8</v>
+      </c>
+      <c r="Y197">
+        <v>1.08</v>
+      </c>
+      <c r="Z197">
+        <v>2.1</v>
+      </c>
+      <c r="AA197">
+        <v>3.25</v>
+      </c>
+      <c r="AB197">
+        <v>3.7</v>
+      </c>
+      <c r="AC197">
+        <v>1.05</v>
+      </c>
+      <c r="AD197">
+        <v>10</v>
+      </c>
+      <c r="AE197">
+        <v>1.33</v>
+      </c>
+      <c r="AF197">
+        <v>3.25</v>
+      </c>
+      <c r="AG197">
+        <v>2.2</v>
+      </c>
+      <c r="AH197">
+        <v>1.65</v>
+      </c>
+      <c r="AI197">
+        <v>1.95</v>
+      </c>
+      <c r="AJ197">
+        <v>1.8</v>
+      </c>
+      <c r="AK197">
+        <v>1.3</v>
+      </c>
+      <c r="AL197">
+        <v>1.25</v>
+      </c>
+      <c r="AM197">
+        <v>1.78</v>
+      </c>
+      <c r="AN197">
+        <v>1.11</v>
+      </c>
+      <c r="AO197">
+        <v>1</v>
+      </c>
+      <c r="AP197">
+        <v>1.3</v>
+      </c>
+      <c r="AQ197">
+        <v>0.91</v>
+      </c>
+      <c r="AR197">
+        <v>1.4</v>
+      </c>
+      <c r="AS197">
+        <v>1.29</v>
+      </c>
+      <c r="AT197">
+        <v>2.69</v>
+      </c>
+      <c r="AU197">
+        <v>7</v>
+      </c>
+      <c r="AV197">
+        <v>4</v>
+      </c>
+      <c r="AW197">
+        <v>5</v>
+      </c>
+      <c r="AX197">
+        <v>6</v>
+      </c>
+      <c r="AY197">
+        <v>12</v>
+      </c>
+      <c r="AZ197">
+        <v>10</v>
+      </c>
+      <c r="BA197">
+        <v>3</v>
+      </c>
+      <c r="BB197">
+        <v>3</v>
+      </c>
+      <c r="BC197">
+        <v>6</v>
+      </c>
+      <c r="BD197">
+        <v>1.65</v>
+      </c>
+      <c r="BE197">
+        <v>6.4</v>
+      </c>
+      <c r="BF197">
+        <v>2.33</v>
+      </c>
+      <c r="BG197">
+        <v>1.25</v>
+      </c>
+      <c r="BH197">
+        <v>3.45</v>
+      </c>
+      <c r="BI197">
+        <v>1.44</v>
+      </c>
+      <c r="BJ197">
+        <v>2.55</v>
+      </c>
+      <c r="BK197">
+        <v>2.2</v>
+      </c>
+      <c r="BL197">
+        <v>1.98</v>
+      </c>
+      <c r="BM197">
+        <v>2.12</v>
+      </c>
+      <c r="BN197">
+        <v>1.63</v>
+      </c>
+      <c r="BO197">
+        <v>2.7</v>
+      </c>
+      <c r="BP197">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:68">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>7373394</v>
+      </c>
+      <c r="C198" t="s">
+        <v>68</v>
+      </c>
+      <c r="D198" t="s">
+        <v>69</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45508.70833333334</v>
+      </c>
+      <c r="F198">
+        <v>21</v>
+      </c>
+      <c r="G198" t="s">
+        <v>70</v>
+      </c>
+      <c r="H198" t="s">
+        <v>85</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>1</v>
+      </c>
+      <c r="L198">
+        <v>1</v>
+      </c>
+      <c r="M198">
+        <v>1</v>
+      </c>
+      <c r="N198">
+        <v>2</v>
+      </c>
+      <c r="O198" t="s">
+        <v>227</v>
+      </c>
+      <c r="P198" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q198">
+        <v>3.25</v>
+      </c>
+      <c r="R198">
+        <v>1.91</v>
+      </c>
+      <c r="S198">
+        <v>4</v>
+      </c>
+      <c r="T198">
+        <v>1.5</v>
+      </c>
+      <c r="U198">
+        <v>2.5</v>
+      </c>
+      <c r="V198">
+        <v>3.5</v>
+      </c>
+      <c r="W198">
+        <v>1.29</v>
+      </c>
+      <c r="X198">
+        <v>11</v>
+      </c>
+      <c r="Y198">
+        <v>1.05</v>
+      </c>
+      <c r="Z198">
+        <v>2.35</v>
+      </c>
+      <c r="AA198">
+        <v>3.2</v>
+      </c>
+      <c r="AB198">
+        <v>3.1</v>
+      </c>
+      <c r="AC198">
+        <v>1.08</v>
+      </c>
+      <c r="AD198">
+        <v>8.5</v>
+      </c>
+      <c r="AE198">
+        <v>1.44</v>
+      </c>
+      <c r="AF198">
+        <v>2.8</v>
+      </c>
+      <c r="AG198">
+        <v>2.5</v>
+      </c>
+      <c r="AH198">
+        <v>1.5</v>
+      </c>
+      <c r="AI198">
+        <v>2.1</v>
+      </c>
+      <c r="AJ198">
+        <v>1.67</v>
+      </c>
+      <c r="AK198">
+        <v>1.44</v>
+      </c>
+      <c r="AL198">
+        <v>1.28</v>
+      </c>
+      <c r="AM198">
+        <v>1.53</v>
+      </c>
+      <c r="AN198">
+        <v>1.33</v>
+      </c>
+      <c r="AO198">
+        <v>1.56</v>
+      </c>
+      <c r="AP198">
+        <v>1.29</v>
+      </c>
+      <c r="AQ198">
+        <v>1.5</v>
+      </c>
+      <c r="AR198">
+        <v>1.62</v>
+      </c>
+      <c r="AS198">
+        <v>1.56</v>
+      </c>
+      <c r="AT198">
+        <v>3.18</v>
+      </c>
+      <c r="AU198">
+        <v>8</v>
+      </c>
+      <c r="AV198">
+        <v>6</v>
+      </c>
+      <c r="AW198">
+        <v>3</v>
+      </c>
+      <c r="AX198">
+        <v>6</v>
+      </c>
+      <c r="AY198">
+        <v>11</v>
+      </c>
+      <c r="AZ198">
+        <v>12</v>
+      </c>
+      <c r="BA198">
+        <v>4</v>
+      </c>
+      <c r="BB198">
+        <v>11</v>
+      </c>
+      <c r="BC198">
+        <v>15</v>
+      </c>
+      <c r="BD198">
+        <v>1.9</v>
+      </c>
+      <c r="BE198">
+        <v>6.5</v>
+      </c>
+      <c r="BF198">
+        <v>1.97</v>
+      </c>
+      <c r="BG198">
+        <v>1.28</v>
+      </c>
+      <c r="BH198">
+        <v>3.3</v>
+      </c>
+      <c r="BI198">
+        <v>1.48</v>
+      </c>
+      <c r="BJ198">
+        <v>2.43</v>
+      </c>
+      <c r="BK198">
+        <v>2.1</v>
+      </c>
+      <c r="BL198">
+        <v>1.91</v>
+      </c>
+      <c r="BM198">
+        <v>2.2</v>
+      </c>
+      <c r="BN198">
+        <v>1.57</v>
+      </c>
+      <c r="BO198">
+        <v>2.8</v>
+      </c>
+      <c r="BP198">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="302">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -700,6 +700,9 @@
     <t>['31']</t>
   </si>
   <si>
+    <t>['15']</t>
+  </si>
+  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -914,6 +917,9 @@
   </si>
   <si>
     <t>['18', '21']</t>
+  </si>
+  <si>
+    <t>['9', '42']</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1281,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP198"/>
+  <dimension ref="A1:BP199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1534,7 +1540,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1740,7 +1746,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1946,7 +1952,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -2152,7 +2158,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -2233,7 +2239,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ5">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2564,7 +2570,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2770,7 +2776,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3182,7 +3188,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3260,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ10">
         <v>1.91</v>
@@ -3388,7 +3394,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -4830,7 +4836,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -6478,7 +6484,7 @@
         <v>112</v>
       </c>
       <c r="P26" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6890,7 +6896,7 @@
         <v>113</v>
       </c>
       <c r="P28" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -7096,7 +7102,7 @@
         <v>97</v>
       </c>
       <c r="P29" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q29">
         <v>3.5</v>
@@ -7302,7 +7308,7 @@
         <v>97</v>
       </c>
       <c r="P30" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7508,7 +7514,7 @@
         <v>97</v>
       </c>
       <c r="P31" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7920,7 +7926,7 @@
         <v>97</v>
       </c>
       <c r="P33" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -8126,7 +8132,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q34">
         <v>2.25</v>
@@ -8204,7 +8210,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ34">
         <v>0.8</v>
@@ -8744,7 +8750,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8950,7 +8956,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -9362,7 +9368,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9855,7 +9861,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ42">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR42">
         <v>1.3</v>
@@ -10186,7 +10192,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10392,7 +10398,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10598,7 +10604,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -11010,7 +11016,7 @@
         <v>97</v>
       </c>
       <c r="P48" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q48">
         <v>3.6</v>
@@ -11422,7 +11428,7 @@
         <v>97</v>
       </c>
       <c r="P50" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q50">
         <v>2.38</v>
@@ -11834,7 +11840,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q52">
         <v>2.38</v>
@@ -12040,7 +12046,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q53">
         <v>2.38</v>
@@ -12246,7 +12252,7 @@
         <v>97</v>
       </c>
       <c r="P54" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -12452,7 +12458,7 @@
         <v>97</v>
       </c>
       <c r="P55" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -13276,7 +13282,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q59">
         <v>2.3</v>
@@ -13482,7 +13488,7 @@
         <v>117</v>
       </c>
       <c r="P60" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q60">
         <v>5.5</v>
@@ -13688,7 +13694,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q61">
         <v>4.75</v>
@@ -14718,7 +14724,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14924,7 +14930,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q67">
         <v>3.5</v>
@@ -15542,7 +15548,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15748,7 +15754,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15826,7 +15832,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ71">
         <v>1.22</v>
@@ -15954,7 +15960,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q72">
         <v>2.1</v>
@@ -16653,7 +16659,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ75">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR75">
         <v>1.32</v>
@@ -17190,7 +17196,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q78">
         <v>2.63</v>
@@ -17396,7 +17402,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -17602,7 +17608,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17808,7 +17814,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -18095,7 +18101,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ82">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR82">
         <v>0.8</v>
@@ -18426,7 +18432,7 @@
         <v>151</v>
       </c>
       <c r="P84" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -18632,7 +18638,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -18838,7 +18844,7 @@
         <v>97</v>
       </c>
       <c r="P86" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -19250,7 +19256,7 @@
         <v>154</v>
       </c>
       <c r="P88" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q88">
         <v>2.38</v>
@@ -19662,7 +19668,7 @@
         <v>97</v>
       </c>
       <c r="P90" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -20358,7 +20364,7 @@
         <v>0</v>
       </c>
       <c r="AP93">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ93">
         <v>0.7</v>
@@ -20486,7 +20492,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20692,7 +20698,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -21310,7 +21316,7 @@
         <v>97</v>
       </c>
       <c r="P98" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q98">
         <v>3.5</v>
@@ -21928,7 +21934,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q101">
         <v>2.63</v>
@@ -22134,7 +22140,7 @@
         <v>97</v>
       </c>
       <c r="P102" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22627,7 +22633,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ104">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR104">
         <v>1.47</v>
@@ -22752,7 +22758,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q105">
         <v>1.83</v>
@@ -23242,7 +23248,7 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ107">
         <v>1.4</v>
@@ -23370,7 +23376,7 @@
         <v>167</v>
       </c>
       <c r="P108" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23782,7 +23788,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -24194,7 +24200,7 @@
         <v>138</v>
       </c>
       <c r="P112" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24400,7 +24406,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -24812,7 +24818,7 @@
         <v>97</v>
       </c>
       <c r="P115" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -25430,7 +25436,7 @@
         <v>93</v>
       </c>
       <c r="P118" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q118">
         <v>3.6</v>
@@ -27284,7 +27290,7 @@
         <v>133</v>
       </c>
       <c r="P127" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q127">
         <v>3.6</v>
@@ -27777,7 +27783,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ129">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR129">
         <v>1.35</v>
@@ -27902,7 +27908,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q130">
         <v>3.4</v>
@@ -28108,7 +28114,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q131">
         <v>2.5</v>
@@ -28314,7 +28320,7 @@
         <v>134</v>
       </c>
       <c r="P132" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q132">
         <v>3.2</v>
@@ -28726,7 +28732,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -28932,7 +28938,7 @@
         <v>187</v>
       </c>
       <c r="P135" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -29344,7 +29350,7 @@
         <v>189</v>
       </c>
       <c r="P137" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q137">
         <v>2</v>
@@ -30040,7 +30046,7 @@
         <v>0.29</v>
       </c>
       <c r="AP140">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ140">
         <v>0.45</v>
@@ -30374,7 +30380,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -30580,7 +30586,7 @@
         <v>195</v>
       </c>
       <c r="P143" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q143">
         <v>2.63</v>
@@ -31404,7 +31410,7 @@
         <v>97</v>
       </c>
       <c r="P147" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31610,7 +31616,7 @@
         <v>176</v>
       </c>
       <c r="P148" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q148">
         <v>2.88</v>
@@ -32228,7 +32234,7 @@
         <v>201</v>
       </c>
       <c r="P151" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q151">
         <v>2.2</v>
@@ -32309,7 +32315,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ151">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR151">
         <v>1.6</v>
@@ -32434,7 +32440,7 @@
         <v>202</v>
       </c>
       <c r="P152" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q152">
         <v>2.63</v>
@@ -32640,7 +32646,7 @@
         <v>203</v>
       </c>
       <c r="P153" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q153">
         <v>3.4</v>
@@ -33052,7 +33058,7 @@
         <v>123</v>
       </c>
       <c r="P155" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q155">
         <v>2.2</v>
@@ -33258,7 +33264,7 @@
         <v>204</v>
       </c>
       <c r="P156" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q156">
         <v>2.6</v>
@@ -33336,7 +33342,7 @@
         <v>0.75</v>
       </c>
       <c r="AP156">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ156">
         <v>0.7</v>
@@ -33464,7 +33470,7 @@
         <v>205</v>
       </c>
       <c r="P157" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -33876,7 +33882,7 @@
         <v>97</v>
       </c>
       <c r="P159" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34288,7 +34294,7 @@
         <v>207</v>
       </c>
       <c r="P161" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q161">
         <v>2.25</v>
@@ -34700,7 +34706,7 @@
         <v>208</v>
       </c>
       <c r="P163" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q163">
         <v>1.95</v>
@@ -36554,7 +36560,7 @@
         <v>97</v>
       </c>
       <c r="P172" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q172">
         <v>3.2</v>
@@ -36838,7 +36844,7 @@
         <v>0.29</v>
       </c>
       <c r="AP173">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ173">
         <v>0.33</v>
@@ -37047,7 +37053,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ174">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR174">
         <v>1.5</v>
@@ -37172,7 +37178,7 @@
         <v>215</v>
       </c>
       <c r="P175" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q175">
         <v>3.1</v>
@@ -37378,7 +37384,7 @@
         <v>216</v>
       </c>
       <c r="P176" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q176">
         <v>5</v>
@@ -37790,7 +37796,7 @@
         <v>189</v>
       </c>
       <c r="P178" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q178">
         <v>3.5</v>
@@ -37996,7 +38002,7 @@
         <v>218</v>
       </c>
       <c r="P179" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q179">
         <v>2.88</v>
@@ -38202,7 +38208,7 @@
         <v>189</v>
       </c>
       <c r="P180" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q180">
         <v>3</v>
@@ -38408,7 +38414,7 @@
         <v>97</v>
       </c>
       <c r="P181" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q181">
         <v>1.91</v>
@@ -38614,7 +38620,7 @@
         <v>219</v>
       </c>
       <c r="P182" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q182">
         <v>2.75</v>
@@ -38820,7 +38826,7 @@
         <v>97</v>
       </c>
       <c r="P183" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q183">
         <v>2.63</v>
@@ -39850,7 +39856,7 @@
         <v>223</v>
       </c>
       <c r="P188" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q188">
         <v>3.4</v>
@@ -40468,7 +40474,7 @@
         <v>225</v>
       </c>
       <c r="P191" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q191">
         <v>2.63</v>
@@ -40674,7 +40680,7 @@
         <v>205</v>
       </c>
       <c r="P192" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q192">
         <v>3.6</v>
@@ -40880,7 +40886,7 @@
         <v>226</v>
       </c>
       <c r="P193" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -41498,7 +41504,7 @@
         <v>97</v>
       </c>
       <c r="P196" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q196">
         <v>2.4</v>
@@ -41910,7 +41916,7 @@
         <v>227</v>
       </c>
       <c r="P198" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q198">
         <v>3.25</v>
@@ -42067,6 +42073,212 @@
       </c>
       <c r="BP198">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="199" spans="1:68">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>7373396</v>
+      </c>
+      <c r="C199" t="s">
+        <v>68</v>
+      </c>
+      <c r="D199" t="s">
+        <v>69</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45509.875</v>
+      </c>
+      <c r="F199">
+        <v>21</v>
+      </c>
+      <c r="G199" t="s">
+        <v>78</v>
+      </c>
+      <c r="H199" t="s">
+        <v>86</v>
+      </c>
+      <c r="I199">
+        <v>1</v>
+      </c>
+      <c r="J199">
+        <v>2</v>
+      </c>
+      <c r="K199">
+        <v>3</v>
+      </c>
+      <c r="L199">
+        <v>1</v>
+      </c>
+      <c r="M199">
+        <v>2</v>
+      </c>
+      <c r="N199">
+        <v>3</v>
+      </c>
+      <c r="O199" t="s">
+        <v>228</v>
+      </c>
+      <c r="P199" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q199">
+        <v>2.6</v>
+      </c>
+      <c r="R199">
+        <v>2.05</v>
+      </c>
+      <c r="S199">
+        <v>5</v>
+      </c>
+      <c r="T199">
+        <v>1.5</v>
+      </c>
+      <c r="U199">
+        <v>2.5</v>
+      </c>
+      <c r="V199">
+        <v>3.4</v>
+      </c>
+      <c r="W199">
+        <v>1.3</v>
+      </c>
+      <c r="X199">
+        <v>10</v>
+      </c>
+      <c r="Y199">
+        <v>1.06</v>
+      </c>
+      <c r="Z199">
+        <v>1.83</v>
+      </c>
+      <c r="AA199">
+        <v>3.5</v>
+      </c>
+      <c r="AB199">
+        <v>4.5</v>
+      </c>
+      <c r="AC199">
+        <v>1.05</v>
+      </c>
+      <c r="AD199">
+        <v>8.6</v>
+      </c>
+      <c r="AE199">
+        <v>1.44</v>
+      </c>
+      <c r="AF199">
+        <v>2.8</v>
+      </c>
+      <c r="AG199">
+        <v>2.25</v>
+      </c>
+      <c r="AH199">
+        <v>1.62</v>
+      </c>
+      <c r="AI199">
+        <v>2.05</v>
+      </c>
+      <c r="AJ199">
+        <v>1.7</v>
+      </c>
+      <c r="AK199">
+        <v>1.25</v>
+      </c>
+      <c r="AL199">
+        <v>1.28</v>
+      </c>
+      <c r="AM199">
+        <v>1.85</v>
+      </c>
+      <c r="AN199">
+        <v>3</v>
+      </c>
+      <c r="AO199">
+        <v>1.13</v>
+      </c>
+      <c r="AP199">
+        <v>2.67</v>
+      </c>
+      <c r="AQ199">
+        <v>1.33</v>
+      </c>
+      <c r="AR199">
+        <v>1.56</v>
+      </c>
+      <c r="AS199">
+        <v>1.09</v>
+      </c>
+      <c r="AT199">
+        <v>2.65</v>
+      </c>
+      <c r="AU199">
+        <v>8</v>
+      </c>
+      <c r="AV199">
+        <v>5</v>
+      </c>
+      <c r="AW199">
+        <v>5</v>
+      </c>
+      <c r="AX199">
+        <v>3</v>
+      </c>
+      <c r="AY199">
+        <v>13</v>
+      </c>
+      <c r="AZ199">
+        <v>8</v>
+      </c>
+      <c r="BA199">
+        <v>5</v>
+      </c>
+      <c r="BB199">
+        <v>1</v>
+      </c>
+      <c r="BC199">
+        <v>6</v>
+      </c>
+      <c r="BD199">
+        <v>1.48</v>
+      </c>
+      <c r="BE199">
+        <v>9.9</v>
+      </c>
+      <c r="BF199">
+        <v>3.4</v>
+      </c>
+      <c r="BG199">
+        <v>1.11</v>
+      </c>
+      <c r="BH199">
+        <v>5.1</v>
+      </c>
+      <c r="BI199">
+        <v>1.25</v>
+      </c>
+      <c r="BJ199">
+        <v>3.42</v>
+      </c>
+      <c r="BK199">
+        <v>1.83</v>
+      </c>
+      <c r="BL199">
+        <v>2.49</v>
+      </c>
+      <c r="BM199">
+        <v>1.85</v>
+      </c>
+      <c r="BN199">
+        <v>1.85</v>
+      </c>
+      <c r="BO199">
+        <v>2.27</v>
+      </c>
+      <c r="BP199">
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="306">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -703,6 +703,18 @@
     <t>['15']</t>
   </si>
   <si>
+    <t>['47']</t>
+  </si>
+  <si>
+    <t>['52']</t>
+  </si>
+  <si>
+    <t>['90+4']</t>
+  </si>
+  <si>
+    <t>['23', '65']</t>
+  </si>
+  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -746,9 +758,6 @@
   </si>
   <si>
     <t>['53', '90+3']</t>
-  </si>
-  <si>
-    <t>['52']</t>
   </si>
   <si>
     <t>['73']</t>
@@ -920,6 +929,9 @@
   </si>
   <si>
     <t>['9', '42']</t>
+  </si>
+  <si>
+    <t>['24', '64', '86']</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1293,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP199"/>
+  <dimension ref="A1:BP204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1540,7 +1552,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1746,7 +1758,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1952,7 +1964,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -2033,7 +2045,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ4">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2158,7 +2170,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -2570,7 +2582,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2776,7 +2788,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2854,10 +2866,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ8">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3060,10 +3072,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ9">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3188,7 +3200,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3266,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AQ10">
         <v>1.91</v>
@@ -3394,7 +3406,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3681,7 +3693,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ12">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4299,7 +4311,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ15">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4836,7 +4848,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4914,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -6484,7 +6496,7 @@
         <v>112</v>
       </c>
       <c r="P26" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6896,7 +6908,7 @@
         <v>113</v>
       </c>
       <c r="P28" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -7102,7 +7114,7 @@
         <v>97</v>
       </c>
       <c r="P29" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q29">
         <v>3.5</v>
@@ -7308,7 +7320,7 @@
         <v>97</v>
       </c>
       <c r="P30" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7386,10 +7398,10 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ30">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR30">
         <v>1.35</v>
@@ -7514,7 +7526,7 @@
         <v>97</v>
       </c>
       <c r="P31" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7592,10 +7604,10 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ31">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR31">
         <v>0</v>
@@ -7801,7 +7813,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ32">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR32">
         <v>1.55</v>
@@ -7926,7 +7938,7 @@
         <v>97</v>
       </c>
       <c r="P33" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -8132,7 +8144,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="Q34">
         <v>2.25</v>
@@ -8210,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AQ34">
         <v>0.8</v>
@@ -8416,10 +8428,10 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ35">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR35">
         <v>1.12</v>
@@ -8622,10 +8634,10 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ36">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR36">
         <v>1.19</v>
@@ -8750,7 +8762,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8956,7 +8968,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -9368,7 +9380,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9449,7 +9461,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ40">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR40">
         <v>2.22</v>
@@ -9858,7 +9870,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ42">
         <v>1.33</v>
@@ -10192,7 +10204,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10398,7 +10410,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10476,7 +10488,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ45">
         <v>1.5</v>
@@ -10604,7 +10616,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -11016,7 +11028,7 @@
         <v>97</v>
       </c>
       <c r="P48" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q48">
         <v>3.6</v>
@@ -11300,7 +11312,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ49">
         <v>1.91</v>
@@ -11428,7 +11440,7 @@
         <v>97</v>
       </c>
       <c r="P50" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q50">
         <v>2.38</v>
@@ -11715,7 +11727,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ51">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR51">
         <v>1.45</v>
@@ -11840,7 +11852,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q52">
         <v>2.38</v>
@@ -11918,7 +11930,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ52">
         <v>0.8</v>
@@ -12046,7 +12058,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q53">
         <v>2.38</v>
@@ -12127,7 +12139,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ53">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR53">
         <v>1.37</v>
@@ -12252,7 +12264,7 @@
         <v>97</v>
       </c>
       <c r="P54" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -12333,7 +12345,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ54">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR54">
         <v>1.51</v>
@@ -12458,7 +12470,7 @@
         <v>97</v>
       </c>
       <c r="P55" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -12742,7 +12754,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ56">
         <v>1.33</v>
@@ -13154,7 +13166,7 @@
         <v>1.33</v>
       </c>
       <c r="AP58">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ58">
         <v>1.91</v>
@@ -13282,7 +13294,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q59">
         <v>2.3</v>
@@ -13488,7 +13500,7 @@
         <v>117</v>
       </c>
       <c r="P60" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q60">
         <v>5.5</v>
@@ -13566,7 +13578,7 @@
         <v>1.67</v>
       </c>
       <c r="AP60">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ60">
         <v>1.8</v>
@@ -13694,7 +13706,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q61">
         <v>4.75</v>
@@ -14184,7 +14196,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ63">
         <v>1.4</v>
@@ -14596,7 +14608,7 @@
         <v>0</v>
       </c>
       <c r="AP65">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ65">
         <v>0.8</v>
@@ -14724,7 +14736,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14930,7 +14942,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q67">
         <v>3.5</v>
@@ -15423,7 +15435,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ69">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR69">
         <v>1.64</v>
@@ -15548,7 +15560,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15629,7 +15641,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ70">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR70">
         <v>1.37</v>
@@ -15754,7 +15766,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15832,7 +15844,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AQ71">
         <v>1.22</v>
@@ -15960,7 +15972,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q72">
         <v>2.1</v>
@@ -16041,7 +16053,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ72">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR72">
         <v>1.61</v>
@@ -16453,7 +16465,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ74">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR74">
         <v>1.66</v>
@@ -17196,7 +17208,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q78">
         <v>2.63</v>
@@ -17402,7 +17414,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -17480,7 +17492,7 @@
         <v>1.75</v>
       </c>
       <c r="AP79">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ79">
         <v>1.2</v>
@@ -17608,7 +17620,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17814,7 +17826,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -18098,7 +18110,7 @@
         <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ82">
         <v>1.33</v>
@@ -18304,7 +18316,7 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ83">
         <v>1</v>
@@ -18432,7 +18444,7 @@
         <v>151</v>
       </c>
       <c r="P84" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -18638,7 +18650,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -18844,7 +18856,7 @@
         <v>97</v>
       </c>
       <c r="P86" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -19256,7 +19268,7 @@
         <v>154</v>
       </c>
       <c r="P88" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q88">
         <v>2.38</v>
@@ -19337,7 +19349,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ88">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR88">
         <v>1.45</v>
@@ -19668,7 +19680,7 @@
         <v>97</v>
       </c>
       <c r="P90" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -19952,10 +19964,10 @@
         <v>0</v>
       </c>
       <c r="AP91">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ91">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR91">
         <v>1.34</v>
@@ -20364,10 +20376,10 @@
         <v>0</v>
       </c>
       <c r="AP93">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AQ93">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR93">
         <v>1.62</v>
@@ -20492,7 +20504,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20573,7 +20585,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ94">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR94">
         <v>1.18</v>
@@ -20698,7 +20710,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -20985,7 +20997,7 @@
         <v>2</v>
       </c>
       <c r="AQ96">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR96">
         <v>1.68</v>
@@ -21316,7 +21328,7 @@
         <v>97</v>
       </c>
       <c r="P98" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q98">
         <v>3.5</v>
@@ -21600,7 +21612,7 @@
         <v>1.4</v>
       </c>
       <c r="AP99">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ99">
         <v>0.82</v>
@@ -21806,7 +21818,7 @@
         <v>1.6</v>
       </c>
       <c r="AP100">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ100">
         <v>1.2</v>
@@ -21934,7 +21946,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q101">
         <v>2.63</v>
@@ -22140,7 +22152,7 @@
         <v>97</v>
       </c>
       <c r="P102" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22758,7 +22770,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q105">
         <v>1.83</v>
@@ -23248,7 +23260,7 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AQ107">
         <v>1.4</v>
@@ -23376,7 +23388,7 @@
         <v>167</v>
       </c>
       <c r="P108" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23457,7 +23469,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ108">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR108">
         <v>1.54</v>
@@ -23788,7 +23800,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -23869,7 +23881,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ110">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR110">
         <v>1.39</v>
@@ -24072,7 +24084,7 @@
         <v>1.2</v>
       </c>
       <c r="AP111">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ111">
         <v>1.22</v>
@@ -24200,7 +24212,7 @@
         <v>138</v>
       </c>
       <c r="P112" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24281,7 +24293,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ112">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR112">
         <v>1.55</v>
@@ -24406,7 +24418,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -24690,7 +24702,7 @@
         <v>2.6</v>
       </c>
       <c r="AP114">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ114">
         <v>1.5</v>
@@ -24818,7 +24830,7 @@
         <v>97</v>
       </c>
       <c r="P115" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -25105,7 +25117,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ116">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR116">
         <v>1.55</v>
@@ -25308,10 +25320,10 @@
         <v>0.83</v>
       </c>
       <c r="AP117">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ117">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR117">
         <v>1.17</v>
@@ -25436,7 +25448,7 @@
         <v>93</v>
       </c>
       <c r="P118" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q118">
         <v>3.6</v>
@@ -25514,7 +25526,7 @@
         <v>1.67</v>
       </c>
       <c r="AP118">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ118">
         <v>1.91</v>
@@ -25929,7 +25941,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ120">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR120">
         <v>1.32</v>
@@ -26132,7 +26144,7 @@
         <v>0.4</v>
       </c>
       <c r="AP121">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ121">
         <v>0.33</v>
@@ -27290,7 +27302,7 @@
         <v>133</v>
       </c>
       <c r="P127" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q127">
         <v>3.6</v>
@@ -27368,7 +27380,7 @@
         <v>1.57</v>
       </c>
       <c r="AP127">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ127">
         <v>1.91</v>
@@ -27780,7 +27792,7 @@
         <v>1</v>
       </c>
       <c r="AP129">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ129">
         <v>1.33</v>
@@ -27908,7 +27920,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q130">
         <v>3.4</v>
@@ -28114,7 +28126,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q131">
         <v>2.5</v>
@@ -28320,7 +28332,7 @@
         <v>134</v>
       </c>
       <c r="P132" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q132">
         <v>3.2</v>
@@ -28732,7 +28744,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -28938,7 +28950,7 @@
         <v>187</v>
       </c>
       <c r="P135" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -29016,7 +29028,7 @@
         <v>0.83</v>
       </c>
       <c r="AP135">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ135">
         <v>0.8</v>
@@ -29350,7 +29362,7 @@
         <v>189</v>
       </c>
       <c r="P137" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q137">
         <v>2</v>
@@ -29637,7 +29649,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ138">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR138">
         <v>1.5</v>
@@ -29843,7 +29855,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ139">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR139">
         <v>1.44</v>
@@ -30046,7 +30058,7 @@
         <v>0.29</v>
       </c>
       <c r="AP140">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AQ140">
         <v>0.45</v>
@@ -30252,10 +30264,10 @@
         <v>0</v>
       </c>
       <c r="AP141">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ141">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR141">
         <v>1.39</v>
@@ -30380,7 +30392,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -30586,7 +30598,7 @@
         <v>195</v>
       </c>
       <c r="P143" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q143">
         <v>2.63</v>
@@ -30873,7 +30885,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ144">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR144">
         <v>1.23</v>
@@ -31285,7 +31297,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ146">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR146">
         <v>1.52</v>
@@ -31410,7 +31422,7 @@
         <v>97</v>
       </c>
       <c r="P147" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31616,7 +31628,7 @@
         <v>176</v>
       </c>
       <c r="P148" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q148">
         <v>2.88</v>
@@ -31900,7 +31912,7 @@
         <v>0.25</v>
       </c>
       <c r="AP149">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ149">
         <v>0.45</v>
@@ -32234,7 +32246,7 @@
         <v>201</v>
       </c>
       <c r="P151" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q151">
         <v>2.2</v>
@@ -32440,7 +32452,7 @@
         <v>202</v>
       </c>
       <c r="P152" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q152">
         <v>2.63</v>
@@ -32521,7 +32533,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ152">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR152">
         <v>1.53</v>
@@ -32646,7 +32658,7 @@
         <v>203</v>
       </c>
       <c r="P153" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q153">
         <v>3.4</v>
@@ -33058,7 +33070,7 @@
         <v>123</v>
       </c>
       <c r="P155" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q155">
         <v>2.2</v>
@@ -33264,7 +33276,7 @@
         <v>204</v>
       </c>
       <c r="P156" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q156">
         <v>2.6</v>
@@ -33342,10 +33354,10 @@
         <v>0.75</v>
       </c>
       <c r="AP156">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AQ156">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR156">
         <v>1.63</v>
@@ -33470,7 +33482,7 @@
         <v>205</v>
       </c>
       <c r="P157" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -33551,7 +33563,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ157">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR157">
         <v>1.45</v>
@@ -33754,10 +33766,10 @@
         <v>1.17</v>
       </c>
       <c r="AP158">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ158">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR158">
         <v>1.73</v>
@@ -33882,7 +33894,7 @@
         <v>97</v>
       </c>
       <c r="P159" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34169,7 +34181,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ160">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR160">
         <v>1.46</v>
@@ -34294,7 +34306,7 @@
         <v>207</v>
       </c>
       <c r="P161" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q161">
         <v>2.25</v>
@@ -34372,7 +34384,7 @@
         <v>0.71</v>
       </c>
       <c r="AP161">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ161">
         <v>0.8</v>
@@ -34706,7 +34718,7 @@
         <v>208</v>
       </c>
       <c r="P163" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q163">
         <v>1.95</v>
@@ -34787,7 +34799,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ163">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR163">
         <v>1.66</v>
@@ -36226,7 +36238,7 @@
         <v>1</v>
       </c>
       <c r="AP170">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ170">
         <v>0.82</v>
@@ -36560,7 +36572,7 @@
         <v>97</v>
       </c>
       <c r="P172" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q172">
         <v>3.2</v>
@@ -36638,10 +36650,10 @@
         <v>0.13</v>
       </c>
       <c r="AP172">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ172">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR172">
         <v>1.18</v>
@@ -36844,7 +36856,7 @@
         <v>0.29</v>
       </c>
       <c r="AP173">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AQ173">
         <v>0.33</v>
@@ -37178,7 +37190,7 @@
         <v>215</v>
       </c>
       <c r="P175" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q175">
         <v>3.1</v>
@@ -37384,7 +37396,7 @@
         <v>216</v>
       </c>
       <c r="P176" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q176">
         <v>5</v>
@@ -37796,7 +37808,7 @@
         <v>189</v>
       </c>
       <c r="P178" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q178">
         <v>3.5</v>
@@ -38002,7 +38014,7 @@
         <v>218</v>
       </c>
       <c r="P179" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q179">
         <v>2.88</v>
@@ -38080,10 +38092,10 @@
         <v>0.14</v>
       </c>
       <c r="AP179">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ179">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR179">
         <v>1.71</v>
@@ -38208,7 +38220,7 @@
         <v>189</v>
       </c>
       <c r="P180" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q180">
         <v>3</v>
@@ -38289,7 +38301,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ180">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR180">
         <v>1.33</v>
@@ -38414,7 +38426,7 @@
         <v>97</v>
       </c>
       <c r="P181" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q181">
         <v>1.91</v>
@@ -38620,7 +38632,7 @@
         <v>219</v>
       </c>
       <c r="P182" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q182">
         <v>2.75</v>
@@ -38826,7 +38838,7 @@
         <v>97</v>
       </c>
       <c r="P183" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q183">
         <v>2.63</v>
@@ -39110,7 +39122,7 @@
         <v>1.33</v>
       </c>
       <c r="AP184">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ184">
         <v>1.2</v>
@@ -39319,7 +39331,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ185">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR185">
         <v>1.37</v>
@@ -39856,7 +39868,7 @@
         <v>223</v>
       </c>
       <c r="P188" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q188">
         <v>3.4</v>
@@ -39934,7 +39946,7 @@
         <v>1.22</v>
       </c>
       <c r="AP188">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ188">
         <v>1.4</v>
@@ -40474,7 +40486,7 @@
         <v>225</v>
       </c>
       <c r="P191" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q191">
         <v>2.63</v>
@@ -40552,10 +40564,10 @@
         <v>0.67</v>
       </c>
       <c r="AP191">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ191">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR191">
         <v>1.42</v>
@@ -40680,7 +40692,7 @@
         <v>205</v>
       </c>
       <c r="P192" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q192">
         <v>3.6</v>
@@ -40886,7 +40898,7 @@
         <v>226</v>
       </c>
       <c r="P193" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -40967,7 +40979,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ193">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR193">
         <v>1.53</v>
@@ -41376,7 +41388,7 @@
         <v>0.25</v>
       </c>
       <c r="AP195">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ195">
         <v>0.33</v>
@@ -41504,7 +41516,7 @@
         <v>97</v>
       </c>
       <c r="P196" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q196">
         <v>2.4</v>
@@ -41585,7 +41597,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ196">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR196">
         <v>1.75</v>
@@ -41916,7 +41928,7 @@
         <v>227</v>
       </c>
       <c r="P198" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q198">
         <v>3.25</v>
@@ -42122,7 +42134,7 @@
         <v>228</v>
       </c>
       <c r="P199" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q199">
         <v>2.6</v>
@@ -42200,7 +42212,7 @@
         <v>1.13</v>
       </c>
       <c r="AP199">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AQ199">
         <v>1.33</v>
@@ -42279,6 +42291,1036 @@
       </c>
       <c r="BP199">
         <v>1.56</v>
+      </c>
+    </row>
+    <row r="200" spans="1:68">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>7373429</v>
+      </c>
+      <c r="C200" t="s">
+        <v>68</v>
+      </c>
+      <c r="D200" t="s">
+        <v>69</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45514.66666666666</v>
+      </c>
+      <c r="F200">
+        <v>22</v>
+      </c>
+      <c r="G200" t="s">
+        <v>86</v>
+      </c>
+      <c r="H200" t="s">
+        <v>71</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>1</v>
+      </c>
+      <c r="M200">
+        <v>0</v>
+      </c>
+      <c r="N200">
+        <v>1</v>
+      </c>
+      <c r="O200" t="s">
+        <v>229</v>
+      </c>
+      <c r="P200" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q200">
+        <v>2.38</v>
+      </c>
+      <c r="R200">
+        <v>2.1</v>
+      </c>
+      <c r="S200">
+        <v>5.5</v>
+      </c>
+      <c r="T200">
+        <v>1.44</v>
+      </c>
+      <c r="U200">
+        <v>2.63</v>
+      </c>
+      <c r="V200">
+        <v>3</v>
+      </c>
+      <c r="W200">
+        <v>1.36</v>
+      </c>
+      <c r="X200">
+        <v>9</v>
+      </c>
+      <c r="Y200">
+        <v>1.07</v>
+      </c>
+      <c r="Z200">
+        <v>1.73</v>
+      </c>
+      <c r="AA200">
+        <v>3.5</v>
+      </c>
+      <c r="AB200">
+        <v>5.75</v>
+      </c>
+      <c r="AC200">
+        <v>1.02</v>
+      </c>
+      <c r="AD200">
+        <v>9</v>
+      </c>
+      <c r="AE200">
+        <v>1.28</v>
+      </c>
+      <c r="AF200">
+        <v>3.22</v>
+      </c>
+      <c r="AG200">
+        <v>2.1</v>
+      </c>
+      <c r="AH200">
+        <v>1.7</v>
+      </c>
+      <c r="AI200">
+        <v>2</v>
+      </c>
+      <c r="AJ200">
+        <v>1.75</v>
+      </c>
+      <c r="AK200">
+        <v>1.17</v>
+      </c>
+      <c r="AL200">
+        <v>1.26</v>
+      </c>
+      <c r="AM200">
+        <v>2.21</v>
+      </c>
+      <c r="AN200">
+        <v>2.45</v>
+      </c>
+      <c r="AO200">
+        <v>1.11</v>
+      </c>
+      <c r="AP200">
+        <v>2.5</v>
+      </c>
+      <c r="AQ200">
+        <v>1</v>
+      </c>
+      <c r="AR200">
+        <v>1.37</v>
+      </c>
+      <c r="AS200">
+        <v>1.34</v>
+      </c>
+      <c r="AT200">
+        <v>2.71</v>
+      </c>
+      <c r="AU200">
+        <v>5</v>
+      </c>
+      <c r="AV200">
+        <v>3</v>
+      </c>
+      <c r="AW200">
+        <v>7</v>
+      </c>
+      <c r="AX200">
+        <v>7</v>
+      </c>
+      <c r="AY200">
+        <v>12</v>
+      </c>
+      <c r="AZ200">
+        <v>10</v>
+      </c>
+      <c r="BA200">
+        <v>4</v>
+      </c>
+      <c r="BB200">
+        <v>6</v>
+      </c>
+      <c r="BC200">
+        <v>10</v>
+      </c>
+      <c r="BD200">
+        <v>1.45</v>
+      </c>
+      <c r="BE200">
+        <v>6.75</v>
+      </c>
+      <c r="BF200">
+        <v>2.8</v>
+      </c>
+      <c r="BG200">
+        <v>1.14</v>
+      </c>
+      <c r="BH200">
+        <v>4.6</v>
+      </c>
+      <c r="BI200">
+        <v>1.3</v>
+      </c>
+      <c r="BJ200">
+        <v>3.08</v>
+      </c>
+      <c r="BK200">
+        <v>2.1</v>
+      </c>
+      <c r="BL200">
+        <v>2.29</v>
+      </c>
+      <c r="BM200">
+        <v>1.93</v>
+      </c>
+      <c r="BN200">
+        <v>1.81</v>
+      </c>
+      <c r="BO200">
+        <v>2.46</v>
+      </c>
+      <c r="BP200">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="201" spans="1:68">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>7373431</v>
+      </c>
+      <c r="C201" t="s">
+        <v>68</v>
+      </c>
+      <c r="D201" t="s">
+        <v>69</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45514.79166666666</v>
+      </c>
+      <c r="F201">
+        <v>22</v>
+      </c>
+      <c r="G201" t="s">
+        <v>89</v>
+      </c>
+      <c r="H201" t="s">
+        <v>82</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>1</v>
+      </c>
+      <c r="K201">
+        <v>1</v>
+      </c>
+      <c r="L201">
+        <v>1</v>
+      </c>
+      <c r="M201">
+        <v>3</v>
+      </c>
+      <c r="N201">
+        <v>4</v>
+      </c>
+      <c r="O201" t="s">
+        <v>230</v>
+      </c>
+      <c r="P201" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q201">
+        <v>3.2</v>
+      </c>
+      <c r="R201">
+        <v>1.91</v>
+      </c>
+      <c r="S201">
+        <v>4.33</v>
+      </c>
+      <c r="T201">
+        <v>1.53</v>
+      </c>
+      <c r="U201">
+        <v>2.38</v>
+      </c>
+      <c r="V201">
+        <v>3.5</v>
+      </c>
+      <c r="W201">
+        <v>1.29</v>
+      </c>
+      <c r="X201">
+        <v>11</v>
+      </c>
+      <c r="Y201">
+        <v>1.05</v>
+      </c>
+      <c r="Z201">
+        <v>2.35</v>
+      </c>
+      <c r="AA201">
+        <v>3</v>
+      </c>
+      <c r="AB201">
+        <v>3.3</v>
+      </c>
+      <c r="AC201">
+        <v>1.06</v>
+      </c>
+      <c r="AD201">
+        <v>6.8</v>
+      </c>
+      <c r="AE201">
+        <v>1.5</v>
+      </c>
+      <c r="AF201">
+        <v>2.4</v>
+      </c>
+      <c r="AG201">
+        <v>2.7</v>
+      </c>
+      <c r="AH201">
+        <v>1.44</v>
+      </c>
+      <c r="AI201">
+        <v>2.2</v>
+      </c>
+      <c r="AJ201">
+        <v>1.62</v>
+      </c>
+      <c r="AK201">
+        <v>1.33</v>
+      </c>
+      <c r="AL201">
+        <v>1.28</v>
+      </c>
+      <c r="AM201">
+        <v>1.66</v>
+      </c>
+      <c r="AN201">
+        <v>0.6</v>
+      </c>
+      <c r="AO201">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP201">
+        <v>0.55</v>
+      </c>
+      <c r="AQ201">
+        <v>0.8</v>
+      </c>
+      <c r="AR201">
+        <v>1.3</v>
+      </c>
+      <c r="AS201">
+        <v>1.24</v>
+      </c>
+      <c r="AT201">
+        <v>2.54</v>
+      </c>
+      <c r="AU201">
+        <v>4</v>
+      </c>
+      <c r="AV201">
+        <v>7</v>
+      </c>
+      <c r="AW201">
+        <v>6</v>
+      </c>
+      <c r="AX201">
+        <v>4</v>
+      </c>
+      <c r="AY201">
+        <v>10</v>
+      </c>
+      <c r="AZ201">
+        <v>11</v>
+      </c>
+      <c r="BA201">
+        <v>5</v>
+      </c>
+      <c r="BB201">
+        <v>5</v>
+      </c>
+      <c r="BC201">
+        <v>10</v>
+      </c>
+      <c r="BD201">
+        <v>1.68</v>
+      </c>
+      <c r="BE201">
+        <v>6.75</v>
+      </c>
+      <c r="BF201">
+        <v>2.23</v>
+      </c>
+      <c r="BG201">
+        <v>1.26</v>
+      </c>
+      <c r="BH201">
+        <v>3.4</v>
+      </c>
+      <c r="BI201">
+        <v>1.47</v>
+      </c>
+      <c r="BJ201">
+        <v>2.48</v>
+      </c>
+      <c r="BK201">
+        <v>2</v>
+      </c>
+      <c r="BL201">
+        <v>1.95</v>
+      </c>
+      <c r="BM201">
+        <v>2.17</v>
+      </c>
+      <c r="BN201">
+        <v>1.6</v>
+      </c>
+      <c r="BO201">
+        <v>2.75</v>
+      </c>
+      <c r="BP201">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="202" spans="1:68">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>7373425</v>
+      </c>
+      <c r="C202" t="s">
+        <v>68</v>
+      </c>
+      <c r="D202" t="s">
+        <v>69</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45514.89583333334</v>
+      </c>
+      <c r="F202">
+        <v>22</v>
+      </c>
+      <c r="G202" t="s">
+        <v>77</v>
+      </c>
+      <c r="H202" t="s">
+        <v>81</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>1</v>
+      </c>
+      <c r="K202">
+        <v>1</v>
+      </c>
+      <c r="L202">
+        <v>1</v>
+      </c>
+      <c r="M202">
+        <v>1</v>
+      </c>
+      <c r="N202">
+        <v>2</v>
+      </c>
+      <c r="O202" t="s">
+        <v>231</v>
+      </c>
+      <c r="P202" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q202">
+        <v>2.88</v>
+      </c>
+      <c r="R202">
+        <v>2.05</v>
+      </c>
+      <c r="S202">
+        <v>4.33</v>
+      </c>
+      <c r="T202">
+        <v>1.44</v>
+      </c>
+      <c r="U202">
+        <v>2.63</v>
+      </c>
+      <c r="V202">
+        <v>3.25</v>
+      </c>
+      <c r="W202">
+        <v>1.33</v>
+      </c>
+      <c r="X202">
+        <v>10</v>
+      </c>
+      <c r="Y202">
+        <v>1.06</v>
+      </c>
+      <c r="Z202">
+        <v>2.15</v>
+      </c>
+      <c r="AA202">
+        <v>3.1</v>
+      </c>
+      <c r="AB202">
+        <v>3.6</v>
+      </c>
+      <c r="AC202">
+        <v>1.06</v>
+      </c>
+      <c r="AD202">
+        <v>9</v>
+      </c>
+      <c r="AE202">
+        <v>1.38</v>
+      </c>
+      <c r="AF202">
+        <v>3</v>
+      </c>
+      <c r="AG202">
+        <v>1.95</v>
+      </c>
+      <c r="AH202">
+        <v>1.7</v>
+      </c>
+      <c r="AI202">
+        <v>1.95</v>
+      </c>
+      <c r="AJ202">
+        <v>1.8</v>
+      </c>
+      <c r="AK202">
+        <v>1.28</v>
+      </c>
+      <c r="AL202">
+        <v>1.25</v>
+      </c>
+      <c r="AM202">
+        <v>1.78</v>
+      </c>
+      <c r="AN202">
+        <v>1.5</v>
+      </c>
+      <c r="AO202">
+        <v>0.7</v>
+      </c>
+      <c r="AP202">
+        <v>1.45</v>
+      </c>
+      <c r="AQ202">
+        <v>0.73</v>
+      </c>
+      <c r="AR202">
+        <v>1.81</v>
+      </c>
+      <c r="AS202">
+        <v>1.38</v>
+      </c>
+      <c r="AT202">
+        <v>3.19</v>
+      </c>
+      <c r="AU202">
+        <v>6</v>
+      </c>
+      <c r="AV202">
+        <v>7</v>
+      </c>
+      <c r="AW202">
+        <v>9</v>
+      </c>
+      <c r="AX202">
+        <v>3</v>
+      </c>
+      <c r="AY202">
+        <v>15</v>
+      </c>
+      <c r="AZ202">
+        <v>10</v>
+      </c>
+      <c r="BA202">
+        <v>7</v>
+      </c>
+      <c r="BB202">
+        <v>6</v>
+      </c>
+      <c r="BC202">
+        <v>13</v>
+      </c>
+      <c r="BD202">
+        <v>1.64</v>
+      </c>
+      <c r="BE202">
+        <v>7</v>
+      </c>
+      <c r="BF202">
+        <v>2.32</v>
+      </c>
+      <c r="BG202">
+        <v>1.13</v>
+      </c>
+      <c r="BH202">
+        <v>4.8</v>
+      </c>
+      <c r="BI202">
+        <v>1.26</v>
+      </c>
+      <c r="BJ202">
+        <v>3.4</v>
+      </c>
+      <c r="BK202">
+        <v>1.44</v>
+      </c>
+      <c r="BL202">
+        <v>2.55</v>
+      </c>
+      <c r="BM202">
+        <v>1.88</v>
+      </c>
+      <c r="BN202">
+        <v>1.92</v>
+      </c>
+      <c r="BO202">
+        <v>2.07</v>
+      </c>
+      <c r="BP202">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="203" spans="1:68">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>7373416</v>
+      </c>
+      <c r="C203" t="s">
+        <v>68</v>
+      </c>
+      <c r="D203" t="s">
+        <v>69</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45514.89583333334</v>
+      </c>
+      <c r="F203">
+        <v>22</v>
+      </c>
+      <c r="G203" t="s">
+        <v>78</v>
+      </c>
+      <c r="H203" t="s">
+        <v>83</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>0</v>
+      </c>
+      <c r="L203">
+        <v>0</v>
+      </c>
+      <c r="M203">
+        <v>0</v>
+      </c>
+      <c r="N203">
+        <v>0</v>
+      </c>
+      <c r="O203" t="s">
+        <v>97</v>
+      </c>
+      <c r="P203" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q203">
+        <v>3</v>
+      </c>
+      <c r="R203">
+        <v>1.95</v>
+      </c>
+      <c r="S203">
+        <v>4.33</v>
+      </c>
+      <c r="T203">
+        <v>1.44</v>
+      </c>
+      <c r="U203">
+        <v>2.63</v>
+      </c>
+      <c r="V203">
+        <v>3.25</v>
+      </c>
+      <c r="W203">
+        <v>1.33</v>
+      </c>
+      <c r="X203">
+        <v>9</v>
+      </c>
+      <c r="Y203">
+        <v>1.07</v>
+      </c>
+      <c r="Z203">
+        <v>2.2</v>
+      </c>
+      <c r="AA203">
+        <v>3</v>
+      </c>
+      <c r="AB203">
+        <v>3.65</v>
+      </c>
+      <c r="AC203">
+        <v>1.06</v>
+      </c>
+      <c r="AD203">
+        <v>9.5</v>
+      </c>
+      <c r="AE203">
+        <v>1.36</v>
+      </c>
+      <c r="AF203">
+        <v>3.1</v>
+      </c>
+      <c r="AG203">
+        <v>1.8</v>
+      </c>
+      <c r="AH203">
+        <v>1.85</v>
+      </c>
+      <c r="AI203">
+        <v>2.05</v>
+      </c>
+      <c r="AJ203">
+        <v>1.7</v>
+      </c>
+      <c r="AK203">
+        <v>1.33</v>
+      </c>
+      <c r="AL203">
+        <v>1.28</v>
+      </c>
+      <c r="AM203">
+        <v>1.68</v>
+      </c>
+      <c r="AN203">
+        <v>2.67</v>
+      </c>
+      <c r="AO203">
+        <v>1.33</v>
+      </c>
+      <c r="AP203">
+        <v>2.5</v>
+      </c>
+      <c r="AQ203">
+        <v>1.3</v>
+      </c>
+      <c r="AR203">
+        <v>1.59</v>
+      </c>
+      <c r="AS203">
+        <v>1.45</v>
+      </c>
+      <c r="AT203">
+        <v>3.04</v>
+      </c>
+      <c r="AU203">
+        <v>2</v>
+      </c>
+      <c r="AV203">
+        <v>5</v>
+      </c>
+      <c r="AW203">
+        <v>4</v>
+      </c>
+      <c r="AX203">
+        <v>4</v>
+      </c>
+      <c r="AY203">
+        <v>6</v>
+      </c>
+      <c r="AZ203">
+        <v>9</v>
+      </c>
+      <c r="BA203">
+        <v>4</v>
+      </c>
+      <c r="BB203">
+        <v>4</v>
+      </c>
+      <c r="BC203">
+        <v>8</v>
+      </c>
+      <c r="BD203">
+        <v>1.5</v>
+      </c>
+      <c r="BE203">
+        <v>6.5</v>
+      </c>
+      <c r="BF203">
+        <v>2.65</v>
+      </c>
+      <c r="BG203">
+        <v>1.2</v>
+      </c>
+      <c r="BH203">
+        <v>3.9</v>
+      </c>
+      <c r="BI203">
+        <v>1.36</v>
+      </c>
+      <c r="BJ203">
+        <v>2.8</v>
+      </c>
+      <c r="BK203">
+        <v>2.1</v>
+      </c>
+      <c r="BL203">
+        <v>2.18</v>
+      </c>
+      <c r="BM203">
+        <v>1.94</v>
+      </c>
+      <c r="BN203">
+        <v>1.76</v>
+      </c>
+      <c r="BO203">
+        <v>2.4</v>
+      </c>
+      <c r="BP203">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="204" spans="1:68">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>7373423</v>
+      </c>
+      <c r="C204" t="s">
+        <v>68</v>
+      </c>
+      <c r="D204" t="s">
+        <v>69</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45514.89583333334</v>
+      </c>
+      <c r="F204">
+        <v>22</v>
+      </c>
+      <c r="G204" t="s">
+        <v>76</v>
+      </c>
+      <c r="H204" t="s">
+        <v>72</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>1</v>
+      </c>
+      <c r="L204">
+        <v>2</v>
+      </c>
+      <c r="M204">
+        <v>0</v>
+      </c>
+      <c r="N204">
+        <v>2</v>
+      </c>
+      <c r="O204" t="s">
+        <v>232</v>
+      </c>
+      <c r="P204" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q204">
+        <v>3.6</v>
+      </c>
+      <c r="R204">
+        <v>1.91</v>
+      </c>
+      <c r="S204">
+        <v>3.6</v>
+      </c>
+      <c r="T204">
+        <v>1.5</v>
+      </c>
+      <c r="U204">
+        <v>2.5</v>
+      </c>
+      <c r="V204">
+        <v>3.4</v>
+      </c>
+      <c r="W204">
+        <v>1.3</v>
+      </c>
+      <c r="X204">
+        <v>10</v>
+      </c>
+      <c r="Y204">
+        <v>1.06</v>
+      </c>
+      <c r="Z204">
+        <v>2.8</v>
+      </c>
+      <c r="AA204">
+        <v>2.95</v>
+      </c>
+      <c r="AB204">
+        <v>2.75</v>
+      </c>
+      <c r="AC204">
+        <v>1.07</v>
+      </c>
+      <c r="AD204">
+        <v>9</v>
+      </c>
+      <c r="AE204">
+        <v>1.4</v>
+      </c>
+      <c r="AF204">
+        <v>2.9</v>
+      </c>
+      <c r="AG204">
+        <v>2</v>
+      </c>
+      <c r="AH204">
+        <v>1.67</v>
+      </c>
+      <c r="AI204">
+        <v>2.1</v>
+      </c>
+      <c r="AJ204">
+        <v>1.67</v>
+      </c>
+      <c r="AK204">
+        <v>1.4</v>
+      </c>
+      <c r="AL204">
+        <v>1.28</v>
+      </c>
+      <c r="AM204">
+        <v>1.57</v>
+      </c>
+      <c r="AN204">
+        <v>1.8</v>
+      </c>
+      <c r="AO204">
+        <v>0.7</v>
+      </c>
+      <c r="AP204">
+        <v>1.91</v>
+      </c>
+      <c r="AQ204">
+        <v>0.64</v>
+      </c>
+      <c r="AR204">
+        <v>1.4</v>
+      </c>
+      <c r="AS204">
+        <v>1.15</v>
+      </c>
+      <c r="AT204">
+        <v>2.55</v>
+      </c>
+      <c r="AU204">
+        <v>4</v>
+      </c>
+      <c r="AV204">
+        <v>4</v>
+      </c>
+      <c r="AW204">
+        <v>3</v>
+      </c>
+      <c r="AX204">
+        <v>9</v>
+      </c>
+      <c r="AY204">
+        <v>7</v>
+      </c>
+      <c r="AZ204">
+        <v>13</v>
+      </c>
+      <c r="BA204">
+        <v>6</v>
+      </c>
+      <c r="BB204">
+        <v>3</v>
+      </c>
+      <c r="BC204">
+        <v>9</v>
+      </c>
+      <c r="BD204">
+        <v>1.82</v>
+      </c>
+      <c r="BE204">
+        <v>6.4</v>
+      </c>
+      <c r="BF204">
+        <v>2.07</v>
+      </c>
+      <c r="BG204">
+        <v>1.25</v>
+      </c>
+      <c r="BH204">
+        <v>3.4</v>
+      </c>
+      <c r="BI204">
+        <v>1.44</v>
+      </c>
+      <c r="BJ204">
+        <v>2.55</v>
+      </c>
+      <c r="BK204">
+        <v>2.25</v>
+      </c>
+      <c r="BL204">
+        <v>1.98</v>
+      </c>
+      <c r="BM204">
+        <v>2.14</v>
+      </c>
+      <c r="BN204">
+        <v>1.61</v>
+      </c>
+      <c r="BO204">
+        <v>2.7</v>
+      </c>
+      <c r="BP204">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="311">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -715,6 +715,15 @@
     <t>['23', '65']</t>
   </si>
   <si>
+    <t>['9', '45+4', '48']</t>
+  </si>
+  <si>
+    <t>['15', '90+7']</t>
+  </si>
+  <si>
+    <t>['12', '90+6']</t>
+  </si>
+  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -932,6 +941,12 @@
   </si>
   <si>
     <t>['24', '64', '86']</t>
+  </si>
+  <si>
+    <t>['69', '81']</t>
+  </si>
+  <si>
+    <t>['39', '50']</t>
   </si>
 </sst>
 </file>
@@ -1293,7 +1308,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP204"/>
+  <dimension ref="A1:BP209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1552,7 +1567,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1630,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ2">
         <v>0.91</v>
@@ -1758,7 +1773,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1964,7 +1979,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -2170,7 +2185,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -2248,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ5">
         <v>1.33</v>
@@ -2582,7 +2597,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2788,7 +2803,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3200,7 +3215,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3281,7 +3296,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ10">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3406,7 +3421,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3487,7 +3502,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ11">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3690,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ12">
         <v>0.64</v>
@@ -4105,7 +4120,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ14">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4514,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
         <v>0.45</v>
@@ -4848,7 +4863,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5132,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ19">
         <v>1.2</v>
@@ -5341,7 +5356,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ20">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -6496,7 +6511,7 @@
         <v>112</v>
       </c>
       <c r="P26" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6908,7 +6923,7 @@
         <v>113</v>
       </c>
       <c r="P28" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -7114,7 +7129,7 @@
         <v>97</v>
       </c>
       <c r="P29" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q29">
         <v>3.5</v>
@@ -7320,7 +7335,7 @@
         <v>97</v>
       </c>
       <c r="P30" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7526,7 +7541,7 @@
         <v>97</v>
       </c>
       <c r="P31" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7810,7 +7825,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ32">
         <v>0.8</v>
@@ -7938,7 +7953,7 @@
         <v>97</v>
       </c>
       <c r="P33" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -8016,10 +8031,10 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ33">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR33">
         <v>1.46</v>
@@ -8225,7 +8240,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ34">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR34">
         <v>1.46</v>
@@ -8762,7 +8777,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8840,10 +8855,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ37">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR37">
         <v>1.65</v>
@@ -8968,7 +8983,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -9046,10 +9061,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ38">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR38">
         <v>2.13</v>
@@ -9252,10 +9267,10 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ39">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR39">
         <v>1.75</v>
@@ -9380,7 +9395,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -10204,7 +10219,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10410,7 +10425,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10491,7 +10506,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ45">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR45">
         <v>0.52</v>
@@ -10616,7 +10631,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10900,7 +10915,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ47">
         <v>0.45</v>
@@ -11028,7 +11043,7 @@
         <v>97</v>
       </c>
       <c r="P48" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q48">
         <v>3.6</v>
@@ -11315,7 +11330,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ49">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR49">
         <v>1.5</v>
@@ -11440,7 +11455,7 @@
         <v>97</v>
       </c>
       <c r="P50" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q50">
         <v>2.38</v>
@@ -11521,7 +11536,7 @@
         <v>2</v>
       </c>
       <c r="AQ50">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR50">
         <v>1.23</v>
@@ -11724,7 +11739,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ51">
         <v>0.73</v>
@@ -11852,7 +11867,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q52">
         <v>2.38</v>
@@ -11933,7 +11948,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ52">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR52">
         <v>1.51</v>
@@ -12058,7 +12073,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q53">
         <v>2.38</v>
@@ -12136,7 +12151,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ53">
         <v>0.64</v>
@@ -12264,7 +12279,7 @@
         <v>97</v>
       </c>
       <c r="P54" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -12470,7 +12485,7 @@
         <v>97</v>
       </c>
       <c r="P55" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -12551,7 +12566,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ55">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR55">
         <v>1.23</v>
@@ -13169,7 +13184,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ58">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR58">
         <v>1.63</v>
@@ -13294,7 +13309,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q59">
         <v>2.3</v>
@@ -13500,7 +13515,7 @@
         <v>117</v>
       </c>
       <c r="P60" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q60">
         <v>5.5</v>
@@ -13706,7 +13721,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q61">
         <v>4.75</v>
@@ -13787,7 +13802,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ61">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR61">
         <v>0.99</v>
@@ -13990,7 +14005,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ62">
         <v>1</v>
@@ -14199,7 +14214,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ63">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR63">
         <v>1.4</v>
@@ -14402,10 +14417,10 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ64">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR64">
         <v>1.58</v>
@@ -14611,7 +14626,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ65">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR65">
         <v>0.78</v>
@@ -14736,7 +14751,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14942,7 +14957,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q67">
         <v>3.5</v>
@@ -15226,10 +15241,10 @@
         <v>0.33</v>
       </c>
       <c r="AP68">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ68">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR68">
         <v>1.39</v>
@@ -15560,7 +15575,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15766,7 +15781,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15972,7 +15987,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q72">
         <v>2.1</v>
@@ -16050,7 +16065,7 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ72">
         <v>0.8</v>
@@ -16256,7 +16271,7 @@
         <v>2</v>
       </c>
       <c r="AP73">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ73">
         <v>1.2</v>
@@ -16668,7 +16683,7 @@
         <v>2</v>
       </c>
       <c r="AP75">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ75">
         <v>1.33</v>
@@ -17208,7 +17223,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q78">
         <v>2.63</v>
@@ -17289,7 +17304,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ78">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR78">
         <v>1.81</v>
@@ -17414,7 +17429,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -17620,7 +17635,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17826,7 +17841,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -18444,7 +18459,7 @@
         <v>151</v>
       </c>
       <c r="P84" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -18650,7 +18665,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -18731,7 +18746,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ85">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR85">
         <v>1.31</v>
@@ -18856,7 +18871,7 @@
         <v>97</v>
       </c>
       <c r="P86" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -18937,7 +18952,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ86">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR86">
         <v>1.61</v>
@@ -19143,7 +19158,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ87">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR87">
         <v>1.66</v>
@@ -19268,7 +19283,7 @@
         <v>154</v>
       </c>
       <c r="P88" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q88">
         <v>2.38</v>
@@ -19552,7 +19567,7 @@
         <v>0</v>
       </c>
       <c r="AP89">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ89">
         <v>0.6</v>
@@ -19680,7 +19695,7 @@
         <v>97</v>
       </c>
       <c r="P90" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -19758,7 +19773,7 @@
         <v>0.75</v>
       </c>
       <c r="AP90">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ90">
         <v>1.22</v>
@@ -20170,7 +20185,7 @@
         <v>0.25</v>
       </c>
       <c r="AP92">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ92">
         <v>0.45</v>
@@ -20504,7 +20519,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20710,7 +20725,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -20788,7 +20803,7 @@
         <v>1.2</v>
       </c>
       <c r="AP95">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ95">
         <v>0.91</v>
@@ -21203,7 +21218,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ97">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR97">
         <v>1.48</v>
@@ -21328,7 +21343,7 @@
         <v>97</v>
       </c>
       <c r="P98" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q98">
         <v>3.5</v>
@@ -21615,7 +21630,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ99">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR99">
         <v>1.16</v>
@@ -21946,7 +21961,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q101">
         <v>2.63</v>
@@ -22024,7 +22039,7 @@
         <v>1</v>
       </c>
       <c r="AP101">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ101">
         <v>1</v>
@@ -22152,7 +22167,7 @@
         <v>97</v>
       </c>
       <c r="P102" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22770,7 +22785,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q105">
         <v>1.83</v>
@@ -23057,7 +23072,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ106">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR106">
         <v>1.31</v>
@@ -23263,7 +23278,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ107">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR107">
         <v>1.59</v>
@@ -23388,7 +23403,7 @@
         <v>167</v>
       </c>
       <c r="P108" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23672,7 +23687,7 @@
         <v>2</v>
       </c>
       <c r="AP109">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ109">
         <v>1.8</v>
@@ -23800,7 +23815,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -24212,7 +24227,7 @@
         <v>138</v>
       </c>
       <c r="P112" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24290,7 +24305,7 @@
         <v>1.6</v>
       </c>
       <c r="AP112">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ112">
         <v>1.3</v>
@@ -24418,7 +24433,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -24496,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="AP113">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ113">
         <v>0.6</v>
@@ -24705,7 +24720,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ114">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR114">
         <v>1.34</v>
@@ -24830,7 +24845,7 @@
         <v>97</v>
       </c>
       <c r="P115" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -24911,7 +24926,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ115">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR115">
         <v>1.49</v>
@@ -25114,7 +25129,7 @@
         <v>1.75</v>
       </c>
       <c r="AP116">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ116">
         <v>1</v>
@@ -25448,7 +25463,7 @@
         <v>93</v>
       </c>
       <c r="P118" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q118">
         <v>3.6</v>
@@ -25529,7 +25544,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ118">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR118">
         <v>1.41</v>
@@ -25735,7 +25750,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ119">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR119">
         <v>1.55</v>
@@ -26350,7 +26365,7 @@
         <v>1</v>
       </c>
       <c r="AP122">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ122">
         <v>0.91</v>
@@ -26765,7 +26780,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ124">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR124">
         <v>1.22</v>
@@ -26968,7 +26983,7 @@
         <v>0.83</v>
       </c>
       <c r="AP125">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ125">
         <v>1</v>
@@ -27302,7 +27317,7 @@
         <v>133</v>
       </c>
       <c r="P127" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q127">
         <v>3.6</v>
@@ -27383,7 +27398,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ127">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR127">
         <v>1.11</v>
@@ -27920,7 +27935,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q130">
         <v>3.4</v>
@@ -28126,7 +28141,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q131">
         <v>2.5</v>
@@ -28207,7 +28222,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ131">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR131">
         <v>1.4</v>
@@ -28332,7 +28347,7 @@
         <v>134</v>
       </c>
       <c r="P132" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q132">
         <v>3.2</v>
@@ -28616,7 +28631,7 @@
         <v>0.33</v>
       </c>
       <c r="AP133">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ133">
         <v>0.33</v>
@@ -28744,7 +28759,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -28825,7 +28840,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ134">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR134">
         <v>1.45</v>
@@ -28950,7 +28965,7 @@
         <v>187</v>
       </c>
       <c r="P135" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -29031,7 +29046,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ135">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR135">
         <v>1.8</v>
@@ -29362,7 +29377,7 @@
         <v>189</v>
       </c>
       <c r="P137" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q137">
         <v>2</v>
@@ -29440,7 +29455,7 @@
         <v>1.17</v>
       </c>
       <c r="AP137">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ137">
         <v>1.22</v>
@@ -29646,7 +29661,7 @@
         <v>0.86</v>
       </c>
       <c r="AP138">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ138">
         <v>0.73</v>
@@ -29852,7 +29867,7 @@
         <v>0.2</v>
       </c>
       <c r="AP139">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ139">
         <v>0.8</v>
@@ -30392,7 +30407,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -30470,7 +30485,7 @@
         <v>0</v>
       </c>
       <c r="AP142">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ142">
         <v>0.6</v>
@@ -30598,7 +30613,7 @@
         <v>195</v>
       </c>
       <c r="P143" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q143">
         <v>2.63</v>
@@ -30679,7 +30694,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ143">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR143">
         <v>1.45</v>
@@ -31422,7 +31437,7 @@
         <v>97</v>
       </c>
       <c r="P147" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31628,7 +31643,7 @@
         <v>176</v>
       </c>
       <c r="P148" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q148">
         <v>2.88</v>
@@ -32121,7 +32136,7 @@
         <v>2</v>
       </c>
       <c r="AQ150">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR150">
         <v>1.83</v>
@@ -32246,7 +32261,7 @@
         <v>201</v>
       </c>
       <c r="P151" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q151">
         <v>2.2</v>
@@ -32324,7 +32339,7 @@
         <v>0.83</v>
       </c>
       <c r="AP151">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ151">
         <v>1.33</v>
@@ -32452,7 +32467,7 @@
         <v>202</v>
       </c>
       <c r="P152" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q152">
         <v>2.63</v>
@@ -32658,7 +32673,7 @@
         <v>203</v>
       </c>
       <c r="P153" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q153">
         <v>3.4</v>
@@ -32945,7 +32960,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ154">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR154">
         <v>1.2</v>
@@ -33070,7 +33085,7 @@
         <v>123</v>
       </c>
       <c r="P155" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q155">
         <v>2.2</v>
@@ -33148,7 +33163,7 @@
         <v>1.14</v>
       </c>
       <c r="AP155">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ155">
         <v>1.22</v>
@@ -33276,7 +33291,7 @@
         <v>204</v>
       </c>
       <c r="P156" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q156">
         <v>2.6</v>
@@ -33482,7 +33497,7 @@
         <v>205</v>
       </c>
       <c r="P157" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -33560,7 +33575,7 @@
         <v>1.57</v>
       </c>
       <c r="AP157">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ157">
         <v>1.3</v>
@@ -33894,7 +33909,7 @@
         <v>97</v>
       </c>
       <c r="P159" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34178,7 +34193,7 @@
         <v>0.17</v>
       </c>
       <c r="AP160">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ160">
         <v>0.8</v>
@@ -34306,7 +34321,7 @@
         <v>207</v>
       </c>
       <c r="P161" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q161">
         <v>2.25</v>
@@ -34387,7 +34402,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ161">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR161">
         <v>1.45</v>
@@ -34593,7 +34608,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ162">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR162">
         <v>1.58</v>
@@ -34718,7 +34733,7 @@
         <v>208</v>
       </c>
       <c r="P163" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q163">
         <v>1.95</v>
@@ -34796,7 +34811,7 @@
         <v>1</v>
       </c>
       <c r="AP163">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ163">
         <v>1</v>
@@ -35417,7 +35432,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ166">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR166">
         <v>1.41</v>
@@ -35826,7 +35841,7 @@
         <v>0.22</v>
       </c>
       <c r="AP168">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ168">
         <v>0.45</v>
@@ -36035,7 +36050,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ169">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR169">
         <v>1.4</v>
@@ -36241,7 +36256,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ170">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR170">
         <v>1.42</v>
@@ -36444,7 +36459,7 @@
         <v>1.38</v>
       </c>
       <c r="AP171">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ171">
         <v>1.2</v>
@@ -36572,7 +36587,7 @@
         <v>97</v>
       </c>
       <c r="P172" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q172">
         <v>3.2</v>
@@ -37190,7 +37205,7 @@
         <v>215</v>
       </c>
       <c r="P175" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q175">
         <v>3.1</v>
@@ -37268,10 +37283,10 @@
         <v>1.89</v>
       </c>
       <c r="AP175">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ175">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR175">
         <v>1.48</v>
@@ -37396,7 +37411,7 @@
         <v>216</v>
       </c>
       <c r="P176" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q176">
         <v>5</v>
@@ -37683,7 +37698,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ177">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR177">
         <v>1.44</v>
@@ -37808,7 +37823,7 @@
         <v>189</v>
       </c>
       <c r="P178" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q178">
         <v>3.5</v>
@@ -38014,7 +38029,7 @@
         <v>218</v>
       </c>
       <c r="P179" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q179">
         <v>2.88</v>
@@ -38220,7 +38235,7 @@
         <v>189</v>
       </c>
       <c r="P180" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q180">
         <v>3</v>
@@ -38298,7 +38313,7 @@
         <v>0.88</v>
       </c>
       <c r="AP180">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ180">
         <v>1</v>
@@ -38426,7 +38441,7 @@
         <v>97</v>
       </c>
       <c r="P181" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q181">
         <v>1.91</v>
@@ -38507,7 +38522,7 @@
         <v>2</v>
       </c>
       <c r="AQ181">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR181">
         <v>1.83</v>
@@ -38632,7 +38647,7 @@
         <v>219</v>
       </c>
       <c r="P182" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q182">
         <v>2.75</v>
@@ -38710,7 +38725,7 @@
         <v>1.38</v>
       </c>
       <c r="AP182">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ182">
         <v>1.33</v>
@@ -38838,7 +38853,7 @@
         <v>97</v>
       </c>
       <c r="P183" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q183">
         <v>2.63</v>
@@ -39534,10 +39549,10 @@
         <v>0.9</v>
       </c>
       <c r="AP186">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ186">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR186">
         <v>1.68</v>
@@ -39868,7 +39883,7 @@
         <v>223</v>
       </c>
       <c r="P188" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q188">
         <v>3.4</v>
@@ -39949,7 +39964,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ188">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR188">
         <v>1.23</v>
@@ -40486,7 +40501,7 @@
         <v>225</v>
       </c>
       <c r="P191" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q191">
         <v>2.63</v>
@@ -40692,7 +40707,7 @@
         <v>205</v>
       </c>
       <c r="P192" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q192">
         <v>3.6</v>
@@ -40773,7 +40788,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ192">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR192">
         <v>1.49</v>
@@ -40898,7 +40913,7 @@
         <v>226</v>
       </c>
       <c r="P193" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -41182,7 +41197,7 @@
         <v>2</v>
       </c>
       <c r="AP194">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ194">
         <v>1.8</v>
@@ -41516,7 +41531,7 @@
         <v>97</v>
       </c>
       <c r="P196" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q196">
         <v>2.4</v>
@@ -41928,7 +41943,7 @@
         <v>227</v>
       </c>
       <c r="P198" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q198">
         <v>3.25</v>
@@ -42006,10 +42021,10 @@
         <v>1.56</v>
       </c>
       <c r="AP198">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ198">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR198">
         <v>1.62</v>
@@ -42134,7 +42149,7 @@
         <v>228</v>
       </c>
       <c r="P199" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q199">
         <v>2.6</v>
@@ -42546,7 +42561,7 @@
         <v>230</v>
       </c>
       <c r="P201" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q201">
         <v>3.2</v>
@@ -43321,6 +43336,1036 @@
       </c>
       <c r="BP204">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="205" spans="1:68">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>7373433</v>
+      </c>
+      <c r="C205" t="s">
+        <v>68</v>
+      </c>
+      <c r="D205" t="s">
+        <v>69</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45515.45833333334</v>
+      </c>
+      <c r="F205">
+        <v>22</v>
+      </c>
+      <c r="G205" t="s">
+        <v>84</v>
+      </c>
+      <c r="H205" t="s">
+        <v>88</v>
+      </c>
+      <c r="I205">
+        <v>2</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>2</v>
+      </c>
+      <c r="L205">
+        <v>3</v>
+      </c>
+      <c r="M205">
+        <v>2</v>
+      </c>
+      <c r="N205">
+        <v>5</v>
+      </c>
+      <c r="O205" t="s">
+        <v>233</v>
+      </c>
+      <c r="P205" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q205">
+        <v>4.33</v>
+      </c>
+      <c r="R205">
+        <v>2.05</v>
+      </c>
+      <c r="S205">
+        <v>2.88</v>
+      </c>
+      <c r="T205">
+        <v>1.5</v>
+      </c>
+      <c r="U205">
+        <v>2.5</v>
+      </c>
+      <c r="V205">
+        <v>3.4</v>
+      </c>
+      <c r="W205">
+        <v>1.3</v>
+      </c>
+      <c r="X205">
+        <v>10</v>
+      </c>
+      <c r="Y205">
+        <v>1.06</v>
+      </c>
+      <c r="Z205">
+        <v>3.6</v>
+      </c>
+      <c r="AA205">
+        <v>3.25</v>
+      </c>
+      <c r="AB205">
+        <v>2.15</v>
+      </c>
+      <c r="AC205">
+        <v>1.07</v>
+      </c>
+      <c r="AD205">
+        <v>9</v>
+      </c>
+      <c r="AE205">
+        <v>1.4</v>
+      </c>
+      <c r="AF205">
+        <v>2.95</v>
+      </c>
+      <c r="AG205">
+        <v>2.2</v>
+      </c>
+      <c r="AH205">
+        <v>1.65</v>
+      </c>
+      <c r="AI205">
+        <v>1.95</v>
+      </c>
+      <c r="AJ205">
+        <v>1.8</v>
+      </c>
+      <c r="AK205">
+        <v>1.72</v>
+      </c>
+      <c r="AL205">
+        <v>1.28</v>
+      </c>
+      <c r="AM205">
+        <v>1.3</v>
+      </c>
+      <c r="AN205">
+        <v>1.9</v>
+      </c>
+      <c r="AO205">
+        <v>1.91</v>
+      </c>
+      <c r="AP205">
+        <v>2</v>
+      </c>
+      <c r="AQ205">
+        <v>1.75</v>
+      </c>
+      <c r="AR205">
+        <v>1.34</v>
+      </c>
+      <c r="AS205">
+        <v>1.2</v>
+      </c>
+      <c r="AT205">
+        <v>2.54</v>
+      </c>
+      <c r="AU205">
+        <v>9</v>
+      </c>
+      <c r="AV205">
+        <v>11</v>
+      </c>
+      <c r="AW205">
+        <v>3</v>
+      </c>
+      <c r="AX205">
+        <v>8</v>
+      </c>
+      <c r="AY205">
+        <v>12</v>
+      </c>
+      <c r="AZ205">
+        <v>19</v>
+      </c>
+      <c r="BA205">
+        <v>6</v>
+      </c>
+      <c r="BB205">
+        <v>12</v>
+      </c>
+      <c r="BC205">
+        <v>18</v>
+      </c>
+      <c r="BD205">
+        <v>2.07</v>
+      </c>
+      <c r="BE205">
+        <v>6.4</v>
+      </c>
+      <c r="BF205">
+        <v>1.82</v>
+      </c>
+      <c r="BG205">
+        <v>1.26</v>
+      </c>
+      <c r="BH205">
+        <v>3.4</v>
+      </c>
+      <c r="BI205">
+        <v>1.46</v>
+      </c>
+      <c r="BJ205">
+        <v>2.5</v>
+      </c>
+      <c r="BK205">
+        <v>2.38</v>
+      </c>
+      <c r="BL205">
+        <v>1.9</v>
+      </c>
+      <c r="BM205">
+        <v>2.14</v>
+      </c>
+      <c r="BN205">
+        <v>1.61</v>
+      </c>
+      <c r="BO205">
+        <v>2.7</v>
+      </c>
+      <c r="BP205">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:68">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>7373418</v>
+      </c>
+      <c r="C206" t="s">
+        <v>68</v>
+      </c>
+      <c r="D206" t="s">
+        <v>69</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45515.66666666666</v>
+      </c>
+      <c r="F206">
+        <v>22</v>
+      </c>
+      <c r="G206" t="s">
+        <v>80</v>
+      </c>
+      <c r="H206" t="s">
+        <v>79</v>
+      </c>
+      <c r="I206">
+        <v>1</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>1</v>
+      </c>
+      <c r="L206">
+        <v>2</v>
+      </c>
+      <c r="M206">
+        <v>0</v>
+      </c>
+      <c r="N206">
+        <v>2</v>
+      </c>
+      <c r="O206" t="s">
+        <v>234</v>
+      </c>
+      <c r="P206" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q206">
+        <v>2.3</v>
+      </c>
+      <c r="R206">
+        <v>2.1</v>
+      </c>
+      <c r="S206">
+        <v>6</v>
+      </c>
+      <c r="T206">
+        <v>1.4</v>
+      </c>
+      <c r="U206">
+        <v>2.75</v>
+      </c>
+      <c r="V206">
+        <v>3</v>
+      </c>
+      <c r="W206">
+        <v>1.36</v>
+      </c>
+      <c r="X206">
+        <v>8</v>
+      </c>
+      <c r="Y206">
+        <v>1.08</v>
+      </c>
+      <c r="Z206">
+        <v>1.65</v>
+      </c>
+      <c r="AA206">
+        <v>3.6</v>
+      </c>
+      <c r="AB206">
+        <v>6</v>
+      </c>
+      <c r="AC206">
+        <v>1.05</v>
+      </c>
+      <c r="AD206">
+        <v>11</v>
+      </c>
+      <c r="AE206">
+        <v>1.33</v>
+      </c>
+      <c r="AF206">
+        <v>3.3</v>
+      </c>
+      <c r="AG206">
+        <v>2.25</v>
+      </c>
+      <c r="AH206">
+        <v>1.62</v>
+      </c>
+      <c r="AI206">
+        <v>2.2</v>
+      </c>
+      <c r="AJ206">
+        <v>1.62</v>
+      </c>
+      <c r="AK206">
+        <v>1.17</v>
+      </c>
+      <c r="AL206">
+        <v>1.2</v>
+      </c>
+      <c r="AM206">
+        <v>2.2</v>
+      </c>
+      <c r="AN206">
+        <v>2.2</v>
+      </c>
+      <c r="AO206">
+        <v>0.8</v>
+      </c>
+      <c r="AP206">
+        <v>2.27</v>
+      </c>
+      <c r="AQ206">
+        <v>0.73</v>
+      </c>
+      <c r="AR206">
+        <v>1.55</v>
+      </c>
+      <c r="AS206">
+        <v>1.22</v>
+      </c>
+      <c r="AT206">
+        <v>2.77</v>
+      </c>
+      <c r="AU206">
+        <v>4</v>
+      </c>
+      <c r="AV206">
+        <v>6</v>
+      </c>
+      <c r="AW206">
+        <v>2</v>
+      </c>
+      <c r="AX206">
+        <v>3</v>
+      </c>
+      <c r="AY206">
+        <v>6</v>
+      </c>
+      <c r="AZ206">
+        <v>9</v>
+      </c>
+      <c r="BA206">
+        <v>3</v>
+      </c>
+      <c r="BB206">
+        <v>7</v>
+      </c>
+      <c r="BC206">
+        <v>10</v>
+      </c>
+      <c r="BD206">
+        <v>1.43</v>
+      </c>
+      <c r="BE206">
+        <v>6.75</v>
+      </c>
+      <c r="BF206">
+        <v>2.9</v>
+      </c>
+      <c r="BG206">
+        <v>1.32</v>
+      </c>
+      <c r="BH206">
+        <v>3</v>
+      </c>
+      <c r="BI206">
+        <v>1.56</v>
+      </c>
+      <c r="BJ206">
+        <v>2.23</v>
+      </c>
+      <c r="BK206">
+        <v>2.1</v>
+      </c>
+      <c r="BL206">
+        <v>1.77</v>
+      </c>
+      <c r="BM206">
+        <v>2.4</v>
+      </c>
+      <c r="BN206">
+        <v>1.49</v>
+      </c>
+      <c r="BO206">
+        <v>3.15</v>
+      </c>
+      <c r="BP206">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:68">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>7373427</v>
+      </c>
+      <c r="C207" t="s">
+        <v>68</v>
+      </c>
+      <c r="D207" t="s">
+        <v>69</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45515.66666666666</v>
+      </c>
+      <c r="F207">
+        <v>22</v>
+      </c>
+      <c r="G207" t="s">
+        <v>73</v>
+      </c>
+      <c r="H207" t="s">
+        <v>75</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>1</v>
+      </c>
+      <c r="L207">
+        <v>1</v>
+      </c>
+      <c r="M207">
+        <v>0</v>
+      </c>
+      <c r="N207">
+        <v>1</v>
+      </c>
+      <c r="O207" t="s">
+        <v>228</v>
+      </c>
+      <c r="P207" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q207">
+        <v>2.25</v>
+      </c>
+      <c r="R207">
+        <v>2.1</v>
+      </c>
+      <c r="S207">
+        <v>6.5</v>
+      </c>
+      <c r="T207">
+        <v>1.44</v>
+      </c>
+      <c r="U207">
+        <v>2.63</v>
+      </c>
+      <c r="V207">
+        <v>3.4</v>
+      </c>
+      <c r="W207">
+        <v>1.3</v>
+      </c>
+      <c r="X207">
+        <v>10</v>
+      </c>
+      <c r="Y207">
+        <v>1.06</v>
+      </c>
+      <c r="Z207">
+        <v>1.6</v>
+      </c>
+      <c r="AA207">
+        <v>3.75</v>
+      </c>
+      <c r="AB207">
+        <v>6.25</v>
+      </c>
+      <c r="AC207">
+        <v>1.04</v>
+      </c>
+      <c r="AD207">
+        <v>7.7</v>
+      </c>
+      <c r="AE207">
+        <v>1.36</v>
+      </c>
+      <c r="AF207">
+        <v>2.8</v>
+      </c>
+      <c r="AG207">
+        <v>2.2</v>
+      </c>
+      <c r="AH207">
+        <v>1.65</v>
+      </c>
+      <c r="AI207">
+        <v>2.2</v>
+      </c>
+      <c r="AJ207">
+        <v>1.62</v>
+      </c>
+      <c r="AK207">
+        <v>1.12</v>
+      </c>
+      <c r="AL207">
+        <v>1.26</v>
+      </c>
+      <c r="AM207">
+        <v>2.38</v>
+      </c>
+      <c r="AN207">
+        <v>2.09</v>
+      </c>
+      <c r="AO207">
+        <v>0.82</v>
+      </c>
+      <c r="AP207">
+        <v>2.17</v>
+      </c>
+      <c r="AQ207">
+        <v>0.75</v>
+      </c>
+      <c r="AR207">
+        <v>1.49</v>
+      </c>
+      <c r="AS207">
+        <v>1.38</v>
+      </c>
+      <c r="AT207">
+        <v>2.87</v>
+      </c>
+      <c r="AU207">
+        <v>8</v>
+      </c>
+      <c r="AV207">
+        <v>7</v>
+      </c>
+      <c r="AW207">
+        <v>2</v>
+      </c>
+      <c r="AX207">
+        <v>5</v>
+      </c>
+      <c r="AY207">
+        <v>10</v>
+      </c>
+      <c r="AZ207">
+        <v>12</v>
+      </c>
+      <c r="BA207">
+        <v>3</v>
+      </c>
+      <c r="BB207">
+        <v>2</v>
+      </c>
+      <c r="BC207">
+        <v>5</v>
+      </c>
+      <c r="BD207">
+        <v>1.38</v>
+      </c>
+      <c r="BE207">
+        <v>7</v>
+      </c>
+      <c r="BF207">
+        <v>3.05</v>
+      </c>
+      <c r="BG207">
+        <v>1.2</v>
+      </c>
+      <c r="BH207">
+        <v>3.9</v>
+      </c>
+      <c r="BI207">
+        <v>1.36</v>
+      </c>
+      <c r="BJ207">
+        <v>2.8</v>
+      </c>
+      <c r="BK207">
+        <v>1.83</v>
+      </c>
+      <c r="BL207">
+        <v>2.18</v>
+      </c>
+      <c r="BM207">
+        <v>1.93</v>
+      </c>
+      <c r="BN207">
+        <v>1.76</v>
+      </c>
+      <c r="BO207">
+        <v>2.4</v>
+      </c>
+      <c r="BP207">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="208" spans="1:68">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>7373421</v>
+      </c>
+      <c r="C208" t="s">
+        <v>68</v>
+      </c>
+      <c r="D208" t="s">
+        <v>69</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45515.66666666666</v>
+      </c>
+      <c r="F208">
+        <v>22</v>
+      </c>
+      <c r="G208" t="s">
+        <v>87</v>
+      </c>
+      <c r="H208" t="s">
+        <v>85</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>0</v>
+      </c>
+      <c r="L208">
+        <v>1</v>
+      </c>
+      <c r="M208">
+        <v>1</v>
+      </c>
+      <c r="N208">
+        <v>2</v>
+      </c>
+      <c r="O208" t="s">
+        <v>131</v>
+      </c>
+      <c r="P208" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q208">
+        <v>2.5</v>
+      </c>
+      <c r="R208">
+        <v>2.2</v>
+      </c>
+      <c r="S208">
+        <v>4.75</v>
+      </c>
+      <c r="T208">
+        <v>1.44</v>
+      </c>
+      <c r="U208">
+        <v>2.63</v>
+      </c>
+      <c r="V208">
+        <v>3.25</v>
+      </c>
+      <c r="W208">
+        <v>1.33</v>
+      </c>
+      <c r="X208">
+        <v>9</v>
+      </c>
+      <c r="Y208">
+        <v>1.07</v>
+      </c>
+      <c r="Z208">
+        <v>1.8</v>
+      </c>
+      <c r="AA208">
+        <v>3.4</v>
+      </c>
+      <c r="AB208">
+        <v>4.75</v>
+      </c>
+      <c r="AC208">
+        <v>1.05</v>
+      </c>
+      <c r="AD208">
+        <v>10</v>
+      </c>
+      <c r="AE208">
+        <v>1.33</v>
+      </c>
+      <c r="AF208">
+        <v>3.25</v>
+      </c>
+      <c r="AG208">
+        <v>2</v>
+      </c>
+      <c r="AH208">
+        <v>1.8</v>
+      </c>
+      <c r="AI208">
+        <v>1.91</v>
+      </c>
+      <c r="AJ208">
+        <v>1.91</v>
+      </c>
+      <c r="AK208">
+        <v>1.28</v>
+      </c>
+      <c r="AL208">
+        <v>1.25</v>
+      </c>
+      <c r="AM208">
+        <v>1.83</v>
+      </c>
+      <c r="AN208">
+        <v>2.2</v>
+      </c>
+      <c r="AO208">
+        <v>1.5</v>
+      </c>
+      <c r="AP208">
+        <v>2.09</v>
+      </c>
+      <c r="AQ208">
+        <v>1.45</v>
+      </c>
+      <c r="AR208">
+        <v>1.67</v>
+      </c>
+      <c r="AS208">
+        <v>1.57</v>
+      </c>
+      <c r="AT208">
+        <v>3.24</v>
+      </c>
+      <c r="AU208">
+        <v>8</v>
+      </c>
+      <c r="AV208">
+        <v>8</v>
+      </c>
+      <c r="AW208">
+        <v>2</v>
+      </c>
+      <c r="AX208">
+        <v>2</v>
+      </c>
+      <c r="AY208">
+        <v>10</v>
+      </c>
+      <c r="AZ208">
+        <v>10</v>
+      </c>
+      <c r="BA208">
+        <v>4</v>
+      </c>
+      <c r="BB208">
+        <v>2</v>
+      </c>
+      <c r="BC208">
+        <v>6</v>
+      </c>
+      <c r="BD208">
+        <v>1.58</v>
+      </c>
+      <c r="BE208">
+        <v>7</v>
+      </c>
+      <c r="BF208">
+        <v>2.4</v>
+      </c>
+      <c r="BG208">
+        <v>1.2</v>
+      </c>
+      <c r="BH208">
+        <v>3.95</v>
+      </c>
+      <c r="BI208">
+        <v>1.34</v>
+      </c>
+      <c r="BJ208">
+        <v>2.9</v>
+      </c>
+      <c r="BK208">
+        <v>2</v>
+      </c>
+      <c r="BL208">
+        <v>2.23</v>
+      </c>
+      <c r="BM208">
+        <v>1.9</v>
+      </c>
+      <c r="BN208">
+        <v>1.79</v>
+      </c>
+      <c r="BO208">
+        <v>2.35</v>
+      </c>
+      <c r="BP208">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:68">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>7373414</v>
+      </c>
+      <c r="C209" t="s">
+        <v>68</v>
+      </c>
+      <c r="D209" t="s">
+        <v>69</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45515.79166666666</v>
+      </c>
+      <c r="F209">
+        <v>22</v>
+      </c>
+      <c r="G209" t="s">
+        <v>70</v>
+      </c>
+      <c r="H209" t="s">
+        <v>74</v>
+      </c>
+      <c r="I209">
+        <v>1</v>
+      </c>
+      <c r="J209">
+        <v>1</v>
+      </c>
+      <c r="K209">
+        <v>2</v>
+      </c>
+      <c r="L209">
+        <v>2</v>
+      </c>
+      <c r="M209">
+        <v>2</v>
+      </c>
+      <c r="N209">
+        <v>4</v>
+      </c>
+      <c r="O209" t="s">
+        <v>235</v>
+      </c>
+      <c r="P209" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q209">
+        <v>2.6</v>
+      </c>
+      <c r="R209">
+        <v>2.05</v>
+      </c>
+      <c r="S209">
+        <v>5</v>
+      </c>
+      <c r="T209">
+        <v>1.5</v>
+      </c>
+      <c r="U209">
+        <v>2.5</v>
+      </c>
+      <c r="V209">
+        <v>3.4</v>
+      </c>
+      <c r="W209">
+        <v>1.3</v>
+      </c>
+      <c r="X209">
+        <v>10</v>
+      </c>
+      <c r="Y209">
+        <v>1.06</v>
+      </c>
+      <c r="Z209">
+        <v>1.9</v>
+      </c>
+      <c r="AA209">
+        <v>3.25</v>
+      </c>
+      <c r="AB209">
+        <v>4.75</v>
+      </c>
+      <c r="AC209">
+        <v>1.05</v>
+      </c>
+      <c r="AD209">
+        <v>7.2</v>
+      </c>
+      <c r="AE209">
+        <v>1.49</v>
+      </c>
+      <c r="AF209">
+        <v>2.45</v>
+      </c>
+      <c r="AG209">
+        <v>2.25</v>
+      </c>
+      <c r="AH209">
+        <v>1.62</v>
+      </c>
+      <c r="AI209">
+        <v>2</v>
+      </c>
+      <c r="AJ209">
+        <v>1.75</v>
+      </c>
+      <c r="AK209">
+        <v>1.28</v>
+      </c>
+      <c r="AL209">
+        <v>1.28</v>
+      </c>
+      <c r="AM209">
+        <v>1.78</v>
+      </c>
+      <c r="AN209">
+        <v>1.29</v>
+      </c>
+      <c r="AO209">
+        <v>1.4</v>
+      </c>
+      <c r="AP209">
+        <v>1.25</v>
+      </c>
+      <c r="AQ209">
+        <v>1.36</v>
+      </c>
+      <c r="AR209">
+        <v>1.62</v>
+      </c>
+      <c r="AS209">
+        <v>1.34</v>
+      </c>
+      <c r="AT209">
+        <v>2.96</v>
+      </c>
+      <c r="AU209">
+        <v>5</v>
+      </c>
+      <c r="AV209">
+        <v>6</v>
+      </c>
+      <c r="AW209">
+        <v>8</v>
+      </c>
+      <c r="AX209">
+        <v>4</v>
+      </c>
+      <c r="AY209">
+        <v>13</v>
+      </c>
+      <c r="AZ209">
+        <v>10</v>
+      </c>
+      <c r="BA209">
+        <v>9</v>
+      </c>
+      <c r="BB209">
+        <v>0</v>
+      </c>
+      <c r="BC209">
+        <v>9</v>
+      </c>
+      <c r="BD209">
+        <v>1.61</v>
+      </c>
+      <c r="BE209">
+        <v>6.75</v>
+      </c>
+      <c r="BF209">
+        <v>2.4</v>
+      </c>
+      <c r="BG209">
+        <v>1.19</v>
+      </c>
+      <c r="BH209">
+        <v>4.1</v>
+      </c>
+      <c r="BI209">
+        <v>1.33</v>
+      </c>
+      <c r="BJ209">
+        <v>2.95</v>
+      </c>
+      <c r="BK209">
+        <v>2</v>
+      </c>
+      <c r="BL209">
+        <v>2.3</v>
+      </c>
+      <c r="BM209">
+        <v>1.85</v>
+      </c>
+      <c r="BN209">
+        <v>1.83</v>
+      </c>
+      <c r="BO209">
+        <v>2.3</v>
+      </c>
+      <c r="BP209">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -44003,7 +44003,7 @@
         <v>131</v>
       </c>
       <c r="P208" t="s">
-        <v>170</v>
+        <v>217</v>
       </c>
       <c r="Q208">
         <v>2.5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="312">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -724,6 +724,9 @@
     <t>['12', '90+6']</t>
   </si>
   <si>
+    <t>['58', '81']</t>
+  </si>
+  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -1308,7 +1311,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP209"/>
+  <dimension ref="A1:BP210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1567,7 +1570,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1645,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ2">
         <v>0.91</v>
@@ -1773,7 +1776,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1854,7 +1857,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ3">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1979,7 +1982,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -2185,7 +2188,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -2597,7 +2600,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2803,7 +2806,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3215,7 +3218,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3421,7 +3424,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -4863,7 +4866,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -6511,7 +6514,7 @@
         <v>112</v>
       </c>
       <c r="P26" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6923,7 +6926,7 @@
         <v>113</v>
       </c>
       <c r="P28" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -7004,7 +7007,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ28">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR28">
         <v>1.4</v>
@@ -7129,7 +7132,7 @@
         <v>97</v>
       </c>
       <c r="P29" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q29">
         <v>3.5</v>
@@ -7335,7 +7338,7 @@
         <v>97</v>
       </c>
       <c r="P30" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7541,7 +7544,7 @@
         <v>97</v>
       </c>
       <c r="P31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7953,7 +7956,7 @@
         <v>97</v>
       </c>
       <c r="P33" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -8777,7 +8780,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8983,7 +8986,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -9061,7 +9064,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ38">
         <v>0.75</v>
@@ -9395,7 +9398,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -10219,7 +10222,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10425,7 +10428,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10631,7 +10634,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -11043,7 +11046,7 @@
         <v>97</v>
       </c>
       <c r="P48" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q48">
         <v>3.6</v>
@@ -11455,7 +11458,7 @@
         <v>97</v>
       </c>
       <c r="P50" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q50">
         <v>2.38</v>
@@ -11867,7 +11870,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q52">
         <v>2.38</v>
@@ -12073,7 +12076,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q53">
         <v>2.38</v>
@@ -12279,7 +12282,7 @@
         <v>97</v>
       </c>
       <c r="P54" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -12485,7 +12488,7 @@
         <v>97</v>
       </c>
       <c r="P55" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -12978,7 +12981,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ57">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR57">
         <v>1.86</v>
@@ -13309,7 +13312,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q59">
         <v>2.3</v>
@@ -13515,7 +13518,7 @@
         <v>117</v>
       </c>
       <c r="P60" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q60">
         <v>5.5</v>
@@ -13721,7 +13724,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q61">
         <v>4.75</v>
@@ -14751,7 +14754,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14957,7 +14960,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q67">
         <v>3.5</v>
@@ -15575,7 +15578,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15781,7 +15784,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15987,7 +15990,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q72">
         <v>2.1</v>
@@ -16271,7 +16274,7 @@
         <v>2</v>
       </c>
       <c r="AP73">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ73">
         <v>1.2</v>
@@ -17098,7 +17101,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ77">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR77">
         <v>1.45</v>
@@ -17223,7 +17226,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q78">
         <v>2.63</v>
@@ -17429,7 +17432,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -17635,7 +17638,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17841,7 +17844,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -18459,7 +18462,7 @@
         <v>151</v>
       </c>
       <c r="P84" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -18665,7 +18668,7 @@
         <v>152</v>
       </c>
       <c r="P85" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -18871,7 +18874,7 @@
         <v>97</v>
       </c>
       <c r="P86" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -19283,7 +19286,7 @@
         <v>154</v>
       </c>
       <c r="P88" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q88">
         <v>2.38</v>
@@ -19695,7 +19698,7 @@
         <v>97</v>
       </c>
       <c r="P90" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -20185,7 +20188,7 @@
         <v>0.25</v>
       </c>
       <c r="AP92">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ92">
         <v>0.45</v>
@@ -20519,7 +20522,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20725,7 +20728,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -21343,7 +21346,7 @@
         <v>97</v>
       </c>
       <c r="P98" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q98">
         <v>3.5</v>
@@ -21961,7 +21964,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q101">
         <v>2.63</v>
@@ -22167,7 +22170,7 @@
         <v>97</v>
       </c>
       <c r="P102" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22785,7 +22788,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q105">
         <v>1.83</v>
@@ -22866,7 +22869,7 @@
         <v>2</v>
       </c>
       <c r="AQ105">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR105">
         <v>1.72</v>
@@ -23403,7 +23406,7 @@
         <v>167</v>
       </c>
       <c r="P108" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23815,7 +23818,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -24227,7 +24230,7 @@
         <v>138</v>
       </c>
       <c r="P112" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24305,7 +24308,7 @@
         <v>1.6</v>
       </c>
       <c r="AP112">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ112">
         <v>1.3</v>
@@ -24433,7 +24436,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -24845,7 +24848,7 @@
         <v>97</v>
       </c>
       <c r="P115" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -25463,7 +25466,7 @@
         <v>93</v>
       </c>
       <c r="P118" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q118">
         <v>3.6</v>
@@ -26162,7 +26165,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ121">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR121">
         <v>1.32</v>
@@ -27317,7 +27320,7 @@
         <v>133</v>
       </c>
       <c r="P127" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q127">
         <v>3.6</v>
@@ -27935,7 +27938,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q130">
         <v>3.4</v>
@@ -28141,7 +28144,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q131">
         <v>2.5</v>
@@ -28347,7 +28350,7 @@
         <v>134</v>
       </c>
       <c r="P132" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q132">
         <v>3.2</v>
@@ -28634,7 +28637,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ133">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR133">
         <v>1.52</v>
@@ -28759,7 +28762,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q134">
         <v>3.75</v>
@@ -28965,7 +28968,7 @@
         <v>187</v>
       </c>
       <c r="P135" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -29377,7 +29380,7 @@
         <v>189</v>
       </c>
       <c r="P137" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q137">
         <v>2</v>
@@ -30407,7 +30410,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -30485,7 +30488,7 @@
         <v>0</v>
       </c>
       <c r="AP142">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ142">
         <v>0.6</v>
@@ -30613,7 +30616,7 @@
         <v>195</v>
       </c>
       <c r="P143" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q143">
         <v>2.63</v>
@@ -31437,7 +31440,7 @@
         <v>97</v>
       </c>
       <c r="P147" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31643,7 +31646,7 @@
         <v>176</v>
       </c>
       <c r="P148" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q148">
         <v>2.88</v>
@@ -32261,7 +32264,7 @@
         <v>201</v>
       </c>
       <c r="P151" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q151">
         <v>2.2</v>
@@ -32467,7 +32470,7 @@
         <v>202</v>
       </c>
       <c r="P152" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q152">
         <v>2.63</v>
@@ -32673,7 +32676,7 @@
         <v>203</v>
       </c>
       <c r="P153" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q153">
         <v>3.4</v>
@@ -33085,7 +33088,7 @@
         <v>123</v>
       </c>
       <c r="P155" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q155">
         <v>2.2</v>
@@ -33291,7 +33294,7 @@
         <v>204</v>
       </c>
       <c r="P156" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q156">
         <v>2.6</v>
@@ -33497,7 +33500,7 @@
         <v>205</v>
       </c>
       <c r="P157" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -33909,7 +33912,7 @@
         <v>97</v>
       </c>
       <c r="P159" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34321,7 +34324,7 @@
         <v>207</v>
       </c>
       <c r="P161" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q161">
         <v>2.25</v>
@@ -34733,7 +34736,7 @@
         <v>208</v>
       </c>
       <c r="P163" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q163">
         <v>1.95</v>
@@ -36587,7 +36590,7 @@
         <v>97</v>
       </c>
       <c r="P172" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q172">
         <v>3.2</v>
@@ -36874,7 +36877,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ173">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR173">
         <v>1.59</v>
@@ -37205,7 +37208,7 @@
         <v>215</v>
       </c>
       <c r="P175" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q175">
         <v>3.1</v>
@@ -37411,7 +37414,7 @@
         <v>216</v>
       </c>
       <c r="P176" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q176">
         <v>5</v>
@@ -37823,7 +37826,7 @@
         <v>189</v>
       </c>
       <c r="P178" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q178">
         <v>3.5</v>
@@ -38029,7 +38032,7 @@
         <v>218</v>
       </c>
       <c r="P179" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q179">
         <v>2.88</v>
@@ -38235,7 +38238,7 @@
         <v>189</v>
       </c>
       <c r="P180" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q180">
         <v>3</v>
@@ -38441,7 +38444,7 @@
         <v>97</v>
       </c>
       <c r="P181" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q181">
         <v>1.91</v>
@@ -38647,7 +38650,7 @@
         <v>219</v>
       </c>
       <c r="P182" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q182">
         <v>2.75</v>
@@ -38853,7 +38856,7 @@
         <v>97</v>
       </c>
       <c r="P183" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q183">
         <v>2.63</v>
@@ -39883,7 +39886,7 @@
         <v>223</v>
       </c>
       <c r="P188" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q188">
         <v>3.4</v>
@@ -40501,7 +40504,7 @@
         <v>225</v>
       </c>
       <c r="P191" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q191">
         <v>2.63</v>
@@ -40707,7 +40710,7 @@
         <v>205</v>
       </c>
       <c r="P192" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q192">
         <v>3.6</v>
@@ -40913,7 +40916,7 @@
         <v>226</v>
       </c>
       <c r="P193" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -41406,7 +41409,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ195">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR195">
         <v>1.69</v>
@@ -41531,7 +41534,7 @@
         <v>97</v>
       </c>
       <c r="P196" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q196">
         <v>2.4</v>
@@ -41943,7 +41946,7 @@
         <v>227</v>
       </c>
       <c r="P198" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q198">
         <v>3.25</v>
@@ -42021,7 +42024,7 @@
         <v>1.56</v>
       </c>
       <c r="AP198">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ198">
         <v>1.45</v>
@@ -42149,7 +42152,7 @@
         <v>228</v>
       </c>
       <c r="P199" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q199">
         <v>2.6</v>
@@ -42561,7 +42564,7 @@
         <v>230</v>
       </c>
       <c r="P201" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q201">
         <v>3.2</v>
@@ -43385,7 +43388,7 @@
         <v>233</v>
       </c>
       <c r="P205" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q205">
         <v>4.33</v>
@@ -44209,7 +44212,7 @@
         <v>235</v>
       </c>
       <c r="P209" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q209">
         <v>2.6</v>
@@ -44287,7 +44290,7 @@
         <v>1.4</v>
       </c>
       <c r="AP209">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ209">
         <v>1.36</v>
@@ -44366,6 +44369,212 @@
       </c>
       <c r="BP209">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="210" spans="1:68">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>7373225</v>
+      </c>
+      <c r="C210" t="s">
+        <v>68</v>
+      </c>
+      <c r="D210" t="s">
+        <v>69</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45518.8125</v>
+      </c>
+      <c r="F210">
+        <v>6</v>
+      </c>
+      <c r="G210" t="s">
+        <v>70</v>
+      </c>
+      <c r="H210" t="s">
+        <v>84</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>1</v>
+      </c>
+      <c r="K210">
+        <v>1</v>
+      </c>
+      <c r="L210">
+        <v>2</v>
+      </c>
+      <c r="M210">
+        <v>1</v>
+      </c>
+      <c r="N210">
+        <v>3</v>
+      </c>
+      <c r="O210" t="s">
+        <v>236</v>
+      </c>
+      <c r="P210" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q210">
+        <v>2.1</v>
+      </c>
+      <c r="R210">
+        <v>2.3</v>
+      </c>
+      <c r="S210">
+        <v>6</v>
+      </c>
+      <c r="T210">
+        <v>1.44</v>
+      </c>
+      <c r="U210">
+        <v>2.8</v>
+      </c>
+      <c r="V210">
+        <v>3</v>
+      </c>
+      <c r="W210">
+        <v>1.36</v>
+      </c>
+      <c r="X210">
+        <v>8</v>
+      </c>
+      <c r="Y210">
+        <v>1.07</v>
+      </c>
+      <c r="Z210">
+        <v>1.53</v>
+      </c>
+      <c r="AA210">
+        <v>4.33</v>
+      </c>
+      <c r="AB210">
+        <v>5.75</v>
+      </c>
+      <c r="AC210">
+        <v>1.03</v>
+      </c>
+      <c r="AD210">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE210">
+        <v>1.36</v>
+      </c>
+      <c r="AF210">
+        <v>3.2</v>
+      </c>
+      <c r="AG210">
+        <v>1.85</v>
+      </c>
+      <c r="AH210">
+        <v>1.95</v>
+      </c>
+      <c r="AI210">
+        <v>2</v>
+      </c>
+      <c r="AJ210">
+        <v>1.75</v>
+      </c>
+      <c r="AK210">
+        <v>1.11</v>
+      </c>
+      <c r="AL210">
+        <v>1.2</v>
+      </c>
+      <c r="AM210">
+        <v>2.55</v>
+      </c>
+      <c r="AN210">
+        <v>1.25</v>
+      </c>
+      <c r="AO210">
+        <v>0.33</v>
+      </c>
+      <c r="AP210">
+        <v>1.44</v>
+      </c>
+      <c r="AQ210">
+        <v>0.3</v>
+      </c>
+      <c r="AR210">
+        <v>1.62</v>
+      </c>
+      <c r="AS210">
+        <v>1.18</v>
+      </c>
+      <c r="AT210">
+        <v>2.8</v>
+      </c>
+      <c r="AU210">
+        <v>11</v>
+      </c>
+      <c r="AV210">
+        <v>4</v>
+      </c>
+      <c r="AW210">
+        <v>7</v>
+      </c>
+      <c r="AX210">
+        <v>4</v>
+      </c>
+      <c r="AY210">
+        <v>18</v>
+      </c>
+      <c r="AZ210">
+        <v>8</v>
+      </c>
+      <c r="BA210">
+        <v>8</v>
+      </c>
+      <c r="BB210">
+        <v>1</v>
+      </c>
+      <c r="BC210">
+        <v>9</v>
+      </c>
+      <c r="BD210">
+        <v>1.35</v>
+      </c>
+      <c r="BE210">
+        <v>7</v>
+      </c>
+      <c r="BF210">
+        <v>3.2</v>
+      </c>
+      <c r="BG210">
+        <v>1.28</v>
+      </c>
+      <c r="BH210">
+        <v>3.1</v>
+      </c>
+      <c r="BI210">
+        <v>1.85</v>
+      </c>
+      <c r="BJ210">
+        <v>1.85</v>
+      </c>
+      <c r="BK210">
+        <v>2.25</v>
+      </c>
+      <c r="BL210">
+        <v>1.79</v>
+      </c>
+      <c r="BM210">
+        <v>2.4</v>
+      </c>
+      <c r="BN210">
+        <v>1.47</v>
+      </c>
+      <c r="BO210">
+        <v>3.15</v>
+      </c>
+      <c r="BP210">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="314">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -951,6 +951,12 @@
   <si>
     <t>['39', '50']</t>
   </si>
+  <si>
+    <t>['45', '76']</t>
+  </si>
+  <si>
+    <t>['26', '90']</t>
+  </si>
 </sst>
 </file>
 
@@ -1311,7 +1317,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP210"/>
+  <dimension ref="A1:BP214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1651,7 +1657,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ2">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2060,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ4">
         <v>0.73</v>
@@ -2269,7 +2275,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ5">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2475,7 +2481,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ6">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3914,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ13">
         <v>1.36</v>
@@ -4120,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ14">
         <v>0.6</v>
@@ -4532,7 +4538,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4741,7 +4747,7 @@
         <v>2</v>
       </c>
       <c r="AQ17">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5562,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ21">
         <v>0.6</v>
@@ -5768,10 +5774,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ22">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR22">
         <v>1.64</v>
@@ -5974,10 +5980,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ23">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR23">
         <v>1.76</v>
@@ -6180,7 +6186,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -6595,7 +6601,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ26">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR26">
         <v>1.33</v>
@@ -9476,7 +9482,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ40">
         <v>1.3</v>
@@ -9682,7 +9688,7 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ41">
         <v>1.8</v>
@@ -9891,7 +9897,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ42">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR42">
         <v>1.3</v>
@@ -10715,7 +10721,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ46">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR46">
         <v>1.46</v>
@@ -10921,7 +10927,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ47">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR47">
         <v>1.36</v>
@@ -12360,7 +12366,7 @@
         <v>0.67</v>
       </c>
       <c r="AP54">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ54">
         <v>0.73</v>
@@ -12978,7 +12984,7 @@
         <v>0.5</v>
       </c>
       <c r="AP57">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ57">
         <v>0.3</v>
@@ -13802,10 +13808,10 @@
         <v>1.33</v>
       </c>
       <c r="AP61">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ61">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR61">
         <v>1.55</v>
@@ -14835,7 +14841,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ66">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR66">
         <v>1.13</v>
@@ -15247,7 +15253,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ68">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR68">
         <v>1.17</v>
@@ -15656,7 +15662,7 @@
         <v>1.67</v>
       </c>
       <c r="AP70">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ70">
         <v>1.3</v>
@@ -15865,7 +15871,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ71">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR71">
         <v>1.56</v>
@@ -16689,7 +16695,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ75">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR75">
         <v>1.32</v>
@@ -17098,7 +17104,7 @@
         <v>0.67</v>
       </c>
       <c r="AP77">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ77">
         <v>0.3</v>
@@ -17304,7 +17310,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ78">
         <v>0.75</v>
@@ -18131,7 +18137,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ82">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR82">
         <v>0.8</v>
@@ -18337,7 +18343,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ83">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR83">
         <v>1.49</v>
@@ -18540,7 +18546,7 @@
         <v>1.75</v>
       </c>
       <c r="AP84">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ84">
         <v>1.75</v>
@@ -18952,7 +18958,7 @@
         <v>2.5</v>
       </c>
       <c r="AP86">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ86">
         <v>1.45</v>
@@ -19779,7 +19785,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ90">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR90">
         <v>1.48</v>
@@ -20191,7 +20197,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ92">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR92">
         <v>1.69</v>
@@ -20809,7 +20815,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ95">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR95">
         <v>1.65</v>
@@ -21424,7 +21430,7 @@
         <v>1.5</v>
       </c>
       <c r="AP98">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ98">
         <v>1.33</v>
@@ -22045,7 +22051,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ101">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR101">
         <v>1.66</v>
@@ -22454,7 +22460,7 @@
         <v>1.8</v>
       </c>
       <c r="AP103">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ103">
         <v>1.8</v>
@@ -22660,7 +22666,7 @@
         <v>0.5</v>
       </c>
       <c r="AP104">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ104">
         <v>0.73</v>
@@ -22866,10 +22872,10 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ105">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR105">
         <v>1.47</v>
@@ -23899,7 +23905,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ110">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR110">
         <v>1.71</v>
@@ -24926,7 +24932,7 @@
         <v>0.4</v>
       </c>
       <c r="AP115">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ115">
         <v>0.73</v>
@@ -25750,7 +25756,7 @@
         <v>1.33</v>
       </c>
       <c r="AP119">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ119">
         <v>0.75</v>
@@ -26165,7 +26171,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ121">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR121">
         <v>1.52</v>
@@ -26368,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="AP122">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ122">
         <v>0.64</v>
@@ -27195,7 +27201,7 @@
         <v>2</v>
       </c>
       <c r="AQ126">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR126">
         <v>1.89</v>
@@ -27607,7 +27613,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ128">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR128">
         <v>1.35</v>
@@ -28016,7 +28022,7 @@
         <v>1.71</v>
       </c>
       <c r="AP130">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ130">
         <v>1.8</v>
@@ -28222,7 +28228,7 @@
         <v>1.29</v>
       </c>
       <c r="AP131">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ131">
         <v>0.75</v>
@@ -28634,7 +28640,7 @@
         <v>2.17</v>
       </c>
       <c r="AP133">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ133">
         <v>1.45</v>
@@ -29046,7 +29052,7 @@
         <v>1.67</v>
       </c>
       <c r="AP135">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ135">
         <v>1.33</v>
@@ -29667,7 +29673,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ138">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR138">
         <v>1.48</v>
@@ -30285,7 +30291,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ141">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR141">
         <v>1.67</v>
@@ -30697,7 +30703,7 @@
         <v>2</v>
       </c>
       <c r="AQ143">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR143">
         <v>1.9</v>
@@ -31518,7 +31524,7 @@
         <v>0.63</v>
       </c>
       <c r="AP147">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ147">
         <v>1</v>
@@ -31727,7 +31733,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ148">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR148">
         <v>1.66</v>
@@ -31933,7 +31939,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ149">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR149">
         <v>1.43</v>
@@ -32345,7 +32351,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ151">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR151">
         <v>1.6</v>
@@ -32960,7 +32966,7 @@
         <v>1.57</v>
       </c>
       <c r="AP154">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ154">
         <v>1.2</v>
@@ -33375,7 +33381,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ156">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR156">
         <v>1.6</v>
@@ -35432,7 +35438,7 @@
         <v>0.63</v>
       </c>
       <c r="AP166">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ166">
         <v>0.73</v>
@@ -35638,7 +35644,7 @@
         <v>0.75</v>
       </c>
       <c r="AP167">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ167">
         <v>0.6</v>
@@ -35847,7 +35853,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ168">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR168">
         <v>1.59</v>
@@ -36050,7 +36056,7 @@
         <v>1.38</v>
       </c>
       <c r="AP169">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ169">
         <v>1.36</v>
@@ -36877,7 +36883,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ173">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR173">
         <v>1.5</v>
@@ -37698,7 +37704,7 @@
         <v>1.75</v>
       </c>
       <c r="AP177">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ177">
         <v>1.45</v>
@@ -37907,7 +37913,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ178">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR178">
         <v>1.48</v>
@@ -39346,7 +39352,7 @@
         <v>0.44</v>
       </c>
       <c r="AP185">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ185">
         <v>0.64</v>
@@ -39964,7 +39970,7 @@
         <v>0.67</v>
       </c>
       <c r="AP188">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ188">
         <v>0.6</v>
@@ -40170,10 +40176,10 @@
         <v>0.5</v>
       </c>
       <c r="AP189">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ189">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR189">
         <v>1.45</v>
@@ -40379,7 +40385,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ190">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR190">
         <v>1.23</v>
@@ -41406,10 +41412,10 @@
         <v>1</v>
       </c>
       <c r="AP195">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ195">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR195">
         <v>1.4</v>
@@ -42233,7 +42239,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ199">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR199">
         <v>1.56</v>
@@ -44575,6 +44581,830 @@
       </c>
       <c r="BP210">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="211" spans="1:68">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>7373435</v>
+      </c>
+      <c r="C211" t="s">
+        <v>68</v>
+      </c>
+      <c r="D211" t="s">
+        <v>69</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45521.66666666666</v>
+      </c>
+      <c r="F211">
+        <v>23</v>
+      </c>
+      <c r="G211" t="s">
+        <v>81</v>
+      </c>
+      <c r="H211" t="s">
+        <v>80</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>1</v>
+      </c>
+      <c r="K211">
+        <v>1</v>
+      </c>
+      <c r="L211">
+        <v>0</v>
+      </c>
+      <c r="M211">
+        <v>2</v>
+      </c>
+      <c r="N211">
+        <v>2</v>
+      </c>
+      <c r="O211" t="s">
+        <v>97</v>
+      </c>
+      <c r="P211" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q211">
+        <v>3.1</v>
+      </c>
+      <c r="R211">
+        <v>2.1</v>
+      </c>
+      <c r="S211">
+        <v>3.6</v>
+      </c>
+      <c r="T211">
+        <v>1.44</v>
+      </c>
+      <c r="U211">
+        <v>2.63</v>
+      </c>
+      <c r="V211">
+        <v>3.25</v>
+      </c>
+      <c r="W211">
+        <v>1.33</v>
+      </c>
+      <c r="X211">
+        <v>9</v>
+      </c>
+      <c r="Y211">
+        <v>1.07</v>
+      </c>
+      <c r="Z211">
+        <v>2.38</v>
+      </c>
+      <c r="AA211">
+        <v>3.25</v>
+      </c>
+      <c r="AB211">
+        <v>3.1</v>
+      </c>
+      <c r="AC211">
+        <v>1.03</v>
+      </c>
+      <c r="AD211">
+        <v>8</v>
+      </c>
+      <c r="AE211">
+        <v>1.33</v>
+      </c>
+      <c r="AF211">
+        <v>2.93</v>
+      </c>
+      <c r="AG211">
+        <v>2.08</v>
+      </c>
+      <c r="AH211">
+        <v>1.73</v>
+      </c>
+      <c r="AI211">
+        <v>1.8</v>
+      </c>
+      <c r="AJ211">
+        <v>1.95</v>
+      </c>
+      <c r="AK211">
+        <v>1.36</v>
+      </c>
+      <c r="AL211">
+        <v>1.33</v>
+      </c>
+      <c r="AM211">
+        <v>1.62</v>
+      </c>
+      <c r="AN211">
+        <v>1.6</v>
+      </c>
+      <c r="AO211">
+        <v>0.91</v>
+      </c>
+      <c r="AP211">
+        <v>1.45</v>
+      </c>
+      <c r="AQ211">
+        <v>1.08</v>
+      </c>
+      <c r="AR211">
+        <v>1.43</v>
+      </c>
+      <c r="AS211">
+        <v>1.28</v>
+      </c>
+      <c r="AT211">
+        <v>2.71</v>
+      </c>
+      <c r="AU211">
+        <v>6</v>
+      </c>
+      <c r="AV211">
+        <v>6</v>
+      </c>
+      <c r="AW211">
+        <v>5</v>
+      </c>
+      <c r="AX211">
+        <v>3</v>
+      </c>
+      <c r="AY211">
+        <v>11</v>
+      </c>
+      <c r="AZ211">
+        <v>9</v>
+      </c>
+      <c r="BA211">
+        <v>1</v>
+      </c>
+      <c r="BB211">
+        <v>5</v>
+      </c>
+      <c r="BC211">
+        <v>6</v>
+      </c>
+      <c r="BD211">
+        <v>1.82</v>
+      </c>
+      <c r="BE211">
+        <v>6.4</v>
+      </c>
+      <c r="BF211">
+        <v>2.05</v>
+      </c>
+      <c r="BG211">
+        <v>1.22</v>
+      </c>
+      <c r="BH211">
+        <v>3.7</v>
+      </c>
+      <c r="BI211">
+        <v>1.4</v>
+      </c>
+      <c r="BJ211">
+        <v>2.7</v>
+      </c>
+      <c r="BK211">
+        <v>2.1</v>
+      </c>
+      <c r="BL211">
+        <v>2.08</v>
+      </c>
+      <c r="BM211">
+        <v>2</v>
+      </c>
+      <c r="BN211">
+        <v>1.71</v>
+      </c>
+      <c r="BO211">
+        <v>2.55</v>
+      </c>
+      <c r="BP211">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="212" spans="1:68">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>7373437</v>
+      </c>
+      <c r="C212" t="s">
+        <v>68</v>
+      </c>
+      <c r="D212" t="s">
+        <v>69</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45521.66666666666</v>
+      </c>
+      <c r="F212">
+        <v>23</v>
+      </c>
+      <c r="G212" t="s">
+        <v>84</v>
+      </c>
+      <c r="H212" t="s">
+        <v>89</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212">
+        <v>1</v>
+      </c>
+      <c r="K212">
+        <v>2</v>
+      </c>
+      <c r="L212">
+        <v>1</v>
+      </c>
+      <c r="M212">
+        <v>1</v>
+      </c>
+      <c r="N212">
+        <v>2</v>
+      </c>
+      <c r="O212" t="s">
+        <v>153</v>
+      </c>
+      <c r="P212" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q212">
+        <v>2.25</v>
+      </c>
+      <c r="R212">
+        <v>2.1</v>
+      </c>
+      <c r="S212">
+        <v>6.5</v>
+      </c>
+      <c r="T212">
+        <v>1.44</v>
+      </c>
+      <c r="U212">
+        <v>2.63</v>
+      </c>
+      <c r="V212">
+        <v>3.4</v>
+      </c>
+      <c r="W212">
+        <v>1.3</v>
+      </c>
+      <c r="X212">
+        <v>10</v>
+      </c>
+      <c r="Y212">
+        <v>1.06</v>
+      </c>
+      <c r="Z212">
+        <v>1.6</v>
+      </c>
+      <c r="AA212">
+        <v>3.8</v>
+      </c>
+      <c r="AB212">
+        <v>6</v>
+      </c>
+      <c r="AC212">
+        <v>1.07</v>
+      </c>
+      <c r="AD212">
+        <v>9</v>
+      </c>
+      <c r="AE212">
+        <v>1.4</v>
+      </c>
+      <c r="AF212">
+        <v>2.9</v>
+      </c>
+      <c r="AG212">
+        <v>2.2</v>
+      </c>
+      <c r="AH212">
+        <v>1.65</v>
+      </c>
+      <c r="AI212">
+        <v>2.2</v>
+      </c>
+      <c r="AJ212">
+        <v>1.62</v>
+      </c>
+      <c r="AK212">
+        <v>1.11</v>
+      </c>
+      <c r="AL212">
+        <v>1.2</v>
+      </c>
+      <c r="AM212">
+        <v>2.45</v>
+      </c>
+      <c r="AN212">
+        <v>1.6</v>
+      </c>
+      <c r="AO212">
+        <v>1.22</v>
+      </c>
+      <c r="AP212">
+        <v>1.55</v>
+      </c>
+      <c r="AQ212">
+        <v>1.2</v>
+      </c>
+      <c r="AR212">
+        <v>1.43</v>
+      </c>
+      <c r="AS212">
+        <v>1.15</v>
+      </c>
+      <c r="AT212">
+        <v>2.58</v>
+      </c>
+      <c r="AU212">
+        <v>5</v>
+      </c>
+      <c r="AV212">
+        <v>7</v>
+      </c>
+      <c r="AW212">
+        <v>7</v>
+      </c>
+      <c r="AX212">
+        <v>2</v>
+      </c>
+      <c r="AY212">
+        <v>12</v>
+      </c>
+      <c r="AZ212">
+        <v>9</v>
+      </c>
+      <c r="BA212">
+        <v>8</v>
+      </c>
+      <c r="BB212">
+        <v>6</v>
+      </c>
+      <c r="BC212">
+        <v>14</v>
+      </c>
+      <c r="BD212">
+        <v>1.38</v>
+      </c>
+      <c r="BE212">
+        <v>7</v>
+      </c>
+      <c r="BF212">
+        <v>3.05</v>
+      </c>
+      <c r="BG212">
+        <v>1.26</v>
+      </c>
+      <c r="BH212">
+        <v>3.4</v>
+      </c>
+      <c r="BI212">
+        <v>1.47</v>
+      </c>
+      <c r="BJ212">
+        <v>2.72</v>
+      </c>
+      <c r="BK212">
+        <v>1.72</v>
+      </c>
+      <c r="BL212">
+        <v>1.98</v>
+      </c>
+      <c r="BM212">
+        <v>2.24</v>
+      </c>
+      <c r="BN212">
+        <v>1.66</v>
+      </c>
+      <c r="BO212">
+        <v>2.7</v>
+      </c>
+      <c r="BP212">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:68">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>7373447</v>
+      </c>
+      <c r="C213" t="s">
+        <v>68</v>
+      </c>
+      <c r="D213" t="s">
+        <v>69</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45521.77083333334</v>
+      </c>
+      <c r="F213">
+        <v>23</v>
+      </c>
+      <c r="G213" t="s">
+        <v>82</v>
+      </c>
+      <c r="H213" t="s">
+        <v>86</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213">
+        <v>1</v>
+      </c>
+      <c r="K213">
+        <v>2</v>
+      </c>
+      <c r="L213">
+        <v>1</v>
+      </c>
+      <c r="M213">
+        <v>2</v>
+      </c>
+      <c r="N213">
+        <v>3</v>
+      </c>
+      <c r="O213" t="s">
+        <v>134</v>
+      </c>
+      <c r="P213" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q213">
+        <v>2.88</v>
+      </c>
+      <c r="R213">
+        <v>2.1</v>
+      </c>
+      <c r="S213">
+        <v>3.75</v>
+      </c>
+      <c r="T213">
+        <v>1.44</v>
+      </c>
+      <c r="U213">
+        <v>2.63</v>
+      </c>
+      <c r="V213">
+        <v>3.25</v>
+      </c>
+      <c r="W213">
+        <v>1.33</v>
+      </c>
+      <c r="X213">
+        <v>9</v>
+      </c>
+      <c r="Y213">
+        <v>1.07</v>
+      </c>
+      <c r="Z213">
+        <v>2.25</v>
+      </c>
+      <c r="AA213">
+        <v>3.3</v>
+      </c>
+      <c r="AB213">
+        <v>3.3</v>
+      </c>
+      <c r="AC213">
+        <v>1.03</v>
+      </c>
+      <c r="AD213">
+        <v>8</v>
+      </c>
+      <c r="AE213">
+        <v>1.33</v>
+      </c>
+      <c r="AF213">
+        <v>2.93</v>
+      </c>
+      <c r="AG213">
+        <v>2.1</v>
+      </c>
+      <c r="AH213">
+        <v>1.7</v>
+      </c>
+      <c r="AI213">
+        <v>1.91</v>
+      </c>
+      <c r="AJ213">
+        <v>1.91</v>
+      </c>
+      <c r="AK213">
+        <v>1.33</v>
+      </c>
+      <c r="AL213">
+        <v>1.32</v>
+      </c>
+      <c r="AM213">
+        <v>1.68</v>
+      </c>
+      <c r="AN213">
+        <v>2.11</v>
+      </c>
+      <c r="AO213">
+        <v>1.33</v>
+      </c>
+      <c r="AP213">
+        <v>1.9</v>
+      </c>
+      <c r="AQ213">
+        <v>1.5</v>
+      </c>
+      <c r="AR213">
+        <v>1.36</v>
+      </c>
+      <c r="AS213">
+        <v>1.08</v>
+      </c>
+      <c r="AT213">
+        <v>2.44</v>
+      </c>
+      <c r="AU213">
+        <v>10</v>
+      </c>
+      <c r="AV213">
+        <v>8</v>
+      </c>
+      <c r="AW213">
+        <v>2</v>
+      </c>
+      <c r="AX213">
+        <v>2</v>
+      </c>
+      <c r="AY213">
+        <v>12</v>
+      </c>
+      <c r="AZ213">
+        <v>10</v>
+      </c>
+      <c r="BA213">
+        <v>9</v>
+      </c>
+      <c r="BB213">
+        <v>2</v>
+      </c>
+      <c r="BC213">
+        <v>11</v>
+      </c>
+      <c r="BD213">
+        <v>1.49</v>
+      </c>
+      <c r="BE213">
+        <v>7</v>
+      </c>
+      <c r="BF213">
+        <v>2.65</v>
+      </c>
+      <c r="BG213">
+        <v>1.19</v>
+      </c>
+      <c r="BH213">
+        <v>4.1</v>
+      </c>
+      <c r="BI213">
+        <v>1.32</v>
+      </c>
+      <c r="BJ213">
+        <v>3.05</v>
+      </c>
+      <c r="BK213">
+        <v>1.53</v>
+      </c>
+      <c r="BL213">
+        <v>2.3</v>
+      </c>
+      <c r="BM213">
+        <v>1.88</v>
+      </c>
+      <c r="BN213">
+        <v>1.92</v>
+      </c>
+      <c r="BO213">
+        <v>2.28</v>
+      </c>
+      <c r="BP213">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="214" spans="1:68">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>7373441</v>
+      </c>
+      <c r="C214" t="s">
+        <v>68</v>
+      </c>
+      <c r="D214" t="s">
+        <v>69</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45521.875</v>
+      </c>
+      <c r="F214">
+        <v>23</v>
+      </c>
+      <c r="G214" t="s">
+        <v>72</v>
+      </c>
+      <c r="H214" t="s">
+        <v>77</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+      <c r="L214">
+        <v>0</v>
+      </c>
+      <c r="M214">
+        <v>0</v>
+      </c>
+      <c r="N214">
+        <v>0</v>
+      </c>
+      <c r="O214" t="s">
+        <v>97</v>
+      </c>
+      <c r="P214" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q214">
+        <v>3.4</v>
+      </c>
+      <c r="R214">
+        <v>1.83</v>
+      </c>
+      <c r="S214">
+        <v>4</v>
+      </c>
+      <c r="T214">
+        <v>1.5</v>
+      </c>
+      <c r="U214">
+        <v>2.5</v>
+      </c>
+      <c r="V214">
+        <v>3.5</v>
+      </c>
+      <c r="W214">
+        <v>1.29</v>
+      </c>
+      <c r="X214">
+        <v>10</v>
+      </c>
+      <c r="Y214">
+        <v>1.06</v>
+      </c>
+      <c r="Z214">
+        <v>1.98</v>
+      </c>
+      <c r="AA214">
+        <v>3.4</v>
+      </c>
+      <c r="AB214">
+        <v>3.95</v>
+      </c>
+      <c r="AC214">
+        <v>1.08</v>
+      </c>
+      <c r="AD214">
+        <v>8</v>
+      </c>
+      <c r="AE214">
+        <v>1.53</v>
+      </c>
+      <c r="AF214">
+        <v>2.35</v>
+      </c>
+      <c r="AG214">
+        <v>2.25</v>
+      </c>
+      <c r="AH214">
+        <v>1.55</v>
+      </c>
+      <c r="AI214">
+        <v>2.25</v>
+      </c>
+      <c r="AJ214">
+        <v>1.57</v>
+      </c>
+      <c r="AK214">
+        <v>1.3</v>
+      </c>
+      <c r="AL214">
+        <v>1.3</v>
+      </c>
+      <c r="AM214">
+        <v>1.72</v>
+      </c>
+      <c r="AN214">
+        <v>1.3</v>
+      </c>
+      <c r="AO214">
+        <v>0.45</v>
+      </c>
+      <c r="AP214">
+        <v>1.27</v>
+      </c>
+      <c r="AQ214">
+        <v>0.5</v>
+      </c>
+      <c r="AR214">
+        <v>1.43</v>
+      </c>
+      <c r="AS214">
+        <v>1.26</v>
+      </c>
+      <c r="AT214">
+        <v>2.69</v>
+      </c>
+      <c r="AU214">
+        <v>5</v>
+      </c>
+      <c r="AV214">
+        <v>4</v>
+      </c>
+      <c r="AW214">
+        <v>6</v>
+      </c>
+      <c r="AX214">
+        <v>4</v>
+      </c>
+      <c r="AY214">
+        <v>11</v>
+      </c>
+      <c r="AZ214">
+        <v>8</v>
+      </c>
+      <c r="BA214">
+        <v>6</v>
+      </c>
+      <c r="BB214">
+        <v>2</v>
+      </c>
+      <c r="BC214">
+        <v>8</v>
+      </c>
+      <c r="BD214">
+        <v>1.68</v>
+      </c>
+      <c r="BE214">
+        <v>6.5</v>
+      </c>
+      <c r="BF214">
+        <v>2.28</v>
+      </c>
+      <c r="BG214">
+        <v>1.2</v>
+      </c>
+      <c r="BH214">
+        <v>3.9</v>
+      </c>
+      <c r="BI214">
+        <v>1.37</v>
+      </c>
+      <c r="BJ214">
+        <v>2.8</v>
+      </c>
+      <c r="BK214">
+        <v>2</v>
+      </c>
+      <c r="BL214">
+        <v>2.15</v>
+      </c>
+      <c r="BM214">
+        <v>1.96</v>
+      </c>
+      <c r="BN214">
+        <v>1.74</v>
+      </c>
+      <c r="BO214">
+        <v>2.48</v>
+      </c>
+      <c r="BP214">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="322">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -739,6 +739,9 @@
     <t>['3', '54', '84', '90+4']</t>
   </si>
   <si>
+    <t>['25', '29']</t>
+  </si>
+  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -974,6 +977,9 @@
   </si>
   <si>
     <t>['30', '68']</t>
+  </si>
+  <si>
+    <t>['78', '84']</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1341,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP219"/>
+  <dimension ref="A1:BP220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1594,7 +1600,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1800,7 +1806,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -2006,7 +2012,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -2212,7 +2218,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -2624,7 +2630,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -3242,7 +3248,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3448,7 +3454,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3526,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ11">
         <v>1.45</v>
@@ -4890,7 +4896,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -6538,7 +6544,7 @@
         <v>111</v>
       </c>
       <c r="P26" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6616,7 +6622,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ26">
         <v>1.08</v>
@@ -6950,7 +6956,7 @@
         <v>97</v>
       </c>
       <c r="P28" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -7156,7 +7162,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q29">
         <v>2.38</v>
@@ -7362,7 +7368,7 @@
         <v>97</v>
       </c>
       <c r="P30" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7568,7 +7574,7 @@
         <v>97</v>
       </c>
       <c r="P31" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7980,7 +7986,7 @@
         <v>97</v>
       </c>
       <c r="P33" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -8598,7 +8604,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -9010,7 +9016,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -9422,7 +9428,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -10246,7 +10252,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10324,7 +10330,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ44">
         <v>1.09</v>
@@ -10452,7 +10458,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10658,7 +10664,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -11276,7 +11282,7 @@
         <v>97</v>
       </c>
       <c r="P49" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q49">
         <v>3.6</v>
@@ -11482,7 +11488,7 @@
         <v>97</v>
       </c>
       <c r="P50" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q50">
         <v>2.38</v>
@@ -11894,7 +11900,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q52">
         <v>2.38</v>
@@ -12100,7 +12106,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q53">
         <v>2.38</v>
@@ -12306,7 +12312,7 @@
         <v>97</v>
       </c>
       <c r="P54" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -12512,7 +12518,7 @@
         <v>97</v>
       </c>
       <c r="P55" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -12590,7 +12596,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ55">
         <v>0.75</v>
@@ -13336,7 +13342,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q59">
         <v>4.75</v>
@@ -13542,7 +13548,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q60">
         <v>5.5</v>
@@ -13748,7 +13754,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q61">
         <v>2.3</v>
@@ -14778,7 +14784,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -15190,7 +15196,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15602,7 +15608,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15808,7 +15814,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16220,7 +16226,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q73">
         <v>2.1</v>
@@ -17250,7 +17256,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q78">
         <v>2.63</v>
@@ -17456,7 +17462,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -17534,7 +17540,7 @@
         <v>2</v>
       </c>
       <c r="AP79">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ79">
         <v>1.2</v>
@@ -17662,7 +17668,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17868,7 +17874,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -18280,7 +18286,7 @@
         <v>151</v>
       </c>
       <c r="P83" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -18486,7 +18492,7 @@
         <v>152</v>
       </c>
       <c r="P84" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -18898,7 +18904,7 @@
         <v>97</v>
       </c>
       <c r="P86" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -19104,7 +19110,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q87">
         <v>2.38</v>
@@ -19722,7 +19728,7 @@
         <v>97</v>
       </c>
       <c r="P90" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -20546,7 +20552,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20624,7 +20630,7 @@
         <v>2</v>
       </c>
       <c r="AP94">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ94">
         <v>1.3</v>
@@ -20752,7 +20758,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -21370,7 +21376,7 @@
         <v>97</v>
       </c>
       <c r="P98" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q98">
         <v>3.5</v>
@@ -22194,7 +22200,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q102">
         <v>2.63</v>
@@ -22400,7 +22406,7 @@
         <v>97</v>
       </c>
       <c r="P103" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -23018,7 +23024,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q106">
         <v>1.83</v>
@@ -23224,7 +23230,7 @@
         <v>166</v>
       </c>
       <c r="P107" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q107">
         <v>2.63</v>
@@ -24048,7 +24054,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -24254,7 +24260,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q112">
         <v>2.2</v>
@@ -24460,7 +24466,7 @@
         <v>138</v>
       </c>
       <c r="P113" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24872,7 +24878,7 @@
         <v>97</v>
       </c>
       <c r="P115" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -25284,7 +25290,7 @@
         <v>93</v>
       </c>
       <c r="P117" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -26804,7 +26810,7 @@
         <v>0.83</v>
       </c>
       <c r="AP124">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ124">
         <v>1.36</v>
@@ -27344,7 +27350,7 @@
         <v>132</v>
       </c>
       <c r="P127" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q127">
         <v>3.6</v>
@@ -27962,7 +27968,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q130">
         <v>3.4</v>
@@ -28168,7 +28174,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q131">
         <v>2.5</v>
@@ -28374,7 +28380,7 @@
         <v>134</v>
       </c>
       <c r="P132" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q132">
         <v>3.2</v>
@@ -28580,7 +28586,7 @@
         <v>185</v>
       </c>
       <c r="P133" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q133">
         <v>3.75</v>
@@ -29198,7 +29204,7 @@
         <v>188</v>
       </c>
       <c r="P136" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29610,7 +29616,7 @@
         <v>190</v>
       </c>
       <c r="P138" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -30434,7 +30440,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -30846,7 +30852,7 @@
         <v>196</v>
       </c>
       <c r="P144" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q144">
         <v>2.63</v>
@@ -31130,7 +31136,7 @@
         <v>1.4</v>
       </c>
       <c r="AP145">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ145">
         <v>1</v>
@@ -31464,7 +31470,7 @@
         <v>97</v>
       </c>
       <c r="P147" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31670,7 +31676,7 @@
         <v>178</v>
       </c>
       <c r="P148" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q148">
         <v>2.88</v>
@@ -32288,7 +32294,7 @@
         <v>201</v>
       </c>
       <c r="P151" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q151">
         <v>2.2</v>
@@ -32494,7 +32500,7 @@
         <v>202</v>
       </c>
       <c r="P152" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q152">
         <v>2.63</v>
@@ -32778,7 +32784,7 @@
         <v>1.75</v>
       </c>
       <c r="AP153">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ153">
         <v>1.75</v>
@@ -32906,7 +32912,7 @@
         <v>203</v>
       </c>
       <c r="P154" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q154">
         <v>3.4</v>
@@ -33112,7 +33118,7 @@
         <v>204</v>
       </c>
       <c r="P155" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q155">
         <v>2.6</v>
@@ -33318,7 +33324,7 @@
         <v>123</v>
       </c>
       <c r="P156" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33524,7 +33530,7 @@
         <v>205</v>
       </c>
       <c r="P157" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -33936,7 +33942,7 @@
         <v>97</v>
       </c>
       <c r="P159" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34348,7 +34354,7 @@
         <v>207</v>
       </c>
       <c r="P161" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q161">
         <v>2.25</v>
@@ -34760,7 +34766,7 @@
         <v>208</v>
       </c>
       <c r="P163" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q163">
         <v>1.95</v>
@@ -36614,7 +36620,7 @@
         <v>97</v>
       </c>
       <c r="P172" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q172">
         <v>3.2</v>
@@ -37232,7 +37238,7 @@
         <v>215</v>
       </c>
       <c r="P175" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q175">
         <v>3.1</v>
@@ -37438,7 +37444,7 @@
         <v>216</v>
       </c>
       <c r="P176" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q176">
         <v>5</v>
@@ -37516,7 +37522,7 @@
         <v>1.88</v>
       </c>
       <c r="AP176">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ176">
         <v>1.64</v>
@@ -37850,7 +37856,7 @@
         <v>190</v>
       </c>
       <c r="P178" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q178">
         <v>3.5</v>
@@ -38056,7 +38062,7 @@
         <v>218</v>
       </c>
       <c r="P179" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q179">
         <v>2.88</v>
@@ -38262,7 +38268,7 @@
         <v>190</v>
       </c>
       <c r="P180" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q180">
         <v>3</v>
@@ -38468,7 +38474,7 @@
         <v>97</v>
       </c>
       <c r="P181" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q181">
         <v>1.91</v>
@@ -38674,7 +38680,7 @@
         <v>219</v>
       </c>
       <c r="P182" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q182">
         <v>2.75</v>
@@ -38880,7 +38886,7 @@
         <v>97</v>
       </c>
       <c r="P183" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q183">
         <v>2.63</v>
@@ -39704,7 +39710,7 @@
         <v>222</v>
       </c>
       <c r="P187" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q187">
         <v>3.4</v>
@@ -40400,7 +40406,7 @@
         <v>1.38</v>
       </c>
       <c r="AP190">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ190">
         <v>1.2</v>
@@ -40528,7 +40534,7 @@
         <v>225</v>
       </c>
       <c r="P191" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q191">
         <v>2.63</v>
@@ -40734,7 +40740,7 @@
         <v>226</v>
       </c>
       <c r="P192" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q192">
         <v>4</v>
@@ -40940,7 +40946,7 @@
         <v>205</v>
       </c>
       <c r="P193" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q193">
         <v>3.6</v>
@@ -41764,7 +41770,7 @@
         <v>97</v>
       </c>
       <c r="P197" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q197">
         <v>2.4</v>
@@ -41970,7 +41976,7 @@
         <v>227</v>
       </c>
       <c r="P198" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q198">
         <v>3.25</v>
@@ -42176,7 +42182,7 @@
         <v>228</v>
       </c>
       <c r="P199" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q199">
         <v>2.6</v>
@@ -42588,7 +42594,7 @@
         <v>230</v>
       </c>
       <c r="P201" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q201">
         <v>3.2</v>
@@ -43412,7 +43418,7 @@
         <v>233</v>
       </c>
       <c r="P205" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q205">
         <v>4.33</v>
@@ -44236,7 +44242,7 @@
         <v>235</v>
       </c>
       <c r="P209" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q209">
         <v>2.6</v>
@@ -44648,7 +44654,7 @@
         <v>97</v>
       </c>
       <c r="P211" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q211">
         <v>3.1</v>
@@ -45060,7 +45066,7 @@
         <v>134</v>
       </c>
       <c r="P213" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q213">
         <v>2.88</v>
@@ -45472,7 +45478,7 @@
         <v>237</v>
       </c>
       <c r="P215" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q215">
         <v>3</v>
@@ -46090,7 +46096,7 @@
         <v>240</v>
       </c>
       <c r="P218" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q218">
         <v>3.25</v>
@@ -46296,7 +46302,7 @@
         <v>201</v>
       </c>
       <c r="P219" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q219">
         <v>2.2</v>
@@ -46453,6 +46459,212 @@
       </c>
       <c r="BP219">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="220" spans="1:68">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>7373439</v>
+      </c>
+      <c r="C220" t="s">
+        <v>68</v>
+      </c>
+      <c r="D220" t="s">
+        <v>69</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45523.83333333334</v>
+      </c>
+      <c r="F220">
+        <v>23</v>
+      </c>
+      <c r="G220" t="s">
+        <v>79</v>
+      </c>
+      <c r="H220" t="s">
+        <v>78</v>
+      </c>
+      <c r="I220">
+        <v>2</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>2</v>
+      </c>
+      <c r="L220">
+        <v>2</v>
+      </c>
+      <c r="M220">
+        <v>2</v>
+      </c>
+      <c r="N220">
+        <v>4</v>
+      </c>
+      <c r="O220" t="s">
+        <v>241</v>
+      </c>
+      <c r="P220" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q220">
+        <v>3.6</v>
+      </c>
+      <c r="R220">
+        <v>1.91</v>
+      </c>
+      <c r="S220">
+        <v>3.5</v>
+      </c>
+      <c r="T220">
+        <v>1.5</v>
+      </c>
+      <c r="U220">
+        <v>2.5</v>
+      </c>
+      <c r="V220">
+        <v>3.5</v>
+      </c>
+      <c r="W220">
+        <v>1.29</v>
+      </c>
+      <c r="X220">
+        <v>11</v>
+      </c>
+      <c r="Y220">
+        <v>1.05</v>
+      </c>
+      <c r="Z220">
+        <v>2.88</v>
+      </c>
+      <c r="AA220">
+        <v>2.95</v>
+      </c>
+      <c r="AB220">
+        <v>2.25</v>
+      </c>
+      <c r="AC220">
+        <v>1.05</v>
+      </c>
+      <c r="AD220">
+        <v>6.95</v>
+      </c>
+      <c r="AE220">
+        <v>1.42</v>
+      </c>
+      <c r="AF220">
+        <v>2.57</v>
+      </c>
+      <c r="AG220">
+        <v>2.29</v>
+      </c>
+      <c r="AH220">
+        <v>1.55</v>
+      </c>
+      <c r="AI220">
+        <v>2.1</v>
+      </c>
+      <c r="AJ220">
+        <v>1.67</v>
+      </c>
+      <c r="AK220">
+        <v>1.58</v>
+      </c>
+      <c r="AL220">
+        <v>1.35</v>
+      </c>
+      <c r="AM220">
+        <v>1.35</v>
+      </c>
+      <c r="AN220">
+        <v>1.18</v>
+      </c>
+      <c r="AO220">
+        <v>1</v>
+      </c>
+      <c r="AP220">
+        <v>1.17</v>
+      </c>
+      <c r="AQ220">
+        <v>1</v>
+      </c>
+      <c r="AR220">
+        <v>1.24</v>
+      </c>
+      <c r="AS220">
+        <v>1.24</v>
+      </c>
+      <c r="AT220">
+        <v>2.48</v>
+      </c>
+      <c r="AU220">
+        <v>6</v>
+      </c>
+      <c r="AV220">
+        <v>13</v>
+      </c>
+      <c r="AW220">
+        <v>9</v>
+      </c>
+      <c r="AX220">
+        <v>13</v>
+      </c>
+      <c r="AY220">
+        <v>15</v>
+      </c>
+      <c r="AZ220">
+        <v>26</v>
+      </c>
+      <c r="BA220">
+        <v>4</v>
+      </c>
+      <c r="BB220">
+        <v>6</v>
+      </c>
+      <c r="BC220">
+        <v>10</v>
+      </c>
+      <c r="BD220">
+        <v>1.82</v>
+      </c>
+      <c r="BE220">
+        <v>6.4</v>
+      </c>
+      <c r="BF220">
+        <v>2.05</v>
+      </c>
+      <c r="BG220">
+        <v>1.21</v>
+      </c>
+      <c r="BH220">
+        <v>3.74</v>
+      </c>
+      <c r="BI220">
+        <v>1.42</v>
+      </c>
+      <c r="BJ220">
+        <v>2.65</v>
+      </c>
+      <c r="BK220">
+        <v>2.38</v>
+      </c>
+      <c r="BL220">
+        <v>2.02</v>
+      </c>
+      <c r="BM220">
+        <v>2.19</v>
+      </c>
+      <c r="BN220">
+        <v>1.6</v>
+      </c>
+      <c r="BO220">
+        <v>2.88</v>
+      </c>
+      <c r="BP220">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -46601,31 +46601,31 @@
         <v>2.48</v>
       </c>
       <c r="AU220">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV220">
         <v>13</v>
       </c>
       <c r="AW220">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AX220">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AY220">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ220">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="BA220">
         <v>4</v>
       </c>
       <c r="BB220">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC220">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD220">
         <v>1.82</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="326">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -742,6 +742,12 @@
     <t>['25', '29']</t>
   </si>
   <si>
+    <t>['47', '90+11']</t>
+  </si>
+  <si>
+    <t>['15', '27', '32', '45+2', '56']</t>
+  </si>
+  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -980,6 +986,12 @@
   </si>
   <si>
     <t>['78', '84']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['23', '59']</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP220"/>
+  <dimension ref="A1:BP223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1600,7 +1612,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1806,7 +1818,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1887,7 +1899,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ3">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2012,7 +2024,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -2218,7 +2230,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -2505,7 +2517,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ6">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2630,7 +2642,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2708,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ7">
         <v>1.64</v>
@@ -3248,7 +3260,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3454,7 +3466,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3741,7 +3753,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ12">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4356,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ15">
         <v>1.2</v>
@@ -4562,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4896,7 +4908,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5801,7 +5813,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ22">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR22">
         <v>1.64</v>
@@ -6210,7 +6222,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -6416,7 +6428,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ25">
         <v>1.64</v>
@@ -6544,7 +6556,7 @@
         <v>111</v>
       </c>
       <c r="P26" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6956,7 +6968,7 @@
         <v>97</v>
       </c>
       <c r="P28" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -7034,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ28">
         <v>1.09</v>
@@ -7162,7 +7174,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q29">
         <v>2.38</v>
@@ -7243,7 +7255,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ29">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR29">
         <v>1.4</v>
@@ -7368,7 +7380,7 @@
         <v>97</v>
       </c>
       <c r="P30" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7574,7 +7586,7 @@
         <v>97</v>
       </c>
       <c r="P31" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7986,7 +7998,7 @@
         <v>97</v>
       </c>
       <c r="P33" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -8273,7 +8285,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ34">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR34">
         <v>1.12</v>
@@ -8604,7 +8616,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -9016,7 +9028,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -9428,7 +9440,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -10252,7 +10264,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10458,7 +10470,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10664,7 +10676,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -11282,7 +11294,7 @@
         <v>97</v>
       </c>
       <c r="P49" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q49">
         <v>3.6</v>
@@ -11360,7 +11372,7 @@
         <v>0.5</v>
       </c>
       <c r="AP49">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ49">
         <v>1</v>
@@ -11488,7 +11500,7 @@
         <v>97</v>
       </c>
       <c r="P50" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q50">
         <v>2.38</v>
@@ -11566,7 +11578,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ50">
         <v>1.36</v>
@@ -11900,7 +11912,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q52">
         <v>2.38</v>
@@ -12106,7 +12118,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q53">
         <v>2.38</v>
@@ -12187,7 +12199,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ53">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR53">
         <v>1.37</v>
@@ -12312,7 +12324,7 @@
         <v>97</v>
       </c>
       <c r="P54" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -12518,7 +12530,7 @@
         <v>97</v>
       </c>
       <c r="P55" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -13011,7 +13023,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ57">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR57">
         <v>1.86</v>
@@ -13342,7 +13354,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q59">
         <v>4.75</v>
@@ -13548,7 +13560,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q60">
         <v>5.5</v>
@@ -13754,7 +13766,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q61">
         <v>2.3</v>
@@ -13832,7 +13844,7 @@
         <v>1.33</v>
       </c>
       <c r="AP61">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ61">
         <v>1.08</v>
@@ -14784,7 +14796,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14865,7 +14877,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ66">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR66">
         <v>1.13</v>
@@ -15196,7 +15208,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15274,7 +15286,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ68">
         <v>0.5</v>
@@ -15483,7 +15495,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ69">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR69">
         <v>1.64</v>
@@ -15608,7 +15620,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15814,7 +15826,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15895,7 +15907,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ71">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR71">
         <v>1.56</v>
@@ -16226,7 +16238,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q73">
         <v>2.1</v>
@@ -16922,7 +16934,7 @@
         <v>0</v>
       </c>
       <c r="AP76">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ76">
         <v>0.64</v>
@@ -17131,7 +17143,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ77">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR77">
         <v>1.45</v>
@@ -17256,7 +17268,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q78">
         <v>2.63</v>
@@ -17462,7 +17474,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -17668,7 +17680,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17874,7 +17886,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -18286,7 +18298,7 @@
         <v>151</v>
       </c>
       <c r="P83" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -18492,7 +18504,7 @@
         <v>152</v>
       </c>
       <c r="P84" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -18904,7 +18916,7 @@
         <v>97</v>
       </c>
       <c r="P86" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -18982,7 +18994,7 @@
         <v>2.5</v>
       </c>
       <c r="AP86">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ86">
         <v>1.45</v>
@@ -19110,7 +19122,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q87">
         <v>2.38</v>
@@ -19188,7 +19200,7 @@
         <v>1.33</v>
       </c>
       <c r="AP87">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ87">
         <v>1</v>
@@ -19728,7 +19740,7 @@
         <v>97</v>
       </c>
       <c r="P90" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -19809,7 +19821,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ90">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR90">
         <v>1.48</v>
@@ -20427,7 +20439,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ93">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR93">
         <v>1.62</v>
@@ -20552,7 +20564,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20758,7 +20770,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -21042,7 +21054,7 @@
         <v>1.25</v>
       </c>
       <c r="AP96">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ96">
         <v>0.73</v>
@@ -21376,7 +21388,7 @@
         <v>97</v>
       </c>
       <c r="P98" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q98">
         <v>3.5</v>
@@ -22200,7 +22212,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q102">
         <v>2.63</v>
@@ -22406,7 +22418,7 @@
         <v>97</v>
       </c>
       <c r="P103" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -22896,7 +22908,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ105">
         <v>1.5</v>
@@ -23024,7 +23036,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q106">
         <v>1.83</v>
@@ -23102,10 +23114,10 @@
         <v>0.5</v>
       </c>
       <c r="AP106">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ106">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR106">
         <v>1.72</v>
@@ -23230,7 +23242,7 @@
         <v>166</v>
       </c>
       <c r="P107" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q107">
         <v>2.63</v>
@@ -23929,7 +23941,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ110">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR110">
         <v>1.71</v>
@@ -24054,7 +24066,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -24132,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="AP111">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ111">
         <v>0.8</v>
@@ -24260,7 +24272,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q112">
         <v>2.2</v>
@@ -24466,7 +24478,7 @@
         <v>138</v>
       </c>
       <c r="P113" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24878,7 +24890,7 @@
         <v>97</v>
       </c>
       <c r="P115" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -25290,7 +25302,7 @@
         <v>93</v>
       </c>
       <c r="P117" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25780,7 +25792,7 @@
         <v>1.33</v>
       </c>
       <c r="AP119">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ119">
         <v>0.75</v>
@@ -25989,7 +26001,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ120">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR120">
         <v>1.32</v>
@@ -26401,7 +26413,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ122">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR122">
         <v>1.32</v>
@@ -27222,7 +27234,7 @@
         <v>0.33</v>
       </c>
       <c r="AP126">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ126">
         <v>0.5</v>
@@ -27350,7 +27362,7 @@
         <v>132</v>
       </c>
       <c r="P127" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q127">
         <v>3.6</v>
@@ -27968,7 +27980,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q130">
         <v>3.4</v>
@@ -28046,7 +28058,7 @@
         <v>1.71</v>
       </c>
       <c r="AP130">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ130">
         <v>1.64</v>
@@ -28174,7 +28186,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q131">
         <v>2.5</v>
@@ -28380,7 +28392,7 @@
         <v>134</v>
       </c>
       <c r="P132" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q132">
         <v>3.2</v>
@@ -28586,7 +28598,7 @@
         <v>185</v>
       </c>
       <c r="P133" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q133">
         <v>3.75</v>
@@ -28873,7 +28885,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ134">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR134">
         <v>1.52</v>
@@ -29204,7 +29216,7 @@
         <v>188</v>
       </c>
       <c r="P136" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29616,7 +29628,7 @@
         <v>190</v>
       </c>
       <c r="P138" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -29697,7 +29709,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ138">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR138">
         <v>1.48</v>
@@ -30109,7 +30121,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ140">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR140">
         <v>1.39</v>
@@ -30440,7 +30452,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -30724,7 +30736,7 @@
         <v>0.86</v>
       </c>
       <c r="AP143">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ143">
         <v>1.08</v>
@@ -30852,7 +30864,7 @@
         <v>196</v>
       </c>
       <c r="P144" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q144">
         <v>2.63</v>
@@ -30930,7 +30942,7 @@
         <v>1.14</v>
       </c>
       <c r="AP144">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ144">
         <v>1.36</v>
@@ -31470,7 +31482,7 @@
         <v>97</v>
       </c>
       <c r="P147" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31676,7 +31688,7 @@
         <v>178</v>
       </c>
       <c r="P148" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q148">
         <v>2.88</v>
@@ -32166,7 +32178,7 @@
         <v>1.13</v>
       </c>
       <c r="AP150">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ150">
         <v>0.75</v>
@@ -32294,7 +32306,7 @@
         <v>201</v>
       </c>
       <c r="P151" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q151">
         <v>2.2</v>
@@ -32500,7 +32512,7 @@
         <v>202</v>
       </c>
       <c r="P152" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q152">
         <v>2.63</v>
@@ -32581,7 +32593,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ152">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR152">
         <v>1.53</v>
@@ -32912,7 +32924,7 @@
         <v>203</v>
       </c>
       <c r="P154" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q154">
         <v>3.4</v>
@@ -32990,7 +33002,7 @@
         <v>1.57</v>
       </c>
       <c r="AP154">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ154">
         <v>1.09</v>
@@ -33118,7 +33130,7 @@
         <v>204</v>
       </c>
       <c r="P155" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q155">
         <v>2.6</v>
@@ -33324,7 +33336,7 @@
         <v>123</v>
       </c>
       <c r="P156" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33405,7 +33417,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ156">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR156">
         <v>1.6</v>
@@ -33530,7 +33542,7 @@
         <v>205</v>
       </c>
       <c r="P157" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -33942,7 +33954,7 @@
         <v>97</v>
       </c>
       <c r="P159" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34020,7 +34032,7 @@
         <v>0.43</v>
       </c>
       <c r="AP159">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ159">
         <v>0.64</v>
@@ -34354,7 +34366,7 @@
         <v>207</v>
       </c>
       <c r="P161" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q161">
         <v>2.25</v>
@@ -34766,7 +34778,7 @@
         <v>208</v>
       </c>
       <c r="P163" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q163">
         <v>1.95</v>
@@ -35256,7 +35268,7 @@
         <v>0.89</v>
       </c>
       <c r="AP165">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ165">
         <v>1</v>
@@ -35668,7 +35680,7 @@
         <v>0.75</v>
       </c>
       <c r="AP167">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ167">
         <v>0.64</v>
@@ -36620,7 +36632,7 @@
         <v>97</v>
       </c>
       <c r="P172" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q172">
         <v>3.2</v>
@@ -36701,7 +36713,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ172">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR172">
         <v>1.18</v>
@@ -37113,7 +37125,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ174">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR174">
         <v>1.59</v>
@@ -37238,7 +37250,7 @@
         <v>215</v>
       </c>
       <c r="P175" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q175">
         <v>3.1</v>
@@ -37444,7 +37456,7 @@
         <v>216</v>
       </c>
       <c r="P176" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q176">
         <v>5</v>
@@ -37856,7 +37868,7 @@
         <v>190</v>
       </c>
       <c r="P178" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q178">
         <v>3.5</v>
@@ -37934,7 +37946,7 @@
         <v>1</v>
       </c>
       <c r="AP178">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ178">
         <v>1.08</v>
@@ -38062,7 +38074,7 @@
         <v>218</v>
       </c>
       <c r="P179" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q179">
         <v>2.88</v>
@@ -38268,7 +38280,7 @@
         <v>190</v>
       </c>
       <c r="P180" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q180">
         <v>3</v>
@@ -38474,7 +38486,7 @@
         <v>97</v>
       </c>
       <c r="P181" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q181">
         <v>1.91</v>
@@ -38552,7 +38564,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP181">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ181">
         <v>0.73</v>
@@ -38680,7 +38692,7 @@
         <v>219</v>
       </c>
       <c r="P182" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q182">
         <v>2.75</v>
@@ -38886,7 +38898,7 @@
         <v>97</v>
       </c>
       <c r="P183" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q183">
         <v>2.63</v>
@@ -39379,7 +39391,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ185">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR185">
         <v>1.37</v>
@@ -39710,7 +39722,7 @@
         <v>222</v>
       </c>
       <c r="P187" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q187">
         <v>3.4</v>
@@ -40200,7 +40212,7 @@
         <v>0.5</v>
       </c>
       <c r="AP189">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ189">
         <v>0.5</v>
@@ -40409,7 +40421,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ190">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR190">
         <v>1.23</v>
@@ -40534,7 +40546,7 @@
         <v>225</v>
       </c>
       <c r="P191" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q191">
         <v>2.63</v>
@@ -40740,7 +40752,7 @@
         <v>226</v>
       </c>
       <c r="P192" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q192">
         <v>4</v>
@@ -40946,7 +40958,7 @@
         <v>205</v>
       </c>
       <c r="P193" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q193">
         <v>3.6</v>
@@ -41024,7 +41036,7 @@
         <v>1.8</v>
       </c>
       <c r="AP193">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ193">
         <v>1.75</v>
@@ -41645,7 +41657,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ196">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR196">
         <v>1.69</v>
@@ -41770,7 +41782,7 @@
         <v>97</v>
       </c>
       <c r="P197" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q197">
         <v>2.4</v>
@@ -41976,7 +41988,7 @@
         <v>227</v>
       </c>
       <c r="P198" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q198">
         <v>3.25</v>
@@ -42182,7 +42194,7 @@
         <v>228</v>
       </c>
       <c r="P199" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q199">
         <v>2.6</v>
@@ -42594,7 +42606,7 @@
         <v>230</v>
       </c>
       <c r="P201" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q201">
         <v>3.2</v>
@@ -43293,7 +43305,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ204">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR204">
         <v>1.4</v>
@@ -43418,7 +43430,7 @@
         <v>233</v>
       </c>
       <c r="P205" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q205">
         <v>4.33</v>
@@ -44242,7 +44254,7 @@
         <v>235</v>
       </c>
       <c r="P209" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q209">
         <v>2.6</v>
@@ -44529,7 +44541,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ210">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR210">
         <v>1.62</v>
@@ -44654,7 +44666,7 @@
         <v>97</v>
       </c>
       <c r="P211" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q211">
         <v>3.1</v>
@@ -44938,10 +44950,10 @@
         <v>1.22</v>
       </c>
       <c r="AP212">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ212">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR212">
         <v>1.43</v>
@@ -45066,7 +45078,7 @@
         <v>134</v>
       </c>
       <c r="P213" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q213">
         <v>2.88</v>
@@ -45478,7 +45490,7 @@
         <v>237</v>
       </c>
       <c r="P215" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q215">
         <v>3</v>
@@ -45762,7 +45774,7 @@
         <v>1.33</v>
       </c>
       <c r="AP216">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ216">
         <v>1.2</v>
@@ -45968,7 +45980,7 @@
         <v>1.2</v>
       </c>
       <c r="AP217">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ217">
         <v>1.09</v>
@@ -46096,7 +46108,7 @@
         <v>240</v>
       </c>
       <c r="P218" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q218">
         <v>3.25</v>
@@ -46302,7 +46314,7 @@
         <v>201</v>
       </c>
       <c r="P219" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q219">
         <v>2.2</v>
@@ -46383,7 +46395,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ219">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR219">
         <v>1.75</v>
@@ -46508,7 +46520,7 @@
         <v>241</v>
       </c>
       <c r="P220" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q220">
         <v>3.6</v>
@@ -46665,6 +46677,624 @@
       </c>
       <c r="BP220">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="221" spans="1:68">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>7373472</v>
+      </c>
+      <c r="C221" t="s">
+        <v>68</v>
+      </c>
+      <c r="D221" t="s">
+        <v>69</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45528.66666666666</v>
+      </c>
+      <c r="F221">
+        <v>24</v>
+      </c>
+      <c r="G221" t="s">
+        <v>75</v>
+      </c>
+      <c r="H221" t="s">
+        <v>85</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>0</v>
+      </c>
+      <c r="L221">
+        <v>2</v>
+      </c>
+      <c r="M221">
+        <v>1</v>
+      </c>
+      <c r="N221">
+        <v>3</v>
+      </c>
+      <c r="O221" t="s">
+        <v>242</v>
+      </c>
+      <c r="P221" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q221">
+        <v>2.5</v>
+      </c>
+      <c r="R221">
+        <v>2.1</v>
+      </c>
+      <c r="S221">
+        <v>4.75</v>
+      </c>
+      <c r="T221">
+        <v>1.44</v>
+      </c>
+      <c r="U221">
+        <v>2.63</v>
+      </c>
+      <c r="V221">
+        <v>3.25</v>
+      </c>
+      <c r="W221">
+        <v>1.33</v>
+      </c>
+      <c r="X221">
+        <v>10</v>
+      </c>
+      <c r="Y221">
+        <v>1.06</v>
+      </c>
+      <c r="Z221">
+        <v>1.85</v>
+      </c>
+      <c r="AA221">
+        <v>3.4</v>
+      </c>
+      <c r="AB221">
+        <v>4.5</v>
+      </c>
+      <c r="AC221">
+        <v>1.07</v>
+      </c>
+      <c r="AD221">
+        <v>9</v>
+      </c>
+      <c r="AE221">
+        <v>1.38</v>
+      </c>
+      <c r="AF221">
+        <v>3</v>
+      </c>
+      <c r="AG221">
+        <v>2.08</v>
+      </c>
+      <c r="AH221">
+        <v>1.73</v>
+      </c>
+      <c r="AI221">
+        <v>1.95</v>
+      </c>
+      <c r="AJ221">
+        <v>1.8</v>
+      </c>
+      <c r="AK221">
+        <v>1.3</v>
+      </c>
+      <c r="AL221">
+        <v>1.28</v>
+      </c>
+      <c r="AM221">
+        <v>1.72</v>
+      </c>
+      <c r="AN221">
+        <v>0.55</v>
+      </c>
+      <c r="AO221">
+        <v>0.55</v>
+      </c>
+      <c r="AP221">
+        <v>0.75</v>
+      </c>
+      <c r="AQ221">
+        <v>0.5</v>
+      </c>
+      <c r="AR221">
+        <v>1.44</v>
+      </c>
+      <c r="AS221">
+        <v>1.15</v>
+      </c>
+      <c r="AT221">
+        <v>2.59</v>
+      </c>
+      <c r="AU221">
+        <v>8</v>
+      </c>
+      <c r="AV221">
+        <v>4</v>
+      </c>
+      <c r="AW221">
+        <v>7</v>
+      </c>
+      <c r="AX221">
+        <v>5</v>
+      </c>
+      <c r="AY221">
+        <v>15</v>
+      </c>
+      <c r="AZ221">
+        <v>9</v>
+      </c>
+      <c r="BA221">
+        <v>4</v>
+      </c>
+      <c r="BB221">
+        <v>6</v>
+      </c>
+      <c r="BC221">
+        <v>10</v>
+      </c>
+      <c r="BD221">
+        <v>1.45</v>
+      </c>
+      <c r="BE221">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF221">
+        <v>3.24</v>
+      </c>
+      <c r="BG221">
+        <v>1.22</v>
+      </c>
+      <c r="BH221">
+        <v>3.65</v>
+      </c>
+      <c r="BI221">
+        <v>1.41</v>
+      </c>
+      <c r="BJ221">
+        <v>2.65</v>
+      </c>
+      <c r="BK221">
+        <v>1.83</v>
+      </c>
+      <c r="BL221">
+        <v>2</v>
+      </c>
+      <c r="BM221">
+        <v>2.02</v>
+      </c>
+      <c r="BN221">
+        <v>1.7</v>
+      </c>
+      <c r="BO221">
+        <v>2.55</v>
+      </c>
+      <c r="BP221">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="222" spans="1:68">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>7373466</v>
+      </c>
+      <c r="C222" t="s">
+        <v>68</v>
+      </c>
+      <c r="D222" t="s">
+        <v>69</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45528.77083333334</v>
+      </c>
+      <c r="F222">
+        <v>24</v>
+      </c>
+      <c r="G222" t="s">
+        <v>83</v>
+      </c>
+      <c r="H222" t="s">
+        <v>89</v>
+      </c>
+      <c r="I222">
+        <v>4</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>4</v>
+      </c>
+      <c r="L222">
+        <v>5</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>5</v>
+      </c>
+      <c r="O222" t="s">
+        <v>243</v>
+      </c>
+      <c r="P222" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q222">
+        <v>2.05</v>
+      </c>
+      <c r="R222">
+        <v>2.25</v>
+      </c>
+      <c r="S222">
+        <v>7</v>
+      </c>
+      <c r="T222">
+        <v>1.44</v>
+      </c>
+      <c r="U222">
+        <v>2.63</v>
+      </c>
+      <c r="V222">
+        <v>3.25</v>
+      </c>
+      <c r="W222">
+        <v>1.33</v>
+      </c>
+      <c r="X222">
+        <v>9</v>
+      </c>
+      <c r="Y222">
+        <v>1.07</v>
+      </c>
+      <c r="Z222">
+        <v>1.5</v>
+      </c>
+      <c r="AA222">
+        <v>4</v>
+      </c>
+      <c r="AB222">
+        <v>7</v>
+      </c>
+      <c r="AC222">
+        <v>1.06</v>
+      </c>
+      <c r="AD222">
+        <v>9.5</v>
+      </c>
+      <c r="AE222">
+        <v>1.36</v>
+      </c>
+      <c r="AF222">
+        <v>3.1</v>
+      </c>
+      <c r="AG222">
+        <v>2.05</v>
+      </c>
+      <c r="AH222">
+        <v>1.75</v>
+      </c>
+      <c r="AI222">
+        <v>2.1</v>
+      </c>
+      <c r="AJ222">
+        <v>1.67</v>
+      </c>
+      <c r="AK222">
+        <v>1.09</v>
+      </c>
+      <c r="AL222">
+        <v>1.2</v>
+      </c>
+      <c r="AM222">
+        <v>2.6</v>
+      </c>
+      <c r="AN222">
+        <v>2.08</v>
+      </c>
+      <c r="AO222">
+        <v>1.2</v>
+      </c>
+      <c r="AP222">
+        <v>2.15</v>
+      </c>
+      <c r="AQ222">
+        <v>1.09</v>
+      </c>
+      <c r="AR222">
+        <v>1.87</v>
+      </c>
+      <c r="AS222">
+        <v>1.16</v>
+      </c>
+      <c r="AT222">
+        <v>3.03</v>
+      </c>
+      <c r="AU222">
+        <v>10</v>
+      </c>
+      <c r="AV222">
+        <v>4</v>
+      </c>
+      <c r="AW222">
+        <v>3</v>
+      </c>
+      <c r="AX222">
+        <v>4</v>
+      </c>
+      <c r="AY222">
+        <v>13</v>
+      </c>
+      <c r="AZ222">
+        <v>8</v>
+      </c>
+      <c r="BA222">
+        <v>7</v>
+      </c>
+      <c r="BB222">
+        <v>1</v>
+      </c>
+      <c r="BC222">
+        <v>8</v>
+      </c>
+      <c r="BD222">
+        <v>1.26</v>
+      </c>
+      <c r="BE222">
+        <v>14.5</v>
+      </c>
+      <c r="BF222">
+        <v>4.78</v>
+      </c>
+      <c r="BG222">
+        <v>1.25</v>
+      </c>
+      <c r="BH222">
+        <v>3.45</v>
+      </c>
+      <c r="BI222">
+        <v>1.44</v>
+      </c>
+      <c r="BJ222">
+        <v>2.55</v>
+      </c>
+      <c r="BK222">
+        <v>1.91</v>
+      </c>
+      <c r="BL222">
+        <v>2</v>
+      </c>
+      <c r="BM222">
+        <v>2.08</v>
+      </c>
+      <c r="BN222">
+        <v>1.65</v>
+      </c>
+      <c r="BO222">
+        <v>2.65</v>
+      </c>
+      <c r="BP222">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:68">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>7373457</v>
+      </c>
+      <c r="C223" t="s">
+        <v>68</v>
+      </c>
+      <c r="D223" t="s">
+        <v>69</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45528.875</v>
+      </c>
+      <c r="F223">
+        <v>24</v>
+      </c>
+      <c r="G223" t="s">
+        <v>84</v>
+      </c>
+      <c r="H223" t="s">
+        <v>72</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>1</v>
+      </c>
+      <c r="K223">
+        <v>1</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>2</v>
+      </c>
+      <c r="N223">
+        <v>2</v>
+      </c>
+      <c r="O223" t="s">
+        <v>97</v>
+      </c>
+      <c r="P223" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q223">
+        <v>2.75</v>
+      </c>
+      <c r="R223">
+        <v>1.95</v>
+      </c>
+      <c r="S223">
+        <v>5</v>
+      </c>
+      <c r="T223">
+        <v>1.44</v>
+      </c>
+      <c r="U223">
+        <v>2.63</v>
+      </c>
+      <c r="V223">
+        <v>3.4</v>
+      </c>
+      <c r="W223">
+        <v>1.3</v>
+      </c>
+      <c r="X223">
+        <v>10</v>
+      </c>
+      <c r="Y223">
+        <v>1.06</v>
+      </c>
+      <c r="Z223">
+        <v>1.91</v>
+      </c>
+      <c r="AA223">
+        <v>3.2</v>
+      </c>
+      <c r="AB223">
+        <v>4.75</v>
+      </c>
+      <c r="AC223">
+        <v>1.04</v>
+      </c>
+      <c r="AD223">
+        <v>7.5</v>
+      </c>
+      <c r="AE223">
+        <v>1.36</v>
+      </c>
+      <c r="AF223">
+        <v>2.78</v>
+      </c>
+      <c r="AG223">
+        <v>2.6</v>
+      </c>
+      <c r="AH223">
+        <v>1.48</v>
+      </c>
+      <c r="AI223">
+        <v>2.2</v>
+      </c>
+      <c r="AJ223">
+        <v>1.62</v>
+      </c>
+      <c r="AK223">
+        <v>1.22</v>
+      </c>
+      <c r="AL223">
+        <v>1.3</v>
+      </c>
+      <c r="AM223">
+        <v>1.95</v>
+      </c>
+      <c r="AN223">
+        <v>1.55</v>
+      </c>
+      <c r="AO223">
+        <v>0.64</v>
+      </c>
+      <c r="AP223">
+        <v>1.42</v>
+      </c>
+      <c r="AQ223">
+        <v>0.83</v>
+      </c>
+      <c r="AR223">
+        <v>1.43</v>
+      </c>
+      <c r="AS223">
+        <v>1.18</v>
+      </c>
+      <c r="AT223">
+        <v>2.61</v>
+      </c>
+      <c r="AU223">
+        <v>0</v>
+      </c>
+      <c r="AV223">
+        <v>7</v>
+      </c>
+      <c r="AW223">
+        <v>15</v>
+      </c>
+      <c r="AX223">
+        <v>1</v>
+      </c>
+      <c r="AY223">
+        <v>15</v>
+      </c>
+      <c r="AZ223">
+        <v>8</v>
+      </c>
+      <c r="BA223">
+        <v>5</v>
+      </c>
+      <c r="BB223">
+        <v>2</v>
+      </c>
+      <c r="BC223">
+        <v>7</v>
+      </c>
+      <c r="BD223">
+        <v>1.51</v>
+      </c>
+      <c r="BE223">
+        <v>9.5</v>
+      </c>
+      <c r="BF223">
+        <v>3.3</v>
+      </c>
+      <c r="BG223">
+        <v>1.26</v>
+      </c>
+      <c r="BH223">
+        <v>3.4</v>
+      </c>
+      <c r="BI223">
+        <v>1.46</v>
+      </c>
+      <c r="BJ223">
+        <v>2.5</v>
+      </c>
+      <c r="BK223">
+        <v>2.38</v>
+      </c>
+      <c r="BL223">
+        <v>1.85</v>
+      </c>
+      <c r="BM223">
+        <v>2.15</v>
+      </c>
+      <c r="BN223">
+        <v>1.61</v>
+      </c>
+      <c r="BO223">
+        <v>2.7</v>
+      </c>
+      <c r="BP223">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="329">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -748,7 +748,16 @@
     <t>['15', '27', '32', '45+2', '56']</t>
   </si>
   <si>
+    <t>['77']</t>
+  </si>
+  <si>
+    <t>['6', '30']</t>
+  </si>
+  <si>
     <t>['70']</t>
+  </si>
+  <si>
+    <t>['17', '59']</t>
   </si>
   <si>
     <t>['64']</t>
@@ -1353,7 +1362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP223"/>
+  <dimension ref="A1:BP229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1612,7 +1621,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q2">
         <v>2.5</v>
@@ -1690,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ2">
         <v>1.08</v>
@@ -1818,7 +1827,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1896,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ3">
         <v>0.5</v>
@@ -2024,7 +2033,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -2105,7 +2114,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ4">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2230,7 +2239,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -2308,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ5">
         <v>1.5</v>
@@ -2642,7 +2651,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2929,7 +2938,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ8">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3260,7 +3269,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3341,7 +3350,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ10">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3466,7 +3475,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3750,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ12">
         <v>0.83</v>
@@ -4783,7 +4792,7 @@
         <v>2</v>
       </c>
       <c r="AQ17">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4908,7 +4917,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4986,10 +4995,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5192,7 +5201,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ19">
         <v>1.09</v>
@@ -6019,7 +6028,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ23">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR23">
         <v>1.76</v>
@@ -6225,7 +6234,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR24">
         <v>1.95</v>
@@ -6556,7 +6565,7 @@
         <v>111</v>
       </c>
       <c r="P26" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6968,7 +6977,7 @@
         <v>97</v>
       </c>
       <c r="P28" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -7174,7 +7183,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q29">
         <v>2.38</v>
@@ -7380,7 +7389,7 @@
         <v>97</v>
       </c>
       <c r="P30" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7586,7 +7595,7 @@
         <v>97</v>
       </c>
       <c r="P31" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7870,10 +7879,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ32">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR32">
         <v>1.55</v>
@@ -7998,7 +8007,7 @@
         <v>97</v>
       </c>
       <c r="P33" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -8076,10 +8085,10 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ33">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR33">
         <v>1.46</v>
@@ -8491,7 +8500,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ35">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR35">
         <v>1.46</v>
@@ -8616,7 +8625,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8900,10 +8909,10 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ37">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR37">
         <v>1.19</v>
@@ -9028,7 +9037,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -9106,7 +9115,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ38">
         <v>0.75</v>
@@ -9312,7 +9321,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ39">
         <v>1.45</v>
@@ -9440,7 +9449,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -10264,7 +10273,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10470,7 +10479,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10676,7 +10685,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10960,10 +10969,10 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ47">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR47">
         <v>1.36</v>
@@ -11166,10 +11175,10 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ48">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR48">
         <v>1.5</v>
@@ -11294,7 +11303,7 @@
         <v>97</v>
       </c>
       <c r="P49" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q49">
         <v>3.6</v>
@@ -11375,7 +11384,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR49">
         <v>0.99</v>
@@ -11500,7 +11509,7 @@
         <v>97</v>
       </c>
       <c r="P50" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q50">
         <v>2.38</v>
@@ -11784,10 +11793,10 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ51">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR51">
         <v>1.45</v>
@@ -11912,7 +11921,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q52">
         <v>2.38</v>
@@ -11993,7 +12002,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ52">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR52">
         <v>1.51</v>
@@ -12118,7 +12127,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q53">
         <v>2.38</v>
@@ -12196,7 +12205,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ53">
         <v>0.83</v>
@@ -12324,7 +12333,7 @@
         <v>97</v>
       </c>
       <c r="P54" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -12405,7 +12414,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ54">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR54">
         <v>1.51</v>
@@ -12530,7 +12539,7 @@
         <v>97</v>
       </c>
       <c r="P55" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -13229,7 +13238,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ58">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR58">
         <v>1.63</v>
@@ -13354,7 +13363,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q59">
         <v>4.75</v>
@@ -13432,7 +13441,7 @@
         <v>2.33</v>
       </c>
       <c r="AP59">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ59">
         <v>1.45</v>
@@ -13560,7 +13569,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q60">
         <v>5.5</v>
@@ -13766,7 +13775,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q61">
         <v>2.3</v>
@@ -14050,7 +14059,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ62">
         <v>1.36</v>
@@ -14256,10 +14265,10 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ63">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR63">
         <v>1.52</v>
@@ -14671,7 +14680,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ65">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR65">
         <v>0.78</v>
@@ -14796,7 +14805,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14874,7 +14883,7 @@
         <v>0</v>
       </c>
       <c r="AP66">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ66">
         <v>1.09</v>
@@ -15083,7 +15092,7 @@
         <v>2</v>
       </c>
       <c r="AQ67">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR67">
         <v>1.39</v>
@@ -15208,7 +15217,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15289,7 +15298,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ68">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR68">
         <v>1.17</v>
@@ -15620,7 +15629,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15826,7 +15835,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16110,7 +16119,7 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ72">
         <v>1.09</v>
@@ -16238,7 +16247,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q73">
         <v>2.1</v>
@@ -16316,10 +16325,10 @@
         <v>0</v>
       </c>
       <c r="AP73">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ73">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR73">
         <v>1.61</v>
@@ -16728,7 +16737,7 @@
         <v>2</v>
       </c>
       <c r="AP75">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ75">
         <v>1.5</v>
@@ -17268,7 +17277,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q78">
         <v>2.63</v>
@@ -17474,7 +17483,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -17680,7 +17689,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17886,7 +17895,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -18298,7 +18307,7 @@
         <v>151</v>
       </c>
       <c r="P83" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -18376,7 +18385,7 @@
         <v>1.25</v>
       </c>
       <c r="AP83">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ83">
         <v>1.08</v>
@@ -18504,7 +18513,7 @@
         <v>152</v>
       </c>
       <c r="P84" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -18585,7 +18594,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ84">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR84">
         <v>1.31</v>
@@ -18791,7 +18800,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ85">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR85">
         <v>1.32</v>
@@ -18916,7 +18925,7 @@
         <v>97</v>
       </c>
       <c r="P86" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -19122,7 +19131,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q87">
         <v>2.38</v>
@@ -19740,7 +19749,7 @@
         <v>97</v>
       </c>
       <c r="P90" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -19818,7 +19827,7 @@
         <v>0.75</v>
       </c>
       <c r="AP90">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ90">
         <v>1.09</v>
@@ -20024,10 +20033,10 @@
         <v>0</v>
       </c>
       <c r="AP91">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ91">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR91">
         <v>1.34</v>
@@ -20230,10 +20239,10 @@
         <v>0.25</v>
       </c>
       <c r="AP92">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ92">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR92">
         <v>1.69</v>
@@ -20564,7 +20573,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20770,7 +20779,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -20848,7 +20857,7 @@
         <v>1.2</v>
       </c>
       <c r="AP95">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ95">
         <v>1.08</v>
@@ -21057,7 +21066,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ96">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR96">
         <v>1.68</v>
@@ -21260,10 +21269,10 @@
         <v>2</v>
       </c>
       <c r="AP97">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ97">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR97">
         <v>1.48</v>
@@ -21388,7 +21397,7 @@
         <v>97</v>
       </c>
       <c r="P98" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q98">
         <v>3.5</v>
@@ -22087,7 +22096,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ101">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR101">
         <v>1.66</v>
@@ -22212,7 +22221,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q102">
         <v>2.63</v>
@@ -22290,10 +22299,10 @@
         <v>1</v>
       </c>
       <c r="AP102">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ102">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR102">
         <v>1.35</v>
@@ -22418,7 +22427,7 @@
         <v>97</v>
       </c>
       <c r="P103" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -22705,7 +22714,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ104">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR104">
         <v>1.31</v>
@@ -23036,7 +23045,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q106">
         <v>1.83</v>
@@ -23242,7 +23251,7 @@
         <v>166</v>
       </c>
       <c r="P107" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q107">
         <v>2.63</v>
@@ -23323,7 +23332,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ107">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR107">
         <v>1.54</v>
@@ -24066,7 +24075,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -24147,7 +24156,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ111">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR111">
         <v>1.39</v>
@@ -24272,7 +24281,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q112">
         <v>2.2</v>
@@ -24350,7 +24359,7 @@
         <v>0</v>
       </c>
       <c r="AP112">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ112">
         <v>0.64</v>
@@ -24478,7 +24487,7 @@
         <v>138</v>
       </c>
       <c r="P113" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24556,7 +24565,7 @@
         <v>1.6</v>
       </c>
       <c r="AP113">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ113">
         <v>1.3</v>
@@ -24762,7 +24771,7 @@
         <v>2.6</v>
       </c>
       <c r="AP114">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ114">
         <v>1.45</v>
@@ -24890,7 +24899,7 @@
         <v>97</v>
       </c>
       <c r="P115" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -24971,7 +24980,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ115">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR115">
         <v>1.49</v>
@@ -25174,7 +25183,7 @@
         <v>1.75</v>
       </c>
       <c r="AP116">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ116">
         <v>1</v>
@@ -25302,7 +25311,7 @@
         <v>93</v>
       </c>
       <c r="P117" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25383,7 +25392,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ117">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR117">
         <v>1.41</v>
@@ -25589,7 +25598,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ118">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR118">
         <v>1.17</v>
@@ -25998,7 +26007,7 @@
         <v>0.4</v>
       </c>
       <c r="AP120">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ120">
         <v>0.5</v>
@@ -26204,7 +26213,7 @@
         <v>1</v>
       </c>
       <c r="AP121">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ121">
         <v>1.08</v>
@@ -26616,7 +26625,7 @@
         <v>1.8</v>
       </c>
       <c r="AP123">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ123">
         <v>1.2</v>
@@ -27028,10 +27037,10 @@
         <v>0.83</v>
       </c>
       <c r="AP125">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ125">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR125">
         <v>1.59</v>
@@ -27237,7 +27246,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ126">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR126">
         <v>1.89</v>
@@ -27362,7 +27371,7 @@
         <v>132</v>
       </c>
       <c r="P127" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q127">
         <v>3.6</v>
@@ -27443,7 +27452,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ127">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR127">
         <v>1.11</v>
@@ -27852,10 +27861,10 @@
         <v>0.71</v>
       </c>
       <c r="AP129">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ129">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR129">
         <v>1.53</v>
@@ -27980,7 +27989,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q130">
         <v>3.4</v>
@@ -28186,7 +28195,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q131">
         <v>2.5</v>
@@ -28392,7 +28401,7 @@
         <v>134</v>
       </c>
       <c r="P132" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q132">
         <v>3.2</v>
@@ -28598,7 +28607,7 @@
         <v>185</v>
       </c>
       <c r="P133" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q133">
         <v>3.75</v>
@@ -28882,7 +28891,7 @@
         <v>0.33</v>
       </c>
       <c r="AP134">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ134">
         <v>0.5</v>
@@ -29216,7 +29225,7 @@
         <v>188</v>
       </c>
       <c r="P136" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29297,7 +29306,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ136">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR136">
         <v>1.8</v>
@@ -29500,10 +29509,10 @@
         <v>0.86</v>
       </c>
       <c r="AP137">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ137">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR137">
         <v>1.5</v>
@@ -29628,7 +29637,7 @@
         <v>190</v>
       </c>
       <c r="P138" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -29706,7 +29715,7 @@
         <v>1.17</v>
       </c>
       <c r="AP138">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ138">
         <v>1.09</v>
@@ -29915,7 +29924,7 @@
         <v>2</v>
       </c>
       <c r="AQ139">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR139">
         <v>1.44</v>
@@ -30118,7 +30127,7 @@
         <v>0</v>
       </c>
       <c r="AP140">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ140">
         <v>0.83</v>
@@ -30327,7 +30336,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ141">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR141">
         <v>1.67</v>
@@ -30452,7 +30461,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -30530,7 +30539,7 @@
         <v>0</v>
       </c>
       <c r="AP142">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ142">
         <v>0.64</v>
@@ -30864,7 +30873,7 @@
         <v>196</v>
       </c>
       <c r="P144" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q144">
         <v>2.63</v>
@@ -31482,7 +31491,7 @@
         <v>97</v>
       </c>
       <c r="P147" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31563,7 +31572,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ147">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR147">
         <v>1.45</v>
@@ -31688,7 +31697,7 @@
         <v>178</v>
       </c>
       <c r="P148" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q148">
         <v>2.88</v>
@@ -31975,7 +31984,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ149">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR149">
         <v>1.43</v>
@@ -32306,7 +32315,7 @@
         <v>201</v>
       </c>
       <c r="P151" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q151">
         <v>2.2</v>
@@ -32384,7 +32393,7 @@
         <v>0.83</v>
       </c>
       <c r="AP151">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ151">
         <v>1.5</v>
@@ -32512,7 +32521,7 @@
         <v>202</v>
       </c>
       <c r="P152" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q152">
         <v>2.63</v>
@@ -32590,7 +32599,7 @@
         <v>0</v>
       </c>
       <c r="AP152">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ152">
         <v>0.83</v>
@@ -32799,7 +32808,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ153">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR153">
         <v>1.2</v>
@@ -32924,7 +32933,7 @@
         <v>203</v>
       </c>
       <c r="P154" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q154">
         <v>3.4</v>
@@ -33130,7 +33139,7 @@
         <v>204</v>
       </c>
       <c r="P155" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q155">
         <v>2.6</v>
@@ -33211,7 +33220,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ155">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR155">
         <v>1.63</v>
@@ -33336,7 +33345,7 @@
         <v>123</v>
       </c>
       <c r="P156" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q156">
         <v>2.2</v>
@@ -33414,7 +33423,7 @@
         <v>1.14</v>
       </c>
       <c r="AP156">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ156">
         <v>1.09</v>
@@ -33542,7 +33551,7 @@
         <v>205</v>
       </c>
       <c r="P157" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -33954,7 +33963,7 @@
         <v>97</v>
       </c>
       <c r="P159" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34238,10 +34247,10 @@
         <v>0.17</v>
       </c>
       <c r="AP160">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ160">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR160">
         <v>1.46</v>
@@ -34366,7 +34375,7 @@
         <v>207</v>
       </c>
       <c r="P161" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q161">
         <v>2.25</v>
@@ -34444,10 +34453,10 @@
         <v>0.71</v>
       </c>
       <c r="AP161">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ161">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR161">
         <v>1.45</v>
@@ -34778,7 +34787,7 @@
         <v>208</v>
       </c>
       <c r="P163" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q163">
         <v>1.95</v>
@@ -34856,7 +34865,7 @@
         <v>1</v>
       </c>
       <c r="AP163">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ163">
         <v>1</v>
@@ -35271,7 +35280,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ165">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR165">
         <v>1.87</v>
@@ -35477,7 +35486,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ166">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR166">
         <v>1.41</v>
@@ -35886,10 +35895,10 @@
         <v>0.22</v>
       </c>
       <c r="AP168">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ168">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR168">
         <v>1.59</v>
@@ -36298,7 +36307,7 @@
         <v>1</v>
       </c>
       <c r="AP170">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ170">
         <v>0.75</v>
@@ -36632,7 +36641,7 @@
         <v>97</v>
       </c>
       <c r="P172" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q172">
         <v>3.2</v>
@@ -36916,7 +36925,7 @@
         <v>1.14</v>
       </c>
       <c r="AP173">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ173">
         <v>1.5</v>
@@ -37250,7 +37259,7 @@
         <v>215</v>
       </c>
       <c r="P175" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q175">
         <v>3.1</v>
@@ -37328,10 +37337,10 @@
         <v>1.89</v>
       </c>
       <c r="AP175">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ175">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR175">
         <v>1.48</v>
@@ -37456,7 +37465,7 @@
         <v>216</v>
       </c>
       <c r="P176" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q176">
         <v>5</v>
@@ -37868,7 +37877,7 @@
         <v>190</v>
       </c>
       <c r="P178" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q178">
         <v>3.5</v>
@@ -38074,7 +38083,7 @@
         <v>218</v>
       </c>
       <c r="P179" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q179">
         <v>2.88</v>
@@ -38155,7 +38164,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ179">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR179">
         <v>1.71</v>
@@ -38280,7 +38289,7 @@
         <v>190</v>
       </c>
       <c r="P180" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q180">
         <v>3</v>
@@ -38486,7 +38495,7 @@
         <v>97</v>
       </c>
       <c r="P181" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q181">
         <v>1.91</v>
@@ -38567,7 +38576,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ181">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR181">
         <v>1.83</v>
@@ -38692,7 +38701,7 @@
         <v>219</v>
       </c>
       <c r="P182" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q182">
         <v>2.75</v>
@@ -38770,7 +38779,7 @@
         <v>1.38</v>
       </c>
       <c r="AP182">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ182">
         <v>1.2</v>
@@ -38898,7 +38907,7 @@
         <v>97</v>
       </c>
       <c r="P183" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q183">
         <v>2.63</v>
@@ -38979,7 +38988,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ183">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR183">
         <v>1.56</v>
@@ -39182,7 +39191,7 @@
         <v>1.33</v>
       </c>
       <c r="AP184">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ184">
         <v>1.09</v>
@@ -39594,7 +39603,7 @@
         <v>0.9</v>
       </c>
       <c r="AP186">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ186">
         <v>0.75</v>
@@ -39722,7 +39731,7 @@
         <v>222</v>
       </c>
       <c r="P187" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q187">
         <v>3.4</v>
@@ -40215,7 +40224,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ189">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR189">
         <v>1.45</v>
@@ -40546,7 +40555,7 @@
         <v>225</v>
       </c>
       <c r="P191" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q191">
         <v>2.63</v>
@@ -40627,7 +40636,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ191">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR191">
         <v>1.42</v>
@@ -40752,7 +40761,7 @@
         <v>226</v>
       </c>
       <c r="P192" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q192">
         <v>4</v>
@@ -40830,7 +40839,7 @@
         <v>1.5</v>
       </c>
       <c r="AP192">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ192">
         <v>1.3</v>
@@ -40958,7 +40967,7 @@
         <v>205</v>
       </c>
       <c r="P193" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q193">
         <v>3.6</v>
@@ -41039,7 +41048,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ193">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR193">
         <v>1.49</v>
@@ -41242,7 +41251,7 @@
         <v>2</v>
       </c>
       <c r="AP194">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ194">
         <v>1.64</v>
@@ -41782,7 +41791,7 @@
         <v>97</v>
       </c>
       <c r="P197" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q197">
         <v>2.4</v>
@@ -41863,7 +41872,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ197">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR197">
         <v>1.75</v>
@@ -41988,7 +41997,7 @@
         <v>227</v>
       </c>
       <c r="P198" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q198">
         <v>3.25</v>
@@ -42066,7 +42075,7 @@
         <v>1.56</v>
       </c>
       <c r="AP198">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ198">
         <v>1.45</v>
@@ -42194,7 +42203,7 @@
         <v>228</v>
       </c>
       <c r="P199" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q199">
         <v>2.6</v>
@@ -42478,7 +42487,7 @@
         <v>1.11</v>
       </c>
       <c r="AP200">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ200">
         <v>1</v>
@@ -42606,7 +42615,7 @@
         <v>230</v>
       </c>
       <c r="P201" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q201">
         <v>3.2</v>
@@ -42687,7 +42696,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ201">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR201">
         <v>1.3</v>
@@ -43099,7 +43108,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ203">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR203">
         <v>1.81</v>
@@ -43430,7 +43439,7 @@
         <v>233</v>
       </c>
       <c r="P205" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q205">
         <v>4.33</v>
@@ -43511,7 +43520,7 @@
         <v>2</v>
       </c>
       <c r="AQ205">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR205">
         <v>1.34</v>
@@ -43714,10 +43723,10 @@
         <v>0.8</v>
       </c>
       <c r="AP206">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ206">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR206">
         <v>1.55</v>
@@ -43920,7 +43929,7 @@
         <v>1.5</v>
       </c>
       <c r="AP207">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ207">
         <v>1.45</v>
@@ -44126,7 +44135,7 @@
         <v>0.82</v>
       </c>
       <c r="AP208">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ208">
         <v>0.75</v>
@@ -44254,7 +44263,7 @@
         <v>235</v>
       </c>
       <c r="P209" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q209">
         <v>2.6</v>
@@ -44332,7 +44341,7 @@
         <v>1.4</v>
       </c>
       <c r="AP209">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ209">
         <v>1.36</v>
@@ -44538,7 +44547,7 @@
         <v>0.33</v>
       </c>
       <c r="AP210">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ210">
         <v>0.5</v>
@@ -44666,7 +44675,7 @@
         <v>97</v>
       </c>
       <c r="P211" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q211">
         <v>3.1</v>
@@ -45078,7 +45087,7 @@
         <v>134</v>
       </c>
       <c r="P213" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q213">
         <v>2.88</v>
@@ -45365,7 +45374,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ214">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR214">
         <v>1.43</v>
@@ -45490,7 +45499,7 @@
         <v>237</v>
       </c>
       <c r="P215" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q215">
         <v>3</v>
@@ -45568,7 +45577,7 @@
         <v>0.6</v>
       </c>
       <c r="AP215">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ215">
         <v>0.64</v>
@@ -46108,7 +46117,7 @@
         <v>240</v>
       </c>
       <c r="P218" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q218">
         <v>3.25</v>
@@ -46314,7 +46323,7 @@
         <v>201</v>
       </c>
       <c r="P219" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q219">
         <v>2.2</v>
@@ -46520,7 +46529,7 @@
         <v>241</v>
       </c>
       <c r="P220" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q220">
         <v>3.6</v>
@@ -46601,7 +46610,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ220">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR220">
         <v>1.24</v>
@@ -46726,7 +46735,7 @@
         <v>242</v>
       </c>
       <c r="P221" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q221">
         <v>2.5</v>
@@ -47138,7 +47147,7 @@
         <v>97</v>
       </c>
       <c r="P223" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q223">
         <v>2.75</v>
@@ -47295,6 +47304,1242 @@
       </c>
       <c r="BP223">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="224" spans="1:68">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>7373474</v>
+      </c>
+      <c r="C224" t="s">
+        <v>68</v>
+      </c>
+      <c r="D224" t="s">
+        <v>69</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45529.66666666666</v>
+      </c>
+      <c r="F224">
+        <v>24</v>
+      </c>
+      <c r="G224" t="s">
+        <v>71</v>
+      </c>
+      <c r="H224" t="s">
+        <v>81</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>1</v>
+      </c>
+      <c r="N224">
+        <v>1</v>
+      </c>
+      <c r="O224" t="s">
+        <v>97</v>
+      </c>
+      <c r="P224" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q224">
+        <v>3.2</v>
+      </c>
+      <c r="R224">
+        <v>2.05</v>
+      </c>
+      <c r="S224">
+        <v>3.6</v>
+      </c>
+      <c r="T224">
+        <v>1.5</v>
+      </c>
+      <c r="U224">
+        <v>2.5</v>
+      </c>
+      <c r="V224">
+        <v>3.4</v>
+      </c>
+      <c r="W224">
+        <v>1.3</v>
+      </c>
+      <c r="X224">
+        <v>10</v>
+      </c>
+      <c r="Y224">
+        <v>1.06</v>
+      </c>
+      <c r="Z224">
+        <v>2.5</v>
+      </c>
+      <c r="AA224">
+        <v>3.25</v>
+      </c>
+      <c r="AB224">
+        <v>2.9</v>
+      </c>
+      <c r="AC224">
+        <v>1.06</v>
+      </c>
+      <c r="AD224">
+        <v>7.5</v>
+      </c>
+      <c r="AE224">
+        <v>1.38</v>
+      </c>
+      <c r="AF224">
+        <v>2.8</v>
+      </c>
+      <c r="AG224">
+        <v>2.2</v>
+      </c>
+      <c r="AH224">
+        <v>1.65</v>
+      </c>
+      <c r="AI224">
+        <v>1.95</v>
+      </c>
+      <c r="AJ224">
+        <v>1.8</v>
+      </c>
+      <c r="AK224">
+        <v>1.42</v>
+      </c>
+      <c r="AL224">
+        <v>1.3</v>
+      </c>
+      <c r="AM224">
+        <v>1.53</v>
+      </c>
+      <c r="AN224">
+        <v>1.36</v>
+      </c>
+      <c r="AO224">
+        <v>0.8</v>
+      </c>
+      <c r="AP224">
+        <v>1.25</v>
+      </c>
+      <c r="AQ224">
+        <v>1</v>
+      </c>
+      <c r="AR224">
+        <v>1.56</v>
+      </c>
+      <c r="AS224">
+        <v>1.27</v>
+      </c>
+      <c r="AT224">
+        <v>2.83</v>
+      </c>
+      <c r="AU224">
+        <v>5</v>
+      </c>
+      <c r="AV224">
+        <v>5</v>
+      </c>
+      <c r="AW224">
+        <v>9</v>
+      </c>
+      <c r="AX224">
+        <v>3</v>
+      </c>
+      <c r="AY224">
+        <v>14</v>
+      </c>
+      <c r="AZ224">
+        <v>8</v>
+      </c>
+      <c r="BA224">
+        <v>6</v>
+      </c>
+      <c r="BB224">
+        <v>9</v>
+      </c>
+      <c r="BC224">
+        <v>15</v>
+      </c>
+      <c r="BD224">
+        <v>1.9</v>
+      </c>
+      <c r="BE224">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF224">
+        <v>2.27</v>
+      </c>
+      <c r="BG224">
+        <v>1.2</v>
+      </c>
+      <c r="BH224">
+        <v>3.9</v>
+      </c>
+      <c r="BI224">
+        <v>1.35</v>
+      </c>
+      <c r="BJ224">
+        <v>2.88</v>
+      </c>
+      <c r="BK224">
+        <v>1.91</v>
+      </c>
+      <c r="BL224">
+        <v>2.18</v>
+      </c>
+      <c r="BM224">
+        <v>1.91</v>
+      </c>
+      <c r="BN224">
+        <v>1.8</v>
+      </c>
+      <c r="BO224">
+        <v>2.43</v>
+      </c>
+      <c r="BP224">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="225" spans="1:68">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>7373460</v>
+      </c>
+      <c r="C225" t="s">
+        <v>68</v>
+      </c>
+      <c r="D225" t="s">
+        <v>69</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45529.66666666666</v>
+      </c>
+      <c r="F225">
+        <v>24</v>
+      </c>
+      <c r="G225" t="s">
+        <v>80</v>
+      </c>
+      <c r="H225" t="s">
+        <v>88</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225" t="s">
+        <v>97</v>
+      </c>
+      <c r="P225" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q225">
+        <v>3</v>
+      </c>
+      <c r="R225">
+        <v>2.1</v>
+      </c>
+      <c r="S225">
+        <v>3.75</v>
+      </c>
+      <c r="T225">
+        <v>1.44</v>
+      </c>
+      <c r="U225">
+        <v>2.63</v>
+      </c>
+      <c r="V225">
+        <v>3.25</v>
+      </c>
+      <c r="W225">
+        <v>1.33</v>
+      </c>
+      <c r="X225">
+        <v>10</v>
+      </c>
+      <c r="Y225">
+        <v>1.06</v>
+      </c>
+      <c r="Z225">
+        <v>2.3</v>
+      </c>
+      <c r="AA225">
+        <v>3.3</v>
+      </c>
+      <c r="AB225">
+        <v>3.2</v>
+      </c>
+      <c r="AC225">
+        <v>1.05</v>
+      </c>
+      <c r="AD225">
+        <v>8</v>
+      </c>
+      <c r="AE225">
+        <v>1.36</v>
+      </c>
+      <c r="AF225">
+        <v>2.9</v>
+      </c>
+      <c r="AG225">
+        <v>2.05</v>
+      </c>
+      <c r="AH225">
+        <v>1.75</v>
+      </c>
+      <c r="AI225">
+        <v>1.8</v>
+      </c>
+      <c r="AJ225">
+        <v>1.95</v>
+      </c>
+      <c r="AK225">
+        <v>1.35</v>
+      </c>
+      <c r="AL225">
+        <v>1.35</v>
+      </c>
+      <c r="AM225">
+        <v>1.62</v>
+      </c>
+      <c r="AN225">
+        <v>2.27</v>
+      </c>
+      <c r="AO225">
+        <v>1.75</v>
+      </c>
+      <c r="AP225">
+        <v>2.17</v>
+      </c>
+      <c r="AQ225">
+        <v>1.69</v>
+      </c>
+      <c r="AR225">
+        <v>1.49</v>
+      </c>
+      <c r="AS225">
+        <v>1.3</v>
+      </c>
+      <c r="AT225">
+        <v>2.79</v>
+      </c>
+      <c r="AU225">
+        <v>8</v>
+      </c>
+      <c r="AV225">
+        <v>6</v>
+      </c>
+      <c r="AW225">
+        <v>10</v>
+      </c>
+      <c r="AX225">
+        <v>4</v>
+      </c>
+      <c r="AY225">
+        <v>18</v>
+      </c>
+      <c r="AZ225">
+        <v>10</v>
+      </c>
+      <c r="BA225">
+        <v>4</v>
+      </c>
+      <c r="BB225">
+        <v>7</v>
+      </c>
+      <c r="BC225">
+        <v>11</v>
+      </c>
+      <c r="BD225">
+        <v>1.65</v>
+      </c>
+      <c r="BE225">
+        <v>9.6</v>
+      </c>
+      <c r="BF225">
+        <v>2.78</v>
+      </c>
+      <c r="BG225">
+        <v>1.27</v>
+      </c>
+      <c r="BH225">
+        <v>3.3</v>
+      </c>
+      <c r="BI225">
+        <v>1.48</v>
+      </c>
+      <c r="BJ225">
+        <v>2.43</v>
+      </c>
+      <c r="BK225">
+        <v>2.25</v>
+      </c>
+      <c r="BL225">
+        <v>1.93</v>
+      </c>
+      <c r="BM225">
+        <v>2.23</v>
+      </c>
+      <c r="BN225">
+        <v>1.57</v>
+      </c>
+      <c r="BO225">
+        <v>2.88</v>
+      </c>
+      <c r="BP225">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="226" spans="1:68">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>7373470</v>
+      </c>
+      <c r="C226" t="s">
+        <v>68</v>
+      </c>
+      <c r="D226" t="s">
+        <v>69</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45529.66666666666</v>
+      </c>
+      <c r="F226">
+        <v>24</v>
+      </c>
+      <c r="G226" t="s">
+        <v>86</v>
+      </c>
+      <c r="H226" t="s">
+        <v>77</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>1</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>1</v>
+      </c>
+      <c r="O226" t="s">
+        <v>244</v>
+      </c>
+      <c r="P226" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q226">
+        <v>2.5</v>
+      </c>
+      <c r="R226">
+        <v>2.05</v>
+      </c>
+      <c r="S226">
+        <v>5</v>
+      </c>
+      <c r="T226">
+        <v>1.5</v>
+      </c>
+      <c r="U226">
+        <v>2.5</v>
+      </c>
+      <c r="V226">
+        <v>3.4</v>
+      </c>
+      <c r="W226">
+        <v>1.3</v>
+      </c>
+      <c r="X226">
+        <v>10</v>
+      </c>
+      <c r="Y226">
+        <v>1.06</v>
+      </c>
+      <c r="Z226">
+        <v>1.8</v>
+      </c>
+      <c r="AA226">
+        <v>3.4</v>
+      </c>
+      <c r="AB226">
+        <v>5</v>
+      </c>
+      <c r="AC226">
+        <v>1.05</v>
+      </c>
+      <c r="AD226">
+        <v>7.3</v>
+      </c>
+      <c r="AE226">
+        <v>1.39</v>
+      </c>
+      <c r="AF226">
+        <v>2.68</v>
+      </c>
+      <c r="AG226">
+        <v>2.25</v>
+      </c>
+      <c r="AH226">
+        <v>1.62</v>
+      </c>
+      <c r="AI226">
+        <v>2.05</v>
+      </c>
+      <c r="AJ226">
+        <v>1.7</v>
+      </c>
+      <c r="AK226">
+        <v>1.2</v>
+      </c>
+      <c r="AL226">
+        <v>1.25</v>
+      </c>
+      <c r="AM226">
+        <v>1.95</v>
+      </c>
+      <c r="AN226">
+        <v>2.5</v>
+      </c>
+      <c r="AO226">
+        <v>0.5</v>
+      </c>
+      <c r="AP226">
+        <v>2.54</v>
+      </c>
+      <c r="AQ226">
+        <v>0.46</v>
+      </c>
+      <c r="AR226">
+        <v>1.36</v>
+      </c>
+      <c r="AS226">
+        <v>1.24</v>
+      </c>
+      <c r="AT226">
+        <v>2.6</v>
+      </c>
+      <c r="AU226">
+        <v>6</v>
+      </c>
+      <c r="AV226">
+        <v>5</v>
+      </c>
+      <c r="AW226">
+        <v>3</v>
+      </c>
+      <c r="AX226">
+        <v>2</v>
+      </c>
+      <c r="AY226">
+        <v>9</v>
+      </c>
+      <c r="AZ226">
+        <v>7</v>
+      </c>
+      <c r="BA226">
+        <v>3</v>
+      </c>
+      <c r="BB226">
+        <v>9</v>
+      </c>
+      <c r="BC226">
+        <v>12</v>
+      </c>
+      <c r="BD226">
+        <v>1.64</v>
+      </c>
+      <c r="BE226">
+        <v>9.9</v>
+      </c>
+      <c r="BF226">
+        <v>2.78</v>
+      </c>
+      <c r="BG226">
+        <v>1.19</v>
+      </c>
+      <c r="BH226">
+        <v>4.1</v>
+      </c>
+      <c r="BI226">
+        <v>1.33</v>
+      </c>
+      <c r="BJ226">
+        <v>2.95</v>
+      </c>
+      <c r="BK226">
+        <v>1.91</v>
+      </c>
+      <c r="BL226">
+        <v>2.28</v>
+      </c>
+      <c r="BM226">
+        <v>1.91</v>
+      </c>
+      <c r="BN226">
+        <v>1.8</v>
+      </c>
+      <c r="BO226">
+        <v>2.32</v>
+      </c>
+      <c r="BP226">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="227" spans="1:68">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>7373468</v>
+      </c>
+      <c r="C227" t="s">
+        <v>68</v>
+      </c>
+      <c r="D227" t="s">
+        <v>69</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45529.77083333334</v>
+      </c>
+      <c r="F227">
+        <v>24</v>
+      </c>
+      <c r="G227" t="s">
+        <v>73</v>
+      </c>
+      <c r="H227" t="s">
+        <v>79</v>
+      </c>
+      <c r="I227">
+        <v>2</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>2</v>
+      </c>
+      <c r="L227">
+        <v>2</v>
+      </c>
+      <c r="M227">
+        <v>1</v>
+      </c>
+      <c r="N227">
+        <v>3</v>
+      </c>
+      <c r="O227" t="s">
+        <v>245</v>
+      </c>
+      <c r="P227" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q227">
+        <v>2.5</v>
+      </c>
+      <c r="R227">
+        <v>2.05</v>
+      </c>
+      <c r="S227">
+        <v>5.5</v>
+      </c>
+      <c r="T227">
+        <v>1.5</v>
+      </c>
+      <c r="U227">
+        <v>2.5</v>
+      </c>
+      <c r="V227">
+        <v>3.4</v>
+      </c>
+      <c r="W227">
+        <v>1.3</v>
+      </c>
+      <c r="X227">
+        <v>10</v>
+      </c>
+      <c r="Y227">
+        <v>1.06</v>
+      </c>
+      <c r="Z227">
+        <v>1.75</v>
+      </c>
+      <c r="AA227">
+        <v>3.5</v>
+      </c>
+      <c r="AB227">
+        <v>5</v>
+      </c>
+      <c r="AC227">
+        <v>1.07</v>
+      </c>
+      <c r="AD227">
+        <v>9</v>
+      </c>
+      <c r="AE227">
+        <v>1.42</v>
+      </c>
+      <c r="AF227">
+        <v>2.85</v>
+      </c>
+      <c r="AG227">
+        <v>2.35</v>
+      </c>
+      <c r="AH227">
+        <v>1.57</v>
+      </c>
+      <c r="AI227">
+        <v>2.2</v>
+      </c>
+      <c r="AJ227">
+        <v>1.62</v>
+      </c>
+      <c r="AK227">
+        <v>1.05</v>
+      </c>
+      <c r="AL227">
+        <v>1.25</v>
+      </c>
+      <c r="AM227">
+        <v>2.4</v>
+      </c>
+      <c r="AN227">
+        <v>2.17</v>
+      </c>
+      <c r="AO227">
+        <v>0.73</v>
+      </c>
+      <c r="AP227">
+        <v>2.23</v>
+      </c>
+      <c r="AQ227">
+        <v>0.67</v>
+      </c>
+      <c r="AR227">
+        <v>1.48</v>
+      </c>
+      <c r="AS227">
+        <v>1.23</v>
+      </c>
+      <c r="AT227">
+        <v>2.71</v>
+      </c>
+      <c r="AU227">
+        <v>4</v>
+      </c>
+      <c r="AV227">
+        <v>5</v>
+      </c>
+      <c r="AW227">
+        <v>5</v>
+      </c>
+      <c r="AX227">
+        <v>4</v>
+      </c>
+      <c r="AY227">
+        <v>9</v>
+      </c>
+      <c r="AZ227">
+        <v>9</v>
+      </c>
+      <c r="BA227">
+        <v>4</v>
+      </c>
+      <c r="BB227">
+        <v>3</v>
+      </c>
+      <c r="BC227">
+        <v>7</v>
+      </c>
+      <c r="BD227">
+        <v>1.38</v>
+      </c>
+      <c r="BE227">
+        <v>11.5</v>
+      </c>
+      <c r="BF227">
+        <v>3.9</v>
+      </c>
+      <c r="BG227">
+        <v>1.26</v>
+      </c>
+      <c r="BH227">
+        <v>3.4</v>
+      </c>
+      <c r="BI227">
+        <v>1.47</v>
+      </c>
+      <c r="BJ227">
+        <v>2.48</v>
+      </c>
+      <c r="BK227">
+        <v>2.2</v>
+      </c>
+      <c r="BL227">
+        <v>2</v>
+      </c>
+      <c r="BM227">
+        <v>2.17</v>
+      </c>
+      <c r="BN227">
+        <v>1.6</v>
+      </c>
+      <c r="BO227">
+        <v>2.7</v>
+      </c>
+      <c r="BP227">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="228" spans="1:68">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>7373455</v>
+      </c>
+      <c r="C228" t="s">
+        <v>68</v>
+      </c>
+      <c r="D228" t="s">
+        <v>69</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45529.79166666666</v>
+      </c>
+      <c r="F228">
+        <v>24</v>
+      </c>
+      <c r="G228" t="s">
+        <v>70</v>
+      </c>
+      <c r="H228" t="s">
+        <v>78</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>1</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>1</v>
+      </c>
+      <c r="O228" t="s">
+        <v>246</v>
+      </c>
+      <c r="P228" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q228">
+        <v>2.75</v>
+      </c>
+      <c r="R228">
+        <v>1.91</v>
+      </c>
+      <c r="S228">
+        <v>5.5</v>
+      </c>
+      <c r="T228">
+        <v>1.5</v>
+      </c>
+      <c r="U228">
+        <v>2.5</v>
+      </c>
+      <c r="V228">
+        <v>3.5</v>
+      </c>
+      <c r="W228">
+        <v>1.29</v>
+      </c>
+      <c r="X228">
+        <v>11</v>
+      </c>
+      <c r="Y228">
+        <v>1.05</v>
+      </c>
+      <c r="Z228">
+        <v>1.91</v>
+      </c>
+      <c r="AA228">
+        <v>3.2</v>
+      </c>
+      <c r="AB228">
+        <v>4.5</v>
+      </c>
+      <c r="AC228">
+        <v>1.09</v>
+      </c>
+      <c r="AD228">
+        <v>8</v>
+      </c>
+      <c r="AE228">
+        <v>1.47</v>
+      </c>
+      <c r="AF228">
+        <v>2.7</v>
+      </c>
+      <c r="AG228">
+        <v>2.6</v>
+      </c>
+      <c r="AH228">
+        <v>1.48</v>
+      </c>
+      <c r="AI228">
+        <v>2.25</v>
+      </c>
+      <c r="AJ228">
+        <v>1.57</v>
+      </c>
+      <c r="AK228">
+        <v>1.28</v>
+      </c>
+      <c r="AL228">
+        <v>1.28</v>
+      </c>
+      <c r="AM228">
+        <v>1.75</v>
+      </c>
+      <c r="AN228">
+        <v>1.44</v>
+      </c>
+      <c r="AO228">
+        <v>1</v>
+      </c>
+      <c r="AP228">
+        <v>1.6</v>
+      </c>
+      <c r="AQ228">
+        <v>0.92</v>
+      </c>
+      <c r="AR228">
+        <v>1.7</v>
+      </c>
+      <c r="AS228">
+        <v>1.37</v>
+      </c>
+      <c r="AT228">
+        <v>3.07</v>
+      </c>
+      <c r="AU228">
+        <v>10</v>
+      </c>
+      <c r="AV228">
+        <v>4</v>
+      </c>
+      <c r="AW228">
+        <v>8</v>
+      </c>
+      <c r="AX228">
+        <v>2</v>
+      </c>
+      <c r="AY228">
+        <v>18</v>
+      </c>
+      <c r="AZ228">
+        <v>6</v>
+      </c>
+      <c r="BA228">
+        <v>12</v>
+      </c>
+      <c r="BB228">
+        <v>3</v>
+      </c>
+      <c r="BC228">
+        <v>15</v>
+      </c>
+      <c r="BD228">
+        <v>1.65</v>
+      </c>
+      <c r="BE228">
+        <v>9.6</v>
+      </c>
+      <c r="BF228">
+        <v>2.78</v>
+      </c>
+      <c r="BG228">
+        <v>1.25</v>
+      </c>
+      <c r="BH228">
+        <v>3.45</v>
+      </c>
+      <c r="BI228">
+        <v>1.46</v>
+      </c>
+      <c r="BJ228">
+        <v>2.5</v>
+      </c>
+      <c r="BK228">
+        <v>2.25</v>
+      </c>
+      <c r="BL228">
+        <v>2</v>
+      </c>
+      <c r="BM228">
+        <v>2.12</v>
+      </c>
+      <c r="BN228">
+        <v>1.63</v>
+      </c>
+      <c r="BO228">
+        <v>2.7</v>
+      </c>
+      <c r="BP228">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:68">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>7373462</v>
+      </c>
+      <c r="C229" t="s">
+        <v>68</v>
+      </c>
+      <c r="D229" t="s">
+        <v>69</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45529.83333333334</v>
+      </c>
+      <c r="F229">
+        <v>24</v>
+      </c>
+      <c r="G229" t="s">
+        <v>87</v>
+      </c>
+      <c r="H229" t="s">
+        <v>82</v>
+      </c>
+      <c r="I229">
+        <v>1</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>1</v>
+      </c>
+      <c r="L229">
+        <v>2</v>
+      </c>
+      <c r="M229">
+        <v>1</v>
+      </c>
+      <c r="N229">
+        <v>3</v>
+      </c>
+      <c r="O229" t="s">
+        <v>247</v>
+      </c>
+      <c r="P229" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q229">
+        <v>2.25</v>
+      </c>
+      <c r="R229">
+        <v>2.2</v>
+      </c>
+      <c r="S229">
+        <v>6</v>
+      </c>
+      <c r="T229">
+        <v>1.36</v>
+      </c>
+      <c r="U229">
+        <v>3</v>
+      </c>
+      <c r="V229">
+        <v>2.75</v>
+      </c>
+      <c r="W229">
+        <v>1.4</v>
+      </c>
+      <c r="X229">
+        <v>8</v>
+      </c>
+      <c r="Y229">
+        <v>1.08</v>
+      </c>
+      <c r="Z229">
+        <v>1.65</v>
+      </c>
+      <c r="AA229">
+        <v>3.6</v>
+      </c>
+      <c r="AB229">
+        <v>6</v>
+      </c>
+      <c r="AC229">
+        <v>1.05</v>
+      </c>
+      <c r="AD229">
+        <v>9</v>
+      </c>
+      <c r="AE229">
+        <v>1.28</v>
+      </c>
+      <c r="AF229">
+        <v>3.5</v>
+      </c>
+      <c r="AG229">
+        <v>2.05</v>
+      </c>
+      <c r="AH229">
+        <v>1.75</v>
+      </c>
+      <c r="AI229">
+        <v>2</v>
+      </c>
+      <c r="AJ229">
+        <v>1.75</v>
+      </c>
+      <c r="AK229">
+        <v>1.11</v>
+      </c>
+      <c r="AL229">
+        <v>1.18</v>
+      </c>
+      <c r="AM229">
+        <v>2.45</v>
+      </c>
+      <c r="AN229">
+        <v>2.09</v>
+      </c>
+      <c r="AO229">
+        <v>0.73</v>
+      </c>
+      <c r="AP229">
+        <v>2.17</v>
+      </c>
+      <c r="AQ229">
+        <v>0.67</v>
+      </c>
+      <c r="AR229">
+        <v>1.65</v>
+      </c>
+      <c r="AS229">
+        <v>1.38</v>
+      </c>
+      <c r="AT229">
+        <v>3.03</v>
+      </c>
+      <c r="AU229">
+        <v>8</v>
+      </c>
+      <c r="AV229">
+        <v>3</v>
+      </c>
+      <c r="AW229">
+        <v>2</v>
+      </c>
+      <c r="AX229">
+        <v>9</v>
+      </c>
+      <c r="AY229">
+        <v>10</v>
+      </c>
+      <c r="AZ229">
+        <v>12</v>
+      </c>
+      <c r="BA229">
+        <v>6</v>
+      </c>
+      <c r="BB229">
+        <v>10</v>
+      </c>
+      <c r="BC229">
+        <v>16</v>
+      </c>
+      <c r="BD229">
+        <v>1.43</v>
+      </c>
+      <c r="BE229">
+        <v>11</v>
+      </c>
+      <c r="BF229">
+        <v>3.6</v>
+      </c>
+      <c r="BG229">
+        <v>1.16</v>
+      </c>
+      <c r="BH229">
+        <v>4.4</v>
+      </c>
+      <c r="BI229">
+        <v>1.29</v>
+      </c>
+      <c r="BJ229">
+        <v>3.15</v>
+      </c>
+      <c r="BK229">
+        <v>1.91</v>
+      </c>
+      <c r="BL229">
+        <v>2.4</v>
+      </c>
+      <c r="BM229">
+        <v>1.91</v>
+      </c>
+      <c r="BN229">
+        <v>1.8</v>
+      </c>
+      <c r="BO229">
+        <v>2.2</v>
+      </c>
+      <c r="BP229">
+        <v>1.58</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="330">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -760,6 +760,9 @@
     <t>['17', '59']</t>
   </si>
   <si>
+    <t>['68', '86']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -1362,7 +1365,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP229"/>
+  <dimension ref="A1:BP230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1827,7 +1830,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -2033,7 +2036,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -2239,7 +2242,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -2651,7 +2654,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2935,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
         <v>1</v>
@@ -3269,7 +3272,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3475,7 +3478,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3968,7 +3971,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ13">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4917,7 +4920,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -6565,7 +6568,7 @@
         <v>111</v>
       </c>
       <c r="P26" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6977,7 +6980,7 @@
         <v>97</v>
       </c>
       <c r="P28" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -7183,7 +7186,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q29">
         <v>2.38</v>
@@ -7389,7 +7392,7 @@
         <v>97</v>
       </c>
       <c r="P30" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7467,7 +7470,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ30">
         <v>1</v>
@@ -7595,7 +7598,7 @@
         <v>97</v>
       </c>
       <c r="P31" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -8007,7 +8010,7 @@
         <v>97</v>
       </c>
       <c r="P33" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -8625,7 +8628,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8706,7 +8709,7 @@
         <v>2</v>
       </c>
       <c r="AQ36">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR36">
         <v>1.65</v>
@@ -9037,7 +9040,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -9449,7 +9452,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -10273,7 +10276,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10479,7 +10482,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10685,7 +10688,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -11303,7 +11306,7 @@
         <v>97</v>
       </c>
       <c r="P49" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q49">
         <v>3.6</v>
@@ -11509,7 +11512,7 @@
         <v>97</v>
       </c>
       <c r="P50" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q50">
         <v>2.38</v>
@@ -11590,7 +11593,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ50">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR50">
         <v>1.23</v>
@@ -11921,7 +11924,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q52">
         <v>2.38</v>
@@ -11999,7 +12002,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ52">
         <v>0.67</v>
@@ -12127,7 +12130,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q53">
         <v>2.38</v>
@@ -12333,7 +12336,7 @@
         <v>97</v>
       </c>
       <c r="P54" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -12539,7 +12542,7 @@
         <v>97</v>
       </c>
       <c r="P55" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -13363,7 +13366,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q59">
         <v>4.75</v>
@@ -13569,7 +13572,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q60">
         <v>5.5</v>
@@ -13647,7 +13650,7 @@
         <v>1.67</v>
       </c>
       <c r="AP60">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ60">
         <v>1.64</v>
@@ -14062,7 +14065,7 @@
         <v>2.54</v>
       </c>
       <c r="AQ62">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR62">
         <v>1.4</v>
@@ -14805,7 +14808,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -15217,7 +15220,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15629,7 +15632,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15835,7 +15838,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16247,7 +16250,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q73">
         <v>2.1</v>
@@ -17277,7 +17280,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q78">
         <v>2.63</v>
@@ -17483,7 +17486,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -17689,7 +17692,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17895,7 +17898,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -18307,7 +18310,7 @@
         <v>151</v>
       </c>
       <c r="P83" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -18513,7 +18516,7 @@
         <v>152</v>
       </c>
       <c r="P84" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -18797,7 +18800,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ85">
         <v>0.92</v>
@@ -18925,7 +18928,7 @@
         <v>97</v>
       </c>
       <c r="P86" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -19131,7 +19134,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q87">
         <v>2.38</v>
@@ -19418,7 +19421,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ88">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR88">
         <v>1.66</v>
@@ -19749,7 +19752,7 @@
         <v>97</v>
       </c>
       <c r="P90" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -20573,7 +20576,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20779,7 +20782,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -21397,7 +21400,7 @@
         <v>97</v>
       </c>
       <c r="P98" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q98">
         <v>3.5</v>
@@ -21887,7 +21890,7 @@
         <v>1.6</v>
       </c>
       <c r="AP100">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ100">
         <v>1.09</v>
@@ -22221,7 +22224,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q102">
         <v>2.63</v>
@@ -22427,7 +22430,7 @@
         <v>97</v>
       </c>
       <c r="P103" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -23045,7 +23048,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q106">
         <v>1.83</v>
@@ -23251,7 +23254,7 @@
         <v>166</v>
       </c>
       <c r="P107" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q107">
         <v>2.63</v>
@@ -23538,7 +23541,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ108">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR108">
         <v>1.59</v>
@@ -24075,7 +24078,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -24281,7 +24284,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q112">
         <v>2.2</v>
@@ -24487,7 +24490,7 @@
         <v>138</v>
       </c>
       <c r="P113" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24899,7 +24902,7 @@
         <v>97</v>
       </c>
       <c r="P115" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -25311,7 +25314,7 @@
         <v>93</v>
       </c>
       <c r="P117" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25389,7 +25392,7 @@
         <v>1.67</v>
       </c>
       <c r="AP117">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ117">
         <v>1.69</v>
@@ -26834,7 +26837,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ124">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR124">
         <v>1.22</v>
@@ -27371,7 +27374,7 @@
         <v>132</v>
       </c>
       <c r="P127" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q127">
         <v>3.6</v>
@@ -27655,7 +27658,7 @@
         <v>1</v>
       </c>
       <c r="AP128">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ128">
         <v>1.5</v>
@@ -27989,7 +27992,7 @@
         <v>183</v>
       </c>
       <c r="P130" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q130">
         <v>3.4</v>
@@ -28195,7 +28198,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q131">
         <v>2.5</v>
@@ -28401,7 +28404,7 @@
         <v>134</v>
       </c>
       <c r="P132" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q132">
         <v>3.2</v>
@@ -28607,7 +28610,7 @@
         <v>185</v>
       </c>
       <c r="P133" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q133">
         <v>3.75</v>
@@ -29225,7 +29228,7 @@
         <v>188</v>
       </c>
       <c r="P136" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29637,7 +29640,7 @@
         <v>190</v>
       </c>
       <c r="P138" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -30461,7 +30464,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -30873,7 +30876,7 @@
         <v>196</v>
       </c>
       <c r="P144" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q144">
         <v>2.63</v>
@@ -30954,7 +30957,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ144">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR144">
         <v>1.45</v>
@@ -31491,7 +31494,7 @@
         <v>97</v>
       </c>
       <c r="P147" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31697,7 +31700,7 @@
         <v>178</v>
       